--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1prac.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1prac.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="model1" sheetId="5" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="229">
   <si>
     <t>PE</t>
   </si>
@@ -872,6 +872,62 @@
     <t xml:space="preserve">2022/9/29
 </t>
   </si>
+  <si>
+    <t xml:space="preserve">2022/10/10
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/10/11
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/10/12
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/10/13
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/10/14
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/10/17
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/10/18
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/10/19
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/10/20
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/10/21
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/10/24
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/10/25
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/10/26
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/10/27
+</t>
+  </si>
 </sst>
 </file>
 
@@ -1387,7 +1443,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1433,103 +1488,103 @@
             <c:numRef>
               <c:f>model1!时间</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>43889</c:v>
+                  <c:v>3.25108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43921</c:v>
+                  <c:v>2.8991500000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43951</c:v>
+                  <c:v>3.17509</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43980</c:v>
+                  <c:v>3.1906699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44012</c:v>
+                  <c:v>3.6513100000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44043</c:v>
+                  <c:v>4.1706000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44074</c:v>
+                  <c:v>4.1298999999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44104</c:v>
+                  <c:v>3.9869400000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44134</c:v>
+                  <c:v>4.2014499999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44165</c:v>
+                  <c:v>4.27712</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44196</c:v>
+                  <c:v>4.7245600000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44225</c:v>
+                  <c:v>4.9833500000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44253</c:v>
+                  <c:v>4.7232599999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44286</c:v>
+                  <c:v>4.4379900000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44316</c:v>
+                  <c:v>4.7860299999999993</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44347</c:v>
+                  <c:v>4.9806599999999994</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44377</c:v>
+                  <c:v>5.1114799999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44407</c:v>
+                  <c:v>4.9776999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44439</c:v>
+                  <c:v>4.7613100000000008</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44469</c:v>
+                  <c:v>4.7106400000000006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44498</c:v>
+                  <c:v>4.8678999999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44530</c:v>
+                  <c:v>4.9547099609374996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44561</c:v>
+                  <c:v>4.8630097656249998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44589</c:v>
+                  <c:v>4.3440297851562502</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44620</c:v>
+                  <c:v>4.3355400390624999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44651</c:v>
+                  <c:v>3.8658500976562502</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44680</c:v>
+                  <c:v>3.5012099609375</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44712</c:v>
+                  <c:v>3.6361599121093748</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44742</c:v>
+                  <c:v>4.1096201171875002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44771</c:v>
+                  <c:v>3.8724699707031252</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44804</c:v>
+                  <c:v>3.7022099609375001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44834</c:v>
+                  <c:v>3.3477299804687499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1537,249 +1592,6 @@
           <c:val>
             <c:numRef>
               <c:f>model1!资金</c:f>
-              <c:numCache>
-                <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>26000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>28000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>34000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>36000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>38000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>42000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>46000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>48000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>52000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>54000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>56000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>58000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>60000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>62000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>64000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E69F-429A-B459-D6A53AA60C2B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>model1!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>total assets</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>model1!时间</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>43889</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43921</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43951</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43980</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44012</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44043</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44074</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44104</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44134</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44165</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44196</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44225</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44253</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44286</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44316</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44347</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44377</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44407</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>44439</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>44469</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44498</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44530</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>44561</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>44589</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>44620</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>44651</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>44680</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44712</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>44742</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>44771</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>44804</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>44834</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="32"/>
@@ -1885,20 +1697,20 @@
           <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E69F-429A-B459-D6A53AA60C2B}"/>
+              <c16:uniqueId val="{00000000-E69F-429A-B459-D6A53AA60C2B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>model1!$I$1</c:f>
+              <c:f>model1!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>profit amount</c:v>
+                  <c:v>total assets</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1906,7 +1718,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1919,110 +1731,110 @@
             <c:numRef>
               <c:f>model1!时间</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>43889</c:v>
+                  <c:v>3.25108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43921</c:v>
+                  <c:v>2.8991500000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43951</c:v>
+                  <c:v>3.17509</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43980</c:v>
+                  <c:v>3.1906699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44012</c:v>
+                  <c:v>3.6513100000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44043</c:v>
+                  <c:v>4.1706000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44074</c:v>
+                  <c:v>4.1298999999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44104</c:v>
+                  <c:v>3.9869400000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44134</c:v>
+                  <c:v>4.2014499999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44165</c:v>
+                  <c:v>4.27712</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44196</c:v>
+                  <c:v>4.7245600000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44225</c:v>
+                  <c:v>4.9833500000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44253</c:v>
+                  <c:v>4.7232599999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44286</c:v>
+                  <c:v>4.4379900000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44316</c:v>
+                  <c:v>4.7860299999999993</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44347</c:v>
+                  <c:v>4.9806599999999994</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44377</c:v>
+                  <c:v>5.1114799999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44407</c:v>
+                  <c:v>4.9776999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44439</c:v>
+                  <c:v>4.7613100000000008</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44469</c:v>
+                  <c:v>4.7106400000000006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44498</c:v>
+                  <c:v>4.8678999999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44530</c:v>
+                  <c:v>4.9547099609374996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44561</c:v>
+                  <c:v>4.8630097656249998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44589</c:v>
+                  <c:v>4.3440297851562502</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44620</c:v>
+                  <c:v>4.3355400390624999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44651</c:v>
+                  <c:v>3.8658500976562502</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44680</c:v>
+                  <c:v>3.5012099609375</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44712</c:v>
+                  <c:v>3.6361599121093748</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44742</c:v>
+                  <c:v>4.1096201171875002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44771</c:v>
+                  <c:v>3.8724699707031252</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44804</c:v>
+                  <c:v>3.7022099609375001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44834</c:v>
+                  <c:v>3.3477299804687499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>model1!金额</c:f>
+              <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="32"/>
@@ -2128,6 +1940,153 @@
           <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E69F-429A-B459-D6A53AA60C2B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>model1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>profit amount</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>model1!时间</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>3.25108</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8991500000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.17509</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1906699999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6513100000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1706000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.1298999999999992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9869400000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.2014499999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.27712</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.7245600000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.9833500000000006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.7232599999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.4379900000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.7860299999999993</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.9806599999999994</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.1114799999999994</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.9776999999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.7613100000000008</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.7106400000000006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.8678999999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.9547099609374996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.8630097656249998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.3440297851562502</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.3355400390624999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.8658500976562502</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.5012099609375</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.6361599121093748</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.1096201171875002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.8724699707031252</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.7022099609375001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.3477299804687499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>model1!金额</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E69F-429A-B459-D6A53AA60C2B}"/>
             </c:ext>
           </c:extLst>
@@ -2142,17 +2101,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="88693376"/>
-        <c:axId val="505404032"/>
+        <c:axId val="101972992"/>
+        <c:axId val="108614784"/>
       </c:lineChart>
-      <c:dateAx>
-        <c:axId val="88693376"/>
+      <c:catAx>
+        <c:axId val="101972992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -2189,14 +2148,15 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="505404032"/>
+        <c:crossAx val="108614784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="505404032"/>
+        <c:axId val="108614784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2247,7 +2207,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88693376"/>
+        <c:crossAx val="101972992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2261,7 +2221,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15511,8 +15470,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -16917,9 +16876,9 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D367"/>
+  <dimension ref="A1:D382"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -22597,7 +22556,7 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="18">
-        <f t="shared" ref="A356:A367" si="3">A355+1</f>
+        <f t="shared" ref="A356:A382" si="3">A355+1</f>
         <v>354</v>
       </c>
       <c r="B356" s="19" t="s">
@@ -22785,6 +22744,246 @@
       <c r="D367" s="18">
         <f>SUM(C$3:C367)/A367</f>
         <v>32.601424623862997</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368" s="18">
+        <f t="shared" si="3"/>
+        <v>366</v>
+      </c>
+      <c r="B368" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="C368" s="20">
+        <v>22.040000920000001</v>
+      </c>
+      <c r="D368" s="18">
+        <f>SUM(C$3:C368)/A368</f>
+        <v>32.57256827494534</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="18">
+        <f t="shared" si="3"/>
+        <v>367</v>
+      </c>
+      <c r="B369" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="C369" s="20">
+        <v>22.239999770000001</v>
+      </c>
+      <c r="D369" s="18">
+        <f>SUM(C$3:C369)/A369</f>
+        <v>32.544414137329682</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="18">
+        <f t="shared" si="3"/>
+        <v>368</v>
+      </c>
+      <c r="B370" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="C370" s="20">
+        <v>22.920000080000001</v>
+      </c>
+      <c r="D370" s="18">
+        <f>SUM(C$3:C370)/A370</f>
+        <v>32.518260838260851</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="18">
+        <f t="shared" si="3"/>
+        <v>369</v>
+      </c>
+      <c r="B371" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="C371" s="20">
+        <v>22.850000380000001</v>
+      </c>
+      <c r="D371" s="18">
+        <f>SUM(C$3:C371)/A371</f>
+        <v>32.492059590406484</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="18">
+        <f t="shared" si="3"/>
+        <v>370</v>
+      </c>
+      <c r="B372" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="C372" s="20">
+        <v>23.649999619999999</v>
+      </c>
+      <c r="D372" s="18">
+        <f>SUM(C$3:C372)/A372</f>
+        <v>32.468162131027007</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" s="18">
+        <f t="shared" si="3"/>
+        <v>371</v>
+      </c>
+      <c r="B373" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="C373" s="20">
+        <v>23.719999309999999</v>
+      </c>
+      <c r="D373" s="18">
+        <f>SUM(C$3:C373)/A373</f>
+        <v>32.444582177331519</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="18">
+        <f t="shared" si="3"/>
+        <v>372</v>
+      </c>
+      <c r="B374" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="C374" s="20">
+        <v>23.850000380000001</v>
+      </c>
+      <c r="D374" s="18">
+        <f>SUM(C$3:C374)/A374</f>
+        <v>32.421478462822563</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" s="18">
+        <f t="shared" si="3"/>
+        <v>373</v>
+      </c>
+      <c r="B375" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="C375" s="20">
+        <v>23.590000150000002</v>
+      </c>
+      <c r="D375" s="18">
+        <f>SUM(C$3:C375)/A375</f>
+        <v>32.39780157726539</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="18">
+        <f t="shared" si="3"/>
+        <v>374</v>
+      </c>
+      <c r="B376" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="C376" s="20">
+        <v>23.399999619999999</v>
+      </c>
+      <c r="D376" s="18">
+        <f>SUM(C$3:C376)/A376</f>
+        <v>32.373743283262009</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="18">
+        <f t="shared" si="3"/>
+        <v>375</v>
+      </c>
+      <c r="B377" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C377" s="20">
+        <v>23.340000150000002</v>
+      </c>
+      <c r="D377" s="18">
+        <f>SUM(C$3:C377)/A377</f>
+        <v>32.349653301573312</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="18">
+        <f t="shared" si="3"/>
+        <v>376</v>
+      </c>
+      <c r="B378" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="C378" s="20">
+        <v>22.829999919999999</v>
+      </c>
+      <c r="D378" s="18">
+        <f>SUM(C$3:C378)/A378</f>
+        <v>32.324335074494662</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="18">
+        <f t="shared" si="3"/>
+        <v>377</v>
+      </c>
+      <c r="B379" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="C379" s="20">
+        <v>22.739999770000001</v>
+      </c>
+      <c r="D379" s="18">
+        <f>SUM(C$3:C379)/A379</f>
+        <v>32.298912434429688</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="18">
+        <f t="shared" si="3"/>
+        <v>378</v>
+      </c>
+      <c r="B380" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="C380" s="20">
+        <v>23.18000031</v>
+      </c>
+      <c r="D380" s="18">
+        <f>SUM(C$3:C380)/A380</f>
+        <v>32.274788328280401</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="18">
+        <f t="shared" si="3"/>
+        <v>379</v>
+      </c>
+      <c r="B381" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C381" s="20">
+        <v>22.959999079999999</v>
+      </c>
+      <c r="D381" s="18">
+        <f>SUM(C$3:C381)/A381</f>
+        <v>32.250211047941931</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" s="18">
+        <f t="shared" si="3"/>
+        <v>380</v>
+      </c>
+      <c r="B382" s="19">
+        <v>44862</v>
+      </c>
+      <c r="C382" s="20">
+        <v>22.13999939</v>
+      </c>
+      <c r="D382" s="18">
+        <f>SUM(C$3:C382)/A382</f>
+        <v>32.223605227789449</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1prac.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1prac.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="model1" sheetId="5" r:id="rId1"/>
@@ -940,7 +940,7 @@
     <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="180" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1443,6 +1443,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1488,103 +1489,103 @@
             <c:numRef>
               <c:f>model1!时间</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>3.25108</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8991500000000001</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.17509</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1906699999999999</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6513100000000001</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1706000000000003</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1298999999999992</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9869400000000002</c:v>
+                  <c:v>44104</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2014499999999995</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.27712</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7245600000000003</c:v>
+                  <c:v>44196</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.9833500000000006</c:v>
+                  <c:v>44225</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7232599999999998</c:v>
+                  <c:v>44253</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4379900000000001</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.7860299999999993</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.9806599999999994</c:v>
+                  <c:v>44347</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1114799999999994</c:v>
+                  <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.9776999999999996</c:v>
+                  <c:v>44407</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.7613100000000008</c:v>
+                  <c:v>44439</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.7106400000000006</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.8678999999999997</c:v>
+                  <c:v>44498</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.9547099609374996</c:v>
+                  <c:v>44530</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.8630097656249998</c:v>
+                  <c:v>44561</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.3440297851562502</c:v>
+                  <c:v>44589</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.3355400390624999</c:v>
+                  <c:v>44620</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.8658500976562502</c:v>
+                  <c:v>44651</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.5012099609375</c:v>
+                  <c:v>44680</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.6361599121093748</c:v>
+                  <c:v>44712</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.1096201171875002</c:v>
+                  <c:v>44742</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.8724699707031252</c:v>
+                  <c:v>44771</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.7022099609375001</c:v>
+                  <c:v>44804</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.3477299804687499</c:v>
+                  <c:v>44834</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1592,6 +1593,249 @@
           <c:val>
             <c:numRef>
               <c:f>model1!资金</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>46000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>48000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>52000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>54000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>56000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>58000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>62000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>64000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E69F-429A-B459-D6A53AA60C2B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>model1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>total assets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>model1!时间</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>43889</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43951</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43980</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44043</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44134</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44225</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44253</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44286</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44316</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44347</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44377</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44407</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44439</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44469</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44498</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44530</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44561</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44589</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44620</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44651</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44680</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44712</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44742</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44771</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44804</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44834</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="32"/>
@@ -1697,20 +1941,20 @@
           <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E69F-429A-B459-D6A53AA60C2B}"/>
+              <c16:uniqueId val="{00000001-E69F-429A-B459-D6A53AA60C2B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>model1!$H$1</c:f>
+              <c:f>model1!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>total assets</c:v>
+                  <c:v>profit amount</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1718,7 +1962,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1731,110 +1975,110 @@
             <c:numRef>
               <c:f>model1!时间</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>3.25108</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8991500000000001</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.17509</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1906699999999999</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6513100000000001</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1706000000000003</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1298999999999992</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9869400000000002</c:v>
+                  <c:v>44104</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2014499999999995</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.27712</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7245600000000003</c:v>
+                  <c:v>44196</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.9833500000000006</c:v>
+                  <c:v>44225</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7232599999999998</c:v>
+                  <c:v>44253</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4379900000000001</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.7860299999999993</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.9806599999999994</c:v>
+                  <c:v>44347</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1114799999999994</c:v>
+                  <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.9776999999999996</c:v>
+                  <c:v>44407</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.7613100000000008</c:v>
+                  <c:v>44439</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.7106400000000006</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.8678999999999997</c:v>
+                  <c:v>44498</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.9547099609374996</c:v>
+                  <c:v>44530</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.8630097656249998</c:v>
+                  <c:v>44561</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.3440297851562502</c:v>
+                  <c:v>44589</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.3355400390624999</c:v>
+                  <c:v>44620</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.8658500976562502</c:v>
+                  <c:v>44651</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.5012099609375</c:v>
+                  <c:v>44680</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.6361599121093748</c:v>
+                  <c:v>44712</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.1096201171875002</c:v>
+                  <c:v>44742</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.8724699707031252</c:v>
+                  <c:v>44771</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.7022099609375001</c:v>
+                  <c:v>44804</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.3477299804687499</c:v>
+                  <c:v>44834</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>model1!资产</c:f>
+              <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="32"/>
@@ -1940,153 +2184,6 @@
           <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E69F-429A-B459-D6A53AA60C2B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>model1!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>profit amount</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>model1!时间</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>3.25108</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.8991500000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.17509</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.1906699999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.6513100000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.1706000000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.1298999999999992</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.9869400000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.2014499999999995</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.27712</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.7245600000000003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.9833500000000006</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.7232599999999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.4379900000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.7860299999999993</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.9806599999999994</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.1114799999999994</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.9776999999999996</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.7613100000000008</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.7106400000000006</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.8678999999999997</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4.9547099609374996</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4.8630097656249998</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4.3440297851562502</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4.3355400390624999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.8658500976562502</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3.5012099609375</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3.6361599121093748</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4.1096201171875002</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.8724699707031252</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.7022099609375001</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.3477299804687499</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>model1!金额</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E69F-429A-B459-D6A53AA60C2B}"/>
             </c:ext>
           </c:extLst>
@@ -2101,17 +2198,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101972992"/>
-        <c:axId val="108614784"/>
+        <c:axId val="148381056"/>
+        <c:axId val="210142720"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="101972992"/>
+      <c:dateAx>
+        <c:axId val="148381056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -2148,15 +2245,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108614784"/>
+        <c:crossAx val="210142720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="108614784"/>
+        <c:axId val="210142720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2207,7 +2303,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101972992"/>
+        <c:crossAx val="148381056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2221,6 +2317,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2329,6 +2426,7 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="szse_innovation_100"/>
+      <sheetName val="szseinnovation100index"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -15174,7 +15272,328 @@
             <v>3.3477299804687499</v>
           </cell>
         </row>
+        <row r="644">
+          <cell r="A644">
+            <v>44844</v>
+          </cell>
+          <cell r="B644">
+            <v>3343.81005859375</v>
+          </cell>
+          <cell r="C644">
+            <v>3346.669921875</v>
+          </cell>
+          <cell r="D644">
+            <v>3256.929931640625</v>
+          </cell>
+          <cell r="E644">
+            <v>3261.929931640625</v>
+          </cell>
+          <cell r="F644">
+            <v>3.2619299316406249</v>
+          </cell>
+        </row>
+        <row r="645">
+          <cell r="A645">
+            <v>44845</v>
+          </cell>
+          <cell r="B645">
+            <v>3279.3798828125</v>
+          </cell>
+          <cell r="C645">
+            <v>3299.820068359375</v>
+          </cell>
+          <cell r="D645">
+            <v>3265.889892578125</v>
+          </cell>
+          <cell r="E645">
+            <v>3289.3798828125</v>
+          </cell>
+          <cell r="F645">
+            <v>3.2893798828124998</v>
+          </cell>
+        </row>
+        <row r="646">
+          <cell r="A646">
+            <v>44846</v>
+          </cell>
+          <cell r="B646">
+            <v>3282.8701171875</v>
+          </cell>
+          <cell r="C646">
+            <v>3394.090087890625</v>
+          </cell>
+          <cell r="D646">
+            <v>3246.179931640625</v>
+          </cell>
+          <cell r="E646">
+            <v>3393.550048828125</v>
+          </cell>
+          <cell r="F646">
+            <v>3.3935500488281249</v>
+          </cell>
+        </row>
+        <row r="647">
+          <cell r="A647">
+            <v>44847</v>
+          </cell>
+          <cell r="B647">
+            <v>3370.300048828125</v>
+          </cell>
+          <cell r="C647">
+            <v>3419.0400390625</v>
+          </cell>
+          <cell r="D647">
+            <v>3360.389892578125</v>
+          </cell>
+          <cell r="E647">
+            <v>3384.889892578125</v>
+          </cell>
+          <cell r="F647">
+            <v>3.384889892578125</v>
+          </cell>
+        </row>
+        <row r="648">
+          <cell r="A648">
+            <v>44848</v>
+          </cell>
+          <cell r="B648">
+            <v>3422.25</v>
+          </cell>
+          <cell r="C648">
+            <v>3514.3798828125</v>
+          </cell>
+          <cell r="D648">
+            <v>3408.35009765625</v>
+          </cell>
+          <cell r="E648">
+            <v>3494.800048828125</v>
+          </cell>
+          <cell r="F648">
+            <v>3.4948000488281248</v>
+          </cell>
+        </row>
+        <row r="649">
+          <cell r="A649">
+            <v>44851</v>
+          </cell>
+          <cell r="B649">
+            <v>3476.409912109375</v>
+          </cell>
+          <cell r="C649">
+            <v>3515.889892578125</v>
+          </cell>
+          <cell r="D649">
+            <v>3470.8701171875</v>
+          </cell>
+          <cell r="E649">
+            <v>3512.5</v>
+          </cell>
+          <cell r="F649">
+            <v>3.5125000000000002</v>
+          </cell>
+        </row>
+        <row r="650">
+          <cell r="A650">
+            <v>44852</v>
+          </cell>
+          <cell r="B650">
+            <v>3541.27001953125</v>
+          </cell>
+          <cell r="C650">
+            <v>3558.300048828125</v>
+          </cell>
+          <cell r="D650">
+            <v>3508.800048828125</v>
+          </cell>
+          <cell r="E650">
+            <v>3528.550048828125</v>
+          </cell>
+          <cell r="F650">
+            <v>3.5285500488281252</v>
+          </cell>
+        </row>
+        <row r="651">
+          <cell r="A651">
+            <v>44853</v>
+          </cell>
+          <cell r="B651">
+            <v>3518.679931640625</v>
+          </cell>
+          <cell r="C651">
+            <v>3538.050048828125</v>
+          </cell>
+          <cell r="D651">
+            <v>3488.25</v>
+          </cell>
+          <cell r="E651">
+            <v>3488.52001953125</v>
+          </cell>
+          <cell r="F651">
+            <v>3.4885200195312498</v>
+          </cell>
+        </row>
+        <row r="652">
+          <cell r="A652">
+            <v>44854</v>
+          </cell>
+          <cell r="B652">
+            <v>3458.52001953125</v>
+          </cell>
+          <cell r="C652">
+            <v>3513.31005859375</v>
+          </cell>
+          <cell r="D652">
+            <v>3414.3701171875</v>
+          </cell>
+          <cell r="E652">
+            <v>3460.64990234375</v>
+          </cell>
+          <cell r="F652">
+            <v>3.46064990234375</v>
+          </cell>
+        </row>
+        <row r="653">
+          <cell r="A653">
+            <v>44855</v>
+          </cell>
+          <cell r="B653">
+            <v>3447.35009765625</v>
+          </cell>
+          <cell r="C653">
+            <v>3468.64990234375</v>
+          </cell>
+          <cell r="D653">
+            <v>3434.070068359375</v>
+          </cell>
+          <cell r="E653">
+            <v>3452.3798828125</v>
+          </cell>
+          <cell r="F653">
+            <v>3.4523798828125001</v>
+          </cell>
+        </row>
+        <row r="654">
+          <cell r="A654">
+            <v>44858</v>
+          </cell>
+          <cell r="B654">
+            <v>3446.139892578125</v>
+          </cell>
+          <cell r="C654">
+            <v>3487.570068359375</v>
+          </cell>
+          <cell r="D654">
+            <v>3357.989990234375</v>
+          </cell>
+          <cell r="E654">
+            <v>3378.89990234375</v>
+          </cell>
+          <cell r="F654">
+            <v>3.37889990234375</v>
+          </cell>
+        </row>
+        <row r="655">
+          <cell r="A655">
+            <v>44859</v>
+          </cell>
+          <cell r="B655">
+            <v>3364.510009765625</v>
+          </cell>
+          <cell r="C655">
+            <v>3407.090087890625</v>
+          </cell>
+          <cell r="D655">
+            <v>3325.6298828125</v>
+          </cell>
+          <cell r="E655">
+            <v>3367.929931640625</v>
+          </cell>
+          <cell r="F655">
+            <v>3.3679299316406248</v>
+          </cell>
+        </row>
+        <row r="656">
+          <cell r="A656">
+            <v>44860</v>
+          </cell>
+          <cell r="B656">
+            <v>3380.97998046875</v>
+          </cell>
+          <cell r="C656">
+            <v>3468.889892578125</v>
+          </cell>
+          <cell r="D656">
+            <v>3374.47998046875</v>
+          </cell>
+          <cell r="E656">
+            <v>3434.7099609375</v>
+          </cell>
+          <cell r="F656">
+            <v>3.4347099609375</v>
+          </cell>
+        </row>
+        <row r="657">
+          <cell r="A657">
+            <v>44861</v>
+          </cell>
+          <cell r="B657">
+            <v>3445.030029296875</v>
+          </cell>
+          <cell r="C657">
+            <v>3451.7099609375</v>
+          </cell>
+          <cell r="D657">
+            <v>3407.320068359375</v>
+          </cell>
+          <cell r="E657">
+            <v>3408</v>
+          </cell>
+          <cell r="F657">
+            <v>3.4079999999999999</v>
+          </cell>
+        </row>
+        <row r="658">
+          <cell r="A658">
+            <v>44862</v>
+          </cell>
+          <cell r="B658">
+            <v>3374.10009765625</v>
+          </cell>
+          <cell r="C658">
+            <v>3387.27001953125</v>
+          </cell>
+          <cell r="D658">
+            <v>3278.010009765625</v>
+          </cell>
+          <cell r="E658">
+            <v>3287.969970703125</v>
+          </cell>
+          <cell r="F658">
+            <v>3.2879699707031249</v>
+          </cell>
+        </row>
+        <row r="659">
+          <cell r="A659">
+            <v>44865</v>
+          </cell>
+          <cell r="B659">
+            <v>3256.2900390625</v>
+          </cell>
+          <cell r="C659">
+            <v>3338.070068359375</v>
+          </cell>
+          <cell r="D659">
+            <v>3254.77001953125</v>
+          </cell>
+          <cell r="E659">
+            <v>3299.39990234375</v>
+          </cell>
+          <cell r="F659">
+            <v>3.2993999023437501</v>
+          </cell>
+        </row>
       </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -15470,12 +15889,12 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -15496,7 +15915,7 @@
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="10" customFormat="1" ht="27" customHeight="1">
+    <row r="1" spans="1:22" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>180</v>
       </c>
@@ -15526,7 +15945,7 @@
       </c>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:22" ht="14.1" customHeight="1">
+    <row r="2" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="4">
@@ -15542,7 +15961,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:22" ht="14.1" customHeight="1">
+    <row r="3" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>43889</v>
       </c>
@@ -15611,7 +16030,7 @@
         <v>-22000</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="14.1" customHeight="1">
+    <row r="4" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>43921</v>
       </c>
@@ -15686,7 +16105,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="14.1" customHeight="1">
+    <row r="5" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>43951</v>
       </c>
@@ -15756,7 +16175,7 @@
         <v>53008.069006718506</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="14.1" customHeight="1">
+    <row r="6" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>43980</v>
       </c>
@@ -15798,7 +16217,7 @@
         <v>9.9835199022272558E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="14.1" customHeight="1">
+    <row r="7" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>44012</v>
       </c>
@@ -15836,7 +16255,7 @@
       </c>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:22" ht="14.1" customHeight="1">
+    <row r="8" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>44043</v>
       </c>
@@ -15874,7 +16293,7 @@
       </c>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:22" ht="14.1" customHeight="1">
+    <row r="9" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>44074</v>
       </c>
@@ -15912,7 +16331,7 @@
       </c>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:22" ht="14.1" customHeight="1">
+    <row r="10" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>44104</v>
       </c>
@@ -15950,7 +16369,7 @@
       </c>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:22" ht="14.1" customHeight="1">
+    <row r="11" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>44134</v>
       </c>
@@ -15988,7 +16407,7 @@
       </c>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:22" ht="14.1" customHeight="1">
+    <row r="12" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>44165</v>
       </c>
@@ -16026,7 +16445,7 @@
       </c>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:22" ht="14.1" customHeight="1">
+    <row r="13" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>44196</v>
       </c>
@@ -16064,7 +16483,7 @@
       </c>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:22" ht="14.1" customHeight="1">
+    <row r="14" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>44225</v>
       </c>
@@ -16102,7 +16521,7 @@
       </c>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:22" ht="14.1" customHeight="1">
+    <row r="15" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>44253</v>
       </c>
@@ -16140,7 +16559,7 @@
       </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:22" ht="14.1" customHeight="1">
+    <row r="16" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>44286</v>
       </c>
@@ -16178,7 +16597,7 @@
       </c>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:12" ht="14.1" customHeight="1">
+    <row r="17" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
         <v>44316</v>
       </c>
@@ -16216,7 +16635,7 @@
       </c>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:12" ht="14.1" customHeight="1">
+    <row r="18" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
         <v>44347</v>
       </c>
@@ -16254,7 +16673,7 @@
       </c>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:12" ht="14.1" customHeight="1">
+    <row r="19" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
         <v>44377</v>
       </c>
@@ -16292,7 +16711,7 @@
       </c>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:12" ht="14.1" customHeight="1">
+    <row r="20" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14">
         <v>44407</v>
       </c>
@@ -16330,7 +16749,7 @@
       </c>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:12" ht="14.1" customHeight="1">
+    <row r="21" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14">
         <v>44439</v>
       </c>
@@ -16369,7 +16788,7 @@
       <c r="J21" s="6"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" ht="14.1" customHeight="1">
+    <row r="22" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14">
         <v>44469</v>
       </c>
@@ -16407,7 +16826,7 @@
       </c>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:12" ht="14.1" customHeight="1">
+    <row r="23" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14">
         <v>44498</v>
       </c>
@@ -16445,7 +16864,7 @@
       </c>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:12" ht="14.1" customHeight="1">
+    <row r="24" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14">
         <v>44530</v>
       </c>
@@ -16483,7 +16902,7 @@
       </c>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:12" ht="14.1" customHeight="1">
+    <row r="25" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14">
         <v>44561</v>
       </c>
@@ -16521,7 +16940,7 @@
       </c>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="1:12" ht="14.1" customHeight="1">
+    <row r="26" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14">
         <v>44589</v>
       </c>
@@ -16559,7 +16978,7 @@
       </c>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="1:12" ht="14.1" customHeight="1">
+    <row r="27" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14">
         <v>44620</v>
       </c>
@@ -16597,7 +17016,7 @@
       </c>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:12" ht="14.1" customHeight="1">
+    <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14">
         <v>44651</v>
       </c>
@@ -16635,7 +17054,7 @@
       </c>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:12" ht="14.1" customHeight="1">
+    <row r="29" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14">
         <v>44680</v>
       </c>
@@ -16673,7 +17092,7 @@
       </c>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:12" ht="14.1" customHeight="1">
+    <row r="30" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14">
         <v>44712</v>
       </c>
@@ -16711,7 +17130,7 @@
       </c>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:12" ht="14.1" customHeight="1">
+    <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14">
         <v>44742</v>
       </c>
@@ -16749,7 +17168,7 @@
       </c>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:12" ht="14.1" customHeight="1">
+    <row r="32" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14">
         <v>44771</v>
       </c>
@@ -16787,7 +17206,7 @@
       </c>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:12" ht="14.1" customHeight="1">
+    <row r="33" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14">
         <v>44804</v>
       </c>
@@ -16826,7 +17245,7 @@
       <c r="J33" s="6"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="1:12" ht="12.75">
+    <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="14">
         <v>44834</v>
       </c>
@@ -16876,13 +17295,13 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D382"/>
+  <dimension ref="A1:D383"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="18"/>
     <col min="2" max="2" width="8.5" style="18" customWidth="1"/>
@@ -16890,7 +17309,7 @@
     <col min="4" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="30" t="s">
         <v>194</v>
       </c>
@@ -16898,7 +17317,7 @@
         <v>399088</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="12.75" customHeight="1">
+    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="30"/>
       <c r="C2" s="28" t="s">
         <v>0</v>
@@ -16907,7 +17326,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="12.75" customHeight="1">
+    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -16922,7 +17341,7 @@
         <v>45.12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18">
         <f t="shared" ref="A4:A36" si="0">A3+1</f>
         <v>2</v>
@@ -16938,7 +17357,7 @@
         <v>44.965000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="12.75" customHeight="1">
+    <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -16954,7 +17373,7 @@
         <v>44.99666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1">
+    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -16970,7 +17389,7 @@
         <v>44.792500000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="12.75" customHeight="1">
+    <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -16986,7 +17405,7 @@
         <v>44.440000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="12.75" customHeight="1">
+    <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -17002,7 +17421,7 @@
         <v>44.256666666666668</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="12.75" customHeight="1">
+    <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -17018,7 +17437,7 @@
         <v>44.252857142857145</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="12.75" customHeight="1">
+    <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -17034,7 +17453,7 @@
         <v>44.220000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="12.75" customHeight="1">
+    <row r="11" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -17050,7 +17469,7 @@
         <v>44.181111111111115</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="12.75" customHeight="1">
+    <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -17066,7 +17485,7 @@
         <v>44.341000000000008</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="12.75" customHeight="1">
+    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -17082,7 +17501,7 @@
         <v>44.458181818181828</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="12.75" customHeight="1">
+    <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -17098,7 +17517,7 @@
         <v>44.577500000000008</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="12.75" customHeight="1">
+    <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -17114,7 +17533,7 @@
         <v>44.703076923076928</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="12.75" customHeight="1">
+    <row r="16" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -17130,7 +17549,7 @@
         <v>44.860000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="12.75" customHeight="1">
+    <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -17146,7 +17565,7 @@
         <v>44.968000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="12.75" customHeight="1">
+    <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -17162,7 +17581,7 @@
         <v>45.078750000000007</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="12.75" customHeight="1">
+    <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -17178,7 +17597,7 @@
         <v>45.214117647058828</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1">
+    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="18">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -17194,7 +17613,7 @@
         <v>45.345555555555563</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="12.75" customHeight="1">
+    <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="18">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -17210,7 +17629,7 @@
         <v>45.46631578947369</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="12.75" customHeight="1">
+    <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -17226,7 +17645,7 @@
         <v>45.062500000000007</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="12.75" customHeight="1">
+    <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="18">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -17242,7 +17661,7 @@
         <v>44.643333333333338</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="12.75" customHeight="1">
+    <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="18">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -17258,7 +17677,7 @@
         <v>44.269090909090913</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="12.75" customHeight="1">
+    <row r="25" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="18">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -17274,7 +17693,7 @@
         <v>43.928695652173921</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="12.75" customHeight="1">
+    <row r="26" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="18">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -17290,7 +17709,7 @@
         <v>43.627500000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="12.75" customHeight="1">
+    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="18">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -17306,7 +17725,7 @@
         <v>43.332400000000007</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="12.75" customHeight="1">
+    <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="18">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -17322,7 +17741,7 @@
         <v>43.088461538461544</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="12.75" customHeight="1">
+    <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="18">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -17338,7 +17757,7 @@
         <v>42.901851851851859</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="12.75" customHeight="1">
+    <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="18">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -17354,7 +17773,7 @@
         <v>42.726071428571437</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="12.75" customHeight="1">
+    <row r="31" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="18">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -17370,7 +17789,7 @@
         <v>42.570000000000007</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="12.75" customHeight="1">
+    <row r="32" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="18">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -17386,7 +17805,7 @@
         <v>42.435000000000009</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="12.75" customHeight="1">
+    <row r="33" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="18">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -17402,7 +17821,7 @@
         <v>42.298387096774199</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="12.75" customHeight="1">
+    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="18">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -17418,7 +17837,7 @@
         <v>42.179062500000008</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="12.75" customHeight="1">
+    <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="18">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -17434,7 +17853,7 @@
         <v>42.093333333333341</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="12.75" customHeight="1">
+    <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="18">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -17450,7 +17869,7 @@
         <v>42.005000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="12.75" customHeight="1">
+    <row r="37" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="18">
         <f t="shared" ref="A37:A100" si="1">A36+1</f>
         <v>35</v>
@@ -17466,7 +17885,7 @@
         <v>41.929428571428573</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="12.75" customHeight="1">
+    <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="18">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -17482,7 +17901,7 @@
         <v>41.856666666666662</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="12.75" customHeight="1">
+    <row r="39" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="18">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -17498,7 +17917,7 @@
         <v>41.802432432432425</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="12.75" customHeight="1">
+    <row r="40" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="18">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -17514,7 +17933,7 @@
         <v>41.751315789473679</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="12.75" customHeight="1">
+    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="18">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -17530,7 +17949,7 @@
         <v>41.689999999999991</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="12.75" customHeight="1">
+    <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="18">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -17546,7 +17965,7 @@
         <v>41.621999999999993</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="12.75" customHeight="1">
+    <row r="43" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="18">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -17562,7 +17981,7 @@
         <v>41.5680487804878</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="12.75" customHeight="1">
+    <row r="44" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="18">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -17578,7 +17997,7 @@
         <v>41.512380952380944</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="12.75" customHeight="1">
+    <row r="45" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="18">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -17594,7 +18013,7 @@
         <v>41.454186046511623</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="12.75" customHeight="1">
+    <row r="46" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="18">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -17610,7 +18029,7 @@
         <v>41.399318181818174</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="12.75" customHeight="1">
+    <row r="47" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="18">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -17626,7 +18045,7 @@
         <v>41.36044444444444</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="12.75" customHeight="1">
+    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="18">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -17642,7 +18061,7 @@
         <v>41.322391304347818</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="12.75" customHeight="1">
+    <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="18">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -17658,7 +18077,7 @@
         <v>41.285319148936161</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="12.75" customHeight="1">
+    <row r="50" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="18">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -17674,7 +18093,7 @@
         <v>41.222499999999989</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="12.75" customHeight="1">
+    <row r="51" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="18">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -17690,7 +18109,7 @@
         <v>41.174693877551015</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="12.75" customHeight="1">
+    <row r="52" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="18">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -17706,7 +18125,7 @@
         <v>41.139199999999988</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="12.75" customHeight="1">
+    <row r="53" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="18">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -17722,7 +18141,7 @@
         <v>41.106862745098027</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="12.75" customHeight="1">
+    <row r="54" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="18">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -17738,7 +18157,7 @@
         <v>41.078653846153834</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="12.75" customHeight="1">
+    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="18">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -17754,7 +18173,7 @@
         <v>41.062452830188661</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="12.75" customHeight="1">
+    <row r="56" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="18">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -17770,7 +18189,7 @@
         <v>41.045555555555538</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="12.75" customHeight="1">
+    <row r="57" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="18">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -17786,7 +18205,7 @@
         <v>41.038181818181798</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="12.75" customHeight="1">
+    <row r="58" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="18">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -17802,7 +18221,7 @@
         <v>41.038928571428549</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="12.75" customHeight="1">
+    <row r="59" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="18">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -17818,7 +18237,7 @@
         <v>41.034736842105247</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="12.75" customHeight="1">
+    <row r="60" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="18">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -17834,7 +18253,7 @@
         <v>41.041896551724122</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="12.75" customHeight="1">
+    <row r="61" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="18">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -17850,7 +18269,7 @@
         <v>41.046101694915237</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="12.75" customHeight="1">
+    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="18">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -17866,7 +18285,7 @@
         <v>41.029166666666654</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="12.75" customHeight="1">
+    <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="18">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -17882,7 +18301,7 @@
         <v>41.015737704918017</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="12.75" customHeight="1">
+    <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="18">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -17898,7 +18317,7 @@
         <v>40.997580645161271</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="12.75" customHeight="1">
+    <row r="65" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="18">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -17914,7 +18333,7 @@
         <v>40.997301587301571</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="12.75" customHeight="1">
+    <row r="66" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="18">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -17930,7 +18349,7 @@
         <v>40.998281249999984</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="12.75" customHeight="1">
+    <row r="67" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="18">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -17946,7 +18365,7 @@
         <v>40.994153846153829</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="12.75" customHeight="1">
+    <row r="68" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="18">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -17962,7 +18381,7 @@
         <v>41.006060606060593</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="12.75" customHeight="1">
+    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="18">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -17978,7 +18397,7 @@
         <v>41.01641791044775</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="12.75" customHeight="1">
+    <row r="70" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="18">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -17994,7 +18413,7 @@
         <v>41.020294117647047</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="12.75" customHeight="1">
+    <row r="71" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="18">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -18010,7 +18429,7 @@
         <v>41.027826086956509</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="12.75" customHeight="1">
+    <row r="72" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="18">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -18026,7 +18445,7 @@
         <v>41.021428571428558</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="12.75" customHeight="1">
+    <row r="73" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="18">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -18042,7 +18461,7 @@
         <v>41.019295774647873</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="12.75" customHeight="1">
+    <row r="74" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="18">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -18058,7 +18477,7 @@
         <v>41.017499999999984</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="12.75" customHeight="1">
+    <row r="75" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="18">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -18074,7 +18493,7 @@
         <v>41.027123287671216</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="12.75" customHeight="1">
+    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="18">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -18090,7 +18509,7 @@
         <v>41.036081081081065</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="12.75" customHeight="1">
+    <row r="77" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="18">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -18106,7 +18525,7 @@
         <v>41.035466666666643</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="12.75" customHeight="1">
+    <row r="78" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="18">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -18122,7 +18541,7 @@
         <v>41.020526335866805</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="12.75" customHeight="1">
+    <row r="79" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="18">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -18138,7 +18557,7 @@
         <v>40.984025981952598</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="12.75" customHeight="1">
+    <row r="80" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="18">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -18154,7 +18573,7 @@
         <v>40.953717942849167</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="12.75" customHeight="1">
+    <row r="81" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="18">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -18170,7 +18589,7 @@
         <v>40.943164537647085</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="12.75" customHeight="1">
+    <row r="82" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="18">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -18186,7 +18605,7 @@
         <v>40.930499984741189</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="12.75" customHeight="1">
+    <row r="83" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="18">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -18202,7 +18621,7 @@
         <v>40.927160476872935</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="12.75" customHeight="1">
+    <row r="84" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="18">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -18218,7 +18637,7 @@
         <v>40.921951202764724</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="12.75" customHeight="1">
+    <row r="85" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="18">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -18234,7 +18653,7 @@
         <v>40.929036107810127</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="12.75" customHeight="1">
+    <row r="86" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="18">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -18250,7 +18669,7 @@
         <v>40.931428547813759</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="12.75" customHeight="1">
+    <row r="87" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="18">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -18266,7 +18685,7 @@
         <v>40.92988232062843</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="12.75" customHeight="1">
+    <row r="88" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="18">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -18282,7 +18701,7 @@
         <v>40.928372052214847</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="12.75" customHeight="1">
+    <row r="89" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="18">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -18298,7 +18717,7 @@
         <v>40.927701096808754</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="12.75" customHeight="1">
+    <row r="90" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="18">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -18314,7 +18733,7 @@
         <v>40.924090864008107</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="12.75" customHeight="1">
+    <row r="91" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="18">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -18330,7 +18749,7 @@
         <v>40.917528047025854</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="12.75" customHeight="1">
+    <row r="92" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="18">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -18346,7 +18765,7 @@
         <v>40.904444420708536</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="12.75" customHeight="1">
+    <row r="93" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="18">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -18362,7 +18781,7 @@
         <v>40.886703283288959</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="12.75" customHeight="1">
+    <row r="94" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="18">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -18378,7 +18797,7 @@
         <v>40.859891271176529</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="12.75" customHeight="1">
+    <row r="95" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="18">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -18394,7 +18813,7 @@
         <v>40.836344033518131</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="12.75" customHeight="1">
+    <row r="96" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="18">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -18410,7 +18829,7 @@
         <v>40.815851010261682</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="12.75" customHeight="1">
+    <row r="97" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="18">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -18426,7 +18845,7 @@
         <v>40.787684151097331</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="12.75" customHeight="1">
+    <row r="98" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="18">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -18442,7 +18861,7 @@
         <v>40.770416618982935</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="12.75" customHeight="1">
+    <row r="99" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="18">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -18458,7 +18877,7 @@
         <v>40.756804084384548</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="12.75" customHeight="1">
+    <row r="100" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="18">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -18474,7 +18893,7 @@
         <v>40.744489749207773</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="12.75" customHeight="1">
+    <row r="101" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="18">
         <f t="shared" ref="A101:A355" si="2">A100+1</f>
         <v>99</v>
@@ -18490,7 +18909,7 @@
         <v>40.723232270828383</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="12.75" customHeight="1">
+    <row r="102" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="18">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -18506,7 +18925,7 @@
         <v>40.702299958801255</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="12.75" customHeight="1">
+    <row r="103" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="18">
         <f t="shared" si="2"/>
         <v>101</v>
@@ -18522,7 +18941,7 @@
         <v>40.680296984379815</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="12.75" customHeight="1">
+    <row r="104" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="18">
         <f t="shared" si="2"/>
         <v>102</v>
@@ -18538,7 +18957,7 @@
         <v>40.654705834482208</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="12.75" customHeight="1">
+    <row r="105" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="18">
         <f t="shared" si="2"/>
         <v>103</v>
@@ -18554,7 +18973,7 @@
         <v>40.599999957038342</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="12.75" customHeight="1">
+    <row r="106" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="18">
         <f t="shared" si="2"/>
         <v>104</v>
@@ -18570,7 +18989,7 @@
         <v>40.542692259274979</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="12.75" customHeight="1">
+    <row r="107" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="18">
         <f t="shared" si="2"/>
         <v>105</v>
@@ -18586,7 +19005,7 @@
         <v>40.482476154145722</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="12.75" customHeight="1">
+    <row r="108" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="18">
         <f t="shared" si="2"/>
         <v>106</v>
@@ -18602,7 +19021,7 @@
         <v>40.435849029253099</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="12.75" customHeight="1">
+    <row r="109" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="18">
         <f t="shared" si="2"/>
         <v>107</v>
@@ -18618,7 +19037,7 @@
         <v>40.391775685247957</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="12.75" customHeight="1">
+    <row r="110" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="18">
         <f t="shared" si="2"/>
         <v>108</v>
@@ -18634,7 +19053,7 @@
         <v>40.346574042991335</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="12.75" customHeight="1">
+    <row r="111" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="18">
         <f t="shared" si="2"/>
         <v>109</v>
@@ -18650,7 +19069,7 @@
         <v>40.302110060945544</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="12.75" customHeight="1">
+    <row r="112" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="18">
         <f t="shared" si="2"/>
         <v>110</v>
@@ -18666,7 +19085,7 @@
         <v>40.260272703690944</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="12.75" customHeight="1">
+    <row r="113" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="18">
         <f t="shared" si="2"/>
         <v>111</v>
@@ -18682,7 +19101,7 @@
         <v>40.215585555342926</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="12.75" customHeight="1">
+    <row r="114" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="18">
         <f t="shared" si="2"/>
         <v>112</v>
@@ -18698,7 +19117,7 @@
         <v>40.173214266640784</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="12.75" customHeight="1">
+    <row r="115" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="18">
         <f t="shared" si="2"/>
         <v>113</v>
@@ -18714,7 +19133,7 @@
         <v>40.128584061344093</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="12.75" customHeight="1">
+    <row r="116" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="18">
         <f t="shared" si="2"/>
         <v>114</v>
@@ -18730,7 +19149,7 @@
         <v>40.078245599311678</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="12.75" customHeight="1">
+    <row r="117" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="18">
         <f t="shared" si="2"/>
         <v>115</v>
@@ -18746,7 +19165,7 @@
         <v>40.032521721881352</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="12.75" customHeight="1">
+    <row r="118" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="18">
         <f t="shared" si="2"/>
         <v>116</v>
@@ -18762,7 +19181,7 @@
         <v>39.985344822324535</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="12.75" customHeight="1">
+    <row r="119" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="18">
         <f t="shared" si="2"/>
         <v>117</v>
@@ -18778,7 +19197,7 @@
         <v>39.940427341298147</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="12.75" customHeight="1">
+    <row r="120" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="18">
         <f t="shared" si="2"/>
         <v>118</v>
@@ -18794,7 +19213,7 @@
         <v>39.89703388666701</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="12.75" customHeight="1">
+    <row r="121" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="18">
         <f t="shared" si="2"/>
         <v>119</v>
@@ -18810,7 +19229,7 @@
         <v>39.856638645204157</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="12.75" customHeight="1">
+    <row r="122" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="18">
         <f t="shared" si="2"/>
         <v>120</v>
@@ -18826,7 +19245,7 @@
         <v>39.814833324432357</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="12.75" customHeight="1">
+    <row r="123" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="18">
         <f t="shared" si="2"/>
         <v>121</v>
@@ -18842,7 +19261,7 @@
         <v>39.769752062332515</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="12.75" customHeight="1">
+    <row r="124" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="18">
         <f t="shared" si="2"/>
         <v>122</v>
@@ -18858,7 +19277,7 @@
         <v>39.730819672131133</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="12.75" customHeight="1">
+    <row r="125" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="18">
         <f t="shared" si="2"/>
         <v>123</v>
@@ -18874,7 +19293,7 @@
         <v>39.694634136422749</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="12.75" customHeight="1">
+    <row r="126" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="18">
         <f t="shared" si="2"/>
         <v>124</v>
@@ -18890,7 +19309,7 @@
         <v>39.656854815322561</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="12.75" customHeight="1">
+    <row r="127" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="18">
         <f t="shared" si="2"/>
         <v>125</v>
@@ -18906,7 +19325,7 @@
         <v>39.615839967039982</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="12.75" customHeight="1">
+    <row r="128" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="18">
         <f t="shared" si="2"/>
         <v>126</v>
@@ -18922,7 +19341,7 @@
         <v>39.58039680484125</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="12.75" customHeight="1">
+    <row r="129" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="18">
         <f t="shared" si="2"/>
         <v>127</v>
@@ -18938,7 +19357,7 @@
         <v>39.545433045669277</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="12.75" customHeight="1">
+    <row r="130" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="18">
         <f t="shared" si="2"/>
         <v>128</v>
@@ -18954,7 +19373,7 @@
         <v>39.514765591640611</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="12.75" customHeight="1">
+    <row r="131" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="18">
         <f t="shared" si="2"/>
         <v>129</v>
@@ -18970,7 +19389,7 @@
         <v>39.483953462403086</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="12.75" customHeight="1">
+    <row r="132" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="18">
         <f t="shared" si="2"/>
         <v>130</v>
@@ -18986,7 +19405,7 @@
         <v>39.455384593153838</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="12.75" customHeight="1">
+    <row r="133" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="18">
         <f t="shared" si="2"/>
         <v>131</v>
@@ -19002,7 +19421,7 @@
         <v>39.425419815954186</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="12.75" customHeight="1">
+    <row r="134" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="18">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -19018,7 +19437,7 @@
         <v>39.396590869848474</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="12.75" customHeight="1">
+    <row r="135" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="18">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -19034,7 +19453,7 @@
         <v>39.371127767969917</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="12.75" customHeight="1">
+    <row r="136" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="18">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -19050,7 +19469,7 @@
         <v>39.348358155447755</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="12.75" customHeight="1">
+    <row r="137" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="18">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -19066,7 +19485,7 @@
         <v>39.325777719037028</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="12.75" customHeight="1">
+    <row r="138" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="18">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -19082,7 +19501,7 @@
         <v>39.30124995404411</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="12.75" customHeight="1">
+    <row r="139" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="18">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -19098,7 +19517,7 @@
         <v>39.275182432773718</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="12.75" customHeight="1">
+    <row r="140" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="18">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -19114,7 +19533,7 @@
         <v>39.253623134275358</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="12.75" customHeight="1">
+    <row r="141" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="18">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -19130,7 +19549,7 @@
         <v>39.222517934100708</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="12.75" customHeight="1">
+    <row r="142" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="18">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -19146,7 +19565,7 @@
         <v>39.191714233499987</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="12.75" customHeight="1">
+    <row r="143" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="18">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -19162,7 +19581,7 @@
         <v>39.159361657872324</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="12.75" customHeight="1">
+    <row r="144" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="18">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -19178,7 +19597,7 @@
         <v>39.130704182464775</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="12.75" customHeight="1">
+    <row r="145" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="18">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -19194,7 +19613,7 @@
         <v>39.101118849230758</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="12.75" customHeight="1">
+    <row r="146" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="18">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -19210,7 +19629,7 @@
         <v>39.072916641388879</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="12.75" customHeight="1">
+    <row r="147" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="18">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -19226,7 +19645,7 @@
         <v>39.046344810896542</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="12.75" customHeight="1">
+    <row r="148" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="18">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -19242,7 +19661,7 @@
         <v>39.018561638767117</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="12.75" customHeight="1">
+    <row r="149" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="18">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -19258,7 +19677,7 @@
         <v>38.994013599387742</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="12.75" customHeight="1">
+    <row r="150" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="18">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -19274,7 +19693,7 @@
         <v>38.968783766418909</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="12.75" customHeight="1">
+    <row r="151" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="18">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -19290,7 +19709,7 @@
         <v>38.941812068389247</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="12.75" customHeight="1">
+    <row r="152" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="18">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -19306,7 +19725,7 @@
         <v>38.915199992999987</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="12.75" customHeight="1">
+    <row r="153" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="18">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -19322,7 +19741,7 @@
         <v>38.890794691986741</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="12.75" customHeight="1">
+    <row r="154" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="18">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -19338,7 +19757,7 @@
         <v>38.864144727894725</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="12.75" customHeight="1">
+    <row r="155" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="18">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -19354,7 +19773,7 @@
         <v>38.840653588888877</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="12.75" customHeight="1">
+    <row r="156" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="18">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -19370,7 +19789,7 @@
         <v>38.822142862207784</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="12.75" customHeight="1">
+    <row r="157" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="18">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -19386,7 +19805,7 @@
         <v>38.801870974774182</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="12.75" customHeight="1">
+    <row r="158" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="18">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -19402,7 +19821,7 @@
         <v>38.781025643141014</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="12.75" customHeight="1">
+    <row r="159" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="18">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -19418,7 +19837,7 @@
         <v>38.75942674980891</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="12.75" customHeight="1">
+    <row r="160" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="18">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -19434,7 +19853,7 @@
         <v>38.73683543259493</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="12.75" customHeight="1">
+    <row r="161" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="18">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -19450,7 +19869,7 @@
         <v>38.715911938364776</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="12.75" customHeight="1">
+    <row r="162" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="18">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -19466,7 +19885,7 @@
         <v>38.695499988749994</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="12.75" customHeight="1">
+    <row r="163" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="18">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -19482,7 +19901,7 @@
         <v>38.674285695527942</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="12.75" customHeight="1">
+    <row r="164" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="18">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -19498,7 +19917,7 @@
         <v>38.652962951851848</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="12.75" customHeight="1">
+    <row r="165" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="18">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -19514,7 +19933,7 @@
         <v>38.632515324478518</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="12.75" customHeight="1">
+    <row r="166" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="18">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -19530,7 +19949,7 @@
         <v>38.609999978780486</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="12.75" customHeight="1">
+    <row r="167" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="18">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -19546,7 +19965,7 @@
         <v>38.586363609696967</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="12.75" customHeight="1">
+    <row r="168" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="18">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -19562,7 +19981,7 @@
         <v>38.566746972469872</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="12.75" customHeight="1">
+    <row r="169" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="18">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -19578,7 +19997,7 @@
         <v>38.550598780598797</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="12.75" customHeight="1">
+    <row r="170" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="18">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -19594,7 +20013,7 @@
         <v>38.53458331529761</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="12.75" customHeight="1">
+    <row r="171" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="18">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -19610,7 +20029,7 @@
         <v>38.518757382130168</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="12.75" customHeight="1">
+    <row r="172" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="18">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -19626,7 +20045,7 @@
         <v>38.501588212058813</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="12.75" customHeight="1">
+    <row r="173" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="18">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -19642,7 +20061,7 @@
         <v>38.482806999824554</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="12.75" customHeight="1">
+    <row r="174" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="18">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -19658,7 +20077,7 @@
         <v>38.465581380406974</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="12.75" customHeight="1">
+    <row r="175" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="18">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -19674,7 +20093,7 @@
         <v>38.445202289364161</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="12.75" customHeight="1">
+    <row r="176" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="18">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -19690,7 +20109,7 @@
         <v>38.42022985362069</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="12.75" customHeight="1">
+    <row r="177" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="18">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -19706,7 +20125,7 @@
         <v>38.397485675200002</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="12.75" customHeight="1">
+    <row r="178" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="18">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -19722,7 +20141,7 @@
         <v>38.376420407897733</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="12.75" customHeight="1">
+    <row r="179" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="18">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -19738,7 +20157,7 @@
         <v>38.356271147796612</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="12.75" customHeight="1">
+    <row r="180" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="18">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -19754,7 +20173,7 @@
         <v>38.333426933033707</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="12.75" customHeight="1">
+    <row r="181" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="18">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -19770,7 +20189,7 @@
         <v>38.311229020614526</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="12.75" customHeight="1">
+    <row r="182" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="18">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -19786,7 +20205,7 @@
         <v>38.290888867888889</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="12.75" customHeight="1">
+    <row r="183" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="18">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -19802,7 +20221,7 @@
         <v>38.268618754364638</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="12.75" customHeight="1">
+    <row r="184" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="18">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -19818,7 +20237,7 @@
         <v>38.248351618351641</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="12.75" customHeight="1">
+    <row r="185" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="18">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -19834,7 +20253,7 @@
         <v>38.228579205136612</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="12.75" customHeight="1">
+    <row r="186" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="18">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -19850,7 +20269,7 @@
         <v>38.206847793913042</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="12.75" customHeight="1">
+    <row r="187" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="18">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -19866,7 +20285,7 @@
         <v>38.181189152216213</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="12.75" customHeight="1">
+    <row r="188" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="18">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -19882,7 +20301,7 @@
         <v>38.15387092274193</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="12.75" customHeight="1">
+    <row r="189" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="18">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -19898,7 +20317,7 @@
         <v>38.12657749128342</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="12.75" customHeight="1">
+    <row r="190" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="18">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -19914,7 +20333,7 @@
         <v>38.100053139680853</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="12.75" customHeight="1">
+    <row r="191" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="18">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -19930,7 +20349,7 @@
         <v>38.071216879682538</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="12.75" customHeight="1">
+    <row r="192" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="18">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -19946,7 +20365,7 @@
         <v>38.0456315228421</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="12.75" customHeight="1">
+    <row r="193" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="18">
         <f t="shared" si="2"/>
         <v>191</v>
@@ -19962,7 +20381,7 @@
         <v>38.017120363036646</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="12.75" customHeight="1">
+    <row r="194" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="18">
         <f t="shared" si="2"/>
         <v>192</v>
@@ -19978,7 +20397,7 @@
         <v>37.989791613541662</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="12.75" customHeight="1">
+    <row r="195" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="18">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -19994,7 +20413,7 @@
         <v>37.965699429792743</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="12.75" customHeight="1">
+    <row r="196" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="18">
         <f t="shared" si="2"/>
         <v>194</v>
@@ -20010,7 +20429,7 @@
         <v>37.941855619072165</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="12.75" customHeight="1">
+    <row r="197" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="18">
         <f t="shared" si="2"/>
         <v>195</v>
@@ -20026,7 +20445,7 @@
         <v>37.915128152000001</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="12.75" customHeight="1">
+    <row r="198" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="18">
         <f t="shared" si="2"/>
         <v>196</v>
@@ -20042,7 +20461,7 @@
         <v>37.889132598622453</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="12.75" customHeight="1">
+    <row r="199" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="18">
         <f t="shared" si="2"/>
         <v>197</v>
@@ -20058,7 +20477,7 @@
         <v>37.861268989137059</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="12.75" customHeight="1">
+    <row r="200" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="18">
         <f t="shared" si="2"/>
         <v>198</v>
@@ -20074,7 +20493,7 @@
         <v>37.834646419242425</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="12.75" customHeight="1">
+    <row r="201" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="18">
         <f t="shared" si="2"/>
         <v>199</v>
@@ -20090,7 +20509,7 @@
         <v>37.804422063819104</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="12.75" customHeight="1">
+    <row r="202" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="18">
         <f t="shared" si="2"/>
         <v>200</v>
@@ -20106,7 +20525,7 @@
         <v>37.775999948150009</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="12.75" customHeight="1">
+    <row r="203" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="18">
         <f t="shared" si="2"/>
         <v>201</v>
@@ -20122,7 +20541,7 @@
         <v>37.743084524776123</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="12.75" customHeight="1">
+    <row r="204" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="18">
         <f t="shared" si="2"/>
         <v>202</v>
@@ -20138,7 +20557,7 @@
         <v>37.710494996683174</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="12.75" customHeight="1">
+    <row r="205" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="18">
         <f t="shared" si="2"/>
         <v>203</v>
@@ -20154,7 +20573,7 @@
         <v>37.678472849310346</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="12.75" customHeight="1">
+    <row r="206" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="18">
         <f t="shared" si="2"/>
         <v>204</v>
@@ -20170,7 +20589,7 @@
         <v>37.643872496323532</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="12.75" customHeight="1">
+    <row r="207" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="18">
         <f t="shared" si="2"/>
         <v>205</v>
@@ -20186,7 +20605,7 @@
         <v>37.61151214380488</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="12.75" customHeight="1">
+    <row r="208" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="18">
         <f t="shared" si="2"/>
         <v>206</v>
@@ -20202,7 +20621,7 @@
         <v>37.577281499757277</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="12.75" customHeight="1">
+    <row r="209" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="18">
         <f t="shared" si="2"/>
         <v>207</v>
@@ -20218,7 +20637,7 @@
         <v>37.540193181497585</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="12.75" customHeight="1">
+    <row r="210" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="18">
         <f t="shared" si="2"/>
         <v>208</v>
@@ -20234,7 +20653,7 @@
         <v>37.503221100721149</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="12.75" customHeight="1">
+    <row r="211" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="18">
         <f t="shared" si="2"/>
         <v>209</v>
@@ -20250,7 +20669,7 @@
         <v>37.469999944593297</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="12.75" customHeight="1">
+    <row r="212" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="18">
         <f t="shared" si="2"/>
         <v>210</v>
@@ -20266,7 +20685,7 @@
         <v>37.437380901238093</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="12.75" customHeight="1">
+    <row r="213" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="18">
         <f t="shared" si="2"/>
         <v>211</v>
@@ -20282,7 +20701,7 @@
         <v>37.405781941800946</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="12.75" customHeight="1">
+    <row r="214" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="18">
         <f t="shared" si="2"/>
         <v>212</v>
@@ -20298,7 +20717,7 @@
         <v>37.374245231273584</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="12.75" customHeight="1">
+    <row r="215" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="18">
         <f t="shared" si="2"/>
         <v>213</v>
@@ -20314,7 +20733,7 @@
         <v>37.342629053615028</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="12.75" customHeight="1">
+    <row r="216" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="18">
         <f t="shared" si="2"/>
         <v>214</v>
@@ -20330,7 +20749,7 @@
         <v>37.309205555841125</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="12.75" customHeight="1">
+    <row r="217" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="18">
         <f t="shared" si="2"/>
         <v>215</v>
@@ -20346,7 +20765,7 @@
         <v>37.27981390102326</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="12.75" customHeight="1">
+    <row r="218" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="18">
         <f t="shared" si="2"/>
         <v>216</v>
@@ -20362,7 +20781,7 @@
         <v>37.247685133657413</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="12.75" customHeight="1">
+    <row r="219" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="18">
         <f t="shared" si="2"/>
         <v>217</v>
@@ -20378,7 +20797,7 @@
         <v>37.218433126682037</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="12.75" customHeight="1">
+    <row r="220" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="18">
         <f t="shared" si="2"/>
         <v>218</v>
@@ -20394,7 +20813,7 @@
         <v>37.189770586238538</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="12.75" customHeight="1">
+    <row r="221" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="18">
         <f t="shared" si="2"/>
         <v>219</v>
@@ -20410,7 +20829,7 @@
         <v>37.161232823424669</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="12.75" customHeight="1">
+    <row r="222" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="18">
         <f t="shared" si="2"/>
         <v>220</v>
@@ -20426,7 +20845,7 @@
         <v>37.130772670045459</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="12.75" customHeight="1">
+    <row r="223" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="18">
         <f t="shared" si="2"/>
         <v>221</v>
@@ -20442,7 +20861,7 @@
         <v>37.098913970859734</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="12.75" customHeight="1">
+    <row r="224" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="18">
         <f t="shared" si="2"/>
         <v>222</v>
@@ -20458,7 +20877,7 @@
         <v>37.065180126891896</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="12.75" customHeight="1">
+    <row r="225" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="18">
         <f t="shared" si="2"/>
         <v>223</v>
@@ -20474,7 +20893,7 @@
         <v>37.026053759282519</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="12.75" customHeight="1">
+    <row r="226" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="18">
         <f t="shared" si="2"/>
         <v>224</v>
@@ -20490,7 +20909,7 @@
         <v>36.984464229464287</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="12.75" customHeight="1">
+    <row r="227" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="18">
         <f t="shared" si="2"/>
         <v>225</v>
@@ -20506,7 +20925,7 @@
         <v>36.94248883697778</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="12.75" customHeight="1">
+    <row r="228" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="18">
         <f t="shared" si="2"/>
         <v>226</v>
@@ -20522,7 +20941,7 @@
         <v>36.903849501769912</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="12.75" customHeight="1">
+    <row r="229" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="18">
         <f t="shared" si="2"/>
         <v>227</v>
@@ -20538,7 +20957,7 @@
         <v>36.866607877356834</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="12.75" customHeight="1">
+    <row r="230" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="18">
         <f t="shared" si="2"/>
         <v>228</v>
@@ -20554,7 +20973,7 @@
         <v>36.825438542543864</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="12.75" customHeight="1">
+    <row r="231" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="18">
         <f t="shared" si="2"/>
         <v>229</v>
@@ -20570,7 +20989,7 @@
         <v>36.780523967772936</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="12.75" customHeight="1">
+    <row r="232" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="18">
         <f t="shared" si="2"/>
         <v>230</v>
@@ -20586,7 +21005,7 @@
         <v>36.740956473608705</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="12.75" customHeight="1">
+    <row r="233" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="18">
         <f t="shared" si="2"/>
         <v>231</v>
@@ -20602,7 +21021,7 @@
         <v>36.704978308398275</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="12.75" customHeight="1">
+    <row r="234" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="18">
         <f t="shared" si="2"/>
         <v>232</v>
@@ -20618,7 +21037,7 @@
         <v>36.66892236806035</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="12.75" customHeight="1">
+    <row r="235" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="18">
         <f t="shared" si="2"/>
         <v>233</v>
@@ -20634,7 +21053,7 @@
         <v>36.633948454291847</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="12.75" customHeight="1">
+    <row r="236" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="18">
         <f t="shared" si="2"/>
         <v>234</v>
@@ -20650,7 +21069,7 @@
         <v>36.598119614743588</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="12.75" customHeight="1">
+    <row r="237" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="18">
         <f t="shared" si="2"/>
         <v>235</v>
@@ -20666,7 +21085,7 @@
         <v>36.563361660255318</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="12.75" customHeight="1">
+    <row r="238" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="18">
         <f t="shared" si="2"/>
         <v>236</v>
@@ -20682,7 +21101,7 @@
         <v>36.528262673093217</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="12.75" customHeight="1">
+    <row r="239" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="18">
         <f t="shared" si="2"/>
         <v>237</v>
@@ -20698,7 +21117,7 @@
         <v>36.490632875358649</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="12.75" customHeight="1">
+    <row r="240" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="18">
         <f t="shared" si="2"/>
         <v>238</v>
@@ -20714,7 +21133,7 @@
         <v>36.451512570462185</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="12.75" customHeight="1">
+    <row r="241" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="18">
         <f t="shared" si="2"/>
         <v>239</v>
@@ -20730,7 +21149,7 @@
         <v>36.412008334728036</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="12.75" customHeight="1">
+    <row r="242" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="18">
         <f t="shared" si="2"/>
         <v>240</v>
@@ -20746,7 +21165,7 @@
         <v>36.376874964750002</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="12.75" customHeight="1">
+    <row r="243" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="18">
         <f t="shared" si="2"/>
         <v>241</v>
@@ -20762,7 +21181,7 @@
         <v>36.340622369004151</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="12.75" customHeight="1">
+    <row r="244" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="18">
         <f t="shared" si="2"/>
         <v>242</v>
@@ -20778,7 +21197,7 @@
         <v>36.305495830909088</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="12.75" customHeight="1">
+    <row r="245" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="18">
         <f t="shared" si="2"/>
         <v>243</v>
@@ -20794,7 +21213,7 @@
         <v>36.269876504938274</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="12.75" customHeight="1">
+    <row r="246" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="18">
         <f t="shared" si="2"/>
         <v>244</v>
@@ -20810,7 +21229,7 @@
         <v>36.232704883032788</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="12.75" customHeight="1">
+    <row r="247" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="18">
         <f t="shared" si="2"/>
         <v>245</v>
@@ -20826,7 +21245,7 @@
         <v>36.195714251183674</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="12.75" customHeight="1">
+    <row r="248" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="18">
         <f t="shared" si="2"/>
         <v>246</v>
@@ -20842,7 +21261,7 @@
         <v>36.154715415243899</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="12.75" customHeight="1">
+    <row r="249" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="18">
         <f t="shared" si="2"/>
         <v>247</v>
@@ -20858,7 +21277,7 @@
         <v>36.116113331943318</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="12.75" customHeight="1">
+    <row r="250" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="18">
         <f t="shared" si="2"/>
         <v>248</v>
@@ -20874,7 +21293,7 @@
         <v>36.076048360080641</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="12.75" customHeight="1">
+    <row r="251" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="18">
         <f t="shared" si="2"/>
         <v>249</v>
@@ -20890,7 +21309,7 @@
         <v>36.036947764859427</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="12.75" customHeight="1">
+    <row r="252" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="18">
         <f t="shared" si="2"/>
         <v>250</v>
@@ -20906,7 +21325,7 @@
         <v>35.997639970119991</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="12.75" customHeight="1">
+    <row r="253" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="18">
         <f t="shared" si="2"/>
         <v>251</v>
@@ -20922,7 +21341,7 @@
         <v>35.959402359163342</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="12.75" customHeight="1">
+    <row r="254" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="18">
         <f t="shared" si="2"/>
         <v>252</v>
@@ -20938,7 +21357,7 @@
         <v>35.920357115039671</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="12.75" customHeight="1">
+    <row r="255" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="18">
         <f t="shared" si="2"/>
         <v>253</v>
@@ -20954,7 +21373,7 @@
         <v>35.879051352964417</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="12.75" customHeight="1">
+    <row r="256" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="18">
         <f t="shared" si="2"/>
         <v>254</v>
@@ -20970,7 +21389,7 @@
         <v>35.835787368858256</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="12.75" customHeight="1">
+    <row r="257" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="18">
         <f t="shared" si="2"/>
         <v>255</v>
@@ -20986,7 +21405,7 @@
         <v>35.792862710117632</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="12.75" customHeight="1">
+    <row r="258" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="18">
         <f t="shared" si="2"/>
         <v>256</v>
@@ -21002,7 +21421,7 @@
         <v>35.744648405624986</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="12.75" customHeight="1">
+    <row r="259" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="18">
         <f t="shared" si="2"/>
         <v>257</v>
@@ -21018,7 +21437,7 @@
         <v>35.69571981291827</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="12.75" customHeight="1">
+    <row r="260" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="18">
         <f t="shared" si="2"/>
         <v>258</v>
@@ -21034,7 +21453,7 @@
         <v>35.651472839573628</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="12.75" customHeight="1">
+    <row r="261" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="18">
         <f t="shared" si="2"/>
         <v>259</v>
@@ -21050,7 +21469,7 @@
         <v>35.606949781660212</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="12.75" customHeight="1">
+    <row r="262" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="18">
         <f t="shared" si="2"/>
         <v>260</v>
@@ -21066,7 +21485,7 @@
         <v>35.566653817730753</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="12.75" customHeight="1">
+    <row r="263" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="18">
         <f t="shared" si="2"/>
         <v>261</v>
@@ -21082,7 +21501,7 @@
         <v>35.519386943103434</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="12.75" customHeight="1">
+    <row r="264" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="18">
         <f t="shared" si="2"/>
         <v>262</v>
@@ -21098,7 +21517,7 @@
         <v>35.470534318549603</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="12.75" customHeight="1">
+    <row r="265" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="18">
         <f t="shared" si="2"/>
         <v>263</v>
@@ -21114,7 +21533,7 @@
         <v>35.421064602813672</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="12.75" customHeight="1">
+    <row r="266" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="18">
         <f t="shared" si="2"/>
         <v>264</v>
@@ -21130,7 +21549,7 @@
         <v>35.373181784962107</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="12.75" customHeight="1">
+    <row r="267" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="18">
         <f t="shared" si="2"/>
         <v>265</v>
@@ -21146,7 +21565,7 @@
         <v>35.328188649018855</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="12.75" customHeight="1">
+    <row r="268" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="18">
         <f t="shared" si="2"/>
         <v>266</v>
@@ -21162,7 +21581,7 @@
         <v>35.283233055751865</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="12.75" customHeight="1">
+    <row r="269" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="18">
         <f t="shared" si="2"/>
         <v>267</v>
@@ -21178,7 +21597,7 @@
         <v>35.239288359812718</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="12.75" customHeight="1">
+    <row r="270" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="18">
         <f t="shared" si="2"/>
         <v>268</v>
@@ -21194,7 +21613,7 @@
         <v>35.194701466380579</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="12.75" customHeight="1">
+    <row r="271" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="18">
         <f t="shared" si="2"/>
         <v>269</v>
@@ -21210,7 +21629,7 @@
         <v>35.152081756617086</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="12.75" customHeight="1">
+    <row r="272" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="18">
         <f t="shared" si="2"/>
         <v>270</v>
@@ -21226,7 +21645,7 @@
         <v>35.109703672629614</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="12.75" customHeight="1">
+    <row r="273" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="18">
         <f t="shared" si="2"/>
         <v>271</v>
@@ -21242,7 +21661,7 @@
         <v>35.067933551771205</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="12.75" customHeight="1">
+    <row r="274" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="18">
         <f t="shared" si="2"/>
         <v>272</v>
@@ -21258,7 +21677,7 @@
         <v>35.027867619595575</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="12.75" customHeight="1">
+    <row r="275" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="18">
         <f t="shared" si="2"/>
         <v>273</v>
@@ -21274,7 +21693,7 @@
         <v>34.987655647509143</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="12.75" customHeight="1">
+    <row r="276" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="18">
         <f t="shared" si="2"/>
         <v>274</v>
@@ -21290,7 +21709,7 @@
         <v>34.944671499452539</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="12.75" customHeight="1">
+    <row r="277" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="18">
         <f t="shared" si="2"/>
         <v>275</v>
@@ -21306,7 +21725,7 @@
         <v>34.902363601163621</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="12.75" customHeight="1">
+    <row r="278" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="18">
         <f t="shared" si="2"/>
         <v>276</v>
@@ -21322,7 +21741,7 @@
         <v>34.860434747246366</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="12.75" customHeight="1">
+    <row r="279" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="18">
         <f t="shared" si="2"/>
         <v>277</v>
@@ -21338,7 +21757,7 @@
         <v>34.818953036389878</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="12.75" customHeight="1">
+    <row r="280" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="18">
         <f t="shared" si="2"/>
         <v>278</v>
@@ -21354,7 +21773,7 @@
         <v>34.778740972913653</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="12.75" customHeight="1">
+    <row r="281" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="18">
         <f t="shared" si="2"/>
         <v>279</v>
@@ -21370,7 +21789,7 @@
         <v>34.740573439534039</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="12.75" customHeight="1">
+    <row r="282" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="18">
         <f t="shared" si="2"/>
         <v>280</v>
@@ -21386,7 +21805,7 @@
         <v>34.703321389642845</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="12.75" customHeight="1">
+    <row r="283" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="18">
         <f t="shared" si="2"/>
         <v>281</v>
@@ -21402,7 +21821,7 @@
         <v>34.66704622537366</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="12.75" customHeight="1">
+    <row r="284" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="18">
         <f t="shared" si="2"/>
         <v>282</v>
@@ -21418,7 +21837,7 @@
         <v>34.633936132092195</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="12.75" customHeight="1">
+    <row r="285" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="18">
         <f t="shared" si="2"/>
         <v>283</v>
@@ -21434,7 +21853,7 @@
         <v>34.60084802017667</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="12.75" customHeight="1">
+    <row r="286" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="18">
         <f t="shared" si="2"/>
         <v>284</v>
@@ -21450,7 +21869,7 @@
         <v>34.568661932359149</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="12.75" customHeight="1">
+    <row r="287" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="18">
         <f t="shared" si="2"/>
         <v>285</v>
@@ -21466,7 +21885,7 @@
         <v>34.534210486982445</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="12.75" customHeight="1">
+    <row r="288" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="18">
         <f t="shared" si="2"/>
         <v>286</v>
@@ -21482,7 +21901,7 @@
         <v>34.502202755069924</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="12.75" customHeight="1">
+    <row r="289" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="18">
         <f t="shared" si="2"/>
         <v>287</v>
@@ -21498,7 +21917,7 @@
         <v>34.441742116968634</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="12.75" customHeight="1">
+    <row r="290" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="18">
         <f t="shared" si="2"/>
         <v>288</v>
@@ -21514,7 +21933,7 @@
         <v>34.411076347847221</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="12.75" customHeight="1">
+    <row r="291" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="18">
         <f t="shared" si="2"/>
         <v>289</v>
@@ -21530,7 +21949,7 @@
         <v>34.381903071695504</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="12.75" customHeight="1">
+    <row r="292" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="18">
         <f t="shared" si="2"/>
         <v>290</v>
@@ -21546,7 +21965,7 @@
         <v>34.352999957655172</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="12.75" customHeight="1">
+    <row r="293" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="18">
         <f t="shared" si="2"/>
         <v>291</v>
@@ -21562,7 +21981,7 @@
         <v>34.326013703505154</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="12.75" customHeight="1">
+    <row r="294" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="18">
         <f t="shared" si="2"/>
         <v>292</v>
@@ -21578,7 +21997,7 @@
         <v>34.300958862842464</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="12.75" customHeight="1">
+    <row r="295" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="18">
         <f t="shared" si="2"/>
         <v>293</v>
@@ -21594,7 +22013,7 @@
         <v>34.276006784027302</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="12.75" customHeight="1">
+    <row r="296" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="18">
         <f t="shared" si="2"/>
         <v>294</v>
@@ -21610,7 +22029,7 @@
         <v>34.249897918707482</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="12.75" customHeight="1">
+    <row r="297" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="18">
         <f t="shared" si="2"/>
         <v>295</v>
@@ -21626,7 +22045,7 @@
         <v>34.226135552101695</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="12.75" customHeight="1">
+    <row r="298" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="18">
         <f t="shared" si="2"/>
         <v>296</v>
@@ -21642,7 +22061,7 @@
         <v>34.204222931216215</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="12.75" customHeight="1">
+    <row r="299" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="18">
         <f t="shared" si="2"/>
         <v>297</v>
@@ -21658,7 +22077,7 @@
         <v>34.18289558410774</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="12.75" customHeight="1">
+    <row r="300" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="18">
         <f t="shared" si="2"/>
         <v>298</v>
@@ -21674,7 +22093,7 @@
         <v>34.162718082416099</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="12.75" customHeight="1">
+    <row r="301" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="18">
         <f t="shared" si="2"/>
         <v>299</v>
@@ -21690,7 +22109,7 @@
         <v>34.140468189933102</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="12.75" customHeight="1">
+    <row r="302" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="18">
         <f t="shared" si="2"/>
         <v>300</v>
@@ -21706,7 +22125,7 @@
         <v>34.119366627533324</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="12.75" customHeight="1">
+    <row r="303" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="18">
         <f t="shared" si="2"/>
         <v>301</v>
@@ -21722,7 +22141,7 @@
         <v>34.097840490531553</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="12.75" customHeight="1">
+    <row r="304" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="18">
         <f t="shared" si="2"/>
         <v>302</v>
@@ -21738,7 +22157,7 @@
         <v>34.077913866125826</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="12.75" customHeight="1">
+    <row r="305" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="18">
         <f t="shared" si="2"/>
         <v>303</v>
@@ -21754,7 +22173,7 @@
         <v>34.057623722376235</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="12.75" customHeight="1">
+    <row r="306" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="18">
         <f t="shared" si="2"/>
         <v>304</v>
@@ -21770,7 +22189,7 @@
         <v>34.036743378157887</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="12.75" customHeight="1">
+    <row r="307" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="18">
         <f t="shared" si="2"/>
         <v>305</v>
@@ -21786,7 +22205,7 @@
         <v>34.0172130717377</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="12.75" customHeight="1">
+    <row r="308" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="18">
         <f t="shared" si="2"/>
         <v>306</v>
@@ -21802,7 +22221,7 @@
         <v>33.997091462385619</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="12.75" customHeight="1">
+    <row r="309" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="18">
         <f t="shared" si="2"/>
         <v>307</v>
@@ -21818,7 +22237,7 @@
         <v>33.975211687882734</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="12.75" customHeight="1">
+    <row r="310" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="18">
         <f t="shared" si="2"/>
         <v>308</v>
@@ -21834,7 +22253,7 @@
         <v>33.951818144935061</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="12.75" customHeight="1">
+    <row r="311" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="18">
         <f t="shared" si="2"/>
         <v>309</v>
@@ -21850,7 +22269,7 @@
         <v>33.929385077993516</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="12.75" customHeight="1">
+    <row r="312" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="18">
         <f t="shared" si="2"/>
         <v>310</v>
@@ -21866,7 +22285,7 @@
         <v>33.90851609090322</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="12.75" customHeight="1">
+    <row r="313" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="18">
         <f t="shared" si="2"/>
         <v>311</v>
@@ -21882,7 +22301,7 @@
         <v>33.886495137138255</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="12.75" customHeight="1">
+    <row r="314" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="18">
         <f t="shared" si="2"/>
         <v>312</v>
@@ -21898,7 +22317,7 @@
         <v>33.865480729391024</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="12.75" customHeight="1">
+    <row r="315" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="18">
         <f t="shared" si="2"/>
         <v>313</v>
@@ -21914,7 +22333,7 @@
         <v>33.843706028146961</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="12.75" customHeight="1">
+    <row r="316" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="18">
         <f t="shared" si="2"/>
         <v>314</v>
@@ -21930,7 +22349,7 @@
         <v>33.822292954299357</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="12.75" customHeight="1">
+    <row r="317" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="18">
         <f t="shared" si="2"/>
         <v>315</v>
@@ -21946,7 +22365,7 @@
         <v>33.800285673142845</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="12.75" customHeight="1">
+    <row r="318" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="18">
         <f t="shared" si="2"/>
         <v>316</v>
@@ -21962,7 +22381,7 @@
         <v>33.778132867974676</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="12.75" customHeight="1">
+    <row r="319" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="18">
         <f t="shared" si="2"/>
         <v>317</v>
@@ -21978,7 +22397,7 @@
         <v>33.755394277507875</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="12.75" customHeight="1">
+    <row r="320" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="18">
         <f t="shared" si="2"/>
         <v>318</v>
@@ -21994,7 +22413,7 @@
         <v>33.733238946698101</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="12.75" customHeight="1">
+    <row r="321" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="18">
         <f t="shared" si="2"/>
         <v>319</v>
@@ -22010,7 +22429,7 @@
         <v>33.710940394639486</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="12.75" customHeight="1">
+    <row r="322" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="18">
         <f t="shared" si="2"/>
         <v>320</v>
@@ -22026,7 +22445,7 @@
         <v>33.689062453031241</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="12.75" customHeight="1">
+    <row r="323" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="18">
         <f t="shared" si="2"/>
         <v>321</v>
@@ -22042,7 +22461,7 @@
         <v>33.666137024579427</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="12.75" customHeight="1">
+    <row r="324" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="18">
         <f t="shared" si="2"/>
         <v>322</v>
@@ -22058,7 +22477,7 @@
         <v>33.645031011583839</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="12.75" customHeight="1">
+    <row r="325" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="18">
         <f t="shared" si="2"/>
         <v>323</v>
@@ -22074,7 +22493,7 @@
         <v>33.622414816501539</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="12.75" customHeight="1">
+    <row r="326" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="18">
         <f t="shared" si="2"/>
         <v>324</v>
@@ -22090,7 +22509,7 @@
         <v>33.59876538805554</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="12.75" customHeight="1">
+    <row r="327" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="18">
         <f t="shared" si="2"/>
         <v>325</v>
@@ -22106,7 +22525,7 @@
         <v>33.575630725323066</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="12.75" customHeight="1">
+    <row r="328" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="18">
         <f t="shared" si="2"/>
         <v>326</v>
@@ -22122,7 +22541,7 @@
         <v>33.55380363438649</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="12.75" customHeight="1">
+    <row r="329" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="18">
         <f t="shared" si="2"/>
         <v>327</v>
@@ -22138,7 +22557,7 @@
         <v>33.532079466574906</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="12.75" customHeight="1">
+    <row r="330" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="18">
         <f t="shared" si="2"/>
         <v>328</v>
@@ -22154,7 +22573,7 @@
         <v>33.510823125121938</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="12.75" customHeight="1">
+    <row r="331" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="18">
         <f t="shared" si="2"/>
         <v>329</v>
@@ -22170,7 +22589,7 @@
         <v>33.4886017805471</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="12.75" customHeight="1">
+    <row r="332" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="18">
         <f t="shared" si="2"/>
         <v>330</v>
@@ -22186,7 +22605,7 @@
         <v>33.468363593333315</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="12.75" customHeight="1">
+    <row r="333" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="18">
         <f t="shared" si="2"/>
         <v>331</v>
@@ -22202,7 +22621,7 @@
         <v>33.447673675649533</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="12.75" customHeight="1">
+    <row r="334" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="18">
         <f t="shared" si="2"/>
         <v>332</v>
@@ -22218,7 +22637,7 @@
         <v>33.427379475060221</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="12.75" customHeight="1">
+    <row r="335" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="18">
         <f t="shared" si="2"/>
         <v>333</v>
@@ -22234,7 +22653,7 @@
         <v>33.407237192282267</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="12.75" customHeight="1">
+    <row r="336" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="18">
         <f t="shared" si="2"/>
         <v>334</v>
@@ -22250,7 +22669,7 @@
         <v>33.388532888862258</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="12.75" customHeight="1">
+    <row r="337" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="18">
         <f t="shared" si="2"/>
         <v>335</v>
@@ -22266,7 +22685,7 @@
         <v>33.36955219573133</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="12.75" customHeight="1">
+    <row r="338" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="18">
         <f t="shared" si="2"/>
         <v>336</v>
@@ -22282,7 +22701,7 @@
         <v>33.34928566976189</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="12.75" customHeight="1">
+    <row r="339" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="18">
         <f t="shared" si="2"/>
         <v>337</v>
@@ -22298,7 +22717,7 @@
         <v>33.330356036646869</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="12.75" customHeight="1">
+    <row r="340" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="18">
         <f t="shared" si="2"/>
         <v>338</v>
@@ -22314,7 +22733,7 @@
         <v>33.311212973254428</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="12.75" customHeight="1">
+    <row r="341" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="18">
         <f t="shared" si="2"/>
         <v>339</v>
@@ -22330,7 +22749,7 @@
         <v>33.289498482949838</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="12.75" customHeight="1">
+    <row r="342" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="18">
         <f t="shared" si="2"/>
         <v>340</v>
@@ -22346,7 +22765,7 @@
         <v>33.267764662764691</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="12.75" customHeight="1">
+    <row r="343" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="18">
         <f t="shared" si="2"/>
         <v>341</v>
@@ -22362,7 +22781,7 @@
         <v>33.245806410645152</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="12.75" customHeight="1">
+    <row r="344" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="18">
         <f t="shared" si="2"/>
         <v>342</v>
@@ -22378,7 +22797,7 @@
         <v>33.223508733537997</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="12.75" customHeight="1">
+    <row r="345" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="18">
         <f t="shared" si="2"/>
         <v>343</v>
@@ -22394,7 +22813,7 @@
         <v>33.200932904985407</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="12.75" customHeight="1">
+    <row r="346" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="18">
         <f t="shared" si="2"/>
         <v>344</v>
@@ -22410,7 +22829,7 @@
         <v>33.177616240465106</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" s="18">
         <f t="shared" si="2"/>
         <v>345</v>
@@ -22426,7 +22845,7 @@
         <v>33.149565178898534</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" s="18">
         <f t="shared" si="2"/>
         <v>346</v>
@@ -22442,7 +22861,7 @@
         <v>33.121676262196516</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" s="18">
         <f t="shared" si="2"/>
         <v>347</v>
@@ -22458,7 +22877,7 @@
         <v>33.093948088530247</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" s="18">
         <f t="shared" si="2"/>
         <v>348</v>
@@ -22474,7 +22893,7 @@
         <v>33.065890766436766</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" s="18">
         <f t="shared" si="2"/>
         <v>349</v>
@@ -22490,7 +22909,7 @@
         <v>33.037191939025774</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" s="18">
         <f t="shared" si="2"/>
         <v>350</v>
@@ -22506,7 +22925,7 @@
         <v>33.008257104914271</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" s="18">
         <f t="shared" si="2"/>
         <v>351</v>
@@ -22522,7 +22941,7 @@
         <v>32.979743551908818</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" s="18">
         <f t="shared" si="2"/>
         <v>352</v>
@@ -22538,7 +22957,7 @@
         <v>32.952698825909074</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" s="18">
         <f t="shared" si="2"/>
         <v>353</v>
@@ -22554,9 +22973,9 @@
         <v>32.924305911388082</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" s="18">
-        <f t="shared" ref="A356:A382" si="3">A355+1</f>
+        <f t="shared" ref="A356:A383" si="3">A355+1</f>
         <v>354</v>
       </c>
       <c r="B356" s="19" t="s">
@@ -22570,7 +22989,7 @@
         <v>32.89635589468925</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" s="18">
         <f t="shared" si="3"/>
         <v>355</v>
@@ -22586,7 +23005,7 @@
         <v>32.867380245999989</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" s="18">
         <f t="shared" si="3"/>
         <v>356</v>
@@ -22602,7 +23021,7 @@
         <v>32.836966259129198</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" s="18">
         <f t="shared" si="3"/>
         <v>357</v>
@@ -22618,7 +23037,7 @@
         <v>32.807282879607826</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" s="18">
         <f t="shared" si="3"/>
         <v>358</v>
@@ -22634,7 +23053,7 @@
         <v>32.779664771229037</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" s="18">
         <f t="shared" si="3"/>
         <v>359</v>
@@ -22650,7 +23069,7 @@
         <v>32.752005538941489</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" s="18">
         <f t="shared" si="3"/>
         <v>360</v>
@@ -22666,7 +23085,7 @@
         <v>32.726722189166651</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" s="18">
         <f t="shared" si="3"/>
         <v>361</v>
@@ -22682,7 +23101,7 @@
         <v>32.701772818310232</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" s="18">
         <f t="shared" si="3"/>
         <v>362</v>
@@ -22698,7 +23117,7 @@
         <v>32.677320408259654</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" s="18">
         <f t="shared" si="3"/>
         <v>363</v>
@@ -22714,7 +23133,7 @@
         <v>32.652286468154252</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" s="18">
         <f t="shared" si="3"/>
         <v>364</v>
@@ -22730,7 +23149,7 @@
         <v>32.626868097692288</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" s="18">
         <f t="shared" si="3"/>
         <v>365</v>
@@ -22746,7 +23165,7 @@
         <v>32.601424623862997</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" s="18">
         <f t="shared" si="3"/>
         <v>366</v>
@@ -22762,7 +23181,7 @@
         <v>32.57256827494534</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" s="18">
         <f t="shared" si="3"/>
         <v>367</v>
@@ -22778,7 +23197,7 @@
         <v>32.544414137329682</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" s="18">
         <f t="shared" si="3"/>
         <v>368</v>
@@ -22794,7 +23213,7 @@
         <v>32.518260838260851</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" s="18">
         <f t="shared" si="3"/>
         <v>369</v>
@@ -22810,7 +23229,7 @@
         <v>32.492059590406484</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" s="18">
         <f t="shared" si="3"/>
         <v>370</v>
@@ -22826,7 +23245,7 @@
         <v>32.468162131027007</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" s="18">
         <f t="shared" si="3"/>
         <v>371</v>
@@ -22842,7 +23261,7 @@
         <v>32.444582177331519</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" s="18">
         <f t="shared" si="3"/>
         <v>372</v>
@@ -22858,7 +23277,7 @@
         <v>32.421478462822563</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375" s="18">
         <f t="shared" si="3"/>
         <v>373</v>
@@ -22874,7 +23293,7 @@
         <v>32.39780157726539</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" s="18">
         <f t="shared" si="3"/>
         <v>374</v>
@@ -22890,7 +23309,7 @@
         <v>32.373743283262009</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" s="18">
         <f t="shared" si="3"/>
         <v>375</v>
@@ -22906,7 +23325,7 @@
         <v>32.349653301573312</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378" s="18">
         <f t="shared" si="3"/>
         <v>376</v>
@@ -22922,7 +23341,7 @@
         <v>32.324335074494662</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379" s="18">
         <f t="shared" si="3"/>
         <v>377</v>
@@ -22938,7 +23357,7 @@
         <v>32.298912434429688</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380" s="18">
         <f t="shared" si="3"/>
         <v>378</v>
@@ -22954,7 +23373,7 @@
         <v>32.274788328280401</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381" s="18">
         <f t="shared" si="3"/>
         <v>379</v>
@@ -22970,7 +23389,7 @@
         <v>32.250211047941931</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" s="18">
         <f t="shared" si="3"/>
         <v>380</v>
@@ -22984,6 +23403,22 @@
       <c r="D382" s="18">
         <f>SUM(C$3:C382)/A382</f>
         <v>32.223605227789449</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A383" s="18">
+        <f t="shared" si="3"/>
+        <v>381</v>
+      </c>
+      <c r="B383" s="19">
+        <v>44865</v>
+      </c>
+      <c r="C383" s="20">
+        <v>22.239999770000001</v>
+      </c>
+      <c r="D383" s="18">
+        <f>SUM(C$3:C383)/A383</f>
+        <v>32.197401538923856</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1prac.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1prac.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="model1" sheetId="5" r:id="rId1"/>
@@ -1527,6 +1527,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1572,106 +1573,109 @@
             <c:numRef>
               <c:f>model1!时间</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>3.25108</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8991500000000001</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.17509</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1906699999999999</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6513100000000001</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1706000000000003</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1298999999999992</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9869400000000002</c:v>
+                  <c:v>44104</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2014499999999995</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.27712</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7245600000000003</c:v>
+                  <c:v>44196</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.9833500000000006</c:v>
+                  <c:v>44225</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7232599999999998</c:v>
+                  <c:v>44253</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4379900000000001</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.7860299999999993</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.9806599999999994</c:v>
+                  <c:v>44347</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1114799999999994</c:v>
+                  <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.9776999999999996</c:v>
+                  <c:v>44407</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.7613100000000008</c:v>
+                  <c:v>44439</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.7106400000000006</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.8678999999999997</c:v>
+                  <c:v>44498</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.9547099609374996</c:v>
+                  <c:v>44530</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.8630097656249998</c:v>
+                  <c:v>44561</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.3440297851562502</c:v>
+                  <c:v>44589</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.3355400390624999</c:v>
+                  <c:v>44620</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.8658500976562502</c:v>
+                  <c:v>44651</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.5012099609375</c:v>
+                  <c:v>44680</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.6361599121093748</c:v>
+                  <c:v>44712</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.1096201171875002</c:v>
+                  <c:v>44742</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.8724699707031252</c:v>
+                  <c:v>44771</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.7022099609375001</c:v>
+                  <c:v>44804</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.3477299804687499</c:v>
+                  <c:v>44834</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2993999023437501</c:v>
+                  <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1681,7 +1685,262 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>46000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>48000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>52000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>54000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>56000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>58000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>62000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>64000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>66000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>68000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E69F-429A-B459-D6A53AA60C2B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>model1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>total assets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>model1!时间</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>43889</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43951</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43980</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44043</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44134</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44225</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44253</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44286</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44316</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44347</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44377</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44407</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44439</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44469</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44498</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44530</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44561</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44589</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44620</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44651</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44680</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44712</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44742</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44771</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44804</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44895</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>model1!资产</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>2000.0000000000002</c:v>
                 </c:pt>
@@ -1781,26 +2040,29 @@
                 <c:pt idx="32">
                   <c:v>53475.074735568647</c:v>
                 </c:pt>
+                <c:pt idx="33">
+                  <c:v>58406.85441256113</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E69F-429A-B459-D6A53AA60C2B}"/>
+              <c16:uniqueId val="{00000001-E69F-429A-B459-D6A53AA60C2B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>model1!$H$1</c:f>
+              <c:f>model1!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>total assets</c:v>
+                  <c:v>profit amount</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1808,7 +2070,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1821,116 +2083,119 @@
             <c:numRef>
               <c:f>model1!时间</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>3.25108</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8991500000000001</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.17509</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1906699999999999</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6513100000000001</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1706000000000003</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1298999999999992</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9869400000000002</c:v>
+                  <c:v>44104</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2014499999999995</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.27712</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7245600000000003</c:v>
+                  <c:v>44196</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.9833500000000006</c:v>
+                  <c:v>44225</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7232599999999998</c:v>
+                  <c:v>44253</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4379900000000001</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.7860299999999993</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.9806599999999994</c:v>
+                  <c:v>44347</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1114799999999994</c:v>
+                  <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.9776999999999996</c:v>
+                  <c:v>44407</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.7613100000000008</c:v>
+                  <c:v>44439</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.7106400000000006</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.8678999999999997</c:v>
+                  <c:v>44498</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.9547099609374996</c:v>
+                  <c:v>44530</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.8630097656249998</c:v>
+                  <c:v>44561</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.3440297851562502</c:v>
+                  <c:v>44589</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.3355400390624999</c:v>
+                  <c:v>44620</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.8658500976562502</c:v>
+                  <c:v>44651</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.5012099609375</c:v>
+                  <c:v>44680</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.6361599121093748</c:v>
+                  <c:v>44712</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.1096201171875002</c:v>
+                  <c:v>44742</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.8724699707031252</c:v>
+                  <c:v>44771</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.7022099609375001</c:v>
+                  <c:v>44804</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.3477299804687499</c:v>
+                  <c:v>44834</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2993999023437501</c:v>
+                  <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>model1!资产</c:f>
+              <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2030,156 +2295,9 @@
                 <c:pt idx="32">
                   <c:v>-12524.925264431353</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E69F-429A-B459-D6A53AA60C2B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>model1!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>profit amount</c:v>
+                <c:pt idx="33">
+                  <c:v>-9593.1455874388703</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>model1!时间</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
-                <c:pt idx="0">
-                  <c:v>3.25108</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.8991500000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.17509</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.1906699999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.6513100000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.1706000000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.1298999999999992</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.9869400000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.2014499999999995</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.27712</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.7245600000000003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.9833500000000006</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.7232599999999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.4379900000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.7860299999999993</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.9806599999999994</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.1114799999999994</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.9776999999999996</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.7613100000000008</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.7106400000000006</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.8678999999999997</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4.9547099609374996</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4.8630097656249998</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4.3440297851562502</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4.3355400390624999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.8658500976562502</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3.5012099609375</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3.6361599121093748</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4.1096201171875002</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.8724699707031252</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.7022099609375001</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.3477299804687499</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.2993999023437501</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>model1!金额</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2200,17 +2318,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="152326912"/>
-        <c:axId val="152328448"/>
+        <c:axId val="185327616"/>
+        <c:axId val="185329152"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="152326912"/>
+      <c:dateAx>
+        <c:axId val="185327616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -2247,15 +2365,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152328448"/>
+        <c:crossAx val="185329152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="152328448"/>
+        <c:axId val="185329152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2306,7 +2423,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152326912"/>
+        <c:crossAx val="185327616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2320,6 +2437,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15592,6 +15710,306 @@
           </cell>
           <cell r="F659">
             <v>3.2993999023437501</v>
+          </cell>
+        </row>
+        <row r="660">
+          <cell r="A660">
+            <v>44875</v>
+          </cell>
+          <cell r="B660">
+            <v>3447.840087890625</v>
+          </cell>
+          <cell r="C660">
+            <v>3456.550048828125</v>
+          </cell>
+          <cell r="D660">
+            <v>3395.860107421875</v>
+          </cell>
+          <cell r="E660">
+            <v>3413.8701171875</v>
+          </cell>
+          <cell r="F660">
+            <v>3.4138701171874999</v>
+          </cell>
+        </row>
+        <row r="661">
+          <cell r="A661">
+            <v>44876</v>
+          </cell>
+          <cell r="B661">
+            <v>3518.199951171875</v>
+          </cell>
+          <cell r="C661">
+            <v>3543.360107421875</v>
+          </cell>
+          <cell r="D661">
+            <v>3481.409912109375</v>
+          </cell>
+          <cell r="E661">
+            <v>3499.14990234375</v>
+          </cell>
+          <cell r="F661">
+            <v>3.49914990234375</v>
+          </cell>
+        </row>
+        <row r="662">
+          <cell r="A662">
+            <v>44879</v>
+          </cell>
+          <cell r="B662">
+            <v>3517.820068359375</v>
+          </cell>
+          <cell r="C662">
+            <v>3547.3701171875</v>
+          </cell>
+          <cell r="D662">
+            <v>3485.489990234375</v>
+          </cell>
+          <cell r="E662">
+            <v>3500.659912109375</v>
+          </cell>
+          <cell r="F662">
+            <v>3.5006599121093749</v>
+          </cell>
+        </row>
+        <row r="663">
+          <cell r="A663">
+            <v>44880</v>
+          </cell>
+          <cell r="B663">
+            <v>3501.409912109375</v>
+          </cell>
+          <cell r="C663">
+            <v>3587.2900390625</v>
+          </cell>
+          <cell r="D663">
+            <v>3484.409912109375</v>
+          </cell>
+          <cell r="E663">
+            <v>3587.2900390625</v>
+          </cell>
+          <cell r="F663">
+            <v>3.5872900390625002</v>
+          </cell>
+        </row>
+        <row r="664">
+          <cell r="A664">
+            <v>44881</v>
+          </cell>
+          <cell r="B664">
+            <v>3581.68994140625</v>
+          </cell>
+          <cell r="C664">
+            <v>3593.52001953125</v>
+          </cell>
+          <cell r="D664">
+            <v>3535.050048828125</v>
+          </cell>
+          <cell r="E664">
+            <v>3538.889892578125</v>
+          </cell>
+          <cell r="F664">
+            <v>3.5388898925781249</v>
+          </cell>
+        </row>
+        <row r="665">
+          <cell r="A665">
+            <v>44882</v>
+          </cell>
+          <cell r="B665">
+            <v>3524.179931640625</v>
+          </cell>
+          <cell r="C665">
+            <v>3524.179931640625</v>
+          </cell>
+          <cell r="D665">
+            <v>3471.820068359375</v>
+          </cell>
+          <cell r="E665">
+            <v>3523.830078125</v>
+          </cell>
+          <cell r="F665">
+            <v>3.523830078125</v>
+          </cell>
+        </row>
+        <row r="666">
+          <cell r="A666">
+            <v>44883</v>
+          </cell>
+          <cell r="B666">
+            <v>3533.02001953125</v>
+          </cell>
+          <cell r="C666">
+            <v>3562.85009765625</v>
+          </cell>
+          <cell r="D666">
+            <v>3518.969970703125</v>
+          </cell>
+          <cell r="E666">
+            <v>3521.929931640625</v>
+          </cell>
+          <cell r="F666">
+            <v>3.5219299316406252</v>
+          </cell>
+        </row>
+        <row r="667">
+          <cell r="A667">
+            <v>44886</v>
+          </cell>
+          <cell r="B667">
+            <v>3492.5</v>
+          </cell>
+          <cell r="C667">
+            <v>3517.469970703125</v>
+          </cell>
+          <cell r="D667">
+            <v>3472.719970703125</v>
+          </cell>
+          <cell r="E667">
+            <v>3515.72998046875</v>
+          </cell>
+          <cell r="F667">
+            <v>3.5157299804687501</v>
+          </cell>
+        </row>
+        <row r="668">
+          <cell r="A668">
+            <v>44887</v>
+          </cell>
+          <cell r="B668">
+            <v>3503.659912109375</v>
+          </cell>
+          <cell r="C668">
+            <v>3509.800048828125</v>
+          </cell>
+          <cell r="D668">
+            <v>3448.469970703125</v>
+          </cell>
+          <cell r="E668">
+            <v>3461.9599609375</v>
+          </cell>
+          <cell r="F668">
+            <v>3.4619599609375</v>
+          </cell>
+        </row>
+        <row r="669">
+          <cell r="A669">
+            <v>44888</v>
+          </cell>
+          <cell r="B669">
+            <v>3448.550048828125</v>
+          </cell>
+          <cell r="C669">
+            <v>3465.469970703125</v>
+          </cell>
+          <cell r="D669">
+            <v>3404.7099609375</v>
+          </cell>
+          <cell r="E669">
+            <v>3446.010009765625</v>
+          </cell>
+          <cell r="F669">
+            <v>3.446010009765625</v>
+          </cell>
+        </row>
+        <row r="670">
+          <cell r="A670">
+            <v>44889</v>
+          </cell>
+          <cell r="B670">
+            <v>3463.010009765625</v>
+          </cell>
+          <cell r="C670">
+            <v>3475.219970703125</v>
+          </cell>
+          <cell r="D670">
+            <v>3429.199951171875</v>
+          </cell>
+          <cell r="E670">
+            <v>3439.31005859375</v>
+          </cell>
+          <cell r="F670">
+            <v>3.4393100585937502</v>
+          </cell>
+        </row>
+        <row r="671">
+          <cell r="A671">
+            <v>44890</v>
+          </cell>
+          <cell r="B671">
+            <v>3427.909912109375</v>
+          </cell>
+          <cell r="C671">
+            <v>3438.139892578125</v>
+          </cell>
+          <cell r="D671">
+            <v>3410.330078125</v>
+          </cell>
+          <cell r="E671">
+            <v>3413.85009765625</v>
+          </cell>
+          <cell r="F671">
+            <v>3.4138500976562498</v>
+          </cell>
+        </row>
+        <row r="672">
+          <cell r="A672">
+            <v>44893</v>
+          </cell>
+          <cell r="B672">
+            <v>3349.239990234375</v>
+          </cell>
+          <cell r="C672">
+            <v>3392.52001953125</v>
+          </cell>
+          <cell r="D672">
+            <v>3340.739990234375</v>
+          </cell>
+          <cell r="E672">
+            <v>3389.6201171875</v>
+          </cell>
+          <cell r="F672">
+            <v>3.3896201171875</v>
+          </cell>
+        </row>
+        <row r="673">
+          <cell r="A673">
+            <v>44894</v>
+          </cell>
+          <cell r="B673">
+            <v>3408.320068359375</v>
+          </cell>
+          <cell r="C673">
+            <v>3474.080078125</v>
+          </cell>
+          <cell r="D673">
+            <v>3402.820068359375</v>
+          </cell>
+          <cell r="E673">
+            <v>3466.5400390625</v>
+          </cell>
+          <cell r="F673">
+            <v>3.4665400390625001</v>
+          </cell>
+        </row>
+        <row r="674">
+          <cell r="A674">
+            <v>44895</v>
+          </cell>
+          <cell r="B674">
+            <v>3459.139892578125</v>
+          </cell>
+          <cell r="C674">
+            <v>3485.0400390625</v>
+          </cell>
+          <cell r="D674">
+            <v>3448.510009765625</v>
+          </cell>
+          <cell r="E674">
+            <v>3480.2900390625</v>
+          </cell>
+          <cell r="F674">
+            <v>3.4802900390625</v>
           </cell>
         </row>
       </sheetData>
@@ -15889,10 +16307,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:V35"/>
+  <dimension ref="A1:V36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -16536,7 +16954,7 @@
         <v>2000</v>
       </c>
       <c r="D15" s="17">
-        <f t="shared" ref="D15:D35" si="9">C15/B15</f>
+        <f t="shared" ref="D15:D36" si="9">C15/B15</f>
         <v>423.43635539860185</v>
       </c>
       <c r="E15" s="17">
@@ -16544,7 +16962,7 @@
         <v>6766.6987073504279</v>
       </c>
       <c r="F15" s="17">
-        <f t="shared" ref="F15:F35" si="10">E15*B15</f>
+        <f t="shared" ref="F15:F36" si="10">E15*B15</f>
         <v>31960.877336479982</v>
       </c>
       <c r="G15" s="17">
@@ -16552,11 +16970,11 @@
         <v>26000</v>
       </c>
       <c r="H15" s="17">
-        <f t="shared" ref="H15:H35" si="11">F15</f>
+        <f t="shared" ref="H15:H36" si="11">F15</f>
         <v>31960.877336479982</v>
       </c>
       <c r="I15" s="17">
-        <f t="shared" ref="I15:I35" si="12">H15-G15</f>
+        <f t="shared" ref="I15:I36" si="12">H15-G15</f>
         <v>5960.8773364799818</v>
       </c>
       <c r="J15" s="6"/>
@@ -16570,7 +16988,7 @@
         <v>4.4379900000000001</v>
       </c>
       <c r="C16" s="16">
-        <f t="shared" ref="C16:C35" si="13">C15</f>
+        <f t="shared" ref="C16:C36" si="13">C15</f>
         <v>2000</v>
       </c>
       <c r="D16" s="17">
@@ -16578,7 +16996,7 @@
         <v>450.65446294381013</v>
       </c>
       <c r="E16" s="17">
-        <f t="shared" ref="E16:E35" si="14">E15+D16</f>
+        <f t="shared" ref="E16:E36" si="14">E15+D16</f>
         <v>7217.3531702942382</v>
       </c>
       <c r="F16" s="17">
@@ -16586,7 +17004,7 @@
         <v>32030.541196234128</v>
       </c>
       <c r="G16" s="17">
-        <f t="shared" ref="G16:G35" si="15">G15+C16</f>
+        <f t="shared" ref="G16:G36" si="15">G15+C16</f>
         <v>28000</v>
       </c>
       <c r="H16" s="17">
@@ -17319,6 +17737,43 @@
       <c r="I35" s="17">
         <f t="shared" si="12"/>
         <v>-12524.925264431353</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="12.75">
+      <c r="A36" s="14">
+        <v>44895</v>
+      </c>
+      <c r="B36" s="15">
+        <f>VLOOKUP(A36,[1]szse_innovation_100!$A:$F,6)</f>
+        <v>3.4802900390625</v>
+      </c>
+      <c r="C36" s="16">
+        <f t="shared" si="13"/>
+        <v>2000</v>
+      </c>
+      <c r="D36" s="17">
+        <f t="shared" si="9"/>
+        <v>574.66474849859014</v>
+      </c>
+      <c r="E36" s="17">
+        <f t="shared" si="14"/>
+        <v>16782.180150794105</v>
+      </c>
+      <c r="F36" s="17">
+        <f t="shared" si="10"/>
+        <v>58406.85441256113</v>
+      </c>
+      <c r="G36" s="17">
+        <f t="shared" si="15"/>
+        <v>68000</v>
+      </c>
+      <c r="H36" s="17">
+        <f t="shared" si="11"/>
+        <v>58406.85441256113</v>
+      </c>
+      <c r="I36" s="17">
+        <f t="shared" si="12"/>
+        <v>-9593.1455874388703</v>
       </c>
     </row>
   </sheetData>
@@ -17334,9 +17789,9 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D404"/>
+  <dimension ref="A1:D405"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -23014,7 +23469,7 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="18">
-        <f t="shared" ref="A356:A404" si="3">A355+1</f>
+        <f t="shared" ref="A356:A405" si="3">A355+1</f>
         <v>354</v>
       </c>
       <c r="B356" s="19" t="s">
@@ -23794,6 +24249,22 @@
       <c r="D404" s="18">
         <f>SUM(C$3:C404)/A404</f>
         <v>31.704975105920376</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4">
+      <c r="A405" s="18">
+        <f t="shared" si="3"/>
+        <v>403</v>
+      </c>
+      <c r="B405" s="19">
+        <v>44895</v>
+      </c>
+      <c r="C405" s="20">
+        <v>22.809999470000001</v>
+      </c>
+      <c r="D405" s="18">
+        <f>SUM(C$3:C405)/A405</f>
+        <v>31.682903206079384</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1prac.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1prac.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="270">
   <si>
     <t>PE</t>
   </si>
@@ -1010,6 +1010,86 @@
   </si>
   <si>
     <t xml:space="preserve">2022/11/29
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/5
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/6
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/7
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/8
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/9
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/12
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/13
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/14
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/15
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/16
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/19
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/20
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/21
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/22
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/23
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/26
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/27
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/28
 </t>
   </si>
 </sst>
@@ -2318,11 +2398,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="185327616"/>
-        <c:axId val="185329152"/>
+        <c:axId val="78177024"/>
+        <c:axId val="78178560"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="185327616"/>
+        <c:axId val="78177024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2365,14 +2445,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="185329152"/>
+        <c:crossAx val="78178560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="185329152"/>
+        <c:axId val="78178560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2423,7 +2503,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="185327616"/>
+        <c:crossAx val="78177024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17789,7 +17869,7 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D405"/>
+  <dimension ref="A1:D426"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -23469,7 +23549,7 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="18">
-        <f t="shared" ref="A356:A405" si="3">A355+1</f>
+        <f t="shared" ref="A356:A426" si="3">A355+1</f>
         <v>354</v>
       </c>
       <c r="B356" s="19" t="s">
@@ -24265,6 +24345,342 @@
       <c r="D405" s="18">
         <f>SUM(C$3:C405)/A405</f>
         <v>31.682903206079384</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4">
+      <c r="A406" s="18">
+        <f t="shared" si="3"/>
+        <v>404</v>
+      </c>
+      <c r="B406" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="C406" s="20">
+        <v>23.170000080000001</v>
+      </c>
+      <c r="D406" s="18">
+        <f>SUM(C$3:C406)/A406</f>
+        <v>31.661831663688094</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4">
+      <c r="A407" s="18">
+        <f t="shared" si="3"/>
+        <v>405</v>
+      </c>
+      <c r="B407" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="C407" s="20">
+        <v>23.030000690000001</v>
+      </c>
+      <c r="D407" s="18">
+        <f>SUM(C$3:C407)/A407</f>
+        <v>31.640518500790101</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4">
+      <c r="A408" s="18">
+        <f t="shared" si="3"/>
+        <v>406</v>
+      </c>
+      <c r="B408" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="C408" s="20">
+        <v>23.219999309999999</v>
+      </c>
+      <c r="D408" s="18">
+        <f>SUM(C$3:C408)/A408</f>
+        <v>31.619778305738894</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4">
+      <c r="A409" s="18">
+        <f t="shared" si="3"/>
+        <v>407</v>
+      </c>
+      <c r="B409" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="C409" s="20">
+        <v>23.459999079999999</v>
+      </c>
+      <c r="D409" s="18">
+        <f>SUM(C$3:C409)/A409</f>
+        <v>31.599729708132653</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4">
+      <c r="A410" s="18">
+        <f t="shared" si="3"/>
+        <v>408</v>
+      </c>
+      <c r="B410" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="C410" s="20">
+        <v>23.649999619999999</v>
+      </c>
+      <c r="D410" s="18">
+        <f>SUM(C$3:C410)/A410</f>
+        <v>31.580245075563703</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4">
+      <c r="A411" s="18">
+        <f t="shared" si="3"/>
+        <v>409</v>
+      </c>
+      <c r="B411" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="C411" s="20">
+        <v>23.629999160000001</v>
+      </c>
+      <c r="D411" s="18">
+        <f>SUM(C$3:C411)/A411</f>
+        <v>31.560806821491422</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4">
+      <c r="A412" s="18">
+        <f t="shared" si="3"/>
+        <v>410</v>
+      </c>
+      <c r="B412" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="C412" s="20">
+        <v>23.840000150000002</v>
+      </c>
+      <c r="D412" s="18">
+        <f>SUM(C$3:C412)/A412</f>
+        <v>31.541975585707295</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
+      <c r="A413" s="18">
+        <f t="shared" si="3"/>
+        <v>411</v>
+      </c>
+      <c r="B413" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="C413" s="20">
+        <v>23.600000380000001</v>
+      </c>
+      <c r="D413" s="18">
+        <f>SUM(C$3:C413)/A413</f>
+        <v>31.522652045060806</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4">
+      <c r="A414" s="18">
+        <f t="shared" si="3"/>
+        <v>412</v>
+      </c>
+      <c r="B414" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="C414" s="20">
+        <v>23.329999919999999</v>
+      </c>
+      <c r="D414" s="18">
+        <f>SUM(C$3:C414)/A414</f>
+        <v>31.502766967087357</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4">
+      <c r="A415" s="18">
+        <f t="shared" si="3"/>
+        <v>413</v>
+      </c>
+      <c r="B415" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="C415" s="20">
+        <v>23.270000459999999</v>
+      </c>
+      <c r="D415" s="18">
+        <f>SUM(C$3:C415)/A415</f>
+        <v>31.482832907748161</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4">
+      <c r="A416" s="18">
+        <f t="shared" si="3"/>
+        <v>414</v>
+      </c>
+      <c r="B416" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="C416" s="20">
+        <v>23.5</v>
+      </c>
+      <c r="D416" s="18">
+        <f>SUM(C$3:C416)/A416</f>
+        <v>31.463550702656981</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4">
+      <c r="A417" s="18">
+        <f t="shared" si="3"/>
+        <v>415</v>
+      </c>
+      <c r="B417" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="C417" s="20">
+        <v>23.350000380000001</v>
+      </c>
+      <c r="D417" s="18">
+        <f>SUM(C$3:C417)/A417</f>
+        <v>31.443999978987929</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4">
+      <c r="A418" s="18">
+        <f t="shared" si="3"/>
+        <v>416</v>
+      </c>
+      <c r="B418" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="C418" s="20">
+        <v>23.079999919999999</v>
+      </c>
+      <c r="D418" s="18">
+        <f>SUM(C$3:C418)/A418</f>
+        <v>31.423894209615362</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4">
+      <c r="A419" s="18">
+        <f t="shared" si="3"/>
+        <v>417</v>
+      </c>
+      <c r="B419" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="C419" s="20">
+        <v>22.709999079999999</v>
+      </c>
+      <c r="D419" s="18">
+        <f>SUM(C$3:C419)/A419</f>
+        <v>31.402997578609092</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4">
+      <c r="A420" s="18">
+        <f t="shared" si="3"/>
+        <v>418</v>
+      </c>
+      <c r="B420" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="C420" s="20">
+        <v>22.61000061</v>
+      </c>
+      <c r="D420" s="18">
+        <f>SUM(C$3:C420)/A420</f>
+        <v>31.381961700693761</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
+      <c r="A421" s="18">
+        <f t="shared" si="3"/>
+        <v>419</v>
+      </c>
+      <c r="B421" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="C421" s="20">
+        <v>22.549999239999998</v>
+      </c>
+      <c r="D421" s="18">
+        <f>SUM(C$3:C421)/A421</f>
+        <v>31.360883031336495</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
+      <c r="A422" s="18">
+        <f t="shared" si="3"/>
+        <v>420</v>
+      </c>
+      <c r="B422" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="C422" s="20">
+        <v>22.450000760000002</v>
+      </c>
+      <c r="D422" s="18">
+        <f>SUM(C$3:C422)/A422</f>
+        <v>31.33966664497617</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4">
+      <c r="A423" s="18">
+        <f t="shared" si="3"/>
+        <v>421</v>
+      </c>
+      <c r="B423" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="C423" s="20">
+        <v>22.790000920000001</v>
+      </c>
+      <c r="D423" s="18">
+        <f>SUM(C$3:C423)/A423</f>
+        <v>31.319358650380028</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4">
+      <c r="A424" s="18">
+        <f t="shared" si="3"/>
+        <v>422</v>
+      </c>
+      <c r="B424" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="C424" s="20">
+        <v>23</v>
+      </c>
+      <c r="D424" s="18">
+        <f>SUM(C$3:C424)/A424</f>
+        <v>31.29964453035543</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
+      <c r="A425" s="18">
+        <f t="shared" si="3"/>
+        <v>423</v>
+      </c>
+      <c r="B425" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="C425" s="20">
+        <v>22.729999540000001</v>
+      </c>
+      <c r="D425" s="18">
+        <f>SUM(C$3:C425)/A425</f>
+        <v>31.279385322340406</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4">
+      <c r="A426" s="18">
+        <f t="shared" si="3"/>
+        <v>424</v>
+      </c>
+      <c r="B426" s="19">
+        <v>44924</v>
+      </c>
+      <c r="C426" s="20">
+        <v>22.760000229999999</v>
+      </c>
+      <c r="D426" s="18">
+        <f>SUM(C$3:C426)/A426</f>
+        <v>31.259292432971684</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1prac.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1prac.xlsx
@@ -2398,11 +2398,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="78177024"/>
-        <c:axId val="78178560"/>
+        <c:axId val="85666816"/>
+        <c:axId val="86172416"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="78177024"/>
+        <c:axId val="85666816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2445,14 +2445,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78178560"/>
+        <c:crossAx val="86172416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="78178560"/>
+        <c:axId val="86172416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2503,7 +2503,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78177024"/>
+        <c:crossAx val="85666816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16090,6 +16090,306 @@
           </cell>
           <cell r="F674">
             <v>3.4802900390625</v>
+          </cell>
+        </row>
+        <row r="675">
+          <cell r="A675">
+            <v>44907</v>
+          </cell>
+          <cell r="B675">
+            <v>3609.10009765625</v>
+          </cell>
+          <cell r="C675">
+            <v>3629.239990234375</v>
+          </cell>
+          <cell r="D675">
+            <v>3597.340087890625</v>
+          </cell>
+          <cell r="E675">
+            <v>3607.06005859375</v>
+          </cell>
+          <cell r="F675">
+            <v>3.60706005859375</v>
+          </cell>
+        </row>
+        <row r="676">
+          <cell r="A676">
+            <v>44908</v>
+          </cell>
+          <cell r="B676">
+            <v>3608.77001953125</v>
+          </cell>
+          <cell r="C676">
+            <v>3608.969970703125</v>
+          </cell>
+          <cell r="D676">
+            <v>3562.97998046875</v>
+          </cell>
+          <cell r="E676">
+            <v>3564.9599609375</v>
+          </cell>
+          <cell r="F676">
+            <v>3.5649599609374998</v>
+          </cell>
+        </row>
+        <row r="677">
+          <cell r="A677">
+            <v>44909</v>
+          </cell>
+          <cell r="B677">
+            <v>3578.050048828125</v>
+          </cell>
+          <cell r="C677">
+            <v>3584.14990234375</v>
+          </cell>
+          <cell r="D677">
+            <v>3549.389892578125</v>
+          </cell>
+          <cell r="E677">
+            <v>3555.800048828125</v>
+          </cell>
+          <cell r="F677">
+            <v>3.5558000488281252</v>
+          </cell>
+        </row>
+        <row r="678">
+          <cell r="A678">
+            <v>44910</v>
+          </cell>
+          <cell r="B678">
+            <v>3552.389892578125</v>
+          </cell>
+          <cell r="C678">
+            <v>3592.31005859375</v>
+          </cell>
+          <cell r="D678">
+            <v>3548.2099609375</v>
+          </cell>
+          <cell r="E678">
+            <v>3589.489990234375</v>
+          </cell>
+          <cell r="F678">
+            <v>3.5894899902343749</v>
+          </cell>
+        </row>
+        <row r="679">
+          <cell r="A679">
+            <v>44911</v>
+          </cell>
+          <cell r="B679">
+            <v>3565.719970703125</v>
+          </cell>
+          <cell r="C679">
+            <v>3577.2900390625</v>
+          </cell>
+          <cell r="D679">
+            <v>3546.7900390625</v>
+          </cell>
+          <cell r="E679">
+            <v>3567.14990234375</v>
+          </cell>
+          <cell r="F679">
+            <v>3.5671499023437501</v>
+          </cell>
+        </row>
+        <row r="680">
+          <cell r="A680">
+            <v>44914</v>
+          </cell>
+          <cell r="B680">
+            <v>3565.75</v>
+          </cell>
+          <cell r="C680">
+            <v>3586.010009765625</v>
+          </cell>
+          <cell r="D680">
+            <v>3513.10009765625</v>
+          </cell>
+          <cell r="E680">
+            <v>3525.510009765625</v>
+          </cell>
+          <cell r="F680">
+            <v>3.5255100097656249</v>
+          </cell>
+        </row>
+        <row r="681">
+          <cell r="A681">
+            <v>44915</v>
+          </cell>
+          <cell r="B681">
+            <v>3514.239990234375</v>
+          </cell>
+          <cell r="C681">
+            <v>3514.570068359375</v>
+          </cell>
+          <cell r="D681">
+            <v>3456.780029296875</v>
+          </cell>
+          <cell r="E681">
+            <v>3467.97998046875</v>
+          </cell>
+          <cell r="F681">
+            <v>3.4679799804687499</v>
+          </cell>
+        </row>
+        <row r="682">
+          <cell r="A682">
+            <v>44916</v>
+          </cell>
+          <cell r="B682">
+            <v>3471.60009765625</v>
+          </cell>
+          <cell r="C682">
+            <v>3481.989990234375</v>
+          </cell>
+          <cell r="D682">
+            <v>3440.239990234375</v>
+          </cell>
+          <cell r="E682">
+            <v>3453.199951171875</v>
+          </cell>
+          <cell r="F682">
+            <v>3.4531999511718752</v>
+          </cell>
+        </row>
+        <row r="683">
+          <cell r="A683">
+            <v>44917</v>
+          </cell>
+          <cell r="B683">
+            <v>3476.35009765625</v>
+          </cell>
+          <cell r="C683">
+            <v>3489.139892578125</v>
+          </cell>
+          <cell r="D683">
+            <v>3433.7900390625</v>
+          </cell>
+          <cell r="E683">
+            <v>3443.830078125</v>
+          </cell>
+          <cell r="F683">
+            <v>3.443830078125</v>
+          </cell>
+        </row>
+        <row r="684">
+          <cell r="A684">
+            <v>44918</v>
+          </cell>
+          <cell r="B684">
+            <v>3421.8701171875</v>
+          </cell>
+          <cell r="C684">
+            <v>3450.989990234375</v>
+          </cell>
+          <cell r="D684">
+            <v>3409.989990234375</v>
+          </cell>
+          <cell r="E684">
+            <v>3426.989990234375</v>
+          </cell>
+          <cell r="F684">
+            <v>3.4269899902343748</v>
+          </cell>
+        </row>
+        <row r="685">
+          <cell r="A685">
+            <v>44921</v>
+          </cell>
+          <cell r="B685">
+            <v>3430.8798828125</v>
+          </cell>
+          <cell r="C685">
+            <v>3486.5</v>
+          </cell>
+          <cell r="D685">
+            <v>3430.8798828125</v>
+          </cell>
+          <cell r="E685">
+            <v>3480.330078125</v>
+          </cell>
+          <cell r="F685">
+            <v>3.4803300781250002</v>
+          </cell>
+        </row>
+        <row r="686">
+          <cell r="A686">
+            <v>44922</v>
+          </cell>
+          <cell r="B686">
+            <v>3487.590087890625</v>
+          </cell>
+          <cell r="C686">
+            <v>3517.739990234375</v>
+          </cell>
+          <cell r="D686">
+            <v>3476.340087890625</v>
+          </cell>
+          <cell r="E686">
+            <v>3513.85009765625</v>
+          </cell>
+          <cell r="F686">
+            <v>3.5138500976562499</v>
+          </cell>
+        </row>
+        <row r="687">
+          <cell r="A687">
+            <v>44923</v>
+          </cell>
+          <cell r="B687">
+            <v>3492.9599609375</v>
+          </cell>
+          <cell r="C687">
+            <v>3495.7099609375</v>
+          </cell>
+          <cell r="D687">
+            <v>3455.699951171875</v>
+          </cell>
+          <cell r="E687">
+            <v>3472.489990234375</v>
+          </cell>
+          <cell r="F687">
+            <v>3.4724899902343749</v>
+          </cell>
+        </row>
+        <row r="688">
+          <cell r="A688">
+            <v>44924</v>
+          </cell>
+          <cell r="B688">
+            <v>3460.449951171875</v>
+          </cell>
+          <cell r="C688">
+            <v>3499.260009765625</v>
+          </cell>
+          <cell r="D688">
+            <v>3456.27001953125</v>
+          </cell>
+          <cell r="E688">
+            <v>3476.469970703125</v>
+          </cell>
+          <cell r="F688">
+            <v>3.4764699707031248</v>
+          </cell>
+        </row>
+        <row r="689">
+          <cell r="A689">
+            <v>44925</v>
+          </cell>
+          <cell r="B689">
+            <v>3494.699951171875</v>
+          </cell>
+          <cell r="C689">
+            <v>3507.47998046875</v>
+          </cell>
+          <cell r="D689">
+            <v>3473.530029296875</v>
+          </cell>
+          <cell r="E689">
+            <v>3473.530029296875</v>
+          </cell>
+          <cell r="F689">
+            <v>3.4735300292968749</v>
           </cell>
         </row>
       </sheetData>
@@ -16390,7 +16690,7 @@
   <dimension ref="A1:V36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -17869,7 +18169,7 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D426"/>
+  <dimension ref="A1:D427"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -23549,7 +23849,7 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="18">
-        <f t="shared" ref="A356:A426" si="3">A355+1</f>
+        <f t="shared" ref="A356:A427" si="3">A355+1</f>
         <v>354</v>
       </c>
       <c r="B356" s="19" t="s">
@@ -24681,6 +24981,22 @@
       <c r="D426" s="18">
         <f>SUM(C$3:C426)/A426</f>
         <v>31.259292432971684</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4">
+      <c r="A427" s="18">
+        <f t="shared" si="3"/>
+        <v>425</v>
+      </c>
+      <c r="B427" s="19">
+        <v>44925</v>
+      </c>
+      <c r="C427" s="20">
+        <v>22.739999770000001</v>
+      </c>
+      <c r="D427" s="18">
+        <f>SUM(C$3:C427)/A427</f>
+        <v>31.23924703847057</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1prac.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1prac.xlsx
@@ -1654,7 +1654,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>43889</c:v>
                 </c:pt>
@@ -1757,6 +1757,9 @@
                 <c:pt idx="33">
                   <c:v>44895</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>44925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1765,7 +1768,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1868,6 +1871,9 @@
                 <c:pt idx="33">
                   <c:v>68000</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>70000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1909,7 +1915,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>43889</c:v>
                 </c:pt>
@@ -2012,6 +2018,9 @@
                 <c:pt idx="33">
                   <c:v>44895</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>44925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2020,7 +2029,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>2000.0000000000002</c:v>
                 </c:pt>
@@ -2123,6 +2132,9 @@
                 <c:pt idx="33">
                   <c:v>58406.85441256113</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>60293.406710853284</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2164,7 +2176,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>43889</c:v>
                 </c:pt>
@@ -2267,6 +2279,9 @@
                 <c:pt idx="33">
                   <c:v>44895</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>44925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2275,7 +2290,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2378,6 +2393,9 @@
                 <c:pt idx="33">
                   <c:v>-9593.1455874388703</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>-9706.5932891467164</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2398,11 +2416,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="85666816"/>
-        <c:axId val="86172416"/>
+        <c:axId val="77947264"/>
+        <c:axId val="77948800"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="85666816"/>
+        <c:axId val="77947264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2445,14 +2463,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86172416"/>
+        <c:crossAx val="77948800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="86172416"/>
+        <c:axId val="77948800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2503,7 +2521,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85666816"/>
+        <c:crossAx val="77947264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16687,7 +16705,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:V36"/>
+  <dimension ref="A1:V37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17334,7 +17352,7 @@
         <v>2000</v>
       </c>
       <c r="D15" s="17">
-        <f t="shared" ref="D15:D36" si="9">C15/B15</f>
+        <f t="shared" ref="D15:D37" si="9">C15/B15</f>
         <v>423.43635539860185</v>
       </c>
       <c r="E15" s="17">
@@ -17342,7 +17360,7 @@
         <v>6766.6987073504279</v>
       </c>
       <c r="F15" s="17">
-        <f t="shared" ref="F15:F36" si="10">E15*B15</f>
+        <f t="shared" ref="F15:F37" si="10">E15*B15</f>
         <v>31960.877336479982</v>
       </c>
       <c r="G15" s="17">
@@ -17350,11 +17368,11 @@
         <v>26000</v>
       </c>
       <c r="H15" s="17">
-        <f t="shared" ref="H15:H36" si="11">F15</f>
+        <f t="shared" ref="H15:H37" si="11">F15</f>
         <v>31960.877336479982</v>
       </c>
       <c r="I15" s="17">
-        <f t="shared" ref="I15:I36" si="12">H15-G15</f>
+        <f t="shared" ref="I15:I37" si="12">H15-G15</f>
         <v>5960.8773364799818</v>
       </c>
       <c r="J15" s="6"/>
@@ -17368,7 +17386,7 @@
         <v>4.4379900000000001</v>
       </c>
       <c r="C16" s="16">
-        <f t="shared" ref="C16:C36" si="13">C15</f>
+        <f t="shared" ref="C16:C37" si="13">C15</f>
         <v>2000</v>
       </c>
       <c r="D16" s="17">
@@ -17376,7 +17394,7 @@
         <v>450.65446294381013</v>
       </c>
       <c r="E16" s="17">
-        <f t="shared" ref="E16:E36" si="14">E15+D16</f>
+        <f t="shared" ref="E16:E37" si="14">E15+D16</f>
         <v>7217.3531702942382</v>
       </c>
       <c r="F16" s="17">
@@ -17384,7 +17402,7 @@
         <v>32030.541196234128</v>
       </c>
       <c r="G16" s="17">
-        <f t="shared" ref="G16:G36" si="15">G15+C16</f>
+        <f t="shared" ref="G16:G37" si="15">G15+C16</f>
         <v>28000</v>
       </c>
       <c r="H16" s="17">
@@ -18154,6 +18172,43 @@
       <c r="I36" s="17">
         <f t="shared" si="12"/>
         <v>-9593.1455874388703</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="12.75">
+      <c r="A37" s="14">
+        <v>44925</v>
+      </c>
+      <c r="B37" s="15">
+        <f>VLOOKUP(A37,[1]szse_innovation_100!$A:$F,6)</f>
+        <v>3.4735300292968749</v>
+      </c>
+      <c r="C37" s="16">
+        <f t="shared" si="13"/>
+        <v>2000</v>
+      </c>
+      <c r="D37" s="17">
+        <f t="shared" si="9"/>
+        <v>575.78313218292442</v>
+      </c>
+      <c r="E37" s="17">
+        <f t="shared" si="14"/>
+        <v>17357.963282977031</v>
+      </c>
+      <c r="F37" s="17">
+        <f t="shared" si="10"/>
+        <v>60293.406710853284</v>
+      </c>
+      <c r="G37" s="17">
+        <f t="shared" si="15"/>
+        <v>70000</v>
+      </c>
+      <c r="H37" s="17">
+        <f t="shared" si="11"/>
+        <v>60293.406710853284</v>
+      </c>
+      <c r="I37" s="17">
+        <f t="shared" si="12"/>
+        <v>-9706.5932891467164</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1prac.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1prac.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="model1" sheetId="5" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="284">
   <si>
     <t>PE</t>
   </si>
@@ -1090,6 +1090,62 @@
   </si>
   <si>
     <t xml:space="preserve">2022/12/28
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/3
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/4
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/5
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/6
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/9
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/10
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/11
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/12
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/13
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/16
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/17
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/18
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/19
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/20
 </t>
   </si>
 </sst>
@@ -1607,7 +1663,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1653,112 +1708,112 @@
             <c:numRef>
               <c:f>model1!时间</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>43889</c:v>
+                  <c:v>3.25108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43921</c:v>
+                  <c:v>2.8991500000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43951</c:v>
+                  <c:v>3.17509</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43980</c:v>
+                  <c:v>3.1906699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44012</c:v>
+                  <c:v>3.6513100000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44043</c:v>
+                  <c:v>4.1706000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44074</c:v>
+                  <c:v>4.1298999999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44104</c:v>
+                  <c:v>3.9869400000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44134</c:v>
+                  <c:v>4.2014499999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44165</c:v>
+                  <c:v>4.27712</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44196</c:v>
+                  <c:v>4.7245600000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44225</c:v>
+                  <c:v>4.9833500000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44253</c:v>
+                  <c:v>4.7232599999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44286</c:v>
+                  <c:v>4.4379900000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44316</c:v>
+                  <c:v>4.7860299999999993</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44347</c:v>
+                  <c:v>4.9806599999999994</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44377</c:v>
+                  <c:v>5.1114799999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44407</c:v>
+                  <c:v>4.9776999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44439</c:v>
+                  <c:v>4.7613100000000008</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44469</c:v>
+                  <c:v>4.7106400000000006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44498</c:v>
+                  <c:v>4.8678999999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44530</c:v>
+                  <c:v>4.9547099609374996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44561</c:v>
+                  <c:v>4.8630097656249998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44589</c:v>
+                  <c:v>4.3440297851562502</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44620</c:v>
+                  <c:v>4.3355400390624999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44651</c:v>
+                  <c:v>3.8658500976562502</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44680</c:v>
+                  <c:v>3.5012099609375</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44712</c:v>
+                  <c:v>3.6361599121093748</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44742</c:v>
+                  <c:v>4.1096201171875002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44771</c:v>
+                  <c:v>3.8724699707031252</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44804</c:v>
+                  <c:v>3.7022099609375001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44834</c:v>
+                  <c:v>3.3477299804687499</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44865</c:v>
+                  <c:v>3.2993999023437501</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44895</c:v>
+                  <c:v>3.4802900390625</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>44925</c:v>
+                  <c:v>3.4735300292968749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1766,267 +1821,6 @@
           <c:val>
             <c:numRef>
               <c:f>model1!资金</c:f>
-              <c:numCache>
-                <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
-                <c:pt idx="0">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>26000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>28000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>34000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>36000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>38000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>42000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>46000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>48000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>52000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>54000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>56000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>58000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>60000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>62000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>64000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>66000</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>68000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>70000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E69F-429A-B459-D6A53AA60C2B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>model1!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>total assets</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>model1!时间</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
-                <c:pt idx="0">
-                  <c:v>43889</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43921</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43951</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43980</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44012</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44043</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44074</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44104</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44134</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44165</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44196</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44225</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44253</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44286</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44316</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44347</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44377</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44407</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>44439</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>44469</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44498</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44530</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>44561</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>44589</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>44620</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>44651</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>44680</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44712</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>44742</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>44771</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>44804</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>44834</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>44865</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>44895</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>44925</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="35"/>
@@ -2141,20 +1935,20 @@
           <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E69F-429A-B459-D6A53AA60C2B}"/>
+              <c16:uniqueId val="{00000000-E69F-429A-B459-D6A53AA60C2B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>model1!$I$1</c:f>
+              <c:f>model1!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>profit amount</c:v>
+                  <c:v>total assets</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2162,7 +1956,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2175,119 +1969,119 @@
             <c:numRef>
               <c:f>model1!时间</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>43889</c:v>
+                  <c:v>3.25108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43921</c:v>
+                  <c:v>2.8991500000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43951</c:v>
+                  <c:v>3.17509</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43980</c:v>
+                  <c:v>3.1906699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44012</c:v>
+                  <c:v>3.6513100000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44043</c:v>
+                  <c:v>4.1706000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44074</c:v>
+                  <c:v>4.1298999999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44104</c:v>
+                  <c:v>3.9869400000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44134</c:v>
+                  <c:v>4.2014499999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44165</c:v>
+                  <c:v>4.27712</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44196</c:v>
+                  <c:v>4.7245600000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44225</c:v>
+                  <c:v>4.9833500000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44253</c:v>
+                  <c:v>4.7232599999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44286</c:v>
+                  <c:v>4.4379900000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44316</c:v>
+                  <c:v>4.7860299999999993</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44347</c:v>
+                  <c:v>4.9806599999999994</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44377</c:v>
+                  <c:v>5.1114799999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44407</c:v>
+                  <c:v>4.9776999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44439</c:v>
+                  <c:v>4.7613100000000008</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44469</c:v>
+                  <c:v>4.7106400000000006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44498</c:v>
+                  <c:v>4.8678999999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44530</c:v>
+                  <c:v>4.9547099609374996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44561</c:v>
+                  <c:v>4.8630097656249998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44589</c:v>
+                  <c:v>4.3440297851562502</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44620</c:v>
+                  <c:v>4.3355400390624999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44651</c:v>
+                  <c:v>3.8658500976562502</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44680</c:v>
+                  <c:v>3.5012099609375</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44712</c:v>
+                  <c:v>3.6361599121093748</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44742</c:v>
+                  <c:v>4.1096201171875002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44771</c:v>
+                  <c:v>3.8724699707031252</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44804</c:v>
+                  <c:v>3.7022099609375001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44834</c:v>
+                  <c:v>3.3477299804687499</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44865</c:v>
+                  <c:v>3.2993999023437501</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44895</c:v>
+                  <c:v>3.4802900390625</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>44925</c:v>
+                  <c:v>3.4735300292968749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>model1!金额</c:f>
+              <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="35"/>
@@ -2402,6 +2196,162 @@
           <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E69F-429A-B459-D6A53AA60C2B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>model1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>profit amount</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>model1!时间</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>3.25108</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8991500000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.17509</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1906699999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6513100000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1706000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.1298999999999992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9869400000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.2014499999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.27712</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.7245600000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.9833500000000006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.7232599999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.4379900000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.7860299999999993</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.9806599999999994</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.1114799999999994</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.9776999999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.7613100000000008</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.7106400000000006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.8678999999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.9547099609374996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.8630097656249998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.3440297851562502</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.3355400390624999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.8658500976562502</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.5012099609375</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.6361599121093748</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.1096201171875002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.8724699707031252</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.7022099609375001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.3477299804687499</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2993999023437501</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.4802900390625</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4735300292968749</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>model1!金额</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E69F-429A-B459-D6A53AA60C2B}"/>
             </c:ext>
           </c:extLst>
@@ -2416,17 +2366,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="77947264"/>
-        <c:axId val="77948800"/>
+        <c:axId val="324213376"/>
+        <c:axId val="324215168"/>
       </c:lineChart>
-      <c:dateAx>
-        <c:axId val="77947264"/>
+      <c:catAx>
+        <c:axId val="324213376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -2463,14 +2413,15 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77948800"/>
+        <c:crossAx val="324215168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="77948800"/>
+        <c:axId val="324215168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2521,7 +2472,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77947264"/>
+        <c:crossAx val="324213376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2535,7 +2486,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16707,7 +16657,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -18224,9 +18174,9 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D427"/>
+  <dimension ref="A1:D443"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -23767,11 +23717,11 @@
         <v>195</v>
       </c>
       <c r="C347" s="20">
-        <v>23.5</v>
+        <v>24.68000031</v>
       </c>
       <c r="D347" s="18">
         <f>SUM(C$3:C347)/A347</f>
-        <v>33.149565178898534</v>
+        <v>33.152985469652158</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -23783,11 +23733,11 @@
         <v>196</v>
       </c>
       <c r="C348" s="20">
-        <v>23.5</v>
+        <v>24.6341</v>
       </c>
       <c r="D348" s="18">
         <f>SUM(C$3:C348)/A348</f>
-        <v>33.121676262196516</v>
+        <v>33.128364413381483</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -23799,11 +23749,11 @@
         <v>197</v>
       </c>
       <c r="C349" s="20">
-        <v>23.5</v>
+        <v>24.469999309999999</v>
       </c>
       <c r="D349" s="18">
         <f>SUM(C$3:C349)/A349</f>
-        <v>33.093948088530247</v>
+        <v>33.103412352564824</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -23815,11 +23765,11 @@
         <v>198</v>
       </c>
       <c r="C350" s="20">
-        <v>23.33</v>
+        <v>24.540000920000001</v>
       </c>
       <c r="D350" s="18">
         <f>SUM(C$3:C350)/A350</f>
-        <v>33.065890766436766</v>
+        <v>33.078804848448264</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -23831,11 +23781,11 @@
         <v>199</v>
       </c>
       <c r="C351" s="20">
-        <v>23.05</v>
+        <v>24.780000690000001</v>
       </c>
       <c r="D351" s="18">
         <f>SUM(C$3:C351)/A351</f>
-        <v>33.037191939025774</v>
+        <v>33.055026039971331</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -23847,11 +23797,11 @@
         <v>200</v>
       </c>
       <c r="C352" s="20">
-        <v>22.91</v>
+        <v>24.440000529999999</v>
       </c>
       <c r="D352" s="18">
         <f>SUM(C$3:C352)/A352</f>
-        <v>33.008257104914271</v>
+        <v>33.030411681371412</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -23863,11 +23813,11 @@
         <v>201</v>
       </c>
       <c r="C353" s="20">
-        <v>23</v>
+        <v>24.770099999999999</v>
       </c>
       <c r="D353" s="18">
         <f>SUM(C$3:C353)/A353</f>
-        <v>32.979743551908818</v>
+        <v>33.006878029857532</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -23879,11 +23829,11 @@
         <v>202</v>
       </c>
       <c r="C354" s="20">
-        <v>23.46</v>
+        <v>24.93</v>
       </c>
       <c r="D354" s="18">
         <f>SUM(C$3:C354)/A354</f>
-        <v>32.952698825909074</v>
+        <v>32.983932353636348</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -23895,27 +23845,27 @@
         <v>203</v>
       </c>
       <c r="C355" s="20">
-        <v>22.93</v>
+        <v>24.52</v>
       </c>
       <c r="D355" s="18">
         <f>SUM(C$3:C355)/A355</f>
-        <v>32.924305911388082</v>
+        <v>32.959955208158625</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="18">
-        <f t="shared" ref="A356:A427" si="3">A355+1</f>
+        <f t="shared" ref="A356:A443" si="3">A355+1</f>
         <v>354</v>
       </c>
       <c r="B356" s="19" t="s">
         <v>204</v>
       </c>
       <c r="C356" s="20">
-        <v>23.03</v>
+        <v>23.94</v>
       </c>
       <c r="D356" s="18">
         <f>SUM(C$3:C356)/A356</f>
-        <v>32.89635589468925</v>
+        <v>32.934475108700553</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -23927,11 +23877,11 @@
         <v>205</v>
       </c>
       <c r="C357" s="20">
-        <v>22.61000061</v>
+        <v>23.5</v>
       </c>
       <c r="D357" s="18">
         <f>SUM(C$3:C357)/A357</f>
-        <v>32.867380245999989</v>
+        <v>32.90789912247886</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -23943,11 +23893,11 @@
         <v>206</v>
       </c>
       <c r="C358" s="20">
-        <v>22.040000920000001</v>
+        <v>23.5</v>
       </c>
       <c r="D358" s="18">
         <f>SUM(C$3:C358)/A358</f>
-        <v>32.836966259129198</v>
+        <v>32.881472439550549</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -23959,11 +23909,11 @@
         <v>207</v>
       </c>
       <c r="C359" s="20">
-        <v>22.239999770000001</v>
+        <v>23.5</v>
       </c>
       <c r="D359" s="18">
         <f>SUM(C$3:C359)/A359</f>
-        <v>32.807282879607826</v>
+        <v>32.85519380526609</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -23975,11 +23925,11 @@
         <v>208</v>
       </c>
       <c r="C360" s="20">
-        <v>22.920000080000001</v>
+        <v>23.33</v>
       </c>
       <c r="D360" s="18">
         <f>SUM(C$3:C360)/A360</f>
-        <v>32.779664771229037</v>
+        <v>32.8285871186592</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -23991,11 +23941,11 @@
         <v>209</v>
       </c>
       <c r="C361" s="20">
-        <v>22.850000380000001</v>
+        <v>23.05</v>
       </c>
       <c r="D361" s="18">
         <f>SUM(C$3:C361)/A361</f>
-        <v>32.752005538941489</v>
+        <v>32.801348714428954</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -24007,11 +23957,11 @@
         <v>210</v>
       </c>
       <c r="C362" s="20">
-        <v>23.649999619999999</v>
+        <v>22.91</v>
       </c>
       <c r="D362" s="18">
         <f>SUM(C$3:C362)/A362</f>
-        <v>32.726722189166651</v>
+        <v>32.773872745777759</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -24023,11 +23973,11 @@
         <v>211</v>
       </c>
       <c r="C363" s="20">
-        <v>23.719999309999999</v>
+        <v>23</v>
       </c>
       <c r="D363" s="18">
         <f>SUM(C$3:C363)/A363</f>
-        <v>32.701772818310232</v>
+        <v>32.746798306038762</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -24039,11 +23989,11 @@
         <v>212</v>
       </c>
       <c r="C364" s="20">
-        <v>23.850000380000001</v>
+        <v>23.46</v>
       </c>
       <c r="D364" s="18">
         <f>SUM(C$3:C364)/A364</f>
-        <v>32.677320408259654</v>
+        <v>32.721144167071806</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -24055,11 +24005,11 @@
         <v>213</v>
       </c>
       <c r="C365" s="20">
-        <v>23.590000150000002</v>
+        <v>22.93</v>
       </c>
       <c r="D365" s="18">
         <f>SUM(C$3:C365)/A365</f>
-        <v>32.652286468154252</v>
+        <v>32.694171318126706</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -24071,11 +24021,11 @@
         <v>214</v>
       </c>
       <c r="C366" s="20">
-        <v>23.399999619999999</v>
+        <v>23.030000690000001</v>
       </c>
       <c r="D366" s="18">
         <f>SUM(C$3:C366)/A366</f>
-        <v>32.626868097692288</v>
+        <v>32.66762139881866</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -24087,11 +24037,11 @@
         <v>44834</v>
       </c>
       <c r="C367" s="20">
-        <v>23.340000150000002</v>
+        <v>22.61</v>
       </c>
       <c r="D367" s="18">
         <f>SUM(C$3:C367)/A367</f>
-        <v>32.601424623862997</v>
+        <v>32.640066271698615</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -24107,7 +24057,7 @@
       </c>
       <c r="D368" s="18">
         <f>SUM(C$3:C368)/A368</f>
-        <v>32.57256827494534</v>
+        <v>32.611104344508178</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -24123,7 +24073,7 @@
       </c>
       <c r="D369" s="18">
         <f>SUM(C$3:C369)/A369</f>
-        <v>32.544414137329682</v>
+        <v>32.582845203978181</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -24139,7 +24089,7 @@
       </c>
       <c r="D370" s="18">
         <f>SUM(C$3:C370)/A370</f>
-        <v>32.518260838260851</v>
+        <v>32.556587472663026</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -24155,7 +24105,7 @@
       </c>
       <c r="D371" s="18">
         <f>SUM(C$3:C371)/A371</f>
-        <v>32.492059590406484</v>
+        <v>32.530282358590767</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -24171,7 +24121,7 @@
       </c>
       <c r="D372" s="18">
         <f>SUM(C$3:C372)/A372</f>
-        <v>32.468162131027007</v>
+        <v>32.506281594432416</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -24187,7 +24137,7 @@
       </c>
       <c r="D373" s="18">
         <f>SUM(C$3:C373)/A373</f>
-        <v>32.444582177331519</v>
+        <v>32.482598892857126</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -24203,7 +24153,7 @@
       </c>
       <c r="D374" s="18">
         <f>SUM(C$3:C374)/A374</f>
-        <v>32.421478462822563</v>
+        <v>32.459392982876324</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -24219,7 +24169,7 @@
       </c>
       <c r="D375" s="18">
         <f>SUM(C$3:C375)/A375</f>
-        <v>32.39780157726539</v>
+        <v>32.435614449812313</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -24235,7 +24185,7 @@
       </c>
       <c r="D376" s="18">
         <f>SUM(C$3:C376)/A376</f>
-        <v>32.373743283262009</v>
+        <v>32.411455051871634</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -24251,7 +24201,7 @@
       </c>
       <c r="D377" s="18">
         <f>SUM(C$3:C377)/A377</f>
-        <v>32.349653301573312</v>
+        <v>32.387264505466646</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -24267,7 +24217,7 @@
       </c>
       <c r="D378" s="18">
         <f>SUM(C$3:C378)/A378</f>
-        <v>32.324335074494662</v>
+        <v>32.361846248590403</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -24283,7 +24233,7 @@
       </c>
       <c r="D379" s="18">
         <f>SUM(C$3:C379)/A379</f>
-        <v>32.298912434429688</v>
+        <v>32.336324109389899</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -24299,7 +24249,7 @@
       </c>
       <c r="D380" s="18">
         <f>SUM(C$3:C380)/A380</f>
-        <v>32.274788328280401</v>
+        <v>32.312101030555532</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -24315,7 +24265,7 @@
       </c>
       <c r="D381" s="18">
         <f>SUM(C$3:C381)/A381</f>
-        <v>32.250211047941931</v>
+        <v>32.287425299815283</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -24331,7 +24281,7 @@
       </c>
       <c r="D382" s="18">
         <f>SUM(C$3:C382)/A382</f>
-        <v>32.223605227789449</v>
+        <v>32.260721547421028</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -24347,7 +24297,7 @@
       </c>
       <c r="D383" s="18">
         <f>SUM(C$3:C383)/A383</f>
-        <v>32.197401538923856</v>
+        <v>32.234420440393677</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -24363,7 +24313,7 @@
       </c>
       <c r="D384" s="18">
         <f>SUM(C$3:C384)/A384</f>
-        <v>32.171413577984268</v>
+        <v>32.208335571335049</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -24379,7 +24329,7 @@
       </c>
       <c r="D385" s="18">
         <f>SUM(C$3:C385)/A385</f>
-        <v>32.146422943002584</v>
+        <v>32.183248534281958</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -24395,7 +24345,7 @@
       </c>
       <c r="D386" s="18">
         <f>SUM(C$3:C386)/A386</f>
-        <v>32.121249965390597</v>
+        <v>32.157979656692682</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -24411,7 +24361,7 @@
       </c>
       <c r="D387" s="18">
         <f>SUM(C$3:C387)/A387</f>
-        <v>32.098077889532441</v>
+        <v>32.134712179038935</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -24427,7 +24377,7 @@
       </c>
       <c r="D388" s="18">
         <f>SUM(C$3:C388)/A388</f>
-        <v>32.074999968911889</v>
+        <v>32.111539350932617</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -24443,7 +24393,7 @@
       </c>
       <c r="D389" s="18">
         <f>SUM(C$3:C389)/A389</f>
-        <v>32.051627877751912</v>
+        <v>32.088072842764831</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -24459,7 +24409,7 @@
       </c>
       <c r="D390" s="18">
         <f>SUM(C$3:C390)/A390</f>
-        <v>32.027680383814406</v>
+        <v>32.064031418505131</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -24475,7 +24425,7 @@
       </c>
       <c r="D391" s="18">
         <f>SUM(C$3:C391)/A391</f>
-        <v>32.002724906452414</v>
+        <v>32.038982493753188</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -24491,7 +24441,7 @@
       </c>
       <c r="D392" s="18">
         <f>SUM(C$3:C392)/A392</f>
-        <v>31.979307665256382</v>
+        <v>32.015472284384586</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -24507,7 +24457,7 @@
       </c>
       <c r="D393" s="18">
         <f>SUM(C$3:C393)/A393</f>
-        <v>31.95606135253194</v>
+        <v>31.992133479028105</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -24523,7 +24473,7 @@
       </c>
       <c r="D394" s="18">
         <f>SUM(C$3:C394)/A394</f>
-        <v>31.934362218367319</v>
+        <v>31.970342324132627</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -24539,7 +24489,7 @@
       </c>
       <c r="D395" s="18">
         <f>SUM(C$3:C395)/A395</f>
-        <v>31.911959258931272</v>
+        <v>31.947847812264605</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -24555,7 +24505,7 @@
       </c>
       <c r="D396" s="18">
         <f>SUM(C$3:C396)/A396</f>
-        <v>31.889365454289315</v>
+        <v>31.925162919923835</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -24571,7 +24521,7 @@
       </c>
       <c r="D397" s="18">
         <f>SUM(C$3:C397)/A397</f>
-        <v>31.866936682734149</v>
+        <v>31.902643521873394</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -24587,7 +24537,7 @@
       </c>
       <c r="D398" s="18">
         <f>SUM(C$3:C398)/A398</f>
-        <v>31.844545428484821</v>
+        <v>31.880162098838358</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -24603,7 +24553,7 @@
       </c>
       <c r="D399" s="18">
         <f>SUM(C$3:C399)/A399</f>
-        <v>31.821385363476043</v>
+        <v>31.856912319294686</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -24619,7 +24569,7 @@
       </c>
       <c r="D400" s="18">
         <f>SUM(C$3:C400)/A400</f>
-        <v>31.798065302060277</v>
+        <v>31.833502994170832</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -24635,7 +24585,7 @@
       </c>
       <c r="D401" s="18">
         <f>SUM(C$3:C401)/A401</f>
-        <v>31.774786943483686</v>
+        <v>31.810135819323285</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -24651,7 +24601,7 @@
       </c>
       <c r="D402" s="18">
         <f>SUM(C$3:C402)/A402</f>
-        <v>31.751249977649977</v>
+        <v>31.786510481299977</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -24667,7 +24617,7 @@
       </c>
       <c r="D403" s="18">
         <f>SUM(C$3:C403)/A403</f>
-        <v>31.727431401047358</v>
+        <v>31.762603973266813</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -24683,7 +24633,7 @@
       </c>
       <c r="D404" s="18">
         <f>SUM(C$3:C404)/A404</f>
-        <v>31.704975105920376</v>
+        <v>31.740060184179082</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -24699,7 +24649,7 @@
       </c>
       <c r="D405" s="18">
         <f>SUM(C$3:C405)/A405</f>
-        <v>31.682903206079384</v>
+        <v>31.717901224590552</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -24715,7 +24665,7 @@
       </c>
       <c r="D406" s="18">
         <f>SUM(C$3:C406)/A406</f>
-        <v>31.661831663688094</v>
+        <v>31.696743053440571</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -24731,7 +24681,7 @@
       </c>
       <c r="D407" s="18">
         <f>SUM(C$3:C407)/A407</f>
-        <v>31.640518500790101</v>
+        <v>31.675343689580224</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -24747,7 +24697,7 @@
       </c>
       <c r="D408" s="18">
         <f>SUM(C$3:C408)/A408</f>
-        <v>31.619778305738894</v>
+        <v>31.654517718201948</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -24763,7 +24713,7 @@
       </c>
       <c r="D409" s="18">
         <f>SUM(C$3:C409)/A409</f>
-        <v>31.599729708132653</v>
+        <v>31.634383765773933</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -24779,7 +24729,7 @@
       </c>
       <c r="D410" s="18">
         <f>SUM(C$3:C410)/A410</f>
-        <v>31.580245075563703</v>
+        <v>31.614814196789194</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -24795,7 +24745,7 @@
       </c>
       <c r="D411" s="18">
         <f>SUM(C$3:C411)/A411</f>
-        <v>31.560806821491422</v>
+        <v>31.595291421638123</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -24811,7 +24761,7 @@
       </c>
       <c r="D412" s="18">
         <f>SUM(C$3:C412)/A412</f>
-        <v>31.541975585707295</v>
+        <v>31.576376077073149</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -24827,7 +24777,7 @@
       </c>
       <c r="D413" s="18">
         <f>SUM(C$3:C413)/A413</f>
-        <v>31.522652045060806</v>
+        <v>31.556968836934285</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -24843,7 +24793,7 @@
       </c>
       <c r="D414" s="18">
         <f>SUM(C$3:C414)/A414</f>
-        <v>31.502766967087357</v>
+        <v>31.537000465776678</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -24859,7 +24809,7 @@
       </c>
       <c r="D415" s="18">
         <f>SUM(C$3:C415)/A415</f>
-        <v>31.482832907748161</v>
+        <v>31.51698351661015</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -24875,7 +24825,7 @@
       </c>
       <c r="D416" s="18">
         <f>SUM(C$3:C416)/A416</f>
-        <v>31.463550702656981</v>
+        <v>31.497618822125581</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -24891,7 +24841,7 @@
       </c>
       <c r="D417" s="18">
         <f>SUM(C$3:C417)/A417</f>
-        <v>31.443999978987929</v>
+        <v>31.477986006602389</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -24907,7 +24857,7 @@
       </c>
       <c r="D418" s="18">
         <f>SUM(C$3:C418)/A418</f>
-        <v>31.423894209615362</v>
+        <v>31.457798540048056</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -24923,7 +24873,7 @@
       </c>
       <c r="D419" s="18">
         <f>SUM(C$3:C419)/A419</f>
-        <v>31.402997578609092</v>
+        <v>31.436820603693025</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -24939,7 +24889,7 @@
       </c>
       <c r="D420" s="18">
         <f>SUM(C$3:C420)/A420</f>
-        <v>31.381961700693761</v>
+        <v>31.415703809449742</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -24955,7 +24905,7 @@
       </c>
       <c r="D421" s="18">
         <f>SUM(C$3:C421)/A421</f>
-        <v>31.360883031336495</v>
+        <v>31.394544609999983</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -24971,7 +24921,7 @@
       </c>
       <c r="D422" s="18">
         <f>SUM(C$3:C422)/A422</f>
-        <v>31.33966664497617</v>
+        <v>31.373248077023792</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -24987,7 +24937,7 @@
       </c>
       <c r="D423" s="18">
         <f>SUM(C$3:C423)/A423</f>
-        <v>31.319358650380028</v>
+        <v>31.352860316555802</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -25003,7 +24953,7 @@
       </c>
       <c r="D424" s="18">
         <f>SUM(C$3:C424)/A424</f>
-        <v>31.29964453035543</v>
+        <v>31.333066808696664</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -25019,7 +24969,7 @@
       </c>
       <c r="D425" s="18">
         <f>SUM(C$3:C425)/A425</f>
-        <v>31.279385322340406</v>
+        <v>31.312728588203292</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -25035,7 +24985,7 @@
       </c>
       <c r="D426" s="18">
         <f>SUM(C$3:C426)/A426</f>
-        <v>31.259292432971684</v>
+        <v>31.292557059056588</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -25051,7 +25001,263 @@
       </c>
       <c r="D427" s="18">
         <f>SUM(C$3:C427)/A427</f>
-        <v>31.23924703847057</v>
+        <v>31.272433394847042</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4">
+      <c r="A428" s="18">
+        <f t="shared" si="3"/>
+        <v>426</v>
+      </c>
+      <c r="B428" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="C428" s="20">
+        <v>22.829999919999999</v>
+      </c>
+      <c r="D428" s="18">
+        <f>SUM(C$3:C428)/A428</f>
+        <v>31.252615475892004</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4">
+      <c r="A429" s="18">
+        <f t="shared" si="3"/>
+        <v>427</v>
+      </c>
+      <c r="B429" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="C429" s="20">
+        <v>23.409999849999998</v>
+      </c>
+      <c r="D429" s="18">
+        <f>SUM(C$3:C429)/A429</f>
+        <v>31.234248694566734</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4">
+      <c r="A430" s="18">
+        <f t="shared" si="3"/>
+        <v>428</v>
+      </c>
+      <c r="B430" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="C430" s="20">
+        <v>23.5</v>
+      </c>
+      <c r="D430" s="18">
+        <f>SUM(C$3:C430)/A430</f>
+        <v>31.216178020046716</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4">
+      <c r="A431" s="18">
+        <f t="shared" si="3"/>
+        <v>429</v>
+      </c>
+      <c r="B431" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="C431" s="20">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D431" s="18">
+        <f>SUM(C$3:C431)/A431</f>
+        <v>31.198378071095561</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4">
+      <c r="A432" s="18">
+        <f t="shared" si="3"/>
+        <v>430</v>
+      </c>
+      <c r="B432" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="C432" s="20">
+        <v>23.81999969</v>
+      </c>
+      <c r="D432" s="18">
+        <f>SUM(C$3:C432)/A432</f>
+        <v>31.181219051604643</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4">
+      <c r="A433" s="18">
+        <f t="shared" si="3"/>
+        <v>431</v>
+      </c>
+      <c r="B433" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="C433" s="20">
+        <v>23.649999619999999</v>
+      </c>
+      <c r="D433" s="18">
+        <f>SUM(C$3:C433)/A433</f>
+        <v>31.163745224617159</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4">
+      <c r="A434" s="18">
+        <f t="shared" si="3"/>
+        <v>432</v>
+      </c>
+      <c r="B434" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="C434" s="20">
+        <v>23.780000690000001</v>
+      </c>
+      <c r="D434" s="18">
+        <f>SUM(C$3:C434)/A434</f>
+        <v>31.146653223379619</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4">
+      <c r="A435" s="18">
+        <f t="shared" si="3"/>
+        <v>433</v>
+      </c>
+      <c r="B435" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="C435" s="20">
+        <v>24.100000380000001</v>
+      </c>
+      <c r="D435" s="18">
+        <f>SUM(C$3:C435)/A435</f>
+        <v>31.13037919833717</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4">
+      <c r="A436" s="18">
+        <f t="shared" si="3"/>
+        <v>434</v>
+      </c>
+      <c r="B436" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="C436" s="20">
+        <v>24.450000760000002</v>
+      </c>
+      <c r="D436" s="18">
+        <f>SUM(C$3:C436)/A436</f>
+        <v>31.114986621290313</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4">
+      <c r="A437" s="18">
+        <f t="shared" si="3"/>
+        <v>435</v>
+      </c>
+      <c r="B437" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="C437" s="20">
+        <v>24.520000459999999</v>
+      </c>
+      <c r="D437" s="18">
+        <f>SUM(C$3:C437)/A437</f>
+        <v>31.099825733563208</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4">
+      <c r="A438" s="18">
+        <f t="shared" si="3"/>
+        <v>436</v>
+      </c>
+      <c r="B438" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="C438" s="20">
+        <v>24.530000690000001</v>
+      </c>
+      <c r="D438" s="18">
+        <f>SUM(C$3:C438)/A438</f>
+        <v>31.084757327499986</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4">
+      <c r="A439" s="18">
+        <f t="shared" si="3"/>
+        <v>437</v>
+      </c>
+      <c r="B439" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C439" s="20">
+        <v>24.739999770000001</v>
+      </c>
+      <c r="D439" s="18">
+        <f>SUM(C$3:C439)/A439</f>
+        <v>31.0702384314874</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4">
+      <c r="A440" s="18">
+        <f t="shared" si="3"/>
+        <v>438</v>
+      </c>
+      <c r="B440" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="C440" s="20">
+        <v>24.829999919999999</v>
+      </c>
+      <c r="D440" s="18">
+        <f>SUM(C$3:C440)/A440</f>
+        <v>31.055991311598159</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4">
+      <c r="A441" s="18">
+        <f t="shared" si="3"/>
+        <v>439</v>
+      </c>
+      <c r="B441" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="C441" s="20">
+        <v>25.170000080000001</v>
+      </c>
+      <c r="D441" s="18">
+        <f>SUM(C$3:C441)/A441</f>
+        <v>31.042583586697024</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4">
+      <c r="A442" s="18">
+        <f t="shared" si="3"/>
+        <v>440</v>
+      </c>
+      <c r="B442" s="19">
+        <v>44956</v>
+      </c>
+      <c r="C442" s="20">
+        <v>24.899999619999999</v>
+      </c>
+      <c r="D442" s="18">
+        <f>SUM(C$3:C442)/A442</f>
+        <v>31.028623168590894</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4">
+      <c r="A443" s="18">
+        <f t="shared" si="3"/>
+        <v>441</v>
+      </c>
+      <c r="B443" s="19">
+        <v>44957</v>
+      </c>
+      <c r="C443" s="20">
+        <v>24.899999619999999</v>
+      </c>
+      <c r="D443" s="18">
+        <f>SUM(C$3:C443)/A443</f>
+        <v>31.014726063038534</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1prac.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1prac.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="model1" sheetId="5" r:id="rId1"/>
@@ -1160,7 +1160,7 @@
     <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="180" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1663,6 +1663,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1708,112 +1709,115 @@
             <c:numRef>
               <c:f>model1!时间</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>3.25108</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8991500000000001</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.17509</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1906699999999999</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6513100000000001</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1706000000000003</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1298999999999992</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9869400000000002</c:v>
+                  <c:v>44104</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2014499999999995</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.27712</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7245600000000003</c:v>
+                  <c:v>44196</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.9833500000000006</c:v>
+                  <c:v>44225</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7232599999999998</c:v>
+                  <c:v>44253</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4379900000000001</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.7860299999999993</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.9806599999999994</c:v>
+                  <c:v>44347</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1114799999999994</c:v>
+                  <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.9776999999999996</c:v>
+                  <c:v>44407</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.7613100000000008</c:v>
+                  <c:v>44439</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.7106400000000006</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.8678999999999997</c:v>
+                  <c:v>44498</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.9547099609374996</c:v>
+                  <c:v>44530</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.8630097656249998</c:v>
+                  <c:v>44561</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.3440297851562502</c:v>
+                  <c:v>44589</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.3355400390624999</c:v>
+                  <c:v>44620</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.8658500976562502</c:v>
+                  <c:v>44651</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.5012099609375</c:v>
+                  <c:v>44680</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.6361599121093748</c:v>
+                  <c:v>44712</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.1096201171875002</c:v>
+                  <c:v>44742</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.8724699707031252</c:v>
+                  <c:v>44771</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.7022099609375001</c:v>
+                  <c:v>44804</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.3477299804687499</c:v>
+                  <c:v>44834</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2993999023437501</c:v>
+                  <c:v>44865</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.4802900390625</c:v>
+                  <c:v>44895</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.4735300292968749</c:v>
+                  <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1823,7 +1827,274 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>46000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>48000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>52000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>54000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>56000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>58000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>62000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>64000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>66000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>68000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>72000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E69F-429A-B459-D6A53AA60C2B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>model1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>total assets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>model1!时间</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>43889</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43951</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43980</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44043</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44134</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44225</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44253</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44286</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44316</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44347</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44377</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44407</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44439</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44469</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44498</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44530</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44561</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44589</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44620</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44651</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44680</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44712</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44742</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44771</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44804</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44957</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>model1!资产</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>2000.0000000000002</c:v>
                 </c:pt>
@@ -1929,26 +2200,29 @@
                 <c:pt idx="34">
                   <c:v>60293.406710853284</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>68151.7828856181</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E69F-429A-B459-D6A53AA60C2B}"/>
+              <c16:uniqueId val="{00000001-E69F-429A-B459-D6A53AA60C2B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>model1!$H$1</c:f>
+              <c:f>model1!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>total assets</c:v>
+                  <c:v>profit amount</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1956,7 +2230,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1969,122 +2243,125 @@
             <c:numRef>
               <c:f>model1!时间</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>3.25108</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8991500000000001</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.17509</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1906699999999999</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6513100000000001</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1706000000000003</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1298999999999992</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9869400000000002</c:v>
+                  <c:v>44104</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2014499999999995</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.27712</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7245600000000003</c:v>
+                  <c:v>44196</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.9833500000000006</c:v>
+                  <c:v>44225</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7232599999999998</c:v>
+                  <c:v>44253</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4379900000000001</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.7860299999999993</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.9806599999999994</c:v>
+                  <c:v>44347</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1114799999999994</c:v>
+                  <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.9776999999999996</c:v>
+                  <c:v>44407</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.7613100000000008</c:v>
+                  <c:v>44439</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.7106400000000006</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.8678999999999997</c:v>
+                  <c:v>44498</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.9547099609374996</c:v>
+                  <c:v>44530</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.8630097656249998</c:v>
+                  <c:v>44561</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.3440297851562502</c:v>
+                  <c:v>44589</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.3355400390624999</c:v>
+                  <c:v>44620</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.8658500976562502</c:v>
+                  <c:v>44651</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.5012099609375</c:v>
+                  <c:v>44680</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.6361599121093748</c:v>
+                  <c:v>44712</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.1096201171875002</c:v>
+                  <c:v>44742</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.8724699707031252</c:v>
+                  <c:v>44771</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.7022099609375001</c:v>
+                  <c:v>44804</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.3477299804687499</c:v>
+                  <c:v>44834</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2993999023437501</c:v>
+                  <c:v>44865</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.4802900390625</c:v>
+                  <c:v>44895</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.4735300292968749</c:v>
+                  <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>model1!资产</c:f>
+              <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2190,162 +2467,9 @@
                 <c:pt idx="34">
                   <c:v>-9706.5932891467164</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E69F-429A-B459-D6A53AA60C2B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>model1!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>profit amount</c:v>
+                <c:pt idx="35">
+                  <c:v>-3848.2171143818996</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>model1!时间</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
-                <c:pt idx="0">
-                  <c:v>3.25108</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.8991500000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.17509</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.1906699999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.6513100000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.1706000000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.1298999999999992</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.9869400000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.2014499999999995</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.27712</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.7245600000000003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.9833500000000006</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.7232599999999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.4379900000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.7860299999999993</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.9806599999999994</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.1114799999999994</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.9776999999999996</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.7613100000000008</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.7106400000000006</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.8678999999999997</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4.9547099609374996</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4.8630097656249998</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4.3440297851562502</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4.3355400390624999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.8658500976562502</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3.5012099609375</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3.6361599121093748</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4.1096201171875002</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.8724699707031252</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.7022099609375001</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.3477299804687499</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.2993999023437501</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.4802900390625</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3.4735300292968749</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>model1!金额</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2366,17 +2490,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="324213376"/>
-        <c:axId val="324215168"/>
+        <c:axId val="222845952"/>
+        <c:axId val="255607552"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="324213376"/>
+      <c:dateAx>
+        <c:axId val="222845952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -2413,15 +2537,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324215168"/>
+        <c:crossAx val="255607552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="324215168"/>
+        <c:axId val="255607552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2472,7 +2595,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324213376"/>
+        <c:crossAx val="222845952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2486,6 +2609,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16358,6 +16482,326 @@
           </cell>
           <cell r="F689">
             <v>3.4735300292968749</v>
+          </cell>
+        </row>
+        <row r="690">
+          <cell r="A690">
+            <v>44929</v>
+          </cell>
+          <cell r="B690">
+            <v>3469.269287109375</v>
+          </cell>
+          <cell r="C690">
+            <v>3516.888427734375</v>
+          </cell>
+          <cell r="D690">
+            <v>3441.99169921875</v>
+          </cell>
+          <cell r="E690">
+            <v>3508.3173828125</v>
+          </cell>
+          <cell r="F690">
+            <v>3.5083173828124998</v>
+          </cell>
+        </row>
+        <row r="691">
+          <cell r="A691">
+            <v>44930</v>
+          </cell>
+          <cell r="B691">
+            <v>3500.761474609375</v>
+          </cell>
+          <cell r="C691">
+            <v>3509.062744140625</v>
+          </cell>
+          <cell r="D691">
+            <v>3469.442138671875</v>
+          </cell>
+          <cell r="E691">
+            <v>3489.908447265625</v>
+          </cell>
+          <cell r="F691">
+            <v>3.4899084472656252</v>
+          </cell>
+        </row>
+        <row r="692">
+          <cell r="A692">
+            <v>44931</v>
+          </cell>
+          <cell r="B692">
+            <v>3506.47021484375</v>
+          </cell>
+          <cell r="C692">
+            <v>3584.12353515625</v>
+          </cell>
+          <cell r="D692">
+            <v>3505.536376953125</v>
+          </cell>
+          <cell r="E692">
+            <v>3577.919921875</v>
+          </cell>
+          <cell r="F692">
+            <v>3.577919921875</v>
+          </cell>
+        </row>
+        <row r="693">
+          <cell r="A693">
+            <v>44932</v>
+          </cell>
+          <cell r="B693">
+            <v>3573.02392578125</v>
+          </cell>
+          <cell r="C693">
+            <v>3624.267333984375</v>
+          </cell>
+          <cell r="D693">
+            <v>3572.197998046875</v>
+          </cell>
+          <cell r="E693">
+            <v>3590.678955078125</v>
+          </cell>
+          <cell r="F693">
+            <v>3.5906789550781251</v>
+          </cell>
+        </row>
+        <row r="694">
+          <cell r="A694">
+            <v>44935</v>
+          </cell>
+          <cell r="B694">
+            <v>3601.79736328125</v>
+          </cell>
+          <cell r="C694">
+            <v>3624.94677734375</v>
+          </cell>
+          <cell r="D694">
+            <v>3596.2919921875</v>
+          </cell>
+          <cell r="E694">
+            <v>3604.57666015625</v>
+          </cell>
+          <cell r="F694">
+            <v>3.6045766601562499</v>
+          </cell>
+        </row>
+        <row r="695">
+          <cell r="A695">
+            <v>44936</v>
+          </cell>
+          <cell r="B695">
+            <v>3607.819580078125</v>
+          </cell>
+          <cell r="C695">
+            <v>3646.35693359375</v>
+          </cell>
+          <cell r="D695">
+            <v>3592.638671875</v>
+          </cell>
+          <cell r="E695">
+            <v>3638.47021484375</v>
+          </cell>
+          <cell r="F695">
+            <v>3.6384702148437502</v>
+          </cell>
+        </row>
+        <row r="696">
+          <cell r="A696">
+            <v>44937</v>
+          </cell>
+          <cell r="B696">
+            <v>3633.132568359375</v>
+          </cell>
+          <cell r="C696">
+            <v>3653.69287109375</v>
+          </cell>
+          <cell r="D696">
+            <v>3606.408203125</v>
+          </cell>
+          <cell r="E696">
+            <v>3610.81103515625</v>
+          </cell>
+          <cell r="F696">
+            <v>3.6108110351562499</v>
+          </cell>
+        </row>
+        <row r="697">
+          <cell r="A697">
+            <v>44938</v>
+          </cell>
+          <cell r="B697">
+            <v>3624.650634765625</v>
+          </cell>
+          <cell r="C697">
+            <v>3652.45654296875</v>
+          </cell>
+          <cell r="D697">
+            <v>3616.583251953125</v>
+          </cell>
+          <cell r="E697">
+            <v>3631.021240234375</v>
+          </cell>
+          <cell r="F697">
+            <v>3.6310212402343751</v>
+          </cell>
+        </row>
+        <row r="698">
+          <cell r="A698">
+            <v>44939</v>
+          </cell>
+          <cell r="B698">
+            <v>3653.294921875</v>
+          </cell>
+          <cell r="C698">
+            <v>3673.21337890625</v>
+          </cell>
+          <cell r="D698">
+            <v>3633.6328125</v>
+          </cell>
+          <cell r="E698">
+            <v>3673.21337890625</v>
+          </cell>
+          <cell r="F698">
+            <v>3.67321337890625</v>
+          </cell>
+        </row>
+        <row r="699">
+          <cell r="A699">
+            <v>44942</v>
+          </cell>
+          <cell r="B699">
+            <v>3671.072509765625</v>
+          </cell>
+          <cell r="C699">
+            <v>3762.3359375</v>
+          </cell>
+          <cell r="D699">
+            <v>3671.072509765625</v>
+          </cell>
+          <cell r="E699">
+            <v>3731.450927734375</v>
+          </cell>
+          <cell r="F699">
+            <v>3.7314509277343748</v>
+          </cell>
+        </row>
+        <row r="700">
+          <cell r="A700">
+            <v>44943</v>
+          </cell>
+          <cell r="B700">
+            <v>3735.49560546875</v>
+          </cell>
+          <cell r="C700">
+            <v>3756.7470703125</v>
+          </cell>
+          <cell r="D700">
+            <v>3730.148193359375</v>
+          </cell>
+          <cell r="E700">
+            <v>3745.24853515625</v>
+          </cell>
+          <cell r="F700">
+            <v>3.7452485351562501</v>
+          </cell>
+        </row>
+        <row r="701">
+          <cell r="A701">
+            <v>44944</v>
+          </cell>
+          <cell r="B701">
+            <v>3750.16259765625</v>
+          </cell>
+          <cell r="C701">
+            <v>3760.9462890625</v>
+          </cell>
+          <cell r="D701">
+            <v>3739.308349609375</v>
+          </cell>
+          <cell r="E701">
+            <v>3748.58447265625</v>
+          </cell>
+          <cell r="F701">
+            <v>3.7485844726562498</v>
+          </cell>
+        </row>
+        <row r="702">
+          <cell r="A702">
+            <v>44945</v>
+          </cell>
+          <cell r="B702">
+            <v>3743.17724609375</v>
+          </cell>
+          <cell r="C702">
+            <v>3780.742431640625</v>
+          </cell>
+          <cell r="D702">
+            <v>3733.563720703125</v>
+          </cell>
+          <cell r="E702">
+            <v>3780.742431640625</v>
+          </cell>
+          <cell r="F702">
+            <v>3.7807424316406251</v>
+          </cell>
+        </row>
+        <row r="703">
+          <cell r="A703">
+            <v>44946</v>
+          </cell>
+          <cell r="B703">
+            <v>3790.78759765625</v>
+          </cell>
+          <cell r="C703">
+            <v>3804.211181640625</v>
+          </cell>
+          <cell r="D703">
+            <v>3779.6181640625</v>
+          </cell>
+          <cell r="E703">
+            <v>3797.16845703125</v>
+          </cell>
+          <cell r="F703">
+            <v>3.7971684570312498</v>
+          </cell>
+        </row>
+        <row r="704">
+          <cell r="A704">
+            <v>44956</v>
+          </cell>
+          <cell r="B704">
+            <v>3897.607421875</v>
+          </cell>
+          <cell r="C704">
+            <v>3912.39501953125</v>
+          </cell>
+          <cell r="D704">
+            <v>3848.337158203125</v>
+          </cell>
+          <cell r="E704">
+            <v>3853.490234375</v>
+          </cell>
+          <cell r="F704">
+            <v>3.8534902343750002</v>
+          </cell>
+        </row>
+        <row r="705">
+          <cell r="A705">
+            <v>44957</v>
+          </cell>
+          <cell r="B705">
+            <v>3849.224609375</v>
+          </cell>
+          <cell r="C705">
+            <v>3857.215087890625</v>
+          </cell>
+          <cell r="D705">
+            <v>3805.035888671875</v>
+          </cell>
+          <cell r="E705">
+            <v>3811.03369140625</v>
+          </cell>
+          <cell r="F705">
+            <v>3.8110336914062501</v>
           </cell>
         </row>
       </sheetData>
@@ -16655,14 +17099,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:V37"/>
+  <dimension ref="A1:V38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -16683,7 +17127,7 @@
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="10" customFormat="1" ht="27" customHeight="1">
+    <row r="1" spans="1:22" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>180</v>
       </c>
@@ -16713,7 +17157,7 @@
       </c>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:22" ht="14.1" customHeight="1">
+    <row r="2" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="4">
@@ -16729,7 +17173,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:22" ht="14.1" customHeight="1">
+    <row r="3" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>43889</v>
       </c>
@@ -16798,7 +17242,7 @@
         <v>-22000</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="14.1" customHeight="1">
+    <row r="4" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>43921</v>
       </c>
@@ -16873,7 +17317,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="14.1" customHeight="1">
+    <row r="5" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>43951</v>
       </c>
@@ -16943,7 +17387,7 @@
         <v>53008.069006718506</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="14.1" customHeight="1">
+    <row r="6" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>43980</v>
       </c>
@@ -16985,7 +17429,7 @@
         <v>9.9835199022272558E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="14.1" customHeight="1">
+    <row r="7" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>44012</v>
       </c>
@@ -17023,7 +17467,7 @@
       </c>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:22" ht="14.1" customHeight="1">
+    <row r="8" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>44043</v>
       </c>
@@ -17061,7 +17505,7 @@
       </c>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:22" ht="14.1" customHeight="1">
+    <row r="9" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>44074</v>
       </c>
@@ -17099,7 +17543,7 @@
       </c>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:22" ht="14.1" customHeight="1">
+    <row r="10" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>44104</v>
       </c>
@@ -17137,7 +17581,7 @@
       </c>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:22" ht="14.1" customHeight="1">
+    <row r="11" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>44134</v>
       </c>
@@ -17175,7 +17619,7 @@
       </c>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:22" ht="14.1" customHeight="1">
+    <row r="12" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>44165</v>
       </c>
@@ -17213,7 +17657,7 @@
       </c>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:22" ht="14.1" customHeight="1">
+    <row r="13" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>44196</v>
       </c>
@@ -17251,7 +17695,7 @@
       </c>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:22" ht="14.1" customHeight="1">
+    <row r="14" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>44225</v>
       </c>
@@ -17289,7 +17733,7 @@
       </c>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:22" ht="14.1" customHeight="1">
+    <row r="15" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>44253</v>
       </c>
@@ -17302,7 +17746,7 @@
         <v>2000</v>
       </c>
       <c r="D15" s="17">
-        <f t="shared" ref="D15:D37" si="9">C15/B15</f>
+        <f t="shared" ref="D15:D38" si="9">C15/B15</f>
         <v>423.43635539860185</v>
       </c>
       <c r="E15" s="17">
@@ -17310,7 +17754,7 @@
         <v>6766.6987073504279</v>
       </c>
       <c r="F15" s="17">
-        <f t="shared" ref="F15:F37" si="10">E15*B15</f>
+        <f t="shared" ref="F15:F38" si="10">E15*B15</f>
         <v>31960.877336479982</v>
       </c>
       <c r="G15" s="17">
@@ -17318,16 +17762,16 @@
         <v>26000</v>
       </c>
       <c r="H15" s="17">
-        <f t="shared" ref="H15:H37" si="11">F15</f>
+        <f t="shared" ref="H15:H38" si="11">F15</f>
         <v>31960.877336479982</v>
       </c>
       <c r="I15" s="17">
-        <f t="shared" ref="I15:I37" si="12">H15-G15</f>
+        <f t="shared" ref="I15:I38" si="12">H15-G15</f>
         <v>5960.8773364799818</v>
       </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:22" ht="14.1" customHeight="1">
+    <row r="16" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>44286</v>
       </c>
@@ -17336,7 +17780,7 @@
         <v>4.4379900000000001</v>
       </c>
       <c r="C16" s="16">
-        <f t="shared" ref="C16:C37" si="13">C15</f>
+        <f t="shared" ref="C16:C38" si="13">C15</f>
         <v>2000</v>
       </c>
       <c r="D16" s="17">
@@ -17344,7 +17788,7 @@
         <v>450.65446294381013</v>
       </c>
       <c r="E16" s="17">
-        <f t="shared" ref="E16:E37" si="14">E15+D16</f>
+        <f t="shared" ref="E16:E38" si="14">E15+D16</f>
         <v>7217.3531702942382</v>
       </c>
       <c r="F16" s="17">
@@ -17352,7 +17796,7 @@
         <v>32030.541196234128</v>
       </c>
       <c r="G16" s="17">
-        <f t="shared" ref="G16:G37" si="15">G15+C16</f>
+        <f t="shared" ref="G16:G38" si="15">G15+C16</f>
         <v>28000</v>
       </c>
       <c r="H16" s="17">
@@ -17365,7 +17809,7 @@
       </c>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:12" ht="14.1" customHeight="1">
+    <row r="17" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
         <v>44316</v>
       </c>
@@ -17403,7 +17847,7 @@
       </c>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:12" ht="14.1" customHeight="1">
+    <row r="18" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
         <v>44347</v>
       </c>
@@ -17441,7 +17885,7 @@
       </c>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:12" ht="14.1" customHeight="1">
+    <row r="19" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
         <v>44377</v>
       </c>
@@ -17479,7 +17923,7 @@
       </c>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:12" ht="14.1" customHeight="1">
+    <row r="20" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14">
         <v>44407</v>
       </c>
@@ -17517,7 +17961,7 @@
       </c>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:12" ht="14.1" customHeight="1">
+    <row r="21" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14">
         <v>44439</v>
       </c>
@@ -17556,7 +18000,7 @@
       <c r="J21" s="6"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" ht="14.1" customHeight="1">
+    <row r="22" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14">
         <v>44469</v>
       </c>
@@ -17594,7 +18038,7 @@
       </c>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:12" ht="14.1" customHeight="1">
+    <row r="23" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14">
         <v>44498</v>
       </c>
@@ -17632,7 +18076,7 @@
       </c>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:12" ht="14.1" customHeight="1">
+    <row r="24" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14">
         <v>44530</v>
       </c>
@@ -17670,7 +18114,7 @@
       </c>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:12" ht="14.1" customHeight="1">
+    <row r="25" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14">
         <v>44561</v>
       </c>
@@ -17708,7 +18152,7 @@
       </c>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="1:12" ht="14.1" customHeight="1">
+    <row r="26" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14">
         <v>44589</v>
       </c>
@@ -17746,7 +18190,7 @@
       </c>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="1:12" ht="14.1" customHeight="1">
+    <row r="27" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14">
         <v>44620</v>
       </c>
@@ -17784,7 +18228,7 @@
       </c>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:12" ht="14.1" customHeight="1">
+    <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14">
         <v>44651</v>
       </c>
@@ -17822,7 +18266,7 @@
       </c>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:12" ht="14.1" customHeight="1">
+    <row r="29" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14">
         <v>44680</v>
       </c>
@@ -17860,7 +18304,7 @@
       </c>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:12" ht="14.1" customHeight="1">
+    <row r="30" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14">
         <v>44712</v>
       </c>
@@ -17898,7 +18342,7 @@
       </c>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:12" ht="14.1" customHeight="1">
+    <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14">
         <v>44742</v>
       </c>
@@ -17936,7 +18380,7 @@
       </c>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:12" ht="14.1" customHeight="1">
+    <row r="32" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14">
         <v>44771</v>
       </c>
@@ -17974,7 +18418,7 @@
       </c>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:12" ht="14.1" customHeight="1">
+    <row r="33" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14">
         <v>44804</v>
       </c>
@@ -18013,7 +18457,7 @@
       <c r="J33" s="6"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="1:12" ht="12.75">
+    <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="14">
         <v>44834</v>
       </c>
@@ -18050,7 +18494,7 @@
         <v>-11770.911062729705</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="12.75">
+    <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="14">
         <v>44865</v>
       </c>
@@ -18087,7 +18531,7 @@
         <v>-12524.925264431353</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="12.75">
+    <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="14">
         <v>44895</v>
       </c>
@@ -18124,7 +18568,7 @@
         <v>-9593.1455874388703</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="12.75">
+    <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="14">
         <v>44925</v>
       </c>
@@ -18159,6 +18603,43 @@
       <c r="I37" s="17">
         <f t="shared" si="12"/>
         <v>-9706.5932891467164</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="14">
+        <v>44957</v>
+      </c>
+      <c r="B38" s="15">
+        <f>VLOOKUP(A38,[1]szse_innovation_100!$A:$F,6)</f>
+        <v>3.8110336914062501</v>
+      </c>
+      <c r="C38" s="16">
+        <f t="shared" si="13"/>
+        <v>2000</v>
+      </c>
+      <c r="D38" s="17">
+        <f t="shared" si="9"/>
+        <v>524.79200184189688</v>
+      </c>
+      <c r="E38" s="17">
+        <f t="shared" si="14"/>
+        <v>17882.755284818926</v>
+      </c>
+      <c r="F38" s="17">
+        <f t="shared" si="10"/>
+        <v>68151.7828856181</v>
+      </c>
+      <c r="G38" s="17">
+        <f t="shared" si="15"/>
+        <v>72000</v>
+      </c>
+      <c r="H38" s="17">
+        <f t="shared" si="11"/>
+        <v>68151.7828856181</v>
+      </c>
+      <c r="I38" s="17">
+        <f t="shared" si="12"/>
+        <v>-3848.2171143818996</v>
       </c>
     </row>
   </sheetData>
@@ -18176,11 +18657,11 @@
   </sheetPr>
   <dimension ref="A1:D443"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="18"/>
     <col min="2" max="2" width="8.5" style="18" customWidth="1"/>
@@ -18188,7 +18669,7 @@
     <col min="4" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="30" t="s">
         <v>194</v>
       </c>
@@ -18196,7 +18677,7 @@
         <v>399088</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="12.75" customHeight="1">
+    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="30"/>
       <c r="C2" s="28" t="s">
         <v>0</v>
@@ -18205,7 +18686,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="12.75" customHeight="1">
+    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -18220,7 +18701,7 @@
         <v>45.12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18">
         <f t="shared" ref="A4:A36" si="0">A3+1</f>
         <v>2</v>
@@ -18236,7 +18717,7 @@
         <v>44.965000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="12.75" customHeight="1">
+    <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -18252,7 +18733,7 @@
         <v>44.99666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1">
+    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -18268,7 +18749,7 @@
         <v>44.792500000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="12.75" customHeight="1">
+    <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -18284,7 +18765,7 @@
         <v>44.440000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="12.75" customHeight="1">
+    <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -18300,7 +18781,7 @@
         <v>44.256666666666668</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="12.75" customHeight="1">
+    <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -18316,7 +18797,7 @@
         <v>44.252857142857145</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="12.75" customHeight="1">
+    <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -18332,7 +18813,7 @@
         <v>44.220000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="12.75" customHeight="1">
+    <row r="11" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -18348,7 +18829,7 @@
         <v>44.181111111111115</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="12.75" customHeight="1">
+    <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -18364,7 +18845,7 @@
         <v>44.341000000000008</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="12.75" customHeight="1">
+    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -18380,7 +18861,7 @@
         <v>44.458181818181828</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="12.75" customHeight="1">
+    <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -18396,7 +18877,7 @@
         <v>44.577500000000008</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="12.75" customHeight="1">
+    <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -18412,7 +18893,7 @@
         <v>44.703076923076928</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="12.75" customHeight="1">
+    <row r="16" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -18428,7 +18909,7 @@
         <v>44.860000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="12.75" customHeight="1">
+    <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -18444,7 +18925,7 @@
         <v>44.968000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="12.75" customHeight="1">
+    <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -18460,7 +18941,7 @@
         <v>45.078750000000007</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="12.75" customHeight="1">
+    <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -18476,7 +18957,7 @@
         <v>45.214117647058828</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1">
+    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="18">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -18492,7 +18973,7 @@
         <v>45.345555555555563</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="12.75" customHeight="1">
+    <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="18">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -18508,7 +18989,7 @@
         <v>45.46631578947369</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="12.75" customHeight="1">
+    <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -18524,7 +19005,7 @@
         <v>45.062500000000007</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="12.75" customHeight="1">
+    <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="18">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -18540,7 +19021,7 @@
         <v>44.643333333333338</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="12.75" customHeight="1">
+    <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="18">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -18556,7 +19037,7 @@
         <v>44.269090909090913</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="12.75" customHeight="1">
+    <row r="25" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="18">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -18572,7 +19053,7 @@
         <v>43.928695652173921</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="12.75" customHeight="1">
+    <row r="26" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="18">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -18588,7 +19069,7 @@
         <v>43.627500000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="12.75" customHeight="1">
+    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="18">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -18604,7 +19085,7 @@
         <v>43.332400000000007</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="12.75" customHeight="1">
+    <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="18">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -18620,7 +19101,7 @@
         <v>43.088461538461544</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="12.75" customHeight="1">
+    <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="18">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -18636,7 +19117,7 @@
         <v>42.901851851851859</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="12.75" customHeight="1">
+    <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="18">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -18652,7 +19133,7 @@
         <v>42.726071428571437</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="12.75" customHeight="1">
+    <row r="31" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="18">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -18668,7 +19149,7 @@
         <v>42.570000000000007</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="12.75" customHeight="1">
+    <row r="32" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="18">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -18684,7 +19165,7 @@
         <v>42.435000000000009</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="12.75" customHeight="1">
+    <row r="33" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="18">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -18700,7 +19181,7 @@
         <v>42.298387096774199</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="12.75" customHeight="1">
+    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="18">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -18716,7 +19197,7 @@
         <v>42.179062500000008</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="12.75" customHeight="1">
+    <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="18">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -18732,7 +19213,7 @@
         <v>42.093333333333341</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="12.75" customHeight="1">
+    <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="18">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -18748,7 +19229,7 @@
         <v>42.005000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="12.75" customHeight="1">
+    <row r="37" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="18">
         <f t="shared" ref="A37:A100" si="1">A36+1</f>
         <v>35</v>
@@ -18764,7 +19245,7 @@
         <v>41.929428571428573</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="12.75" customHeight="1">
+    <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="18">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -18780,7 +19261,7 @@
         <v>41.856666666666662</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="12.75" customHeight="1">
+    <row r="39" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="18">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -18796,7 +19277,7 @@
         <v>41.802432432432425</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="12.75" customHeight="1">
+    <row r="40" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="18">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -18812,7 +19293,7 @@
         <v>41.751315789473679</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="12.75" customHeight="1">
+    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="18">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -18828,7 +19309,7 @@
         <v>41.689999999999991</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="12.75" customHeight="1">
+    <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="18">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -18844,7 +19325,7 @@
         <v>41.621999999999993</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="12.75" customHeight="1">
+    <row r="43" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="18">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -18860,7 +19341,7 @@
         <v>41.5680487804878</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="12.75" customHeight="1">
+    <row r="44" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="18">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -18876,7 +19357,7 @@
         <v>41.512380952380944</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="12.75" customHeight="1">
+    <row r="45" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="18">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -18892,7 +19373,7 @@
         <v>41.454186046511623</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="12.75" customHeight="1">
+    <row r="46" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="18">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -18908,7 +19389,7 @@
         <v>41.399318181818174</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="12.75" customHeight="1">
+    <row r="47" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="18">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -18924,7 +19405,7 @@
         <v>41.36044444444444</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="12.75" customHeight="1">
+    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="18">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -18940,7 +19421,7 @@
         <v>41.322391304347818</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="12.75" customHeight="1">
+    <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="18">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -18956,7 +19437,7 @@
         <v>41.285319148936161</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="12.75" customHeight="1">
+    <row r="50" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="18">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -18972,7 +19453,7 @@
         <v>41.222499999999989</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="12.75" customHeight="1">
+    <row r="51" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="18">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -18988,7 +19469,7 @@
         <v>41.174693877551015</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="12.75" customHeight="1">
+    <row r="52" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="18">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -19004,7 +19485,7 @@
         <v>41.139199999999988</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="12.75" customHeight="1">
+    <row r="53" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="18">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -19020,7 +19501,7 @@
         <v>41.106862745098027</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="12.75" customHeight="1">
+    <row r="54" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="18">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -19036,7 +19517,7 @@
         <v>41.078653846153834</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="12.75" customHeight="1">
+    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="18">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -19052,7 +19533,7 @@
         <v>41.062452830188661</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="12.75" customHeight="1">
+    <row r="56" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="18">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -19068,7 +19549,7 @@
         <v>41.045555555555538</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="12.75" customHeight="1">
+    <row r="57" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="18">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -19084,7 +19565,7 @@
         <v>41.038181818181798</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="12.75" customHeight="1">
+    <row r="58" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="18">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -19100,7 +19581,7 @@
         <v>41.038928571428549</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="12.75" customHeight="1">
+    <row r="59" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="18">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -19116,7 +19597,7 @@
         <v>41.034736842105247</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="12.75" customHeight="1">
+    <row r="60" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="18">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -19132,7 +19613,7 @@
         <v>41.041896551724122</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="12.75" customHeight="1">
+    <row r="61" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="18">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -19148,7 +19629,7 @@
         <v>41.046101694915237</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="12.75" customHeight="1">
+    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="18">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -19164,7 +19645,7 @@
         <v>41.029166666666654</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="12.75" customHeight="1">
+    <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="18">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -19180,7 +19661,7 @@
         <v>41.015737704918017</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="12.75" customHeight="1">
+    <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="18">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -19196,7 +19677,7 @@
         <v>40.997580645161271</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="12.75" customHeight="1">
+    <row r="65" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="18">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -19212,7 +19693,7 @@
         <v>40.997301587301571</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="12.75" customHeight="1">
+    <row r="66" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="18">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -19228,7 +19709,7 @@
         <v>40.998281249999984</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="12.75" customHeight="1">
+    <row r="67" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="18">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -19244,7 +19725,7 @@
         <v>40.994153846153829</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="12.75" customHeight="1">
+    <row r="68" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="18">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -19260,7 +19741,7 @@
         <v>41.006060606060593</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="12.75" customHeight="1">
+    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="18">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -19276,7 +19757,7 @@
         <v>41.01641791044775</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="12.75" customHeight="1">
+    <row r="70" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="18">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -19292,7 +19773,7 @@
         <v>41.020294117647047</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="12.75" customHeight="1">
+    <row r="71" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="18">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -19308,7 +19789,7 @@
         <v>41.027826086956509</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="12.75" customHeight="1">
+    <row r="72" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="18">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -19324,7 +19805,7 @@
         <v>41.021428571428558</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="12.75" customHeight="1">
+    <row r="73" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="18">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -19340,7 +19821,7 @@
         <v>41.019295774647873</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="12.75" customHeight="1">
+    <row r="74" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="18">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -19356,7 +19837,7 @@
         <v>41.017499999999984</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="12.75" customHeight="1">
+    <row r="75" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="18">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -19372,7 +19853,7 @@
         <v>41.027123287671216</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="12.75" customHeight="1">
+    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="18">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -19388,7 +19869,7 @@
         <v>41.036081081081065</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="12.75" customHeight="1">
+    <row r="77" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="18">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -19404,7 +19885,7 @@
         <v>41.035466666666643</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="12.75" customHeight="1">
+    <row r="78" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="18">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -19420,7 +19901,7 @@
         <v>41.020526335866805</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="12.75" customHeight="1">
+    <row r="79" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="18">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -19436,7 +19917,7 @@
         <v>40.984025981952598</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="12.75" customHeight="1">
+    <row r="80" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="18">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -19452,7 +19933,7 @@
         <v>40.953717942849167</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="12.75" customHeight="1">
+    <row r="81" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="18">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -19468,7 +19949,7 @@
         <v>40.943164537647085</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="12.75" customHeight="1">
+    <row r="82" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="18">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -19484,7 +19965,7 @@
         <v>40.930499984741189</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="12.75" customHeight="1">
+    <row r="83" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="18">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -19500,7 +19981,7 @@
         <v>40.927160476872935</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="12.75" customHeight="1">
+    <row r="84" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="18">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -19516,7 +19997,7 @@
         <v>40.921951202764724</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="12.75" customHeight="1">
+    <row r="85" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="18">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -19532,7 +20013,7 @@
         <v>40.929036107810127</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="12.75" customHeight="1">
+    <row r="86" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="18">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -19548,7 +20029,7 @@
         <v>40.931428547813759</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="12.75" customHeight="1">
+    <row r="87" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="18">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -19564,7 +20045,7 @@
         <v>40.92988232062843</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="12.75" customHeight="1">
+    <row r="88" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="18">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -19580,7 +20061,7 @@
         <v>40.928372052214847</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="12.75" customHeight="1">
+    <row r="89" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="18">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -19596,7 +20077,7 @@
         <v>40.927701096808754</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="12.75" customHeight="1">
+    <row r="90" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="18">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -19612,7 +20093,7 @@
         <v>40.924090864008107</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="12.75" customHeight="1">
+    <row r="91" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="18">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -19628,7 +20109,7 @@
         <v>40.917528047025854</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="12.75" customHeight="1">
+    <row r="92" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="18">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -19644,7 +20125,7 @@
         <v>40.904444420708536</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="12.75" customHeight="1">
+    <row r="93" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="18">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -19660,7 +20141,7 @@
         <v>40.886703283288959</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="12.75" customHeight="1">
+    <row r="94" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="18">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -19676,7 +20157,7 @@
         <v>40.859891271176529</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="12.75" customHeight="1">
+    <row r="95" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="18">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -19692,7 +20173,7 @@
         <v>40.836344033518131</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="12.75" customHeight="1">
+    <row r="96" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="18">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -19708,7 +20189,7 @@
         <v>40.815851010261682</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="12.75" customHeight="1">
+    <row r="97" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="18">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -19724,7 +20205,7 @@
         <v>40.787684151097331</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="12.75" customHeight="1">
+    <row r="98" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="18">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -19740,7 +20221,7 @@
         <v>40.770416618982935</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="12.75" customHeight="1">
+    <row r="99" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="18">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -19756,7 +20237,7 @@
         <v>40.756804084384548</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="12.75" customHeight="1">
+    <row r="100" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="18">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -19772,7 +20253,7 @@
         <v>40.744489749207773</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="12.75" customHeight="1">
+    <row r="101" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="18">
         <f t="shared" ref="A101:A355" si="2">A100+1</f>
         <v>99</v>
@@ -19788,7 +20269,7 @@
         <v>40.723232270828383</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="12.75" customHeight="1">
+    <row r="102" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="18">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -19804,7 +20285,7 @@
         <v>40.702299958801255</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="12.75" customHeight="1">
+    <row r="103" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="18">
         <f t="shared" si="2"/>
         <v>101</v>
@@ -19820,7 +20301,7 @@
         <v>40.680296984379815</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="12.75" customHeight="1">
+    <row r="104" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="18">
         <f t="shared" si="2"/>
         <v>102</v>
@@ -19836,7 +20317,7 @@
         <v>40.654705834482208</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="12.75" customHeight="1">
+    <row r="105" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="18">
         <f t="shared" si="2"/>
         <v>103</v>
@@ -19852,7 +20333,7 @@
         <v>40.599999957038342</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="12.75" customHeight="1">
+    <row r="106" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="18">
         <f t="shared" si="2"/>
         <v>104</v>
@@ -19868,7 +20349,7 @@
         <v>40.542692259274979</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="12.75" customHeight="1">
+    <row r="107" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="18">
         <f t="shared" si="2"/>
         <v>105</v>
@@ -19884,7 +20365,7 @@
         <v>40.482476154145722</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="12.75" customHeight="1">
+    <row r="108" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="18">
         <f t="shared" si="2"/>
         <v>106</v>
@@ -19900,7 +20381,7 @@
         <v>40.435849029253099</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="12.75" customHeight="1">
+    <row r="109" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="18">
         <f t="shared" si="2"/>
         <v>107</v>
@@ -19916,7 +20397,7 @@
         <v>40.391775685247957</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="12.75" customHeight="1">
+    <row r="110" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="18">
         <f t="shared" si="2"/>
         <v>108</v>
@@ -19932,7 +20413,7 @@
         <v>40.346574042991335</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="12.75" customHeight="1">
+    <row r="111" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="18">
         <f t="shared" si="2"/>
         <v>109</v>
@@ -19948,7 +20429,7 @@
         <v>40.302110060945544</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="12.75" customHeight="1">
+    <row r="112" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="18">
         <f t="shared" si="2"/>
         <v>110</v>
@@ -19964,7 +20445,7 @@
         <v>40.260272703690944</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="12.75" customHeight="1">
+    <row r="113" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="18">
         <f t="shared" si="2"/>
         <v>111</v>
@@ -19980,7 +20461,7 @@
         <v>40.215585555342926</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="12.75" customHeight="1">
+    <row r="114" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="18">
         <f t="shared" si="2"/>
         <v>112</v>
@@ -19996,7 +20477,7 @@
         <v>40.173214266640784</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="12.75" customHeight="1">
+    <row r="115" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="18">
         <f t="shared" si="2"/>
         <v>113</v>
@@ -20012,7 +20493,7 @@
         <v>40.128584061344093</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="12.75" customHeight="1">
+    <row r="116" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="18">
         <f t="shared" si="2"/>
         <v>114</v>
@@ -20028,7 +20509,7 @@
         <v>40.078245599311678</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="12.75" customHeight="1">
+    <row r="117" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="18">
         <f t="shared" si="2"/>
         <v>115</v>
@@ -20044,7 +20525,7 @@
         <v>40.032521721881352</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="12.75" customHeight="1">
+    <row r="118" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="18">
         <f t="shared" si="2"/>
         <v>116</v>
@@ -20060,7 +20541,7 @@
         <v>39.985344822324535</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="12.75" customHeight="1">
+    <row r="119" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="18">
         <f t="shared" si="2"/>
         <v>117</v>
@@ -20076,7 +20557,7 @@
         <v>39.940427341298147</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="12.75" customHeight="1">
+    <row r="120" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="18">
         <f t="shared" si="2"/>
         <v>118</v>
@@ -20092,7 +20573,7 @@
         <v>39.89703388666701</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="12.75" customHeight="1">
+    <row r="121" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="18">
         <f t="shared" si="2"/>
         <v>119</v>
@@ -20108,7 +20589,7 @@
         <v>39.856638645204157</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="12.75" customHeight="1">
+    <row r="122" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="18">
         <f t="shared" si="2"/>
         <v>120</v>
@@ -20124,7 +20605,7 @@
         <v>39.814833324432357</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="12.75" customHeight="1">
+    <row r="123" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="18">
         <f t="shared" si="2"/>
         <v>121</v>
@@ -20140,7 +20621,7 @@
         <v>39.769752062332515</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="12.75" customHeight="1">
+    <row r="124" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="18">
         <f t="shared" si="2"/>
         <v>122</v>
@@ -20156,7 +20637,7 @@
         <v>39.730819672131133</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="12.75" customHeight="1">
+    <row r="125" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="18">
         <f t="shared" si="2"/>
         <v>123</v>
@@ -20172,7 +20653,7 @@
         <v>39.694634136422749</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="12.75" customHeight="1">
+    <row r="126" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="18">
         <f t="shared" si="2"/>
         <v>124</v>
@@ -20188,7 +20669,7 @@
         <v>39.656854815322561</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="12.75" customHeight="1">
+    <row r="127" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="18">
         <f t="shared" si="2"/>
         <v>125</v>
@@ -20204,7 +20685,7 @@
         <v>39.615839967039982</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="12.75" customHeight="1">
+    <row r="128" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="18">
         <f t="shared" si="2"/>
         <v>126</v>
@@ -20220,7 +20701,7 @@
         <v>39.58039680484125</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="12.75" customHeight="1">
+    <row r="129" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="18">
         <f t="shared" si="2"/>
         <v>127</v>
@@ -20236,7 +20717,7 @@
         <v>39.545433045669277</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="12.75" customHeight="1">
+    <row r="130" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="18">
         <f t="shared" si="2"/>
         <v>128</v>
@@ -20252,7 +20733,7 @@
         <v>39.514765591640611</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="12.75" customHeight="1">
+    <row r="131" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="18">
         <f t="shared" si="2"/>
         <v>129</v>
@@ -20268,7 +20749,7 @@
         <v>39.483953462403086</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="12.75" customHeight="1">
+    <row r="132" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="18">
         <f t="shared" si="2"/>
         <v>130</v>
@@ -20284,7 +20765,7 @@
         <v>39.455384593153838</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="12.75" customHeight="1">
+    <row r="133" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="18">
         <f t="shared" si="2"/>
         <v>131</v>
@@ -20300,7 +20781,7 @@
         <v>39.425419815954186</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="12.75" customHeight="1">
+    <row r="134" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="18">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -20316,7 +20797,7 @@
         <v>39.396590869848474</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="12.75" customHeight="1">
+    <row r="135" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="18">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -20332,7 +20813,7 @@
         <v>39.371127767969917</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="12.75" customHeight="1">
+    <row r="136" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="18">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -20348,7 +20829,7 @@
         <v>39.348358155447755</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="12.75" customHeight="1">
+    <row r="137" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="18">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -20364,7 +20845,7 @@
         <v>39.325777719037028</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="12.75" customHeight="1">
+    <row r="138" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="18">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -20380,7 +20861,7 @@
         <v>39.30124995404411</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="12.75" customHeight="1">
+    <row r="139" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="18">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -20396,7 +20877,7 @@
         <v>39.275182432773718</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="12.75" customHeight="1">
+    <row r="140" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="18">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -20412,7 +20893,7 @@
         <v>39.253623134275358</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="12.75" customHeight="1">
+    <row r="141" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="18">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -20428,7 +20909,7 @@
         <v>39.222517934100708</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="12.75" customHeight="1">
+    <row r="142" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="18">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -20444,7 +20925,7 @@
         <v>39.191714233499987</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="12.75" customHeight="1">
+    <row r="143" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="18">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -20460,7 +20941,7 @@
         <v>39.159361657872324</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="12.75" customHeight="1">
+    <row r="144" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="18">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -20476,7 +20957,7 @@
         <v>39.130704182464775</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="12.75" customHeight="1">
+    <row r="145" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="18">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -20492,7 +20973,7 @@
         <v>39.101118849230758</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="12.75" customHeight="1">
+    <row r="146" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="18">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -20508,7 +20989,7 @@
         <v>39.072916641388879</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="12.75" customHeight="1">
+    <row r="147" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="18">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -20524,7 +21005,7 @@
         <v>39.046344810896542</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="12.75" customHeight="1">
+    <row r="148" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="18">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -20540,7 +21021,7 @@
         <v>39.018561638767117</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="12.75" customHeight="1">
+    <row r="149" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="18">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -20556,7 +21037,7 @@
         <v>38.994013599387742</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="12.75" customHeight="1">
+    <row r="150" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="18">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -20572,7 +21053,7 @@
         <v>38.968783766418909</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="12.75" customHeight="1">
+    <row r="151" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="18">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -20588,7 +21069,7 @@
         <v>38.941812068389247</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="12.75" customHeight="1">
+    <row r="152" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="18">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -20604,7 +21085,7 @@
         <v>38.915199992999987</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="12.75" customHeight="1">
+    <row r="153" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="18">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -20620,7 +21101,7 @@
         <v>38.890794691986741</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="12.75" customHeight="1">
+    <row r="154" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="18">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -20636,7 +21117,7 @@
         <v>38.864144727894725</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="12.75" customHeight="1">
+    <row r="155" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="18">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -20652,7 +21133,7 @@
         <v>38.840653588888877</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="12.75" customHeight="1">
+    <row r="156" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="18">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -20668,7 +21149,7 @@
         <v>38.822142862207784</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="12.75" customHeight="1">
+    <row r="157" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="18">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -20684,7 +21165,7 @@
         <v>38.801870974774182</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="12.75" customHeight="1">
+    <row r="158" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="18">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -20700,7 +21181,7 @@
         <v>38.781025643141014</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="12.75" customHeight="1">
+    <row r="159" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="18">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -20716,7 +21197,7 @@
         <v>38.75942674980891</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="12.75" customHeight="1">
+    <row r="160" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="18">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -20732,7 +21213,7 @@
         <v>38.73683543259493</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="12.75" customHeight="1">
+    <row r="161" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="18">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -20748,7 +21229,7 @@
         <v>38.715911938364776</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="12.75" customHeight="1">
+    <row r="162" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="18">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -20764,7 +21245,7 @@
         <v>38.695499988749994</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="12.75" customHeight="1">
+    <row r="163" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="18">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -20780,7 +21261,7 @@
         <v>38.674285695527942</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="12.75" customHeight="1">
+    <row r="164" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="18">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -20796,7 +21277,7 @@
         <v>38.652962951851848</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="12.75" customHeight="1">
+    <row r="165" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="18">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -20812,7 +21293,7 @@
         <v>38.632515324478518</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="12.75" customHeight="1">
+    <row r="166" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="18">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -20828,7 +21309,7 @@
         <v>38.609999978780486</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="12.75" customHeight="1">
+    <row r="167" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="18">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -20844,7 +21325,7 @@
         <v>38.586363609696967</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="12.75" customHeight="1">
+    <row r="168" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="18">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -20860,7 +21341,7 @@
         <v>38.566746972469872</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="12.75" customHeight="1">
+    <row r="169" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="18">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -20876,7 +21357,7 @@
         <v>38.550598780598797</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="12.75" customHeight="1">
+    <row r="170" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="18">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -20892,7 +21373,7 @@
         <v>38.53458331529761</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="12.75" customHeight="1">
+    <row r="171" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="18">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -20908,7 +21389,7 @@
         <v>38.518757382130168</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="12.75" customHeight="1">
+    <row r="172" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="18">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -20924,7 +21405,7 @@
         <v>38.501588212058813</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="12.75" customHeight="1">
+    <row r="173" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="18">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -20940,7 +21421,7 @@
         <v>38.482806999824554</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="12.75" customHeight="1">
+    <row r="174" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="18">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -20956,7 +21437,7 @@
         <v>38.465581380406974</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="12.75" customHeight="1">
+    <row r="175" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="18">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -20972,7 +21453,7 @@
         <v>38.445202289364161</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="12.75" customHeight="1">
+    <row r="176" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="18">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -20988,7 +21469,7 @@
         <v>38.42022985362069</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="12.75" customHeight="1">
+    <row r="177" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="18">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -21004,7 +21485,7 @@
         <v>38.397485675200002</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="12.75" customHeight="1">
+    <row r="178" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="18">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -21020,7 +21501,7 @@
         <v>38.376420407897733</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="12.75" customHeight="1">
+    <row r="179" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="18">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -21036,7 +21517,7 @@
         <v>38.356271147796612</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="12.75" customHeight="1">
+    <row r="180" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="18">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -21052,7 +21533,7 @@
         <v>38.333426933033707</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="12.75" customHeight="1">
+    <row r="181" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="18">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -21068,7 +21549,7 @@
         <v>38.311229020614526</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="12.75" customHeight="1">
+    <row r="182" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="18">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -21084,7 +21565,7 @@
         <v>38.290888867888889</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="12.75" customHeight="1">
+    <row r="183" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="18">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -21100,7 +21581,7 @@
         <v>38.268618754364638</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="12.75" customHeight="1">
+    <row r="184" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="18">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -21116,7 +21597,7 @@
         <v>38.248351618351641</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="12.75" customHeight="1">
+    <row r="185" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="18">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -21132,7 +21613,7 @@
         <v>38.228579205136612</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="12.75" customHeight="1">
+    <row r="186" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="18">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -21148,7 +21629,7 @@
         <v>38.206847793913042</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="12.75" customHeight="1">
+    <row r="187" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="18">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -21164,7 +21645,7 @@
         <v>38.181189152216213</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="12.75" customHeight="1">
+    <row r="188" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="18">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -21180,7 +21661,7 @@
         <v>38.15387092274193</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="12.75" customHeight="1">
+    <row r="189" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="18">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -21196,7 +21677,7 @@
         <v>38.12657749128342</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="12.75" customHeight="1">
+    <row r="190" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="18">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -21212,7 +21693,7 @@
         <v>38.100053139680853</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="12.75" customHeight="1">
+    <row r="191" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="18">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -21228,7 +21709,7 @@
         <v>38.071216879682538</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="12.75" customHeight="1">
+    <row r="192" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="18">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -21244,7 +21725,7 @@
         <v>38.0456315228421</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="12.75" customHeight="1">
+    <row r="193" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="18">
         <f t="shared" si="2"/>
         <v>191</v>
@@ -21260,7 +21741,7 @@
         <v>38.017120363036646</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="12.75" customHeight="1">
+    <row r="194" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="18">
         <f t="shared" si="2"/>
         <v>192</v>
@@ -21276,7 +21757,7 @@
         <v>37.989791613541662</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="12.75" customHeight="1">
+    <row r="195" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="18">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -21292,7 +21773,7 @@
         <v>37.965699429792743</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="12.75" customHeight="1">
+    <row r="196" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="18">
         <f t="shared" si="2"/>
         <v>194</v>
@@ -21308,7 +21789,7 @@
         <v>37.941855619072165</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="12.75" customHeight="1">
+    <row r="197" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="18">
         <f t="shared" si="2"/>
         <v>195</v>
@@ -21324,7 +21805,7 @@
         <v>37.915128152000001</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="12.75" customHeight="1">
+    <row r="198" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="18">
         <f t="shared" si="2"/>
         <v>196</v>
@@ -21340,7 +21821,7 @@
         <v>37.889132598622453</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="12.75" customHeight="1">
+    <row r="199" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="18">
         <f t="shared" si="2"/>
         <v>197</v>
@@ -21356,7 +21837,7 @@
         <v>37.861268989137059</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="12.75" customHeight="1">
+    <row r="200" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="18">
         <f t="shared" si="2"/>
         <v>198</v>
@@ -21372,7 +21853,7 @@
         <v>37.834646419242425</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="12.75" customHeight="1">
+    <row r="201" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="18">
         <f t="shared" si="2"/>
         <v>199</v>
@@ -21388,7 +21869,7 @@
         <v>37.804422063819104</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="12.75" customHeight="1">
+    <row r="202" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="18">
         <f t="shared" si="2"/>
         <v>200</v>
@@ -21404,7 +21885,7 @@
         <v>37.775999948150009</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="12.75" customHeight="1">
+    <row r="203" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="18">
         <f t="shared" si="2"/>
         <v>201</v>
@@ -21420,7 +21901,7 @@
         <v>37.743084524776123</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="12.75" customHeight="1">
+    <row r="204" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="18">
         <f t="shared" si="2"/>
         <v>202</v>
@@ -21436,7 +21917,7 @@
         <v>37.710494996683174</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="12.75" customHeight="1">
+    <row r="205" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="18">
         <f t="shared" si="2"/>
         <v>203</v>
@@ -21452,7 +21933,7 @@
         <v>37.678472849310346</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="12.75" customHeight="1">
+    <row r="206" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="18">
         <f t="shared" si="2"/>
         <v>204</v>
@@ -21468,7 +21949,7 @@
         <v>37.643872496323532</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="12.75" customHeight="1">
+    <row r="207" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="18">
         <f t="shared" si="2"/>
         <v>205</v>
@@ -21484,7 +21965,7 @@
         <v>37.61151214380488</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="12.75" customHeight="1">
+    <row r="208" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="18">
         <f t="shared" si="2"/>
         <v>206</v>
@@ -21500,7 +21981,7 @@
         <v>37.577281499757277</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="12.75" customHeight="1">
+    <row r="209" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="18">
         <f t="shared" si="2"/>
         <v>207</v>
@@ -21516,7 +21997,7 @@
         <v>37.540193181497585</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="12.75" customHeight="1">
+    <row r="210" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="18">
         <f t="shared" si="2"/>
         <v>208</v>
@@ -21532,7 +22013,7 @@
         <v>37.503221100721149</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="12.75" customHeight="1">
+    <row r="211" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="18">
         <f t="shared" si="2"/>
         <v>209</v>
@@ -21548,7 +22029,7 @@
         <v>37.469999944593297</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="12.75" customHeight="1">
+    <row r="212" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="18">
         <f t="shared" si="2"/>
         <v>210</v>
@@ -21564,7 +22045,7 @@
         <v>37.437380901238093</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="12.75" customHeight="1">
+    <row r="213" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="18">
         <f t="shared" si="2"/>
         <v>211</v>
@@ -21580,7 +22061,7 @@
         <v>37.405781941800946</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="12.75" customHeight="1">
+    <row r="214" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="18">
         <f t="shared" si="2"/>
         <v>212</v>
@@ -21596,7 +22077,7 @@
         <v>37.374245231273584</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="12.75" customHeight="1">
+    <row r="215" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="18">
         <f t="shared" si="2"/>
         <v>213</v>
@@ -21612,7 +22093,7 @@
         <v>37.342629053615028</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="12.75" customHeight="1">
+    <row r="216" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="18">
         <f t="shared" si="2"/>
         <v>214</v>
@@ -21628,7 +22109,7 @@
         <v>37.309205555841125</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="12.75" customHeight="1">
+    <row r="217" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="18">
         <f t="shared" si="2"/>
         <v>215</v>
@@ -21644,7 +22125,7 @@
         <v>37.27981390102326</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="12.75" customHeight="1">
+    <row r="218" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="18">
         <f t="shared" si="2"/>
         <v>216</v>
@@ -21660,7 +22141,7 @@
         <v>37.247685133657413</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="12.75" customHeight="1">
+    <row r="219" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="18">
         <f t="shared" si="2"/>
         <v>217</v>
@@ -21676,7 +22157,7 @@
         <v>37.218433126682037</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="12.75" customHeight="1">
+    <row r="220" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="18">
         <f t="shared" si="2"/>
         <v>218</v>
@@ -21692,7 +22173,7 @@
         <v>37.189770586238538</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="12.75" customHeight="1">
+    <row r="221" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="18">
         <f t="shared" si="2"/>
         <v>219</v>
@@ -21708,7 +22189,7 @@
         <v>37.161232823424669</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="12.75" customHeight="1">
+    <row r="222" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="18">
         <f t="shared" si="2"/>
         <v>220</v>
@@ -21724,7 +22205,7 @@
         <v>37.130772670045459</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="12.75" customHeight="1">
+    <row r="223" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="18">
         <f t="shared" si="2"/>
         <v>221</v>
@@ -21740,7 +22221,7 @@
         <v>37.098913970859734</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="12.75" customHeight="1">
+    <row r="224" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="18">
         <f t="shared" si="2"/>
         <v>222</v>
@@ -21756,7 +22237,7 @@
         <v>37.065180126891896</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="12.75" customHeight="1">
+    <row r="225" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="18">
         <f t="shared" si="2"/>
         <v>223</v>
@@ -21772,7 +22253,7 @@
         <v>37.026053759282519</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="12.75" customHeight="1">
+    <row r="226" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="18">
         <f t="shared" si="2"/>
         <v>224</v>
@@ -21788,7 +22269,7 @@
         <v>36.984464229464287</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="12.75" customHeight="1">
+    <row r="227" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="18">
         <f t="shared" si="2"/>
         <v>225</v>
@@ -21804,7 +22285,7 @@
         <v>36.94248883697778</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="12.75" customHeight="1">
+    <row r="228" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="18">
         <f t="shared" si="2"/>
         <v>226</v>
@@ -21820,7 +22301,7 @@
         <v>36.903849501769912</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="12.75" customHeight="1">
+    <row r="229" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="18">
         <f t="shared" si="2"/>
         <v>227</v>
@@ -21836,7 +22317,7 @@
         <v>36.866607877356834</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="12.75" customHeight="1">
+    <row r="230" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="18">
         <f t="shared" si="2"/>
         <v>228</v>
@@ -21852,7 +22333,7 @@
         <v>36.825438542543864</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="12.75" customHeight="1">
+    <row r="231" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="18">
         <f t="shared" si="2"/>
         <v>229</v>
@@ -21868,7 +22349,7 @@
         <v>36.780523967772936</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="12.75" customHeight="1">
+    <row r="232" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="18">
         <f t="shared" si="2"/>
         <v>230</v>
@@ -21884,7 +22365,7 @@
         <v>36.740956473608705</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="12.75" customHeight="1">
+    <row r="233" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="18">
         <f t="shared" si="2"/>
         <v>231</v>
@@ -21900,7 +22381,7 @@
         <v>36.704978308398275</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="12.75" customHeight="1">
+    <row r="234" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="18">
         <f t="shared" si="2"/>
         <v>232</v>
@@ -21916,7 +22397,7 @@
         <v>36.66892236806035</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="12.75" customHeight="1">
+    <row r="235" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="18">
         <f t="shared" si="2"/>
         <v>233</v>
@@ -21932,7 +22413,7 @@
         <v>36.633948454291847</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="12.75" customHeight="1">
+    <row r="236" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="18">
         <f t="shared" si="2"/>
         <v>234</v>
@@ -21948,7 +22429,7 @@
         <v>36.598119614743588</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="12.75" customHeight="1">
+    <row r="237" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="18">
         <f t="shared" si="2"/>
         <v>235</v>
@@ -21964,7 +22445,7 @@
         <v>36.563361660255318</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="12.75" customHeight="1">
+    <row r="238" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="18">
         <f t="shared" si="2"/>
         <v>236</v>
@@ -21980,7 +22461,7 @@
         <v>36.528262673093217</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="12.75" customHeight="1">
+    <row r="239" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="18">
         <f t="shared" si="2"/>
         <v>237</v>
@@ -21996,7 +22477,7 @@
         <v>36.490632875358649</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="12.75" customHeight="1">
+    <row r="240" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="18">
         <f t="shared" si="2"/>
         <v>238</v>
@@ -22012,7 +22493,7 @@
         <v>36.451512570462185</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="12.75" customHeight="1">
+    <row r="241" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="18">
         <f t="shared" si="2"/>
         <v>239</v>
@@ -22028,7 +22509,7 @@
         <v>36.412008334728036</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="12.75" customHeight="1">
+    <row r="242" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="18">
         <f t="shared" si="2"/>
         <v>240</v>
@@ -22044,7 +22525,7 @@
         <v>36.376874964750002</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="12.75" customHeight="1">
+    <row r="243" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="18">
         <f t="shared" si="2"/>
         <v>241</v>
@@ -22060,7 +22541,7 @@
         <v>36.340622369004151</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="12.75" customHeight="1">
+    <row r="244" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="18">
         <f t="shared" si="2"/>
         <v>242</v>
@@ -22076,7 +22557,7 @@
         <v>36.305495830909088</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="12.75" customHeight="1">
+    <row r="245" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="18">
         <f t="shared" si="2"/>
         <v>243</v>
@@ -22092,7 +22573,7 @@
         <v>36.269876504938274</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="12.75" customHeight="1">
+    <row r="246" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="18">
         <f t="shared" si="2"/>
         <v>244</v>
@@ -22108,7 +22589,7 @@
         <v>36.232704883032788</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="12.75" customHeight="1">
+    <row r="247" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="18">
         <f t="shared" si="2"/>
         <v>245</v>
@@ -22124,7 +22605,7 @@
         <v>36.195714251183674</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="12.75" customHeight="1">
+    <row r="248" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="18">
         <f t="shared" si="2"/>
         <v>246</v>
@@ -22140,7 +22621,7 @@
         <v>36.154715415243899</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="12.75" customHeight="1">
+    <row r="249" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="18">
         <f t="shared" si="2"/>
         <v>247</v>
@@ -22156,7 +22637,7 @@
         <v>36.116113331943318</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="12.75" customHeight="1">
+    <row r="250" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="18">
         <f t="shared" si="2"/>
         <v>248</v>
@@ -22172,7 +22653,7 @@
         <v>36.076048360080641</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="12.75" customHeight="1">
+    <row r="251" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="18">
         <f t="shared" si="2"/>
         <v>249</v>
@@ -22188,7 +22669,7 @@
         <v>36.036947764859427</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="12.75" customHeight="1">
+    <row r="252" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="18">
         <f t="shared" si="2"/>
         <v>250</v>
@@ -22204,7 +22685,7 @@
         <v>35.997639970119991</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="12.75" customHeight="1">
+    <row r="253" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="18">
         <f t="shared" si="2"/>
         <v>251</v>
@@ -22220,7 +22701,7 @@
         <v>35.959402359163342</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="12.75" customHeight="1">
+    <row r="254" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="18">
         <f t="shared" si="2"/>
         <v>252</v>
@@ -22236,7 +22717,7 @@
         <v>35.920357115039671</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="12.75" customHeight="1">
+    <row r="255" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="18">
         <f t="shared" si="2"/>
         <v>253</v>
@@ -22252,7 +22733,7 @@
         <v>35.879051352964417</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="12.75" customHeight="1">
+    <row r="256" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="18">
         <f t="shared" si="2"/>
         <v>254</v>
@@ -22268,7 +22749,7 @@
         <v>35.835787368858256</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="12.75" customHeight="1">
+    <row r="257" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="18">
         <f t="shared" si="2"/>
         <v>255</v>
@@ -22284,7 +22765,7 @@
         <v>35.792862710117632</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="12.75" customHeight="1">
+    <row r="258" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="18">
         <f t="shared" si="2"/>
         <v>256</v>
@@ -22300,7 +22781,7 @@
         <v>35.744648405624986</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="12.75" customHeight="1">
+    <row r="259" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="18">
         <f t="shared" si="2"/>
         <v>257</v>
@@ -22316,7 +22797,7 @@
         <v>35.69571981291827</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="12.75" customHeight="1">
+    <row r="260" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="18">
         <f t="shared" si="2"/>
         <v>258</v>
@@ -22332,7 +22813,7 @@
         <v>35.651472839573628</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="12.75" customHeight="1">
+    <row r="261" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="18">
         <f t="shared" si="2"/>
         <v>259</v>
@@ -22348,7 +22829,7 @@
         <v>35.606949781660212</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="12.75" customHeight="1">
+    <row r="262" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="18">
         <f t="shared" si="2"/>
         <v>260</v>
@@ -22364,7 +22845,7 @@
         <v>35.566653817730753</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="12.75" customHeight="1">
+    <row r="263" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="18">
         <f t="shared" si="2"/>
         <v>261</v>
@@ -22380,7 +22861,7 @@
         <v>35.519386943103434</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="12.75" customHeight="1">
+    <row r="264" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="18">
         <f t="shared" si="2"/>
         <v>262</v>
@@ -22396,7 +22877,7 @@
         <v>35.470534318549603</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="12.75" customHeight="1">
+    <row r="265" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="18">
         <f t="shared" si="2"/>
         <v>263</v>
@@ -22412,7 +22893,7 @@
         <v>35.421064602813672</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="12.75" customHeight="1">
+    <row r="266" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="18">
         <f t="shared" si="2"/>
         <v>264</v>
@@ -22428,7 +22909,7 @@
         <v>35.373181784962107</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="12.75" customHeight="1">
+    <row r="267" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="18">
         <f t="shared" si="2"/>
         <v>265</v>
@@ -22444,7 +22925,7 @@
         <v>35.328188649018855</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="12.75" customHeight="1">
+    <row r="268" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="18">
         <f t="shared" si="2"/>
         <v>266</v>
@@ -22460,7 +22941,7 @@
         <v>35.283233055751865</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="12.75" customHeight="1">
+    <row r="269" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="18">
         <f t="shared" si="2"/>
         <v>267</v>
@@ -22476,7 +22957,7 @@
         <v>35.239288359812718</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="12.75" customHeight="1">
+    <row r="270" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="18">
         <f t="shared" si="2"/>
         <v>268</v>
@@ -22492,7 +22973,7 @@
         <v>35.194701466380579</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="12.75" customHeight="1">
+    <row r="271" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="18">
         <f t="shared" si="2"/>
         <v>269</v>
@@ -22508,7 +22989,7 @@
         <v>35.152081756617086</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="12.75" customHeight="1">
+    <row r="272" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="18">
         <f t="shared" si="2"/>
         <v>270</v>
@@ -22524,7 +23005,7 @@
         <v>35.109703672629614</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="12.75" customHeight="1">
+    <row r="273" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="18">
         <f t="shared" si="2"/>
         <v>271</v>
@@ -22540,7 +23021,7 @@
         <v>35.067933551771205</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="12.75" customHeight="1">
+    <row r="274" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="18">
         <f t="shared" si="2"/>
         <v>272</v>
@@ -22556,7 +23037,7 @@
         <v>35.027867619595575</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="12.75" customHeight="1">
+    <row r="275" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="18">
         <f t="shared" si="2"/>
         <v>273</v>
@@ -22572,7 +23053,7 @@
         <v>34.987655647509143</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="12.75" customHeight="1">
+    <row r="276" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="18">
         <f t="shared" si="2"/>
         <v>274</v>
@@ -22588,7 +23069,7 @@
         <v>34.944671499452539</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="12.75" customHeight="1">
+    <row r="277" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="18">
         <f t="shared" si="2"/>
         <v>275</v>
@@ -22604,7 +23085,7 @@
         <v>34.902363601163621</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="12.75" customHeight="1">
+    <row r="278" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="18">
         <f t="shared" si="2"/>
         <v>276</v>
@@ -22620,7 +23101,7 @@
         <v>34.860434747246366</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="12.75" customHeight="1">
+    <row r="279" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="18">
         <f t="shared" si="2"/>
         <v>277</v>
@@ -22636,7 +23117,7 @@
         <v>34.818953036389878</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="12.75" customHeight="1">
+    <row r="280" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="18">
         <f t="shared" si="2"/>
         <v>278</v>
@@ -22652,7 +23133,7 @@
         <v>34.778740972913653</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="12.75" customHeight="1">
+    <row r="281" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="18">
         <f t="shared" si="2"/>
         <v>279</v>
@@ -22668,7 +23149,7 @@
         <v>34.740573439534039</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="12.75" customHeight="1">
+    <row r="282" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="18">
         <f t="shared" si="2"/>
         <v>280</v>
@@ -22684,7 +23165,7 @@
         <v>34.703321389642845</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="12.75" customHeight="1">
+    <row r="283" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="18">
         <f t="shared" si="2"/>
         <v>281</v>
@@ -22700,7 +23181,7 @@
         <v>34.66704622537366</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="12.75" customHeight="1">
+    <row r="284" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="18">
         <f t="shared" si="2"/>
         <v>282</v>
@@ -22716,7 +23197,7 @@
         <v>34.633936132092195</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="12.75" customHeight="1">
+    <row r="285" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="18">
         <f t="shared" si="2"/>
         <v>283</v>
@@ -22732,7 +23213,7 @@
         <v>34.60084802017667</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="12.75" customHeight="1">
+    <row r="286" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="18">
         <f t="shared" si="2"/>
         <v>284</v>
@@ -22748,7 +23229,7 @@
         <v>34.568661932359149</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="12.75" customHeight="1">
+    <row r="287" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="18">
         <f t="shared" si="2"/>
         <v>285</v>
@@ -22764,7 +23245,7 @@
         <v>34.534210486982445</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="12.75" customHeight="1">
+    <row r="288" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="18">
         <f t="shared" si="2"/>
         <v>286</v>
@@ -22780,7 +23261,7 @@
         <v>34.502202755069924</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="12.75" customHeight="1">
+    <row r="289" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="18">
         <f t="shared" si="2"/>
         <v>287</v>
@@ -22796,7 +23277,7 @@
         <v>34.441742116968634</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="12.75" customHeight="1">
+    <row r="290" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="18">
         <f t="shared" si="2"/>
         <v>288</v>
@@ -22812,7 +23293,7 @@
         <v>34.411076347847221</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="12.75" customHeight="1">
+    <row r="291" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="18">
         <f t="shared" si="2"/>
         <v>289</v>
@@ -22828,7 +23309,7 @@
         <v>34.381903071695504</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="12.75" customHeight="1">
+    <row r="292" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="18">
         <f t="shared" si="2"/>
         <v>290</v>
@@ -22844,7 +23325,7 @@
         <v>34.352999957655172</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="12.75" customHeight="1">
+    <row r="293" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="18">
         <f t="shared" si="2"/>
         <v>291</v>
@@ -22860,7 +23341,7 @@
         <v>34.326013703505154</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="12.75" customHeight="1">
+    <row r="294" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="18">
         <f t="shared" si="2"/>
         <v>292</v>
@@ -22876,7 +23357,7 @@
         <v>34.300958862842464</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="12.75" customHeight="1">
+    <row r="295" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="18">
         <f t="shared" si="2"/>
         <v>293</v>
@@ -22892,7 +23373,7 @@
         <v>34.276006784027302</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="12.75" customHeight="1">
+    <row r="296" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="18">
         <f t="shared" si="2"/>
         <v>294</v>
@@ -22908,7 +23389,7 @@
         <v>34.249897918707482</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="12.75" customHeight="1">
+    <row r="297" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="18">
         <f t="shared" si="2"/>
         <v>295</v>
@@ -22924,7 +23405,7 @@
         <v>34.226135552101695</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="12.75" customHeight="1">
+    <row r="298" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="18">
         <f t="shared" si="2"/>
         <v>296</v>
@@ -22940,7 +23421,7 @@
         <v>34.204222931216215</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="12.75" customHeight="1">
+    <row r="299" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="18">
         <f t="shared" si="2"/>
         <v>297</v>
@@ -22956,7 +23437,7 @@
         <v>34.18289558410774</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="12.75" customHeight="1">
+    <row r="300" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="18">
         <f t="shared" si="2"/>
         <v>298</v>
@@ -22972,7 +23453,7 @@
         <v>34.162718082416099</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="12.75" customHeight="1">
+    <row r="301" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="18">
         <f t="shared" si="2"/>
         <v>299</v>
@@ -22988,7 +23469,7 @@
         <v>34.140468189933102</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="12.75" customHeight="1">
+    <row r="302" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="18">
         <f t="shared" si="2"/>
         <v>300</v>
@@ -23004,7 +23485,7 @@
         <v>34.119366627533324</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="12.75" customHeight="1">
+    <row r="303" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="18">
         <f t="shared" si="2"/>
         <v>301</v>
@@ -23020,7 +23501,7 @@
         <v>34.097840490531553</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="12.75" customHeight="1">
+    <row r="304" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="18">
         <f t="shared" si="2"/>
         <v>302</v>
@@ -23036,7 +23517,7 @@
         <v>34.077913866125826</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="12.75" customHeight="1">
+    <row r="305" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="18">
         <f t="shared" si="2"/>
         <v>303</v>
@@ -23052,7 +23533,7 @@
         <v>34.057623722376235</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="12.75" customHeight="1">
+    <row r="306" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="18">
         <f t="shared" si="2"/>
         <v>304</v>
@@ -23068,7 +23549,7 @@
         <v>34.036743378157887</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="12.75" customHeight="1">
+    <row r="307" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="18">
         <f t="shared" si="2"/>
         <v>305</v>
@@ -23084,7 +23565,7 @@
         <v>34.0172130717377</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="12.75" customHeight="1">
+    <row r="308" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="18">
         <f t="shared" si="2"/>
         <v>306</v>
@@ -23100,7 +23581,7 @@
         <v>33.997091462385619</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="12.75" customHeight="1">
+    <row r="309" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="18">
         <f t="shared" si="2"/>
         <v>307</v>
@@ -23116,7 +23597,7 @@
         <v>33.975211687882734</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="12.75" customHeight="1">
+    <row r="310" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="18">
         <f t="shared" si="2"/>
         <v>308</v>
@@ -23132,7 +23613,7 @@
         <v>33.951818144935061</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="12.75" customHeight="1">
+    <row r="311" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="18">
         <f t="shared" si="2"/>
         <v>309</v>
@@ -23148,7 +23629,7 @@
         <v>33.929385077993516</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="12.75" customHeight="1">
+    <row r="312" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="18">
         <f t="shared" si="2"/>
         <v>310</v>
@@ -23164,7 +23645,7 @@
         <v>33.90851609090322</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="12.75" customHeight="1">
+    <row r="313" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="18">
         <f t="shared" si="2"/>
         <v>311</v>
@@ -23180,7 +23661,7 @@
         <v>33.886495137138255</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="12.75" customHeight="1">
+    <row r="314" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="18">
         <f t="shared" si="2"/>
         <v>312</v>
@@ -23196,7 +23677,7 @@
         <v>33.865480729391024</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="12.75" customHeight="1">
+    <row r="315" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="18">
         <f t="shared" si="2"/>
         <v>313</v>
@@ -23212,7 +23693,7 @@
         <v>33.843706028146961</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="12.75" customHeight="1">
+    <row r="316" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="18">
         <f t="shared" si="2"/>
         <v>314</v>
@@ -23228,7 +23709,7 @@
         <v>33.822292954299357</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="12.75" customHeight="1">
+    <row r="317" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="18">
         <f t="shared" si="2"/>
         <v>315</v>
@@ -23244,7 +23725,7 @@
         <v>33.800285673142845</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="12.75" customHeight="1">
+    <row r="318" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="18">
         <f t="shared" si="2"/>
         <v>316</v>
@@ -23260,7 +23741,7 @@
         <v>33.778132867974676</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="12.75" customHeight="1">
+    <row r="319" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="18">
         <f t="shared" si="2"/>
         <v>317</v>
@@ -23276,7 +23757,7 @@
         <v>33.755394277507875</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="12.75" customHeight="1">
+    <row r="320" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="18">
         <f t="shared" si="2"/>
         <v>318</v>
@@ -23292,7 +23773,7 @@
         <v>33.733238946698101</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="12.75" customHeight="1">
+    <row r="321" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="18">
         <f t="shared" si="2"/>
         <v>319</v>
@@ -23308,7 +23789,7 @@
         <v>33.710940394639486</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="12.75" customHeight="1">
+    <row r="322" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="18">
         <f t="shared" si="2"/>
         <v>320</v>
@@ -23324,7 +23805,7 @@
         <v>33.689062453031241</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="12.75" customHeight="1">
+    <row r="323" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="18">
         <f t="shared" si="2"/>
         <v>321</v>
@@ -23340,7 +23821,7 @@
         <v>33.666137024579427</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="12.75" customHeight="1">
+    <row r="324" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="18">
         <f t="shared" si="2"/>
         <v>322</v>
@@ -23356,7 +23837,7 @@
         <v>33.645031011583839</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="12.75" customHeight="1">
+    <row r="325" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="18">
         <f t="shared" si="2"/>
         <v>323</v>
@@ -23372,7 +23853,7 @@
         <v>33.622414816501539</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="12.75" customHeight="1">
+    <row r="326" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="18">
         <f t="shared" si="2"/>
         <v>324</v>
@@ -23388,7 +23869,7 @@
         <v>33.59876538805554</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="12.75" customHeight="1">
+    <row r="327" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="18">
         <f t="shared" si="2"/>
         <v>325</v>
@@ -23404,7 +23885,7 @@
         <v>33.575630725323066</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="12.75" customHeight="1">
+    <row r="328" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="18">
         <f t="shared" si="2"/>
         <v>326</v>
@@ -23420,7 +23901,7 @@
         <v>33.55380363438649</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="12.75" customHeight="1">
+    <row r="329" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="18">
         <f t="shared" si="2"/>
         <v>327</v>
@@ -23436,7 +23917,7 @@
         <v>33.532079466574906</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="12.75" customHeight="1">
+    <row r="330" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="18">
         <f t="shared" si="2"/>
         <v>328</v>
@@ -23452,7 +23933,7 @@
         <v>33.510823125121938</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="12.75" customHeight="1">
+    <row r="331" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="18">
         <f t="shared" si="2"/>
         <v>329</v>
@@ -23468,7 +23949,7 @@
         <v>33.4886017805471</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="12.75" customHeight="1">
+    <row r="332" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="18">
         <f t="shared" si="2"/>
         <v>330</v>
@@ -23484,7 +23965,7 @@
         <v>33.468363593333315</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="12.75" customHeight="1">
+    <row r="333" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="18">
         <f t="shared" si="2"/>
         <v>331</v>
@@ -23500,7 +23981,7 @@
         <v>33.447673675649533</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="12.75" customHeight="1">
+    <row r="334" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="18">
         <f t="shared" si="2"/>
         <v>332</v>
@@ -23516,7 +23997,7 @@
         <v>33.427379475060221</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="12.75" customHeight="1">
+    <row r="335" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="18">
         <f t="shared" si="2"/>
         <v>333</v>
@@ -23532,7 +24013,7 @@
         <v>33.407237192282267</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="12.75" customHeight="1">
+    <row r="336" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="18">
         <f t="shared" si="2"/>
         <v>334</v>
@@ -23548,7 +24029,7 @@
         <v>33.388532888862258</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="12.75" customHeight="1">
+    <row r="337" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="18">
         <f t="shared" si="2"/>
         <v>335</v>
@@ -23564,7 +24045,7 @@
         <v>33.36955219573133</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="12.75" customHeight="1">
+    <row r="338" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="18">
         <f t="shared" si="2"/>
         <v>336</v>
@@ -23580,7 +24061,7 @@
         <v>33.34928566976189</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="12.75" customHeight="1">
+    <row r="339" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="18">
         <f t="shared" si="2"/>
         <v>337</v>
@@ -23596,7 +24077,7 @@
         <v>33.330356036646869</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="12.75" customHeight="1">
+    <row r="340" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="18">
         <f t="shared" si="2"/>
         <v>338</v>
@@ -23612,7 +24093,7 @@
         <v>33.311212973254428</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="12.75" customHeight="1">
+    <row r="341" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="18">
         <f t="shared" si="2"/>
         <v>339</v>
@@ -23628,7 +24109,7 @@
         <v>33.289498482949838</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="12.75" customHeight="1">
+    <row r="342" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="18">
         <f t="shared" si="2"/>
         <v>340</v>
@@ -23644,7 +24125,7 @@
         <v>33.267764662764691</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="12.75" customHeight="1">
+    <row r="343" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="18">
         <f t="shared" si="2"/>
         <v>341</v>
@@ -23660,7 +24141,7 @@
         <v>33.245806410645152</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="12.75" customHeight="1">
+    <row r="344" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="18">
         <f t="shared" si="2"/>
         <v>342</v>
@@ -23676,7 +24157,7 @@
         <v>33.223508733537997</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="12.75" customHeight="1">
+    <row r="345" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="18">
         <f t="shared" si="2"/>
         <v>343</v>
@@ -23692,7 +24173,7 @@
         <v>33.200932904985407</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="12.75" customHeight="1">
+    <row r="346" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="18">
         <f t="shared" si="2"/>
         <v>344</v>
@@ -23708,7 +24189,7 @@
         <v>33.177616240465106</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" s="18">
         <f t="shared" si="2"/>
         <v>345</v>
@@ -23724,7 +24205,7 @@
         <v>33.152985469652158</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" s="18">
         <f t="shared" si="2"/>
         <v>346</v>
@@ -23740,7 +24221,7 @@
         <v>33.128364413381483</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" s="18">
         <f t="shared" si="2"/>
         <v>347</v>
@@ -23756,7 +24237,7 @@
         <v>33.103412352564824</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" s="18">
         <f t="shared" si="2"/>
         <v>348</v>
@@ -23772,7 +24253,7 @@
         <v>33.078804848448264</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" s="18">
         <f t="shared" si="2"/>
         <v>349</v>
@@ -23788,7 +24269,7 @@
         <v>33.055026039971331</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" s="18">
         <f t="shared" si="2"/>
         <v>350</v>
@@ -23804,7 +24285,7 @@
         <v>33.030411681371412</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" s="18">
         <f t="shared" si="2"/>
         <v>351</v>
@@ -23820,7 +24301,7 @@
         <v>33.006878029857532</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" s="18">
         <f t="shared" si="2"/>
         <v>352</v>
@@ -23836,7 +24317,7 @@
         <v>32.983932353636348</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" s="18">
         <f t="shared" si="2"/>
         <v>353</v>
@@ -23852,7 +24333,7 @@
         <v>32.959955208158625</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" s="18">
         <f t="shared" ref="A356:A443" si="3">A355+1</f>
         <v>354</v>
@@ -23868,7 +24349,7 @@
         <v>32.934475108700553</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" s="18">
         <f t="shared" si="3"/>
         <v>355</v>
@@ -23884,7 +24365,7 @@
         <v>32.90789912247886</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" s="18">
         <f t="shared" si="3"/>
         <v>356</v>
@@ -23900,7 +24381,7 @@
         <v>32.881472439550549</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" s="18">
         <f t="shared" si="3"/>
         <v>357</v>
@@ -23916,7 +24397,7 @@
         <v>32.85519380526609</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" s="18">
         <f t="shared" si="3"/>
         <v>358</v>
@@ -23932,7 +24413,7 @@
         <v>32.8285871186592</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" s="18">
         <f t="shared" si="3"/>
         <v>359</v>
@@ -23948,7 +24429,7 @@
         <v>32.801348714428954</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" s="18">
         <f t="shared" si="3"/>
         <v>360</v>
@@ -23964,7 +24445,7 @@
         <v>32.773872745777759</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" s="18">
         <f t="shared" si="3"/>
         <v>361</v>
@@ -23980,7 +24461,7 @@
         <v>32.746798306038762</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" s="18">
         <f t="shared" si="3"/>
         <v>362</v>
@@ -23996,7 +24477,7 @@
         <v>32.721144167071806</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" s="18">
         <f t="shared" si="3"/>
         <v>363</v>
@@ -24012,7 +24493,7 @@
         <v>32.694171318126706</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" s="18">
         <f t="shared" si="3"/>
         <v>364</v>
@@ -24028,7 +24509,7 @@
         <v>32.66762139881866</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" s="18">
         <f t="shared" si="3"/>
         <v>365</v>
@@ -24044,7 +24525,7 @@
         <v>32.640066271698615</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" s="18">
         <f t="shared" si="3"/>
         <v>366</v>
@@ -24060,7 +24541,7 @@
         <v>32.611104344508178</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" s="18">
         <f t="shared" si="3"/>
         <v>367</v>
@@ -24076,7 +24557,7 @@
         <v>32.582845203978181</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" s="18">
         <f t="shared" si="3"/>
         <v>368</v>
@@ -24092,7 +24573,7 @@
         <v>32.556587472663026</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" s="18">
         <f t="shared" si="3"/>
         <v>369</v>
@@ -24108,7 +24589,7 @@
         <v>32.530282358590767</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" s="18">
         <f t="shared" si="3"/>
         <v>370</v>
@@ -24124,7 +24605,7 @@
         <v>32.506281594432416</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" s="18">
         <f t="shared" si="3"/>
         <v>371</v>
@@ -24140,7 +24621,7 @@
         <v>32.482598892857126</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" s="18">
         <f t="shared" si="3"/>
         <v>372</v>
@@ -24156,7 +24637,7 @@
         <v>32.459392982876324</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375" s="18">
         <f t="shared" si="3"/>
         <v>373</v>
@@ -24172,7 +24653,7 @@
         <v>32.435614449812313</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" s="18">
         <f t="shared" si="3"/>
         <v>374</v>
@@ -24188,7 +24669,7 @@
         <v>32.411455051871634</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" s="18">
         <f t="shared" si="3"/>
         <v>375</v>
@@ -24204,7 +24685,7 @@
         <v>32.387264505466646</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378" s="18">
         <f t="shared" si="3"/>
         <v>376</v>
@@ -24220,7 +24701,7 @@
         <v>32.361846248590403</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379" s="18">
         <f t="shared" si="3"/>
         <v>377</v>
@@ -24236,7 +24717,7 @@
         <v>32.336324109389899</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380" s="18">
         <f t="shared" si="3"/>
         <v>378</v>
@@ -24252,7 +24733,7 @@
         <v>32.312101030555532</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381" s="18">
         <f t="shared" si="3"/>
         <v>379</v>
@@ -24268,7 +24749,7 @@
         <v>32.287425299815283</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" s="18">
         <f t="shared" si="3"/>
         <v>380</v>
@@ -24284,7 +24765,7 @@
         <v>32.260721547421028</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383" s="18">
         <f t="shared" si="3"/>
         <v>381</v>
@@ -24300,7 +24781,7 @@
         <v>32.234420440393677</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" s="18">
         <f t="shared" si="3"/>
         <v>382</v>
@@ -24316,7 +24797,7 @@
         <v>32.208335571335049</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" s="18">
         <f t="shared" si="3"/>
         <v>383</v>
@@ -24332,7 +24813,7 @@
         <v>32.183248534281958</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" s="18">
         <f t="shared" si="3"/>
         <v>384</v>
@@ -24348,7 +24829,7 @@
         <v>32.157979656692682</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" s="18">
         <f t="shared" si="3"/>
         <v>385</v>
@@ -24364,7 +24845,7 @@
         <v>32.134712179038935</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" s="18">
         <f t="shared" si="3"/>
         <v>386</v>
@@ -24380,7 +24861,7 @@
         <v>32.111539350932617</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389" s="18">
         <f t="shared" si="3"/>
         <v>387</v>
@@ -24396,7 +24877,7 @@
         <v>32.088072842764831</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390" s="18">
         <f t="shared" si="3"/>
         <v>388</v>
@@ -24412,7 +24893,7 @@
         <v>32.064031418505131</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391" s="18">
         <f t="shared" si="3"/>
         <v>389</v>
@@ -24428,7 +24909,7 @@
         <v>32.038982493753188</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392" s="18">
         <f t="shared" si="3"/>
         <v>390</v>
@@ -24444,7 +24925,7 @@
         <v>32.015472284384586</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393" s="18">
         <f t="shared" si="3"/>
         <v>391</v>
@@ -24460,7 +24941,7 @@
         <v>31.992133479028105</v>
       </c>
     </row>
-    <row r="394" spans="1:4">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394" s="18">
         <f t="shared" si="3"/>
         <v>392</v>
@@ -24476,7 +24957,7 @@
         <v>31.970342324132627</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395" s="18">
         <f t="shared" si="3"/>
         <v>393</v>
@@ -24492,7 +24973,7 @@
         <v>31.947847812264605</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396" s="18">
         <f t="shared" si="3"/>
         <v>394</v>
@@ -24508,7 +24989,7 @@
         <v>31.925162919923835</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397" s="18">
         <f t="shared" si="3"/>
         <v>395</v>
@@ -24524,7 +25005,7 @@
         <v>31.902643521873394</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398" s="18">
         <f t="shared" si="3"/>
         <v>396</v>
@@ -24540,7 +25021,7 @@
         <v>31.880162098838358</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" s="18">
         <f t="shared" si="3"/>
         <v>397</v>
@@ -24556,7 +25037,7 @@
         <v>31.856912319294686</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400" s="18">
         <f t="shared" si="3"/>
         <v>398</v>
@@ -24572,7 +25053,7 @@
         <v>31.833502994170832</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" s="18">
         <f t="shared" si="3"/>
         <v>399</v>
@@ -24588,7 +25069,7 @@
         <v>31.810135819323285</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="18">
         <f t="shared" si="3"/>
         <v>400</v>
@@ -24604,7 +25085,7 @@
         <v>31.786510481299977</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="18">
         <f t="shared" si="3"/>
         <v>401</v>
@@ -24620,7 +25101,7 @@
         <v>31.762603973266813</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="18">
         <f t="shared" si="3"/>
         <v>402</v>
@@ -24636,7 +25117,7 @@
         <v>31.740060184179082</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="18">
         <f t="shared" si="3"/>
         <v>403</v>
@@ -24652,7 +25133,7 @@
         <v>31.717901224590552</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="18">
         <f t="shared" si="3"/>
         <v>404</v>
@@ -24668,7 +25149,7 @@
         <v>31.696743053440571</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="18">
         <f t="shared" si="3"/>
         <v>405</v>
@@ -24684,7 +25165,7 @@
         <v>31.675343689580224</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="18">
         <f t="shared" si="3"/>
         <v>406</v>
@@ -24700,7 +25181,7 @@
         <v>31.654517718201948</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="18">
         <f t="shared" si="3"/>
         <v>407</v>
@@ -24716,7 +25197,7 @@
         <v>31.634383765773933</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="18">
         <f t="shared" si="3"/>
         <v>408</v>
@@ -24732,7 +25213,7 @@
         <v>31.614814196789194</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="18">
         <f t="shared" si="3"/>
         <v>409</v>
@@ -24748,7 +25229,7 @@
         <v>31.595291421638123</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="18">
         <f t="shared" si="3"/>
         <v>410</v>
@@ -24764,7 +25245,7 @@
         <v>31.576376077073149</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" s="18">
         <f t="shared" si="3"/>
         <v>411</v>
@@ -24780,7 +25261,7 @@
         <v>31.556968836934285</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="18">
         <f t="shared" si="3"/>
         <v>412</v>
@@ -24796,7 +25277,7 @@
         <v>31.537000465776678</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="18">
         <f t="shared" si="3"/>
         <v>413</v>
@@ -24812,7 +25293,7 @@
         <v>31.51698351661015</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="18">
         <f t="shared" si="3"/>
         <v>414</v>
@@ -24828,7 +25309,7 @@
         <v>31.497618822125581</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="18">
         <f t="shared" si="3"/>
         <v>415</v>
@@ -24844,7 +25325,7 @@
         <v>31.477986006602389</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="18">
         <f t="shared" si="3"/>
         <v>416</v>
@@ -24860,7 +25341,7 @@
         <v>31.457798540048056</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419" s="18">
         <f t="shared" si="3"/>
         <v>417</v>
@@ -24876,7 +25357,7 @@
         <v>31.436820603693025</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" s="18">
         <f t="shared" si="3"/>
         <v>418</v>
@@ -24892,7 +25373,7 @@
         <v>31.415703809449742</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" s="18">
         <f t="shared" si="3"/>
         <v>419</v>
@@ -24908,7 +25389,7 @@
         <v>31.394544609999983</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" s="18">
         <f t="shared" si="3"/>
         <v>420</v>
@@ -24924,7 +25405,7 @@
         <v>31.373248077023792</v>
       </c>
     </row>
-    <row r="423" spans="1:4">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" s="18">
         <f t="shared" si="3"/>
         <v>421</v>
@@ -24940,7 +25421,7 @@
         <v>31.352860316555802</v>
       </c>
     </row>
-    <row r="424" spans="1:4">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" s="18">
         <f t="shared" si="3"/>
         <v>422</v>
@@ -24956,7 +25437,7 @@
         <v>31.333066808696664</v>
       </c>
     </row>
-    <row r="425" spans="1:4">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" s="18">
         <f t="shared" si="3"/>
         <v>423</v>
@@ -24972,7 +25453,7 @@
         <v>31.312728588203292</v>
       </c>
     </row>
-    <row r="426" spans="1:4">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" s="18">
         <f t="shared" si="3"/>
         <v>424</v>
@@ -24988,7 +25469,7 @@
         <v>31.292557059056588</v>
       </c>
     </row>
-    <row r="427" spans="1:4">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" s="18">
         <f t="shared" si="3"/>
         <v>425</v>
@@ -25004,7 +25485,7 @@
         <v>31.272433394847042</v>
       </c>
     </row>
-    <row r="428" spans="1:4">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" s="18">
         <f t="shared" si="3"/>
         <v>426</v>
@@ -25020,7 +25501,7 @@
         <v>31.252615475892004</v>
       </c>
     </row>
-    <row r="429" spans="1:4">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" s="18">
         <f t="shared" si="3"/>
         <v>427</v>
@@ -25036,7 +25517,7 @@
         <v>31.234248694566734</v>
       </c>
     </row>
-    <row r="430" spans="1:4">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" s="18">
         <f t="shared" si="3"/>
         <v>428</v>
@@ -25052,7 +25533,7 @@
         <v>31.216178020046716</v>
       </c>
     </row>
-    <row r="431" spans="1:4">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" s="18">
         <f t="shared" si="3"/>
         <v>429</v>
@@ -25068,7 +25549,7 @@
         <v>31.198378071095561</v>
       </c>
     </row>
-    <row r="432" spans="1:4">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" s="18">
         <f t="shared" si="3"/>
         <v>430</v>
@@ -25084,7 +25565,7 @@
         <v>31.181219051604643</v>
       </c>
     </row>
-    <row r="433" spans="1:4">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" s="18">
         <f t="shared" si="3"/>
         <v>431</v>
@@ -25100,7 +25581,7 @@
         <v>31.163745224617159</v>
       </c>
     </row>
-    <row r="434" spans="1:4">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="18">
         <f t="shared" si="3"/>
         <v>432</v>
@@ -25116,7 +25597,7 @@
         <v>31.146653223379619</v>
       </c>
     </row>
-    <row r="435" spans="1:4">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="18">
         <f t="shared" si="3"/>
         <v>433</v>
@@ -25132,7 +25613,7 @@
         <v>31.13037919833717</v>
       </c>
     </row>
-    <row r="436" spans="1:4">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="18">
         <f t="shared" si="3"/>
         <v>434</v>
@@ -25148,7 +25629,7 @@
         <v>31.114986621290313</v>
       </c>
     </row>
-    <row r="437" spans="1:4">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="18">
         <f t="shared" si="3"/>
         <v>435</v>
@@ -25164,7 +25645,7 @@
         <v>31.099825733563208</v>
       </c>
     </row>
-    <row r="438" spans="1:4">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="18">
         <f t="shared" si="3"/>
         <v>436</v>
@@ -25180,7 +25661,7 @@
         <v>31.084757327499986</v>
       </c>
     </row>
-    <row r="439" spans="1:4">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="18">
         <f t="shared" si="3"/>
         <v>437</v>
@@ -25196,7 +25677,7 @@
         <v>31.0702384314874</v>
       </c>
     </row>
-    <row r="440" spans="1:4">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="18">
         <f t="shared" si="3"/>
         <v>438</v>
@@ -25212,7 +25693,7 @@
         <v>31.055991311598159</v>
       </c>
     </row>
-    <row r="441" spans="1:4">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="18">
         <f t="shared" si="3"/>
         <v>439</v>
@@ -25228,7 +25709,7 @@
         <v>31.042583586697024</v>
       </c>
     </row>
-    <row r="442" spans="1:4">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="18">
         <f t="shared" si="3"/>
         <v>440</v>
@@ -25244,7 +25725,7 @@
         <v>31.028623168590894</v>
       </c>
     </row>
-    <row r="443" spans="1:4">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="18">
         <f t="shared" si="3"/>
         <v>441</v>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1prac.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1prac.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="model1" sheetId="5" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="302">
   <si>
     <t>PE</t>
   </si>
@@ -1146,6 +1146,78 @@
   </si>
   <si>
     <t xml:space="preserve">2023/1/20
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/3
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/6
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/7
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/8
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/9
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/10
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/13
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/14
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/15
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/16
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/17
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/20
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/21
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/22
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/23
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/24
 </t>
   </si>
 </sst>
@@ -1160,7 +1232,7 @@
     <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="180" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1709,115 +1781,115 @@
             <c:numRef>
               <c:f>model1!时间</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>43889</c:v>
+                  <c:v>3.25108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43921</c:v>
+                  <c:v>2.8991500000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43951</c:v>
+                  <c:v>3.17509</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43980</c:v>
+                  <c:v>3.1906699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44012</c:v>
+                  <c:v>3.6513100000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44043</c:v>
+                  <c:v>4.1706000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44074</c:v>
+                  <c:v>4.1298999999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44104</c:v>
+                  <c:v>3.9869400000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44134</c:v>
+                  <c:v>4.2014499999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44165</c:v>
+                  <c:v>4.27712</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44196</c:v>
+                  <c:v>4.7245600000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44225</c:v>
+                  <c:v>4.9833500000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44253</c:v>
+                  <c:v>4.7232599999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44286</c:v>
+                  <c:v>4.4379900000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44316</c:v>
+                  <c:v>4.7860299999999993</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44347</c:v>
+                  <c:v>4.9806599999999994</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44377</c:v>
+                  <c:v>5.1114799999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44407</c:v>
+                  <c:v>4.9776999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44439</c:v>
+                  <c:v>4.7613100000000008</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44469</c:v>
+                  <c:v>4.7106400000000006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44498</c:v>
+                  <c:v>4.8678999999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44530</c:v>
+                  <c:v>4.9547099609374996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44561</c:v>
+                  <c:v>4.8630097656249998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44589</c:v>
+                  <c:v>4.3440297851562502</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44620</c:v>
+                  <c:v>4.3355400390624999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44651</c:v>
+                  <c:v>3.8658500976562502</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44680</c:v>
+                  <c:v>3.5012099609375</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44712</c:v>
+                  <c:v>3.6361599121093748</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44742</c:v>
+                  <c:v>4.1096201171875002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44771</c:v>
+                  <c:v>3.8724699707031252</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44804</c:v>
+                  <c:v>3.7022099609375001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44834</c:v>
+                  <c:v>3.3477299804687499</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44865</c:v>
+                  <c:v>3.2993999023437501</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44895</c:v>
+                  <c:v>3.4802900390625</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>44925</c:v>
+                  <c:v>3.4735300292968749</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>44957</c:v>
+                  <c:v>3.8110336914062501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1825,273 +1897,6 @@
           <c:val>
             <c:numRef>
               <c:f>model1!资金</c:f>
-              <c:numCache>
-                <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>26000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>28000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>34000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>36000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>38000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>42000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>46000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>48000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>52000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>54000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>56000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>58000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>60000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>62000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>64000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>66000</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>68000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>70000</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>72000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E69F-429A-B459-D6A53AA60C2B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>model1!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>total assets</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>model1!时间</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>43889</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43921</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43951</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43980</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44012</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44043</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44074</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44104</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44134</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44165</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44196</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44225</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44253</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44286</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44316</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44347</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44377</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44407</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>44439</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>44469</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44498</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44530</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>44561</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>44589</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>44620</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>44651</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>44680</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44712</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>44742</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>44771</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>44804</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>44834</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>44865</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>44895</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>44925</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>44957</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="36"/>
@@ -2209,20 +2014,20 @@
           <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E69F-429A-B459-D6A53AA60C2B}"/>
+              <c16:uniqueId val="{00000000-E69F-429A-B459-D6A53AA60C2B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>model1!$I$1</c:f>
+              <c:f>model1!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>profit amount</c:v>
+                  <c:v>total assets</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2230,7 +2035,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2243,122 +2048,122 @@
             <c:numRef>
               <c:f>model1!时间</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>43889</c:v>
+                  <c:v>3.25108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43921</c:v>
+                  <c:v>2.8991500000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43951</c:v>
+                  <c:v>3.17509</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43980</c:v>
+                  <c:v>3.1906699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44012</c:v>
+                  <c:v>3.6513100000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44043</c:v>
+                  <c:v>4.1706000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44074</c:v>
+                  <c:v>4.1298999999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44104</c:v>
+                  <c:v>3.9869400000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44134</c:v>
+                  <c:v>4.2014499999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44165</c:v>
+                  <c:v>4.27712</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44196</c:v>
+                  <c:v>4.7245600000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44225</c:v>
+                  <c:v>4.9833500000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44253</c:v>
+                  <c:v>4.7232599999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44286</c:v>
+                  <c:v>4.4379900000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44316</c:v>
+                  <c:v>4.7860299999999993</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44347</c:v>
+                  <c:v>4.9806599999999994</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44377</c:v>
+                  <c:v>5.1114799999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44407</c:v>
+                  <c:v>4.9776999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44439</c:v>
+                  <c:v>4.7613100000000008</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44469</c:v>
+                  <c:v>4.7106400000000006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44498</c:v>
+                  <c:v>4.8678999999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44530</c:v>
+                  <c:v>4.9547099609374996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44561</c:v>
+                  <c:v>4.8630097656249998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44589</c:v>
+                  <c:v>4.3440297851562502</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44620</c:v>
+                  <c:v>4.3355400390624999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44651</c:v>
+                  <c:v>3.8658500976562502</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44680</c:v>
+                  <c:v>3.5012099609375</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44712</c:v>
+                  <c:v>3.6361599121093748</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44742</c:v>
+                  <c:v>4.1096201171875002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44771</c:v>
+                  <c:v>3.8724699707031252</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44804</c:v>
+                  <c:v>3.7022099609375001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44834</c:v>
+                  <c:v>3.3477299804687499</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44865</c:v>
+                  <c:v>3.2993999023437501</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44895</c:v>
+                  <c:v>3.4802900390625</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>44925</c:v>
+                  <c:v>3.4735300292968749</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>44957</c:v>
+                  <c:v>3.8110336914062501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>model1!金额</c:f>
+              <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="36"/>
@@ -2476,6 +2281,165 @@
           <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E69F-429A-B459-D6A53AA60C2B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>model1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>profit amount</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>model1!时间</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>3.25108</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8991500000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.17509</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1906699999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6513100000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1706000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.1298999999999992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9869400000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.2014499999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.27712</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.7245600000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.9833500000000006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.7232599999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.4379900000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.7860299999999993</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.9806599999999994</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.1114799999999994</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.9776999999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.7613100000000008</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.7106400000000006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.8678999999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.9547099609374996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.8630097656249998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.3440297851562502</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.3355400390624999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.8658500976562502</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.5012099609375</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.6361599121093748</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.1096201171875002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.8724699707031252</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.7022099609375001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.3477299804687499</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2993999023437501</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.4802900390625</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4735300292968749</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.8110336914062501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>model1!金额</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E69F-429A-B459-D6A53AA60C2B}"/>
             </c:ext>
           </c:extLst>
@@ -2490,17 +2454,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="222845952"/>
-        <c:axId val="255607552"/>
+        <c:axId val="159476736"/>
+        <c:axId val="159482624"/>
       </c:lineChart>
-      <c:dateAx>
-        <c:axId val="222845952"/>
+      <c:catAx>
+        <c:axId val="159476736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -2537,14 +2501,15 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="255607552"/>
+        <c:crossAx val="159482624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="255607552"/>
+        <c:axId val="159482624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2595,7 +2560,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222845952"/>
+        <c:crossAx val="159476736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17101,12 +17066,12 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -17127,7 +17092,7 @@
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" s="10" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>180</v>
       </c>
@@ -17157,7 +17122,7 @@
       </c>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" ht="14.1" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="4">
@@ -17173,7 +17138,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="14.1" customHeight="1">
       <c r="A3" s="14">
         <v>43889</v>
       </c>
@@ -17242,7 +17207,7 @@
         <v>-22000</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="14.1" customHeight="1">
       <c r="A4" s="14">
         <v>43921</v>
       </c>
@@ -17317,7 +17282,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="14.1" customHeight="1">
       <c r="A5" s="14">
         <v>43951</v>
       </c>
@@ -17387,7 +17352,7 @@
         <v>53008.069006718506</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" ht="14.1" customHeight="1">
       <c r="A6" s="14">
         <v>43980</v>
       </c>
@@ -17429,7 +17394,7 @@
         <v>9.9835199022272558E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" ht="14.1" customHeight="1">
       <c r="A7" s="14">
         <v>44012</v>
       </c>
@@ -17467,7 +17432,7 @@
       </c>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" ht="14.1" customHeight="1">
       <c r="A8" s="14">
         <v>44043</v>
       </c>
@@ -17505,7 +17470,7 @@
       </c>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" ht="14.1" customHeight="1">
       <c r="A9" s="14">
         <v>44074</v>
       </c>
@@ -17543,7 +17508,7 @@
       </c>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" ht="14.1" customHeight="1">
       <c r="A10" s="14">
         <v>44104</v>
       </c>
@@ -17581,7 +17546,7 @@
       </c>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" ht="14.1" customHeight="1">
       <c r="A11" s="14">
         <v>44134</v>
       </c>
@@ -17619,7 +17584,7 @@
       </c>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" ht="14.1" customHeight="1">
       <c r="A12" s="14">
         <v>44165</v>
       </c>
@@ -17657,7 +17622,7 @@
       </c>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" ht="14.1" customHeight="1">
       <c r="A13" s="14">
         <v>44196</v>
       </c>
@@ -17695,7 +17660,7 @@
       </c>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" ht="14.1" customHeight="1">
       <c r="A14" s="14">
         <v>44225</v>
       </c>
@@ -17733,7 +17698,7 @@
       </c>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" ht="14.1" customHeight="1">
       <c r="A15" s="14">
         <v>44253</v>
       </c>
@@ -17771,7 +17736,7 @@
       </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" ht="14.1" customHeight="1">
       <c r="A16" s="14">
         <v>44286</v>
       </c>
@@ -17809,7 +17774,7 @@
       </c>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="14.1" customHeight="1">
       <c r="A17" s="14">
         <v>44316</v>
       </c>
@@ -17847,7 +17812,7 @@
       </c>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="14.1" customHeight="1">
       <c r="A18" s="14">
         <v>44347</v>
       </c>
@@ -17885,7 +17850,7 @@
       </c>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="14.1" customHeight="1">
       <c r="A19" s="14">
         <v>44377</v>
       </c>
@@ -17923,7 +17888,7 @@
       </c>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="14.1" customHeight="1">
       <c r="A20" s="14">
         <v>44407</v>
       </c>
@@ -17961,7 +17926,7 @@
       </c>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="14.1" customHeight="1">
       <c r="A21" s="14">
         <v>44439</v>
       </c>
@@ -18000,7 +17965,7 @@
       <c r="J21" s="6"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="14.1" customHeight="1">
       <c r="A22" s="14">
         <v>44469</v>
       </c>
@@ -18038,7 +18003,7 @@
       </c>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="14.1" customHeight="1">
       <c r="A23" s="14">
         <v>44498</v>
       </c>
@@ -18076,7 +18041,7 @@
       </c>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="14.1" customHeight="1">
       <c r="A24" s="14">
         <v>44530</v>
       </c>
@@ -18114,7 +18079,7 @@
       </c>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="14.1" customHeight="1">
       <c r="A25" s="14">
         <v>44561</v>
       </c>
@@ -18152,7 +18117,7 @@
       </c>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="14.1" customHeight="1">
       <c r="A26" s="14">
         <v>44589</v>
       </c>
@@ -18190,7 +18155,7 @@
       </c>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="14.1" customHeight="1">
       <c r="A27" s="14">
         <v>44620</v>
       </c>
@@ -18228,7 +18193,7 @@
       </c>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="14.1" customHeight="1">
       <c r="A28" s="14">
         <v>44651</v>
       </c>
@@ -18266,7 +18231,7 @@
       </c>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="14.1" customHeight="1">
       <c r="A29" s="14">
         <v>44680</v>
       </c>
@@ -18304,7 +18269,7 @@
       </c>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="14.1" customHeight="1">
       <c r="A30" s="14">
         <v>44712</v>
       </c>
@@ -18342,7 +18307,7 @@
       </c>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="14.1" customHeight="1">
       <c r="A31" s="14">
         <v>44742</v>
       </c>
@@ -18380,7 +18345,7 @@
       </c>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="14.1" customHeight="1">
       <c r="A32" s="14">
         <v>44771</v>
       </c>
@@ -18418,7 +18383,7 @@
       </c>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="14.1" customHeight="1">
       <c r="A33" s="14">
         <v>44804</v>
       </c>
@@ -18457,7 +18422,7 @@
       <c r="J33" s="6"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="12.75">
       <c r="A34" s="14">
         <v>44834</v>
       </c>
@@ -18494,7 +18459,7 @@
         <v>-11770.911062729705</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="12.75">
       <c r="A35" s="14">
         <v>44865</v>
       </c>
@@ -18531,7 +18496,7 @@
         <v>-12524.925264431353</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="12.75">
       <c r="A36" s="14">
         <v>44895</v>
       </c>
@@ -18568,7 +18533,7 @@
         <v>-9593.1455874388703</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="12.75">
       <c r="A37" s="14">
         <v>44925</v>
       </c>
@@ -18605,7 +18570,7 @@
         <v>-9706.5932891467164</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="12.75">
       <c r="A38" s="14">
         <v>44957</v>
       </c>
@@ -18655,13 +18620,13 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D443"/>
+  <dimension ref="A1:D462"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9" style="18"/>
     <col min="2" max="2" width="8.5" style="18" customWidth="1"/>
@@ -18669,7 +18634,7 @@
     <col min="4" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="12.75" customHeight="1">
       <c r="B1" s="30" t="s">
         <v>194</v>
       </c>
@@ -18677,7 +18642,7 @@
         <v>399088</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="12.75" customHeight="1">
       <c r="B2" s="30"/>
       <c r="C2" s="28" t="s">
         <v>0</v>
@@ -18686,7 +18651,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="12.75" customHeight="1">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -18701,7 +18666,7 @@
         <v>45.12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="12.75" customHeight="1">
       <c r="A4" s="18">
         <f t="shared" ref="A4:A36" si="0">A3+1</f>
         <v>2</v>
@@ -18717,7 +18682,7 @@
         <v>44.965000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="12.75" customHeight="1">
       <c r="A5" s="18">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -18733,7 +18698,7 @@
         <v>44.99666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="12.75" customHeight="1">
       <c r="A6" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -18749,7 +18714,7 @@
         <v>44.792500000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="12.75" customHeight="1">
       <c r="A7" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -18765,7 +18730,7 @@
         <v>44.440000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="12.75" customHeight="1">
       <c r="A8" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -18781,7 +18746,7 @@
         <v>44.256666666666668</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="12.75" customHeight="1">
       <c r="A9" s="18">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -18797,7 +18762,7 @@
         <v>44.252857142857145</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="12.75" customHeight="1">
       <c r="A10" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -18813,7 +18778,7 @@
         <v>44.220000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="12.75" customHeight="1">
       <c r="A11" s="18">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -18829,7 +18794,7 @@
         <v>44.181111111111115</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="12.75" customHeight="1">
       <c r="A12" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -18845,7 +18810,7 @@
         <v>44.341000000000008</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="12.75" customHeight="1">
       <c r="A13" s="18">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -18861,7 +18826,7 @@
         <v>44.458181818181828</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="12.75" customHeight="1">
       <c r="A14" s="18">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -18877,7 +18842,7 @@
         <v>44.577500000000008</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="12.75" customHeight="1">
       <c r="A15" s="18">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -18893,7 +18858,7 @@
         <v>44.703076923076928</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="12.75" customHeight="1">
       <c r="A16" s="18">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -18909,7 +18874,7 @@
         <v>44.860000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="12.75" customHeight="1">
       <c r="A17" s="18">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -18925,7 +18890,7 @@
         <v>44.968000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="12.75" customHeight="1">
       <c r="A18" s="18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -18941,7 +18906,7 @@
         <v>45.078750000000007</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="12.75" customHeight="1">
       <c r="A19" s="18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -18957,7 +18922,7 @@
         <v>45.214117647058828</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="12.75" customHeight="1">
       <c r="A20" s="18">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -18973,7 +18938,7 @@
         <v>45.345555555555563</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="12.75" customHeight="1">
       <c r="A21" s="18">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -18989,7 +18954,7 @@
         <v>45.46631578947369</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="12.75" customHeight="1">
       <c r="A22" s="18">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -19005,7 +18970,7 @@
         <v>45.062500000000007</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="12.75" customHeight="1">
       <c r="A23" s="18">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -19021,7 +18986,7 @@
         <v>44.643333333333338</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="12.75" customHeight="1">
       <c r="A24" s="18">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -19037,7 +19002,7 @@
         <v>44.269090909090913</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="12.75" customHeight="1">
       <c r="A25" s="18">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -19053,7 +19018,7 @@
         <v>43.928695652173921</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="12.75" customHeight="1">
       <c r="A26" s="18">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -19069,7 +19034,7 @@
         <v>43.627500000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="12.75" customHeight="1">
       <c r="A27" s="18">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -19085,7 +19050,7 @@
         <v>43.332400000000007</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="12.75" customHeight="1">
       <c r="A28" s="18">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -19101,7 +19066,7 @@
         <v>43.088461538461544</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="12.75" customHeight="1">
       <c r="A29" s="18">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -19117,7 +19082,7 @@
         <v>42.901851851851859</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="12.75" customHeight="1">
       <c r="A30" s="18">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -19133,7 +19098,7 @@
         <v>42.726071428571437</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="12.75" customHeight="1">
       <c r="A31" s="18">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -19149,7 +19114,7 @@
         <v>42.570000000000007</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="12.75" customHeight="1">
       <c r="A32" s="18">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -19165,7 +19130,7 @@
         <v>42.435000000000009</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="12.75" customHeight="1">
       <c r="A33" s="18">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -19181,7 +19146,7 @@
         <v>42.298387096774199</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="12.75" customHeight="1">
       <c r="A34" s="18">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -19197,7 +19162,7 @@
         <v>42.179062500000008</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="12.75" customHeight="1">
       <c r="A35" s="18">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -19213,7 +19178,7 @@
         <v>42.093333333333341</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="12.75" customHeight="1">
       <c r="A36" s="18">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -19229,7 +19194,7 @@
         <v>42.005000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="12.75" customHeight="1">
       <c r="A37" s="18">
         <f t="shared" ref="A37:A100" si="1">A36+1</f>
         <v>35</v>
@@ -19245,7 +19210,7 @@
         <v>41.929428571428573</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="12.75" customHeight="1">
       <c r="A38" s="18">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -19261,7 +19226,7 @@
         <v>41.856666666666662</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="12.75" customHeight="1">
       <c r="A39" s="18">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -19277,7 +19242,7 @@
         <v>41.802432432432425</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="12.75" customHeight="1">
       <c r="A40" s="18">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -19293,7 +19258,7 @@
         <v>41.751315789473679</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="12.75" customHeight="1">
       <c r="A41" s="18">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -19309,7 +19274,7 @@
         <v>41.689999999999991</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="12.75" customHeight="1">
       <c r="A42" s="18">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -19325,7 +19290,7 @@
         <v>41.621999999999993</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="12.75" customHeight="1">
       <c r="A43" s="18">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -19341,7 +19306,7 @@
         <v>41.5680487804878</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="12.75" customHeight="1">
       <c r="A44" s="18">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -19357,7 +19322,7 @@
         <v>41.512380952380944</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="12.75" customHeight="1">
       <c r="A45" s="18">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -19373,7 +19338,7 @@
         <v>41.454186046511623</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="12.75" customHeight="1">
       <c r="A46" s="18">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -19389,7 +19354,7 @@
         <v>41.399318181818174</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="12.75" customHeight="1">
       <c r="A47" s="18">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -19405,7 +19370,7 @@
         <v>41.36044444444444</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="12.75" customHeight="1">
       <c r="A48" s="18">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -19421,7 +19386,7 @@
         <v>41.322391304347818</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="12.75" customHeight="1">
       <c r="A49" s="18">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -19437,7 +19402,7 @@
         <v>41.285319148936161</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="12.75" customHeight="1">
       <c r="A50" s="18">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -19453,7 +19418,7 @@
         <v>41.222499999999989</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="12.75" customHeight="1">
       <c r="A51" s="18">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -19469,7 +19434,7 @@
         <v>41.174693877551015</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="12.75" customHeight="1">
       <c r="A52" s="18">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -19485,7 +19450,7 @@
         <v>41.139199999999988</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="12.75" customHeight="1">
       <c r="A53" s="18">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -19501,7 +19466,7 @@
         <v>41.106862745098027</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="12.75" customHeight="1">
       <c r="A54" s="18">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -19517,7 +19482,7 @@
         <v>41.078653846153834</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="12.75" customHeight="1">
       <c r="A55" s="18">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -19533,7 +19498,7 @@
         <v>41.062452830188661</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="12.75" customHeight="1">
       <c r="A56" s="18">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -19549,7 +19514,7 @@
         <v>41.045555555555538</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="12.75" customHeight="1">
       <c r="A57" s="18">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -19565,7 +19530,7 @@
         <v>41.038181818181798</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" ht="12.75" customHeight="1">
       <c r="A58" s="18">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -19581,7 +19546,7 @@
         <v>41.038928571428549</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="12.75" customHeight="1">
       <c r="A59" s="18">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -19597,7 +19562,7 @@
         <v>41.034736842105247</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="12.75" customHeight="1">
       <c r="A60" s="18">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -19613,7 +19578,7 @@
         <v>41.041896551724122</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="12.75" customHeight="1">
       <c r="A61" s="18">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -19629,7 +19594,7 @@
         <v>41.046101694915237</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" ht="12.75" customHeight="1">
       <c r="A62" s="18">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -19645,7 +19610,7 @@
         <v>41.029166666666654</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" ht="12.75" customHeight="1">
       <c r="A63" s="18">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -19661,7 +19626,7 @@
         <v>41.015737704918017</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" ht="12.75" customHeight="1">
       <c r="A64" s="18">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -19677,7 +19642,7 @@
         <v>40.997580645161271</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" ht="12.75" customHeight="1">
       <c r="A65" s="18">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -19693,7 +19658,7 @@
         <v>40.997301587301571</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="12.75" customHeight="1">
       <c r="A66" s="18">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -19709,7 +19674,7 @@
         <v>40.998281249999984</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" ht="12.75" customHeight="1">
       <c r="A67" s="18">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -19725,7 +19690,7 @@
         <v>40.994153846153829</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="12.75" customHeight="1">
       <c r="A68" s="18">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -19741,7 +19706,7 @@
         <v>41.006060606060593</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" ht="12.75" customHeight="1">
       <c r="A69" s="18">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -19757,7 +19722,7 @@
         <v>41.01641791044775</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" ht="12.75" customHeight="1">
       <c r="A70" s="18">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -19773,7 +19738,7 @@
         <v>41.020294117647047</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" ht="12.75" customHeight="1">
       <c r="A71" s="18">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -19789,7 +19754,7 @@
         <v>41.027826086956509</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" ht="12.75" customHeight="1">
       <c r="A72" s="18">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -19805,7 +19770,7 @@
         <v>41.021428571428558</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" ht="12.75" customHeight="1">
       <c r="A73" s="18">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -19821,7 +19786,7 @@
         <v>41.019295774647873</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" ht="12.75" customHeight="1">
       <c r="A74" s="18">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -19837,7 +19802,7 @@
         <v>41.017499999999984</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" ht="12.75" customHeight="1">
       <c r="A75" s="18">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -19853,7 +19818,7 @@
         <v>41.027123287671216</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" ht="12.75" customHeight="1">
       <c r="A76" s="18">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -19869,7 +19834,7 @@
         <v>41.036081081081065</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" ht="12.75" customHeight="1">
       <c r="A77" s="18">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -19885,7 +19850,7 @@
         <v>41.035466666666643</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" ht="12.75" customHeight="1">
       <c r="A78" s="18">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -19901,7 +19866,7 @@
         <v>41.020526335866805</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" ht="12.75" customHeight="1">
       <c r="A79" s="18">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -19917,7 +19882,7 @@
         <v>40.984025981952598</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" ht="12.75" customHeight="1">
       <c r="A80" s="18">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -19933,7 +19898,7 @@
         <v>40.953717942849167</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" ht="12.75" customHeight="1">
       <c r="A81" s="18">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -19949,7 +19914,7 @@
         <v>40.943164537647085</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" ht="12.75" customHeight="1">
       <c r="A82" s="18">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -19965,7 +19930,7 @@
         <v>40.930499984741189</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" ht="12.75" customHeight="1">
       <c r="A83" s="18">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -19981,7 +19946,7 @@
         <v>40.927160476872935</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" ht="12.75" customHeight="1">
       <c r="A84" s="18">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -19997,7 +19962,7 @@
         <v>40.921951202764724</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" ht="12.75" customHeight="1">
       <c r="A85" s="18">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -20013,7 +19978,7 @@
         <v>40.929036107810127</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" ht="12.75" customHeight="1">
       <c r="A86" s="18">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -20029,7 +19994,7 @@
         <v>40.931428547813759</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" ht="12.75" customHeight="1">
       <c r="A87" s="18">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -20045,7 +20010,7 @@
         <v>40.92988232062843</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" ht="12.75" customHeight="1">
       <c r="A88" s="18">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -20061,7 +20026,7 @@
         <v>40.928372052214847</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" ht="12.75" customHeight="1">
       <c r="A89" s="18">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -20077,7 +20042,7 @@
         <v>40.927701096808754</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" ht="12.75" customHeight="1">
       <c r="A90" s="18">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -20093,7 +20058,7 @@
         <v>40.924090864008107</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" ht="12.75" customHeight="1">
       <c r="A91" s="18">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -20109,7 +20074,7 @@
         <v>40.917528047025854</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" ht="12.75" customHeight="1">
       <c r="A92" s="18">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -20125,7 +20090,7 @@
         <v>40.904444420708536</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" ht="12.75" customHeight="1">
       <c r="A93" s="18">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -20141,7 +20106,7 @@
         <v>40.886703283288959</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" ht="12.75" customHeight="1">
       <c r="A94" s="18">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -20157,7 +20122,7 @@
         <v>40.859891271176529</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" ht="12.75" customHeight="1">
       <c r="A95" s="18">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -20173,7 +20138,7 @@
         <v>40.836344033518131</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" ht="12.75" customHeight="1">
       <c r="A96" s="18">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -20189,7 +20154,7 @@
         <v>40.815851010261682</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" ht="12.75" customHeight="1">
       <c r="A97" s="18">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -20205,7 +20170,7 @@
         <v>40.787684151097331</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" ht="12.75" customHeight="1">
       <c r="A98" s="18">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -20221,7 +20186,7 @@
         <v>40.770416618982935</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" ht="12.75" customHeight="1">
       <c r="A99" s="18">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -20237,7 +20202,7 @@
         <v>40.756804084384548</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" ht="12.75" customHeight="1">
       <c r="A100" s="18">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -20253,7 +20218,7 @@
         <v>40.744489749207773</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" ht="12.75" customHeight="1">
       <c r="A101" s="18">
         <f t="shared" ref="A101:A355" si="2">A100+1</f>
         <v>99</v>
@@ -20269,7 +20234,7 @@
         <v>40.723232270828383</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" ht="12.75" customHeight="1">
       <c r="A102" s="18">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -20285,7 +20250,7 @@
         <v>40.702299958801255</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" ht="12.75" customHeight="1">
       <c r="A103" s="18">
         <f t="shared" si="2"/>
         <v>101</v>
@@ -20301,7 +20266,7 @@
         <v>40.680296984379815</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" ht="12.75" customHeight="1">
       <c r="A104" s="18">
         <f t="shared" si="2"/>
         <v>102</v>
@@ -20317,7 +20282,7 @@
         <v>40.654705834482208</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" ht="12.75" customHeight="1">
       <c r="A105" s="18">
         <f t="shared" si="2"/>
         <v>103</v>
@@ -20333,7 +20298,7 @@
         <v>40.599999957038342</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" ht="12.75" customHeight="1">
       <c r="A106" s="18">
         <f t="shared" si="2"/>
         <v>104</v>
@@ -20349,7 +20314,7 @@
         <v>40.542692259274979</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" ht="12.75" customHeight="1">
       <c r="A107" s="18">
         <f t="shared" si="2"/>
         <v>105</v>
@@ -20365,7 +20330,7 @@
         <v>40.482476154145722</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" ht="12.75" customHeight="1">
       <c r="A108" s="18">
         <f t="shared" si="2"/>
         <v>106</v>
@@ -20381,7 +20346,7 @@
         <v>40.435849029253099</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" ht="12.75" customHeight="1">
       <c r="A109" s="18">
         <f t="shared" si="2"/>
         <v>107</v>
@@ -20397,7 +20362,7 @@
         <v>40.391775685247957</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" ht="12.75" customHeight="1">
       <c r="A110" s="18">
         <f t="shared" si="2"/>
         <v>108</v>
@@ -20413,7 +20378,7 @@
         <v>40.346574042991335</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" ht="12.75" customHeight="1">
       <c r="A111" s="18">
         <f t="shared" si="2"/>
         <v>109</v>
@@ -20429,7 +20394,7 @@
         <v>40.302110060945544</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" ht="12.75" customHeight="1">
       <c r="A112" s="18">
         <f t="shared" si="2"/>
         <v>110</v>
@@ -20445,7 +20410,7 @@
         <v>40.260272703690944</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" ht="12.75" customHeight="1">
       <c r="A113" s="18">
         <f t="shared" si="2"/>
         <v>111</v>
@@ -20461,7 +20426,7 @@
         <v>40.215585555342926</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" ht="12.75" customHeight="1">
       <c r="A114" s="18">
         <f t="shared" si="2"/>
         <v>112</v>
@@ -20477,7 +20442,7 @@
         <v>40.173214266640784</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" ht="12.75" customHeight="1">
       <c r="A115" s="18">
         <f t="shared" si="2"/>
         <v>113</v>
@@ -20493,7 +20458,7 @@
         <v>40.128584061344093</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" ht="12.75" customHeight="1">
       <c r="A116" s="18">
         <f t="shared" si="2"/>
         <v>114</v>
@@ -20509,7 +20474,7 @@
         <v>40.078245599311678</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" ht="12.75" customHeight="1">
       <c r="A117" s="18">
         <f t="shared" si="2"/>
         <v>115</v>
@@ -20525,7 +20490,7 @@
         <v>40.032521721881352</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" ht="12.75" customHeight="1">
       <c r="A118" s="18">
         <f t="shared" si="2"/>
         <v>116</v>
@@ -20541,7 +20506,7 @@
         <v>39.985344822324535</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" ht="12.75" customHeight="1">
       <c r="A119" s="18">
         <f t="shared" si="2"/>
         <v>117</v>
@@ -20557,7 +20522,7 @@
         <v>39.940427341298147</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" ht="12.75" customHeight="1">
       <c r="A120" s="18">
         <f t="shared" si="2"/>
         <v>118</v>
@@ -20573,7 +20538,7 @@
         <v>39.89703388666701</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" ht="12.75" customHeight="1">
       <c r="A121" s="18">
         <f t="shared" si="2"/>
         <v>119</v>
@@ -20589,7 +20554,7 @@
         <v>39.856638645204157</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" ht="12.75" customHeight="1">
       <c r="A122" s="18">
         <f t="shared" si="2"/>
         <v>120</v>
@@ -20605,7 +20570,7 @@
         <v>39.814833324432357</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" ht="12.75" customHeight="1">
       <c r="A123" s="18">
         <f t="shared" si="2"/>
         <v>121</v>
@@ -20621,7 +20586,7 @@
         <v>39.769752062332515</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" ht="12.75" customHeight="1">
       <c r="A124" s="18">
         <f t="shared" si="2"/>
         <v>122</v>
@@ -20637,7 +20602,7 @@
         <v>39.730819672131133</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" ht="12.75" customHeight="1">
       <c r="A125" s="18">
         <f t="shared" si="2"/>
         <v>123</v>
@@ -20653,7 +20618,7 @@
         <v>39.694634136422749</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" ht="12.75" customHeight="1">
       <c r="A126" s="18">
         <f t="shared" si="2"/>
         <v>124</v>
@@ -20669,7 +20634,7 @@
         <v>39.656854815322561</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" ht="12.75" customHeight="1">
       <c r="A127" s="18">
         <f t="shared" si="2"/>
         <v>125</v>
@@ -20685,7 +20650,7 @@
         <v>39.615839967039982</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" ht="12.75" customHeight="1">
       <c r="A128" s="18">
         <f t="shared" si="2"/>
         <v>126</v>
@@ -20701,7 +20666,7 @@
         <v>39.58039680484125</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" ht="12.75" customHeight="1">
       <c r="A129" s="18">
         <f t="shared" si="2"/>
         <v>127</v>
@@ -20717,7 +20682,7 @@
         <v>39.545433045669277</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" ht="12.75" customHeight="1">
       <c r="A130" s="18">
         <f t="shared" si="2"/>
         <v>128</v>
@@ -20733,7 +20698,7 @@
         <v>39.514765591640611</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" ht="12.75" customHeight="1">
       <c r="A131" s="18">
         <f t="shared" si="2"/>
         <v>129</v>
@@ -20749,7 +20714,7 @@
         <v>39.483953462403086</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" ht="12.75" customHeight="1">
       <c r="A132" s="18">
         <f t="shared" si="2"/>
         <v>130</v>
@@ -20765,7 +20730,7 @@
         <v>39.455384593153838</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" ht="12.75" customHeight="1">
       <c r="A133" s="18">
         <f t="shared" si="2"/>
         <v>131</v>
@@ -20781,7 +20746,7 @@
         <v>39.425419815954186</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" ht="12.75" customHeight="1">
       <c r="A134" s="18">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -20797,7 +20762,7 @@
         <v>39.396590869848474</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" ht="12.75" customHeight="1">
       <c r="A135" s="18">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -20813,7 +20778,7 @@
         <v>39.371127767969917</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" ht="12.75" customHeight="1">
       <c r="A136" s="18">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -20829,7 +20794,7 @@
         <v>39.348358155447755</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" ht="12.75" customHeight="1">
       <c r="A137" s="18">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -20845,7 +20810,7 @@
         <v>39.325777719037028</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" ht="12.75" customHeight="1">
       <c r="A138" s="18">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -20861,7 +20826,7 @@
         <v>39.30124995404411</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" ht="12.75" customHeight="1">
       <c r="A139" s="18">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -20877,7 +20842,7 @@
         <v>39.275182432773718</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" ht="12.75" customHeight="1">
       <c r="A140" s="18">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -20893,7 +20858,7 @@
         <v>39.253623134275358</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" ht="12.75" customHeight="1">
       <c r="A141" s="18">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -20909,7 +20874,7 @@
         <v>39.222517934100708</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" ht="12.75" customHeight="1">
       <c r="A142" s="18">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -20925,7 +20890,7 @@
         <v>39.191714233499987</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" ht="12.75" customHeight="1">
       <c r="A143" s="18">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -20941,7 +20906,7 @@
         <v>39.159361657872324</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" ht="12.75" customHeight="1">
       <c r="A144" s="18">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -20957,7 +20922,7 @@
         <v>39.130704182464775</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" ht="12.75" customHeight="1">
       <c r="A145" s="18">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -20973,7 +20938,7 @@
         <v>39.101118849230758</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" ht="12.75" customHeight="1">
       <c r="A146" s="18">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -20989,7 +20954,7 @@
         <v>39.072916641388879</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" ht="12.75" customHeight="1">
       <c r="A147" s="18">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -21005,7 +20970,7 @@
         <v>39.046344810896542</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" ht="12.75" customHeight="1">
       <c r="A148" s="18">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -21021,7 +20986,7 @@
         <v>39.018561638767117</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" ht="12.75" customHeight="1">
       <c r="A149" s="18">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -21037,7 +21002,7 @@
         <v>38.994013599387742</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" ht="12.75" customHeight="1">
       <c r="A150" s="18">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -21053,7 +21018,7 @@
         <v>38.968783766418909</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" ht="12.75" customHeight="1">
       <c r="A151" s="18">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -21069,7 +21034,7 @@
         <v>38.941812068389247</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" ht="12.75" customHeight="1">
       <c r="A152" s="18">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -21085,7 +21050,7 @@
         <v>38.915199992999987</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" ht="12.75" customHeight="1">
       <c r="A153" s="18">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -21101,7 +21066,7 @@
         <v>38.890794691986741</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" ht="12.75" customHeight="1">
       <c r="A154" s="18">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -21117,7 +21082,7 @@
         <v>38.864144727894725</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" ht="12.75" customHeight="1">
       <c r="A155" s="18">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -21133,7 +21098,7 @@
         <v>38.840653588888877</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" ht="12.75" customHeight="1">
       <c r="A156" s="18">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -21149,7 +21114,7 @@
         <v>38.822142862207784</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" ht="12.75" customHeight="1">
       <c r="A157" s="18">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -21165,7 +21130,7 @@
         <v>38.801870974774182</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" ht="12.75" customHeight="1">
       <c r="A158" s="18">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -21181,7 +21146,7 @@
         <v>38.781025643141014</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" ht="12.75" customHeight="1">
       <c r="A159" s="18">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -21197,7 +21162,7 @@
         <v>38.75942674980891</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" ht="12.75" customHeight="1">
       <c r="A160" s="18">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -21213,7 +21178,7 @@
         <v>38.73683543259493</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" ht="12.75" customHeight="1">
       <c r="A161" s="18">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -21229,7 +21194,7 @@
         <v>38.715911938364776</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" ht="12.75" customHeight="1">
       <c r="A162" s="18">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -21245,7 +21210,7 @@
         <v>38.695499988749994</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" ht="12.75" customHeight="1">
       <c r="A163" s="18">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -21261,7 +21226,7 @@
         <v>38.674285695527942</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" ht="12.75" customHeight="1">
       <c r="A164" s="18">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -21277,7 +21242,7 @@
         <v>38.652962951851848</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" ht="12.75" customHeight="1">
       <c r="A165" s="18">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -21293,7 +21258,7 @@
         <v>38.632515324478518</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" ht="12.75" customHeight="1">
       <c r="A166" s="18">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -21309,7 +21274,7 @@
         <v>38.609999978780486</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" ht="12.75" customHeight="1">
       <c r="A167" s="18">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -21325,7 +21290,7 @@
         <v>38.586363609696967</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" ht="12.75" customHeight="1">
       <c r="A168" s="18">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -21341,7 +21306,7 @@
         <v>38.566746972469872</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" ht="12.75" customHeight="1">
       <c r="A169" s="18">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -21357,7 +21322,7 @@
         <v>38.550598780598797</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" ht="12.75" customHeight="1">
       <c r="A170" s="18">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -21373,7 +21338,7 @@
         <v>38.53458331529761</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" ht="12.75" customHeight="1">
       <c r="A171" s="18">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -21389,7 +21354,7 @@
         <v>38.518757382130168</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" ht="12.75" customHeight="1">
       <c r="A172" s="18">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -21405,7 +21370,7 @@
         <v>38.501588212058813</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" ht="12.75" customHeight="1">
       <c r="A173" s="18">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -21421,7 +21386,7 @@
         <v>38.482806999824554</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" ht="12.75" customHeight="1">
       <c r="A174" s="18">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -21437,7 +21402,7 @@
         <v>38.465581380406974</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" ht="12.75" customHeight="1">
       <c r="A175" s="18">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -21453,7 +21418,7 @@
         <v>38.445202289364161</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" ht="12.75" customHeight="1">
       <c r="A176" s="18">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -21469,7 +21434,7 @@
         <v>38.42022985362069</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" ht="12.75" customHeight="1">
       <c r="A177" s="18">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -21485,7 +21450,7 @@
         <v>38.397485675200002</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" ht="12.75" customHeight="1">
       <c r="A178" s="18">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -21501,7 +21466,7 @@
         <v>38.376420407897733</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" ht="12.75" customHeight="1">
       <c r="A179" s="18">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -21517,7 +21482,7 @@
         <v>38.356271147796612</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" ht="12.75" customHeight="1">
       <c r="A180" s="18">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -21533,7 +21498,7 @@
         <v>38.333426933033707</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" ht="12.75" customHeight="1">
       <c r="A181" s="18">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -21549,7 +21514,7 @@
         <v>38.311229020614526</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" ht="12.75" customHeight="1">
       <c r="A182" s="18">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -21565,7 +21530,7 @@
         <v>38.290888867888889</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" ht="12.75" customHeight="1">
       <c r="A183" s="18">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -21581,7 +21546,7 @@
         <v>38.268618754364638</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" ht="12.75" customHeight="1">
       <c r="A184" s="18">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -21597,7 +21562,7 @@
         <v>38.248351618351641</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" ht="12.75" customHeight="1">
       <c r="A185" s="18">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -21613,7 +21578,7 @@
         <v>38.228579205136612</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" ht="12.75" customHeight="1">
       <c r="A186" s="18">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -21629,7 +21594,7 @@
         <v>38.206847793913042</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" ht="12.75" customHeight="1">
       <c r="A187" s="18">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -21645,7 +21610,7 @@
         <v>38.181189152216213</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" ht="12.75" customHeight="1">
       <c r="A188" s="18">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -21661,7 +21626,7 @@
         <v>38.15387092274193</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" ht="12.75" customHeight="1">
       <c r="A189" s="18">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -21677,7 +21642,7 @@
         <v>38.12657749128342</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" ht="12.75" customHeight="1">
       <c r="A190" s="18">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -21693,7 +21658,7 @@
         <v>38.100053139680853</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" ht="12.75" customHeight="1">
       <c r="A191" s="18">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -21709,7 +21674,7 @@
         <v>38.071216879682538</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" ht="12.75" customHeight="1">
       <c r="A192" s="18">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -21725,7 +21690,7 @@
         <v>38.0456315228421</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" ht="12.75" customHeight="1">
       <c r="A193" s="18">
         <f t="shared" si="2"/>
         <v>191</v>
@@ -21741,7 +21706,7 @@
         <v>38.017120363036646</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" ht="12.75" customHeight="1">
       <c r="A194" s="18">
         <f t="shared" si="2"/>
         <v>192</v>
@@ -21757,7 +21722,7 @@
         <v>37.989791613541662</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" ht="12.75" customHeight="1">
       <c r="A195" s="18">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -21773,7 +21738,7 @@
         <v>37.965699429792743</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" ht="12.75" customHeight="1">
       <c r="A196" s="18">
         <f t="shared" si="2"/>
         <v>194</v>
@@ -21789,7 +21754,7 @@
         <v>37.941855619072165</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" ht="12.75" customHeight="1">
       <c r="A197" s="18">
         <f t="shared" si="2"/>
         <v>195</v>
@@ -21805,7 +21770,7 @@
         <v>37.915128152000001</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" ht="12.75" customHeight="1">
       <c r="A198" s="18">
         <f t="shared" si="2"/>
         <v>196</v>
@@ -21821,7 +21786,7 @@
         <v>37.889132598622453</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" ht="12.75" customHeight="1">
       <c r="A199" s="18">
         <f t="shared" si="2"/>
         <v>197</v>
@@ -21837,7 +21802,7 @@
         <v>37.861268989137059</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" ht="12.75" customHeight="1">
       <c r="A200" s="18">
         <f t="shared" si="2"/>
         <v>198</v>
@@ -21853,7 +21818,7 @@
         <v>37.834646419242425</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" ht="12.75" customHeight="1">
       <c r="A201" s="18">
         <f t="shared" si="2"/>
         <v>199</v>
@@ -21869,7 +21834,7 @@
         <v>37.804422063819104</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" ht="12.75" customHeight="1">
       <c r="A202" s="18">
         <f t="shared" si="2"/>
         <v>200</v>
@@ -21885,7 +21850,7 @@
         <v>37.775999948150009</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" ht="12.75" customHeight="1">
       <c r="A203" s="18">
         <f t="shared" si="2"/>
         <v>201</v>
@@ -21901,7 +21866,7 @@
         <v>37.743084524776123</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" ht="12.75" customHeight="1">
       <c r="A204" s="18">
         <f t="shared" si="2"/>
         <v>202</v>
@@ -21917,7 +21882,7 @@
         <v>37.710494996683174</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" ht="12.75" customHeight="1">
       <c r="A205" s="18">
         <f t="shared" si="2"/>
         <v>203</v>
@@ -21933,7 +21898,7 @@
         <v>37.678472849310346</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" ht="12.75" customHeight="1">
       <c r="A206" s="18">
         <f t="shared" si="2"/>
         <v>204</v>
@@ -21949,7 +21914,7 @@
         <v>37.643872496323532</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" ht="12.75" customHeight="1">
       <c r="A207" s="18">
         <f t="shared" si="2"/>
         <v>205</v>
@@ -21965,7 +21930,7 @@
         <v>37.61151214380488</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" ht="12.75" customHeight="1">
       <c r="A208" s="18">
         <f t="shared" si="2"/>
         <v>206</v>
@@ -21981,7 +21946,7 @@
         <v>37.577281499757277</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" ht="12.75" customHeight="1">
       <c r="A209" s="18">
         <f t="shared" si="2"/>
         <v>207</v>
@@ -21997,7 +21962,7 @@
         <v>37.540193181497585</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" ht="12.75" customHeight="1">
       <c r="A210" s="18">
         <f t="shared" si="2"/>
         <v>208</v>
@@ -22013,7 +21978,7 @@
         <v>37.503221100721149</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" ht="12.75" customHeight="1">
       <c r="A211" s="18">
         <f t="shared" si="2"/>
         <v>209</v>
@@ -22029,7 +21994,7 @@
         <v>37.469999944593297</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" ht="12.75" customHeight="1">
       <c r="A212" s="18">
         <f t="shared" si="2"/>
         <v>210</v>
@@ -22045,7 +22010,7 @@
         <v>37.437380901238093</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" ht="12.75" customHeight="1">
       <c r="A213" s="18">
         <f t="shared" si="2"/>
         <v>211</v>
@@ -22061,7 +22026,7 @@
         <v>37.405781941800946</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" ht="12.75" customHeight="1">
       <c r="A214" s="18">
         <f t="shared" si="2"/>
         <v>212</v>
@@ -22077,7 +22042,7 @@
         <v>37.374245231273584</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" ht="12.75" customHeight="1">
       <c r="A215" s="18">
         <f t="shared" si="2"/>
         <v>213</v>
@@ -22093,7 +22058,7 @@
         <v>37.342629053615028</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" ht="12.75" customHeight="1">
       <c r="A216" s="18">
         <f t="shared" si="2"/>
         <v>214</v>
@@ -22109,7 +22074,7 @@
         <v>37.309205555841125</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" ht="12.75" customHeight="1">
       <c r="A217" s="18">
         <f t="shared" si="2"/>
         <v>215</v>
@@ -22125,7 +22090,7 @@
         <v>37.27981390102326</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" ht="12.75" customHeight="1">
       <c r="A218" s="18">
         <f t="shared" si="2"/>
         <v>216</v>
@@ -22141,7 +22106,7 @@
         <v>37.247685133657413</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" ht="12.75" customHeight="1">
       <c r="A219" s="18">
         <f t="shared" si="2"/>
         <v>217</v>
@@ -22157,7 +22122,7 @@
         <v>37.218433126682037</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" ht="12.75" customHeight="1">
       <c r="A220" s="18">
         <f t="shared" si="2"/>
         <v>218</v>
@@ -22173,7 +22138,7 @@
         <v>37.189770586238538</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" ht="12.75" customHeight="1">
       <c r="A221" s="18">
         <f t="shared" si="2"/>
         <v>219</v>
@@ -22189,7 +22154,7 @@
         <v>37.161232823424669</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" ht="12.75" customHeight="1">
       <c r="A222" s="18">
         <f t="shared" si="2"/>
         <v>220</v>
@@ -22205,7 +22170,7 @@
         <v>37.130772670045459</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" ht="12.75" customHeight="1">
       <c r="A223" s="18">
         <f t="shared" si="2"/>
         <v>221</v>
@@ -22221,7 +22186,7 @@
         <v>37.098913970859734</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" ht="12.75" customHeight="1">
       <c r="A224" s="18">
         <f t="shared" si="2"/>
         <v>222</v>
@@ -22237,7 +22202,7 @@
         <v>37.065180126891896</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" ht="12.75" customHeight="1">
       <c r="A225" s="18">
         <f t="shared" si="2"/>
         <v>223</v>
@@ -22253,7 +22218,7 @@
         <v>37.026053759282519</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" ht="12.75" customHeight="1">
       <c r="A226" s="18">
         <f t="shared" si="2"/>
         <v>224</v>
@@ -22269,7 +22234,7 @@
         <v>36.984464229464287</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" ht="12.75" customHeight="1">
       <c r="A227" s="18">
         <f t="shared" si="2"/>
         <v>225</v>
@@ -22285,7 +22250,7 @@
         <v>36.94248883697778</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" ht="12.75" customHeight="1">
       <c r="A228" s="18">
         <f t="shared" si="2"/>
         <v>226</v>
@@ -22301,7 +22266,7 @@
         <v>36.903849501769912</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" ht="12.75" customHeight="1">
       <c r="A229" s="18">
         <f t="shared" si="2"/>
         <v>227</v>
@@ -22317,7 +22282,7 @@
         <v>36.866607877356834</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" ht="12.75" customHeight="1">
       <c r="A230" s="18">
         <f t="shared" si="2"/>
         <v>228</v>
@@ -22333,7 +22298,7 @@
         <v>36.825438542543864</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" ht="12.75" customHeight="1">
       <c r="A231" s="18">
         <f t="shared" si="2"/>
         <v>229</v>
@@ -22349,7 +22314,7 @@
         <v>36.780523967772936</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" ht="12.75" customHeight="1">
       <c r="A232" s="18">
         <f t="shared" si="2"/>
         <v>230</v>
@@ -22365,7 +22330,7 @@
         <v>36.740956473608705</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" ht="12.75" customHeight="1">
       <c r="A233" s="18">
         <f t="shared" si="2"/>
         <v>231</v>
@@ -22381,7 +22346,7 @@
         <v>36.704978308398275</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" ht="12.75" customHeight="1">
       <c r="A234" s="18">
         <f t="shared" si="2"/>
         <v>232</v>
@@ -22397,7 +22362,7 @@
         <v>36.66892236806035</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" ht="12.75" customHeight="1">
       <c r="A235" s="18">
         <f t="shared" si="2"/>
         <v>233</v>
@@ -22413,7 +22378,7 @@
         <v>36.633948454291847</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" ht="12.75" customHeight="1">
       <c r="A236" s="18">
         <f t="shared" si="2"/>
         <v>234</v>
@@ -22429,7 +22394,7 @@
         <v>36.598119614743588</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" ht="12.75" customHeight="1">
       <c r="A237" s="18">
         <f t="shared" si="2"/>
         <v>235</v>
@@ -22445,7 +22410,7 @@
         <v>36.563361660255318</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" ht="12.75" customHeight="1">
       <c r="A238" s="18">
         <f t="shared" si="2"/>
         <v>236</v>
@@ -22461,7 +22426,7 @@
         <v>36.528262673093217</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" ht="12.75" customHeight="1">
       <c r="A239" s="18">
         <f t="shared" si="2"/>
         <v>237</v>
@@ -22477,7 +22442,7 @@
         <v>36.490632875358649</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" ht="12.75" customHeight="1">
       <c r="A240" s="18">
         <f t="shared" si="2"/>
         <v>238</v>
@@ -22493,7 +22458,7 @@
         <v>36.451512570462185</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" ht="12.75" customHeight="1">
       <c r="A241" s="18">
         <f t="shared" si="2"/>
         <v>239</v>
@@ -22509,7 +22474,7 @@
         <v>36.412008334728036</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" ht="12.75" customHeight="1">
       <c r="A242" s="18">
         <f t="shared" si="2"/>
         <v>240</v>
@@ -22525,7 +22490,7 @@
         <v>36.376874964750002</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" ht="12.75" customHeight="1">
       <c r="A243" s="18">
         <f t="shared" si="2"/>
         <v>241</v>
@@ -22541,7 +22506,7 @@
         <v>36.340622369004151</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" ht="12.75" customHeight="1">
       <c r="A244" s="18">
         <f t="shared" si="2"/>
         <v>242</v>
@@ -22557,7 +22522,7 @@
         <v>36.305495830909088</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" ht="12.75" customHeight="1">
       <c r="A245" s="18">
         <f t="shared" si="2"/>
         <v>243</v>
@@ -22573,7 +22538,7 @@
         <v>36.269876504938274</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" ht="12.75" customHeight="1">
       <c r="A246" s="18">
         <f t="shared" si="2"/>
         <v>244</v>
@@ -22589,7 +22554,7 @@
         <v>36.232704883032788</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" ht="12.75" customHeight="1">
       <c r="A247" s="18">
         <f t="shared" si="2"/>
         <v>245</v>
@@ -22605,7 +22570,7 @@
         <v>36.195714251183674</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" ht="12.75" customHeight="1">
       <c r="A248" s="18">
         <f t="shared" si="2"/>
         <v>246</v>
@@ -22621,7 +22586,7 @@
         <v>36.154715415243899</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" ht="12.75" customHeight="1">
       <c r="A249" s="18">
         <f t="shared" si="2"/>
         <v>247</v>
@@ -22637,7 +22602,7 @@
         <v>36.116113331943318</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" ht="12.75" customHeight="1">
       <c r="A250" s="18">
         <f t="shared" si="2"/>
         <v>248</v>
@@ -22653,7 +22618,7 @@
         <v>36.076048360080641</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" ht="12.75" customHeight="1">
       <c r="A251" s="18">
         <f t="shared" si="2"/>
         <v>249</v>
@@ -22669,7 +22634,7 @@
         <v>36.036947764859427</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" ht="12.75" customHeight="1">
       <c r="A252" s="18">
         <f t="shared" si="2"/>
         <v>250</v>
@@ -22685,7 +22650,7 @@
         <v>35.997639970119991</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" ht="12.75" customHeight="1">
       <c r="A253" s="18">
         <f t="shared" si="2"/>
         <v>251</v>
@@ -22701,7 +22666,7 @@
         <v>35.959402359163342</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" ht="12.75" customHeight="1">
       <c r="A254" s="18">
         <f t="shared" si="2"/>
         <v>252</v>
@@ -22717,7 +22682,7 @@
         <v>35.920357115039671</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" ht="12.75" customHeight="1">
       <c r="A255" s="18">
         <f t="shared" si="2"/>
         <v>253</v>
@@ -22733,7 +22698,7 @@
         <v>35.879051352964417</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" ht="12.75" customHeight="1">
       <c r="A256" s="18">
         <f t="shared" si="2"/>
         <v>254</v>
@@ -22749,7 +22714,7 @@
         <v>35.835787368858256</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" ht="12.75" customHeight="1">
       <c r="A257" s="18">
         <f t="shared" si="2"/>
         <v>255</v>
@@ -22765,7 +22730,7 @@
         <v>35.792862710117632</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" ht="12.75" customHeight="1">
       <c r="A258" s="18">
         <f t="shared" si="2"/>
         <v>256</v>
@@ -22781,7 +22746,7 @@
         <v>35.744648405624986</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" ht="12.75" customHeight="1">
       <c r="A259" s="18">
         <f t="shared" si="2"/>
         <v>257</v>
@@ -22797,7 +22762,7 @@
         <v>35.69571981291827</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" ht="12.75" customHeight="1">
       <c r="A260" s="18">
         <f t="shared" si="2"/>
         <v>258</v>
@@ -22813,7 +22778,7 @@
         <v>35.651472839573628</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" ht="12.75" customHeight="1">
       <c r="A261" s="18">
         <f t="shared" si="2"/>
         <v>259</v>
@@ -22829,7 +22794,7 @@
         <v>35.606949781660212</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" ht="12.75" customHeight="1">
       <c r="A262" s="18">
         <f t="shared" si="2"/>
         <v>260</v>
@@ -22845,7 +22810,7 @@
         <v>35.566653817730753</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" ht="12.75" customHeight="1">
       <c r="A263" s="18">
         <f t="shared" si="2"/>
         <v>261</v>
@@ -22861,7 +22826,7 @@
         <v>35.519386943103434</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" ht="12.75" customHeight="1">
       <c r="A264" s="18">
         <f t="shared" si="2"/>
         <v>262</v>
@@ -22877,7 +22842,7 @@
         <v>35.470534318549603</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" ht="12.75" customHeight="1">
       <c r="A265" s="18">
         <f t="shared" si="2"/>
         <v>263</v>
@@ -22893,7 +22858,7 @@
         <v>35.421064602813672</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" ht="12.75" customHeight="1">
       <c r="A266" s="18">
         <f t="shared" si="2"/>
         <v>264</v>
@@ -22909,7 +22874,7 @@
         <v>35.373181784962107</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" ht="12.75" customHeight="1">
       <c r="A267" s="18">
         <f t="shared" si="2"/>
         <v>265</v>
@@ -22925,7 +22890,7 @@
         <v>35.328188649018855</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" ht="12.75" customHeight="1">
       <c r="A268" s="18">
         <f t="shared" si="2"/>
         <v>266</v>
@@ -22941,7 +22906,7 @@
         <v>35.283233055751865</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" ht="12.75" customHeight="1">
       <c r="A269" s="18">
         <f t="shared" si="2"/>
         <v>267</v>
@@ -22957,7 +22922,7 @@
         <v>35.239288359812718</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" ht="12.75" customHeight="1">
       <c r="A270" s="18">
         <f t="shared" si="2"/>
         <v>268</v>
@@ -22973,7 +22938,7 @@
         <v>35.194701466380579</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" ht="12.75" customHeight="1">
       <c r="A271" s="18">
         <f t="shared" si="2"/>
         <v>269</v>
@@ -22989,7 +22954,7 @@
         <v>35.152081756617086</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" ht="12.75" customHeight="1">
       <c r="A272" s="18">
         <f t="shared" si="2"/>
         <v>270</v>
@@ -23005,7 +22970,7 @@
         <v>35.109703672629614</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" ht="12.75" customHeight="1">
       <c r="A273" s="18">
         <f t="shared" si="2"/>
         <v>271</v>
@@ -23021,7 +22986,7 @@
         <v>35.067933551771205</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" ht="12.75" customHeight="1">
       <c r="A274" s="18">
         <f t="shared" si="2"/>
         <v>272</v>
@@ -23037,7 +23002,7 @@
         <v>35.027867619595575</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" ht="12.75" customHeight="1">
       <c r="A275" s="18">
         <f t="shared" si="2"/>
         <v>273</v>
@@ -23053,7 +23018,7 @@
         <v>34.987655647509143</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" ht="12.75" customHeight="1">
       <c r="A276" s="18">
         <f t="shared" si="2"/>
         <v>274</v>
@@ -23069,7 +23034,7 @@
         <v>34.944671499452539</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" ht="12.75" customHeight="1">
       <c r="A277" s="18">
         <f t="shared" si="2"/>
         <v>275</v>
@@ -23085,7 +23050,7 @@
         <v>34.902363601163621</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" ht="12.75" customHeight="1">
       <c r="A278" s="18">
         <f t="shared" si="2"/>
         <v>276</v>
@@ -23101,7 +23066,7 @@
         <v>34.860434747246366</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" ht="12.75" customHeight="1">
       <c r="A279" s="18">
         <f t="shared" si="2"/>
         <v>277</v>
@@ -23117,7 +23082,7 @@
         <v>34.818953036389878</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" ht="12.75" customHeight="1">
       <c r="A280" s="18">
         <f t="shared" si="2"/>
         <v>278</v>
@@ -23133,7 +23098,7 @@
         <v>34.778740972913653</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" ht="12.75" customHeight="1">
       <c r="A281" s="18">
         <f t="shared" si="2"/>
         <v>279</v>
@@ -23149,7 +23114,7 @@
         <v>34.740573439534039</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" ht="12.75" customHeight="1">
       <c r="A282" s="18">
         <f t="shared" si="2"/>
         <v>280</v>
@@ -23165,7 +23130,7 @@
         <v>34.703321389642845</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" ht="12.75" customHeight="1">
       <c r="A283" s="18">
         <f t="shared" si="2"/>
         <v>281</v>
@@ -23181,7 +23146,7 @@
         <v>34.66704622537366</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" ht="12.75" customHeight="1">
       <c r="A284" s="18">
         <f t="shared" si="2"/>
         <v>282</v>
@@ -23197,7 +23162,7 @@
         <v>34.633936132092195</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" ht="12.75" customHeight="1">
       <c r="A285" s="18">
         <f t="shared" si="2"/>
         <v>283</v>
@@ -23213,7 +23178,7 @@
         <v>34.60084802017667</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" ht="12.75" customHeight="1">
       <c r="A286" s="18">
         <f t="shared" si="2"/>
         <v>284</v>
@@ -23229,7 +23194,7 @@
         <v>34.568661932359149</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" ht="12.75" customHeight="1">
       <c r="A287" s="18">
         <f t="shared" si="2"/>
         <v>285</v>
@@ -23245,7 +23210,7 @@
         <v>34.534210486982445</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" ht="12.75" customHeight="1">
       <c r="A288" s="18">
         <f t="shared" si="2"/>
         <v>286</v>
@@ -23261,7 +23226,7 @@
         <v>34.502202755069924</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" ht="12.75" customHeight="1">
       <c r="A289" s="18">
         <f t="shared" si="2"/>
         <v>287</v>
@@ -23277,7 +23242,7 @@
         <v>34.441742116968634</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" ht="12.75" customHeight="1">
       <c r="A290" s="18">
         <f t="shared" si="2"/>
         <v>288</v>
@@ -23293,7 +23258,7 @@
         <v>34.411076347847221</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" ht="12.75" customHeight="1">
       <c r="A291" s="18">
         <f t="shared" si="2"/>
         <v>289</v>
@@ -23309,7 +23274,7 @@
         <v>34.381903071695504</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" ht="12.75" customHeight="1">
       <c r="A292" s="18">
         <f t="shared" si="2"/>
         <v>290</v>
@@ -23325,7 +23290,7 @@
         <v>34.352999957655172</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" ht="12.75" customHeight="1">
       <c r="A293" s="18">
         <f t="shared" si="2"/>
         <v>291</v>
@@ -23341,7 +23306,7 @@
         <v>34.326013703505154</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" ht="12.75" customHeight="1">
       <c r="A294" s="18">
         <f t="shared" si="2"/>
         <v>292</v>
@@ -23357,7 +23322,7 @@
         <v>34.300958862842464</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" ht="12.75" customHeight="1">
       <c r="A295" s="18">
         <f t="shared" si="2"/>
         <v>293</v>
@@ -23373,7 +23338,7 @@
         <v>34.276006784027302</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" ht="12.75" customHeight="1">
       <c r="A296" s="18">
         <f t="shared" si="2"/>
         <v>294</v>
@@ -23389,7 +23354,7 @@
         <v>34.249897918707482</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" ht="12.75" customHeight="1">
       <c r="A297" s="18">
         <f t="shared" si="2"/>
         <v>295</v>
@@ -23405,7 +23370,7 @@
         <v>34.226135552101695</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" ht="12.75" customHeight="1">
       <c r="A298" s="18">
         <f t="shared" si="2"/>
         <v>296</v>
@@ -23421,7 +23386,7 @@
         <v>34.204222931216215</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" ht="12.75" customHeight="1">
       <c r="A299" s="18">
         <f t="shared" si="2"/>
         <v>297</v>
@@ -23437,7 +23402,7 @@
         <v>34.18289558410774</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" ht="12.75" customHeight="1">
       <c r="A300" s="18">
         <f t="shared" si="2"/>
         <v>298</v>
@@ -23453,7 +23418,7 @@
         <v>34.162718082416099</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" ht="12.75" customHeight="1">
       <c r="A301" s="18">
         <f t="shared" si="2"/>
         <v>299</v>
@@ -23469,7 +23434,7 @@
         <v>34.140468189933102</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" ht="12.75" customHeight="1">
       <c r="A302" s="18">
         <f t="shared" si="2"/>
         <v>300</v>
@@ -23485,7 +23450,7 @@
         <v>34.119366627533324</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:4" ht="12.75" customHeight="1">
       <c r="A303" s="18">
         <f t="shared" si="2"/>
         <v>301</v>
@@ -23501,7 +23466,7 @@
         <v>34.097840490531553</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4" ht="12.75" customHeight="1">
       <c r="A304" s="18">
         <f t="shared" si="2"/>
         <v>302</v>
@@ -23517,7 +23482,7 @@
         <v>34.077913866125826</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4" ht="12.75" customHeight="1">
       <c r="A305" s="18">
         <f t="shared" si="2"/>
         <v>303</v>
@@ -23533,7 +23498,7 @@
         <v>34.057623722376235</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4" ht="12.75" customHeight="1">
       <c r="A306" s="18">
         <f t="shared" si="2"/>
         <v>304</v>
@@ -23549,7 +23514,7 @@
         <v>34.036743378157887</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4" ht="12.75" customHeight="1">
       <c r="A307" s="18">
         <f t="shared" si="2"/>
         <v>305</v>
@@ -23565,7 +23530,7 @@
         <v>34.0172130717377</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:4" ht="12.75" customHeight="1">
       <c r="A308" s="18">
         <f t="shared" si="2"/>
         <v>306</v>
@@ -23581,7 +23546,7 @@
         <v>33.997091462385619</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:4" ht="12.75" customHeight="1">
       <c r="A309" s="18">
         <f t="shared" si="2"/>
         <v>307</v>
@@ -23597,7 +23562,7 @@
         <v>33.975211687882734</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:4" ht="12.75" customHeight="1">
       <c r="A310" s="18">
         <f t="shared" si="2"/>
         <v>308</v>
@@ -23613,7 +23578,7 @@
         <v>33.951818144935061</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:4" ht="12.75" customHeight="1">
       <c r="A311" s="18">
         <f t="shared" si="2"/>
         <v>309</v>
@@ -23629,7 +23594,7 @@
         <v>33.929385077993516</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:4" ht="12.75" customHeight="1">
       <c r="A312" s="18">
         <f t="shared" si="2"/>
         <v>310</v>
@@ -23645,7 +23610,7 @@
         <v>33.90851609090322</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:4" ht="12.75" customHeight="1">
       <c r="A313" s="18">
         <f t="shared" si="2"/>
         <v>311</v>
@@ -23661,7 +23626,7 @@
         <v>33.886495137138255</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:4" ht="12.75" customHeight="1">
       <c r="A314" s="18">
         <f t="shared" si="2"/>
         <v>312</v>
@@ -23677,7 +23642,7 @@
         <v>33.865480729391024</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:4" ht="12.75" customHeight="1">
       <c r="A315" s="18">
         <f t="shared" si="2"/>
         <v>313</v>
@@ -23693,7 +23658,7 @@
         <v>33.843706028146961</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:4" ht="12.75" customHeight="1">
       <c r="A316" s="18">
         <f t="shared" si="2"/>
         <v>314</v>
@@ -23709,7 +23674,7 @@
         <v>33.822292954299357</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:4" ht="12.75" customHeight="1">
       <c r="A317" s="18">
         <f t="shared" si="2"/>
         <v>315</v>
@@ -23725,7 +23690,7 @@
         <v>33.800285673142845</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:4" ht="12.75" customHeight="1">
       <c r="A318" s="18">
         <f t="shared" si="2"/>
         <v>316</v>
@@ -23741,7 +23706,7 @@
         <v>33.778132867974676</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:4" ht="12.75" customHeight="1">
       <c r="A319" s="18">
         <f t="shared" si="2"/>
         <v>317</v>
@@ -23757,7 +23722,7 @@
         <v>33.755394277507875</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:4" ht="12.75" customHeight="1">
       <c r="A320" s="18">
         <f t="shared" si="2"/>
         <v>318</v>
@@ -23773,7 +23738,7 @@
         <v>33.733238946698101</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:4" ht="12.75" customHeight="1">
       <c r="A321" s="18">
         <f t="shared" si="2"/>
         <v>319</v>
@@ -23789,7 +23754,7 @@
         <v>33.710940394639486</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:4" ht="12.75" customHeight="1">
       <c r="A322" s="18">
         <f t="shared" si="2"/>
         <v>320</v>
@@ -23805,7 +23770,7 @@
         <v>33.689062453031241</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:4" ht="12.75" customHeight="1">
       <c r="A323" s="18">
         <f t="shared" si="2"/>
         <v>321</v>
@@ -23821,7 +23786,7 @@
         <v>33.666137024579427</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:4" ht="12.75" customHeight="1">
       <c r="A324" s="18">
         <f t="shared" si="2"/>
         <v>322</v>
@@ -23837,7 +23802,7 @@
         <v>33.645031011583839</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:4" ht="12.75" customHeight="1">
       <c r="A325" s="18">
         <f t="shared" si="2"/>
         <v>323</v>
@@ -23853,7 +23818,7 @@
         <v>33.622414816501539</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:4" ht="12.75" customHeight="1">
       <c r="A326" s="18">
         <f t="shared" si="2"/>
         <v>324</v>
@@ -23869,7 +23834,7 @@
         <v>33.59876538805554</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:4" ht="12.75" customHeight="1">
       <c r="A327" s="18">
         <f t="shared" si="2"/>
         <v>325</v>
@@ -23885,7 +23850,7 @@
         <v>33.575630725323066</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:4" ht="12.75" customHeight="1">
       <c r="A328" s="18">
         <f t="shared" si="2"/>
         <v>326</v>
@@ -23901,7 +23866,7 @@
         <v>33.55380363438649</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:4" ht="12.75" customHeight="1">
       <c r="A329" s="18">
         <f t="shared" si="2"/>
         <v>327</v>
@@ -23917,7 +23882,7 @@
         <v>33.532079466574906</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:4" ht="12.75" customHeight="1">
       <c r="A330" s="18">
         <f t="shared" si="2"/>
         <v>328</v>
@@ -23933,7 +23898,7 @@
         <v>33.510823125121938</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:4" ht="12.75" customHeight="1">
       <c r="A331" s="18">
         <f t="shared" si="2"/>
         <v>329</v>
@@ -23949,7 +23914,7 @@
         <v>33.4886017805471</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:4" ht="12.75" customHeight="1">
       <c r="A332" s="18">
         <f t="shared" si="2"/>
         <v>330</v>
@@ -23965,7 +23930,7 @@
         <v>33.468363593333315</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:4" ht="12.75" customHeight="1">
       <c r="A333" s="18">
         <f t="shared" si="2"/>
         <v>331</v>
@@ -23981,7 +23946,7 @@
         <v>33.447673675649533</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:4" ht="12.75" customHeight="1">
       <c r="A334" s="18">
         <f t="shared" si="2"/>
         <v>332</v>
@@ -23997,7 +23962,7 @@
         <v>33.427379475060221</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:4" ht="12.75" customHeight="1">
       <c r="A335" s="18">
         <f t="shared" si="2"/>
         <v>333</v>
@@ -24013,7 +23978,7 @@
         <v>33.407237192282267</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:4" ht="12.75" customHeight="1">
       <c r="A336" s="18">
         <f t="shared" si="2"/>
         <v>334</v>
@@ -24029,7 +23994,7 @@
         <v>33.388532888862258</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:4" ht="12.75" customHeight="1">
       <c r="A337" s="18">
         <f t="shared" si="2"/>
         <v>335</v>
@@ -24045,7 +24010,7 @@
         <v>33.36955219573133</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:4" ht="12.75" customHeight="1">
       <c r="A338" s="18">
         <f t="shared" si="2"/>
         <v>336</v>
@@ -24061,7 +24026,7 @@
         <v>33.34928566976189</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:4" ht="12.75" customHeight="1">
       <c r="A339" s="18">
         <f t="shared" si="2"/>
         <v>337</v>
@@ -24077,7 +24042,7 @@
         <v>33.330356036646869</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:4" ht="12.75" customHeight="1">
       <c r="A340" s="18">
         <f t="shared" si="2"/>
         <v>338</v>
@@ -24093,7 +24058,7 @@
         <v>33.311212973254428</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:4" ht="12.75" customHeight="1">
       <c r="A341" s="18">
         <f t="shared" si="2"/>
         <v>339</v>
@@ -24109,7 +24074,7 @@
         <v>33.289498482949838</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:4" ht="12.75" customHeight="1">
       <c r="A342" s="18">
         <f t="shared" si="2"/>
         <v>340</v>
@@ -24125,7 +24090,7 @@
         <v>33.267764662764691</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:4" ht="12.75" customHeight="1">
       <c r="A343" s="18">
         <f t="shared" si="2"/>
         <v>341</v>
@@ -24141,7 +24106,7 @@
         <v>33.245806410645152</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:4" ht="12.75" customHeight="1">
       <c r="A344" s="18">
         <f t="shared" si="2"/>
         <v>342</v>
@@ -24157,7 +24122,7 @@
         <v>33.223508733537997</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:4" ht="12.75" customHeight="1">
       <c r="A345" s="18">
         <f t="shared" si="2"/>
         <v>343</v>
@@ -24173,7 +24138,7 @@
         <v>33.200932904985407</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:4" ht="12.75" customHeight="1">
       <c r="A346" s="18">
         <f t="shared" si="2"/>
         <v>344</v>
@@ -24189,7 +24154,7 @@
         <v>33.177616240465106</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:4">
       <c r="A347" s="18">
         <f t="shared" si="2"/>
         <v>345</v>
@@ -24205,7 +24170,7 @@
         <v>33.152985469652158</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:4">
       <c r="A348" s="18">
         <f t="shared" si="2"/>
         <v>346</v>
@@ -24221,7 +24186,7 @@
         <v>33.128364413381483</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:4">
       <c r="A349" s="18">
         <f t="shared" si="2"/>
         <v>347</v>
@@ -24237,7 +24202,7 @@
         <v>33.103412352564824</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:4">
       <c r="A350" s="18">
         <f t="shared" si="2"/>
         <v>348</v>
@@ -24253,7 +24218,7 @@
         <v>33.078804848448264</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:4">
       <c r="A351" s="18">
         <f t="shared" si="2"/>
         <v>349</v>
@@ -24269,7 +24234,7 @@
         <v>33.055026039971331</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:4">
       <c r="A352" s="18">
         <f t="shared" si="2"/>
         <v>350</v>
@@ -24285,7 +24250,7 @@
         <v>33.030411681371412</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:4">
       <c r="A353" s="18">
         <f t="shared" si="2"/>
         <v>351</v>
@@ -24301,7 +24266,7 @@
         <v>33.006878029857532</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:4">
       <c r="A354" s="18">
         <f t="shared" si="2"/>
         <v>352</v>
@@ -24317,7 +24282,7 @@
         <v>32.983932353636348</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:4">
       <c r="A355" s="18">
         <f t="shared" si="2"/>
         <v>353</v>
@@ -24333,9 +24298,9 @@
         <v>32.959955208158625</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:4">
       <c r="A356" s="18">
-        <f t="shared" ref="A356:A443" si="3">A355+1</f>
+        <f t="shared" ref="A356:A462" si="3">A355+1</f>
         <v>354</v>
       </c>
       <c r="B356" s="19" t="s">
@@ -24349,7 +24314,7 @@
         <v>32.934475108700553</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:4">
       <c r="A357" s="18">
         <f t="shared" si="3"/>
         <v>355</v>
@@ -24365,7 +24330,7 @@
         <v>32.90789912247886</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:4">
       <c r="A358" s="18">
         <f t="shared" si="3"/>
         <v>356</v>
@@ -24381,7 +24346,7 @@
         <v>32.881472439550549</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:4">
       <c r="A359" s="18">
         <f t="shared" si="3"/>
         <v>357</v>
@@ -24397,7 +24362,7 @@
         <v>32.85519380526609</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:4">
       <c r="A360" s="18">
         <f t="shared" si="3"/>
         <v>358</v>
@@ -24413,7 +24378,7 @@
         <v>32.8285871186592</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:4">
       <c r="A361" s="18">
         <f t="shared" si="3"/>
         <v>359</v>
@@ -24429,7 +24394,7 @@
         <v>32.801348714428954</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:4">
       <c r="A362" s="18">
         <f t="shared" si="3"/>
         <v>360</v>
@@ -24445,7 +24410,7 @@
         <v>32.773872745777759</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:4">
       <c r="A363" s="18">
         <f t="shared" si="3"/>
         <v>361</v>
@@ -24461,7 +24426,7 @@
         <v>32.746798306038762</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:4">
       <c r="A364" s="18">
         <f t="shared" si="3"/>
         <v>362</v>
@@ -24477,7 +24442,7 @@
         <v>32.721144167071806</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:4">
       <c r="A365" s="18">
         <f t="shared" si="3"/>
         <v>363</v>
@@ -24493,7 +24458,7 @@
         <v>32.694171318126706</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:4">
       <c r="A366" s="18">
         <f t="shared" si="3"/>
         <v>364</v>
@@ -24509,7 +24474,7 @@
         <v>32.66762139881866</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:4">
       <c r="A367" s="18">
         <f t="shared" si="3"/>
         <v>365</v>
@@ -24525,7 +24490,7 @@
         <v>32.640066271698615</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:4">
       <c r="A368" s="18">
         <f t="shared" si="3"/>
         <v>366</v>
@@ -24541,7 +24506,7 @@
         <v>32.611104344508178</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:4">
       <c r="A369" s="18">
         <f t="shared" si="3"/>
         <v>367</v>
@@ -24557,7 +24522,7 @@
         <v>32.582845203978181</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:4">
       <c r="A370" s="18">
         <f t="shared" si="3"/>
         <v>368</v>
@@ -24573,7 +24538,7 @@
         <v>32.556587472663026</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:4">
       <c r="A371" s="18">
         <f t="shared" si="3"/>
         <v>369</v>
@@ -24589,7 +24554,7 @@
         <v>32.530282358590767</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:4">
       <c r="A372" s="18">
         <f t="shared" si="3"/>
         <v>370</v>
@@ -24605,7 +24570,7 @@
         <v>32.506281594432416</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:4">
       <c r="A373" s="18">
         <f t="shared" si="3"/>
         <v>371</v>
@@ -24621,7 +24586,7 @@
         <v>32.482598892857126</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:4">
       <c r="A374" s="18">
         <f t="shared" si="3"/>
         <v>372</v>
@@ -24637,7 +24602,7 @@
         <v>32.459392982876324</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:4">
       <c r="A375" s="18">
         <f t="shared" si="3"/>
         <v>373</v>
@@ -24653,7 +24618,7 @@
         <v>32.435614449812313</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:4">
       <c r="A376" s="18">
         <f t="shared" si="3"/>
         <v>374</v>
@@ -24669,7 +24634,7 @@
         <v>32.411455051871634</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:4">
       <c r="A377" s="18">
         <f t="shared" si="3"/>
         <v>375</v>
@@ -24685,7 +24650,7 @@
         <v>32.387264505466646</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:4">
       <c r="A378" s="18">
         <f t="shared" si="3"/>
         <v>376</v>
@@ -24701,7 +24666,7 @@
         <v>32.361846248590403</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:4">
       <c r="A379" s="18">
         <f t="shared" si="3"/>
         <v>377</v>
@@ -24717,7 +24682,7 @@
         <v>32.336324109389899</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:4">
       <c r="A380" s="18">
         <f t="shared" si="3"/>
         <v>378</v>
@@ -24733,7 +24698,7 @@
         <v>32.312101030555532</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:4">
       <c r="A381" s="18">
         <f t="shared" si="3"/>
         <v>379</v>
@@ -24749,7 +24714,7 @@
         <v>32.287425299815283</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:4">
       <c r="A382" s="18">
         <f t="shared" si="3"/>
         <v>380</v>
@@ -24765,7 +24730,7 @@
         <v>32.260721547421028</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:4">
       <c r="A383" s="18">
         <f t="shared" si="3"/>
         <v>381</v>
@@ -24781,7 +24746,7 @@
         <v>32.234420440393677</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:4">
       <c r="A384" s="18">
         <f t="shared" si="3"/>
         <v>382</v>
@@ -24797,7 +24762,7 @@
         <v>32.208335571335049</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:4">
       <c r="A385" s="18">
         <f t="shared" si="3"/>
         <v>383</v>
@@ -24813,7 +24778,7 @@
         <v>32.183248534281958</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:4">
       <c r="A386" s="18">
         <f t="shared" si="3"/>
         <v>384</v>
@@ -24829,7 +24794,7 @@
         <v>32.157979656692682</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:4">
       <c r="A387" s="18">
         <f t="shared" si="3"/>
         <v>385</v>
@@ -24845,7 +24810,7 @@
         <v>32.134712179038935</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:4">
       <c r="A388" s="18">
         <f t="shared" si="3"/>
         <v>386</v>
@@ -24861,7 +24826,7 @@
         <v>32.111539350932617</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:4">
       <c r="A389" s="18">
         <f t="shared" si="3"/>
         <v>387</v>
@@ -24877,7 +24842,7 @@
         <v>32.088072842764831</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:4">
       <c r="A390" s="18">
         <f t="shared" si="3"/>
         <v>388</v>
@@ -24893,7 +24858,7 @@
         <v>32.064031418505131</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:4">
       <c r="A391" s="18">
         <f t="shared" si="3"/>
         <v>389</v>
@@ -24909,7 +24874,7 @@
         <v>32.038982493753188</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:4">
       <c r="A392" s="18">
         <f t="shared" si="3"/>
         <v>390</v>
@@ -24925,7 +24890,7 @@
         <v>32.015472284384586</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:4">
       <c r="A393" s="18">
         <f t="shared" si="3"/>
         <v>391</v>
@@ -24941,7 +24906,7 @@
         <v>31.992133479028105</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:4">
       <c r="A394" s="18">
         <f t="shared" si="3"/>
         <v>392</v>
@@ -24957,7 +24922,7 @@
         <v>31.970342324132627</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:4">
       <c r="A395" s="18">
         <f t="shared" si="3"/>
         <v>393</v>
@@ -24973,7 +24938,7 @@
         <v>31.947847812264605</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:4">
       <c r="A396" s="18">
         <f t="shared" si="3"/>
         <v>394</v>
@@ -24989,7 +24954,7 @@
         <v>31.925162919923835</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:4">
       <c r="A397" s="18">
         <f t="shared" si="3"/>
         <v>395</v>
@@ -25005,7 +24970,7 @@
         <v>31.902643521873394</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:4">
       <c r="A398" s="18">
         <f t="shared" si="3"/>
         <v>396</v>
@@ -25021,7 +24986,7 @@
         <v>31.880162098838358</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:4">
       <c r="A399" s="18">
         <f t="shared" si="3"/>
         <v>397</v>
@@ -25037,7 +25002,7 @@
         <v>31.856912319294686</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:4">
       <c r="A400" s="18">
         <f t="shared" si="3"/>
         <v>398</v>
@@ -25053,7 +25018,7 @@
         <v>31.833502994170832</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:4">
       <c r="A401" s="18">
         <f t="shared" si="3"/>
         <v>399</v>
@@ -25069,7 +25034,7 @@
         <v>31.810135819323285</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:4">
       <c r="A402" s="18">
         <f t="shared" si="3"/>
         <v>400</v>
@@ -25085,7 +25050,7 @@
         <v>31.786510481299977</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:4">
       <c r="A403" s="18">
         <f t="shared" si="3"/>
         <v>401</v>
@@ -25101,7 +25066,7 @@
         <v>31.762603973266813</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:4">
       <c r="A404" s="18">
         <f t="shared" si="3"/>
         <v>402</v>
@@ -25117,7 +25082,7 @@
         <v>31.740060184179082</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:4">
       <c r="A405" s="18">
         <f t="shared" si="3"/>
         <v>403</v>
@@ -25133,7 +25098,7 @@
         <v>31.717901224590552</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:4">
       <c r="A406" s="18">
         <f t="shared" si="3"/>
         <v>404</v>
@@ -25149,7 +25114,7 @@
         <v>31.696743053440571</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:4">
       <c r="A407" s="18">
         <f t="shared" si="3"/>
         <v>405</v>
@@ -25165,7 +25130,7 @@
         <v>31.675343689580224</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:4">
       <c r="A408" s="18">
         <f t="shared" si="3"/>
         <v>406</v>
@@ -25181,7 +25146,7 @@
         <v>31.654517718201948</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:4">
       <c r="A409" s="18">
         <f t="shared" si="3"/>
         <v>407</v>
@@ -25197,7 +25162,7 @@
         <v>31.634383765773933</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:4">
       <c r="A410" s="18">
         <f t="shared" si="3"/>
         <v>408</v>
@@ -25213,7 +25178,7 @@
         <v>31.614814196789194</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:4">
       <c r="A411" s="18">
         <f t="shared" si="3"/>
         <v>409</v>
@@ -25229,7 +25194,7 @@
         <v>31.595291421638123</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:4">
       <c r="A412" s="18">
         <f t="shared" si="3"/>
         <v>410</v>
@@ -25245,7 +25210,7 @@
         <v>31.576376077073149</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:4">
       <c r="A413" s="18">
         <f t="shared" si="3"/>
         <v>411</v>
@@ -25261,7 +25226,7 @@
         <v>31.556968836934285</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:4">
       <c r="A414" s="18">
         <f t="shared" si="3"/>
         <v>412</v>
@@ -25277,7 +25242,7 @@
         <v>31.537000465776678</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:4">
       <c r="A415" s="18">
         <f t="shared" si="3"/>
         <v>413</v>
@@ -25293,7 +25258,7 @@
         <v>31.51698351661015</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:4">
       <c r="A416" s="18">
         <f t="shared" si="3"/>
         <v>414</v>
@@ -25309,7 +25274,7 @@
         <v>31.497618822125581</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:4">
       <c r="A417" s="18">
         <f t="shared" si="3"/>
         <v>415</v>
@@ -25325,7 +25290,7 @@
         <v>31.477986006602389</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:4">
       <c r="A418" s="18">
         <f t="shared" si="3"/>
         <v>416</v>
@@ -25341,7 +25306,7 @@
         <v>31.457798540048056</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:4">
       <c r="A419" s="18">
         <f t="shared" si="3"/>
         <v>417</v>
@@ -25357,7 +25322,7 @@
         <v>31.436820603693025</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:4">
       <c r="A420" s="18">
         <f t="shared" si="3"/>
         <v>418</v>
@@ -25373,7 +25338,7 @@
         <v>31.415703809449742</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:4">
       <c r="A421" s="18">
         <f t="shared" si="3"/>
         <v>419</v>
@@ -25389,7 +25354,7 @@
         <v>31.394544609999983</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:4">
       <c r="A422" s="18">
         <f t="shared" si="3"/>
         <v>420</v>
@@ -25405,7 +25370,7 @@
         <v>31.373248077023792</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:4">
       <c r="A423" s="18">
         <f t="shared" si="3"/>
         <v>421</v>
@@ -25421,7 +25386,7 @@
         <v>31.352860316555802</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:4">
       <c r="A424" s="18">
         <f t="shared" si="3"/>
         <v>422</v>
@@ -25437,7 +25402,7 @@
         <v>31.333066808696664</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:4">
       <c r="A425" s="18">
         <f t="shared" si="3"/>
         <v>423</v>
@@ -25453,7 +25418,7 @@
         <v>31.312728588203292</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:4">
       <c r="A426" s="18">
         <f t="shared" si="3"/>
         <v>424</v>
@@ -25469,7 +25434,7 @@
         <v>31.292557059056588</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:4">
       <c r="A427" s="18">
         <f t="shared" si="3"/>
         <v>425</v>
@@ -25485,7 +25450,7 @@
         <v>31.272433394847042</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:4">
       <c r="A428" s="18">
         <f t="shared" si="3"/>
         <v>426</v>
@@ -25501,7 +25466,7 @@
         <v>31.252615475892004</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:4">
       <c r="A429" s="18">
         <f t="shared" si="3"/>
         <v>427</v>
@@ -25517,7 +25482,7 @@
         <v>31.234248694566734</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:4">
       <c r="A430" s="18">
         <f t="shared" si="3"/>
         <v>428</v>
@@ -25533,7 +25498,7 @@
         <v>31.216178020046716</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:4">
       <c r="A431" s="18">
         <f t="shared" si="3"/>
         <v>429</v>
@@ -25549,7 +25514,7 @@
         <v>31.198378071095561</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:4">
       <c r="A432" s="18">
         <f t="shared" si="3"/>
         <v>430</v>
@@ -25565,7 +25530,7 @@
         <v>31.181219051604643</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:4">
       <c r="A433" s="18">
         <f t="shared" si="3"/>
         <v>431</v>
@@ -25581,7 +25546,7 @@
         <v>31.163745224617159</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:4">
       <c r="A434" s="18">
         <f t="shared" si="3"/>
         <v>432</v>
@@ -25597,7 +25562,7 @@
         <v>31.146653223379619</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:4">
       <c r="A435" s="18">
         <f t="shared" si="3"/>
         <v>433</v>
@@ -25613,7 +25578,7 @@
         <v>31.13037919833717</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:4">
       <c r="A436" s="18">
         <f t="shared" si="3"/>
         <v>434</v>
@@ -25629,7 +25594,7 @@
         <v>31.114986621290313</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:4">
       <c r="A437" s="18">
         <f t="shared" si="3"/>
         <v>435</v>
@@ -25645,7 +25610,7 @@
         <v>31.099825733563208</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:4">
       <c r="A438" s="18">
         <f t="shared" si="3"/>
         <v>436</v>
@@ -25661,7 +25626,7 @@
         <v>31.084757327499986</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:4">
       <c r="A439" s="18">
         <f t="shared" si="3"/>
         <v>437</v>
@@ -25677,7 +25642,7 @@
         <v>31.0702384314874</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:4">
       <c r="A440" s="18">
         <f t="shared" si="3"/>
         <v>438</v>
@@ -25693,7 +25658,7 @@
         <v>31.055991311598159</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:4">
       <c r="A441" s="18">
         <f t="shared" si="3"/>
         <v>439</v>
@@ -25709,7 +25674,7 @@
         <v>31.042583586697024</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:4">
       <c r="A442" s="18">
         <f t="shared" si="3"/>
         <v>440</v>
@@ -25725,7 +25690,7 @@
         <v>31.028623168590894</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:4">
       <c r="A443" s="18">
         <f t="shared" si="3"/>
         <v>441</v>
@@ -25739,6 +25704,310 @@
       <c r="D443" s="18">
         <f>SUM(C$3:C443)/A443</f>
         <v>31.014726063038534</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4">
+      <c r="A444" s="18">
+        <f t="shared" si="3"/>
+        <v>442</v>
+      </c>
+      <c r="B444" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="C444" s="20">
+        <v>25.239999770000001</v>
+      </c>
+      <c r="D444" s="18">
+        <f>SUM(C$3:C444)/A444</f>
+        <v>31.001661071425325</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4">
+      <c r="A445" s="18">
+        <f t="shared" si="3"/>
+        <v>443</v>
+      </c>
+      <c r="B445" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="C445" s="20">
+        <v>25.129999160000001</v>
+      </c>
+      <c r="D445" s="18">
+        <f>SUM(C$3:C445)/A445</f>
+        <v>30.988406755598181</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4">
+      <c r="A446" s="18">
+        <f t="shared" si="3"/>
+        <v>444</v>
+      </c>
+      <c r="B446" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="C446" s="20">
+        <v>24.93000031</v>
+      </c>
+      <c r="D446" s="18">
+        <f>SUM(C$3:C446)/A446</f>
+        <v>30.974761696036023</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4">
+      <c r="A447" s="18">
+        <f t="shared" si="3"/>
+        <v>445</v>
+      </c>
+      <c r="B447" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="C447" s="20">
+        <v>24.600000380000001</v>
+      </c>
+      <c r="D447" s="18">
+        <f>SUM(C$3:C447)/A447</f>
+        <v>30.960436389707851</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4">
+      <c r="A448" s="18">
+        <f t="shared" si="3"/>
+        <v>446</v>
+      </c>
+      <c r="B448" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="C448" s="20">
+        <v>24.61000061</v>
+      </c>
+      <c r="D448" s="18">
+        <f>SUM(C$3:C448)/A448</f>
+        <v>30.94619774446187</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4">
+      <c r="A449" s="18">
+        <f t="shared" si="3"/>
+        <v>447</v>
+      </c>
+      <c r="B449" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="C449" s="20">
+        <v>24.5</v>
+      </c>
+      <c r="D449" s="18">
+        <f>SUM(C$3:C449)/A449</f>
+        <v>30.931776720425042</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4">
+      <c r="A450" s="18">
+        <f t="shared" si="3"/>
+        <v>448</v>
+      </c>
+      <c r="B450" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="C450" s="20">
+        <v>24.870000839999999</v>
+      </c>
+      <c r="D450" s="18">
+        <f>SUM(C$3:C450)/A450</f>
+        <v>30.918245970691949</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4">
+      <c r="A451" s="18">
+        <f t="shared" si="3"/>
+        <v>449</v>
+      </c>
+      <c r="B451" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="C451" s="20">
+        <v>24.63999939</v>
+      </c>
+      <c r="D451" s="18">
+        <f>SUM(C$3:C451)/A451</f>
+        <v>30.904263238886397</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4">
+      <c r="A452" s="18">
+        <f t="shared" si="3"/>
+        <v>450</v>
+      </c>
+      <c r="B452" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="C452" s="20">
+        <v>24.879999160000001</v>
+      </c>
+      <c r="D452" s="18">
+        <f>SUM(C$3:C452)/A452</f>
+        <v>30.890875985377765</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4">
+      <c r="A453" s="18">
+        <f t="shared" si="3"/>
+        <v>451</v>
+      </c>
+      <c r="B453" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="C453" s="20">
+        <v>24.809999470000001</v>
+      </c>
+      <c r="D453" s="18">
+        <f>SUM(C$3:C453)/A453</f>
+        <v>30.87739288889134</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4">
+      <c r="A454" s="18">
+        <f t="shared" si="3"/>
+        <v>452</v>
+      </c>
+      <c r="B454" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="C454" s="20">
+        <v>24.739999770000001</v>
+      </c>
+      <c r="D454" s="18">
+        <f>SUM(C$3:C454)/A454</f>
+        <v>30.86381458553096</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4">
+      <c r="A455" s="18">
+        <f t="shared" si="3"/>
+        <v>453</v>
+      </c>
+      <c r="B455" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="C455" s="20">
+        <v>24.489999770000001</v>
+      </c>
+      <c r="D455" s="18">
+        <f>SUM(C$3:C455)/A455</f>
+        <v>30.849744354150097</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4">
+      <c r="A456" s="18">
+        <f t="shared" si="3"/>
+        <v>454</v>
+      </c>
+      <c r="B456" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="C456" s="20">
+        <v>23.950000760000002</v>
+      </c>
+      <c r="D456" s="18">
+        <f>SUM(C$3:C456)/A456</f>
+        <v>30.834546681035228</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4">
+      <c r="A457" s="18">
+        <f t="shared" si="3"/>
+        <v>455</v>
+      </c>
+      <c r="B457" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="C457" s="20">
+        <v>24.409999849999998</v>
+      </c>
+      <c r="D457" s="18">
+        <f>SUM(C$3:C457)/A457</f>
+        <v>30.820426797890097</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4">
+      <c r="A458" s="18">
+        <f t="shared" si="3"/>
+        <v>456</v>
+      </c>
+      <c r="B458" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="C458" s="20">
+        <v>24.399999619999999</v>
+      </c>
+      <c r="D458" s="18">
+        <f>SUM(C$3:C458)/A458</f>
+        <v>30.806346913728056</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4">
+      <c r="A459" s="18">
+        <f t="shared" si="3"/>
+        <v>457</v>
+      </c>
+      <c r="B459" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="C459" s="20">
+        <v>24.200000760000002</v>
+      </c>
+      <c r="D459" s="18">
+        <f>SUM(C$3:C459)/A459</f>
+        <v>30.791891014048126</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4">
+      <c r="A460" s="18">
+        <f t="shared" si="3"/>
+        <v>458</v>
+      </c>
+      <c r="B460" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="C460" s="20">
+        <v>24.229999540000001</v>
+      </c>
+      <c r="D460" s="18">
+        <f>SUM(C$3:C460)/A460</f>
+        <v>30.777563740087324</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4">
+      <c r="A461" s="18">
+        <f t="shared" si="3"/>
+        <v>459</v>
+      </c>
+      <c r="B461" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="C461" s="20">
+        <v>24.020000459999999</v>
+      </c>
+      <c r="D461" s="18">
+        <f>SUM(C$3:C461)/A461</f>
+        <v>30.762841379999987</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4">
+      <c r="A462" s="18">
+        <f t="shared" si="3"/>
+        <v>460</v>
+      </c>
+      <c r="B462" s="19">
+        <v>44984</v>
+      </c>
+      <c r="C462" s="20">
+        <v>23.780000690000001</v>
+      </c>
+      <c r="D462" s="18">
+        <f>SUM(C$3:C462)/A462</f>
+        <v>30.747661291543466</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1prac.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1prac.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="284">
   <si>
     <t>PE</t>
   </si>
@@ -1146,78 +1146,6 @@
   </si>
   <si>
     <t xml:space="preserve">2023/1/20
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/2
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/3
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/6
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/7
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/8
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/9
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/10
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/13
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/14
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/15
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/16
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/17
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/20
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/21
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/22
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/23
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/24
 </t>
   </si>
 </sst>
@@ -1232,7 +1160,7 @@
     <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="180" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1735,7 +1663,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2454,11 +2381,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="159476736"/>
-        <c:axId val="159482624"/>
+        <c:axId val="263802240"/>
+        <c:axId val="263804032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="159476736"/>
+        <c:axId val="263802240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2501,7 +2428,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159482624"/>
+        <c:crossAx val="263804032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2509,7 +2436,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159482624"/>
+        <c:axId val="263804032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2560,7 +2487,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159476736"/>
+        <c:crossAx val="263802240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2574,7 +2501,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17071,7 +16997,7 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -17092,7 +17018,7 @@
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="10" customFormat="1" ht="27" customHeight="1">
+    <row r="1" spans="1:22" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>180</v>
       </c>
@@ -17122,7 +17048,7 @@
       </c>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:22" ht="14.1" customHeight="1">
+    <row r="2" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="4">
@@ -17138,7 +17064,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:22" ht="14.1" customHeight="1">
+    <row r="3" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>43889</v>
       </c>
@@ -17207,7 +17133,7 @@
         <v>-22000</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="14.1" customHeight="1">
+    <row r="4" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>43921</v>
       </c>
@@ -17282,7 +17208,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="14.1" customHeight="1">
+    <row r="5" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>43951</v>
       </c>
@@ -17352,7 +17278,7 @@
         <v>53008.069006718506</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="14.1" customHeight="1">
+    <row r="6" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>43980</v>
       </c>
@@ -17394,7 +17320,7 @@
         <v>9.9835199022272558E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="14.1" customHeight="1">
+    <row r="7" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>44012</v>
       </c>
@@ -17432,7 +17358,7 @@
       </c>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:22" ht="14.1" customHeight="1">
+    <row r="8" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>44043</v>
       </c>
@@ -17470,7 +17396,7 @@
       </c>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:22" ht="14.1" customHeight="1">
+    <row r="9" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>44074</v>
       </c>
@@ -17508,7 +17434,7 @@
       </c>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:22" ht="14.1" customHeight="1">
+    <row r="10" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>44104</v>
       </c>
@@ -17546,7 +17472,7 @@
       </c>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:22" ht="14.1" customHeight="1">
+    <row r="11" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>44134</v>
       </c>
@@ -17584,7 +17510,7 @@
       </c>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:22" ht="14.1" customHeight="1">
+    <row r="12" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>44165</v>
       </c>
@@ -17622,7 +17548,7 @@
       </c>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:22" ht="14.1" customHeight="1">
+    <row r="13" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>44196</v>
       </c>
@@ -17660,7 +17586,7 @@
       </c>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:22" ht="14.1" customHeight="1">
+    <row r="14" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>44225</v>
       </c>
@@ -17698,7 +17624,7 @@
       </c>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:22" ht="14.1" customHeight="1">
+    <row r="15" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>44253</v>
       </c>
@@ -17736,7 +17662,7 @@
       </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:22" ht="14.1" customHeight="1">
+    <row r="16" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>44286</v>
       </c>
@@ -17774,7 +17700,7 @@
       </c>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:12" ht="14.1" customHeight="1">
+    <row r="17" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
         <v>44316</v>
       </c>
@@ -17812,7 +17738,7 @@
       </c>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:12" ht="14.1" customHeight="1">
+    <row r="18" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
         <v>44347</v>
       </c>
@@ -17850,7 +17776,7 @@
       </c>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:12" ht="14.1" customHeight="1">
+    <row r="19" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
         <v>44377</v>
       </c>
@@ -17888,7 +17814,7 @@
       </c>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:12" ht="14.1" customHeight="1">
+    <row r="20" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14">
         <v>44407</v>
       </c>
@@ -17926,7 +17852,7 @@
       </c>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:12" ht="14.1" customHeight="1">
+    <row r="21" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14">
         <v>44439</v>
       </c>
@@ -17965,7 +17891,7 @@
       <c r="J21" s="6"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" ht="14.1" customHeight="1">
+    <row r="22" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14">
         <v>44469</v>
       </c>
@@ -18003,7 +17929,7 @@
       </c>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:12" ht="14.1" customHeight="1">
+    <row r="23" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14">
         <v>44498</v>
       </c>
@@ -18041,7 +17967,7 @@
       </c>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:12" ht="14.1" customHeight="1">
+    <row r="24" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14">
         <v>44530</v>
       </c>
@@ -18079,7 +18005,7 @@
       </c>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:12" ht="14.1" customHeight="1">
+    <row r="25" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14">
         <v>44561</v>
       </c>
@@ -18117,7 +18043,7 @@
       </c>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="1:12" ht="14.1" customHeight="1">
+    <row r="26" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14">
         <v>44589</v>
       </c>
@@ -18155,7 +18081,7 @@
       </c>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="1:12" ht="14.1" customHeight="1">
+    <row r="27" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14">
         <v>44620</v>
       </c>
@@ -18193,7 +18119,7 @@
       </c>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:12" ht="14.1" customHeight="1">
+    <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14">
         <v>44651</v>
       </c>
@@ -18231,7 +18157,7 @@
       </c>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:12" ht="14.1" customHeight="1">
+    <row r="29" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14">
         <v>44680</v>
       </c>
@@ -18269,7 +18195,7 @@
       </c>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:12" ht="14.1" customHeight="1">
+    <row r="30" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14">
         <v>44712</v>
       </c>
@@ -18307,7 +18233,7 @@
       </c>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:12" ht="14.1" customHeight="1">
+    <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14">
         <v>44742</v>
       </c>
@@ -18345,7 +18271,7 @@
       </c>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:12" ht="14.1" customHeight="1">
+    <row r="32" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14">
         <v>44771</v>
       </c>
@@ -18383,7 +18309,7 @@
       </c>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:12" ht="14.1" customHeight="1">
+    <row r="33" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14">
         <v>44804</v>
       </c>
@@ -18422,7 +18348,7 @@
       <c r="J33" s="6"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="1:12" ht="12.75">
+    <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="14">
         <v>44834</v>
       </c>
@@ -18459,7 +18385,7 @@
         <v>-11770.911062729705</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="12.75">
+    <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="14">
         <v>44865</v>
       </c>
@@ -18496,7 +18422,7 @@
         <v>-12524.925264431353</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="12.75">
+    <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="14">
         <v>44895</v>
       </c>
@@ -18533,7 +18459,7 @@
         <v>-9593.1455874388703</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="12.75">
+    <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="14">
         <v>44925</v>
       </c>
@@ -18570,7 +18496,7 @@
         <v>-9706.5932891467164</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="12.75">
+    <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="14">
         <v>44957</v>
       </c>
@@ -18620,13 +18546,13 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D462"/>
+  <dimension ref="A1:D443"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="18"/>
     <col min="2" max="2" width="8.5" style="18" customWidth="1"/>
@@ -18634,7 +18560,7 @@
     <col min="4" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="30" t="s">
         <v>194</v>
       </c>
@@ -18642,7 +18568,7 @@
         <v>399088</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="12.75" customHeight="1">
+    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="30"/>
       <c r="C2" s="28" t="s">
         <v>0</v>
@@ -18651,7 +18577,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="12.75" customHeight="1">
+    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -18666,7 +18592,7 @@
         <v>45.12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18">
         <f t="shared" ref="A4:A36" si="0">A3+1</f>
         <v>2</v>
@@ -18682,7 +18608,7 @@
         <v>44.965000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="12.75" customHeight="1">
+    <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -18698,7 +18624,7 @@
         <v>44.99666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1">
+    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -18714,7 +18640,7 @@
         <v>44.792500000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="12.75" customHeight="1">
+    <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -18730,7 +18656,7 @@
         <v>44.440000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="12.75" customHeight="1">
+    <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -18746,7 +18672,7 @@
         <v>44.256666666666668</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="12.75" customHeight="1">
+    <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -18762,7 +18688,7 @@
         <v>44.252857142857145</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="12.75" customHeight="1">
+    <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -18778,7 +18704,7 @@
         <v>44.220000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="12.75" customHeight="1">
+    <row r="11" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -18794,7 +18720,7 @@
         <v>44.181111111111115</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="12.75" customHeight="1">
+    <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -18810,7 +18736,7 @@
         <v>44.341000000000008</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="12.75" customHeight="1">
+    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -18826,7 +18752,7 @@
         <v>44.458181818181828</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="12.75" customHeight="1">
+    <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -18842,7 +18768,7 @@
         <v>44.577500000000008</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="12.75" customHeight="1">
+    <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -18858,7 +18784,7 @@
         <v>44.703076923076928</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="12.75" customHeight="1">
+    <row r="16" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -18874,7 +18800,7 @@
         <v>44.860000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="12.75" customHeight="1">
+    <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -18890,7 +18816,7 @@
         <v>44.968000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="12.75" customHeight="1">
+    <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -18906,7 +18832,7 @@
         <v>45.078750000000007</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="12.75" customHeight="1">
+    <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -18922,7 +18848,7 @@
         <v>45.214117647058828</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1">
+    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="18">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -18938,7 +18864,7 @@
         <v>45.345555555555563</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="12.75" customHeight="1">
+    <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="18">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -18954,7 +18880,7 @@
         <v>45.46631578947369</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="12.75" customHeight="1">
+    <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -18970,7 +18896,7 @@
         <v>45.062500000000007</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="12.75" customHeight="1">
+    <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="18">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -18986,7 +18912,7 @@
         <v>44.643333333333338</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="12.75" customHeight="1">
+    <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="18">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -19002,7 +18928,7 @@
         <v>44.269090909090913</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="12.75" customHeight="1">
+    <row r="25" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="18">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -19018,7 +18944,7 @@
         <v>43.928695652173921</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="12.75" customHeight="1">
+    <row r="26" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="18">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -19034,7 +18960,7 @@
         <v>43.627500000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="12.75" customHeight="1">
+    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="18">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -19050,7 +18976,7 @@
         <v>43.332400000000007</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="12.75" customHeight="1">
+    <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="18">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -19066,7 +18992,7 @@
         <v>43.088461538461544</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="12.75" customHeight="1">
+    <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="18">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -19082,7 +19008,7 @@
         <v>42.901851851851859</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="12.75" customHeight="1">
+    <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="18">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -19098,7 +19024,7 @@
         <v>42.726071428571437</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="12.75" customHeight="1">
+    <row r="31" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="18">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -19114,7 +19040,7 @@
         <v>42.570000000000007</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="12.75" customHeight="1">
+    <row r="32" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="18">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -19130,7 +19056,7 @@
         <v>42.435000000000009</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="12.75" customHeight="1">
+    <row r="33" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="18">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -19146,7 +19072,7 @@
         <v>42.298387096774199</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="12.75" customHeight="1">
+    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="18">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -19162,7 +19088,7 @@
         <v>42.179062500000008</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="12.75" customHeight="1">
+    <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="18">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -19178,7 +19104,7 @@
         <v>42.093333333333341</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="12.75" customHeight="1">
+    <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="18">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -19194,7 +19120,7 @@
         <v>42.005000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="12.75" customHeight="1">
+    <row r="37" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="18">
         <f t="shared" ref="A37:A100" si="1">A36+1</f>
         <v>35</v>
@@ -19210,7 +19136,7 @@
         <v>41.929428571428573</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="12.75" customHeight="1">
+    <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="18">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -19226,7 +19152,7 @@
         <v>41.856666666666662</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="12.75" customHeight="1">
+    <row r="39" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="18">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -19242,7 +19168,7 @@
         <v>41.802432432432425</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="12.75" customHeight="1">
+    <row r="40" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="18">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -19258,7 +19184,7 @@
         <v>41.751315789473679</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="12.75" customHeight="1">
+    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="18">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -19274,7 +19200,7 @@
         <v>41.689999999999991</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="12.75" customHeight="1">
+    <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="18">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -19290,7 +19216,7 @@
         <v>41.621999999999993</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="12.75" customHeight="1">
+    <row r="43" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="18">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -19306,7 +19232,7 @@
         <v>41.5680487804878</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="12.75" customHeight="1">
+    <row r="44" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="18">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -19322,7 +19248,7 @@
         <v>41.512380952380944</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="12.75" customHeight="1">
+    <row r="45" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="18">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -19338,7 +19264,7 @@
         <v>41.454186046511623</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="12.75" customHeight="1">
+    <row r="46" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="18">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -19354,7 +19280,7 @@
         <v>41.399318181818174</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="12.75" customHeight="1">
+    <row r="47" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="18">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -19370,7 +19296,7 @@
         <v>41.36044444444444</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="12.75" customHeight="1">
+    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="18">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -19386,7 +19312,7 @@
         <v>41.322391304347818</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="12.75" customHeight="1">
+    <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="18">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -19402,7 +19328,7 @@
         <v>41.285319148936161</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="12.75" customHeight="1">
+    <row r="50" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="18">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -19418,7 +19344,7 @@
         <v>41.222499999999989</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="12.75" customHeight="1">
+    <row r="51" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="18">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -19434,7 +19360,7 @@
         <v>41.174693877551015</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="12.75" customHeight="1">
+    <row r="52" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="18">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -19450,7 +19376,7 @@
         <v>41.139199999999988</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="12.75" customHeight="1">
+    <row r="53" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="18">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -19466,7 +19392,7 @@
         <v>41.106862745098027</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="12.75" customHeight="1">
+    <row r="54" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="18">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -19482,7 +19408,7 @@
         <v>41.078653846153834</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="12.75" customHeight="1">
+    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="18">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -19498,7 +19424,7 @@
         <v>41.062452830188661</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="12.75" customHeight="1">
+    <row r="56" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="18">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -19514,7 +19440,7 @@
         <v>41.045555555555538</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="12.75" customHeight="1">
+    <row r="57" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="18">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -19530,7 +19456,7 @@
         <v>41.038181818181798</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="12.75" customHeight="1">
+    <row r="58" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="18">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -19546,7 +19472,7 @@
         <v>41.038928571428549</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="12.75" customHeight="1">
+    <row r="59" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="18">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -19562,7 +19488,7 @@
         <v>41.034736842105247</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="12.75" customHeight="1">
+    <row r="60" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="18">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -19578,7 +19504,7 @@
         <v>41.041896551724122</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="12.75" customHeight="1">
+    <row r="61" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="18">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -19594,7 +19520,7 @@
         <v>41.046101694915237</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="12.75" customHeight="1">
+    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="18">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -19610,7 +19536,7 @@
         <v>41.029166666666654</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="12.75" customHeight="1">
+    <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="18">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -19626,7 +19552,7 @@
         <v>41.015737704918017</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="12.75" customHeight="1">
+    <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="18">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -19642,7 +19568,7 @@
         <v>40.997580645161271</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="12.75" customHeight="1">
+    <row r="65" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="18">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -19658,7 +19584,7 @@
         <v>40.997301587301571</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="12.75" customHeight="1">
+    <row r="66" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="18">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -19674,7 +19600,7 @@
         <v>40.998281249999984</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="12.75" customHeight="1">
+    <row r="67" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="18">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -19690,7 +19616,7 @@
         <v>40.994153846153829</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="12.75" customHeight="1">
+    <row r="68" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="18">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -19706,7 +19632,7 @@
         <v>41.006060606060593</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="12.75" customHeight="1">
+    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="18">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -19722,7 +19648,7 @@
         <v>41.01641791044775</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="12.75" customHeight="1">
+    <row r="70" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="18">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -19738,7 +19664,7 @@
         <v>41.020294117647047</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="12.75" customHeight="1">
+    <row r="71" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="18">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -19754,7 +19680,7 @@
         <v>41.027826086956509</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="12.75" customHeight="1">
+    <row r="72" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="18">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -19770,7 +19696,7 @@
         <v>41.021428571428558</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="12.75" customHeight="1">
+    <row r="73" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="18">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -19786,7 +19712,7 @@
         <v>41.019295774647873</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="12.75" customHeight="1">
+    <row r="74" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="18">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -19802,7 +19728,7 @@
         <v>41.017499999999984</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="12.75" customHeight="1">
+    <row r="75" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="18">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -19818,7 +19744,7 @@
         <v>41.027123287671216</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="12.75" customHeight="1">
+    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="18">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -19834,7 +19760,7 @@
         <v>41.036081081081065</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="12.75" customHeight="1">
+    <row r="77" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="18">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -19850,7 +19776,7 @@
         <v>41.035466666666643</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="12.75" customHeight="1">
+    <row r="78" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="18">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -19866,7 +19792,7 @@
         <v>41.020526335866805</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="12.75" customHeight="1">
+    <row r="79" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="18">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -19882,7 +19808,7 @@
         <v>40.984025981952598</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="12.75" customHeight="1">
+    <row r="80" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="18">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -19898,7 +19824,7 @@
         <v>40.953717942849167</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="12.75" customHeight="1">
+    <row r="81" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="18">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -19914,7 +19840,7 @@
         <v>40.943164537647085</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="12.75" customHeight="1">
+    <row r="82" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="18">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -19930,7 +19856,7 @@
         <v>40.930499984741189</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="12.75" customHeight="1">
+    <row r="83" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="18">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -19946,7 +19872,7 @@
         <v>40.927160476872935</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="12.75" customHeight="1">
+    <row r="84" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="18">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -19962,7 +19888,7 @@
         <v>40.921951202764724</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="12.75" customHeight="1">
+    <row r="85" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="18">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -19978,7 +19904,7 @@
         <v>40.929036107810127</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="12.75" customHeight="1">
+    <row r="86" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="18">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -19994,7 +19920,7 @@
         <v>40.931428547813759</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="12.75" customHeight="1">
+    <row r="87" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="18">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -20010,7 +19936,7 @@
         <v>40.92988232062843</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="12.75" customHeight="1">
+    <row r="88" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="18">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -20026,7 +19952,7 @@
         <v>40.928372052214847</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="12.75" customHeight="1">
+    <row r="89" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="18">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -20042,7 +19968,7 @@
         <v>40.927701096808754</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="12.75" customHeight="1">
+    <row r="90" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="18">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -20058,7 +19984,7 @@
         <v>40.924090864008107</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="12.75" customHeight="1">
+    <row r="91" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="18">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -20074,7 +20000,7 @@
         <v>40.917528047025854</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="12.75" customHeight="1">
+    <row r="92" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="18">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -20090,7 +20016,7 @@
         <v>40.904444420708536</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="12.75" customHeight="1">
+    <row r="93" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="18">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -20106,7 +20032,7 @@
         <v>40.886703283288959</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="12.75" customHeight="1">
+    <row r="94" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="18">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -20122,7 +20048,7 @@
         <v>40.859891271176529</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="12.75" customHeight="1">
+    <row r="95" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="18">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -20138,7 +20064,7 @@
         <v>40.836344033518131</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="12.75" customHeight="1">
+    <row r="96" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="18">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -20154,7 +20080,7 @@
         <v>40.815851010261682</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="12.75" customHeight="1">
+    <row r="97" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="18">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -20170,7 +20096,7 @@
         <v>40.787684151097331</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="12.75" customHeight="1">
+    <row r="98" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="18">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -20186,7 +20112,7 @@
         <v>40.770416618982935</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="12.75" customHeight="1">
+    <row r="99" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="18">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -20202,7 +20128,7 @@
         <v>40.756804084384548</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="12.75" customHeight="1">
+    <row r="100" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="18">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -20218,7 +20144,7 @@
         <v>40.744489749207773</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="12.75" customHeight="1">
+    <row r="101" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="18">
         <f t="shared" ref="A101:A355" si="2">A100+1</f>
         <v>99</v>
@@ -20234,7 +20160,7 @@
         <v>40.723232270828383</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="12.75" customHeight="1">
+    <row r="102" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="18">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -20250,7 +20176,7 @@
         <v>40.702299958801255</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="12.75" customHeight="1">
+    <row r="103" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="18">
         <f t="shared" si="2"/>
         <v>101</v>
@@ -20266,7 +20192,7 @@
         <v>40.680296984379815</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="12.75" customHeight="1">
+    <row r="104" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="18">
         <f t="shared" si="2"/>
         <v>102</v>
@@ -20282,7 +20208,7 @@
         <v>40.654705834482208</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="12.75" customHeight="1">
+    <row r="105" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="18">
         <f t="shared" si="2"/>
         <v>103</v>
@@ -20298,7 +20224,7 @@
         <v>40.599999957038342</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="12.75" customHeight="1">
+    <row r="106" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="18">
         <f t="shared" si="2"/>
         <v>104</v>
@@ -20314,7 +20240,7 @@
         <v>40.542692259274979</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="12.75" customHeight="1">
+    <row r="107" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="18">
         <f t="shared" si="2"/>
         <v>105</v>
@@ -20330,7 +20256,7 @@
         <v>40.482476154145722</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="12.75" customHeight="1">
+    <row r="108" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="18">
         <f t="shared" si="2"/>
         <v>106</v>
@@ -20346,7 +20272,7 @@
         <v>40.435849029253099</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="12.75" customHeight="1">
+    <row r="109" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="18">
         <f t="shared" si="2"/>
         <v>107</v>
@@ -20362,7 +20288,7 @@
         <v>40.391775685247957</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="12.75" customHeight="1">
+    <row r="110" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="18">
         <f t="shared" si="2"/>
         <v>108</v>
@@ -20378,7 +20304,7 @@
         <v>40.346574042991335</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="12.75" customHeight="1">
+    <row r="111" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="18">
         <f t="shared" si="2"/>
         <v>109</v>
@@ -20394,7 +20320,7 @@
         <v>40.302110060945544</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="12.75" customHeight="1">
+    <row r="112" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="18">
         <f t="shared" si="2"/>
         <v>110</v>
@@ -20410,7 +20336,7 @@
         <v>40.260272703690944</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="12.75" customHeight="1">
+    <row r="113" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="18">
         <f t="shared" si="2"/>
         <v>111</v>
@@ -20426,7 +20352,7 @@
         <v>40.215585555342926</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="12.75" customHeight="1">
+    <row r="114" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="18">
         <f t="shared" si="2"/>
         <v>112</v>
@@ -20442,7 +20368,7 @@
         <v>40.173214266640784</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="12.75" customHeight="1">
+    <row r="115" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="18">
         <f t="shared" si="2"/>
         <v>113</v>
@@ -20458,7 +20384,7 @@
         <v>40.128584061344093</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="12.75" customHeight="1">
+    <row r="116" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="18">
         <f t="shared" si="2"/>
         <v>114</v>
@@ -20474,7 +20400,7 @@
         <v>40.078245599311678</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="12.75" customHeight="1">
+    <row r="117" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="18">
         <f t="shared" si="2"/>
         <v>115</v>
@@ -20490,7 +20416,7 @@
         <v>40.032521721881352</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="12.75" customHeight="1">
+    <row r="118" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="18">
         <f t="shared" si="2"/>
         <v>116</v>
@@ -20506,7 +20432,7 @@
         <v>39.985344822324535</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="12.75" customHeight="1">
+    <row r="119" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="18">
         <f t="shared" si="2"/>
         <v>117</v>
@@ -20522,7 +20448,7 @@
         <v>39.940427341298147</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="12.75" customHeight="1">
+    <row r="120" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="18">
         <f t="shared" si="2"/>
         <v>118</v>
@@ -20538,7 +20464,7 @@
         <v>39.89703388666701</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="12.75" customHeight="1">
+    <row r="121" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="18">
         <f t="shared" si="2"/>
         <v>119</v>
@@ -20554,7 +20480,7 @@
         <v>39.856638645204157</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="12.75" customHeight="1">
+    <row r="122" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="18">
         <f t="shared" si="2"/>
         <v>120</v>
@@ -20570,7 +20496,7 @@
         <v>39.814833324432357</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="12.75" customHeight="1">
+    <row r="123" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="18">
         <f t="shared" si="2"/>
         <v>121</v>
@@ -20586,7 +20512,7 @@
         <v>39.769752062332515</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="12.75" customHeight="1">
+    <row r="124" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="18">
         <f t="shared" si="2"/>
         <v>122</v>
@@ -20602,7 +20528,7 @@
         <v>39.730819672131133</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="12.75" customHeight="1">
+    <row r="125" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="18">
         <f t="shared" si="2"/>
         <v>123</v>
@@ -20618,7 +20544,7 @@
         <v>39.694634136422749</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="12.75" customHeight="1">
+    <row r="126" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="18">
         <f t="shared" si="2"/>
         <v>124</v>
@@ -20634,7 +20560,7 @@
         <v>39.656854815322561</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="12.75" customHeight="1">
+    <row r="127" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="18">
         <f t="shared" si="2"/>
         <v>125</v>
@@ -20650,7 +20576,7 @@
         <v>39.615839967039982</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="12.75" customHeight="1">
+    <row r="128" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="18">
         <f t="shared" si="2"/>
         <v>126</v>
@@ -20666,7 +20592,7 @@
         <v>39.58039680484125</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="12.75" customHeight="1">
+    <row r="129" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="18">
         <f t="shared" si="2"/>
         <v>127</v>
@@ -20682,7 +20608,7 @@
         <v>39.545433045669277</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="12.75" customHeight="1">
+    <row r="130" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="18">
         <f t="shared" si="2"/>
         <v>128</v>
@@ -20698,7 +20624,7 @@
         <v>39.514765591640611</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="12.75" customHeight="1">
+    <row r="131" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="18">
         <f t="shared" si="2"/>
         <v>129</v>
@@ -20714,7 +20640,7 @@
         <v>39.483953462403086</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="12.75" customHeight="1">
+    <row r="132" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="18">
         <f t="shared" si="2"/>
         <v>130</v>
@@ -20730,7 +20656,7 @@
         <v>39.455384593153838</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="12.75" customHeight="1">
+    <row r="133" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="18">
         <f t="shared" si="2"/>
         <v>131</v>
@@ -20746,7 +20672,7 @@
         <v>39.425419815954186</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="12.75" customHeight="1">
+    <row r="134" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="18">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -20762,7 +20688,7 @@
         <v>39.396590869848474</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="12.75" customHeight="1">
+    <row r="135" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="18">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -20778,7 +20704,7 @@
         <v>39.371127767969917</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="12.75" customHeight="1">
+    <row r="136" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="18">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -20794,7 +20720,7 @@
         <v>39.348358155447755</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="12.75" customHeight="1">
+    <row r="137" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="18">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -20810,7 +20736,7 @@
         <v>39.325777719037028</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="12.75" customHeight="1">
+    <row r="138" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="18">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -20826,7 +20752,7 @@
         <v>39.30124995404411</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="12.75" customHeight="1">
+    <row r="139" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="18">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -20842,7 +20768,7 @@
         <v>39.275182432773718</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="12.75" customHeight="1">
+    <row r="140" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="18">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -20858,7 +20784,7 @@
         <v>39.253623134275358</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="12.75" customHeight="1">
+    <row r="141" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="18">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -20874,7 +20800,7 @@
         <v>39.222517934100708</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="12.75" customHeight="1">
+    <row r="142" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="18">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -20890,7 +20816,7 @@
         <v>39.191714233499987</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="12.75" customHeight="1">
+    <row r="143" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="18">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -20906,7 +20832,7 @@
         <v>39.159361657872324</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="12.75" customHeight="1">
+    <row r="144" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="18">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -20922,7 +20848,7 @@
         <v>39.130704182464775</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="12.75" customHeight="1">
+    <row r="145" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="18">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -20938,7 +20864,7 @@
         <v>39.101118849230758</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="12.75" customHeight="1">
+    <row r="146" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="18">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -20954,7 +20880,7 @@
         <v>39.072916641388879</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="12.75" customHeight="1">
+    <row r="147" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="18">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -20970,7 +20896,7 @@
         <v>39.046344810896542</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="12.75" customHeight="1">
+    <row r="148" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="18">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -20986,7 +20912,7 @@
         <v>39.018561638767117</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="12.75" customHeight="1">
+    <row r="149" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="18">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -21002,7 +20928,7 @@
         <v>38.994013599387742</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="12.75" customHeight="1">
+    <row r="150" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="18">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -21018,7 +20944,7 @@
         <v>38.968783766418909</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="12.75" customHeight="1">
+    <row r="151" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="18">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -21034,7 +20960,7 @@
         <v>38.941812068389247</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="12.75" customHeight="1">
+    <row r="152" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="18">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -21050,7 +20976,7 @@
         <v>38.915199992999987</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="12.75" customHeight="1">
+    <row r="153" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="18">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -21066,7 +20992,7 @@
         <v>38.890794691986741</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="12.75" customHeight="1">
+    <row r="154" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="18">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -21082,7 +21008,7 @@
         <v>38.864144727894725</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="12.75" customHeight="1">
+    <row r="155" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="18">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -21098,7 +21024,7 @@
         <v>38.840653588888877</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="12.75" customHeight="1">
+    <row r="156" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="18">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -21114,7 +21040,7 @@
         <v>38.822142862207784</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="12.75" customHeight="1">
+    <row r="157" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="18">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -21130,7 +21056,7 @@
         <v>38.801870974774182</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="12.75" customHeight="1">
+    <row r="158" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="18">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -21146,7 +21072,7 @@
         <v>38.781025643141014</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="12.75" customHeight="1">
+    <row r="159" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="18">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -21162,7 +21088,7 @@
         <v>38.75942674980891</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="12.75" customHeight="1">
+    <row r="160" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="18">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -21178,7 +21104,7 @@
         <v>38.73683543259493</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="12.75" customHeight="1">
+    <row r="161" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="18">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -21194,7 +21120,7 @@
         <v>38.715911938364776</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="12.75" customHeight="1">
+    <row r="162" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="18">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -21210,7 +21136,7 @@
         <v>38.695499988749994</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="12.75" customHeight="1">
+    <row r="163" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="18">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -21226,7 +21152,7 @@
         <v>38.674285695527942</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="12.75" customHeight="1">
+    <row r="164" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="18">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -21242,7 +21168,7 @@
         <v>38.652962951851848</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="12.75" customHeight="1">
+    <row r="165" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="18">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -21258,7 +21184,7 @@
         <v>38.632515324478518</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="12.75" customHeight="1">
+    <row r="166" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="18">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -21274,7 +21200,7 @@
         <v>38.609999978780486</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="12.75" customHeight="1">
+    <row r="167" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="18">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -21290,7 +21216,7 @@
         <v>38.586363609696967</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="12.75" customHeight="1">
+    <row r="168" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="18">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -21306,7 +21232,7 @@
         <v>38.566746972469872</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="12.75" customHeight="1">
+    <row r="169" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="18">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -21322,7 +21248,7 @@
         <v>38.550598780598797</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="12.75" customHeight="1">
+    <row r="170" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="18">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -21338,7 +21264,7 @@
         <v>38.53458331529761</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="12.75" customHeight="1">
+    <row r="171" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="18">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -21354,7 +21280,7 @@
         <v>38.518757382130168</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="12.75" customHeight="1">
+    <row r="172" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="18">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -21370,7 +21296,7 @@
         <v>38.501588212058813</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="12.75" customHeight="1">
+    <row r="173" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="18">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -21386,7 +21312,7 @@
         <v>38.482806999824554</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="12.75" customHeight="1">
+    <row r="174" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="18">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -21402,7 +21328,7 @@
         <v>38.465581380406974</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="12.75" customHeight="1">
+    <row r="175" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="18">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -21418,7 +21344,7 @@
         <v>38.445202289364161</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="12.75" customHeight="1">
+    <row r="176" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="18">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -21434,7 +21360,7 @@
         <v>38.42022985362069</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="12.75" customHeight="1">
+    <row r="177" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="18">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -21450,7 +21376,7 @@
         <v>38.397485675200002</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="12.75" customHeight="1">
+    <row r="178" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="18">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -21466,7 +21392,7 @@
         <v>38.376420407897733</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="12.75" customHeight="1">
+    <row r="179" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="18">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -21482,7 +21408,7 @@
         <v>38.356271147796612</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="12.75" customHeight="1">
+    <row r="180" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="18">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -21498,7 +21424,7 @@
         <v>38.333426933033707</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="12.75" customHeight="1">
+    <row r="181" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="18">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -21514,7 +21440,7 @@
         <v>38.311229020614526</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="12.75" customHeight="1">
+    <row r="182" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="18">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -21530,7 +21456,7 @@
         <v>38.290888867888889</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="12.75" customHeight="1">
+    <row r="183" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="18">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -21546,7 +21472,7 @@
         <v>38.268618754364638</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="12.75" customHeight="1">
+    <row r="184" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="18">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -21562,7 +21488,7 @@
         <v>38.248351618351641</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="12.75" customHeight="1">
+    <row r="185" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="18">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -21578,7 +21504,7 @@
         <v>38.228579205136612</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="12.75" customHeight="1">
+    <row r="186" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="18">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -21594,7 +21520,7 @@
         <v>38.206847793913042</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="12.75" customHeight="1">
+    <row r="187" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="18">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -21610,7 +21536,7 @@
         <v>38.181189152216213</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="12.75" customHeight="1">
+    <row r="188" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="18">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -21626,7 +21552,7 @@
         <v>38.15387092274193</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="12.75" customHeight="1">
+    <row r="189" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="18">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -21642,7 +21568,7 @@
         <v>38.12657749128342</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="12.75" customHeight="1">
+    <row r="190" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="18">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -21658,7 +21584,7 @@
         <v>38.100053139680853</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="12.75" customHeight="1">
+    <row r="191" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="18">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -21674,7 +21600,7 @@
         <v>38.071216879682538</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="12.75" customHeight="1">
+    <row r="192" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="18">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -21690,7 +21616,7 @@
         <v>38.0456315228421</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="12.75" customHeight="1">
+    <row r="193" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="18">
         <f t="shared" si="2"/>
         <v>191</v>
@@ -21706,7 +21632,7 @@
         <v>38.017120363036646</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="12.75" customHeight="1">
+    <row r="194" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="18">
         <f t="shared" si="2"/>
         <v>192</v>
@@ -21722,7 +21648,7 @@
         <v>37.989791613541662</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="12.75" customHeight="1">
+    <row r="195" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="18">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -21738,7 +21664,7 @@
         <v>37.965699429792743</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="12.75" customHeight="1">
+    <row r="196" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="18">
         <f t="shared" si="2"/>
         <v>194</v>
@@ -21754,7 +21680,7 @@
         <v>37.941855619072165</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="12.75" customHeight="1">
+    <row r="197" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="18">
         <f t="shared" si="2"/>
         <v>195</v>
@@ -21770,7 +21696,7 @@
         <v>37.915128152000001</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="12.75" customHeight="1">
+    <row r="198" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="18">
         <f t="shared" si="2"/>
         <v>196</v>
@@ -21786,7 +21712,7 @@
         <v>37.889132598622453</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="12.75" customHeight="1">
+    <row r="199" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="18">
         <f t="shared" si="2"/>
         <v>197</v>
@@ -21802,7 +21728,7 @@
         <v>37.861268989137059</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="12.75" customHeight="1">
+    <row r="200" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="18">
         <f t="shared" si="2"/>
         <v>198</v>
@@ -21818,7 +21744,7 @@
         <v>37.834646419242425</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="12.75" customHeight="1">
+    <row r="201" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="18">
         <f t="shared" si="2"/>
         <v>199</v>
@@ -21834,7 +21760,7 @@
         <v>37.804422063819104</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="12.75" customHeight="1">
+    <row r="202" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="18">
         <f t="shared" si="2"/>
         <v>200</v>
@@ -21850,7 +21776,7 @@
         <v>37.775999948150009</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="12.75" customHeight="1">
+    <row r="203" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="18">
         <f t="shared" si="2"/>
         <v>201</v>
@@ -21866,7 +21792,7 @@
         <v>37.743084524776123</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="12.75" customHeight="1">
+    <row r="204" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="18">
         <f t="shared" si="2"/>
         <v>202</v>
@@ -21882,7 +21808,7 @@
         <v>37.710494996683174</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="12.75" customHeight="1">
+    <row r="205" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="18">
         <f t="shared" si="2"/>
         <v>203</v>
@@ -21898,7 +21824,7 @@
         <v>37.678472849310346</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="12.75" customHeight="1">
+    <row r="206" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="18">
         <f t="shared" si="2"/>
         <v>204</v>
@@ -21914,7 +21840,7 @@
         <v>37.643872496323532</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="12.75" customHeight="1">
+    <row r="207" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="18">
         <f t="shared" si="2"/>
         <v>205</v>
@@ -21930,7 +21856,7 @@
         <v>37.61151214380488</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="12.75" customHeight="1">
+    <row r="208" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="18">
         <f t="shared" si="2"/>
         <v>206</v>
@@ -21946,7 +21872,7 @@
         <v>37.577281499757277</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="12.75" customHeight="1">
+    <row r="209" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="18">
         <f t="shared" si="2"/>
         <v>207</v>
@@ -21962,7 +21888,7 @@
         <v>37.540193181497585</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="12.75" customHeight="1">
+    <row r="210" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="18">
         <f t="shared" si="2"/>
         <v>208</v>
@@ -21978,7 +21904,7 @@
         <v>37.503221100721149</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="12.75" customHeight="1">
+    <row r="211" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="18">
         <f t="shared" si="2"/>
         <v>209</v>
@@ -21994,7 +21920,7 @@
         <v>37.469999944593297</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="12.75" customHeight="1">
+    <row r="212" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="18">
         <f t="shared" si="2"/>
         <v>210</v>
@@ -22010,7 +21936,7 @@
         <v>37.437380901238093</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="12.75" customHeight="1">
+    <row r="213" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="18">
         <f t="shared" si="2"/>
         <v>211</v>
@@ -22026,7 +21952,7 @@
         <v>37.405781941800946</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="12.75" customHeight="1">
+    <row r="214" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="18">
         <f t="shared" si="2"/>
         <v>212</v>
@@ -22042,7 +21968,7 @@
         <v>37.374245231273584</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="12.75" customHeight="1">
+    <row r="215" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="18">
         <f t="shared" si="2"/>
         <v>213</v>
@@ -22058,7 +21984,7 @@
         <v>37.342629053615028</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="12.75" customHeight="1">
+    <row r="216" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="18">
         <f t="shared" si="2"/>
         <v>214</v>
@@ -22074,7 +22000,7 @@
         <v>37.309205555841125</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="12.75" customHeight="1">
+    <row r="217" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="18">
         <f t="shared" si="2"/>
         <v>215</v>
@@ -22090,7 +22016,7 @@
         <v>37.27981390102326</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="12.75" customHeight="1">
+    <row r="218" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="18">
         <f t="shared" si="2"/>
         <v>216</v>
@@ -22106,7 +22032,7 @@
         <v>37.247685133657413</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="12.75" customHeight="1">
+    <row r="219" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="18">
         <f t="shared" si="2"/>
         <v>217</v>
@@ -22122,7 +22048,7 @@
         <v>37.218433126682037</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="12.75" customHeight="1">
+    <row r="220" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="18">
         <f t="shared" si="2"/>
         <v>218</v>
@@ -22138,7 +22064,7 @@
         <v>37.189770586238538</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="12.75" customHeight="1">
+    <row r="221" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="18">
         <f t="shared" si="2"/>
         <v>219</v>
@@ -22154,7 +22080,7 @@
         <v>37.161232823424669</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="12.75" customHeight="1">
+    <row r="222" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="18">
         <f t="shared" si="2"/>
         <v>220</v>
@@ -22170,7 +22096,7 @@
         <v>37.130772670045459</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="12.75" customHeight="1">
+    <row r="223" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="18">
         <f t="shared" si="2"/>
         <v>221</v>
@@ -22186,7 +22112,7 @@
         <v>37.098913970859734</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="12.75" customHeight="1">
+    <row r="224" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="18">
         <f t="shared" si="2"/>
         <v>222</v>
@@ -22202,7 +22128,7 @@
         <v>37.065180126891896</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="12.75" customHeight="1">
+    <row r="225" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="18">
         <f t="shared" si="2"/>
         <v>223</v>
@@ -22218,7 +22144,7 @@
         <v>37.026053759282519</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="12.75" customHeight="1">
+    <row r="226" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="18">
         <f t="shared" si="2"/>
         <v>224</v>
@@ -22234,7 +22160,7 @@
         <v>36.984464229464287</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="12.75" customHeight="1">
+    <row r="227" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="18">
         <f t="shared" si="2"/>
         <v>225</v>
@@ -22250,7 +22176,7 @@
         <v>36.94248883697778</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="12.75" customHeight="1">
+    <row r="228" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="18">
         <f t="shared" si="2"/>
         <v>226</v>
@@ -22266,7 +22192,7 @@
         <v>36.903849501769912</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="12.75" customHeight="1">
+    <row r="229" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="18">
         <f t="shared" si="2"/>
         <v>227</v>
@@ -22282,7 +22208,7 @@
         <v>36.866607877356834</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="12.75" customHeight="1">
+    <row r="230" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="18">
         <f t="shared" si="2"/>
         <v>228</v>
@@ -22298,7 +22224,7 @@
         <v>36.825438542543864</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="12.75" customHeight="1">
+    <row r="231" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="18">
         <f t="shared" si="2"/>
         <v>229</v>
@@ -22314,7 +22240,7 @@
         <v>36.780523967772936</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="12.75" customHeight="1">
+    <row r="232" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="18">
         <f t="shared" si="2"/>
         <v>230</v>
@@ -22330,7 +22256,7 @@
         <v>36.740956473608705</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="12.75" customHeight="1">
+    <row r="233" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="18">
         <f t="shared" si="2"/>
         <v>231</v>
@@ -22346,7 +22272,7 @@
         <v>36.704978308398275</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="12.75" customHeight="1">
+    <row r="234" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="18">
         <f t="shared" si="2"/>
         <v>232</v>
@@ -22362,7 +22288,7 @@
         <v>36.66892236806035</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="12.75" customHeight="1">
+    <row r="235" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="18">
         <f t="shared" si="2"/>
         <v>233</v>
@@ -22378,7 +22304,7 @@
         <v>36.633948454291847</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="12.75" customHeight="1">
+    <row r="236" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="18">
         <f t="shared" si="2"/>
         <v>234</v>
@@ -22394,7 +22320,7 @@
         <v>36.598119614743588</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="12.75" customHeight="1">
+    <row r="237" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="18">
         <f t="shared" si="2"/>
         <v>235</v>
@@ -22410,7 +22336,7 @@
         <v>36.563361660255318</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="12.75" customHeight="1">
+    <row r="238" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="18">
         <f t="shared" si="2"/>
         <v>236</v>
@@ -22426,7 +22352,7 @@
         <v>36.528262673093217</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="12.75" customHeight="1">
+    <row r="239" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="18">
         <f t="shared" si="2"/>
         <v>237</v>
@@ -22442,7 +22368,7 @@
         <v>36.490632875358649</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="12.75" customHeight="1">
+    <row r="240" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="18">
         <f t="shared" si="2"/>
         <v>238</v>
@@ -22458,7 +22384,7 @@
         <v>36.451512570462185</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="12.75" customHeight="1">
+    <row r="241" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="18">
         <f t="shared" si="2"/>
         <v>239</v>
@@ -22474,7 +22400,7 @@
         <v>36.412008334728036</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="12.75" customHeight="1">
+    <row r="242" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="18">
         <f t="shared" si="2"/>
         <v>240</v>
@@ -22490,7 +22416,7 @@
         <v>36.376874964750002</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="12.75" customHeight="1">
+    <row r="243" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="18">
         <f t="shared" si="2"/>
         <v>241</v>
@@ -22506,7 +22432,7 @@
         <v>36.340622369004151</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="12.75" customHeight="1">
+    <row r="244" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="18">
         <f t="shared" si="2"/>
         <v>242</v>
@@ -22522,7 +22448,7 @@
         <v>36.305495830909088</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="12.75" customHeight="1">
+    <row r="245" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="18">
         <f t="shared" si="2"/>
         <v>243</v>
@@ -22538,7 +22464,7 @@
         <v>36.269876504938274</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="12.75" customHeight="1">
+    <row r="246" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="18">
         <f t="shared" si="2"/>
         <v>244</v>
@@ -22554,7 +22480,7 @@
         <v>36.232704883032788</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="12.75" customHeight="1">
+    <row r="247" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="18">
         <f t="shared" si="2"/>
         <v>245</v>
@@ -22570,7 +22496,7 @@
         <v>36.195714251183674</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="12.75" customHeight="1">
+    <row r="248" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="18">
         <f t="shared" si="2"/>
         <v>246</v>
@@ -22586,7 +22512,7 @@
         <v>36.154715415243899</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="12.75" customHeight="1">
+    <row r="249" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="18">
         <f t="shared" si="2"/>
         <v>247</v>
@@ -22602,7 +22528,7 @@
         <v>36.116113331943318</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="12.75" customHeight="1">
+    <row r="250" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="18">
         <f t="shared" si="2"/>
         <v>248</v>
@@ -22618,7 +22544,7 @@
         <v>36.076048360080641</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="12.75" customHeight="1">
+    <row r="251" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="18">
         <f t="shared" si="2"/>
         <v>249</v>
@@ -22634,7 +22560,7 @@
         <v>36.036947764859427</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="12.75" customHeight="1">
+    <row r="252" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="18">
         <f t="shared" si="2"/>
         <v>250</v>
@@ -22650,7 +22576,7 @@
         <v>35.997639970119991</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="12.75" customHeight="1">
+    <row r="253" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="18">
         <f t="shared" si="2"/>
         <v>251</v>
@@ -22666,7 +22592,7 @@
         <v>35.959402359163342</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="12.75" customHeight="1">
+    <row r="254" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="18">
         <f t="shared" si="2"/>
         <v>252</v>
@@ -22682,7 +22608,7 @@
         <v>35.920357115039671</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="12.75" customHeight="1">
+    <row r="255" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="18">
         <f t="shared" si="2"/>
         <v>253</v>
@@ -22698,7 +22624,7 @@
         <v>35.879051352964417</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="12.75" customHeight="1">
+    <row r="256" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="18">
         <f t="shared" si="2"/>
         <v>254</v>
@@ -22714,7 +22640,7 @@
         <v>35.835787368858256</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="12.75" customHeight="1">
+    <row r="257" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="18">
         <f t="shared" si="2"/>
         <v>255</v>
@@ -22730,7 +22656,7 @@
         <v>35.792862710117632</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="12.75" customHeight="1">
+    <row r="258" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="18">
         <f t="shared" si="2"/>
         <v>256</v>
@@ -22746,7 +22672,7 @@
         <v>35.744648405624986</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="12.75" customHeight="1">
+    <row r="259" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="18">
         <f t="shared" si="2"/>
         <v>257</v>
@@ -22762,7 +22688,7 @@
         <v>35.69571981291827</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="12.75" customHeight="1">
+    <row r="260" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="18">
         <f t="shared" si="2"/>
         <v>258</v>
@@ -22778,7 +22704,7 @@
         <v>35.651472839573628</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="12.75" customHeight="1">
+    <row r="261" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="18">
         <f t="shared" si="2"/>
         <v>259</v>
@@ -22794,7 +22720,7 @@
         <v>35.606949781660212</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="12.75" customHeight="1">
+    <row r="262" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="18">
         <f t="shared" si="2"/>
         <v>260</v>
@@ -22810,7 +22736,7 @@
         <v>35.566653817730753</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="12.75" customHeight="1">
+    <row r="263" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="18">
         <f t="shared" si="2"/>
         <v>261</v>
@@ -22826,7 +22752,7 @@
         <v>35.519386943103434</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="12.75" customHeight="1">
+    <row r="264" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="18">
         <f t="shared" si="2"/>
         <v>262</v>
@@ -22842,7 +22768,7 @@
         <v>35.470534318549603</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="12.75" customHeight="1">
+    <row r="265" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="18">
         <f t="shared" si="2"/>
         <v>263</v>
@@ -22858,7 +22784,7 @@
         <v>35.421064602813672</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="12.75" customHeight="1">
+    <row r="266" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="18">
         <f t="shared" si="2"/>
         <v>264</v>
@@ -22874,7 +22800,7 @@
         <v>35.373181784962107</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="12.75" customHeight="1">
+    <row r="267" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="18">
         <f t="shared" si="2"/>
         <v>265</v>
@@ -22890,7 +22816,7 @@
         <v>35.328188649018855</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="12.75" customHeight="1">
+    <row r="268" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="18">
         <f t="shared" si="2"/>
         <v>266</v>
@@ -22906,7 +22832,7 @@
         <v>35.283233055751865</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="12.75" customHeight="1">
+    <row r="269" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="18">
         <f t="shared" si="2"/>
         <v>267</v>
@@ -22922,7 +22848,7 @@
         <v>35.239288359812718</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="12.75" customHeight="1">
+    <row r="270" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="18">
         <f t="shared" si="2"/>
         <v>268</v>
@@ -22938,7 +22864,7 @@
         <v>35.194701466380579</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="12.75" customHeight="1">
+    <row r="271" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="18">
         <f t="shared" si="2"/>
         <v>269</v>
@@ -22954,7 +22880,7 @@
         <v>35.152081756617086</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="12.75" customHeight="1">
+    <row r="272" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="18">
         <f t="shared" si="2"/>
         <v>270</v>
@@ -22970,7 +22896,7 @@
         <v>35.109703672629614</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="12.75" customHeight="1">
+    <row r="273" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="18">
         <f t="shared" si="2"/>
         <v>271</v>
@@ -22986,7 +22912,7 @@
         <v>35.067933551771205</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="12.75" customHeight="1">
+    <row r="274" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="18">
         <f t="shared" si="2"/>
         <v>272</v>
@@ -23002,7 +22928,7 @@
         <v>35.027867619595575</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="12.75" customHeight="1">
+    <row r="275" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="18">
         <f t="shared" si="2"/>
         <v>273</v>
@@ -23018,7 +22944,7 @@
         <v>34.987655647509143</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="12.75" customHeight="1">
+    <row r="276" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="18">
         <f t="shared" si="2"/>
         <v>274</v>
@@ -23034,7 +22960,7 @@
         <v>34.944671499452539</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="12.75" customHeight="1">
+    <row r="277" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="18">
         <f t="shared" si="2"/>
         <v>275</v>
@@ -23050,7 +22976,7 @@
         <v>34.902363601163621</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="12.75" customHeight="1">
+    <row r="278" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="18">
         <f t="shared" si="2"/>
         <v>276</v>
@@ -23066,7 +22992,7 @@
         <v>34.860434747246366</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="12.75" customHeight="1">
+    <row r="279" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="18">
         <f t="shared" si="2"/>
         <v>277</v>
@@ -23082,7 +23008,7 @@
         <v>34.818953036389878</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="12.75" customHeight="1">
+    <row r="280" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="18">
         <f t="shared" si="2"/>
         <v>278</v>
@@ -23098,7 +23024,7 @@
         <v>34.778740972913653</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="12.75" customHeight="1">
+    <row r="281" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="18">
         <f t="shared" si="2"/>
         <v>279</v>
@@ -23114,7 +23040,7 @@
         <v>34.740573439534039</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="12.75" customHeight="1">
+    <row r="282" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="18">
         <f t="shared" si="2"/>
         <v>280</v>
@@ -23130,7 +23056,7 @@
         <v>34.703321389642845</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="12.75" customHeight="1">
+    <row r="283" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="18">
         <f t="shared" si="2"/>
         <v>281</v>
@@ -23146,7 +23072,7 @@
         <v>34.66704622537366</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="12.75" customHeight="1">
+    <row r="284" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="18">
         <f t="shared" si="2"/>
         <v>282</v>
@@ -23162,7 +23088,7 @@
         <v>34.633936132092195</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="12.75" customHeight="1">
+    <row r="285" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="18">
         <f t="shared" si="2"/>
         <v>283</v>
@@ -23178,7 +23104,7 @@
         <v>34.60084802017667</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="12.75" customHeight="1">
+    <row r="286" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="18">
         <f t="shared" si="2"/>
         <v>284</v>
@@ -23194,7 +23120,7 @@
         <v>34.568661932359149</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="12.75" customHeight="1">
+    <row r="287" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="18">
         <f t="shared" si="2"/>
         <v>285</v>
@@ -23210,7 +23136,7 @@
         <v>34.534210486982445</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="12.75" customHeight="1">
+    <row r="288" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="18">
         <f t="shared" si="2"/>
         <v>286</v>
@@ -23226,7 +23152,7 @@
         <v>34.502202755069924</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="12.75" customHeight="1">
+    <row r="289" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="18">
         <f t="shared" si="2"/>
         <v>287</v>
@@ -23242,7 +23168,7 @@
         <v>34.441742116968634</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="12.75" customHeight="1">
+    <row r="290" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="18">
         <f t="shared" si="2"/>
         <v>288</v>
@@ -23258,7 +23184,7 @@
         <v>34.411076347847221</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="12.75" customHeight="1">
+    <row r="291" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="18">
         <f t="shared" si="2"/>
         <v>289</v>
@@ -23274,7 +23200,7 @@
         <v>34.381903071695504</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="12.75" customHeight="1">
+    <row r="292" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="18">
         <f t="shared" si="2"/>
         <v>290</v>
@@ -23290,7 +23216,7 @@
         <v>34.352999957655172</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="12.75" customHeight="1">
+    <row r="293" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="18">
         <f t="shared" si="2"/>
         <v>291</v>
@@ -23306,7 +23232,7 @@
         <v>34.326013703505154</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="12.75" customHeight="1">
+    <row r="294" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="18">
         <f t="shared" si="2"/>
         <v>292</v>
@@ -23322,7 +23248,7 @@
         <v>34.300958862842464</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="12.75" customHeight="1">
+    <row r="295" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="18">
         <f t="shared" si="2"/>
         <v>293</v>
@@ -23338,7 +23264,7 @@
         <v>34.276006784027302</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="12.75" customHeight="1">
+    <row r="296" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="18">
         <f t="shared" si="2"/>
         <v>294</v>
@@ -23354,7 +23280,7 @@
         <v>34.249897918707482</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="12.75" customHeight="1">
+    <row r="297" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="18">
         <f t="shared" si="2"/>
         <v>295</v>
@@ -23370,7 +23296,7 @@
         <v>34.226135552101695</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="12.75" customHeight="1">
+    <row r="298" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="18">
         <f t="shared" si="2"/>
         <v>296</v>
@@ -23386,7 +23312,7 @@
         <v>34.204222931216215</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="12.75" customHeight="1">
+    <row r="299" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="18">
         <f t="shared" si="2"/>
         <v>297</v>
@@ -23402,7 +23328,7 @@
         <v>34.18289558410774</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="12.75" customHeight="1">
+    <row r="300" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="18">
         <f t="shared" si="2"/>
         <v>298</v>
@@ -23418,7 +23344,7 @@
         <v>34.162718082416099</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="12.75" customHeight="1">
+    <row r="301" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="18">
         <f t="shared" si="2"/>
         <v>299</v>
@@ -23434,7 +23360,7 @@
         <v>34.140468189933102</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="12.75" customHeight="1">
+    <row r="302" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="18">
         <f t="shared" si="2"/>
         <v>300</v>
@@ -23450,7 +23376,7 @@
         <v>34.119366627533324</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="12.75" customHeight="1">
+    <row r="303" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="18">
         <f t="shared" si="2"/>
         <v>301</v>
@@ -23466,7 +23392,7 @@
         <v>34.097840490531553</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="12.75" customHeight="1">
+    <row r="304" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="18">
         <f t="shared" si="2"/>
         <v>302</v>
@@ -23482,7 +23408,7 @@
         <v>34.077913866125826</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="12.75" customHeight="1">
+    <row r="305" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="18">
         <f t="shared" si="2"/>
         <v>303</v>
@@ -23498,7 +23424,7 @@
         <v>34.057623722376235</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="12.75" customHeight="1">
+    <row r="306" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="18">
         <f t="shared" si="2"/>
         <v>304</v>
@@ -23514,7 +23440,7 @@
         <v>34.036743378157887</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="12.75" customHeight="1">
+    <row r="307" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="18">
         <f t="shared" si="2"/>
         <v>305</v>
@@ -23530,7 +23456,7 @@
         <v>34.0172130717377</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="12.75" customHeight="1">
+    <row r="308" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="18">
         <f t="shared" si="2"/>
         <v>306</v>
@@ -23546,7 +23472,7 @@
         <v>33.997091462385619</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="12.75" customHeight="1">
+    <row r="309" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="18">
         <f t="shared" si="2"/>
         <v>307</v>
@@ -23562,7 +23488,7 @@
         <v>33.975211687882734</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="12.75" customHeight="1">
+    <row r="310" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="18">
         <f t="shared" si="2"/>
         <v>308</v>
@@ -23578,7 +23504,7 @@
         <v>33.951818144935061</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="12.75" customHeight="1">
+    <row r="311" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="18">
         <f t="shared" si="2"/>
         <v>309</v>
@@ -23594,7 +23520,7 @@
         <v>33.929385077993516</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="12.75" customHeight="1">
+    <row r="312" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="18">
         <f t="shared" si="2"/>
         <v>310</v>
@@ -23610,7 +23536,7 @@
         <v>33.90851609090322</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="12.75" customHeight="1">
+    <row r="313" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="18">
         <f t="shared" si="2"/>
         <v>311</v>
@@ -23626,7 +23552,7 @@
         <v>33.886495137138255</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="12.75" customHeight="1">
+    <row r="314" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="18">
         <f t="shared" si="2"/>
         <v>312</v>
@@ -23642,7 +23568,7 @@
         <v>33.865480729391024</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="12.75" customHeight="1">
+    <row r="315" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="18">
         <f t="shared" si="2"/>
         <v>313</v>
@@ -23658,7 +23584,7 @@
         <v>33.843706028146961</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="12.75" customHeight="1">
+    <row r="316" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="18">
         <f t="shared" si="2"/>
         <v>314</v>
@@ -23674,7 +23600,7 @@
         <v>33.822292954299357</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="12.75" customHeight="1">
+    <row r="317" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="18">
         <f t="shared" si="2"/>
         <v>315</v>
@@ -23690,7 +23616,7 @@
         <v>33.800285673142845</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="12.75" customHeight="1">
+    <row r="318" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="18">
         <f t="shared" si="2"/>
         <v>316</v>
@@ -23706,7 +23632,7 @@
         <v>33.778132867974676</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="12.75" customHeight="1">
+    <row r="319" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="18">
         <f t="shared" si="2"/>
         <v>317</v>
@@ -23722,7 +23648,7 @@
         <v>33.755394277507875</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="12.75" customHeight="1">
+    <row r="320" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="18">
         <f t="shared" si="2"/>
         <v>318</v>
@@ -23738,7 +23664,7 @@
         <v>33.733238946698101</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="12.75" customHeight="1">
+    <row r="321" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="18">
         <f t="shared" si="2"/>
         <v>319</v>
@@ -23754,7 +23680,7 @@
         <v>33.710940394639486</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="12.75" customHeight="1">
+    <row r="322" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="18">
         <f t="shared" si="2"/>
         <v>320</v>
@@ -23770,7 +23696,7 @@
         <v>33.689062453031241</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="12.75" customHeight="1">
+    <row r="323" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="18">
         <f t="shared" si="2"/>
         <v>321</v>
@@ -23786,7 +23712,7 @@
         <v>33.666137024579427</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="12.75" customHeight="1">
+    <row r="324" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="18">
         <f t="shared" si="2"/>
         <v>322</v>
@@ -23802,7 +23728,7 @@
         <v>33.645031011583839</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="12.75" customHeight="1">
+    <row r="325" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="18">
         <f t="shared" si="2"/>
         <v>323</v>
@@ -23818,7 +23744,7 @@
         <v>33.622414816501539</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="12.75" customHeight="1">
+    <row r="326" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="18">
         <f t="shared" si="2"/>
         <v>324</v>
@@ -23834,7 +23760,7 @@
         <v>33.59876538805554</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="12.75" customHeight="1">
+    <row r="327" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="18">
         <f t="shared" si="2"/>
         <v>325</v>
@@ -23850,7 +23776,7 @@
         <v>33.575630725323066</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="12.75" customHeight="1">
+    <row r="328" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="18">
         <f t="shared" si="2"/>
         <v>326</v>
@@ -23866,7 +23792,7 @@
         <v>33.55380363438649</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="12.75" customHeight="1">
+    <row r="329" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="18">
         <f t="shared" si="2"/>
         <v>327</v>
@@ -23882,7 +23808,7 @@
         <v>33.532079466574906</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="12.75" customHeight="1">
+    <row r="330" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="18">
         <f t="shared" si="2"/>
         <v>328</v>
@@ -23898,7 +23824,7 @@
         <v>33.510823125121938</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="12.75" customHeight="1">
+    <row r="331" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="18">
         <f t="shared" si="2"/>
         <v>329</v>
@@ -23914,7 +23840,7 @@
         <v>33.4886017805471</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="12.75" customHeight="1">
+    <row r="332" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="18">
         <f t="shared" si="2"/>
         <v>330</v>
@@ -23930,7 +23856,7 @@
         <v>33.468363593333315</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="12.75" customHeight="1">
+    <row r="333" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="18">
         <f t="shared" si="2"/>
         <v>331</v>
@@ -23946,7 +23872,7 @@
         <v>33.447673675649533</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="12.75" customHeight="1">
+    <row r="334" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="18">
         <f t="shared" si="2"/>
         <v>332</v>
@@ -23962,7 +23888,7 @@
         <v>33.427379475060221</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="12.75" customHeight="1">
+    <row r="335" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="18">
         <f t="shared" si="2"/>
         <v>333</v>
@@ -23978,7 +23904,7 @@
         <v>33.407237192282267</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="12.75" customHeight="1">
+    <row r="336" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="18">
         <f t="shared" si="2"/>
         <v>334</v>
@@ -23994,7 +23920,7 @@
         <v>33.388532888862258</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="12.75" customHeight="1">
+    <row r="337" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="18">
         <f t="shared" si="2"/>
         <v>335</v>
@@ -24010,7 +23936,7 @@
         <v>33.36955219573133</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="12.75" customHeight="1">
+    <row r="338" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="18">
         <f t="shared" si="2"/>
         <v>336</v>
@@ -24026,7 +23952,7 @@
         <v>33.34928566976189</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="12.75" customHeight="1">
+    <row r="339" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="18">
         <f t="shared" si="2"/>
         <v>337</v>
@@ -24042,7 +23968,7 @@
         <v>33.330356036646869</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="12.75" customHeight="1">
+    <row r="340" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="18">
         <f t="shared" si="2"/>
         <v>338</v>
@@ -24058,7 +23984,7 @@
         <v>33.311212973254428</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="12.75" customHeight="1">
+    <row r="341" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="18">
         <f t="shared" si="2"/>
         <v>339</v>
@@ -24074,7 +24000,7 @@
         <v>33.289498482949838</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="12.75" customHeight="1">
+    <row r="342" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="18">
         <f t="shared" si="2"/>
         <v>340</v>
@@ -24090,7 +24016,7 @@
         <v>33.267764662764691</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="12.75" customHeight="1">
+    <row r="343" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="18">
         <f t="shared" si="2"/>
         <v>341</v>
@@ -24106,7 +24032,7 @@
         <v>33.245806410645152</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="12.75" customHeight="1">
+    <row r="344" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="18">
         <f t="shared" si="2"/>
         <v>342</v>
@@ -24122,7 +24048,7 @@
         <v>33.223508733537997</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="12.75" customHeight="1">
+    <row r="345" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="18">
         <f t="shared" si="2"/>
         <v>343</v>
@@ -24138,7 +24064,7 @@
         <v>33.200932904985407</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="12.75" customHeight="1">
+    <row r="346" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="18">
         <f t="shared" si="2"/>
         <v>344</v>
@@ -24154,7 +24080,7 @@
         <v>33.177616240465106</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" s="18">
         <f t="shared" si="2"/>
         <v>345</v>
@@ -24170,7 +24096,7 @@
         <v>33.152985469652158</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" s="18">
         <f t="shared" si="2"/>
         <v>346</v>
@@ -24186,7 +24112,7 @@
         <v>33.128364413381483</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" s="18">
         <f t="shared" si="2"/>
         <v>347</v>
@@ -24202,7 +24128,7 @@
         <v>33.103412352564824</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" s="18">
         <f t="shared" si="2"/>
         <v>348</v>
@@ -24218,7 +24144,7 @@
         <v>33.078804848448264</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" s="18">
         <f t="shared" si="2"/>
         <v>349</v>
@@ -24234,7 +24160,7 @@
         <v>33.055026039971331</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" s="18">
         <f t="shared" si="2"/>
         <v>350</v>
@@ -24250,7 +24176,7 @@
         <v>33.030411681371412</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" s="18">
         <f t="shared" si="2"/>
         <v>351</v>
@@ -24266,7 +24192,7 @@
         <v>33.006878029857532</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" s="18">
         <f t="shared" si="2"/>
         <v>352</v>
@@ -24282,7 +24208,7 @@
         <v>32.983932353636348</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" s="18">
         <f t="shared" si="2"/>
         <v>353</v>
@@ -24298,9 +24224,9 @@
         <v>32.959955208158625</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" s="18">
-        <f t="shared" ref="A356:A462" si="3">A355+1</f>
+        <f t="shared" ref="A356:A443" si="3">A355+1</f>
         <v>354</v>
       </c>
       <c r="B356" s="19" t="s">
@@ -24314,7 +24240,7 @@
         <v>32.934475108700553</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" s="18">
         <f t="shared" si="3"/>
         <v>355</v>
@@ -24330,7 +24256,7 @@
         <v>32.90789912247886</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" s="18">
         <f t="shared" si="3"/>
         <v>356</v>
@@ -24346,7 +24272,7 @@
         <v>32.881472439550549</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" s="18">
         <f t="shared" si="3"/>
         <v>357</v>
@@ -24362,7 +24288,7 @@
         <v>32.85519380526609</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" s="18">
         <f t="shared" si="3"/>
         <v>358</v>
@@ -24378,7 +24304,7 @@
         <v>32.8285871186592</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" s="18">
         <f t="shared" si="3"/>
         <v>359</v>
@@ -24394,7 +24320,7 @@
         <v>32.801348714428954</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" s="18">
         <f t="shared" si="3"/>
         <v>360</v>
@@ -24410,7 +24336,7 @@
         <v>32.773872745777759</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" s="18">
         <f t="shared" si="3"/>
         <v>361</v>
@@ -24426,7 +24352,7 @@
         <v>32.746798306038762</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" s="18">
         <f t="shared" si="3"/>
         <v>362</v>
@@ -24442,7 +24368,7 @@
         <v>32.721144167071806</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" s="18">
         <f t="shared" si="3"/>
         <v>363</v>
@@ -24458,7 +24384,7 @@
         <v>32.694171318126706</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" s="18">
         <f t="shared" si="3"/>
         <v>364</v>
@@ -24474,7 +24400,7 @@
         <v>32.66762139881866</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" s="18">
         <f t="shared" si="3"/>
         <v>365</v>
@@ -24490,7 +24416,7 @@
         <v>32.640066271698615</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" s="18">
         <f t="shared" si="3"/>
         <v>366</v>
@@ -24506,7 +24432,7 @@
         <v>32.611104344508178</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" s="18">
         <f t="shared" si="3"/>
         <v>367</v>
@@ -24522,7 +24448,7 @@
         <v>32.582845203978181</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" s="18">
         <f t="shared" si="3"/>
         <v>368</v>
@@ -24538,7 +24464,7 @@
         <v>32.556587472663026</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" s="18">
         <f t="shared" si="3"/>
         <v>369</v>
@@ -24554,7 +24480,7 @@
         <v>32.530282358590767</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" s="18">
         <f t="shared" si="3"/>
         <v>370</v>
@@ -24570,7 +24496,7 @@
         <v>32.506281594432416</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" s="18">
         <f t="shared" si="3"/>
         <v>371</v>
@@ -24586,7 +24512,7 @@
         <v>32.482598892857126</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" s="18">
         <f t="shared" si="3"/>
         <v>372</v>
@@ -24602,7 +24528,7 @@
         <v>32.459392982876324</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375" s="18">
         <f t="shared" si="3"/>
         <v>373</v>
@@ -24618,7 +24544,7 @@
         <v>32.435614449812313</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" s="18">
         <f t="shared" si="3"/>
         <v>374</v>
@@ -24634,7 +24560,7 @@
         <v>32.411455051871634</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" s="18">
         <f t="shared" si="3"/>
         <v>375</v>
@@ -24650,7 +24576,7 @@
         <v>32.387264505466646</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378" s="18">
         <f t="shared" si="3"/>
         <v>376</v>
@@ -24666,7 +24592,7 @@
         <v>32.361846248590403</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379" s="18">
         <f t="shared" si="3"/>
         <v>377</v>
@@ -24682,7 +24608,7 @@
         <v>32.336324109389899</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380" s="18">
         <f t="shared" si="3"/>
         <v>378</v>
@@ -24698,7 +24624,7 @@
         <v>32.312101030555532</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381" s="18">
         <f t="shared" si="3"/>
         <v>379</v>
@@ -24714,7 +24640,7 @@
         <v>32.287425299815283</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" s="18">
         <f t="shared" si="3"/>
         <v>380</v>
@@ -24730,7 +24656,7 @@
         <v>32.260721547421028</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383" s="18">
         <f t="shared" si="3"/>
         <v>381</v>
@@ -24746,7 +24672,7 @@
         <v>32.234420440393677</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" s="18">
         <f t="shared" si="3"/>
         <v>382</v>
@@ -24762,7 +24688,7 @@
         <v>32.208335571335049</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" s="18">
         <f t="shared" si="3"/>
         <v>383</v>
@@ -24778,7 +24704,7 @@
         <v>32.183248534281958</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" s="18">
         <f t="shared" si="3"/>
         <v>384</v>
@@ -24794,7 +24720,7 @@
         <v>32.157979656692682</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" s="18">
         <f t="shared" si="3"/>
         <v>385</v>
@@ -24810,7 +24736,7 @@
         <v>32.134712179038935</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" s="18">
         <f t="shared" si="3"/>
         <v>386</v>
@@ -24826,7 +24752,7 @@
         <v>32.111539350932617</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389" s="18">
         <f t="shared" si="3"/>
         <v>387</v>
@@ -24842,7 +24768,7 @@
         <v>32.088072842764831</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390" s="18">
         <f t="shared" si="3"/>
         <v>388</v>
@@ -24858,7 +24784,7 @@
         <v>32.064031418505131</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391" s="18">
         <f t="shared" si="3"/>
         <v>389</v>
@@ -24874,7 +24800,7 @@
         <v>32.038982493753188</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392" s="18">
         <f t="shared" si="3"/>
         <v>390</v>
@@ -24890,7 +24816,7 @@
         <v>32.015472284384586</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393" s="18">
         <f t="shared" si="3"/>
         <v>391</v>
@@ -24906,7 +24832,7 @@
         <v>31.992133479028105</v>
       </c>
     </row>
-    <row r="394" spans="1:4">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394" s="18">
         <f t="shared" si="3"/>
         <v>392</v>
@@ -24922,7 +24848,7 @@
         <v>31.970342324132627</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395" s="18">
         <f t="shared" si="3"/>
         <v>393</v>
@@ -24938,7 +24864,7 @@
         <v>31.947847812264605</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396" s="18">
         <f t="shared" si="3"/>
         <v>394</v>
@@ -24954,7 +24880,7 @@
         <v>31.925162919923835</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397" s="18">
         <f t="shared" si="3"/>
         <v>395</v>
@@ -24970,7 +24896,7 @@
         <v>31.902643521873394</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398" s="18">
         <f t="shared" si="3"/>
         <v>396</v>
@@ -24986,7 +24912,7 @@
         <v>31.880162098838358</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" s="18">
         <f t="shared" si="3"/>
         <v>397</v>
@@ -25002,7 +24928,7 @@
         <v>31.856912319294686</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400" s="18">
         <f t="shared" si="3"/>
         <v>398</v>
@@ -25018,7 +24944,7 @@
         <v>31.833502994170832</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" s="18">
         <f t="shared" si="3"/>
         <v>399</v>
@@ -25034,7 +24960,7 @@
         <v>31.810135819323285</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="18">
         <f t="shared" si="3"/>
         <v>400</v>
@@ -25050,7 +24976,7 @@
         <v>31.786510481299977</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="18">
         <f t="shared" si="3"/>
         <v>401</v>
@@ -25066,7 +24992,7 @@
         <v>31.762603973266813</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="18">
         <f t="shared" si="3"/>
         <v>402</v>
@@ -25082,7 +25008,7 @@
         <v>31.740060184179082</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="18">
         <f t="shared" si="3"/>
         <v>403</v>
@@ -25098,7 +25024,7 @@
         <v>31.717901224590552</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="18">
         <f t="shared" si="3"/>
         <v>404</v>
@@ -25114,7 +25040,7 @@
         <v>31.696743053440571</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="18">
         <f t="shared" si="3"/>
         <v>405</v>
@@ -25130,7 +25056,7 @@
         <v>31.675343689580224</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="18">
         <f t="shared" si="3"/>
         <v>406</v>
@@ -25146,7 +25072,7 @@
         <v>31.654517718201948</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="18">
         <f t="shared" si="3"/>
         <v>407</v>
@@ -25162,7 +25088,7 @@
         <v>31.634383765773933</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="18">
         <f t="shared" si="3"/>
         <v>408</v>
@@ -25178,7 +25104,7 @@
         <v>31.614814196789194</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="18">
         <f t="shared" si="3"/>
         <v>409</v>
@@ -25194,7 +25120,7 @@
         <v>31.595291421638123</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="18">
         <f t="shared" si="3"/>
         <v>410</v>
@@ -25210,7 +25136,7 @@
         <v>31.576376077073149</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" s="18">
         <f t="shared" si="3"/>
         <v>411</v>
@@ -25226,7 +25152,7 @@
         <v>31.556968836934285</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="18">
         <f t="shared" si="3"/>
         <v>412</v>
@@ -25242,7 +25168,7 @@
         <v>31.537000465776678</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="18">
         <f t="shared" si="3"/>
         <v>413</v>
@@ -25258,7 +25184,7 @@
         <v>31.51698351661015</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="18">
         <f t="shared" si="3"/>
         <v>414</v>
@@ -25274,7 +25200,7 @@
         <v>31.497618822125581</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="18">
         <f t="shared" si="3"/>
         <v>415</v>
@@ -25290,7 +25216,7 @@
         <v>31.477986006602389</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="18">
         <f t="shared" si="3"/>
         <v>416</v>
@@ -25306,7 +25232,7 @@
         <v>31.457798540048056</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419" s="18">
         <f t="shared" si="3"/>
         <v>417</v>
@@ -25322,7 +25248,7 @@
         <v>31.436820603693025</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" s="18">
         <f t="shared" si="3"/>
         <v>418</v>
@@ -25338,7 +25264,7 @@
         <v>31.415703809449742</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" s="18">
         <f t="shared" si="3"/>
         <v>419</v>
@@ -25354,7 +25280,7 @@
         <v>31.394544609999983</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" s="18">
         <f t="shared" si="3"/>
         <v>420</v>
@@ -25370,7 +25296,7 @@
         <v>31.373248077023792</v>
       </c>
     </row>
-    <row r="423" spans="1:4">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" s="18">
         <f t="shared" si="3"/>
         <v>421</v>
@@ -25386,7 +25312,7 @@
         <v>31.352860316555802</v>
       </c>
     </row>
-    <row r="424" spans="1:4">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" s="18">
         <f t="shared" si="3"/>
         <v>422</v>
@@ -25402,7 +25328,7 @@
         <v>31.333066808696664</v>
       </c>
     </row>
-    <row r="425" spans="1:4">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" s="18">
         <f t="shared" si="3"/>
         <v>423</v>
@@ -25418,7 +25344,7 @@
         <v>31.312728588203292</v>
       </c>
     </row>
-    <row r="426" spans="1:4">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" s="18">
         <f t="shared" si="3"/>
         <v>424</v>
@@ -25434,7 +25360,7 @@
         <v>31.292557059056588</v>
       </c>
     </row>
-    <row r="427" spans="1:4">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" s="18">
         <f t="shared" si="3"/>
         <v>425</v>
@@ -25450,7 +25376,7 @@
         <v>31.272433394847042</v>
       </c>
     </row>
-    <row r="428" spans="1:4">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" s="18">
         <f t="shared" si="3"/>
         <v>426</v>
@@ -25466,7 +25392,7 @@
         <v>31.252615475892004</v>
       </c>
     </row>
-    <row r="429" spans="1:4">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" s="18">
         <f t="shared" si="3"/>
         <v>427</v>
@@ -25482,7 +25408,7 @@
         <v>31.234248694566734</v>
       </c>
     </row>
-    <row r="430" spans="1:4">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" s="18">
         <f t="shared" si="3"/>
         <v>428</v>
@@ -25498,7 +25424,7 @@
         <v>31.216178020046716</v>
       </c>
     </row>
-    <row r="431" spans="1:4">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" s="18">
         <f t="shared" si="3"/>
         <v>429</v>
@@ -25514,7 +25440,7 @@
         <v>31.198378071095561</v>
       </c>
     </row>
-    <row r="432" spans="1:4">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" s="18">
         <f t="shared" si="3"/>
         <v>430</v>
@@ -25530,7 +25456,7 @@
         <v>31.181219051604643</v>
       </c>
     </row>
-    <row r="433" spans="1:4">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" s="18">
         <f t="shared" si="3"/>
         <v>431</v>
@@ -25546,7 +25472,7 @@
         <v>31.163745224617159</v>
       </c>
     </row>
-    <row r="434" spans="1:4">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="18">
         <f t="shared" si="3"/>
         <v>432</v>
@@ -25562,7 +25488,7 @@
         <v>31.146653223379619</v>
       </c>
     </row>
-    <row r="435" spans="1:4">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="18">
         <f t="shared" si="3"/>
         <v>433</v>
@@ -25578,7 +25504,7 @@
         <v>31.13037919833717</v>
       </c>
     </row>
-    <row r="436" spans="1:4">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="18">
         <f t="shared" si="3"/>
         <v>434</v>
@@ -25594,7 +25520,7 @@
         <v>31.114986621290313</v>
       </c>
     </row>
-    <row r="437" spans="1:4">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="18">
         <f t="shared" si="3"/>
         <v>435</v>
@@ -25610,7 +25536,7 @@
         <v>31.099825733563208</v>
       </c>
     </row>
-    <row r="438" spans="1:4">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="18">
         <f t="shared" si="3"/>
         <v>436</v>
@@ -25626,7 +25552,7 @@
         <v>31.084757327499986</v>
       </c>
     </row>
-    <row r="439" spans="1:4">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="18">
         <f t="shared" si="3"/>
         <v>437</v>
@@ -25642,7 +25568,7 @@
         <v>31.0702384314874</v>
       </c>
     </row>
-    <row r="440" spans="1:4">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="18">
         <f t="shared" si="3"/>
         <v>438</v>
@@ -25658,7 +25584,7 @@
         <v>31.055991311598159</v>
       </c>
     </row>
-    <row r="441" spans="1:4">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="18">
         <f t="shared" si="3"/>
         <v>439</v>
@@ -25674,7 +25600,7 @@
         <v>31.042583586697024</v>
       </c>
     </row>
-    <row r="442" spans="1:4">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="18">
         <f t="shared" si="3"/>
         <v>440</v>
@@ -25690,7 +25616,7 @@
         <v>31.028623168590894</v>
       </c>
     </row>
-    <row r="443" spans="1:4">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="18">
         <f t="shared" si="3"/>
         <v>441</v>
@@ -25704,310 +25630,6 @@
       <c r="D443" s="18">
         <f>SUM(C$3:C443)/A443</f>
         <v>31.014726063038534</v>
-      </c>
-    </row>
-    <row r="444" spans="1:4">
-      <c r="A444" s="18">
-        <f t="shared" si="3"/>
-        <v>442</v>
-      </c>
-      <c r="B444" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="C444" s="20">
-        <v>25.239999770000001</v>
-      </c>
-      <c r="D444" s="18">
-        <f>SUM(C$3:C444)/A444</f>
-        <v>31.001661071425325</v>
-      </c>
-    </row>
-    <row r="445" spans="1:4">
-      <c r="A445" s="18">
-        <f t="shared" si="3"/>
-        <v>443</v>
-      </c>
-      <c r="B445" s="19" t="s">
-        <v>285</v>
-      </c>
-      <c r="C445" s="20">
-        <v>25.129999160000001</v>
-      </c>
-      <c r="D445" s="18">
-        <f>SUM(C$3:C445)/A445</f>
-        <v>30.988406755598181</v>
-      </c>
-    </row>
-    <row r="446" spans="1:4">
-      <c r="A446" s="18">
-        <f t="shared" si="3"/>
-        <v>444</v>
-      </c>
-      <c r="B446" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="C446" s="20">
-        <v>24.93000031</v>
-      </c>
-      <c r="D446" s="18">
-        <f>SUM(C$3:C446)/A446</f>
-        <v>30.974761696036023</v>
-      </c>
-    </row>
-    <row r="447" spans="1:4">
-      <c r="A447" s="18">
-        <f t="shared" si="3"/>
-        <v>445</v>
-      </c>
-      <c r="B447" s="19" t="s">
-        <v>287</v>
-      </c>
-      <c r="C447" s="20">
-        <v>24.600000380000001</v>
-      </c>
-      <c r="D447" s="18">
-        <f>SUM(C$3:C447)/A447</f>
-        <v>30.960436389707851</v>
-      </c>
-    </row>
-    <row r="448" spans="1:4">
-      <c r="A448" s="18">
-        <f t="shared" si="3"/>
-        <v>446</v>
-      </c>
-      <c r="B448" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="C448" s="20">
-        <v>24.61000061</v>
-      </c>
-      <c r="D448" s="18">
-        <f>SUM(C$3:C448)/A448</f>
-        <v>30.94619774446187</v>
-      </c>
-    </row>
-    <row r="449" spans="1:4">
-      <c r="A449" s="18">
-        <f t="shared" si="3"/>
-        <v>447</v>
-      </c>
-      <c r="B449" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="C449" s="20">
-        <v>24.5</v>
-      </c>
-      <c r="D449" s="18">
-        <f>SUM(C$3:C449)/A449</f>
-        <v>30.931776720425042</v>
-      </c>
-    </row>
-    <row r="450" spans="1:4">
-      <c r="A450" s="18">
-        <f t="shared" si="3"/>
-        <v>448</v>
-      </c>
-      <c r="B450" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="C450" s="20">
-        <v>24.870000839999999</v>
-      </c>
-      <c r="D450" s="18">
-        <f>SUM(C$3:C450)/A450</f>
-        <v>30.918245970691949</v>
-      </c>
-    </row>
-    <row r="451" spans="1:4">
-      <c r="A451" s="18">
-        <f t="shared" si="3"/>
-        <v>449</v>
-      </c>
-      <c r="B451" s="19" t="s">
-        <v>291</v>
-      </c>
-      <c r="C451" s="20">
-        <v>24.63999939</v>
-      </c>
-      <c r="D451" s="18">
-        <f>SUM(C$3:C451)/A451</f>
-        <v>30.904263238886397</v>
-      </c>
-    </row>
-    <row r="452" spans="1:4">
-      <c r="A452" s="18">
-        <f t="shared" si="3"/>
-        <v>450</v>
-      </c>
-      <c r="B452" s="19" t="s">
-        <v>292</v>
-      </c>
-      <c r="C452" s="20">
-        <v>24.879999160000001</v>
-      </c>
-      <c r="D452" s="18">
-        <f>SUM(C$3:C452)/A452</f>
-        <v>30.890875985377765</v>
-      </c>
-    </row>
-    <row r="453" spans="1:4">
-      <c r="A453" s="18">
-        <f t="shared" si="3"/>
-        <v>451</v>
-      </c>
-      <c r="B453" s="19" t="s">
-        <v>293</v>
-      </c>
-      <c r="C453" s="20">
-        <v>24.809999470000001</v>
-      </c>
-      <c r="D453" s="18">
-        <f>SUM(C$3:C453)/A453</f>
-        <v>30.87739288889134</v>
-      </c>
-    </row>
-    <row r="454" spans="1:4">
-      <c r="A454" s="18">
-        <f t="shared" si="3"/>
-        <v>452</v>
-      </c>
-      <c r="B454" s="19" t="s">
-        <v>294</v>
-      </c>
-      <c r="C454" s="20">
-        <v>24.739999770000001</v>
-      </c>
-      <c r="D454" s="18">
-        <f>SUM(C$3:C454)/A454</f>
-        <v>30.86381458553096</v>
-      </c>
-    </row>
-    <row r="455" spans="1:4">
-      <c r="A455" s="18">
-        <f t="shared" si="3"/>
-        <v>453</v>
-      </c>
-      <c r="B455" s="19" t="s">
-        <v>295</v>
-      </c>
-      <c r="C455" s="20">
-        <v>24.489999770000001</v>
-      </c>
-      <c r="D455" s="18">
-        <f>SUM(C$3:C455)/A455</f>
-        <v>30.849744354150097</v>
-      </c>
-    </row>
-    <row r="456" spans="1:4">
-      <c r="A456" s="18">
-        <f t="shared" si="3"/>
-        <v>454</v>
-      </c>
-      <c r="B456" s="19" t="s">
-        <v>296</v>
-      </c>
-      <c r="C456" s="20">
-        <v>23.950000760000002</v>
-      </c>
-      <c r="D456" s="18">
-        <f>SUM(C$3:C456)/A456</f>
-        <v>30.834546681035228</v>
-      </c>
-    </row>
-    <row r="457" spans="1:4">
-      <c r="A457" s="18">
-        <f t="shared" si="3"/>
-        <v>455</v>
-      </c>
-      <c r="B457" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="C457" s="20">
-        <v>24.409999849999998</v>
-      </c>
-      <c r="D457" s="18">
-        <f>SUM(C$3:C457)/A457</f>
-        <v>30.820426797890097</v>
-      </c>
-    </row>
-    <row r="458" spans="1:4">
-      <c r="A458" s="18">
-        <f t="shared" si="3"/>
-        <v>456</v>
-      </c>
-      <c r="B458" s="19" t="s">
-        <v>298</v>
-      </c>
-      <c r="C458" s="20">
-        <v>24.399999619999999</v>
-      </c>
-      <c r="D458" s="18">
-        <f>SUM(C$3:C458)/A458</f>
-        <v>30.806346913728056</v>
-      </c>
-    </row>
-    <row r="459" spans="1:4">
-      <c r="A459" s="18">
-        <f t="shared" si="3"/>
-        <v>457</v>
-      </c>
-      <c r="B459" s="19" t="s">
-        <v>299</v>
-      </c>
-      <c r="C459" s="20">
-        <v>24.200000760000002</v>
-      </c>
-      <c r="D459" s="18">
-        <f>SUM(C$3:C459)/A459</f>
-        <v>30.791891014048126</v>
-      </c>
-    </row>
-    <row r="460" spans="1:4">
-      <c r="A460" s="18">
-        <f t="shared" si="3"/>
-        <v>458</v>
-      </c>
-      <c r="B460" s="19" t="s">
-        <v>300</v>
-      </c>
-      <c r="C460" s="20">
-        <v>24.229999540000001</v>
-      </c>
-      <c r="D460" s="18">
-        <f>SUM(C$3:C460)/A460</f>
-        <v>30.777563740087324</v>
-      </c>
-    </row>
-    <row r="461" spans="1:4">
-      <c r="A461" s="18">
-        <f t="shared" si="3"/>
-        <v>459</v>
-      </c>
-      <c r="B461" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="C461" s="20">
-        <v>24.020000459999999</v>
-      </c>
-      <c r="D461" s="18">
-        <f>SUM(C$3:C461)/A461</f>
-        <v>30.762841379999987</v>
-      </c>
-    </row>
-    <row r="462" spans="1:4">
-      <c r="A462" s="18">
-        <f t="shared" si="3"/>
-        <v>460</v>
-      </c>
-      <c r="B462" s="19">
-        <v>44984</v>
-      </c>
-      <c r="C462" s="20">
-        <v>23.780000690000001</v>
-      </c>
-      <c r="D462" s="18">
-        <f>SUM(C$3:C462)/A462</f>
-        <v>30.747661291543466</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1prac.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1prac.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="302">
   <si>
     <t>PE</t>
   </si>
@@ -1146,6 +1146,78 @@
   </si>
   <si>
     <t xml:space="preserve">2023/1/20
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/3
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/6
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/7
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/8
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/9
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/10
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/13
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/14
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/15
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/16
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/17
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/20
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/21
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/22
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/23
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/24
 </t>
   </si>
 </sst>
@@ -1160,7 +1232,7 @@
     <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="180" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1663,6 +1735,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2381,11 +2454,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="263802240"/>
-        <c:axId val="263804032"/>
+        <c:axId val="159476736"/>
+        <c:axId val="159482624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="263802240"/>
+        <c:axId val="159476736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2428,7 +2501,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="263804032"/>
+        <c:crossAx val="159482624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2436,7 +2509,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="263804032"/>
+        <c:axId val="159482624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2487,7 +2560,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="263802240"/>
+        <c:crossAx val="159476736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2501,6 +2574,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16997,7 +17071,7 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -17018,7 +17092,7 @@
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" s="10" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>180</v>
       </c>
@@ -17048,7 +17122,7 @@
       </c>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" ht="14.1" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="4">
@@ -17064,7 +17138,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="14.1" customHeight="1">
       <c r="A3" s="14">
         <v>43889</v>
       </c>
@@ -17133,7 +17207,7 @@
         <v>-22000</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="14.1" customHeight="1">
       <c r="A4" s="14">
         <v>43921</v>
       </c>
@@ -17208,7 +17282,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="14.1" customHeight="1">
       <c r="A5" s="14">
         <v>43951</v>
       </c>
@@ -17278,7 +17352,7 @@
         <v>53008.069006718506</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" ht="14.1" customHeight="1">
       <c r="A6" s="14">
         <v>43980</v>
       </c>
@@ -17320,7 +17394,7 @@
         <v>9.9835199022272558E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" ht="14.1" customHeight="1">
       <c r="A7" s="14">
         <v>44012</v>
       </c>
@@ -17358,7 +17432,7 @@
       </c>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" ht="14.1" customHeight="1">
       <c r="A8" s="14">
         <v>44043</v>
       </c>
@@ -17396,7 +17470,7 @@
       </c>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" ht="14.1" customHeight="1">
       <c r="A9" s="14">
         <v>44074</v>
       </c>
@@ -17434,7 +17508,7 @@
       </c>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" ht="14.1" customHeight="1">
       <c r="A10" s="14">
         <v>44104</v>
       </c>
@@ -17472,7 +17546,7 @@
       </c>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" ht="14.1" customHeight="1">
       <c r="A11" s="14">
         <v>44134</v>
       </c>
@@ -17510,7 +17584,7 @@
       </c>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" ht="14.1" customHeight="1">
       <c r="A12" s="14">
         <v>44165</v>
       </c>
@@ -17548,7 +17622,7 @@
       </c>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" ht="14.1" customHeight="1">
       <c r="A13" s="14">
         <v>44196</v>
       </c>
@@ -17586,7 +17660,7 @@
       </c>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" ht="14.1" customHeight="1">
       <c r="A14" s="14">
         <v>44225</v>
       </c>
@@ -17624,7 +17698,7 @@
       </c>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" ht="14.1" customHeight="1">
       <c r="A15" s="14">
         <v>44253</v>
       </c>
@@ -17662,7 +17736,7 @@
       </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" ht="14.1" customHeight="1">
       <c r="A16" s="14">
         <v>44286</v>
       </c>
@@ -17700,7 +17774,7 @@
       </c>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="14.1" customHeight="1">
       <c r="A17" s="14">
         <v>44316</v>
       </c>
@@ -17738,7 +17812,7 @@
       </c>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="14.1" customHeight="1">
       <c r="A18" s="14">
         <v>44347</v>
       </c>
@@ -17776,7 +17850,7 @@
       </c>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="14.1" customHeight="1">
       <c r="A19" s="14">
         <v>44377</v>
       </c>
@@ -17814,7 +17888,7 @@
       </c>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="14.1" customHeight="1">
       <c r="A20" s="14">
         <v>44407</v>
       </c>
@@ -17852,7 +17926,7 @@
       </c>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="14.1" customHeight="1">
       <c r="A21" s="14">
         <v>44439</v>
       </c>
@@ -17891,7 +17965,7 @@
       <c r="J21" s="6"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="14.1" customHeight="1">
       <c r="A22" s="14">
         <v>44469</v>
       </c>
@@ -17929,7 +18003,7 @@
       </c>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="14.1" customHeight="1">
       <c r="A23" s="14">
         <v>44498</v>
       </c>
@@ -17967,7 +18041,7 @@
       </c>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="14.1" customHeight="1">
       <c r="A24" s="14">
         <v>44530</v>
       </c>
@@ -18005,7 +18079,7 @@
       </c>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="14.1" customHeight="1">
       <c r="A25" s="14">
         <v>44561</v>
       </c>
@@ -18043,7 +18117,7 @@
       </c>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="14.1" customHeight="1">
       <c r="A26" s="14">
         <v>44589</v>
       </c>
@@ -18081,7 +18155,7 @@
       </c>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="14.1" customHeight="1">
       <c r="A27" s="14">
         <v>44620</v>
       </c>
@@ -18119,7 +18193,7 @@
       </c>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="14.1" customHeight="1">
       <c r="A28" s="14">
         <v>44651</v>
       </c>
@@ -18157,7 +18231,7 @@
       </c>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="14.1" customHeight="1">
       <c r="A29" s="14">
         <v>44680</v>
       </c>
@@ -18195,7 +18269,7 @@
       </c>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="14.1" customHeight="1">
       <c r="A30" s="14">
         <v>44712</v>
       </c>
@@ -18233,7 +18307,7 @@
       </c>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="14.1" customHeight="1">
       <c r="A31" s="14">
         <v>44742</v>
       </c>
@@ -18271,7 +18345,7 @@
       </c>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="14.1" customHeight="1">
       <c r="A32" s="14">
         <v>44771</v>
       </c>
@@ -18309,7 +18383,7 @@
       </c>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="14.1" customHeight="1">
       <c r="A33" s="14">
         <v>44804</v>
       </c>
@@ -18348,7 +18422,7 @@
       <c r="J33" s="6"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="12.75">
       <c r="A34" s="14">
         <v>44834</v>
       </c>
@@ -18385,7 +18459,7 @@
         <v>-11770.911062729705</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="12.75">
       <c r="A35" s="14">
         <v>44865</v>
       </c>
@@ -18422,7 +18496,7 @@
         <v>-12524.925264431353</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="12.75">
       <c r="A36" s="14">
         <v>44895</v>
       </c>
@@ -18459,7 +18533,7 @@
         <v>-9593.1455874388703</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="12.75">
       <c r="A37" s="14">
         <v>44925</v>
       </c>
@@ -18496,7 +18570,7 @@
         <v>-9706.5932891467164</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="12.75">
       <c r="A38" s="14">
         <v>44957</v>
       </c>
@@ -18546,13 +18620,13 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D443"/>
+  <dimension ref="A1:D462"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9" style="18"/>
     <col min="2" max="2" width="8.5" style="18" customWidth="1"/>
@@ -18560,7 +18634,7 @@
     <col min="4" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="12.75" customHeight="1">
       <c r="B1" s="30" t="s">
         <v>194</v>
       </c>
@@ -18568,7 +18642,7 @@
         <v>399088</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="12.75" customHeight="1">
       <c r="B2" s="30"/>
       <c r="C2" s="28" t="s">
         <v>0</v>
@@ -18577,7 +18651,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="12.75" customHeight="1">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -18592,7 +18666,7 @@
         <v>45.12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="12.75" customHeight="1">
       <c r="A4" s="18">
         <f t="shared" ref="A4:A36" si="0">A3+1</f>
         <v>2</v>
@@ -18608,7 +18682,7 @@
         <v>44.965000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="12.75" customHeight="1">
       <c r="A5" s="18">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -18624,7 +18698,7 @@
         <v>44.99666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="12.75" customHeight="1">
       <c r="A6" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -18640,7 +18714,7 @@
         <v>44.792500000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="12.75" customHeight="1">
       <c r="A7" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -18656,7 +18730,7 @@
         <v>44.440000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="12.75" customHeight="1">
       <c r="A8" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -18672,7 +18746,7 @@
         <v>44.256666666666668</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="12.75" customHeight="1">
       <c r="A9" s="18">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -18688,7 +18762,7 @@
         <v>44.252857142857145</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="12.75" customHeight="1">
       <c r="A10" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -18704,7 +18778,7 @@
         <v>44.220000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="12.75" customHeight="1">
       <c r="A11" s="18">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -18720,7 +18794,7 @@
         <v>44.181111111111115</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="12.75" customHeight="1">
       <c r="A12" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -18736,7 +18810,7 @@
         <v>44.341000000000008</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="12.75" customHeight="1">
       <c r="A13" s="18">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -18752,7 +18826,7 @@
         <v>44.458181818181828</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="12.75" customHeight="1">
       <c r="A14" s="18">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -18768,7 +18842,7 @@
         <v>44.577500000000008</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="12.75" customHeight="1">
       <c r="A15" s="18">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -18784,7 +18858,7 @@
         <v>44.703076923076928</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="12.75" customHeight="1">
       <c r="A16" s="18">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -18800,7 +18874,7 @@
         <v>44.860000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="12.75" customHeight="1">
       <c r="A17" s="18">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -18816,7 +18890,7 @@
         <v>44.968000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="12.75" customHeight="1">
       <c r="A18" s="18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -18832,7 +18906,7 @@
         <v>45.078750000000007</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="12.75" customHeight="1">
       <c r="A19" s="18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -18848,7 +18922,7 @@
         <v>45.214117647058828</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="12.75" customHeight="1">
       <c r="A20" s="18">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -18864,7 +18938,7 @@
         <v>45.345555555555563</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="12.75" customHeight="1">
       <c r="A21" s="18">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -18880,7 +18954,7 @@
         <v>45.46631578947369</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="12.75" customHeight="1">
       <c r="A22" s="18">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -18896,7 +18970,7 @@
         <v>45.062500000000007</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="12.75" customHeight="1">
       <c r="A23" s="18">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -18912,7 +18986,7 @@
         <v>44.643333333333338</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="12.75" customHeight="1">
       <c r="A24" s="18">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -18928,7 +19002,7 @@
         <v>44.269090909090913</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="12.75" customHeight="1">
       <c r="A25" s="18">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -18944,7 +19018,7 @@
         <v>43.928695652173921</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="12.75" customHeight="1">
       <c r="A26" s="18">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -18960,7 +19034,7 @@
         <v>43.627500000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="12.75" customHeight="1">
       <c r="A27" s="18">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -18976,7 +19050,7 @@
         <v>43.332400000000007</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="12.75" customHeight="1">
       <c r="A28" s="18">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -18992,7 +19066,7 @@
         <v>43.088461538461544</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="12.75" customHeight="1">
       <c r="A29" s="18">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -19008,7 +19082,7 @@
         <v>42.901851851851859</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="12.75" customHeight="1">
       <c r="A30" s="18">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -19024,7 +19098,7 @@
         <v>42.726071428571437</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="12.75" customHeight="1">
       <c r="A31" s="18">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -19040,7 +19114,7 @@
         <v>42.570000000000007</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="12.75" customHeight="1">
       <c r="A32" s="18">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -19056,7 +19130,7 @@
         <v>42.435000000000009</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="12.75" customHeight="1">
       <c r="A33" s="18">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -19072,7 +19146,7 @@
         <v>42.298387096774199</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="12.75" customHeight="1">
       <c r="A34" s="18">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -19088,7 +19162,7 @@
         <v>42.179062500000008</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="12.75" customHeight="1">
       <c r="A35" s="18">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -19104,7 +19178,7 @@
         <v>42.093333333333341</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="12.75" customHeight="1">
       <c r="A36" s="18">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -19120,7 +19194,7 @@
         <v>42.005000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="12.75" customHeight="1">
       <c r="A37" s="18">
         <f t="shared" ref="A37:A100" si="1">A36+1</f>
         <v>35</v>
@@ -19136,7 +19210,7 @@
         <v>41.929428571428573</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="12.75" customHeight="1">
       <c r="A38" s="18">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -19152,7 +19226,7 @@
         <v>41.856666666666662</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="12.75" customHeight="1">
       <c r="A39" s="18">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -19168,7 +19242,7 @@
         <v>41.802432432432425</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="12.75" customHeight="1">
       <c r="A40" s="18">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -19184,7 +19258,7 @@
         <v>41.751315789473679</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="12.75" customHeight="1">
       <c r="A41" s="18">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -19200,7 +19274,7 @@
         <v>41.689999999999991</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="12.75" customHeight="1">
       <c r="A42" s="18">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -19216,7 +19290,7 @@
         <v>41.621999999999993</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="12.75" customHeight="1">
       <c r="A43" s="18">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -19232,7 +19306,7 @@
         <v>41.5680487804878</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="12.75" customHeight="1">
       <c r="A44" s="18">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -19248,7 +19322,7 @@
         <v>41.512380952380944</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="12.75" customHeight="1">
       <c r="A45" s="18">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -19264,7 +19338,7 @@
         <v>41.454186046511623</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="12.75" customHeight="1">
       <c r="A46" s="18">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -19280,7 +19354,7 @@
         <v>41.399318181818174</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="12.75" customHeight="1">
       <c r="A47" s="18">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -19296,7 +19370,7 @@
         <v>41.36044444444444</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="12.75" customHeight="1">
       <c r="A48" s="18">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -19312,7 +19386,7 @@
         <v>41.322391304347818</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="12.75" customHeight="1">
       <c r="A49" s="18">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -19328,7 +19402,7 @@
         <v>41.285319148936161</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="12.75" customHeight="1">
       <c r="A50" s="18">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -19344,7 +19418,7 @@
         <v>41.222499999999989</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="12.75" customHeight="1">
       <c r="A51" s="18">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -19360,7 +19434,7 @@
         <v>41.174693877551015</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="12.75" customHeight="1">
       <c r="A52" s="18">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -19376,7 +19450,7 @@
         <v>41.139199999999988</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="12.75" customHeight="1">
       <c r="A53" s="18">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -19392,7 +19466,7 @@
         <v>41.106862745098027</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="12.75" customHeight="1">
       <c r="A54" s="18">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -19408,7 +19482,7 @@
         <v>41.078653846153834</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="12.75" customHeight="1">
       <c r="A55" s="18">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -19424,7 +19498,7 @@
         <v>41.062452830188661</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="12.75" customHeight="1">
       <c r="A56" s="18">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -19440,7 +19514,7 @@
         <v>41.045555555555538</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="12.75" customHeight="1">
       <c r="A57" s="18">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -19456,7 +19530,7 @@
         <v>41.038181818181798</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" ht="12.75" customHeight="1">
       <c r="A58" s="18">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -19472,7 +19546,7 @@
         <v>41.038928571428549</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="12.75" customHeight="1">
       <c r="A59" s="18">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -19488,7 +19562,7 @@
         <v>41.034736842105247</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="12.75" customHeight="1">
       <c r="A60" s="18">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -19504,7 +19578,7 @@
         <v>41.041896551724122</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="12.75" customHeight="1">
       <c r="A61" s="18">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -19520,7 +19594,7 @@
         <v>41.046101694915237</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" ht="12.75" customHeight="1">
       <c r="A62" s="18">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -19536,7 +19610,7 @@
         <v>41.029166666666654</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" ht="12.75" customHeight="1">
       <c r="A63" s="18">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -19552,7 +19626,7 @@
         <v>41.015737704918017</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" ht="12.75" customHeight="1">
       <c r="A64" s="18">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -19568,7 +19642,7 @@
         <v>40.997580645161271</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" ht="12.75" customHeight="1">
       <c r="A65" s="18">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -19584,7 +19658,7 @@
         <v>40.997301587301571</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="12.75" customHeight="1">
       <c r="A66" s="18">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -19600,7 +19674,7 @@
         <v>40.998281249999984</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" ht="12.75" customHeight="1">
       <c r="A67" s="18">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -19616,7 +19690,7 @@
         <v>40.994153846153829</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="12.75" customHeight="1">
       <c r="A68" s="18">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -19632,7 +19706,7 @@
         <v>41.006060606060593</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" ht="12.75" customHeight="1">
       <c r="A69" s="18">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -19648,7 +19722,7 @@
         <v>41.01641791044775</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" ht="12.75" customHeight="1">
       <c r="A70" s="18">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -19664,7 +19738,7 @@
         <v>41.020294117647047</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" ht="12.75" customHeight="1">
       <c r="A71" s="18">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -19680,7 +19754,7 @@
         <v>41.027826086956509</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" ht="12.75" customHeight="1">
       <c r="A72" s="18">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -19696,7 +19770,7 @@
         <v>41.021428571428558</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" ht="12.75" customHeight="1">
       <c r="A73" s="18">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -19712,7 +19786,7 @@
         <v>41.019295774647873</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" ht="12.75" customHeight="1">
       <c r="A74" s="18">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -19728,7 +19802,7 @@
         <v>41.017499999999984</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" ht="12.75" customHeight="1">
       <c r="A75" s="18">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -19744,7 +19818,7 @@
         <v>41.027123287671216</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" ht="12.75" customHeight="1">
       <c r="A76" s="18">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -19760,7 +19834,7 @@
         <v>41.036081081081065</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" ht="12.75" customHeight="1">
       <c r="A77" s="18">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -19776,7 +19850,7 @@
         <v>41.035466666666643</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" ht="12.75" customHeight="1">
       <c r="A78" s="18">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -19792,7 +19866,7 @@
         <v>41.020526335866805</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" ht="12.75" customHeight="1">
       <c r="A79" s="18">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -19808,7 +19882,7 @@
         <v>40.984025981952598</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" ht="12.75" customHeight="1">
       <c r="A80" s="18">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -19824,7 +19898,7 @@
         <v>40.953717942849167</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" ht="12.75" customHeight="1">
       <c r="A81" s="18">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -19840,7 +19914,7 @@
         <v>40.943164537647085</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" ht="12.75" customHeight="1">
       <c r="A82" s="18">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -19856,7 +19930,7 @@
         <v>40.930499984741189</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" ht="12.75" customHeight="1">
       <c r="A83" s="18">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -19872,7 +19946,7 @@
         <v>40.927160476872935</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" ht="12.75" customHeight="1">
       <c r="A84" s="18">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -19888,7 +19962,7 @@
         <v>40.921951202764724</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" ht="12.75" customHeight="1">
       <c r="A85" s="18">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -19904,7 +19978,7 @@
         <v>40.929036107810127</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" ht="12.75" customHeight="1">
       <c r="A86" s="18">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -19920,7 +19994,7 @@
         <v>40.931428547813759</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" ht="12.75" customHeight="1">
       <c r="A87" s="18">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -19936,7 +20010,7 @@
         <v>40.92988232062843</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" ht="12.75" customHeight="1">
       <c r="A88" s="18">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -19952,7 +20026,7 @@
         <v>40.928372052214847</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" ht="12.75" customHeight="1">
       <c r="A89" s="18">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -19968,7 +20042,7 @@
         <v>40.927701096808754</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" ht="12.75" customHeight="1">
       <c r="A90" s="18">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -19984,7 +20058,7 @@
         <v>40.924090864008107</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" ht="12.75" customHeight="1">
       <c r="A91" s="18">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -20000,7 +20074,7 @@
         <v>40.917528047025854</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" ht="12.75" customHeight="1">
       <c r="A92" s="18">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -20016,7 +20090,7 @@
         <v>40.904444420708536</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" ht="12.75" customHeight="1">
       <c r="A93" s="18">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -20032,7 +20106,7 @@
         <v>40.886703283288959</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" ht="12.75" customHeight="1">
       <c r="A94" s="18">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -20048,7 +20122,7 @@
         <v>40.859891271176529</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" ht="12.75" customHeight="1">
       <c r="A95" s="18">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -20064,7 +20138,7 @@
         <v>40.836344033518131</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" ht="12.75" customHeight="1">
       <c r="A96" s="18">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -20080,7 +20154,7 @@
         <v>40.815851010261682</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" ht="12.75" customHeight="1">
       <c r="A97" s="18">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -20096,7 +20170,7 @@
         <v>40.787684151097331</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" ht="12.75" customHeight="1">
       <c r="A98" s="18">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -20112,7 +20186,7 @@
         <v>40.770416618982935</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" ht="12.75" customHeight="1">
       <c r="A99" s="18">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -20128,7 +20202,7 @@
         <v>40.756804084384548</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" ht="12.75" customHeight="1">
       <c r="A100" s="18">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -20144,7 +20218,7 @@
         <v>40.744489749207773</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" ht="12.75" customHeight="1">
       <c r="A101" s="18">
         <f t="shared" ref="A101:A355" si="2">A100+1</f>
         <v>99</v>
@@ -20160,7 +20234,7 @@
         <v>40.723232270828383</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" ht="12.75" customHeight="1">
       <c r="A102" s="18">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -20176,7 +20250,7 @@
         <v>40.702299958801255</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" ht="12.75" customHeight="1">
       <c r="A103" s="18">
         <f t="shared" si="2"/>
         <v>101</v>
@@ -20192,7 +20266,7 @@
         <v>40.680296984379815</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" ht="12.75" customHeight="1">
       <c r="A104" s="18">
         <f t="shared" si="2"/>
         <v>102</v>
@@ -20208,7 +20282,7 @@
         <v>40.654705834482208</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" ht="12.75" customHeight="1">
       <c r="A105" s="18">
         <f t="shared" si="2"/>
         <v>103</v>
@@ -20224,7 +20298,7 @@
         <v>40.599999957038342</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" ht="12.75" customHeight="1">
       <c r="A106" s="18">
         <f t="shared" si="2"/>
         <v>104</v>
@@ -20240,7 +20314,7 @@
         <v>40.542692259274979</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" ht="12.75" customHeight="1">
       <c r="A107" s="18">
         <f t="shared" si="2"/>
         <v>105</v>
@@ -20256,7 +20330,7 @@
         <v>40.482476154145722</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" ht="12.75" customHeight="1">
       <c r="A108" s="18">
         <f t="shared" si="2"/>
         <v>106</v>
@@ -20272,7 +20346,7 @@
         <v>40.435849029253099</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" ht="12.75" customHeight="1">
       <c r="A109" s="18">
         <f t="shared" si="2"/>
         <v>107</v>
@@ -20288,7 +20362,7 @@
         <v>40.391775685247957</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" ht="12.75" customHeight="1">
       <c r="A110" s="18">
         <f t="shared" si="2"/>
         <v>108</v>
@@ -20304,7 +20378,7 @@
         <v>40.346574042991335</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" ht="12.75" customHeight="1">
       <c r="A111" s="18">
         <f t="shared" si="2"/>
         <v>109</v>
@@ -20320,7 +20394,7 @@
         <v>40.302110060945544</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" ht="12.75" customHeight="1">
       <c r="A112" s="18">
         <f t="shared" si="2"/>
         <v>110</v>
@@ -20336,7 +20410,7 @@
         <v>40.260272703690944</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" ht="12.75" customHeight="1">
       <c r="A113" s="18">
         <f t="shared" si="2"/>
         <v>111</v>
@@ -20352,7 +20426,7 @@
         <v>40.215585555342926</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" ht="12.75" customHeight="1">
       <c r="A114" s="18">
         <f t="shared" si="2"/>
         <v>112</v>
@@ -20368,7 +20442,7 @@
         <v>40.173214266640784</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" ht="12.75" customHeight="1">
       <c r="A115" s="18">
         <f t="shared" si="2"/>
         <v>113</v>
@@ -20384,7 +20458,7 @@
         <v>40.128584061344093</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" ht="12.75" customHeight="1">
       <c r="A116" s="18">
         <f t="shared" si="2"/>
         <v>114</v>
@@ -20400,7 +20474,7 @@
         <v>40.078245599311678</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" ht="12.75" customHeight="1">
       <c r="A117" s="18">
         <f t="shared" si="2"/>
         <v>115</v>
@@ -20416,7 +20490,7 @@
         <v>40.032521721881352</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" ht="12.75" customHeight="1">
       <c r="A118" s="18">
         <f t="shared" si="2"/>
         <v>116</v>
@@ -20432,7 +20506,7 @@
         <v>39.985344822324535</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" ht="12.75" customHeight="1">
       <c r="A119" s="18">
         <f t="shared" si="2"/>
         <v>117</v>
@@ -20448,7 +20522,7 @@
         <v>39.940427341298147</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" ht="12.75" customHeight="1">
       <c r="A120" s="18">
         <f t="shared" si="2"/>
         <v>118</v>
@@ -20464,7 +20538,7 @@
         <v>39.89703388666701</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" ht="12.75" customHeight="1">
       <c r="A121" s="18">
         <f t="shared" si="2"/>
         <v>119</v>
@@ -20480,7 +20554,7 @@
         <v>39.856638645204157</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" ht="12.75" customHeight="1">
       <c r="A122" s="18">
         <f t="shared" si="2"/>
         <v>120</v>
@@ -20496,7 +20570,7 @@
         <v>39.814833324432357</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" ht="12.75" customHeight="1">
       <c r="A123" s="18">
         <f t="shared" si="2"/>
         <v>121</v>
@@ -20512,7 +20586,7 @@
         <v>39.769752062332515</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" ht="12.75" customHeight="1">
       <c r="A124" s="18">
         <f t="shared" si="2"/>
         <v>122</v>
@@ -20528,7 +20602,7 @@
         <v>39.730819672131133</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" ht="12.75" customHeight="1">
       <c r="A125" s="18">
         <f t="shared" si="2"/>
         <v>123</v>
@@ -20544,7 +20618,7 @@
         <v>39.694634136422749</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" ht="12.75" customHeight="1">
       <c r="A126" s="18">
         <f t="shared" si="2"/>
         <v>124</v>
@@ -20560,7 +20634,7 @@
         <v>39.656854815322561</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" ht="12.75" customHeight="1">
       <c r="A127" s="18">
         <f t="shared" si="2"/>
         <v>125</v>
@@ -20576,7 +20650,7 @@
         <v>39.615839967039982</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" ht="12.75" customHeight="1">
       <c r="A128" s="18">
         <f t="shared" si="2"/>
         <v>126</v>
@@ -20592,7 +20666,7 @@
         <v>39.58039680484125</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" ht="12.75" customHeight="1">
       <c r="A129" s="18">
         <f t="shared" si="2"/>
         <v>127</v>
@@ -20608,7 +20682,7 @@
         <v>39.545433045669277</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" ht="12.75" customHeight="1">
       <c r="A130" s="18">
         <f t="shared" si="2"/>
         <v>128</v>
@@ -20624,7 +20698,7 @@
         <v>39.514765591640611</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" ht="12.75" customHeight="1">
       <c r="A131" s="18">
         <f t="shared" si="2"/>
         <v>129</v>
@@ -20640,7 +20714,7 @@
         <v>39.483953462403086</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" ht="12.75" customHeight="1">
       <c r="A132" s="18">
         <f t="shared" si="2"/>
         <v>130</v>
@@ -20656,7 +20730,7 @@
         <v>39.455384593153838</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" ht="12.75" customHeight="1">
       <c r="A133" s="18">
         <f t="shared" si="2"/>
         <v>131</v>
@@ -20672,7 +20746,7 @@
         <v>39.425419815954186</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" ht="12.75" customHeight="1">
       <c r="A134" s="18">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -20688,7 +20762,7 @@
         <v>39.396590869848474</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" ht="12.75" customHeight="1">
       <c r="A135" s="18">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -20704,7 +20778,7 @@
         <v>39.371127767969917</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" ht="12.75" customHeight="1">
       <c r="A136" s="18">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -20720,7 +20794,7 @@
         <v>39.348358155447755</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" ht="12.75" customHeight="1">
       <c r="A137" s="18">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -20736,7 +20810,7 @@
         <v>39.325777719037028</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" ht="12.75" customHeight="1">
       <c r="A138" s="18">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -20752,7 +20826,7 @@
         <v>39.30124995404411</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" ht="12.75" customHeight="1">
       <c r="A139" s="18">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -20768,7 +20842,7 @@
         <v>39.275182432773718</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" ht="12.75" customHeight="1">
       <c r="A140" s="18">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -20784,7 +20858,7 @@
         <v>39.253623134275358</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" ht="12.75" customHeight="1">
       <c r="A141" s="18">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -20800,7 +20874,7 @@
         <v>39.222517934100708</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" ht="12.75" customHeight="1">
       <c r="A142" s="18">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -20816,7 +20890,7 @@
         <v>39.191714233499987</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" ht="12.75" customHeight="1">
       <c r="A143" s="18">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -20832,7 +20906,7 @@
         <v>39.159361657872324</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" ht="12.75" customHeight="1">
       <c r="A144" s="18">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -20848,7 +20922,7 @@
         <v>39.130704182464775</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" ht="12.75" customHeight="1">
       <c r="A145" s="18">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -20864,7 +20938,7 @@
         <v>39.101118849230758</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" ht="12.75" customHeight="1">
       <c r="A146" s="18">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -20880,7 +20954,7 @@
         <v>39.072916641388879</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" ht="12.75" customHeight="1">
       <c r="A147" s="18">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -20896,7 +20970,7 @@
         <v>39.046344810896542</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" ht="12.75" customHeight="1">
       <c r="A148" s="18">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -20912,7 +20986,7 @@
         <v>39.018561638767117</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" ht="12.75" customHeight="1">
       <c r="A149" s="18">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -20928,7 +21002,7 @@
         <v>38.994013599387742</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" ht="12.75" customHeight="1">
       <c r="A150" s="18">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -20944,7 +21018,7 @@
         <v>38.968783766418909</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" ht="12.75" customHeight="1">
       <c r="A151" s="18">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -20960,7 +21034,7 @@
         <v>38.941812068389247</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" ht="12.75" customHeight="1">
       <c r="A152" s="18">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -20976,7 +21050,7 @@
         <v>38.915199992999987</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" ht="12.75" customHeight="1">
       <c r="A153" s="18">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -20992,7 +21066,7 @@
         <v>38.890794691986741</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" ht="12.75" customHeight="1">
       <c r="A154" s="18">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -21008,7 +21082,7 @@
         <v>38.864144727894725</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" ht="12.75" customHeight="1">
       <c r="A155" s="18">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -21024,7 +21098,7 @@
         <v>38.840653588888877</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" ht="12.75" customHeight="1">
       <c r="A156" s="18">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -21040,7 +21114,7 @@
         <v>38.822142862207784</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" ht="12.75" customHeight="1">
       <c r="A157" s="18">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -21056,7 +21130,7 @@
         <v>38.801870974774182</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" ht="12.75" customHeight="1">
       <c r="A158" s="18">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -21072,7 +21146,7 @@
         <v>38.781025643141014</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" ht="12.75" customHeight="1">
       <c r="A159" s="18">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -21088,7 +21162,7 @@
         <v>38.75942674980891</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" ht="12.75" customHeight="1">
       <c r="A160" s="18">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -21104,7 +21178,7 @@
         <v>38.73683543259493</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" ht="12.75" customHeight="1">
       <c r="A161" s="18">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -21120,7 +21194,7 @@
         <v>38.715911938364776</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" ht="12.75" customHeight="1">
       <c r="A162" s="18">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -21136,7 +21210,7 @@
         <v>38.695499988749994</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" ht="12.75" customHeight="1">
       <c r="A163" s="18">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -21152,7 +21226,7 @@
         <v>38.674285695527942</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" ht="12.75" customHeight="1">
       <c r="A164" s="18">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -21168,7 +21242,7 @@
         <v>38.652962951851848</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" ht="12.75" customHeight="1">
       <c r="A165" s="18">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -21184,7 +21258,7 @@
         <v>38.632515324478518</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" ht="12.75" customHeight="1">
       <c r="A166" s="18">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -21200,7 +21274,7 @@
         <v>38.609999978780486</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" ht="12.75" customHeight="1">
       <c r="A167" s="18">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -21216,7 +21290,7 @@
         <v>38.586363609696967</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" ht="12.75" customHeight="1">
       <c r="A168" s="18">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -21232,7 +21306,7 @@
         <v>38.566746972469872</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" ht="12.75" customHeight="1">
       <c r="A169" s="18">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -21248,7 +21322,7 @@
         <v>38.550598780598797</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" ht="12.75" customHeight="1">
       <c r="A170" s="18">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -21264,7 +21338,7 @@
         <v>38.53458331529761</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" ht="12.75" customHeight="1">
       <c r="A171" s="18">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -21280,7 +21354,7 @@
         <v>38.518757382130168</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" ht="12.75" customHeight="1">
       <c r="A172" s="18">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -21296,7 +21370,7 @@
         <v>38.501588212058813</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" ht="12.75" customHeight="1">
       <c r="A173" s="18">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -21312,7 +21386,7 @@
         <v>38.482806999824554</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" ht="12.75" customHeight="1">
       <c r="A174" s="18">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -21328,7 +21402,7 @@
         <v>38.465581380406974</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" ht="12.75" customHeight="1">
       <c r="A175" s="18">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -21344,7 +21418,7 @@
         <v>38.445202289364161</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" ht="12.75" customHeight="1">
       <c r="A176" s="18">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -21360,7 +21434,7 @@
         <v>38.42022985362069</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" ht="12.75" customHeight="1">
       <c r="A177" s="18">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -21376,7 +21450,7 @@
         <v>38.397485675200002</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" ht="12.75" customHeight="1">
       <c r="A178" s="18">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -21392,7 +21466,7 @@
         <v>38.376420407897733</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" ht="12.75" customHeight="1">
       <c r="A179" s="18">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -21408,7 +21482,7 @@
         <v>38.356271147796612</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" ht="12.75" customHeight="1">
       <c r="A180" s="18">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -21424,7 +21498,7 @@
         <v>38.333426933033707</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" ht="12.75" customHeight="1">
       <c r="A181" s="18">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -21440,7 +21514,7 @@
         <v>38.311229020614526</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" ht="12.75" customHeight="1">
       <c r="A182" s="18">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -21456,7 +21530,7 @@
         <v>38.290888867888889</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" ht="12.75" customHeight="1">
       <c r="A183" s="18">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -21472,7 +21546,7 @@
         <v>38.268618754364638</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" ht="12.75" customHeight="1">
       <c r="A184" s="18">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -21488,7 +21562,7 @@
         <v>38.248351618351641</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" ht="12.75" customHeight="1">
       <c r="A185" s="18">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -21504,7 +21578,7 @@
         <v>38.228579205136612</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" ht="12.75" customHeight="1">
       <c r="A186" s="18">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -21520,7 +21594,7 @@
         <v>38.206847793913042</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" ht="12.75" customHeight="1">
       <c r="A187" s="18">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -21536,7 +21610,7 @@
         <v>38.181189152216213</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" ht="12.75" customHeight="1">
       <c r="A188" s="18">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -21552,7 +21626,7 @@
         <v>38.15387092274193</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" ht="12.75" customHeight="1">
       <c r="A189" s="18">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -21568,7 +21642,7 @@
         <v>38.12657749128342</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" ht="12.75" customHeight="1">
       <c r="A190" s="18">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -21584,7 +21658,7 @@
         <v>38.100053139680853</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" ht="12.75" customHeight="1">
       <c r="A191" s="18">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -21600,7 +21674,7 @@
         <v>38.071216879682538</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" ht="12.75" customHeight="1">
       <c r="A192" s="18">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -21616,7 +21690,7 @@
         <v>38.0456315228421</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" ht="12.75" customHeight="1">
       <c r="A193" s="18">
         <f t="shared" si="2"/>
         <v>191</v>
@@ -21632,7 +21706,7 @@
         <v>38.017120363036646</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" ht="12.75" customHeight="1">
       <c r="A194" s="18">
         <f t="shared" si="2"/>
         <v>192</v>
@@ -21648,7 +21722,7 @@
         <v>37.989791613541662</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" ht="12.75" customHeight="1">
       <c r="A195" s="18">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -21664,7 +21738,7 @@
         <v>37.965699429792743</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" ht="12.75" customHeight="1">
       <c r="A196" s="18">
         <f t="shared" si="2"/>
         <v>194</v>
@@ -21680,7 +21754,7 @@
         <v>37.941855619072165</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" ht="12.75" customHeight="1">
       <c r="A197" s="18">
         <f t="shared" si="2"/>
         <v>195</v>
@@ -21696,7 +21770,7 @@
         <v>37.915128152000001</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" ht="12.75" customHeight="1">
       <c r="A198" s="18">
         <f t="shared" si="2"/>
         <v>196</v>
@@ -21712,7 +21786,7 @@
         <v>37.889132598622453</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" ht="12.75" customHeight="1">
       <c r="A199" s="18">
         <f t="shared" si="2"/>
         <v>197</v>
@@ -21728,7 +21802,7 @@
         <v>37.861268989137059</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" ht="12.75" customHeight="1">
       <c r="A200" s="18">
         <f t="shared" si="2"/>
         <v>198</v>
@@ -21744,7 +21818,7 @@
         <v>37.834646419242425</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" ht="12.75" customHeight="1">
       <c r="A201" s="18">
         <f t="shared" si="2"/>
         <v>199</v>
@@ -21760,7 +21834,7 @@
         <v>37.804422063819104</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" ht="12.75" customHeight="1">
       <c r="A202" s="18">
         <f t="shared" si="2"/>
         <v>200</v>
@@ -21776,7 +21850,7 @@
         <v>37.775999948150009</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" ht="12.75" customHeight="1">
       <c r="A203" s="18">
         <f t="shared" si="2"/>
         <v>201</v>
@@ -21792,7 +21866,7 @@
         <v>37.743084524776123</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" ht="12.75" customHeight="1">
       <c r="A204" s="18">
         <f t="shared" si="2"/>
         <v>202</v>
@@ -21808,7 +21882,7 @@
         <v>37.710494996683174</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" ht="12.75" customHeight="1">
       <c r="A205" s="18">
         <f t="shared" si="2"/>
         <v>203</v>
@@ -21824,7 +21898,7 @@
         <v>37.678472849310346</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" ht="12.75" customHeight="1">
       <c r="A206" s="18">
         <f t="shared" si="2"/>
         <v>204</v>
@@ -21840,7 +21914,7 @@
         <v>37.643872496323532</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" ht="12.75" customHeight="1">
       <c r="A207" s="18">
         <f t="shared" si="2"/>
         <v>205</v>
@@ -21856,7 +21930,7 @@
         <v>37.61151214380488</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" ht="12.75" customHeight="1">
       <c r="A208" s="18">
         <f t="shared" si="2"/>
         <v>206</v>
@@ -21872,7 +21946,7 @@
         <v>37.577281499757277</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" ht="12.75" customHeight="1">
       <c r="A209" s="18">
         <f t="shared" si="2"/>
         <v>207</v>
@@ -21888,7 +21962,7 @@
         <v>37.540193181497585</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" ht="12.75" customHeight="1">
       <c r="A210" s="18">
         <f t="shared" si="2"/>
         <v>208</v>
@@ -21904,7 +21978,7 @@
         <v>37.503221100721149</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" ht="12.75" customHeight="1">
       <c r="A211" s="18">
         <f t="shared" si="2"/>
         <v>209</v>
@@ -21920,7 +21994,7 @@
         <v>37.469999944593297</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" ht="12.75" customHeight="1">
       <c r="A212" s="18">
         <f t="shared" si="2"/>
         <v>210</v>
@@ -21936,7 +22010,7 @@
         <v>37.437380901238093</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" ht="12.75" customHeight="1">
       <c r="A213" s="18">
         <f t="shared" si="2"/>
         <v>211</v>
@@ -21952,7 +22026,7 @@
         <v>37.405781941800946</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" ht="12.75" customHeight="1">
       <c r="A214" s="18">
         <f t="shared" si="2"/>
         <v>212</v>
@@ -21968,7 +22042,7 @@
         <v>37.374245231273584</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" ht="12.75" customHeight="1">
       <c r="A215" s="18">
         <f t="shared" si="2"/>
         <v>213</v>
@@ -21984,7 +22058,7 @@
         <v>37.342629053615028</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" ht="12.75" customHeight="1">
       <c r="A216" s="18">
         <f t="shared" si="2"/>
         <v>214</v>
@@ -22000,7 +22074,7 @@
         <v>37.309205555841125</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" ht="12.75" customHeight="1">
       <c r="A217" s="18">
         <f t="shared" si="2"/>
         <v>215</v>
@@ -22016,7 +22090,7 @@
         <v>37.27981390102326</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" ht="12.75" customHeight="1">
       <c r="A218" s="18">
         <f t="shared" si="2"/>
         <v>216</v>
@@ -22032,7 +22106,7 @@
         <v>37.247685133657413</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" ht="12.75" customHeight="1">
       <c r="A219" s="18">
         <f t="shared" si="2"/>
         <v>217</v>
@@ -22048,7 +22122,7 @@
         <v>37.218433126682037</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" ht="12.75" customHeight="1">
       <c r="A220" s="18">
         <f t="shared" si="2"/>
         <v>218</v>
@@ -22064,7 +22138,7 @@
         <v>37.189770586238538</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" ht="12.75" customHeight="1">
       <c r="A221" s="18">
         <f t="shared" si="2"/>
         <v>219</v>
@@ -22080,7 +22154,7 @@
         <v>37.161232823424669</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" ht="12.75" customHeight="1">
       <c r="A222" s="18">
         <f t="shared" si="2"/>
         <v>220</v>
@@ -22096,7 +22170,7 @@
         <v>37.130772670045459</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" ht="12.75" customHeight="1">
       <c r="A223" s="18">
         <f t="shared" si="2"/>
         <v>221</v>
@@ -22112,7 +22186,7 @@
         <v>37.098913970859734</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" ht="12.75" customHeight="1">
       <c r="A224" s="18">
         <f t="shared" si="2"/>
         <v>222</v>
@@ -22128,7 +22202,7 @@
         <v>37.065180126891896</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" ht="12.75" customHeight="1">
       <c r="A225" s="18">
         <f t="shared" si="2"/>
         <v>223</v>
@@ -22144,7 +22218,7 @@
         <v>37.026053759282519</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" ht="12.75" customHeight="1">
       <c r="A226" s="18">
         <f t="shared" si="2"/>
         <v>224</v>
@@ -22160,7 +22234,7 @@
         <v>36.984464229464287</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" ht="12.75" customHeight="1">
       <c r="A227" s="18">
         <f t="shared" si="2"/>
         <v>225</v>
@@ -22176,7 +22250,7 @@
         <v>36.94248883697778</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" ht="12.75" customHeight="1">
       <c r="A228" s="18">
         <f t="shared" si="2"/>
         <v>226</v>
@@ -22192,7 +22266,7 @@
         <v>36.903849501769912</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" ht="12.75" customHeight="1">
       <c r="A229" s="18">
         <f t="shared" si="2"/>
         <v>227</v>
@@ -22208,7 +22282,7 @@
         <v>36.866607877356834</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" ht="12.75" customHeight="1">
       <c r="A230" s="18">
         <f t="shared" si="2"/>
         <v>228</v>
@@ -22224,7 +22298,7 @@
         <v>36.825438542543864</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" ht="12.75" customHeight="1">
       <c r="A231" s="18">
         <f t="shared" si="2"/>
         <v>229</v>
@@ -22240,7 +22314,7 @@
         <v>36.780523967772936</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" ht="12.75" customHeight="1">
       <c r="A232" s="18">
         <f t="shared" si="2"/>
         <v>230</v>
@@ -22256,7 +22330,7 @@
         <v>36.740956473608705</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" ht="12.75" customHeight="1">
       <c r="A233" s="18">
         <f t="shared" si="2"/>
         <v>231</v>
@@ -22272,7 +22346,7 @@
         <v>36.704978308398275</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" ht="12.75" customHeight="1">
       <c r="A234" s="18">
         <f t="shared" si="2"/>
         <v>232</v>
@@ -22288,7 +22362,7 @@
         <v>36.66892236806035</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" ht="12.75" customHeight="1">
       <c r="A235" s="18">
         <f t="shared" si="2"/>
         <v>233</v>
@@ -22304,7 +22378,7 @@
         <v>36.633948454291847</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" ht="12.75" customHeight="1">
       <c r="A236" s="18">
         <f t="shared" si="2"/>
         <v>234</v>
@@ -22320,7 +22394,7 @@
         <v>36.598119614743588</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" ht="12.75" customHeight="1">
       <c r="A237" s="18">
         <f t="shared" si="2"/>
         <v>235</v>
@@ -22336,7 +22410,7 @@
         <v>36.563361660255318</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" ht="12.75" customHeight="1">
       <c r="A238" s="18">
         <f t="shared" si="2"/>
         <v>236</v>
@@ -22352,7 +22426,7 @@
         <v>36.528262673093217</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" ht="12.75" customHeight="1">
       <c r="A239" s="18">
         <f t="shared" si="2"/>
         <v>237</v>
@@ -22368,7 +22442,7 @@
         <v>36.490632875358649</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" ht="12.75" customHeight="1">
       <c r="A240" s="18">
         <f t="shared" si="2"/>
         <v>238</v>
@@ -22384,7 +22458,7 @@
         <v>36.451512570462185</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" ht="12.75" customHeight="1">
       <c r="A241" s="18">
         <f t="shared" si="2"/>
         <v>239</v>
@@ -22400,7 +22474,7 @@
         <v>36.412008334728036</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" ht="12.75" customHeight="1">
       <c r="A242" s="18">
         <f t="shared" si="2"/>
         <v>240</v>
@@ -22416,7 +22490,7 @@
         <v>36.376874964750002</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" ht="12.75" customHeight="1">
       <c r="A243" s="18">
         <f t="shared" si="2"/>
         <v>241</v>
@@ -22432,7 +22506,7 @@
         <v>36.340622369004151</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" ht="12.75" customHeight="1">
       <c r="A244" s="18">
         <f t="shared" si="2"/>
         <v>242</v>
@@ -22448,7 +22522,7 @@
         <v>36.305495830909088</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" ht="12.75" customHeight="1">
       <c r="A245" s="18">
         <f t="shared" si="2"/>
         <v>243</v>
@@ -22464,7 +22538,7 @@
         <v>36.269876504938274</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" ht="12.75" customHeight="1">
       <c r="A246" s="18">
         <f t="shared" si="2"/>
         <v>244</v>
@@ -22480,7 +22554,7 @@
         <v>36.232704883032788</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" ht="12.75" customHeight="1">
       <c r="A247" s="18">
         <f t="shared" si="2"/>
         <v>245</v>
@@ -22496,7 +22570,7 @@
         <v>36.195714251183674</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" ht="12.75" customHeight="1">
       <c r="A248" s="18">
         <f t="shared" si="2"/>
         <v>246</v>
@@ -22512,7 +22586,7 @@
         <v>36.154715415243899</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" ht="12.75" customHeight="1">
       <c r="A249" s="18">
         <f t="shared" si="2"/>
         <v>247</v>
@@ -22528,7 +22602,7 @@
         <v>36.116113331943318</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" ht="12.75" customHeight="1">
       <c r="A250" s="18">
         <f t="shared" si="2"/>
         <v>248</v>
@@ -22544,7 +22618,7 @@
         <v>36.076048360080641</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" ht="12.75" customHeight="1">
       <c r="A251" s="18">
         <f t="shared" si="2"/>
         <v>249</v>
@@ -22560,7 +22634,7 @@
         <v>36.036947764859427</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" ht="12.75" customHeight="1">
       <c r="A252" s="18">
         <f t="shared" si="2"/>
         <v>250</v>
@@ -22576,7 +22650,7 @@
         <v>35.997639970119991</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" ht="12.75" customHeight="1">
       <c r="A253" s="18">
         <f t="shared" si="2"/>
         <v>251</v>
@@ -22592,7 +22666,7 @@
         <v>35.959402359163342</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" ht="12.75" customHeight="1">
       <c r="A254" s="18">
         <f t="shared" si="2"/>
         <v>252</v>
@@ -22608,7 +22682,7 @@
         <v>35.920357115039671</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" ht="12.75" customHeight="1">
       <c r="A255" s="18">
         <f t="shared" si="2"/>
         <v>253</v>
@@ -22624,7 +22698,7 @@
         <v>35.879051352964417</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" ht="12.75" customHeight="1">
       <c r="A256" s="18">
         <f t="shared" si="2"/>
         <v>254</v>
@@ -22640,7 +22714,7 @@
         <v>35.835787368858256</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" ht="12.75" customHeight="1">
       <c r="A257" s="18">
         <f t="shared" si="2"/>
         <v>255</v>
@@ -22656,7 +22730,7 @@
         <v>35.792862710117632</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" ht="12.75" customHeight="1">
       <c r="A258" s="18">
         <f t="shared" si="2"/>
         <v>256</v>
@@ -22672,7 +22746,7 @@
         <v>35.744648405624986</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" ht="12.75" customHeight="1">
       <c r="A259" s="18">
         <f t="shared" si="2"/>
         <v>257</v>
@@ -22688,7 +22762,7 @@
         <v>35.69571981291827</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" ht="12.75" customHeight="1">
       <c r="A260" s="18">
         <f t="shared" si="2"/>
         <v>258</v>
@@ -22704,7 +22778,7 @@
         <v>35.651472839573628</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" ht="12.75" customHeight="1">
       <c r="A261" s="18">
         <f t="shared" si="2"/>
         <v>259</v>
@@ -22720,7 +22794,7 @@
         <v>35.606949781660212</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" ht="12.75" customHeight="1">
       <c r="A262" s="18">
         <f t="shared" si="2"/>
         <v>260</v>
@@ -22736,7 +22810,7 @@
         <v>35.566653817730753</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" ht="12.75" customHeight="1">
       <c r="A263" s="18">
         <f t="shared" si="2"/>
         <v>261</v>
@@ -22752,7 +22826,7 @@
         <v>35.519386943103434</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" ht="12.75" customHeight="1">
       <c r="A264" s="18">
         <f t="shared" si="2"/>
         <v>262</v>
@@ -22768,7 +22842,7 @@
         <v>35.470534318549603</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" ht="12.75" customHeight="1">
       <c r="A265" s="18">
         <f t="shared" si="2"/>
         <v>263</v>
@@ -22784,7 +22858,7 @@
         <v>35.421064602813672</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" ht="12.75" customHeight="1">
       <c r="A266" s="18">
         <f t="shared" si="2"/>
         <v>264</v>
@@ -22800,7 +22874,7 @@
         <v>35.373181784962107</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" ht="12.75" customHeight="1">
       <c r="A267" s="18">
         <f t="shared" si="2"/>
         <v>265</v>
@@ -22816,7 +22890,7 @@
         <v>35.328188649018855</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" ht="12.75" customHeight="1">
       <c r="A268" s="18">
         <f t="shared" si="2"/>
         <v>266</v>
@@ -22832,7 +22906,7 @@
         <v>35.283233055751865</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" ht="12.75" customHeight="1">
       <c r="A269" s="18">
         <f t="shared" si="2"/>
         <v>267</v>
@@ -22848,7 +22922,7 @@
         <v>35.239288359812718</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" ht="12.75" customHeight="1">
       <c r="A270" s="18">
         <f t="shared" si="2"/>
         <v>268</v>
@@ -22864,7 +22938,7 @@
         <v>35.194701466380579</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" ht="12.75" customHeight="1">
       <c r="A271" s="18">
         <f t="shared" si="2"/>
         <v>269</v>
@@ -22880,7 +22954,7 @@
         <v>35.152081756617086</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" ht="12.75" customHeight="1">
       <c r="A272" s="18">
         <f t="shared" si="2"/>
         <v>270</v>
@@ -22896,7 +22970,7 @@
         <v>35.109703672629614</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" ht="12.75" customHeight="1">
       <c r="A273" s="18">
         <f t="shared" si="2"/>
         <v>271</v>
@@ -22912,7 +22986,7 @@
         <v>35.067933551771205</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" ht="12.75" customHeight="1">
       <c r="A274" s="18">
         <f t="shared" si="2"/>
         <v>272</v>
@@ -22928,7 +23002,7 @@
         <v>35.027867619595575</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" ht="12.75" customHeight="1">
       <c r="A275" s="18">
         <f t="shared" si="2"/>
         <v>273</v>
@@ -22944,7 +23018,7 @@
         <v>34.987655647509143</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" ht="12.75" customHeight="1">
       <c r="A276" s="18">
         <f t="shared" si="2"/>
         <v>274</v>
@@ -22960,7 +23034,7 @@
         <v>34.944671499452539</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" ht="12.75" customHeight="1">
       <c r="A277" s="18">
         <f t="shared" si="2"/>
         <v>275</v>
@@ -22976,7 +23050,7 @@
         <v>34.902363601163621</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" ht="12.75" customHeight="1">
       <c r="A278" s="18">
         <f t="shared" si="2"/>
         <v>276</v>
@@ -22992,7 +23066,7 @@
         <v>34.860434747246366</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" ht="12.75" customHeight="1">
       <c r="A279" s="18">
         <f t="shared" si="2"/>
         <v>277</v>
@@ -23008,7 +23082,7 @@
         <v>34.818953036389878</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" ht="12.75" customHeight="1">
       <c r="A280" s="18">
         <f t="shared" si="2"/>
         <v>278</v>
@@ -23024,7 +23098,7 @@
         <v>34.778740972913653</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" ht="12.75" customHeight="1">
       <c r="A281" s="18">
         <f t="shared" si="2"/>
         <v>279</v>
@@ -23040,7 +23114,7 @@
         <v>34.740573439534039</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" ht="12.75" customHeight="1">
       <c r="A282" s="18">
         <f t="shared" si="2"/>
         <v>280</v>
@@ -23056,7 +23130,7 @@
         <v>34.703321389642845</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" ht="12.75" customHeight="1">
       <c r="A283" s="18">
         <f t="shared" si="2"/>
         <v>281</v>
@@ -23072,7 +23146,7 @@
         <v>34.66704622537366</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" ht="12.75" customHeight="1">
       <c r="A284" s="18">
         <f t="shared" si="2"/>
         <v>282</v>
@@ -23088,7 +23162,7 @@
         <v>34.633936132092195</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" ht="12.75" customHeight="1">
       <c r="A285" s="18">
         <f t="shared" si="2"/>
         <v>283</v>
@@ -23104,7 +23178,7 @@
         <v>34.60084802017667</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" ht="12.75" customHeight="1">
       <c r="A286" s="18">
         <f t="shared" si="2"/>
         <v>284</v>
@@ -23120,7 +23194,7 @@
         <v>34.568661932359149</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" ht="12.75" customHeight="1">
       <c r="A287" s="18">
         <f t="shared" si="2"/>
         <v>285</v>
@@ -23136,7 +23210,7 @@
         <v>34.534210486982445</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" ht="12.75" customHeight="1">
       <c r="A288" s="18">
         <f t="shared" si="2"/>
         <v>286</v>
@@ -23152,7 +23226,7 @@
         <v>34.502202755069924</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" ht="12.75" customHeight="1">
       <c r="A289" s="18">
         <f t="shared" si="2"/>
         <v>287</v>
@@ -23168,7 +23242,7 @@
         <v>34.441742116968634</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" ht="12.75" customHeight="1">
       <c r="A290" s="18">
         <f t="shared" si="2"/>
         <v>288</v>
@@ -23184,7 +23258,7 @@
         <v>34.411076347847221</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" ht="12.75" customHeight="1">
       <c r="A291" s="18">
         <f t="shared" si="2"/>
         <v>289</v>
@@ -23200,7 +23274,7 @@
         <v>34.381903071695504</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" ht="12.75" customHeight="1">
       <c r="A292" s="18">
         <f t="shared" si="2"/>
         <v>290</v>
@@ -23216,7 +23290,7 @@
         <v>34.352999957655172</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" ht="12.75" customHeight="1">
       <c r="A293" s="18">
         <f t="shared" si="2"/>
         <v>291</v>
@@ -23232,7 +23306,7 @@
         <v>34.326013703505154</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" ht="12.75" customHeight="1">
       <c r="A294" s="18">
         <f t="shared" si="2"/>
         <v>292</v>
@@ -23248,7 +23322,7 @@
         <v>34.300958862842464</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" ht="12.75" customHeight="1">
       <c r="A295" s="18">
         <f t="shared" si="2"/>
         <v>293</v>
@@ -23264,7 +23338,7 @@
         <v>34.276006784027302</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" ht="12.75" customHeight="1">
       <c r="A296" s="18">
         <f t="shared" si="2"/>
         <v>294</v>
@@ -23280,7 +23354,7 @@
         <v>34.249897918707482</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" ht="12.75" customHeight="1">
       <c r="A297" s="18">
         <f t="shared" si="2"/>
         <v>295</v>
@@ -23296,7 +23370,7 @@
         <v>34.226135552101695</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" ht="12.75" customHeight="1">
       <c r="A298" s="18">
         <f t="shared" si="2"/>
         <v>296</v>
@@ -23312,7 +23386,7 @@
         <v>34.204222931216215</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" ht="12.75" customHeight="1">
       <c r="A299" s="18">
         <f t="shared" si="2"/>
         <v>297</v>
@@ -23328,7 +23402,7 @@
         <v>34.18289558410774</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" ht="12.75" customHeight="1">
       <c r="A300" s="18">
         <f t="shared" si="2"/>
         <v>298</v>
@@ -23344,7 +23418,7 @@
         <v>34.162718082416099</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" ht="12.75" customHeight="1">
       <c r="A301" s="18">
         <f t="shared" si="2"/>
         <v>299</v>
@@ -23360,7 +23434,7 @@
         <v>34.140468189933102</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" ht="12.75" customHeight="1">
       <c r="A302" s="18">
         <f t="shared" si="2"/>
         <v>300</v>
@@ -23376,7 +23450,7 @@
         <v>34.119366627533324</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:4" ht="12.75" customHeight="1">
       <c r="A303" s="18">
         <f t="shared" si="2"/>
         <v>301</v>
@@ -23392,7 +23466,7 @@
         <v>34.097840490531553</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4" ht="12.75" customHeight="1">
       <c r="A304" s="18">
         <f t="shared" si="2"/>
         <v>302</v>
@@ -23408,7 +23482,7 @@
         <v>34.077913866125826</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4" ht="12.75" customHeight="1">
       <c r="A305" s="18">
         <f t="shared" si="2"/>
         <v>303</v>
@@ -23424,7 +23498,7 @@
         <v>34.057623722376235</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4" ht="12.75" customHeight="1">
       <c r="A306" s="18">
         <f t="shared" si="2"/>
         <v>304</v>
@@ -23440,7 +23514,7 @@
         <v>34.036743378157887</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4" ht="12.75" customHeight="1">
       <c r="A307" s="18">
         <f t="shared" si="2"/>
         <v>305</v>
@@ -23456,7 +23530,7 @@
         <v>34.0172130717377</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:4" ht="12.75" customHeight="1">
       <c r="A308" s="18">
         <f t="shared" si="2"/>
         <v>306</v>
@@ -23472,7 +23546,7 @@
         <v>33.997091462385619</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:4" ht="12.75" customHeight="1">
       <c r="A309" s="18">
         <f t="shared" si="2"/>
         <v>307</v>
@@ -23488,7 +23562,7 @@
         <v>33.975211687882734</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:4" ht="12.75" customHeight="1">
       <c r="A310" s="18">
         <f t="shared" si="2"/>
         <v>308</v>
@@ -23504,7 +23578,7 @@
         <v>33.951818144935061</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:4" ht="12.75" customHeight="1">
       <c r="A311" s="18">
         <f t="shared" si="2"/>
         <v>309</v>
@@ -23520,7 +23594,7 @@
         <v>33.929385077993516</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:4" ht="12.75" customHeight="1">
       <c r="A312" s="18">
         <f t="shared" si="2"/>
         <v>310</v>
@@ -23536,7 +23610,7 @@
         <v>33.90851609090322</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:4" ht="12.75" customHeight="1">
       <c r="A313" s="18">
         <f t="shared" si="2"/>
         <v>311</v>
@@ -23552,7 +23626,7 @@
         <v>33.886495137138255</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:4" ht="12.75" customHeight="1">
       <c r="A314" s="18">
         <f t="shared" si="2"/>
         <v>312</v>
@@ -23568,7 +23642,7 @@
         <v>33.865480729391024</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:4" ht="12.75" customHeight="1">
       <c r="A315" s="18">
         <f t="shared" si="2"/>
         <v>313</v>
@@ -23584,7 +23658,7 @@
         <v>33.843706028146961</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:4" ht="12.75" customHeight="1">
       <c r="A316" s="18">
         <f t="shared" si="2"/>
         <v>314</v>
@@ -23600,7 +23674,7 @@
         <v>33.822292954299357</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:4" ht="12.75" customHeight="1">
       <c r="A317" s="18">
         <f t="shared" si="2"/>
         <v>315</v>
@@ -23616,7 +23690,7 @@
         <v>33.800285673142845</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:4" ht="12.75" customHeight="1">
       <c r="A318" s="18">
         <f t="shared" si="2"/>
         <v>316</v>
@@ -23632,7 +23706,7 @@
         <v>33.778132867974676</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:4" ht="12.75" customHeight="1">
       <c r="A319" s="18">
         <f t="shared" si="2"/>
         <v>317</v>
@@ -23648,7 +23722,7 @@
         <v>33.755394277507875</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:4" ht="12.75" customHeight="1">
       <c r="A320" s="18">
         <f t="shared" si="2"/>
         <v>318</v>
@@ -23664,7 +23738,7 @@
         <v>33.733238946698101</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:4" ht="12.75" customHeight="1">
       <c r="A321" s="18">
         <f t="shared" si="2"/>
         <v>319</v>
@@ -23680,7 +23754,7 @@
         <v>33.710940394639486</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:4" ht="12.75" customHeight="1">
       <c r="A322" s="18">
         <f t="shared" si="2"/>
         <v>320</v>
@@ -23696,7 +23770,7 @@
         <v>33.689062453031241</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:4" ht="12.75" customHeight="1">
       <c r="A323" s="18">
         <f t="shared" si="2"/>
         <v>321</v>
@@ -23712,7 +23786,7 @@
         <v>33.666137024579427</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:4" ht="12.75" customHeight="1">
       <c r="A324" s="18">
         <f t="shared" si="2"/>
         <v>322</v>
@@ -23728,7 +23802,7 @@
         <v>33.645031011583839</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:4" ht="12.75" customHeight="1">
       <c r="A325" s="18">
         <f t="shared" si="2"/>
         <v>323</v>
@@ -23744,7 +23818,7 @@
         <v>33.622414816501539</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:4" ht="12.75" customHeight="1">
       <c r="A326" s="18">
         <f t="shared" si="2"/>
         <v>324</v>
@@ -23760,7 +23834,7 @@
         <v>33.59876538805554</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:4" ht="12.75" customHeight="1">
       <c r="A327" s="18">
         <f t="shared" si="2"/>
         <v>325</v>
@@ -23776,7 +23850,7 @@
         <v>33.575630725323066</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:4" ht="12.75" customHeight="1">
       <c r="A328" s="18">
         <f t="shared" si="2"/>
         <v>326</v>
@@ -23792,7 +23866,7 @@
         <v>33.55380363438649</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:4" ht="12.75" customHeight="1">
       <c r="A329" s="18">
         <f t="shared" si="2"/>
         <v>327</v>
@@ -23808,7 +23882,7 @@
         <v>33.532079466574906</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:4" ht="12.75" customHeight="1">
       <c r="A330" s="18">
         <f t="shared" si="2"/>
         <v>328</v>
@@ -23824,7 +23898,7 @@
         <v>33.510823125121938</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:4" ht="12.75" customHeight="1">
       <c r="A331" s="18">
         <f t="shared" si="2"/>
         <v>329</v>
@@ -23840,7 +23914,7 @@
         <v>33.4886017805471</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:4" ht="12.75" customHeight="1">
       <c r="A332" s="18">
         <f t="shared" si="2"/>
         <v>330</v>
@@ -23856,7 +23930,7 @@
         <v>33.468363593333315</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:4" ht="12.75" customHeight="1">
       <c r="A333" s="18">
         <f t="shared" si="2"/>
         <v>331</v>
@@ -23872,7 +23946,7 @@
         <v>33.447673675649533</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:4" ht="12.75" customHeight="1">
       <c r="A334" s="18">
         <f t="shared" si="2"/>
         <v>332</v>
@@ -23888,7 +23962,7 @@
         <v>33.427379475060221</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:4" ht="12.75" customHeight="1">
       <c r="A335" s="18">
         <f t="shared" si="2"/>
         <v>333</v>
@@ -23904,7 +23978,7 @@
         <v>33.407237192282267</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:4" ht="12.75" customHeight="1">
       <c r="A336" s="18">
         <f t="shared" si="2"/>
         <v>334</v>
@@ -23920,7 +23994,7 @@
         <v>33.388532888862258</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:4" ht="12.75" customHeight="1">
       <c r="A337" s="18">
         <f t="shared" si="2"/>
         <v>335</v>
@@ -23936,7 +24010,7 @@
         <v>33.36955219573133</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:4" ht="12.75" customHeight="1">
       <c r="A338" s="18">
         <f t="shared" si="2"/>
         <v>336</v>
@@ -23952,7 +24026,7 @@
         <v>33.34928566976189</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:4" ht="12.75" customHeight="1">
       <c r="A339" s="18">
         <f t="shared" si="2"/>
         <v>337</v>
@@ -23968,7 +24042,7 @@
         <v>33.330356036646869</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:4" ht="12.75" customHeight="1">
       <c r="A340" s="18">
         <f t="shared" si="2"/>
         <v>338</v>
@@ -23984,7 +24058,7 @@
         <v>33.311212973254428</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:4" ht="12.75" customHeight="1">
       <c r="A341" s="18">
         <f t="shared" si="2"/>
         <v>339</v>
@@ -24000,7 +24074,7 @@
         <v>33.289498482949838</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:4" ht="12.75" customHeight="1">
       <c r="A342" s="18">
         <f t="shared" si="2"/>
         <v>340</v>
@@ -24016,7 +24090,7 @@
         <v>33.267764662764691</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:4" ht="12.75" customHeight="1">
       <c r="A343" s="18">
         <f t="shared" si="2"/>
         <v>341</v>
@@ -24032,7 +24106,7 @@
         <v>33.245806410645152</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:4" ht="12.75" customHeight="1">
       <c r="A344" s="18">
         <f t="shared" si="2"/>
         <v>342</v>
@@ -24048,7 +24122,7 @@
         <v>33.223508733537997</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:4" ht="12.75" customHeight="1">
       <c r="A345" s="18">
         <f t="shared" si="2"/>
         <v>343</v>
@@ -24064,7 +24138,7 @@
         <v>33.200932904985407</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:4" ht="12.75" customHeight="1">
       <c r="A346" s="18">
         <f t="shared" si="2"/>
         <v>344</v>
@@ -24080,7 +24154,7 @@
         <v>33.177616240465106</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:4">
       <c r="A347" s="18">
         <f t="shared" si="2"/>
         <v>345</v>
@@ -24096,7 +24170,7 @@
         <v>33.152985469652158</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:4">
       <c r="A348" s="18">
         <f t="shared" si="2"/>
         <v>346</v>
@@ -24112,7 +24186,7 @@
         <v>33.128364413381483</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:4">
       <c r="A349" s="18">
         <f t="shared" si="2"/>
         <v>347</v>
@@ -24128,7 +24202,7 @@
         <v>33.103412352564824</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:4">
       <c r="A350" s="18">
         <f t="shared" si="2"/>
         <v>348</v>
@@ -24144,7 +24218,7 @@
         <v>33.078804848448264</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:4">
       <c r="A351" s="18">
         <f t="shared" si="2"/>
         <v>349</v>
@@ -24160,7 +24234,7 @@
         <v>33.055026039971331</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:4">
       <c r="A352" s="18">
         <f t="shared" si="2"/>
         <v>350</v>
@@ -24176,7 +24250,7 @@
         <v>33.030411681371412</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:4">
       <c r="A353" s="18">
         <f t="shared" si="2"/>
         <v>351</v>
@@ -24192,7 +24266,7 @@
         <v>33.006878029857532</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:4">
       <c r="A354" s="18">
         <f t="shared" si="2"/>
         <v>352</v>
@@ -24208,7 +24282,7 @@
         <v>32.983932353636348</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:4">
       <c r="A355" s="18">
         <f t="shared" si="2"/>
         <v>353</v>
@@ -24224,9 +24298,9 @@
         <v>32.959955208158625</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:4">
       <c r="A356" s="18">
-        <f t="shared" ref="A356:A443" si="3">A355+1</f>
+        <f t="shared" ref="A356:A462" si="3">A355+1</f>
         <v>354</v>
       </c>
       <c r="B356" s="19" t="s">
@@ -24240,7 +24314,7 @@
         <v>32.934475108700553</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:4">
       <c r="A357" s="18">
         <f t="shared" si="3"/>
         <v>355</v>
@@ -24256,7 +24330,7 @@
         <v>32.90789912247886</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:4">
       <c r="A358" s="18">
         <f t="shared" si="3"/>
         <v>356</v>
@@ -24272,7 +24346,7 @@
         <v>32.881472439550549</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:4">
       <c r="A359" s="18">
         <f t="shared" si="3"/>
         <v>357</v>
@@ -24288,7 +24362,7 @@
         <v>32.85519380526609</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:4">
       <c r="A360" s="18">
         <f t="shared" si="3"/>
         <v>358</v>
@@ -24304,7 +24378,7 @@
         <v>32.8285871186592</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:4">
       <c r="A361" s="18">
         <f t="shared" si="3"/>
         <v>359</v>
@@ -24320,7 +24394,7 @@
         <v>32.801348714428954</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:4">
       <c r="A362" s="18">
         <f t="shared" si="3"/>
         <v>360</v>
@@ -24336,7 +24410,7 @@
         <v>32.773872745777759</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:4">
       <c r="A363" s="18">
         <f t="shared" si="3"/>
         <v>361</v>
@@ -24352,7 +24426,7 @@
         <v>32.746798306038762</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:4">
       <c r="A364" s="18">
         <f t="shared" si="3"/>
         <v>362</v>
@@ -24368,7 +24442,7 @@
         <v>32.721144167071806</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:4">
       <c r="A365" s="18">
         <f t="shared" si="3"/>
         <v>363</v>
@@ -24384,7 +24458,7 @@
         <v>32.694171318126706</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:4">
       <c r="A366" s="18">
         <f t="shared" si="3"/>
         <v>364</v>
@@ -24400,7 +24474,7 @@
         <v>32.66762139881866</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:4">
       <c r="A367" s="18">
         <f t="shared" si="3"/>
         <v>365</v>
@@ -24416,7 +24490,7 @@
         <v>32.640066271698615</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:4">
       <c r="A368" s="18">
         <f t="shared" si="3"/>
         <v>366</v>
@@ -24432,7 +24506,7 @@
         <v>32.611104344508178</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:4">
       <c r="A369" s="18">
         <f t="shared" si="3"/>
         <v>367</v>
@@ -24448,7 +24522,7 @@
         <v>32.582845203978181</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:4">
       <c r="A370" s="18">
         <f t="shared" si="3"/>
         <v>368</v>
@@ -24464,7 +24538,7 @@
         <v>32.556587472663026</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:4">
       <c r="A371" s="18">
         <f t="shared" si="3"/>
         <v>369</v>
@@ -24480,7 +24554,7 @@
         <v>32.530282358590767</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:4">
       <c r="A372" s="18">
         <f t="shared" si="3"/>
         <v>370</v>
@@ -24496,7 +24570,7 @@
         <v>32.506281594432416</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:4">
       <c r="A373" s="18">
         <f t="shared" si="3"/>
         <v>371</v>
@@ -24512,7 +24586,7 @@
         <v>32.482598892857126</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:4">
       <c r="A374" s="18">
         <f t="shared" si="3"/>
         <v>372</v>
@@ -24528,7 +24602,7 @@
         <v>32.459392982876324</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:4">
       <c r="A375" s="18">
         <f t="shared" si="3"/>
         <v>373</v>
@@ -24544,7 +24618,7 @@
         <v>32.435614449812313</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:4">
       <c r="A376" s="18">
         <f t="shared" si="3"/>
         <v>374</v>
@@ -24560,7 +24634,7 @@
         <v>32.411455051871634</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:4">
       <c r="A377" s="18">
         <f t="shared" si="3"/>
         <v>375</v>
@@ -24576,7 +24650,7 @@
         <v>32.387264505466646</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:4">
       <c r="A378" s="18">
         <f t="shared" si="3"/>
         <v>376</v>
@@ -24592,7 +24666,7 @@
         <v>32.361846248590403</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:4">
       <c r="A379" s="18">
         <f t="shared" si="3"/>
         <v>377</v>
@@ -24608,7 +24682,7 @@
         <v>32.336324109389899</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:4">
       <c r="A380" s="18">
         <f t="shared" si="3"/>
         <v>378</v>
@@ -24624,7 +24698,7 @@
         <v>32.312101030555532</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:4">
       <c r="A381" s="18">
         <f t="shared" si="3"/>
         <v>379</v>
@@ -24640,7 +24714,7 @@
         <v>32.287425299815283</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:4">
       <c r="A382" s="18">
         <f t="shared" si="3"/>
         <v>380</v>
@@ -24656,7 +24730,7 @@
         <v>32.260721547421028</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:4">
       <c r="A383" s="18">
         <f t="shared" si="3"/>
         <v>381</v>
@@ -24672,7 +24746,7 @@
         <v>32.234420440393677</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:4">
       <c r="A384" s="18">
         <f t="shared" si="3"/>
         <v>382</v>
@@ -24688,7 +24762,7 @@
         <v>32.208335571335049</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:4">
       <c r="A385" s="18">
         <f t="shared" si="3"/>
         <v>383</v>
@@ -24704,7 +24778,7 @@
         <v>32.183248534281958</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:4">
       <c r="A386" s="18">
         <f t="shared" si="3"/>
         <v>384</v>
@@ -24720,7 +24794,7 @@
         <v>32.157979656692682</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:4">
       <c r="A387" s="18">
         <f t="shared" si="3"/>
         <v>385</v>
@@ -24736,7 +24810,7 @@
         <v>32.134712179038935</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:4">
       <c r="A388" s="18">
         <f t="shared" si="3"/>
         <v>386</v>
@@ -24752,7 +24826,7 @@
         <v>32.111539350932617</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:4">
       <c r="A389" s="18">
         <f t="shared" si="3"/>
         <v>387</v>
@@ -24768,7 +24842,7 @@
         <v>32.088072842764831</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:4">
       <c r="A390" s="18">
         <f t="shared" si="3"/>
         <v>388</v>
@@ -24784,7 +24858,7 @@
         <v>32.064031418505131</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:4">
       <c r="A391" s="18">
         <f t="shared" si="3"/>
         <v>389</v>
@@ -24800,7 +24874,7 @@
         <v>32.038982493753188</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:4">
       <c r="A392" s="18">
         <f t="shared" si="3"/>
         <v>390</v>
@@ -24816,7 +24890,7 @@
         <v>32.015472284384586</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:4">
       <c r="A393" s="18">
         <f t="shared" si="3"/>
         <v>391</v>
@@ -24832,7 +24906,7 @@
         <v>31.992133479028105</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:4">
       <c r="A394" s="18">
         <f t="shared" si="3"/>
         <v>392</v>
@@ -24848,7 +24922,7 @@
         <v>31.970342324132627</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:4">
       <c r="A395" s="18">
         <f t="shared" si="3"/>
         <v>393</v>
@@ -24864,7 +24938,7 @@
         <v>31.947847812264605</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:4">
       <c r="A396" s="18">
         <f t="shared" si="3"/>
         <v>394</v>
@@ -24880,7 +24954,7 @@
         <v>31.925162919923835</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:4">
       <c r="A397" s="18">
         <f t="shared" si="3"/>
         <v>395</v>
@@ -24896,7 +24970,7 @@
         <v>31.902643521873394</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:4">
       <c r="A398" s="18">
         <f t="shared" si="3"/>
         <v>396</v>
@@ -24912,7 +24986,7 @@
         <v>31.880162098838358</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:4">
       <c r="A399" s="18">
         <f t="shared" si="3"/>
         <v>397</v>
@@ -24928,7 +25002,7 @@
         <v>31.856912319294686</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:4">
       <c r="A400" s="18">
         <f t="shared" si="3"/>
         <v>398</v>
@@ -24944,7 +25018,7 @@
         <v>31.833502994170832</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:4">
       <c r="A401" s="18">
         <f t="shared" si="3"/>
         <v>399</v>
@@ -24960,7 +25034,7 @@
         <v>31.810135819323285</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:4">
       <c r="A402" s="18">
         <f t="shared" si="3"/>
         <v>400</v>
@@ -24976,7 +25050,7 @@
         <v>31.786510481299977</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:4">
       <c r="A403" s="18">
         <f t="shared" si="3"/>
         <v>401</v>
@@ -24992,7 +25066,7 @@
         <v>31.762603973266813</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:4">
       <c r="A404" s="18">
         <f t="shared" si="3"/>
         <v>402</v>
@@ -25008,7 +25082,7 @@
         <v>31.740060184179082</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:4">
       <c r="A405" s="18">
         <f t="shared" si="3"/>
         <v>403</v>
@@ -25024,7 +25098,7 @@
         <v>31.717901224590552</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:4">
       <c r="A406" s="18">
         <f t="shared" si="3"/>
         <v>404</v>
@@ -25040,7 +25114,7 @@
         <v>31.696743053440571</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:4">
       <c r="A407" s="18">
         <f t="shared" si="3"/>
         <v>405</v>
@@ -25056,7 +25130,7 @@
         <v>31.675343689580224</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:4">
       <c r="A408" s="18">
         <f t="shared" si="3"/>
         <v>406</v>
@@ -25072,7 +25146,7 @@
         <v>31.654517718201948</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:4">
       <c r="A409" s="18">
         <f t="shared" si="3"/>
         <v>407</v>
@@ -25088,7 +25162,7 @@
         <v>31.634383765773933</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:4">
       <c r="A410" s="18">
         <f t="shared" si="3"/>
         <v>408</v>
@@ -25104,7 +25178,7 @@
         <v>31.614814196789194</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:4">
       <c r="A411" s="18">
         <f t="shared" si="3"/>
         <v>409</v>
@@ -25120,7 +25194,7 @@
         <v>31.595291421638123</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:4">
       <c r="A412" s="18">
         <f t="shared" si="3"/>
         <v>410</v>
@@ -25136,7 +25210,7 @@
         <v>31.576376077073149</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:4">
       <c r="A413" s="18">
         <f t="shared" si="3"/>
         <v>411</v>
@@ -25152,7 +25226,7 @@
         <v>31.556968836934285</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:4">
       <c r="A414" s="18">
         <f t="shared" si="3"/>
         <v>412</v>
@@ -25168,7 +25242,7 @@
         <v>31.537000465776678</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:4">
       <c r="A415" s="18">
         <f t="shared" si="3"/>
         <v>413</v>
@@ -25184,7 +25258,7 @@
         <v>31.51698351661015</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:4">
       <c r="A416" s="18">
         <f t="shared" si="3"/>
         <v>414</v>
@@ -25200,7 +25274,7 @@
         <v>31.497618822125581</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:4">
       <c r="A417" s="18">
         <f t="shared" si="3"/>
         <v>415</v>
@@ -25216,7 +25290,7 @@
         <v>31.477986006602389</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:4">
       <c r="A418" s="18">
         <f t="shared" si="3"/>
         <v>416</v>
@@ -25232,7 +25306,7 @@
         <v>31.457798540048056</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:4">
       <c r="A419" s="18">
         <f t="shared" si="3"/>
         <v>417</v>
@@ -25248,7 +25322,7 @@
         <v>31.436820603693025</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:4">
       <c r="A420" s="18">
         <f t="shared" si="3"/>
         <v>418</v>
@@ -25264,7 +25338,7 @@
         <v>31.415703809449742</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:4">
       <c r="A421" s="18">
         <f t="shared" si="3"/>
         <v>419</v>
@@ -25280,7 +25354,7 @@
         <v>31.394544609999983</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:4">
       <c r="A422" s="18">
         <f t="shared" si="3"/>
         <v>420</v>
@@ -25296,7 +25370,7 @@
         <v>31.373248077023792</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:4">
       <c r="A423" s="18">
         <f t="shared" si="3"/>
         <v>421</v>
@@ -25312,7 +25386,7 @@
         <v>31.352860316555802</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:4">
       <c r="A424" s="18">
         <f t="shared" si="3"/>
         <v>422</v>
@@ -25328,7 +25402,7 @@
         <v>31.333066808696664</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:4">
       <c r="A425" s="18">
         <f t="shared" si="3"/>
         <v>423</v>
@@ -25344,7 +25418,7 @@
         <v>31.312728588203292</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:4">
       <c r="A426" s="18">
         <f t="shared" si="3"/>
         <v>424</v>
@@ -25360,7 +25434,7 @@
         <v>31.292557059056588</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:4">
       <c r="A427" s="18">
         <f t="shared" si="3"/>
         <v>425</v>
@@ -25376,7 +25450,7 @@
         <v>31.272433394847042</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:4">
       <c r="A428" s="18">
         <f t="shared" si="3"/>
         <v>426</v>
@@ -25392,7 +25466,7 @@
         <v>31.252615475892004</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:4">
       <c r="A429" s="18">
         <f t="shared" si="3"/>
         <v>427</v>
@@ -25408,7 +25482,7 @@
         <v>31.234248694566734</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:4">
       <c r="A430" s="18">
         <f t="shared" si="3"/>
         <v>428</v>
@@ -25424,7 +25498,7 @@
         <v>31.216178020046716</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:4">
       <c r="A431" s="18">
         <f t="shared" si="3"/>
         <v>429</v>
@@ -25440,7 +25514,7 @@
         <v>31.198378071095561</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:4">
       <c r="A432" s="18">
         <f t="shared" si="3"/>
         <v>430</v>
@@ -25456,7 +25530,7 @@
         <v>31.181219051604643</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:4">
       <c r="A433" s="18">
         <f t="shared" si="3"/>
         <v>431</v>
@@ -25472,7 +25546,7 @@
         <v>31.163745224617159</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:4">
       <c r="A434" s="18">
         <f t="shared" si="3"/>
         <v>432</v>
@@ -25488,7 +25562,7 @@
         <v>31.146653223379619</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:4">
       <c r="A435" s="18">
         <f t="shared" si="3"/>
         <v>433</v>
@@ -25504,7 +25578,7 @@
         <v>31.13037919833717</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:4">
       <c r="A436" s="18">
         <f t="shared" si="3"/>
         <v>434</v>
@@ -25520,7 +25594,7 @@
         <v>31.114986621290313</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:4">
       <c r="A437" s="18">
         <f t="shared" si="3"/>
         <v>435</v>
@@ -25536,7 +25610,7 @@
         <v>31.099825733563208</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:4">
       <c r="A438" s="18">
         <f t="shared" si="3"/>
         <v>436</v>
@@ -25552,7 +25626,7 @@
         <v>31.084757327499986</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:4">
       <c r="A439" s="18">
         <f t="shared" si="3"/>
         <v>437</v>
@@ -25568,7 +25642,7 @@
         <v>31.0702384314874</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:4">
       <c r="A440" s="18">
         <f t="shared" si="3"/>
         <v>438</v>
@@ -25584,7 +25658,7 @@
         <v>31.055991311598159</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:4">
       <c r="A441" s="18">
         <f t="shared" si="3"/>
         <v>439</v>
@@ -25600,7 +25674,7 @@
         <v>31.042583586697024</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:4">
       <c r="A442" s="18">
         <f t="shared" si="3"/>
         <v>440</v>
@@ -25616,7 +25690,7 @@
         <v>31.028623168590894</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:4">
       <c r="A443" s="18">
         <f t="shared" si="3"/>
         <v>441</v>
@@ -25630,6 +25704,310 @@
       <c r="D443" s="18">
         <f>SUM(C$3:C443)/A443</f>
         <v>31.014726063038534</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4">
+      <c r="A444" s="18">
+        <f t="shared" si="3"/>
+        <v>442</v>
+      </c>
+      <c r="B444" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="C444" s="20">
+        <v>25.239999770000001</v>
+      </c>
+      <c r="D444" s="18">
+        <f>SUM(C$3:C444)/A444</f>
+        <v>31.001661071425325</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4">
+      <c r="A445" s="18">
+        <f t="shared" si="3"/>
+        <v>443</v>
+      </c>
+      <c r="B445" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="C445" s="20">
+        <v>25.129999160000001</v>
+      </c>
+      <c r="D445" s="18">
+        <f>SUM(C$3:C445)/A445</f>
+        <v>30.988406755598181</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4">
+      <c r="A446" s="18">
+        <f t="shared" si="3"/>
+        <v>444</v>
+      </c>
+      <c r="B446" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="C446" s="20">
+        <v>24.93000031</v>
+      </c>
+      <c r="D446" s="18">
+        <f>SUM(C$3:C446)/A446</f>
+        <v>30.974761696036023</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4">
+      <c r="A447" s="18">
+        <f t="shared" si="3"/>
+        <v>445</v>
+      </c>
+      <c r="B447" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="C447" s="20">
+        <v>24.600000380000001</v>
+      </c>
+      <c r="D447" s="18">
+        <f>SUM(C$3:C447)/A447</f>
+        <v>30.960436389707851</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4">
+      <c r="A448" s="18">
+        <f t="shared" si="3"/>
+        <v>446</v>
+      </c>
+      <c r="B448" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="C448" s="20">
+        <v>24.61000061</v>
+      </c>
+      <c r="D448" s="18">
+        <f>SUM(C$3:C448)/A448</f>
+        <v>30.94619774446187</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4">
+      <c r="A449" s="18">
+        <f t="shared" si="3"/>
+        <v>447</v>
+      </c>
+      <c r="B449" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="C449" s="20">
+        <v>24.5</v>
+      </c>
+      <c r="D449" s="18">
+        <f>SUM(C$3:C449)/A449</f>
+        <v>30.931776720425042</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4">
+      <c r="A450" s="18">
+        <f t="shared" si="3"/>
+        <v>448</v>
+      </c>
+      <c r="B450" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="C450" s="20">
+        <v>24.870000839999999</v>
+      </c>
+      <c r="D450" s="18">
+        <f>SUM(C$3:C450)/A450</f>
+        <v>30.918245970691949</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4">
+      <c r="A451" s="18">
+        <f t="shared" si="3"/>
+        <v>449</v>
+      </c>
+      <c r="B451" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="C451" s="20">
+        <v>24.63999939</v>
+      </c>
+      <c r="D451" s="18">
+        <f>SUM(C$3:C451)/A451</f>
+        <v>30.904263238886397</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4">
+      <c r="A452" s="18">
+        <f t="shared" si="3"/>
+        <v>450</v>
+      </c>
+      <c r="B452" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="C452" s="20">
+        <v>24.879999160000001</v>
+      </c>
+      <c r="D452" s="18">
+        <f>SUM(C$3:C452)/A452</f>
+        <v>30.890875985377765</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4">
+      <c r="A453" s="18">
+        <f t="shared" si="3"/>
+        <v>451</v>
+      </c>
+      <c r="B453" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="C453" s="20">
+        <v>24.809999470000001</v>
+      </c>
+      <c r="D453" s="18">
+        <f>SUM(C$3:C453)/A453</f>
+        <v>30.87739288889134</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4">
+      <c r="A454" s="18">
+        <f t="shared" si="3"/>
+        <v>452</v>
+      </c>
+      <c r="B454" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="C454" s="20">
+        <v>24.739999770000001</v>
+      </c>
+      <c r="D454" s="18">
+        <f>SUM(C$3:C454)/A454</f>
+        <v>30.86381458553096</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4">
+      <c r="A455" s="18">
+        <f t="shared" si="3"/>
+        <v>453</v>
+      </c>
+      <c r="B455" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="C455" s="20">
+        <v>24.489999770000001</v>
+      </c>
+      <c r="D455" s="18">
+        <f>SUM(C$3:C455)/A455</f>
+        <v>30.849744354150097</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4">
+      <c r="A456" s="18">
+        <f t="shared" si="3"/>
+        <v>454</v>
+      </c>
+      <c r="B456" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="C456" s="20">
+        <v>23.950000760000002</v>
+      </c>
+      <c r="D456" s="18">
+        <f>SUM(C$3:C456)/A456</f>
+        <v>30.834546681035228</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4">
+      <c r="A457" s="18">
+        <f t="shared" si="3"/>
+        <v>455</v>
+      </c>
+      <c r="B457" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="C457" s="20">
+        <v>24.409999849999998</v>
+      </c>
+      <c r="D457" s="18">
+        <f>SUM(C$3:C457)/A457</f>
+        <v>30.820426797890097</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4">
+      <c r="A458" s="18">
+        <f t="shared" si="3"/>
+        <v>456</v>
+      </c>
+      <c r="B458" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="C458" s="20">
+        <v>24.399999619999999</v>
+      </c>
+      <c r="D458" s="18">
+        <f>SUM(C$3:C458)/A458</f>
+        <v>30.806346913728056</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4">
+      <c r="A459" s="18">
+        <f t="shared" si="3"/>
+        <v>457</v>
+      </c>
+      <c r="B459" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="C459" s="20">
+        <v>24.200000760000002</v>
+      </c>
+      <c r="D459" s="18">
+        <f>SUM(C$3:C459)/A459</f>
+        <v>30.791891014048126</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4">
+      <c r="A460" s="18">
+        <f t="shared" si="3"/>
+        <v>458</v>
+      </c>
+      <c r="B460" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="C460" s="20">
+        <v>24.229999540000001</v>
+      </c>
+      <c r="D460" s="18">
+        <f>SUM(C$3:C460)/A460</f>
+        <v>30.777563740087324</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4">
+      <c r="A461" s="18">
+        <f t="shared" si="3"/>
+        <v>459</v>
+      </c>
+      <c r="B461" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="C461" s="20">
+        <v>24.020000459999999</v>
+      </c>
+      <c r="D461" s="18">
+        <f>SUM(C$3:C461)/A461</f>
+        <v>30.762841379999987</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4">
+      <c r="A462" s="18">
+        <f t="shared" si="3"/>
+        <v>460</v>
+      </c>
+      <c r="B462" s="19">
+        <v>44984</v>
+      </c>
+      <c r="C462" s="20">
+        <v>23.780000690000001</v>
+      </c>
+      <c r="D462" s="18">
+        <f>SUM(C$3:C462)/A462</f>
+        <v>30.747661291543466</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1prac.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1prac.xlsx
@@ -1588,7 +1588,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1647,6 +1647,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1782,7 +1783,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>3.25108</c:v>
                 </c:pt>
@@ -1891,6 +1892,9 @@
                 <c:pt idx="35">
                   <c:v>3.8110336914062501</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6777292480468748</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1899,7 +1903,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>2000.0000000000002</c:v>
                 </c:pt>
@@ -2008,6 +2012,9 @@
                 <c:pt idx="35">
                   <c:v>68151.7828856181</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>67767.93214664339</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2049,7 +2056,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>3.25108</c:v>
                 </c:pt>
@@ -2158,6 +2165,9 @@
                 <c:pt idx="35">
                   <c:v>3.8110336914062501</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6777292480468748</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2166,7 +2176,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2275,6 +2285,9 @@
                 <c:pt idx="35">
                   <c:v>-3848.2171143818996</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>-6232.0678533566097</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2316,7 +2329,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>3.25108</c:v>
                 </c:pt>
@@ -2425,6 +2438,9 @@
                 <c:pt idx="35">
                   <c:v>3.8110336914062501</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6777292480468748</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2454,11 +2470,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="159476736"/>
-        <c:axId val="159482624"/>
+        <c:axId val="87354752"/>
+        <c:axId val="328168960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="159476736"/>
+        <c:axId val="87354752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2501,7 +2517,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159482624"/>
+        <c:crossAx val="328168960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2509,7 +2525,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159482624"/>
+        <c:axId val="328168960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2560,7 +2576,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159476736"/>
+        <c:crossAx val="87354752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16767,6 +16783,406 @@
           </cell>
           <cell r="F705">
             <v>3.8110336914062501</v>
+          </cell>
+        </row>
+        <row r="706">
+          <cell r="A706">
+            <v>44958</v>
+          </cell>
+          <cell r="B706">
+            <v>3826.91259765625</v>
+          </cell>
+          <cell r="C706">
+            <v>3861.890380859375</v>
+          </cell>
+          <cell r="D706">
+            <v>3809.948486328125</v>
+          </cell>
+          <cell r="E706">
+            <v>3861.890380859375</v>
+          </cell>
+          <cell r="F706">
+            <v>3.861890380859375</v>
+          </cell>
+        </row>
+        <row r="707">
+          <cell r="A707">
+            <v>44959</v>
+          </cell>
+          <cell r="B707">
+            <v>3870.02783203125</v>
+          </cell>
+          <cell r="C707">
+            <v>3875.9189453125</v>
+          </cell>
+          <cell r="D707">
+            <v>3834.403564453125</v>
+          </cell>
+          <cell r="E707">
+            <v>3841.62939453125</v>
+          </cell>
+          <cell r="F707">
+            <v>3.8416293945312501</v>
+          </cell>
+        </row>
+        <row r="708">
+          <cell r="A708">
+            <v>44960</v>
+          </cell>
+          <cell r="B708">
+            <v>3827.781982421875</v>
+          </cell>
+          <cell r="C708">
+            <v>3834.679931640625</v>
+          </cell>
+          <cell r="D708">
+            <v>3764.18212890625</v>
+          </cell>
+          <cell r="E708">
+            <v>3814.672607421875</v>
+          </cell>
+          <cell r="F708">
+            <v>3.8146726074218749</v>
+          </cell>
+        </row>
+        <row r="709">
+          <cell r="A709">
+            <v>44963</v>
+          </cell>
+          <cell r="B709">
+            <v>3787.275390625</v>
+          </cell>
+          <cell r="C709">
+            <v>3792.05712890625</v>
+          </cell>
+          <cell r="D709">
+            <v>3741.56640625</v>
+          </cell>
+          <cell r="E709">
+            <v>3767.203125</v>
+          </cell>
+          <cell r="F709">
+            <v>3.767203125</v>
+          </cell>
+        </row>
+        <row r="710">
+          <cell r="A710">
+            <v>44964</v>
+          </cell>
+          <cell r="B710">
+            <v>3776.9912109375</v>
+          </cell>
+          <cell r="C710">
+            <v>3785.594482421875</v>
+          </cell>
+          <cell r="D710">
+            <v>3749.65185546875</v>
+          </cell>
+          <cell r="E710">
+            <v>3765.985595703125</v>
+          </cell>
+          <cell r="F710">
+            <v>3.7659855957031252</v>
+          </cell>
+        </row>
+        <row r="711">
+          <cell r="A711">
+            <v>44965</v>
+          </cell>
+          <cell r="B711">
+            <v>3771.941650390625</v>
+          </cell>
+          <cell r="C711">
+            <v>3779.919189453125</v>
+          </cell>
+          <cell r="D711">
+            <v>3744.5322265625</v>
+          </cell>
+          <cell r="E711">
+            <v>3748.6572265625</v>
+          </cell>
+          <cell r="F711">
+            <v>3.7486572265625</v>
+          </cell>
+        </row>
+        <row r="712">
+          <cell r="A712">
+            <v>44966</v>
+          </cell>
+          <cell r="B712">
+            <v>3737.456787109375</v>
+          </cell>
+          <cell r="C712">
+            <v>3805.634033203125</v>
+          </cell>
+          <cell r="D712">
+            <v>3728.27880859375</v>
+          </cell>
+          <cell r="E712">
+            <v>3805.634033203125</v>
+          </cell>
+          <cell r="F712">
+            <v>3.8056340332031251</v>
+          </cell>
+        </row>
+        <row r="713">
+          <cell r="A713">
+            <v>44967</v>
+          </cell>
+          <cell r="B713">
+            <v>3799.178466796875</v>
+          </cell>
+          <cell r="C713">
+            <v>3808.2763671875</v>
+          </cell>
+          <cell r="D713">
+            <v>3756.863037109375</v>
+          </cell>
+          <cell r="E713">
+            <v>3773.57568359375</v>
+          </cell>
+          <cell r="F713">
+            <v>3.7735756835937502</v>
+          </cell>
+        </row>
+        <row r="714">
+          <cell r="A714">
+            <v>44970</v>
+          </cell>
+          <cell r="B714">
+            <v>3769.485595703125</v>
+          </cell>
+          <cell r="C714">
+            <v>3811.090576171875</v>
+          </cell>
+          <cell r="D714">
+            <v>3759.244384765625</v>
+          </cell>
+          <cell r="E714">
+            <v>3810.79931640625</v>
+          </cell>
+          <cell r="F714">
+            <v>3.8107993164062499</v>
+          </cell>
+        </row>
+        <row r="715">
+          <cell r="A715">
+            <v>44971</v>
+          </cell>
+          <cell r="B715">
+            <v>3824.993896484375</v>
+          </cell>
+          <cell r="C715">
+            <v>3825.396728515625</v>
+          </cell>
+          <cell r="D715">
+            <v>3778.573974609375</v>
+          </cell>
+          <cell r="E715">
+            <v>3799.543212890625</v>
+          </cell>
+          <cell r="F715">
+            <v>3.799543212890625</v>
+          </cell>
+        </row>
+        <row r="716">
+          <cell r="A716">
+            <v>44972</v>
+          </cell>
+          <cell r="B716">
+            <v>3803.33544921875</v>
+          </cell>
+          <cell r="C716">
+            <v>3819.007080078125</v>
+          </cell>
+          <cell r="D716">
+            <v>3780.156005859375</v>
+          </cell>
+          <cell r="E716">
+            <v>3792.92822265625</v>
+          </cell>
+          <cell r="F716">
+            <v>3.7929282226562502</v>
+          </cell>
+        </row>
+        <row r="717">
+          <cell r="A717">
+            <v>44973</v>
+          </cell>
+          <cell r="B717">
+            <v>3795.4775390625</v>
+          </cell>
+          <cell r="C717">
+            <v>3828.3017578125</v>
+          </cell>
+          <cell r="D717">
+            <v>3725.235595703125</v>
+          </cell>
+          <cell r="E717">
+            <v>3750.837646484375</v>
+          </cell>
+          <cell r="F717">
+            <v>3.7508376464843751</v>
+          </cell>
+        </row>
+        <row r="718">
+          <cell r="A718">
+            <v>44974</v>
+          </cell>
+          <cell r="B718">
+            <v>3745.79541015625</v>
+          </cell>
+          <cell r="C718">
+            <v>3750.267578125</v>
+          </cell>
+          <cell r="D718">
+            <v>3665.463134765625</v>
+          </cell>
+          <cell r="E718">
+            <v>3666.324462890625</v>
+          </cell>
+          <cell r="F718">
+            <v>3.6663244628906249</v>
+          </cell>
+        </row>
+        <row r="719">
+          <cell r="A719">
+            <v>44977</v>
+          </cell>
+          <cell r="B719">
+            <v>3659.568603515625</v>
+          </cell>
+          <cell r="C719">
+            <v>3738.56591796875</v>
+          </cell>
+          <cell r="D719">
+            <v>3645.048095703125</v>
+          </cell>
+          <cell r="E719">
+            <v>3738.56591796875</v>
+          </cell>
+          <cell r="F719">
+            <v>3.7385659179687498</v>
+          </cell>
+        </row>
+        <row r="720">
+          <cell r="A720">
+            <v>44978</v>
+          </cell>
+          <cell r="B720">
+            <v>3732.120849609375</v>
+          </cell>
+          <cell r="C720">
+            <v>3753.77587890625</v>
+          </cell>
+          <cell r="D720">
+            <v>3713.380126953125</v>
+          </cell>
+          <cell r="E720">
+            <v>3739.5302734375</v>
+          </cell>
+          <cell r="F720">
+            <v>3.7395302734375</v>
+          </cell>
+        </row>
+        <row r="721">
+          <cell r="A721">
+            <v>44979</v>
+          </cell>
+          <cell r="B721">
+            <v>3712.302490234375</v>
+          </cell>
+          <cell r="C721">
+            <v>3730.087646484375</v>
+          </cell>
+          <cell r="D721">
+            <v>3697.661376953125</v>
+          </cell>
+          <cell r="E721">
+            <v>3709.724609375</v>
+          </cell>
+          <cell r="F721">
+            <v>3.7097246093749998</v>
+          </cell>
+        </row>
+        <row r="722">
+          <cell r="A722">
+            <v>44980</v>
+          </cell>
+          <cell r="B722">
+            <v>3706.565185546875</v>
+          </cell>
+          <cell r="C722">
+            <v>3733.9375</v>
+          </cell>
+          <cell r="D722">
+            <v>3697.26171875</v>
+          </cell>
+          <cell r="E722">
+            <v>3713.523193359375</v>
+          </cell>
+          <cell r="F722">
+            <v>3.7135231933593751</v>
+          </cell>
+        </row>
+        <row r="723">
+          <cell r="A723">
+            <v>44981</v>
+          </cell>
+          <cell r="B723">
+            <v>3713.09033203125</v>
+          </cell>
+          <cell r="C723">
+            <v>3714.319580078125</v>
+          </cell>
+          <cell r="D723">
+            <v>3672.4208984375</v>
+          </cell>
+          <cell r="E723">
+            <v>3683.28759765625</v>
+          </cell>
+          <cell r="F723">
+            <v>3.6832875976562498</v>
+          </cell>
+        </row>
+        <row r="724">
+          <cell r="A724">
+            <v>44984</v>
+          </cell>
+          <cell r="B724">
+            <v>3660.90966796875</v>
+          </cell>
+          <cell r="C724">
+            <v>3677.21533203125</v>
+          </cell>
+          <cell r="D724">
+            <v>3640.158203125</v>
+          </cell>
+          <cell r="E724">
+            <v>3645.96533203125</v>
+          </cell>
+          <cell r="F724">
+            <v>3.64596533203125</v>
+          </cell>
+        </row>
+        <row r="725">
+          <cell r="A725">
+            <v>44985</v>
+          </cell>
+          <cell r="B725">
+            <v>3662.222900390625</v>
+          </cell>
+          <cell r="C725">
+            <v>3683.2353515625</v>
+          </cell>
+          <cell r="D725">
+            <v>3641.981689453125</v>
+          </cell>
+          <cell r="E725">
+            <v>3677.729248046875</v>
+          </cell>
+          <cell r="F725">
+            <v>3.6777292480468748</v>
           </cell>
         </row>
       </sheetData>
@@ -17064,10 +17480,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:V38"/>
+  <dimension ref="A1:Y40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -17092,7 +17508,7 @@
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="10" customFormat="1" ht="27" customHeight="1">
+    <row r="1" spans="1:25" s="10" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>180</v>
       </c>
@@ -17122,7 +17538,7 @@
       </c>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:22" ht="14.1" customHeight="1">
+    <row r="2" spans="1:25" ht="14.1" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="4">
@@ -17138,7 +17554,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:22" ht="14.1" customHeight="1">
+    <row r="3" spans="1:25" ht="14.1" customHeight="1">
       <c r="A3" s="14">
         <v>43889</v>
       </c>
@@ -17206,8 +17622,18 @@
         <f>-U3</f>
         <v>-22000</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" ht="14.1" customHeight="1">
+      <c r="W3" s="23">
+        <v>44196</v>
+      </c>
+      <c r="X3" s="1">
+        <v>22000</v>
+      </c>
+      <c r="Y3" s="1">
+        <f>-X3</f>
+        <v>-22000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="14.1" customHeight="1">
       <c r="A4" s="14">
         <v>43921</v>
       </c>
@@ -17281,8 +17707,18 @@
         <f>-U4</f>
         <v>-24000</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" ht="14.1" customHeight="1">
+      <c r="W4" s="23">
+        <v>44561</v>
+      </c>
+      <c r="X4" s="1">
+        <v>24000</v>
+      </c>
+      <c r="Y4" s="1">
+        <f>-X4</f>
+        <v>-24000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="14.1" customHeight="1">
       <c r="A5" s="14">
         <v>43951</v>
       </c>
@@ -17339,7 +17775,7 @@
         <v>7008.069006718506</v>
       </c>
       <c r="Q5" s="8">
-        <f t="shared" ref="Q5" si="8">(O5-N5)/N5</f>
+        <f t="shared" ref="Q5:Q6" si="8">(O5-N5)/N5</f>
         <v>0.15234932623301101</v>
       </c>
       <c r="R5" s="8">
@@ -17351,8 +17787,18 @@
       <c r="V5" s="1">
         <v>53008.069006718506</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" ht="14.1" customHeight="1">
+      <c r="W5" s="23">
+        <v>44925</v>
+      </c>
+      <c r="X5" s="1">
+        <v>24000</v>
+      </c>
+      <c r="Y5" s="1">
+        <f>-X5</f>
+        <v>-24000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="14.1" customHeight="1">
       <c r="A6" s="14">
         <v>43980</v>
       </c>
@@ -17389,12 +17835,44 @@
         <v>173.75808106826935</v>
       </c>
       <c r="J6" s="6"/>
+      <c r="L6" s="23">
+        <v>44925</v>
+      </c>
+      <c r="M6" s="9">
+        <f>N6-N5</f>
+        <v>24000</v>
+      </c>
+      <c r="N6" s="4">
+        <f>VLOOKUP(L6,A:G,7,)</f>
+        <v>70000</v>
+      </c>
+      <c r="O6" s="4">
+        <f>VLOOKUP(L6,A:H,8,)</f>
+        <v>60293.406710853284</v>
+      </c>
+      <c r="P6" s="4">
+        <f>VLOOKUP(L6,A:I,9,)</f>
+        <v>-9706.5932891467164</v>
+      </c>
+      <c r="Q6" s="8">
+        <f t="shared" si="8"/>
+        <v>-0.13866561841638167</v>
+      </c>
+      <c r="R6" s="8">
+        <v>-7.3828223896210132E-2</v>
+      </c>
       <c r="V6" s="2">
         <f>IRR(V3:V5)</f>
         <v>9.9835199022272558E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" ht="14.1" customHeight="1">
+      <c r="W6" s="23">
+        <v>44925</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>60293.406710853284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="14.1" customHeight="1">
       <c r="A7" s="14">
         <v>44012</v>
       </c>
@@ -17431,8 +17909,12 @@
         <v>1353.8111490644224</v>
       </c>
       <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:22" ht="14.1" customHeight="1">
+      <c r="Y7" s="2">
+        <f>IRR(Y3:Y6)</f>
+        <v>-7.3828223896210132E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="14.1" customHeight="1">
       <c r="A8" s="14">
         <v>44043</v>
       </c>
@@ -17470,7 +17952,7 @@
       </c>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:22" ht="14.1" customHeight="1">
+    <row r="9" spans="1:25" ht="14.1" customHeight="1">
       <c r="A9" s="14">
         <v>44074</v>
       </c>
@@ -17508,7 +17990,7 @@
       </c>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:22" ht="14.1" customHeight="1">
+    <row r="10" spans="1:25" ht="14.1" customHeight="1">
       <c r="A10" s="14">
         <v>44104</v>
       </c>
@@ -17546,7 +18028,7 @@
       </c>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:22" ht="14.1" customHeight="1">
+    <row r="11" spans="1:25" ht="14.1" customHeight="1">
       <c r="A11" s="14">
         <v>44134</v>
       </c>
@@ -17584,7 +18066,7 @@
       </c>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:22" ht="14.1" customHeight="1">
+    <row r="12" spans="1:25" ht="14.1" customHeight="1">
       <c r="A12" s="14">
         <v>44165</v>
       </c>
@@ -17622,7 +18104,7 @@
       </c>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:22" ht="14.1" customHeight="1">
+    <row r="13" spans="1:25" ht="14.1" customHeight="1">
       <c r="A13" s="14">
         <v>44196</v>
       </c>
@@ -17660,7 +18142,7 @@
       </c>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:22" ht="14.1" customHeight="1">
+    <row r="14" spans="1:25" ht="14.1" customHeight="1">
       <c r="A14" s="14">
         <v>44225</v>
       </c>
@@ -17698,7 +18180,7 @@
       </c>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:22" ht="14.1" customHeight="1">
+    <row r="15" spans="1:25" ht="14.1" customHeight="1">
       <c r="A15" s="14">
         <v>44253</v>
       </c>
@@ -17711,7 +18193,7 @@
         <v>2000</v>
       </c>
       <c r="D15" s="17">
-        <f t="shared" ref="D15:D38" si="9">C15/B15</f>
+        <f t="shared" ref="D15:D39" si="9">C15/B15</f>
         <v>423.43635539860185</v>
       </c>
       <c r="E15" s="17">
@@ -17719,7 +18201,7 @@
         <v>6766.6987073504279</v>
       </c>
       <c r="F15" s="17">
-        <f t="shared" ref="F15:F38" si="10">E15*B15</f>
+        <f t="shared" ref="F15:F39" si="10">E15*B15</f>
         <v>31960.877336479982</v>
       </c>
       <c r="G15" s="17">
@@ -17727,16 +18209,16 @@
         <v>26000</v>
       </c>
       <c r="H15" s="17">
-        <f t="shared" ref="H15:H38" si="11">F15</f>
+        <f t="shared" ref="H15:H39" si="11">F15</f>
         <v>31960.877336479982</v>
       </c>
       <c r="I15" s="17">
-        <f t="shared" ref="I15:I38" si="12">H15-G15</f>
+        <f t="shared" ref="I15:I39" si="12">H15-G15</f>
         <v>5960.8773364799818</v>
       </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:22" ht="14.1" customHeight="1">
+    <row r="16" spans="1:25" ht="14.1" customHeight="1">
       <c r="A16" s="14">
         <v>44286</v>
       </c>
@@ -17745,7 +18227,7 @@
         <v>4.4379900000000001</v>
       </c>
       <c r="C16" s="16">
-        <f t="shared" ref="C16:C38" si="13">C15</f>
+        <f t="shared" ref="C16:C39" si="13">C15</f>
         <v>2000</v>
       </c>
       <c r="D16" s="17">
@@ -17753,7 +18235,7 @@
         <v>450.65446294381013</v>
       </c>
       <c r="E16" s="17">
-        <f t="shared" ref="E16:E38" si="14">E15+D16</f>
+        <f t="shared" ref="E16:E39" si="14">E15+D16</f>
         <v>7217.3531702942382</v>
       </c>
       <c r="F16" s="17">
@@ -17761,7 +18243,7 @@
         <v>32030.541196234128</v>
       </c>
       <c r="G16" s="17">
-        <f t="shared" ref="G16:G38" si="15">G15+C16</f>
+        <f t="shared" ref="G16:G39" si="15">G15+C16</f>
         <v>28000</v>
       </c>
       <c r="H16" s="17">
@@ -18606,6 +19088,46 @@
         <f t="shared" si="12"/>
         <v>-3848.2171143818996</v>
       </c>
+    </row>
+    <row r="39" spans="1:12" ht="12.75">
+      <c r="A39" s="14">
+        <v>44985</v>
+      </c>
+      <c r="B39" s="15">
+        <f>VLOOKUP(A39,[1]szse_innovation_100!$A:$F,6)</f>
+        <v>3.6777292480468748</v>
+      </c>
+      <c r="C39" s="16">
+        <f t="shared" si="13"/>
+        <v>2000</v>
+      </c>
+      <c r="D39" s="17">
+        <f t="shared" si="9"/>
+        <v>543.81382236393188</v>
+      </c>
+      <c r="E39" s="17">
+        <f t="shared" si="14"/>
+        <v>18426.569107182859</v>
+      </c>
+      <c r="F39" s="17">
+        <f t="shared" si="10"/>
+        <v>67767.93214664339</v>
+      </c>
+      <c r="G39" s="17">
+        <f t="shared" si="15"/>
+        <v>74000</v>
+      </c>
+      <c r="H39" s="17">
+        <f t="shared" si="11"/>
+        <v>67767.93214664339</v>
+      </c>
+      <c r="I39" s="17">
+        <f t="shared" si="12"/>
+        <v>-6232.0678533566097</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -18620,7 +19142,7 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D462"/>
+  <dimension ref="A1:D463"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -18635,7 +19157,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="12.75" customHeight="1">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="31" t="s">
         <v>194</v>
       </c>
       <c r="C1" s="22">
@@ -18643,7 +19165,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="12.75" customHeight="1">
-      <c r="B2" s="30"/>
+      <c r="B2" s="31"/>
       <c r="C2" s="28" t="s">
         <v>0</v>
       </c>
@@ -24300,7 +24822,7 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="18">
-        <f t="shared" ref="A356:A462" si="3">A355+1</f>
+        <f t="shared" ref="A356:A463" si="3">A355+1</f>
         <v>354</v>
       </c>
       <c r="B356" s="19" t="s">
@@ -26008,6 +26530,22 @@
       <c r="D462" s="18">
         <f>SUM(C$3:C462)/A462</f>
         <v>30.747661291543466</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4">
+      <c r="A463" s="18">
+        <f t="shared" si="3"/>
+        <v>461</v>
+      </c>
+      <c r="B463" s="19">
+        <v>44985</v>
+      </c>
+      <c r="C463" s="20">
+        <v>23.979999540000001</v>
+      </c>
+      <c r="D463" s="18">
+        <f>SUM(C$3:C463)/A463</f>
+        <v>30.732980897288492</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1prac.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1prac.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="model1" sheetId="5" r:id="rId1"/>
@@ -1782,118 +1782,115 @@
             <c:numRef>
               <c:f>model1!时间</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>3.25108</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8991500000000001</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.17509</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1906699999999999</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6513100000000001</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1706000000000003</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1298999999999992</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9869400000000002</c:v>
+                  <c:v>44104</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2014499999999995</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.27712</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7245600000000003</c:v>
+                  <c:v>44196</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.9833500000000006</c:v>
+                  <c:v>44225</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7232599999999998</c:v>
+                  <c:v>44253</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4379900000000001</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.7860299999999993</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.9806599999999994</c:v>
+                  <c:v>44347</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1114799999999994</c:v>
+                  <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.9776999999999996</c:v>
+                  <c:v>44407</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.7613100000000008</c:v>
+                  <c:v>44439</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.7106400000000006</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.8678999999999997</c:v>
+                  <c:v>44498</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.9547099609374996</c:v>
+                  <c:v>44530</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.8630097656249998</c:v>
+                  <c:v>44561</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.3440297851562502</c:v>
+                  <c:v>44589</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.3355400390624999</c:v>
+                  <c:v>44620</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.8658500976562502</c:v>
+                  <c:v>44651</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.5012099609375</c:v>
+                  <c:v>44680</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.6361599121093748</c:v>
+                  <c:v>44712</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.1096201171875002</c:v>
+                  <c:v>44742</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.8724699707031252</c:v>
+                  <c:v>44771</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.7022099609375001</c:v>
+                  <c:v>44804</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.3477299804687499</c:v>
+                  <c:v>44834</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2993999023437501</c:v>
+                  <c:v>44865</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.4802900390625</c:v>
+                  <c:v>44895</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.4735300292968749</c:v>
+                  <c:v>44925</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.8110336914062501</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3.6777292480468748</c:v>
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1903,7 +1900,274 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>46000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>48000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>52000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>54000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>56000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>58000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>62000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>64000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>66000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>68000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>72000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E69F-429A-B459-D6A53AA60C2B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>model1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>total assets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>model1!时间</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>43889</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43951</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43980</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44043</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44134</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44225</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44253</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44286</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44316</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44347</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44377</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44407</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44439</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44469</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44498</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44530</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44561</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44589</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44620</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44651</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44680</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44712</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44742</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44771</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44804</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44957</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>model1!资产</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>2000.0000000000002</c:v>
                 </c:pt>
@@ -2012,29 +2276,26 @@
                 <c:pt idx="35">
                   <c:v>68151.7828856181</c:v>
                 </c:pt>
-                <c:pt idx="36">
-                  <c:v>67767.93214664339</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E69F-429A-B459-D6A53AA60C2B}"/>
+              <c16:uniqueId val="{00000001-E69F-429A-B459-D6A53AA60C2B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>model1!$H$1</c:f>
+              <c:f>model1!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>total assets</c:v>
+                  <c:v>profit amount</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2042,7 +2303,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2055,128 +2316,125 @@
             <c:numRef>
               <c:f>model1!时间</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>3.25108</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8991500000000001</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.17509</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1906699999999999</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6513100000000001</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1706000000000003</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1298999999999992</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9869400000000002</c:v>
+                  <c:v>44104</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2014499999999995</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.27712</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7245600000000003</c:v>
+                  <c:v>44196</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.9833500000000006</c:v>
+                  <c:v>44225</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7232599999999998</c:v>
+                  <c:v>44253</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4379900000000001</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.7860299999999993</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.9806599999999994</c:v>
+                  <c:v>44347</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1114799999999994</c:v>
+                  <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.9776999999999996</c:v>
+                  <c:v>44407</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.7613100000000008</c:v>
+                  <c:v>44439</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.7106400000000006</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.8678999999999997</c:v>
+                  <c:v>44498</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.9547099609374996</c:v>
+                  <c:v>44530</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.8630097656249998</c:v>
+                  <c:v>44561</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.3440297851562502</c:v>
+                  <c:v>44589</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.3355400390624999</c:v>
+                  <c:v>44620</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.8658500976562502</c:v>
+                  <c:v>44651</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.5012099609375</c:v>
+                  <c:v>44680</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.6361599121093748</c:v>
+                  <c:v>44712</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.1096201171875002</c:v>
+                  <c:v>44742</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.8724699707031252</c:v>
+                  <c:v>44771</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.7022099609375001</c:v>
+                  <c:v>44804</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.3477299804687499</c:v>
+                  <c:v>44834</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2993999023437501</c:v>
+                  <c:v>44865</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.4802900390625</c:v>
+                  <c:v>44895</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.4735300292968749</c:v>
+                  <c:v>44925</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.8110336914062501</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3.6777292480468748</c:v>
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>model1!资产</c:f>
+              <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2285,171 +2543,6 @@
                 <c:pt idx="35">
                   <c:v>-3848.2171143818996</c:v>
                 </c:pt>
-                <c:pt idx="36">
-                  <c:v>-6232.0678533566097</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E69F-429A-B459-D6A53AA60C2B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>model1!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>profit amount</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>model1!时间</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
-                <c:pt idx="0">
-                  <c:v>3.25108</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.8991500000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.17509</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.1906699999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.6513100000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.1706000000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.1298999999999992</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.9869400000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.2014499999999995</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.27712</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.7245600000000003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.9833500000000006</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.7232599999999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.4379900000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.7860299999999993</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.9806599999999994</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.1114799999999994</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.9776999999999996</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.7613100000000008</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.7106400000000006</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.8678999999999997</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4.9547099609374996</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4.8630097656249998</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4.3440297851562502</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4.3355400390624999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.8658500976562502</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3.5012099609375</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3.6361599121093748</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4.1096201171875002</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.8724699707031252</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.7022099609375001</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.3477299804687499</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.2993999023437501</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.4802900390625</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3.4735300292968749</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3.8110336914062501</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3.6777292480468748</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>model1!金额</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2470,17 +2563,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="87354752"/>
-        <c:axId val="328168960"/>
+        <c:axId val="76940032"/>
+        <c:axId val="87356544"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="87354752"/>
+      <c:dateAx>
+        <c:axId val="76940032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -2517,15 +2610,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328168960"/>
+        <c:crossAx val="87356544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="328168960"/>
+        <c:axId val="87356544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2576,7 +2668,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87354752"/>
+        <c:crossAx val="76940032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17480,9 +17572,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y40"/>
+  <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -18193,7 +18285,7 @@
         <v>2000</v>
       </c>
       <c r="D15" s="17">
-        <f t="shared" ref="D15:D39" si="9">C15/B15</f>
+        <f t="shared" ref="D15:D38" si="9">C15/B15</f>
         <v>423.43635539860185</v>
       </c>
       <c r="E15" s="17">
@@ -18201,7 +18293,7 @@
         <v>6766.6987073504279</v>
       </c>
       <c r="F15" s="17">
-        <f t="shared" ref="F15:F39" si="10">E15*B15</f>
+        <f t="shared" ref="F15:F38" si="10">E15*B15</f>
         <v>31960.877336479982</v>
       </c>
       <c r="G15" s="17">
@@ -18209,11 +18301,11 @@
         <v>26000</v>
       </c>
       <c r="H15" s="17">
-        <f t="shared" ref="H15:H39" si="11">F15</f>
+        <f t="shared" ref="H15:H38" si="11">F15</f>
         <v>31960.877336479982</v>
       </c>
       <c r="I15" s="17">
-        <f t="shared" ref="I15:I39" si="12">H15-G15</f>
+        <f t="shared" ref="I15:I38" si="12">H15-G15</f>
         <v>5960.8773364799818</v>
       </c>
       <c r="J15" s="6"/>
@@ -18227,7 +18319,7 @@
         <v>4.4379900000000001</v>
       </c>
       <c r="C16" s="16">
-        <f t="shared" ref="C16:C39" si="13">C15</f>
+        <f t="shared" ref="C16:C38" si="13">C15</f>
         <v>2000</v>
       </c>
       <c r="D16" s="17">
@@ -18235,7 +18327,7 @@
         <v>450.65446294381013</v>
       </c>
       <c r="E16" s="17">
-        <f t="shared" ref="E16:E39" si="14">E15+D16</f>
+        <f t="shared" ref="E16:E38" si="14">E15+D16</f>
         <v>7217.3531702942382</v>
       </c>
       <c r="F16" s="17">
@@ -18243,7 +18335,7 @@
         <v>32030.541196234128</v>
       </c>
       <c r="G16" s="17">
-        <f t="shared" ref="G16:G39" si="15">G15+C16</f>
+        <f t="shared" ref="G16:G38" si="15">G15+C16</f>
         <v>28000</v>
       </c>
       <c r="H16" s="17">
@@ -19089,45 +19181,8 @@
         <v>-3848.2171143818996</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="12.75">
-      <c r="A39" s="14">
-        <v>44985</v>
-      </c>
-      <c r="B39" s="15">
-        <f>VLOOKUP(A39,[1]szse_innovation_100!$A:$F,6)</f>
-        <v>3.6777292480468748</v>
-      </c>
-      <c r="C39" s="16">
-        <f t="shared" si="13"/>
-        <v>2000</v>
-      </c>
-      <c r="D39" s="17">
-        <f t="shared" si="9"/>
-        <v>543.81382236393188</v>
-      </c>
-      <c r="E39" s="17">
-        <f t="shared" si="14"/>
-        <v>18426.569107182859</v>
-      </c>
-      <c r="F39" s="17">
-        <f t="shared" si="10"/>
-        <v>67767.93214664339</v>
-      </c>
-      <c r="G39" s="17">
-        <f t="shared" si="15"/>
-        <v>74000</v>
-      </c>
-      <c r="H39" s="17">
-        <f t="shared" si="11"/>
-        <v>67767.93214664339</v>
-      </c>
-      <c r="I39" s="17">
-        <f t="shared" si="12"/>
-        <v>-6232.0678533566097</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="30"/>
+    <row r="39" spans="1:12">
+      <c r="A39" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -19144,7 +19199,7 @@
   </sheetPr>
   <dimension ref="A1:D463"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1prac.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1prac.xlsx
@@ -1232,7 +1232,7 @@
     <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="180" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2563,11 +2563,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="76940032"/>
-        <c:axId val="87356544"/>
+        <c:axId val="254203008"/>
+        <c:axId val="254204544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="76940032"/>
+        <c:axId val="254203008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2610,14 +2610,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87356544"/>
+        <c:crossAx val="254204544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="87356544"/>
+        <c:axId val="254204544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2668,7 +2668,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76940032"/>
+        <c:crossAx val="254203008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17575,11 +17575,11 @@
   <dimension ref="A1:Y39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -17600,7 +17600,7 @@
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="10" customFormat="1" ht="27" customHeight="1">
+    <row r="1" spans="1:25" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>180</v>
       </c>
@@ -17630,7 +17630,7 @@
       </c>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:25" ht="14.1" customHeight="1">
+    <row r="2" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="4">
@@ -17646,7 +17646,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:25" ht="14.1" customHeight="1">
+    <row r="3" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>43889</v>
       </c>
@@ -17725,7 +17725,7 @@
         <v>-22000</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="14.1" customHeight="1">
+    <row r="4" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>43921</v>
       </c>
@@ -17810,7 +17810,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="14.1" customHeight="1">
+    <row r="5" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>43951</v>
       </c>
@@ -17890,7 +17890,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="14.1" customHeight="1">
+    <row r="6" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>43980</v>
       </c>
@@ -17964,7 +17964,7 @@
         <v>60293.406710853284</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="14.1" customHeight="1">
+    <row r="7" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>44012</v>
       </c>
@@ -18006,7 +18006,7 @@
         <v>-7.3828223896210132E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="14.1" customHeight="1">
+    <row r="8" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>44043</v>
       </c>
@@ -18044,7 +18044,7 @@
       </c>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:25" ht="14.1" customHeight="1">
+    <row r="9" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>44074</v>
       </c>
@@ -18082,7 +18082,7 @@
       </c>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:25" ht="14.1" customHeight="1">
+    <row r="10" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>44104</v>
       </c>
@@ -18120,7 +18120,7 @@
       </c>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:25" ht="14.1" customHeight="1">
+    <row r="11" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>44134</v>
       </c>
@@ -18158,7 +18158,7 @@
       </c>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:25" ht="14.1" customHeight="1">
+    <row r="12" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>44165</v>
       </c>
@@ -18196,7 +18196,7 @@
       </c>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:25" ht="14.1" customHeight="1">
+    <row r="13" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>44196</v>
       </c>
@@ -18234,7 +18234,7 @@
       </c>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:25" ht="14.1" customHeight="1">
+    <row r="14" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>44225</v>
       </c>
@@ -18272,7 +18272,7 @@
       </c>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:25" ht="14.1" customHeight="1">
+    <row r="15" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>44253</v>
       </c>
@@ -18310,7 +18310,7 @@
       </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:25" ht="14.1" customHeight="1">
+    <row r="16" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>44286</v>
       </c>
@@ -18348,7 +18348,7 @@
       </c>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:12" ht="14.1" customHeight="1">
+    <row r="17" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
         <v>44316</v>
       </c>
@@ -18386,7 +18386,7 @@
       </c>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:12" ht="14.1" customHeight="1">
+    <row r="18" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
         <v>44347</v>
       </c>
@@ -18424,7 +18424,7 @@
       </c>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:12" ht="14.1" customHeight="1">
+    <row r="19" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
         <v>44377</v>
       </c>
@@ -18462,7 +18462,7 @@
       </c>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:12" ht="14.1" customHeight="1">
+    <row r="20" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14">
         <v>44407</v>
       </c>
@@ -18500,7 +18500,7 @@
       </c>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:12" ht="14.1" customHeight="1">
+    <row r="21" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14">
         <v>44439</v>
       </c>
@@ -18539,7 +18539,7 @@
       <c r="J21" s="6"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" ht="14.1" customHeight="1">
+    <row r="22" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14">
         <v>44469</v>
       </c>
@@ -18577,7 +18577,7 @@
       </c>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:12" ht="14.1" customHeight="1">
+    <row r="23" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14">
         <v>44498</v>
       </c>
@@ -18615,7 +18615,7 @@
       </c>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:12" ht="14.1" customHeight="1">
+    <row r="24" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14">
         <v>44530</v>
       </c>
@@ -18653,7 +18653,7 @@
       </c>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:12" ht="14.1" customHeight="1">
+    <row r="25" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14">
         <v>44561</v>
       </c>
@@ -18691,7 +18691,7 @@
       </c>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="1:12" ht="14.1" customHeight="1">
+    <row r="26" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14">
         <v>44589</v>
       </c>
@@ -18729,7 +18729,7 @@
       </c>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="1:12" ht="14.1" customHeight="1">
+    <row r="27" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14">
         <v>44620</v>
       </c>
@@ -18767,7 +18767,7 @@
       </c>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:12" ht="14.1" customHeight="1">
+    <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14">
         <v>44651</v>
       </c>
@@ -18805,7 +18805,7 @@
       </c>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:12" ht="14.1" customHeight="1">
+    <row r="29" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14">
         <v>44680</v>
       </c>
@@ -18843,7 +18843,7 @@
       </c>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:12" ht="14.1" customHeight="1">
+    <row r="30" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14">
         <v>44712</v>
       </c>
@@ -18881,7 +18881,7 @@
       </c>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:12" ht="14.1" customHeight="1">
+    <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14">
         <v>44742</v>
       </c>
@@ -18919,7 +18919,7 @@
       </c>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:12" ht="14.1" customHeight="1">
+    <row r="32" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14">
         <v>44771</v>
       </c>
@@ -18957,7 +18957,7 @@
       </c>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:12" ht="14.1" customHeight="1">
+    <row r="33" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14">
         <v>44804</v>
       </c>
@@ -18996,7 +18996,7 @@
       <c r="J33" s="6"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="1:12" ht="12.75">
+    <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="14">
         <v>44834</v>
       </c>
@@ -19033,7 +19033,7 @@
         <v>-11770.911062729705</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="12.75">
+    <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="14">
         <v>44865</v>
       </c>
@@ -19070,7 +19070,7 @@
         <v>-12524.925264431353</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="12.75">
+    <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="14">
         <v>44895</v>
       </c>
@@ -19107,7 +19107,7 @@
         <v>-9593.1455874388703</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="12.75">
+    <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="14">
         <v>44925</v>
       </c>
@@ -19144,7 +19144,7 @@
         <v>-9706.5932891467164</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="12.75">
+    <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="14">
         <v>44957</v>
       </c>
@@ -19181,7 +19181,7 @@
         <v>-3848.2171143818996</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39" s="30"/>
     </row>
   </sheetData>
@@ -19203,7 +19203,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="18"/>
     <col min="2" max="2" width="8.5" style="18" customWidth="1"/>
@@ -19211,7 +19211,7 @@
     <col min="4" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="31" t="s">
         <v>194</v>
       </c>
@@ -19219,7 +19219,7 @@
         <v>399088</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="12.75" customHeight="1">
+    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="31"/>
       <c r="C2" s="28" t="s">
         <v>0</v>
@@ -19228,7 +19228,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="12.75" customHeight="1">
+    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -19243,7 +19243,7 @@
         <v>45.12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18">
         <f t="shared" ref="A4:A36" si="0">A3+1</f>
         <v>2</v>
@@ -19259,7 +19259,7 @@
         <v>44.965000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="12.75" customHeight="1">
+    <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -19275,7 +19275,7 @@
         <v>44.99666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1">
+    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -19291,7 +19291,7 @@
         <v>44.792500000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="12.75" customHeight="1">
+    <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -19307,7 +19307,7 @@
         <v>44.440000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="12.75" customHeight="1">
+    <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -19323,7 +19323,7 @@
         <v>44.256666666666668</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="12.75" customHeight="1">
+    <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -19339,7 +19339,7 @@
         <v>44.252857142857145</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="12.75" customHeight="1">
+    <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -19355,7 +19355,7 @@
         <v>44.220000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="12.75" customHeight="1">
+    <row r="11" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -19371,7 +19371,7 @@
         <v>44.181111111111115</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="12.75" customHeight="1">
+    <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -19387,7 +19387,7 @@
         <v>44.341000000000008</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="12.75" customHeight="1">
+    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -19403,7 +19403,7 @@
         <v>44.458181818181828</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="12.75" customHeight="1">
+    <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -19419,7 +19419,7 @@
         <v>44.577500000000008</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="12.75" customHeight="1">
+    <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -19435,7 +19435,7 @@
         <v>44.703076923076928</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="12.75" customHeight="1">
+    <row r="16" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -19451,7 +19451,7 @@
         <v>44.860000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="12.75" customHeight="1">
+    <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -19467,7 +19467,7 @@
         <v>44.968000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="12.75" customHeight="1">
+    <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -19483,7 +19483,7 @@
         <v>45.078750000000007</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="12.75" customHeight="1">
+    <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -19499,7 +19499,7 @@
         <v>45.214117647058828</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1">
+    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="18">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -19515,7 +19515,7 @@
         <v>45.345555555555563</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="12.75" customHeight="1">
+    <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="18">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -19531,7 +19531,7 @@
         <v>45.46631578947369</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="12.75" customHeight="1">
+    <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -19547,7 +19547,7 @@
         <v>45.062500000000007</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="12.75" customHeight="1">
+    <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="18">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -19563,7 +19563,7 @@
         <v>44.643333333333338</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="12.75" customHeight="1">
+    <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="18">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -19579,7 +19579,7 @@
         <v>44.269090909090913</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="12.75" customHeight="1">
+    <row r="25" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="18">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -19595,7 +19595,7 @@
         <v>43.928695652173921</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="12.75" customHeight="1">
+    <row r="26" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="18">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -19611,7 +19611,7 @@
         <v>43.627500000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="12.75" customHeight="1">
+    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="18">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -19627,7 +19627,7 @@
         <v>43.332400000000007</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="12.75" customHeight="1">
+    <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="18">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -19643,7 +19643,7 @@
         <v>43.088461538461544</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="12.75" customHeight="1">
+    <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="18">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -19659,7 +19659,7 @@
         <v>42.901851851851859</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="12.75" customHeight="1">
+    <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="18">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -19675,7 +19675,7 @@
         <v>42.726071428571437</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="12.75" customHeight="1">
+    <row r="31" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="18">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -19691,7 +19691,7 @@
         <v>42.570000000000007</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="12.75" customHeight="1">
+    <row r="32" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="18">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -19707,7 +19707,7 @@
         <v>42.435000000000009</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="12.75" customHeight="1">
+    <row r="33" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="18">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -19723,7 +19723,7 @@
         <v>42.298387096774199</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="12.75" customHeight="1">
+    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="18">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -19739,7 +19739,7 @@
         <v>42.179062500000008</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="12.75" customHeight="1">
+    <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="18">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -19755,7 +19755,7 @@
         <v>42.093333333333341</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="12.75" customHeight="1">
+    <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="18">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -19771,7 +19771,7 @@
         <v>42.005000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="12.75" customHeight="1">
+    <row r="37" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="18">
         <f t="shared" ref="A37:A100" si="1">A36+1</f>
         <v>35</v>
@@ -19787,7 +19787,7 @@
         <v>41.929428571428573</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="12.75" customHeight="1">
+    <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="18">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -19803,7 +19803,7 @@
         <v>41.856666666666662</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="12.75" customHeight="1">
+    <row r="39" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="18">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -19819,7 +19819,7 @@
         <v>41.802432432432425</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="12.75" customHeight="1">
+    <row r="40" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="18">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -19835,7 +19835,7 @@
         <v>41.751315789473679</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="12.75" customHeight="1">
+    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="18">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -19851,7 +19851,7 @@
         <v>41.689999999999991</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="12.75" customHeight="1">
+    <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="18">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -19867,7 +19867,7 @@
         <v>41.621999999999993</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="12.75" customHeight="1">
+    <row r="43" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="18">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -19883,7 +19883,7 @@
         <v>41.5680487804878</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="12.75" customHeight="1">
+    <row r="44" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="18">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -19899,7 +19899,7 @@
         <v>41.512380952380944</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="12.75" customHeight="1">
+    <row r="45" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="18">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -19915,7 +19915,7 @@
         <v>41.454186046511623</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="12.75" customHeight="1">
+    <row r="46" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="18">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -19931,7 +19931,7 @@
         <v>41.399318181818174</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="12.75" customHeight="1">
+    <row r="47" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="18">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -19947,7 +19947,7 @@
         <v>41.36044444444444</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="12.75" customHeight="1">
+    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="18">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -19963,7 +19963,7 @@
         <v>41.322391304347818</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="12.75" customHeight="1">
+    <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="18">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -19979,7 +19979,7 @@
         <v>41.285319148936161</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="12.75" customHeight="1">
+    <row r="50" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="18">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -19995,7 +19995,7 @@
         <v>41.222499999999989</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="12.75" customHeight="1">
+    <row r="51" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="18">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -20011,7 +20011,7 @@
         <v>41.174693877551015</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="12.75" customHeight="1">
+    <row r="52" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="18">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -20027,7 +20027,7 @@
         <v>41.139199999999988</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="12.75" customHeight="1">
+    <row r="53" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="18">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -20043,7 +20043,7 @@
         <v>41.106862745098027</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="12.75" customHeight="1">
+    <row r="54" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="18">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -20059,7 +20059,7 @@
         <v>41.078653846153834</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="12.75" customHeight="1">
+    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="18">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -20075,7 +20075,7 @@
         <v>41.062452830188661</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="12.75" customHeight="1">
+    <row r="56" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="18">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -20091,7 +20091,7 @@
         <v>41.045555555555538</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="12.75" customHeight="1">
+    <row r="57" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="18">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -20107,7 +20107,7 @@
         <v>41.038181818181798</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="12.75" customHeight="1">
+    <row r="58" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="18">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -20123,7 +20123,7 @@
         <v>41.038928571428549</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="12.75" customHeight="1">
+    <row r="59" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="18">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -20139,7 +20139,7 @@
         <v>41.034736842105247</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="12.75" customHeight="1">
+    <row r="60" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="18">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -20155,7 +20155,7 @@
         <v>41.041896551724122</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="12.75" customHeight="1">
+    <row r="61" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="18">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -20171,7 +20171,7 @@
         <v>41.046101694915237</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="12.75" customHeight="1">
+    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="18">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -20187,7 +20187,7 @@
         <v>41.029166666666654</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="12.75" customHeight="1">
+    <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="18">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -20203,7 +20203,7 @@
         <v>41.015737704918017</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="12.75" customHeight="1">
+    <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="18">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -20219,7 +20219,7 @@
         <v>40.997580645161271</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="12.75" customHeight="1">
+    <row r="65" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="18">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -20235,7 +20235,7 @@
         <v>40.997301587301571</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="12.75" customHeight="1">
+    <row r="66" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="18">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -20251,7 +20251,7 @@
         <v>40.998281249999984</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="12.75" customHeight="1">
+    <row r="67" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="18">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -20267,7 +20267,7 @@
         <v>40.994153846153829</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="12.75" customHeight="1">
+    <row r="68" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="18">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -20283,7 +20283,7 @@
         <v>41.006060606060593</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="12.75" customHeight="1">
+    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="18">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -20299,7 +20299,7 @@
         <v>41.01641791044775</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="12.75" customHeight="1">
+    <row r="70" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="18">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -20315,7 +20315,7 @@
         <v>41.020294117647047</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="12.75" customHeight="1">
+    <row r="71" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="18">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -20331,7 +20331,7 @@
         <v>41.027826086956509</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="12.75" customHeight="1">
+    <row r="72" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="18">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -20347,7 +20347,7 @@
         <v>41.021428571428558</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="12.75" customHeight="1">
+    <row r="73" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="18">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -20363,7 +20363,7 @@
         <v>41.019295774647873</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="12.75" customHeight="1">
+    <row r="74" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="18">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -20379,7 +20379,7 @@
         <v>41.017499999999984</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="12.75" customHeight="1">
+    <row r="75" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="18">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -20395,7 +20395,7 @@
         <v>41.027123287671216</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="12.75" customHeight="1">
+    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="18">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -20411,7 +20411,7 @@
         <v>41.036081081081065</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="12.75" customHeight="1">
+    <row r="77" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="18">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -20427,7 +20427,7 @@
         <v>41.035466666666643</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="12.75" customHeight="1">
+    <row r="78" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="18">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -20443,7 +20443,7 @@
         <v>41.020526335866805</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="12.75" customHeight="1">
+    <row r="79" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="18">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -20459,7 +20459,7 @@
         <v>40.984025981952598</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="12.75" customHeight="1">
+    <row r="80" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="18">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -20475,7 +20475,7 @@
         <v>40.953717942849167</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="12.75" customHeight="1">
+    <row r="81" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="18">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -20491,7 +20491,7 @@
         <v>40.943164537647085</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="12.75" customHeight="1">
+    <row r="82" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="18">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -20507,7 +20507,7 @@
         <v>40.930499984741189</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="12.75" customHeight="1">
+    <row r="83" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="18">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -20523,7 +20523,7 @@
         <v>40.927160476872935</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="12.75" customHeight="1">
+    <row r="84" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="18">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -20539,7 +20539,7 @@
         <v>40.921951202764724</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="12.75" customHeight="1">
+    <row r="85" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="18">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -20555,7 +20555,7 @@
         <v>40.929036107810127</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="12.75" customHeight="1">
+    <row r="86" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="18">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -20571,7 +20571,7 @@
         <v>40.931428547813759</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="12.75" customHeight="1">
+    <row r="87" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="18">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -20587,7 +20587,7 @@
         <v>40.92988232062843</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="12.75" customHeight="1">
+    <row r="88" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="18">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -20603,7 +20603,7 @@
         <v>40.928372052214847</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="12.75" customHeight="1">
+    <row r="89" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="18">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -20619,7 +20619,7 @@
         <v>40.927701096808754</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="12.75" customHeight="1">
+    <row r="90" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="18">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -20635,7 +20635,7 @@
         <v>40.924090864008107</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="12.75" customHeight="1">
+    <row r="91" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="18">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -20651,7 +20651,7 @@
         <v>40.917528047025854</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="12.75" customHeight="1">
+    <row r="92" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="18">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -20667,7 +20667,7 @@
         <v>40.904444420708536</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="12.75" customHeight="1">
+    <row r="93" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="18">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -20683,7 +20683,7 @@
         <v>40.886703283288959</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="12.75" customHeight="1">
+    <row r="94" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="18">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -20699,7 +20699,7 @@
         <v>40.859891271176529</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="12.75" customHeight="1">
+    <row r="95" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="18">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -20715,7 +20715,7 @@
         <v>40.836344033518131</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="12.75" customHeight="1">
+    <row r="96" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="18">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -20731,7 +20731,7 @@
         <v>40.815851010261682</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="12.75" customHeight="1">
+    <row r="97" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="18">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -20747,7 +20747,7 @@
         <v>40.787684151097331</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="12.75" customHeight="1">
+    <row r="98" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="18">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -20763,7 +20763,7 @@
         <v>40.770416618982935</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="12.75" customHeight="1">
+    <row r="99" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="18">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -20779,7 +20779,7 @@
         <v>40.756804084384548</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="12.75" customHeight="1">
+    <row r="100" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="18">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -20795,7 +20795,7 @@
         <v>40.744489749207773</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="12.75" customHeight="1">
+    <row r="101" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="18">
         <f t="shared" ref="A101:A355" si="2">A100+1</f>
         <v>99</v>
@@ -20811,7 +20811,7 @@
         <v>40.723232270828383</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="12.75" customHeight="1">
+    <row r="102" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="18">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -20827,7 +20827,7 @@
         <v>40.702299958801255</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="12.75" customHeight="1">
+    <row r="103" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="18">
         <f t="shared" si="2"/>
         <v>101</v>
@@ -20843,7 +20843,7 @@
         <v>40.680296984379815</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="12.75" customHeight="1">
+    <row r="104" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="18">
         <f t="shared" si="2"/>
         <v>102</v>
@@ -20859,7 +20859,7 @@
         <v>40.654705834482208</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="12.75" customHeight="1">
+    <row r="105" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="18">
         <f t="shared" si="2"/>
         <v>103</v>
@@ -20875,7 +20875,7 @@
         <v>40.599999957038342</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="12.75" customHeight="1">
+    <row r="106" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="18">
         <f t="shared" si="2"/>
         <v>104</v>
@@ -20891,7 +20891,7 @@
         <v>40.542692259274979</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="12.75" customHeight="1">
+    <row r="107" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="18">
         <f t="shared" si="2"/>
         <v>105</v>
@@ -20907,7 +20907,7 @@
         <v>40.482476154145722</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="12.75" customHeight="1">
+    <row r="108" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="18">
         <f t="shared" si="2"/>
         <v>106</v>
@@ -20923,7 +20923,7 @@
         <v>40.435849029253099</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="12.75" customHeight="1">
+    <row r="109" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="18">
         <f t="shared" si="2"/>
         <v>107</v>
@@ -20939,7 +20939,7 @@
         <v>40.391775685247957</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="12.75" customHeight="1">
+    <row r="110" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="18">
         <f t="shared" si="2"/>
         <v>108</v>
@@ -20955,7 +20955,7 @@
         <v>40.346574042991335</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="12.75" customHeight="1">
+    <row r="111" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="18">
         <f t="shared" si="2"/>
         <v>109</v>
@@ -20971,7 +20971,7 @@
         <v>40.302110060945544</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="12.75" customHeight="1">
+    <row r="112" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="18">
         <f t="shared" si="2"/>
         <v>110</v>
@@ -20987,7 +20987,7 @@
         <v>40.260272703690944</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="12.75" customHeight="1">
+    <row r="113" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="18">
         <f t="shared" si="2"/>
         <v>111</v>
@@ -21003,7 +21003,7 @@
         <v>40.215585555342926</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="12.75" customHeight="1">
+    <row r="114" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="18">
         <f t="shared" si="2"/>
         <v>112</v>
@@ -21019,7 +21019,7 @@
         <v>40.173214266640784</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="12.75" customHeight="1">
+    <row r="115" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="18">
         <f t="shared" si="2"/>
         <v>113</v>
@@ -21035,7 +21035,7 @@
         <v>40.128584061344093</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="12.75" customHeight="1">
+    <row r="116" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="18">
         <f t="shared" si="2"/>
         <v>114</v>
@@ -21051,7 +21051,7 @@
         <v>40.078245599311678</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="12.75" customHeight="1">
+    <row r="117" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="18">
         <f t="shared" si="2"/>
         <v>115</v>
@@ -21067,7 +21067,7 @@
         <v>40.032521721881352</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="12.75" customHeight="1">
+    <row r="118" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="18">
         <f t="shared" si="2"/>
         <v>116</v>
@@ -21083,7 +21083,7 @@
         <v>39.985344822324535</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="12.75" customHeight="1">
+    <row r="119" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="18">
         <f t="shared" si="2"/>
         <v>117</v>
@@ -21099,7 +21099,7 @@
         <v>39.940427341298147</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="12.75" customHeight="1">
+    <row r="120" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="18">
         <f t="shared" si="2"/>
         <v>118</v>
@@ -21115,7 +21115,7 @@
         <v>39.89703388666701</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="12.75" customHeight="1">
+    <row r="121" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="18">
         <f t="shared" si="2"/>
         <v>119</v>
@@ -21131,7 +21131,7 @@
         <v>39.856638645204157</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="12.75" customHeight="1">
+    <row r="122" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="18">
         <f t="shared" si="2"/>
         <v>120</v>
@@ -21147,7 +21147,7 @@
         <v>39.814833324432357</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="12.75" customHeight="1">
+    <row r="123" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="18">
         <f t="shared" si="2"/>
         <v>121</v>
@@ -21163,7 +21163,7 @@
         <v>39.769752062332515</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="12.75" customHeight="1">
+    <row r="124" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="18">
         <f t="shared" si="2"/>
         <v>122</v>
@@ -21179,7 +21179,7 @@
         <v>39.730819672131133</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="12.75" customHeight="1">
+    <row r="125" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="18">
         <f t="shared" si="2"/>
         <v>123</v>
@@ -21195,7 +21195,7 @@
         <v>39.694634136422749</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="12.75" customHeight="1">
+    <row r="126" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="18">
         <f t="shared" si="2"/>
         <v>124</v>
@@ -21211,7 +21211,7 @@
         <v>39.656854815322561</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="12.75" customHeight="1">
+    <row r="127" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="18">
         <f t="shared" si="2"/>
         <v>125</v>
@@ -21227,7 +21227,7 @@
         <v>39.615839967039982</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="12.75" customHeight="1">
+    <row r="128" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="18">
         <f t="shared" si="2"/>
         <v>126</v>
@@ -21243,7 +21243,7 @@
         <v>39.58039680484125</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="12.75" customHeight="1">
+    <row r="129" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="18">
         <f t="shared" si="2"/>
         <v>127</v>
@@ -21259,7 +21259,7 @@
         <v>39.545433045669277</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="12.75" customHeight="1">
+    <row r="130" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="18">
         <f t="shared" si="2"/>
         <v>128</v>
@@ -21275,7 +21275,7 @@
         <v>39.514765591640611</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="12.75" customHeight="1">
+    <row r="131" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="18">
         <f t="shared" si="2"/>
         <v>129</v>
@@ -21291,7 +21291,7 @@
         <v>39.483953462403086</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="12.75" customHeight="1">
+    <row r="132" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="18">
         <f t="shared" si="2"/>
         <v>130</v>
@@ -21307,7 +21307,7 @@
         <v>39.455384593153838</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="12.75" customHeight="1">
+    <row r="133" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="18">
         <f t="shared" si="2"/>
         <v>131</v>
@@ -21323,7 +21323,7 @@
         <v>39.425419815954186</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="12.75" customHeight="1">
+    <row r="134" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="18">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -21339,7 +21339,7 @@
         <v>39.396590869848474</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="12.75" customHeight="1">
+    <row r="135" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="18">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -21355,7 +21355,7 @@
         <v>39.371127767969917</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="12.75" customHeight="1">
+    <row r="136" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="18">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -21371,7 +21371,7 @@
         <v>39.348358155447755</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="12.75" customHeight="1">
+    <row r="137" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="18">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -21387,7 +21387,7 @@
         <v>39.325777719037028</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="12.75" customHeight="1">
+    <row r="138" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="18">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -21403,7 +21403,7 @@
         <v>39.30124995404411</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="12.75" customHeight="1">
+    <row r="139" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="18">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -21419,7 +21419,7 @@
         <v>39.275182432773718</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="12.75" customHeight="1">
+    <row r="140" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="18">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -21435,7 +21435,7 @@
         <v>39.253623134275358</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="12.75" customHeight="1">
+    <row r="141" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="18">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -21451,7 +21451,7 @@
         <v>39.222517934100708</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="12.75" customHeight="1">
+    <row r="142" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="18">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -21467,7 +21467,7 @@
         <v>39.191714233499987</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="12.75" customHeight="1">
+    <row r="143" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="18">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -21483,7 +21483,7 @@
         <v>39.159361657872324</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="12.75" customHeight="1">
+    <row r="144" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="18">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -21499,7 +21499,7 @@
         <v>39.130704182464775</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="12.75" customHeight="1">
+    <row r="145" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="18">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -21515,7 +21515,7 @@
         <v>39.101118849230758</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="12.75" customHeight="1">
+    <row r="146" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="18">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -21531,7 +21531,7 @@
         <v>39.072916641388879</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="12.75" customHeight="1">
+    <row r="147" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="18">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -21547,7 +21547,7 @@
         <v>39.046344810896542</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="12.75" customHeight="1">
+    <row r="148" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="18">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -21563,7 +21563,7 @@
         <v>39.018561638767117</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="12.75" customHeight="1">
+    <row r="149" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="18">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -21579,7 +21579,7 @@
         <v>38.994013599387742</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="12.75" customHeight="1">
+    <row r="150" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="18">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -21595,7 +21595,7 @@
         <v>38.968783766418909</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="12.75" customHeight="1">
+    <row r="151" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="18">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -21611,7 +21611,7 @@
         <v>38.941812068389247</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="12.75" customHeight="1">
+    <row r="152" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="18">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -21627,7 +21627,7 @@
         <v>38.915199992999987</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="12.75" customHeight="1">
+    <row r="153" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="18">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -21643,7 +21643,7 @@
         <v>38.890794691986741</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="12.75" customHeight="1">
+    <row r="154" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="18">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -21659,7 +21659,7 @@
         <v>38.864144727894725</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="12.75" customHeight="1">
+    <row r="155" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="18">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -21675,7 +21675,7 @@
         <v>38.840653588888877</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="12.75" customHeight="1">
+    <row r="156" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="18">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -21691,7 +21691,7 @@
         <v>38.822142862207784</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="12.75" customHeight="1">
+    <row r="157" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="18">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -21707,7 +21707,7 @@
         <v>38.801870974774182</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="12.75" customHeight="1">
+    <row r="158" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="18">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -21723,7 +21723,7 @@
         <v>38.781025643141014</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="12.75" customHeight="1">
+    <row r="159" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="18">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -21739,7 +21739,7 @@
         <v>38.75942674980891</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="12.75" customHeight="1">
+    <row r="160" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="18">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -21755,7 +21755,7 @@
         <v>38.73683543259493</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="12.75" customHeight="1">
+    <row r="161" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="18">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -21771,7 +21771,7 @@
         <v>38.715911938364776</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="12.75" customHeight="1">
+    <row r="162" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="18">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -21787,7 +21787,7 @@
         <v>38.695499988749994</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="12.75" customHeight="1">
+    <row r="163" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="18">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -21803,7 +21803,7 @@
         <v>38.674285695527942</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="12.75" customHeight="1">
+    <row r="164" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="18">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -21819,7 +21819,7 @@
         <v>38.652962951851848</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="12.75" customHeight="1">
+    <row r="165" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="18">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -21835,7 +21835,7 @@
         <v>38.632515324478518</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="12.75" customHeight="1">
+    <row r="166" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="18">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -21851,7 +21851,7 @@
         <v>38.609999978780486</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="12.75" customHeight="1">
+    <row r="167" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="18">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -21867,7 +21867,7 @@
         <v>38.586363609696967</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="12.75" customHeight="1">
+    <row r="168" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="18">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -21883,7 +21883,7 @@
         <v>38.566746972469872</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="12.75" customHeight="1">
+    <row r="169" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="18">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -21899,7 +21899,7 @@
         <v>38.550598780598797</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="12.75" customHeight="1">
+    <row r="170" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="18">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -21915,7 +21915,7 @@
         <v>38.53458331529761</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="12.75" customHeight="1">
+    <row r="171" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="18">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -21931,7 +21931,7 @@
         <v>38.518757382130168</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="12.75" customHeight="1">
+    <row r="172" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="18">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -21947,7 +21947,7 @@
         <v>38.501588212058813</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="12.75" customHeight="1">
+    <row r="173" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="18">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -21963,7 +21963,7 @@
         <v>38.482806999824554</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="12.75" customHeight="1">
+    <row r="174" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="18">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -21979,7 +21979,7 @@
         <v>38.465581380406974</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="12.75" customHeight="1">
+    <row r="175" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="18">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -21995,7 +21995,7 @@
         <v>38.445202289364161</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="12.75" customHeight="1">
+    <row r="176" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="18">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -22011,7 +22011,7 @@
         <v>38.42022985362069</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="12.75" customHeight="1">
+    <row r="177" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="18">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -22027,7 +22027,7 @@
         <v>38.397485675200002</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="12.75" customHeight="1">
+    <row r="178" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="18">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -22043,7 +22043,7 @@
         <v>38.376420407897733</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="12.75" customHeight="1">
+    <row r="179" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="18">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -22059,7 +22059,7 @@
         <v>38.356271147796612</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="12.75" customHeight="1">
+    <row r="180" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="18">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -22075,7 +22075,7 @@
         <v>38.333426933033707</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="12.75" customHeight="1">
+    <row r="181" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="18">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -22091,7 +22091,7 @@
         <v>38.311229020614526</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="12.75" customHeight="1">
+    <row r="182" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="18">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -22107,7 +22107,7 @@
         <v>38.290888867888889</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="12.75" customHeight="1">
+    <row r="183" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="18">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -22123,7 +22123,7 @@
         <v>38.268618754364638</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="12.75" customHeight="1">
+    <row r="184" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="18">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -22139,7 +22139,7 @@
         <v>38.248351618351641</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="12.75" customHeight="1">
+    <row r="185" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="18">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -22155,7 +22155,7 @@
         <v>38.228579205136612</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="12.75" customHeight="1">
+    <row r="186" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="18">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -22171,7 +22171,7 @@
         <v>38.206847793913042</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="12.75" customHeight="1">
+    <row r="187" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="18">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -22187,7 +22187,7 @@
         <v>38.181189152216213</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="12.75" customHeight="1">
+    <row r="188" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="18">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -22203,7 +22203,7 @@
         <v>38.15387092274193</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="12.75" customHeight="1">
+    <row r="189" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="18">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -22219,7 +22219,7 @@
         <v>38.12657749128342</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="12.75" customHeight="1">
+    <row r="190" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="18">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -22235,7 +22235,7 @@
         <v>38.100053139680853</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="12.75" customHeight="1">
+    <row r="191" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="18">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -22251,7 +22251,7 @@
         <v>38.071216879682538</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="12.75" customHeight="1">
+    <row r="192" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="18">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -22267,7 +22267,7 @@
         <v>38.0456315228421</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="12.75" customHeight="1">
+    <row r="193" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="18">
         <f t="shared" si="2"/>
         <v>191</v>
@@ -22283,7 +22283,7 @@
         <v>38.017120363036646</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="12.75" customHeight="1">
+    <row r="194" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="18">
         <f t="shared" si="2"/>
         <v>192</v>
@@ -22299,7 +22299,7 @@
         <v>37.989791613541662</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="12.75" customHeight="1">
+    <row r="195" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="18">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -22315,7 +22315,7 @@
         <v>37.965699429792743</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="12.75" customHeight="1">
+    <row r="196" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="18">
         <f t="shared" si="2"/>
         <v>194</v>
@@ -22331,7 +22331,7 @@
         <v>37.941855619072165</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="12.75" customHeight="1">
+    <row r="197" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="18">
         <f t="shared" si="2"/>
         <v>195</v>
@@ -22347,7 +22347,7 @@
         <v>37.915128152000001</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="12.75" customHeight="1">
+    <row r="198" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="18">
         <f t="shared" si="2"/>
         <v>196</v>
@@ -22363,7 +22363,7 @@
         <v>37.889132598622453</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="12.75" customHeight="1">
+    <row r="199" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="18">
         <f t="shared" si="2"/>
         <v>197</v>
@@ -22379,7 +22379,7 @@
         <v>37.861268989137059</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="12.75" customHeight="1">
+    <row r="200" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="18">
         <f t="shared" si="2"/>
         <v>198</v>
@@ -22395,7 +22395,7 @@
         <v>37.834646419242425</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="12.75" customHeight="1">
+    <row r="201" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="18">
         <f t="shared" si="2"/>
         <v>199</v>
@@ -22411,7 +22411,7 @@
         <v>37.804422063819104</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="12.75" customHeight="1">
+    <row r="202" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="18">
         <f t="shared" si="2"/>
         <v>200</v>
@@ -22427,7 +22427,7 @@
         <v>37.775999948150009</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="12.75" customHeight="1">
+    <row r="203" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="18">
         <f t="shared" si="2"/>
         <v>201</v>
@@ -22443,7 +22443,7 @@
         <v>37.743084524776123</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="12.75" customHeight="1">
+    <row r="204" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="18">
         <f t="shared" si="2"/>
         <v>202</v>
@@ -22459,7 +22459,7 @@
         <v>37.710494996683174</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="12.75" customHeight="1">
+    <row r="205" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="18">
         <f t="shared" si="2"/>
         <v>203</v>
@@ -22475,7 +22475,7 @@
         <v>37.678472849310346</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="12.75" customHeight="1">
+    <row r="206" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="18">
         <f t="shared" si="2"/>
         <v>204</v>
@@ -22491,7 +22491,7 @@
         <v>37.643872496323532</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="12.75" customHeight="1">
+    <row r="207" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="18">
         <f t="shared" si="2"/>
         <v>205</v>
@@ -22507,7 +22507,7 @@
         <v>37.61151214380488</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="12.75" customHeight="1">
+    <row r="208" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="18">
         <f t="shared" si="2"/>
         <v>206</v>
@@ -22523,7 +22523,7 @@
         <v>37.577281499757277</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="12.75" customHeight="1">
+    <row r="209" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="18">
         <f t="shared" si="2"/>
         <v>207</v>
@@ -22539,7 +22539,7 @@
         <v>37.540193181497585</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="12.75" customHeight="1">
+    <row r="210" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="18">
         <f t="shared" si="2"/>
         <v>208</v>
@@ -22555,7 +22555,7 @@
         <v>37.503221100721149</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="12.75" customHeight="1">
+    <row r="211" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="18">
         <f t="shared" si="2"/>
         <v>209</v>
@@ -22571,7 +22571,7 @@
         <v>37.469999944593297</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="12.75" customHeight="1">
+    <row r="212" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="18">
         <f t="shared" si="2"/>
         <v>210</v>
@@ -22587,7 +22587,7 @@
         <v>37.437380901238093</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="12.75" customHeight="1">
+    <row r="213" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="18">
         <f t="shared" si="2"/>
         <v>211</v>
@@ -22603,7 +22603,7 @@
         <v>37.405781941800946</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="12.75" customHeight="1">
+    <row r="214" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="18">
         <f t="shared" si="2"/>
         <v>212</v>
@@ -22619,7 +22619,7 @@
         <v>37.374245231273584</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="12.75" customHeight="1">
+    <row r="215" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="18">
         <f t="shared" si="2"/>
         <v>213</v>
@@ -22635,7 +22635,7 @@
         <v>37.342629053615028</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="12.75" customHeight="1">
+    <row r="216" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="18">
         <f t="shared" si="2"/>
         <v>214</v>
@@ -22651,7 +22651,7 @@
         <v>37.309205555841125</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="12.75" customHeight="1">
+    <row r="217" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="18">
         <f t="shared" si="2"/>
         <v>215</v>
@@ -22667,7 +22667,7 @@
         <v>37.27981390102326</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="12.75" customHeight="1">
+    <row r="218" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="18">
         <f t="shared" si="2"/>
         <v>216</v>
@@ -22683,7 +22683,7 @@
         <v>37.247685133657413</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="12.75" customHeight="1">
+    <row r="219" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="18">
         <f t="shared" si="2"/>
         <v>217</v>
@@ -22699,7 +22699,7 @@
         <v>37.218433126682037</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="12.75" customHeight="1">
+    <row r="220" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="18">
         <f t="shared" si="2"/>
         <v>218</v>
@@ -22715,7 +22715,7 @@
         <v>37.189770586238538</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="12.75" customHeight="1">
+    <row r="221" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="18">
         <f t="shared" si="2"/>
         <v>219</v>
@@ -22731,7 +22731,7 @@
         <v>37.161232823424669</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="12.75" customHeight="1">
+    <row r="222" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="18">
         <f t="shared" si="2"/>
         <v>220</v>
@@ -22747,7 +22747,7 @@
         <v>37.130772670045459</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="12.75" customHeight="1">
+    <row r="223" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="18">
         <f t="shared" si="2"/>
         <v>221</v>
@@ -22763,7 +22763,7 @@
         <v>37.098913970859734</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="12.75" customHeight="1">
+    <row r="224" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="18">
         <f t="shared" si="2"/>
         <v>222</v>
@@ -22779,7 +22779,7 @@
         <v>37.065180126891896</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="12.75" customHeight="1">
+    <row r="225" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="18">
         <f t="shared" si="2"/>
         <v>223</v>
@@ -22795,7 +22795,7 @@
         <v>37.026053759282519</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="12.75" customHeight="1">
+    <row r="226" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="18">
         <f t="shared" si="2"/>
         <v>224</v>
@@ -22811,7 +22811,7 @@
         <v>36.984464229464287</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="12.75" customHeight="1">
+    <row r="227" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="18">
         <f t="shared" si="2"/>
         <v>225</v>
@@ -22827,7 +22827,7 @@
         <v>36.94248883697778</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="12.75" customHeight="1">
+    <row r="228" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="18">
         <f t="shared" si="2"/>
         <v>226</v>
@@ -22843,7 +22843,7 @@
         <v>36.903849501769912</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="12.75" customHeight="1">
+    <row r="229" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="18">
         <f t="shared" si="2"/>
         <v>227</v>
@@ -22859,7 +22859,7 @@
         <v>36.866607877356834</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="12.75" customHeight="1">
+    <row r="230" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="18">
         <f t="shared" si="2"/>
         <v>228</v>
@@ -22875,7 +22875,7 @@
         <v>36.825438542543864</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="12.75" customHeight="1">
+    <row r="231" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="18">
         <f t="shared" si="2"/>
         <v>229</v>
@@ -22891,7 +22891,7 @@
         <v>36.780523967772936</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="12.75" customHeight="1">
+    <row r="232" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="18">
         <f t="shared" si="2"/>
         <v>230</v>
@@ -22907,7 +22907,7 @@
         <v>36.740956473608705</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="12.75" customHeight="1">
+    <row r="233" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="18">
         <f t="shared" si="2"/>
         <v>231</v>
@@ -22923,7 +22923,7 @@
         <v>36.704978308398275</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="12.75" customHeight="1">
+    <row r="234" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="18">
         <f t="shared" si="2"/>
         <v>232</v>
@@ -22939,7 +22939,7 @@
         <v>36.66892236806035</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="12.75" customHeight="1">
+    <row r="235" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="18">
         <f t="shared" si="2"/>
         <v>233</v>
@@ -22955,7 +22955,7 @@
         <v>36.633948454291847</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="12.75" customHeight="1">
+    <row r="236" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="18">
         <f t="shared" si="2"/>
         <v>234</v>
@@ -22971,7 +22971,7 @@
         <v>36.598119614743588</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="12.75" customHeight="1">
+    <row r="237" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="18">
         <f t="shared" si="2"/>
         <v>235</v>
@@ -22987,7 +22987,7 @@
         <v>36.563361660255318</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="12.75" customHeight="1">
+    <row r="238" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="18">
         <f t="shared" si="2"/>
         <v>236</v>
@@ -23003,7 +23003,7 @@
         <v>36.528262673093217</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="12.75" customHeight="1">
+    <row r="239" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="18">
         <f t="shared" si="2"/>
         <v>237</v>
@@ -23019,7 +23019,7 @@
         <v>36.490632875358649</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="12.75" customHeight="1">
+    <row r="240" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="18">
         <f t="shared" si="2"/>
         <v>238</v>
@@ -23035,7 +23035,7 @@
         <v>36.451512570462185</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="12.75" customHeight="1">
+    <row r="241" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="18">
         <f t="shared" si="2"/>
         <v>239</v>
@@ -23051,7 +23051,7 @@
         <v>36.412008334728036</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="12.75" customHeight="1">
+    <row r="242" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="18">
         <f t="shared" si="2"/>
         <v>240</v>
@@ -23067,7 +23067,7 @@
         <v>36.376874964750002</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="12.75" customHeight="1">
+    <row r="243" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="18">
         <f t="shared" si="2"/>
         <v>241</v>
@@ -23083,7 +23083,7 @@
         <v>36.340622369004151</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="12.75" customHeight="1">
+    <row r="244" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="18">
         <f t="shared" si="2"/>
         <v>242</v>
@@ -23099,7 +23099,7 @@
         <v>36.305495830909088</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="12.75" customHeight="1">
+    <row r="245" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="18">
         <f t="shared" si="2"/>
         <v>243</v>
@@ -23115,7 +23115,7 @@
         <v>36.269876504938274</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="12.75" customHeight="1">
+    <row r="246" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="18">
         <f t="shared" si="2"/>
         <v>244</v>
@@ -23131,7 +23131,7 @@
         <v>36.232704883032788</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="12.75" customHeight="1">
+    <row r="247" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="18">
         <f t="shared" si="2"/>
         <v>245</v>
@@ -23147,7 +23147,7 @@
         <v>36.195714251183674</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="12.75" customHeight="1">
+    <row r="248" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="18">
         <f t="shared" si="2"/>
         <v>246</v>
@@ -23163,7 +23163,7 @@
         <v>36.154715415243899</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="12.75" customHeight="1">
+    <row r="249" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="18">
         <f t="shared" si="2"/>
         <v>247</v>
@@ -23179,7 +23179,7 @@
         <v>36.116113331943318</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="12.75" customHeight="1">
+    <row r="250" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="18">
         <f t="shared" si="2"/>
         <v>248</v>
@@ -23195,7 +23195,7 @@
         <v>36.076048360080641</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="12.75" customHeight="1">
+    <row r="251" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="18">
         <f t="shared" si="2"/>
         <v>249</v>
@@ -23211,7 +23211,7 @@
         <v>36.036947764859427</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="12.75" customHeight="1">
+    <row r="252" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="18">
         <f t="shared" si="2"/>
         <v>250</v>
@@ -23227,7 +23227,7 @@
         <v>35.997639970119991</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="12.75" customHeight="1">
+    <row r="253" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="18">
         <f t="shared" si="2"/>
         <v>251</v>
@@ -23243,7 +23243,7 @@
         <v>35.959402359163342</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="12.75" customHeight="1">
+    <row r="254" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="18">
         <f t="shared" si="2"/>
         <v>252</v>
@@ -23259,7 +23259,7 @@
         <v>35.920357115039671</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="12.75" customHeight="1">
+    <row r="255" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="18">
         <f t="shared" si="2"/>
         <v>253</v>
@@ -23275,7 +23275,7 @@
         <v>35.879051352964417</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="12.75" customHeight="1">
+    <row r="256" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="18">
         <f t="shared" si="2"/>
         <v>254</v>
@@ -23291,7 +23291,7 @@
         <v>35.835787368858256</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="12.75" customHeight="1">
+    <row r="257" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="18">
         <f t="shared" si="2"/>
         <v>255</v>
@@ -23307,7 +23307,7 @@
         <v>35.792862710117632</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="12.75" customHeight="1">
+    <row r="258" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="18">
         <f t="shared" si="2"/>
         <v>256</v>
@@ -23323,7 +23323,7 @@
         <v>35.744648405624986</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="12.75" customHeight="1">
+    <row r="259" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="18">
         <f t="shared" si="2"/>
         <v>257</v>
@@ -23339,7 +23339,7 @@
         <v>35.69571981291827</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="12.75" customHeight="1">
+    <row r="260" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="18">
         <f t="shared" si="2"/>
         <v>258</v>
@@ -23355,7 +23355,7 @@
         <v>35.651472839573628</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="12.75" customHeight="1">
+    <row r="261" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="18">
         <f t="shared" si="2"/>
         <v>259</v>
@@ -23371,7 +23371,7 @@
         <v>35.606949781660212</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="12.75" customHeight="1">
+    <row r="262" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="18">
         <f t="shared" si="2"/>
         <v>260</v>
@@ -23387,7 +23387,7 @@
         <v>35.566653817730753</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="12.75" customHeight="1">
+    <row r="263" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="18">
         <f t="shared" si="2"/>
         <v>261</v>
@@ -23403,7 +23403,7 @@
         <v>35.519386943103434</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="12.75" customHeight="1">
+    <row r="264" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="18">
         <f t="shared" si="2"/>
         <v>262</v>
@@ -23419,7 +23419,7 @@
         <v>35.470534318549603</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="12.75" customHeight="1">
+    <row r="265" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="18">
         <f t="shared" si="2"/>
         <v>263</v>
@@ -23435,7 +23435,7 @@
         <v>35.421064602813672</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="12.75" customHeight="1">
+    <row r="266" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="18">
         <f t="shared" si="2"/>
         <v>264</v>
@@ -23451,7 +23451,7 @@
         <v>35.373181784962107</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="12.75" customHeight="1">
+    <row r="267" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="18">
         <f t="shared" si="2"/>
         <v>265</v>
@@ -23467,7 +23467,7 @@
         <v>35.328188649018855</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="12.75" customHeight="1">
+    <row r="268" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="18">
         <f t="shared" si="2"/>
         <v>266</v>
@@ -23483,7 +23483,7 @@
         <v>35.283233055751865</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="12.75" customHeight="1">
+    <row r="269" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="18">
         <f t="shared" si="2"/>
         <v>267</v>
@@ -23499,7 +23499,7 @@
         <v>35.239288359812718</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="12.75" customHeight="1">
+    <row r="270" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="18">
         <f t="shared" si="2"/>
         <v>268</v>
@@ -23515,7 +23515,7 @@
         <v>35.194701466380579</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="12.75" customHeight="1">
+    <row r="271" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="18">
         <f t="shared" si="2"/>
         <v>269</v>
@@ -23531,7 +23531,7 @@
         <v>35.152081756617086</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="12.75" customHeight="1">
+    <row r="272" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="18">
         <f t="shared" si="2"/>
         <v>270</v>
@@ -23547,7 +23547,7 @@
         <v>35.109703672629614</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="12.75" customHeight="1">
+    <row r="273" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="18">
         <f t="shared" si="2"/>
         <v>271</v>
@@ -23563,7 +23563,7 @@
         <v>35.067933551771205</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="12.75" customHeight="1">
+    <row r="274" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="18">
         <f t="shared" si="2"/>
         <v>272</v>
@@ -23579,7 +23579,7 @@
         <v>35.027867619595575</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="12.75" customHeight="1">
+    <row r="275" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="18">
         <f t="shared" si="2"/>
         <v>273</v>
@@ -23595,7 +23595,7 @@
         <v>34.987655647509143</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="12.75" customHeight="1">
+    <row r="276" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="18">
         <f t="shared" si="2"/>
         <v>274</v>
@@ -23611,7 +23611,7 @@
         <v>34.944671499452539</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="12.75" customHeight="1">
+    <row r="277" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="18">
         <f t="shared" si="2"/>
         <v>275</v>
@@ -23627,7 +23627,7 @@
         <v>34.902363601163621</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="12.75" customHeight="1">
+    <row r="278" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="18">
         <f t="shared" si="2"/>
         <v>276</v>
@@ -23643,7 +23643,7 @@
         <v>34.860434747246366</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="12.75" customHeight="1">
+    <row r="279" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="18">
         <f t="shared" si="2"/>
         <v>277</v>
@@ -23659,7 +23659,7 @@
         <v>34.818953036389878</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="12.75" customHeight="1">
+    <row r="280" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="18">
         <f t="shared" si="2"/>
         <v>278</v>
@@ -23675,7 +23675,7 @@
         <v>34.778740972913653</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="12.75" customHeight="1">
+    <row r="281" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="18">
         <f t="shared" si="2"/>
         <v>279</v>
@@ -23691,7 +23691,7 @@
         <v>34.740573439534039</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="12.75" customHeight="1">
+    <row r="282" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="18">
         <f t="shared" si="2"/>
         <v>280</v>
@@ -23707,7 +23707,7 @@
         <v>34.703321389642845</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="12.75" customHeight="1">
+    <row r="283" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="18">
         <f t="shared" si="2"/>
         <v>281</v>
@@ -23723,7 +23723,7 @@
         <v>34.66704622537366</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="12.75" customHeight="1">
+    <row r="284" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="18">
         <f t="shared" si="2"/>
         <v>282</v>
@@ -23739,7 +23739,7 @@
         <v>34.633936132092195</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="12.75" customHeight="1">
+    <row r="285" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="18">
         <f t="shared" si="2"/>
         <v>283</v>
@@ -23755,7 +23755,7 @@
         <v>34.60084802017667</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="12.75" customHeight="1">
+    <row r="286" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="18">
         <f t="shared" si="2"/>
         <v>284</v>
@@ -23771,7 +23771,7 @@
         <v>34.568661932359149</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="12.75" customHeight="1">
+    <row r="287" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="18">
         <f t="shared" si="2"/>
         <v>285</v>
@@ -23787,7 +23787,7 @@
         <v>34.534210486982445</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="12.75" customHeight="1">
+    <row r="288" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="18">
         <f t="shared" si="2"/>
         <v>286</v>
@@ -23803,7 +23803,7 @@
         <v>34.502202755069924</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="12.75" customHeight="1">
+    <row r="289" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="18">
         <f t="shared" si="2"/>
         <v>287</v>
@@ -23819,7 +23819,7 @@
         <v>34.441742116968634</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="12.75" customHeight="1">
+    <row r="290" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="18">
         <f t="shared" si="2"/>
         <v>288</v>
@@ -23835,7 +23835,7 @@
         <v>34.411076347847221</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="12.75" customHeight="1">
+    <row r="291" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="18">
         <f t="shared" si="2"/>
         <v>289</v>
@@ -23851,7 +23851,7 @@
         <v>34.381903071695504</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="12.75" customHeight="1">
+    <row r="292" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="18">
         <f t="shared" si="2"/>
         <v>290</v>
@@ -23867,7 +23867,7 @@
         <v>34.352999957655172</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="12.75" customHeight="1">
+    <row r="293" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="18">
         <f t="shared" si="2"/>
         <v>291</v>
@@ -23883,7 +23883,7 @@
         <v>34.326013703505154</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="12.75" customHeight="1">
+    <row r="294" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="18">
         <f t="shared" si="2"/>
         <v>292</v>
@@ -23899,7 +23899,7 @@
         <v>34.300958862842464</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="12.75" customHeight="1">
+    <row r="295" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="18">
         <f t="shared" si="2"/>
         <v>293</v>
@@ -23915,7 +23915,7 @@
         <v>34.276006784027302</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="12.75" customHeight="1">
+    <row r="296" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="18">
         <f t="shared" si="2"/>
         <v>294</v>
@@ -23931,7 +23931,7 @@
         <v>34.249897918707482</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="12.75" customHeight="1">
+    <row r="297" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="18">
         <f t="shared" si="2"/>
         <v>295</v>
@@ -23947,7 +23947,7 @@
         <v>34.226135552101695</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="12.75" customHeight="1">
+    <row r="298" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="18">
         <f t="shared" si="2"/>
         <v>296</v>
@@ -23963,7 +23963,7 @@
         <v>34.204222931216215</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="12.75" customHeight="1">
+    <row r="299" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="18">
         <f t="shared" si="2"/>
         <v>297</v>
@@ -23979,7 +23979,7 @@
         <v>34.18289558410774</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="12.75" customHeight="1">
+    <row r="300" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="18">
         <f t="shared" si="2"/>
         <v>298</v>
@@ -23995,7 +23995,7 @@
         <v>34.162718082416099</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="12.75" customHeight="1">
+    <row r="301" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="18">
         <f t="shared" si="2"/>
         <v>299</v>
@@ -24011,7 +24011,7 @@
         <v>34.140468189933102</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="12.75" customHeight="1">
+    <row r="302" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="18">
         <f t="shared" si="2"/>
         <v>300</v>
@@ -24027,7 +24027,7 @@
         <v>34.119366627533324</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="12.75" customHeight="1">
+    <row r="303" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="18">
         <f t="shared" si="2"/>
         <v>301</v>
@@ -24043,7 +24043,7 @@
         <v>34.097840490531553</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="12.75" customHeight="1">
+    <row r="304" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="18">
         <f t="shared" si="2"/>
         <v>302</v>
@@ -24059,7 +24059,7 @@
         <v>34.077913866125826</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="12.75" customHeight="1">
+    <row r="305" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="18">
         <f t="shared" si="2"/>
         <v>303</v>
@@ -24075,7 +24075,7 @@
         <v>34.057623722376235</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="12.75" customHeight="1">
+    <row r="306" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="18">
         <f t="shared" si="2"/>
         <v>304</v>
@@ -24091,7 +24091,7 @@
         <v>34.036743378157887</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="12.75" customHeight="1">
+    <row r="307" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="18">
         <f t="shared" si="2"/>
         <v>305</v>
@@ -24107,7 +24107,7 @@
         <v>34.0172130717377</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="12.75" customHeight="1">
+    <row r="308" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="18">
         <f t="shared" si="2"/>
         <v>306</v>
@@ -24123,7 +24123,7 @@
         <v>33.997091462385619</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="12.75" customHeight="1">
+    <row r="309" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="18">
         <f t="shared" si="2"/>
         <v>307</v>
@@ -24139,7 +24139,7 @@
         <v>33.975211687882734</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="12.75" customHeight="1">
+    <row r="310" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="18">
         <f t="shared" si="2"/>
         <v>308</v>
@@ -24155,7 +24155,7 @@
         <v>33.951818144935061</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="12.75" customHeight="1">
+    <row r="311" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="18">
         <f t="shared" si="2"/>
         <v>309</v>
@@ -24171,7 +24171,7 @@
         <v>33.929385077993516</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="12.75" customHeight="1">
+    <row r="312" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="18">
         <f t="shared" si="2"/>
         <v>310</v>
@@ -24187,7 +24187,7 @@
         <v>33.90851609090322</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="12.75" customHeight="1">
+    <row r="313" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="18">
         <f t="shared" si="2"/>
         <v>311</v>
@@ -24203,7 +24203,7 @@
         <v>33.886495137138255</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="12.75" customHeight="1">
+    <row r="314" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="18">
         <f t="shared" si="2"/>
         <v>312</v>
@@ -24219,7 +24219,7 @@
         <v>33.865480729391024</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="12.75" customHeight="1">
+    <row r="315" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="18">
         <f t="shared" si="2"/>
         <v>313</v>
@@ -24235,7 +24235,7 @@
         <v>33.843706028146961</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="12.75" customHeight="1">
+    <row r="316" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="18">
         <f t="shared" si="2"/>
         <v>314</v>
@@ -24251,7 +24251,7 @@
         <v>33.822292954299357</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="12.75" customHeight="1">
+    <row r="317" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="18">
         <f t="shared" si="2"/>
         <v>315</v>
@@ -24267,7 +24267,7 @@
         <v>33.800285673142845</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="12.75" customHeight="1">
+    <row r="318" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="18">
         <f t="shared" si="2"/>
         <v>316</v>
@@ -24283,7 +24283,7 @@
         <v>33.778132867974676</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="12.75" customHeight="1">
+    <row r="319" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="18">
         <f t="shared" si="2"/>
         <v>317</v>
@@ -24299,7 +24299,7 @@
         <v>33.755394277507875</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="12.75" customHeight="1">
+    <row r="320" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="18">
         <f t="shared" si="2"/>
         <v>318</v>
@@ -24315,7 +24315,7 @@
         <v>33.733238946698101</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="12.75" customHeight="1">
+    <row r="321" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="18">
         <f t="shared" si="2"/>
         <v>319</v>
@@ -24331,7 +24331,7 @@
         <v>33.710940394639486</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="12.75" customHeight="1">
+    <row r="322" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="18">
         <f t="shared" si="2"/>
         <v>320</v>
@@ -24347,7 +24347,7 @@
         <v>33.689062453031241</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="12.75" customHeight="1">
+    <row r="323" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="18">
         <f t="shared" si="2"/>
         <v>321</v>
@@ -24363,7 +24363,7 @@
         <v>33.666137024579427</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="12.75" customHeight="1">
+    <row r="324" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="18">
         <f t="shared" si="2"/>
         <v>322</v>
@@ -24379,7 +24379,7 @@
         <v>33.645031011583839</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="12.75" customHeight="1">
+    <row r="325" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="18">
         <f t="shared" si="2"/>
         <v>323</v>
@@ -24395,7 +24395,7 @@
         <v>33.622414816501539</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="12.75" customHeight="1">
+    <row r="326" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="18">
         <f t="shared" si="2"/>
         <v>324</v>
@@ -24411,7 +24411,7 @@
         <v>33.59876538805554</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="12.75" customHeight="1">
+    <row r="327" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="18">
         <f t="shared" si="2"/>
         <v>325</v>
@@ -24427,7 +24427,7 @@
         <v>33.575630725323066</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="12.75" customHeight="1">
+    <row r="328" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="18">
         <f t="shared" si="2"/>
         <v>326</v>
@@ -24443,7 +24443,7 @@
         <v>33.55380363438649</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="12.75" customHeight="1">
+    <row r="329" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="18">
         <f t="shared" si="2"/>
         <v>327</v>
@@ -24459,7 +24459,7 @@
         <v>33.532079466574906</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="12.75" customHeight="1">
+    <row r="330" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="18">
         <f t="shared" si="2"/>
         <v>328</v>
@@ -24475,7 +24475,7 @@
         <v>33.510823125121938</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="12.75" customHeight="1">
+    <row r="331" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="18">
         <f t="shared" si="2"/>
         <v>329</v>
@@ -24491,7 +24491,7 @@
         <v>33.4886017805471</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="12.75" customHeight="1">
+    <row r="332" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="18">
         <f t="shared" si="2"/>
         <v>330</v>
@@ -24507,7 +24507,7 @@
         <v>33.468363593333315</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="12.75" customHeight="1">
+    <row r="333" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="18">
         <f t="shared" si="2"/>
         <v>331</v>
@@ -24523,7 +24523,7 @@
         <v>33.447673675649533</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="12.75" customHeight="1">
+    <row r="334" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="18">
         <f t="shared" si="2"/>
         <v>332</v>
@@ -24539,7 +24539,7 @@
         <v>33.427379475060221</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="12.75" customHeight="1">
+    <row r="335" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="18">
         <f t="shared" si="2"/>
         <v>333</v>
@@ -24555,7 +24555,7 @@
         <v>33.407237192282267</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="12.75" customHeight="1">
+    <row r="336" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="18">
         <f t="shared" si="2"/>
         <v>334</v>
@@ -24571,7 +24571,7 @@
         <v>33.388532888862258</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="12.75" customHeight="1">
+    <row r="337" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="18">
         <f t="shared" si="2"/>
         <v>335</v>
@@ -24587,7 +24587,7 @@
         <v>33.36955219573133</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="12.75" customHeight="1">
+    <row r="338" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="18">
         <f t="shared" si="2"/>
         <v>336</v>
@@ -24603,7 +24603,7 @@
         <v>33.34928566976189</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="12.75" customHeight="1">
+    <row r="339" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="18">
         <f t="shared" si="2"/>
         <v>337</v>
@@ -24619,7 +24619,7 @@
         <v>33.330356036646869</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="12.75" customHeight="1">
+    <row r="340" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="18">
         <f t="shared" si="2"/>
         <v>338</v>
@@ -24635,7 +24635,7 @@
         <v>33.311212973254428</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="12.75" customHeight="1">
+    <row r="341" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="18">
         <f t="shared" si="2"/>
         <v>339</v>
@@ -24651,7 +24651,7 @@
         <v>33.289498482949838</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="12.75" customHeight="1">
+    <row r="342" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="18">
         <f t="shared" si="2"/>
         <v>340</v>
@@ -24667,7 +24667,7 @@
         <v>33.267764662764691</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="12.75" customHeight="1">
+    <row r="343" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="18">
         <f t="shared" si="2"/>
         <v>341</v>
@@ -24683,7 +24683,7 @@
         <v>33.245806410645152</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="12.75" customHeight="1">
+    <row r="344" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="18">
         <f t="shared" si="2"/>
         <v>342</v>
@@ -24699,7 +24699,7 @@
         <v>33.223508733537997</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="12.75" customHeight="1">
+    <row r="345" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="18">
         <f t="shared" si="2"/>
         <v>343</v>
@@ -24715,7 +24715,7 @@
         <v>33.200932904985407</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="12.75" customHeight="1">
+    <row r="346" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="18">
         <f t="shared" si="2"/>
         <v>344</v>
@@ -24731,7 +24731,7 @@
         <v>33.177616240465106</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" s="18">
         <f t="shared" si="2"/>
         <v>345</v>
@@ -24747,7 +24747,7 @@
         <v>33.152985469652158</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" s="18">
         <f t="shared" si="2"/>
         <v>346</v>
@@ -24763,7 +24763,7 @@
         <v>33.128364413381483</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" s="18">
         <f t="shared" si="2"/>
         <v>347</v>
@@ -24779,7 +24779,7 @@
         <v>33.103412352564824</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" s="18">
         <f t="shared" si="2"/>
         <v>348</v>
@@ -24795,7 +24795,7 @@
         <v>33.078804848448264</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" s="18">
         <f t="shared" si="2"/>
         <v>349</v>
@@ -24811,7 +24811,7 @@
         <v>33.055026039971331</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" s="18">
         <f t="shared" si="2"/>
         <v>350</v>
@@ -24827,7 +24827,7 @@
         <v>33.030411681371412</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" s="18">
         <f t="shared" si="2"/>
         <v>351</v>
@@ -24843,7 +24843,7 @@
         <v>33.006878029857532</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" s="18">
         <f t="shared" si="2"/>
         <v>352</v>
@@ -24859,7 +24859,7 @@
         <v>32.983932353636348</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" s="18">
         <f t="shared" si="2"/>
         <v>353</v>
@@ -24875,7 +24875,7 @@
         <v>32.959955208158625</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" s="18">
         <f t="shared" ref="A356:A463" si="3">A355+1</f>
         <v>354</v>
@@ -24891,7 +24891,7 @@
         <v>32.934475108700553</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" s="18">
         <f t="shared" si="3"/>
         <v>355</v>
@@ -24907,7 +24907,7 @@
         <v>32.90789912247886</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" s="18">
         <f t="shared" si="3"/>
         <v>356</v>
@@ -24923,7 +24923,7 @@
         <v>32.881472439550549</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" s="18">
         <f t="shared" si="3"/>
         <v>357</v>
@@ -24939,7 +24939,7 @@
         <v>32.85519380526609</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" s="18">
         <f t="shared" si="3"/>
         <v>358</v>
@@ -24955,7 +24955,7 @@
         <v>32.8285871186592</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" s="18">
         <f t="shared" si="3"/>
         <v>359</v>
@@ -24971,7 +24971,7 @@
         <v>32.801348714428954</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" s="18">
         <f t="shared" si="3"/>
         <v>360</v>
@@ -24987,7 +24987,7 @@
         <v>32.773872745777759</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" s="18">
         <f t="shared" si="3"/>
         <v>361</v>
@@ -25003,7 +25003,7 @@
         <v>32.746798306038762</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" s="18">
         <f t="shared" si="3"/>
         <v>362</v>
@@ -25019,7 +25019,7 @@
         <v>32.721144167071806</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" s="18">
         <f t="shared" si="3"/>
         <v>363</v>
@@ -25035,7 +25035,7 @@
         <v>32.694171318126706</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" s="18">
         <f t="shared" si="3"/>
         <v>364</v>
@@ -25051,7 +25051,7 @@
         <v>32.66762139881866</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" s="18">
         <f t="shared" si="3"/>
         <v>365</v>
@@ -25067,7 +25067,7 @@
         <v>32.640066271698615</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" s="18">
         <f t="shared" si="3"/>
         <v>366</v>
@@ -25083,7 +25083,7 @@
         <v>32.611104344508178</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" s="18">
         <f t="shared" si="3"/>
         <v>367</v>
@@ -25099,7 +25099,7 @@
         <v>32.582845203978181</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" s="18">
         <f t="shared" si="3"/>
         <v>368</v>
@@ -25115,7 +25115,7 @@
         <v>32.556587472663026</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" s="18">
         <f t="shared" si="3"/>
         <v>369</v>
@@ -25131,7 +25131,7 @@
         <v>32.530282358590767</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" s="18">
         <f t="shared" si="3"/>
         <v>370</v>
@@ -25147,7 +25147,7 @@
         <v>32.506281594432416</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" s="18">
         <f t="shared" si="3"/>
         <v>371</v>
@@ -25163,7 +25163,7 @@
         <v>32.482598892857126</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" s="18">
         <f t="shared" si="3"/>
         <v>372</v>
@@ -25179,7 +25179,7 @@
         <v>32.459392982876324</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375" s="18">
         <f t="shared" si="3"/>
         <v>373</v>
@@ -25195,7 +25195,7 @@
         <v>32.435614449812313</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" s="18">
         <f t="shared" si="3"/>
         <v>374</v>
@@ -25211,7 +25211,7 @@
         <v>32.411455051871634</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" s="18">
         <f t="shared" si="3"/>
         <v>375</v>
@@ -25227,7 +25227,7 @@
         <v>32.387264505466646</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378" s="18">
         <f t="shared" si="3"/>
         <v>376</v>
@@ -25243,7 +25243,7 @@
         <v>32.361846248590403</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379" s="18">
         <f t="shared" si="3"/>
         <v>377</v>
@@ -25259,7 +25259,7 @@
         <v>32.336324109389899</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380" s="18">
         <f t="shared" si="3"/>
         <v>378</v>
@@ -25275,7 +25275,7 @@
         <v>32.312101030555532</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381" s="18">
         <f t="shared" si="3"/>
         <v>379</v>
@@ -25291,7 +25291,7 @@
         <v>32.287425299815283</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" s="18">
         <f t="shared" si="3"/>
         <v>380</v>
@@ -25307,7 +25307,7 @@
         <v>32.260721547421028</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383" s="18">
         <f t="shared" si="3"/>
         <v>381</v>
@@ -25323,7 +25323,7 @@
         <v>32.234420440393677</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" s="18">
         <f t="shared" si="3"/>
         <v>382</v>
@@ -25339,7 +25339,7 @@
         <v>32.208335571335049</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" s="18">
         <f t="shared" si="3"/>
         <v>383</v>
@@ -25355,7 +25355,7 @@
         <v>32.183248534281958</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" s="18">
         <f t="shared" si="3"/>
         <v>384</v>
@@ -25371,7 +25371,7 @@
         <v>32.157979656692682</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" s="18">
         <f t="shared" si="3"/>
         <v>385</v>
@@ -25387,7 +25387,7 @@
         <v>32.134712179038935</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" s="18">
         <f t="shared" si="3"/>
         <v>386</v>
@@ -25403,7 +25403,7 @@
         <v>32.111539350932617</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389" s="18">
         <f t="shared" si="3"/>
         <v>387</v>
@@ -25419,7 +25419,7 @@
         <v>32.088072842764831</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390" s="18">
         <f t="shared" si="3"/>
         <v>388</v>
@@ -25435,7 +25435,7 @@
         <v>32.064031418505131</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391" s="18">
         <f t="shared" si="3"/>
         <v>389</v>
@@ -25451,7 +25451,7 @@
         <v>32.038982493753188</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392" s="18">
         <f t="shared" si="3"/>
         <v>390</v>
@@ -25467,7 +25467,7 @@
         <v>32.015472284384586</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393" s="18">
         <f t="shared" si="3"/>
         <v>391</v>
@@ -25483,7 +25483,7 @@
         <v>31.992133479028105</v>
       </c>
     </row>
-    <row r="394" spans="1:4">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394" s="18">
         <f t="shared" si="3"/>
         <v>392</v>
@@ -25499,7 +25499,7 @@
         <v>31.970342324132627</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395" s="18">
         <f t="shared" si="3"/>
         <v>393</v>
@@ -25515,7 +25515,7 @@
         <v>31.947847812264605</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396" s="18">
         <f t="shared" si="3"/>
         <v>394</v>
@@ -25531,7 +25531,7 @@
         <v>31.925162919923835</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397" s="18">
         <f t="shared" si="3"/>
         <v>395</v>
@@ -25547,7 +25547,7 @@
         <v>31.902643521873394</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398" s="18">
         <f t="shared" si="3"/>
         <v>396</v>
@@ -25563,7 +25563,7 @@
         <v>31.880162098838358</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" s="18">
         <f t="shared" si="3"/>
         <v>397</v>
@@ -25579,7 +25579,7 @@
         <v>31.856912319294686</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400" s="18">
         <f t="shared" si="3"/>
         <v>398</v>
@@ -25595,7 +25595,7 @@
         <v>31.833502994170832</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" s="18">
         <f t="shared" si="3"/>
         <v>399</v>
@@ -25611,7 +25611,7 @@
         <v>31.810135819323285</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="18">
         <f t="shared" si="3"/>
         <v>400</v>
@@ -25627,7 +25627,7 @@
         <v>31.786510481299977</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="18">
         <f t="shared" si="3"/>
         <v>401</v>
@@ -25643,7 +25643,7 @@
         <v>31.762603973266813</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="18">
         <f t="shared" si="3"/>
         <v>402</v>
@@ -25659,7 +25659,7 @@
         <v>31.740060184179082</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="18">
         <f t="shared" si="3"/>
         <v>403</v>
@@ -25675,7 +25675,7 @@
         <v>31.717901224590552</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="18">
         <f t="shared" si="3"/>
         <v>404</v>
@@ -25691,7 +25691,7 @@
         <v>31.696743053440571</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="18">
         <f t="shared" si="3"/>
         <v>405</v>
@@ -25707,7 +25707,7 @@
         <v>31.675343689580224</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="18">
         <f t="shared" si="3"/>
         <v>406</v>
@@ -25723,7 +25723,7 @@
         <v>31.654517718201948</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="18">
         <f t="shared" si="3"/>
         <v>407</v>
@@ -25739,7 +25739,7 @@
         <v>31.634383765773933</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="18">
         <f t="shared" si="3"/>
         <v>408</v>
@@ -25755,7 +25755,7 @@
         <v>31.614814196789194</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="18">
         <f t="shared" si="3"/>
         <v>409</v>
@@ -25771,7 +25771,7 @@
         <v>31.595291421638123</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="18">
         <f t="shared" si="3"/>
         <v>410</v>
@@ -25787,7 +25787,7 @@
         <v>31.576376077073149</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" s="18">
         <f t="shared" si="3"/>
         <v>411</v>
@@ -25803,7 +25803,7 @@
         <v>31.556968836934285</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="18">
         <f t="shared" si="3"/>
         <v>412</v>
@@ -25819,7 +25819,7 @@
         <v>31.537000465776678</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="18">
         <f t="shared" si="3"/>
         <v>413</v>
@@ -25835,7 +25835,7 @@
         <v>31.51698351661015</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="18">
         <f t="shared" si="3"/>
         <v>414</v>
@@ -25851,7 +25851,7 @@
         <v>31.497618822125581</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="18">
         <f t="shared" si="3"/>
         <v>415</v>
@@ -25867,7 +25867,7 @@
         <v>31.477986006602389</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="18">
         <f t="shared" si="3"/>
         <v>416</v>
@@ -25883,7 +25883,7 @@
         <v>31.457798540048056</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419" s="18">
         <f t="shared" si="3"/>
         <v>417</v>
@@ -25899,7 +25899,7 @@
         <v>31.436820603693025</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" s="18">
         <f t="shared" si="3"/>
         <v>418</v>
@@ -25915,7 +25915,7 @@
         <v>31.415703809449742</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" s="18">
         <f t="shared" si="3"/>
         <v>419</v>
@@ -25931,7 +25931,7 @@
         <v>31.394544609999983</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" s="18">
         <f t="shared" si="3"/>
         <v>420</v>
@@ -25947,7 +25947,7 @@
         <v>31.373248077023792</v>
       </c>
     </row>
-    <row r="423" spans="1:4">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" s="18">
         <f t="shared" si="3"/>
         <v>421</v>
@@ -25963,7 +25963,7 @@
         <v>31.352860316555802</v>
       </c>
     </row>
-    <row r="424" spans="1:4">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" s="18">
         <f t="shared" si="3"/>
         <v>422</v>
@@ -25979,7 +25979,7 @@
         <v>31.333066808696664</v>
       </c>
     </row>
-    <row r="425" spans="1:4">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" s="18">
         <f t="shared" si="3"/>
         <v>423</v>
@@ -25995,7 +25995,7 @@
         <v>31.312728588203292</v>
       </c>
     </row>
-    <row r="426" spans="1:4">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" s="18">
         <f t="shared" si="3"/>
         <v>424</v>
@@ -26011,7 +26011,7 @@
         <v>31.292557059056588</v>
       </c>
     </row>
-    <row r="427" spans="1:4">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" s="18">
         <f t="shared" si="3"/>
         <v>425</v>
@@ -26027,7 +26027,7 @@
         <v>31.272433394847042</v>
       </c>
     </row>
-    <row r="428" spans="1:4">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" s="18">
         <f t="shared" si="3"/>
         <v>426</v>
@@ -26043,7 +26043,7 @@
         <v>31.252615475892004</v>
       </c>
     </row>
-    <row r="429" spans="1:4">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" s="18">
         <f t="shared" si="3"/>
         <v>427</v>
@@ -26059,7 +26059,7 @@
         <v>31.234248694566734</v>
       </c>
     </row>
-    <row r="430" spans="1:4">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" s="18">
         <f t="shared" si="3"/>
         <v>428</v>
@@ -26075,7 +26075,7 @@
         <v>31.216178020046716</v>
       </c>
     </row>
-    <row r="431" spans="1:4">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" s="18">
         <f t="shared" si="3"/>
         <v>429</v>
@@ -26091,7 +26091,7 @@
         <v>31.198378071095561</v>
       </c>
     </row>
-    <row r="432" spans="1:4">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" s="18">
         <f t="shared" si="3"/>
         <v>430</v>
@@ -26107,7 +26107,7 @@
         <v>31.181219051604643</v>
       </c>
     </row>
-    <row r="433" spans="1:4">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" s="18">
         <f t="shared" si="3"/>
         <v>431</v>
@@ -26123,7 +26123,7 @@
         <v>31.163745224617159</v>
       </c>
     </row>
-    <row r="434" spans="1:4">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="18">
         <f t="shared" si="3"/>
         <v>432</v>
@@ -26139,7 +26139,7 @@
         <v>31.146653223379619</v>
       </c>
     </row>
-    <row r="435" spans="1:4">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="18">
         <f t="shared" si="3"/>
         <v>433</v>
@@ -26155,7 +26155,7 @@
         <v>31.13037919833717</v>
       </c>
     </row>
-    <row r="436" spans="1:4">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="18">
         <f t="shared" si="3"/>
         <v>434</v>
@@ -26171,7 +26171,7 @@
         <v>31.114986621290313</v>
       </c>
     </row>
-    <row r="437" spans="1:4">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="18">
         <f t="shared" si="3"/>
         <v>435</v>
@@ -26187,7 +26187,7 @@
         <v>31.099825733563208</v>
       </c>
     </row>
-    <row r="438" spans="1:4">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="18">
         <f t="shared" si="3"/>
         <v>436</v>
@@ -26203,7 +26203,7 @@
         <v>31.084757327499986</v>
       </c>
     </row>
-    <row r="439" spans="1:4">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="18">
         <f t="shared" si="3"/>
         <v>437</v>
@@ -26219,7 +26219,7 @@
         <v>31.0702384314874</v>
       </c>
     </row>
-    <row r="440" spans="1:4">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="18">
         <f t="shared" si="3"/>
         <v>438</v>
@@ -26235,7 +26235,7 @@
         <v>31.055991311598159</v>
       </c>
     </row>
-    <row r="441" spans="1:4">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="18">
         <f t="shared" si="3"/>
         <v>439</v>
@@ -26251,7 +26251,7 @@
         <v>31.042583586697024</v>
       </c>
     </row>
-    <row r="442" spans="1:4">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="18">
         <f t="shared" si="3"/>
         <v>440</v>
@@ -26267,7 +26267,7 @@
         <v>31.028623168590894</v>
       </c>
     </row>
-    <row r="443" spans="1:4">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="18">
         <f t="shared" si="3"/>
         <v>441</v>
@@ -26283,7 +26283,7 @@
         <v>31.014726063038534</v>
       </c>
     </row>
-    <row r="444" spans="1:4">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="18">
         <f t="shared" si="3"/>
         <v>442</v>
@@ -26299,7 +26299,7 @@
         <v>31.001661071425325</v>
       </c>
     </row>
-    <row r="445" spans="1:4">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="18">
         <f t="shared" si="3"/>
         <v>443</v>
@@ -26315,7 +26315,7 @@
         <v>30.988406755598181</v>
       </c>
     </row>
-    <row r="446" spans="1:4">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="18">
         <f t="shared" si="3"/>
         <v>444</v>
@@ -26331,7 +26331,7 @@
         <v>30.974761696036023</v>
       </c>
     </row>
-    <row r="447" spans="1:4">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" s="18">
         <f t="shared" si="3"/>
         <v>445</v>
@@ -26347,7 +26347,7 @@
         <v>30.960436389707851</v>
       </c>
     </row>
-    <row r="448" spans="1:4">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="18">
         <f t="shared" si="3"/>
         <v>446</v>
@@ -26363,7 +26363,7 @@
         <v>30.94619774446187</v>
       </c>
     </row>
-    <row r="449" spans="1:4">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" s="18">
         <f t="shared" si="3"/>
         <v>447</v>
@@ -26379,7 +26379,7 @@
         <v>30.931776720425042</v>
       </c>
     </row>
-    <row r="450" spans="1:4">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450" s="18">
         <f t="shared" si="3"/>
         <v>448</v>
@@ -26395,7 +26395,7 @@
         <v>30.918245970691949</v>
       </c>
     </row>
-    <row r="451" spans="1:4">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" s="18">
         <f t="shared" si="3"/>
         <v>449</v>
@@ -26411,7 +26411,7 @@
         <v>30.904263238886397</v>
       </c>
     </row>
-    <row r="452" spans="1:4">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" s="18">
         <f t="shared" si="3"/>
         <v>450</v>
@@ -26427,7 +26427,7 @@
         <v>30.890875985377765</v>
       </c>
     </row>
-    <row r="453" spans="1:4">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" s="18">
         <f t="shared" si="3"/>
         <v>451</v>
@@ -26443,7 +26443,7 @@
         <v>30.87739288889134</v>
       </c>
     </row>
-    <row r="454" spans="1:4">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" s="18">
         <f t="shared" si="3"/>
         <v>452</v>
@@ -26459,7 +26459,7 @@
         <v>30.86381458553096</v>
       </c>
     </row>
-    <row r="455" spans="1:4">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A455" s="18">
         <f t="shared" si="3"/>
         <v>453</v>
@@ -26475,7 +26475,7 @@
         <v>30.849744354150097</v>
       </c>
     </row>
-    <row r="456" spans="1:4">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" s="18">
         <f t="shared" si="3"/>
         <v>454</v>
@@ -26491,7 +26491,7 @@
         <v>30.834546681035228</v>
       </c>
     </row>
-    <row r="457" spans="1:4">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" s="18">
         <f t="shared" si="3"/>
         <v>455</v>
@@ -26507,7 +26507,7 @@
         <v>30.820426797890097</v>
       </c>
     </row>
-    <row r="458" spans="1:4">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" s="18">
         <f t="shared" si="3"/>
         <v>456</v>
@@ -26523,7 +26523,7 @@
         <v>30.806346913728056</v>
       </c>
     </row>
-    <row r="459" spans="1:4">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" s="18">
         <f t="shared" si="3"/>
         <v>457</v>
@@ -26539,7 +26539,7 @@
         <v>30.791891014048126</v>
       </c>
     </row>
-    <row r="460" spans="1:4">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" s="18">
         <f t="shared" si="3"/>
         <v>458</v>
@@ -26555,7 +26555,7 @@
         <v>30.777563740087324</v>
       </c>
     </row>
-    <row r="461" spans="1:4">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A461" s="18">
         <f t="shared" si="3"/>
         <v>459</v>
@@ -26571,7 +26571,7 @@
         <v>30.762841379999987</v>
       </c>
     </row>
-    <row r="462" spans="1:4">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" s="18">
         <f t="shared" si="3"/>
         <v>460</v>
@@ -26587,7 +26587,7 @@
         <v>30.747661291543466</v>
       </c>
     </row>
-    <row r="463" spans="1:4">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" s="18">
         <f t="shared" si="3"/>
         <v>461</v>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1prac.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1prac.xlsx
@@ -1588,7 +1588,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1647,7 +1647,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2563,11 +2562,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="254203008"/>
-        <c:axId val="254204544"/>
+        <c:axId val="242300032"/>
+        <c:axId val="242301952"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="254203008"/>
+        <c:axId val="242300032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2610,14 +2609,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254204544"/>
+        <c:crossAx val="242301952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="254204544"/>
+        <c:axId val="242301952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2668,7 +2667,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254203008"/>
+        <c:crossAx val="242300032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17572,10 +17571,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y39"/>
+  <dimension ref="A1:Y38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -19180,9 +19179,6 @@
         <f t="shared" si="12"/>
         <v>-3848.2171143818996</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A39" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -19212,7 +19208,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="30" t="s">
         <v>194</v>
       </c>
       <c r="C1" s="22">
@@ -19220,7 +19216,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="31"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="28" t="s">
         <v>0</v>
       </c>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1prac.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1prac.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="model1" sheetId="5" r:id="rId1"/>
@@ -1232,7 +1232,7 @@
     <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="180" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1588,7 +1588,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1647,6 +1647,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1735,7 +1736,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1781,115 +1781,118 @@
             <c:numRef>
               <c:f>model1!时间</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>43889</c:v>
+                  <c:v>3.25108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43921</c:v>
+                  <c:v>2.8991500000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43951</c:v>
+                  <c:v>3.17509</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43980</c:v>
+                  <c:v>3.1906699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44012</c:v>
+                  <c:v>3.6513100000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44043</c:v>
+                  <c:v>4.1706000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44074</c:v>
+                  <c:v>4.1298999999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44104</c:v>
+                  <c:v>3.9869400000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44134</c:v>
+                  <c:v>4.2014499999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44165</c:v>
+                  <c:v>4.27712</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44196</c:v>
+                  <c:v>4.7245600000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44225</c:v>
+                  <c:v>4.9833500000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44253</c:v>
+                  <c:v>4.7232599999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44286</c:v>
+                  <c:v>4.4379900000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44316</c:v>
+                  <c:v>4.7860299999999993</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44347</c:v>
+                  <c:v>4.9806599999999994</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44377</c:v>
+                  <c:v>5.1114799999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44407</c:v>
+                  <c:v>4.9776999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44439</c:v>
+                  <c:v>4.7613100000000008</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44469</c:v>
+                  <c:v>4.7106400000000006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44498</c:v>
+                  <c:v>4.8678999999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44530</c:v>
+                  <c:v>4.9547099609374996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44561</c:v>
+                  <c:v>4.8630097656249998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44589</c:v>
+                  <c:v>4.3440297851562502</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44620</c:v>
+                  <c:v>4.3355400390624999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44651</c:v>
+                  <c:v>3.8658500976562502</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44680</c:v>
+                  <c:v>3.5012099609375</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44712</c:v>
+                  <c:v>3.6361599121093748</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44742</c:v>
+                  <c:v>4.1096201171875002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44771</c:v>
+                  <c:v>3.8724699707031252</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44804</c:v>
+                  <c:v>3.7022099609375001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44834</c:v>
+                  <c:v>3.3477299804687499</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44865</c:v>
+                  <c:v>3.2993999023437501</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44895</c:v>
+                  <c:v>3.4802900390625</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>44925</c:v>
+                  <c:v>3.4735300292968749</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>44957</c:v>
+                  <c:v>3.8110336914062501</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6777292480468748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1899,274 +1902,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>26000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>28000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>34000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>36000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>38000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>42000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>46000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>48000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>52000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>54000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>56000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>58000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>60000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>62000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>64000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>66000</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>68000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>70000</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>72000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E69F-429A-B459-D6A53AA60C2B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>model1!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>total assets</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>model1!时间</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>43889</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43921</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43951</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43980</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44012</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44043</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44074</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44104</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44134</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44165</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44196</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44225</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44253</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44286</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44316</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44347</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44377</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44407</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>44439</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>44469</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44498</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44530</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>44561</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>44589</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>44620</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>44651</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>44680</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44712</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>44742</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>44771</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>44804</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>44834</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>44865</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>44895</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>44925</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>44957</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>model1!资产</c:f>
-              <c:numCache>
-                <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>2000.0000000000002</c:v>
                 </c:pt>
@@ -2275,26 +2011,29 @@
                 <c:pt idx="35">
                   <c:v>68151.7828856181</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>67767.93214664339</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E69F-429A-B459-D6A53AA60C2B}"/>
+              <c16:uniqueId val="{00000000-E69F-429A-B459-D6A53AA60C2B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>model1!$I$1</c:f>
+              <c:f>model1!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>profit amount</c:v>
+                  <c:v>total assets</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2302,7 +2041,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2315,125 +2054,128 @@
             <c:numRef>
               <c:f>model1!时间</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>43889</c:v>
+                  <c:v>3.25108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43921</c:v>
+                  <c:v>2.8991500000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43951</c:v>
+                  <c:v>3.17509</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43980</c:v>
+                  <c:v>3.1906699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44012</c:v>
+                  <c:v>3.6513100000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44043</c:v>
+                  <c:v>4.1706000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44074</c:v>
+                  <c:v>4.1298999999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44104</c:v>
+                  <c:v>3.9869400000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44134</c:v>
+                  <c:v>4.2014499999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44165</c:v>
+                  <c:v>4.27712</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44196</c:v>
+                  <c:v>4.7245600000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44225</c:v>
+                  <c:v>4.9833500000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44253</c:v>
+                  <c:v>4.7232599999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44286</c:v>
+                  <c:v>4.4379900000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44316</c:v>
+                  <c:v>4.7860299999999993</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44347</c:v>
+                  <c:v>4.9806599999999994</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44377</c:v>
+                  <c:v>5.1114799999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44407</c:v>
+                  <c:v>4.9776999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44439</c:v>
+                  <c:v>4.7613100000000008</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44469</c:v>
+                  <c:v>4.7106400000000006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44498</c:v>
+                  <c:v>4.8678999999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44530</c:v>
+                  <c:v>4.9547099609374996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44561</c:v>
+                  <c:v>4.8630097656249998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44589</c:v>
+                  <c:v>4.3440297851562502</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44620</c:v>
+                  <c:v>4.3355400390624999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44651</c:v>
+                  <c:v>3.8658500976562502</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44680</c:v>
+                  <c:v>3.5012099609375</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44712</c:v>
+                  <c:v>3.6361599121093748</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44742</c:v>
+                  <c:v>4.1096201171875002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44771</c:v>
+                  <c:v>3.8724699707031252</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44804</c:v>
+                  <c:v>3.7022099609375001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44834</c:v>
+                  <c:v>3.3477299804687499</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44865</c:v>
+                  <c:v>3.2993999023437501</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44895</c:v>
+                  <c:v>3.4802900390625</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>44925</c:v>
+                  <c:v>3.4735300292968749</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>44957</c:v>
+                  <c:v>3.8110336914062501</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6777292480468748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>model1!金额</c:f>
+              <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2542,6 +2284,171 @@
                 <c:pt idx="35">
                   <c:v>-3848.2171143818996</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>-6232.0678533566097</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E69F-429A-B459-D6A53AA60C2B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>model1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>profit amount</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>model1!时间</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>3.25108</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8991500000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.17509</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1906699999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6513100000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1706000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.1298999999999992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9869400000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.2014499999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.27712</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.7245600000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.9833500000000006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.7232599999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.4379900000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.7860299999999993</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.9806599999999994</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.1114799999999994</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.9776999999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.7613100000000008</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.7106400000000006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.8678999999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.9547099609374996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.8630097656249998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.3440297851562502</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.3355400390624999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.8658500976562502</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.5012099609375</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.6361599121093748</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.1096201171875002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.8724699707031252</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.7022099609375001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.3477299804687499</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2993999023437501</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.4802900390625</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4735300292968749</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.8110336914062501</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6777292480468748</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>model1!金额</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2562,17 +2469,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="242300032"/>
-        <c:axId val="242301952"/>
+        <c:axId val="50120576"/>
+        <c:axId val="76939264"/>
       </c:lineChart>
-      <c:dateAx>
-        <c:axId val="242300032"/>
+      <c:catAx>
+        <c:axId val="50120576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -2609,14 +2516,15 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="242301952"/>
+        <c:crossAx val="76939264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="242301952"/>
+        <c:axId val="76939264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2667,7 +2575,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="242300032"/>
+        <c:crossAx val="50120576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2681,7 +2589,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17571,14 +17478,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y38"/>
+  <dimension ref="A1:Y40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -17599,7 +17506,7 @@
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" s="10" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>180</v>
       </c>
@@ -17629,7 +17536,7 @@
       </c>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="14.1" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="4">
@@ -17645,7 +17552,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" ht="14.1" customHeight="1">
       <c r="A3" s="14">
         <v>43889</v>
       </c>
@@ -17724,7 +17631,7 @@
         <v>-22000</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" ht="14.1" customHeight="1">
       <c r="A4" s="14">
         <v>43921</v>
       </c>
@@ -17809,7 +17716,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" ht="14.1" customHeight="1">
       <c r="A5" s="14">
         <v>43951</v>
       </c>
@@ -17889,7 +17796,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" ht="14.1" customHeight="1">
       <c r="A6" s="14">
         <v>43980</v>
       </c>
@@ -17963,7 +17870,7 @@
         <v>60293.406710853284</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" ht="14.1" customHeight="1">
       <c r="A7" s="14">
         <v>44012</v>
       </c>
@@ -18005,7 +17912,7 @@
         <v>-7.3828223896210132E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" ht="14.1" customHeight="1">
       <c r="A8" s="14">
         <v>44043</v>
       </c>
@@ -18043,7 +17950,7 @@
       </c>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" ht="14.1" customHeight="1">
       <c r="A9" s="14">
         <v>44074</v>
       </c>
@@ -18081,7 +17988,7 @@
       </c>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" ht="14.1" customHeight="1">
       <c r="A10" s="14">
         <v>44104</v>
       </c>
@@ -18119,7 +18026,7 @@
       </c>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" ht="14.1" customHeight="1">
       <c r="A11" s="14">
         <v>44134</v>
       </c>
@@ -18157,7 +18064,7 @@
       </c>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" ht="14.1" customHeight="1">
       <c r="A12" s="14">
         <v>44165</v>
       </c>
@@ -18195,7 +18102,7 @@
       </c>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" ht="14.1" customHeight="1">
       <c r="A13" s="14">
         <v>44196</v>
       </c>
@@ -18233,7 +18140,7 @@
       </c>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" ht="14.1" customHeight="1">
       <c r="A14" s="14">
         <v>44225</v>
       </c>
@@ -18271,7 +18178,7 @@
       </c>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" ht="14.1" customHeight="1">
       <c r="A15" s="14">
         <v>44253</v>
       </c>
@@ -18284,7 +18191,7 @@
         <v>2000</v>
       </c>
       <c r="D15" s="17">
-        <f t="shared" ref="D15:D38" si="9">C15/B15</f>
+        <f t="shared" ref="D15:D39" si="9">C15/B15</f>
         <v>423.43635539860185</v>
       </c>
       <c r="E15" s="17">
@@ -18292,7 +18199,7 @@
         <v>6766.6987073504279</v>
       </c>
       <c r="F15" s="17">
-        <f t="shared" ref="F15:F38" si="10">E15*B15</f>
+        <f t="shared" ref="F15:F39" si="10">E15*B15</f>
         <v>31960.877336479982</v>
       </c>
       <c r="G15" s="17">
@@ -18300,16 +18207,16 @@
         <v>26000</v>
       </c>
       <c r="H15" s="17">
-        <f t="shared" ref="H15:H38" si="11">F15</f>
+        <f t="shared" ref="H15:H39" si="11">F15</f>
         <v>31960.877336479982</v>
       </c>
       <c r="I15" s="17">
-        <f t="shared" ref="I15:I38" si="12">H15-G15</f>
+        <f t="shared" ref="I15:I39" si="12">H15-G15</f>
         <v>5960.8773364799818</v>
       </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" ht="14.1" customHeight="1">
       <c r="A16" s="14">
         <v>44286</v>
       </c>
@@ -18318,7 +18225,7 @@
         <v>4.4379900000000001</v>
       </c>
       <c r="C16" s="16">
-        <f t="shared" ref="C16:C38" si="13">C15</f>
+        <f t="shared" ref="C16:C39" si="13">C15</f>
         <v>2000</v>
       </c>
       <c r="D16" s="17">
@@ -18326,7 +18233,7 @@
         <v>450.65446294381013</v>
       </c>
       <c r="E16" s="17">
-        <f t="shared" ref="E16:E38" si="14">E15+D16</f>
+        <f t="shared" ref="E16:E39" si="14">E15+D16</f>
         <v>7217.3531702942382</v>
       </c>
       <c r="F16" s="17">
@@ -18334,7 +18241,7 @@
         <v>32030.541196234128</v>
       </c>
       <c r="G16" s="17">
-        <f t="shared" ref="G16:G38" si="15">G15+C16</f>
+        <f t="shared" ref="G16:G39" si="15">G15+C16</f>
         <v>28000</v>
       </c>
       <c r="H16" s="17">
@@ -18347,7 +18254,7 @@
       </c>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="14.1" customHeight="1">
       <c r="A17" s="14">
         <v>44316</v>
       </c>
@@ -18385,7 +18292,7 @@
       </c>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="14.1" customHeight="1">
       <c r="A18" s="14">
         <v>44347</v>
       </c>
@@ -18423,7 +18330,7 @@
       </c>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="14.1" customHeight="1">
       <c r="A19" s="14">
         <v>44377</v>
       </c>
@@ -18461,7 +18368,7 @@
       </c>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="14.1" customHeight="1">
       <c r="A20" s="14">
         <v>44407</v>
       </c>
@@ -18499,7 +18406,7 @@
       </c>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="14.1" customHeight="1">
       <c r="A21" s="14">
         <v>44439</v>
       </c>
@@ -18538,7 +18445,7 @@
       <c r="J21" s="6"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="14.1" customHeight="1">
       <c r="A22" s="14">
         <v>44469</v>
       </c>
@@ -18576,7 +18483,7 @@
       </c>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="14.1" customHeight="1">
       <c r="A23" s="14">
         <v>44498</v>
       </c>
@@ -18614,7 +18521,7 @@
       </c>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="14.1" customHeight="1">
       <c r="A24" s="14">
         <v>44530</v>
       </c>
@@ -18652,7 +18559,7 @@
       </c>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="14.1" customHeight="1">
       <c r="A25" s="14">
         <v>44561</v>
       </c>
@@ -18690,7 +18597,7 @@
       </c>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="14.1" customHeight="1">
       <c r="A26" s="14">
         <v>44589</v>
       </c>
@@ -18728,7 +18635,7 @@
       </c>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="14.1" customHeight="1">
       <c r="A27" s="14">
         <v>44620</v>
       </c>
@@ -18766,7 +18673,7 @@
       </c>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="14.1" customHeight="1">
       <c r="A28" s="14">
         <v>44651</v>
       </c>
@@ -18804,7 +18711,7 @@
       </c>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="14.1" customHeight="1">
       <c r="A29" s="14">
         <v>44680</v>
       </c>
@@ -18842,7 +18749,7 @@
       </c>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="14.1" customHeight="1">
       <c r="A30" s="14">
         <v>44712</v>
       </c>
@@ -18880,7 +18787,7 @@
       </c>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="14.1" customHeight="1">
       <c r="A31" s="14">
         <v>44742</v>
       </c>
@@ -18918,7 +18825,7 @@
       </c>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="14.1" customHeight="1">
       <c r="A32" s="14">
         <v>44771</v>
       </c>
@@ -18956,7 +18863,7 @@
       </c>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="14.1" customHeight="1">
       <c r="A33" s="14">
         <v>44804</v>
       </c>
@@ -18995,7 +18902,7 @@
       <c r="J33" s="6"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="12.75">
       <c r="A34" s="14">
         <v>44834</v>
       </c>
@@ -19032,7 +18939,7 @@
         <v>-11770.911062729705</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="12.75">
       <c r="A35" s="14">
         <v>44865</v>
       </c>
@@ -19069,7 +18976,7 @@
         <v>-12524.925264431353</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="12.75">
       <c r="A36" s="14">
         <v>44895</v>
       </c>
@@ -19106,7 +19013,7 @@
         <v>-9593.1455874388703</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="12.75">
       <c r="A37" s="14">
         <v>44925</v>
       </c>
@@ -19143,7 +19050,7 @@
         <v>-9706.5932891467164</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="12.75">
       <c r="A38" s="14">
         <v>44957</v>
       </c>
@@ -19179,6 +19086,46 @@
         <f t="shared" si="12"/>
         <v>-3848.2171143818996</v>
       </c>
+    </row>
+    <row r="39" spans="1:12" ht="12.75">
+      <c r="A39" s="14">
+        <v>44985</v>
+      </c>
+      <c r="B39" s="15">
+        <f>VLOOKUP(A39,[1]szse_innovation_100!$A:$F,6)</f>
+        <v>3.6777292480468748</v>
+      </c>
+      <c r="C39" s="16">
+        <f t="shared" si="13"/>
+        <v>2000</v>
+      </c>
+      <c r="D39" s="17">
+        <f t="shared" si="9"/>
+        <v>543.81382236393188</v>
+      </c>
+      <c r="E39" s="17">
+        <f t="shared" si="14"/>
+        <v>18426.569107182859</v>
+      </c>
+      <c r="F39" s="17">
+        <f t="shared" si="10"/>
+        <v>67767.93214664339</v>
+      </c>
+      <c r="G39" s="17">
+        <f t="shared" si="15"/>
+        <v>74000</v>
+      </c>
+      <c r="H39" s="17">
+        <f t="shared" si="11"/>
+        <v>67767.93214664339</v>
+      </c>
+      <c r="I39" s="17">
+        <f t="shared" si="12"/>
+        <v>-6232.0678533566097</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -19195,11 +19142,11 @@
   </sheetPr>
   <dimension ref="A1:D463"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9" style="18"/>
     <col min="2" max="2" width="8.5" style="18" customWidth="1"/>
@@ -19207,16 +19154,16 @@
     <col min="4" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="30" t="s">
+    <row r="1" spans="1:4" ht="12.75" customHeight="1">
+      <c r="B1" s="31" t="s">
         <v>194</v>
       </c>
       <c r="C1" s="22">
         <v>399088</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="30"/>
+    <row r="2" spans="1:4" ht="12.75" customHeight="1">
+      <c r="B2" s="31"/>
       <c r="C2" s="28" t="s">
         <v>0</v>
       </c>
@@ -19224,7 +19171,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="12.75" customHeight="1">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -19239,7 +19186,7 @@
         <v>45.12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="12.75" customHeight="1">
       <c r="A4" s="18">
         <f t="shared" ref="A4:A36" si="0">A3+1</f>
         <v>2</v>
@@ -19255,7 +19202,7 @@
         <v>44.965000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="12.75" customHeight="1">
       <c r="A5" s="18">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -19271,7 +19218,7 @@
         <v>44.99666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="12.75" customHeight="1">
       <c r="A6" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -19287,7 +19234,7 @@
         <v>44.792500000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="12.75" customHeight="1">
       <c r="A7" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -19303,7 +19250,7 @@
         <v>44.440000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="12.75" customHeight="1">
       <c r="A8" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -19319,7 +19266,7 @@
         <v>44.256666666666668</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="12.75" customHeight="1">
       <c r="A9" s="18">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -19335,7 +19282,7 @@
         <v>44.252857142857145</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="12.75" customHeight="1">
       <c r="A10" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -19351,7 +19298,7 @@
         <v>44.220000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="12.75" customHeight="1">
       <c r="A11" s="18">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -19367,7 +19314,7 @@
         <v>44.181111111111115</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="12.75" customHeight="1">
       <c r="A12" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -19383,7 +19330,7 @@
         <v>44.341000000000008</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="12.75" customHeight="1">
       <c r="A13" s="18">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -19399,7 +19346,7 @@
         <v>44.458181818181828</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="12.75" customHeight="1">
       <c r="A14" s="18">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -19415,7 +19362,7 @@
         <v>44.577500000000008</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="12.75" customHeight="1">
       <c r="A15" s="18">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -19431,7 +19378,7 @@
         <v>44.703076923076928</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="12.75" customHeight="1">
       <c r="A16" s="18">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -19447,7 +19394,7 @@
         <v>44.860000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="12.75" customHeight="1">
       <c r="A17" s="18">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -19463,7 +19410,7 @@
         <v>44.968000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="12.75" customHeight="1">
       <c r="A18" s="18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -19479,7 +19426,7 @@
         <v>45.078750000000007</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="12.75" customHeight="1">
       <c r="A19" s="18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -19495,7 +19442,7 @@
         <v>45.214117647058828</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="12.75" customHeight="1">
       <c r="A20" s="18">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -19511,7 +19458,7 @@
         <v>45.345555555555563</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="12.75" customHeight="1">
       <c r="A21" s="18">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -19527,7 +19474,7 @@
         <v>45.46631578947369</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="12.75" customHeight="1">
       <c r="A22" s="18">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -19543,7 +19490,7 @@
         <v>45.062500000000007</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="12.75" customHeight="1">
       <c r="A23" s="18">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -19559,7 +19506,7 @@
         <v>44.643333333333338</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="12.75" customHeight="1">
       <c r="A24" s="18">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -19575,7 +19522,7 @@
         <v>44.269090909090913</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="12.75" customHeight="1">
       <c r="A25" s="18">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -19591,7 +19538,7 @@
         <v>43.928695652173921</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="12.75" customHeight="1">
       <c r="A26" s="18">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -19607,7 +19554,7 @@
         <v>43.627500000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="12.75" customHeight="1">
       <c r="A27" s="18">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -19623,7 +19570,7 @@
         <v>43.332400000000007</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="12.75" customHeight="1">
       <c r="A28" s="18">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -19639,7 +19586,7 @@
         <v>43.088461538461544</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="12.75" customHeight="1">
       <c r="A29" s="18">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -19655,7 +19602,7 @@
         <v>42.901851851851859</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="12.75" customHeight="1">
       <c r="A30" s="18">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -19671,7 +19618,7 @@
         <v>42.726071428571437</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="12.75" customHeight="1">
       <c r="A31" s="18">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -19687,7 +19634,7 @@
         <v>42.570000000000007</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="12.75" customHeight="1">
       <c r="A32" s="18">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -19703,7 +19650,7 @@
         <v>42.435000000000009</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="12.75" customHeight="1">
       <c r="A33" s="18">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -19719,7 +19666,7 @@
         <v>42.298387096774199</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="12.75" customHeight="1">
       <c r="A34" s="18">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -19735,7 +19682,7 @@
         <v>42.179062500000008</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="12.75" customHeight="1">
       <c r="A35" s="18">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -19751,7 +19698,7 @@
         <v>42.093333333333341</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="12.75" customHeight="1">
       <c r="A36" s="18">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -19767,7 +19714,7 @@
         <v>42.005000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="12.75" customHeight="1">
       <c r="A37" s="18">
         <f t="shared" ref="A37:A100" si="1">A36+1</f>
         <v>35</v>
@@ -19783,7 +19730,7 @@
         <v>41.929428571428573</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="12.75" customHeight="1">
       <c r="A38" s="18">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -19799,7 +19746,7 @@
         <v>41.856666666666662</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="12.75" customHeight="1">
       <c r="A39" s="18">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -19815,7 +19762,7 @@
         <v>41.802432432432425</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="12.75" customHeight="1">
       <c r="A40" s="18">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -19831,7 +19778,7 @@
         <v>41.751315789473679</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="12.75" customHeight="1">
       <c r="A41" s="18">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -19847,7 +19794,7 @@
         <v>41.689999999999991</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="12.75" customHeight="1">
       <c r="A42" s="18">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -19863,7 +19810,7 @@
         <v>41.621999999999993</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="12.75" customHeight="1">
       <c r="A43" s="18">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -19879,7 +19826,7 @@
         <v>41.5680487804878</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="12.75" customHeight="1">
       <c r="A44" s="18">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -19895,7 +19842,7 @@
         <v>41.512380952380944</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="12.75" customHeight="1">
       <c r="A45" s="18">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -19911,7 +19858,7 @@
         <v>41.454186046511623</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="12.75" customHeight="1">
       <c r="A46" s="18">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -19927,7 +19874,7 @@
         <v>41.399318181818174</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="12.75" customHeight="1">
       <c r="A47" s="18">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -19943,7 +19890,7 @@
         <v>41.36044444444444</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="12.75" customHeight="1">
       <c r="A48" s="18">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -19959,7 +19906,7 @@
         <v>41.322391304347818</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="12.75" customHeight="1">
       <c r="A49" s="18">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -19975,7 +19922,7 @@
         <v>41.285319148936161</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="12.75" customHeight="1">
       <c r="A50" s="18">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -19991,7 +19938,7 @@
         <v>41.222499999999989</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="12.75" customHeight="1">
       <c r="A51" s="18">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -20007,7 +19954,7 @@
         <v>41.174693877551015</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="12.75" customHeight="1">
       <c r="A52" s="18">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -20023,7 +19970,7 @@
         <v>41.139199999999988</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="12.75" customHeight="1">
       <c r="A53" s="18">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -20039,7 +19986,7 @@
         <v>41.106862745098027</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="12.75" customHeight="1">
       <c r="A54" s="18">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -20055,7 +20002,7 @@
         <v>41.078653846153834</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="12.75" customHeight="1">
       <c r="A55" s="18">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -20071,7 +20018,7 @@
         <v>41.062452830188661</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="12.75" customHeight="1">
       <c r="A56" s="18">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -20087,7 +20034,7 @@
         <v>41.045555555555538</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="12.75" customHeight="1">
       <c r="A57" s="18">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -20103,7 +20050,7 @@
         <v>41.038181818181798</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" ht="12.75" customHeight="1">
       <c r="A58" s="18">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -20119,7 +20066,7 @@
         <v>41.038928571428549</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="12.75" customHeight="1">
       <c r="A59" s="18">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -20135,7 +20082,7 @@
         <v>41.034736842105247</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="12.75" customHeight="1">
       <c r="A60" s="18">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -20151,7 +20098,7 @@
         <v>41.041896551724122</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="12.75" customHeight="1">
       <c r="A61" s="18">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -20167,7 +20114,7 @@
         <v>41.046101694915237</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" ht="12.75" customHeight="1">
       <c r="A62" s="18">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -20183,7 +20130,7 @@
         <v>41.029166666666654</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" ht="12.75" customHeight="1">
       <c r="A63" s="18">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -20199,7 +20146,7 @@
         <v>41.015737704918017</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" ht="12.75" customHeight="1">
       <c r="A64" s="18">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -20215,7 +20162,7 @@
         <v>40.997580645161271</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" ht="12.75" customHeight="1">
       <c r="A65" s="18">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -20231,7 +20178,7 @@
         <v>40.997301587301571</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="12.75" customHeight="1">
       <c r="A66" s="18">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -20247,7 +20194,7 @@
         <v>40.998281249999984</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" ht="12.75" customHeight="1">
       <c r="A67" s="18">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -20263,7 +20210,7 @@
         <v>40.994153846153829</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="12.75" customHeight="1">
       <c r="A68" s="18">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -20279,7 +20226,7 @@
         <v>41.006060606060593</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" ht="12.75" customHeight="1">
       <c r="A69" s="18">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -20295,7 +20242,7 @@
         <v>41.01641791044775</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" ht="12.75" customHeight="1">
       <c r="A70" s="18">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -20311,7 +20258,7 @@
         <v>41.020294117647047</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" ht="12.75" customHeight="1">
       <c r="A71" s="18">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -20327,7 +20274,7 @@
         <v>41.027826086956509</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" ht="12.75" customHeight="1">
       <c r="A72" s="18">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -20343,7 +20290,7 @@
         <v>41.021428571428558</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" ht="12.75" customHeight="1">
       <c r="A73" s="18">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -20359,7 +20306,7 @@
         <v>41.019295774647873</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" ht="12.75" customHeight="1">
       <c r="A74" s="18">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -20375,7 +20322,7 @@
         <v>41.017499999999984</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" ht="12.75" customHeight="1">
       <c r="A75" s="18">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -20391,7 +20338,7 @@
         <v>41.027123287671216</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" ht="12.75" customHeight="1">
       <c r="A76" s="18">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -20407,7 +20354,7 @@
         <v>41.036081081081065</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" ht="12.75" customHeight="1">
       <c r="A77" s="18">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -20423,7 +20370,7 @@
         <v>41.035466666666643</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" ht="12.75" customHeight="1">
       <c r="A78" s="18">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -20439,7 +20386,7 @@
         <v>41.020526335866805</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" ht="12.75" customHeight="1">
       <c r="A79" s="18">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -20455,7 +20402,7 @@
         <v>40.984025981952598</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" ht="12.75" customHeight="1">
       <c r="A80" s="18">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -20471,7 +20418,7 @@
         <v>40.953717942849167</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" ht="12.75" customHeight="1">
       <c r="A81" s="18">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -20487,7 +20434,7 @@
         <v>40.943164537647085</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" ht="12.75" customHeight="1">
       <c r="A82" s="18">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -20503,7 +20450,7 @@
         <v>40.930499984741189</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" ht="12.75" customHeight="1">
       <c r="A83" s="18">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -20519,7 +20466,7 @@
         <v>40.927160476872935</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" ht="12.75" customHeight="1">
       <c r="A84" s="18">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -20535,7 +20482,7 @@
         <v>40.921951202764724</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" ht="12.75" customHeight="1">
       <c r="A85" s="18">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -20551,7 +20498,7 @@
         <v>40.929036107810127</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" ht="12.75" customHeight="1">
       <c r="A86" s="18">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -20567,7 +20514,7 @@
         <v>40.931428547813759</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" ht="12.75" customHeight="1">
       <c r="A87" s="18">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -20583,7 +20530,7 @@
         <v>40.92988232062843</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" ht="12.75" customHeight="1">
       <c r="A88" s="18">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -20599,7 +20546,7 @@
         <v>40.928372052214847</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" ht="12.75" customHeight="1">
       <c r="A89" s="18">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -20615,7 +20562,7 @@
         <v>40.927701096808754</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" ht="12.75" customHeight="1">
       <c r="A90" s="18">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -20631,7 +20578,7 @@
         <v>40.924090864008107</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" ht="12.75" customHeight="1">
       <c r="A91" s="18">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -20647,7 +20594,7 @@
         <v>40.917528047025854</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" ht="12.75" customHeight="1">
       <c r="A92" s="18">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -20663,7 +20610,7 @@
         <v>40.904444420708536</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" ht="12.75" customHeight="1">
       <c r="A93" s="18">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -20679,7 +20626,7 @@
         <v>40.886703283288959</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" ht="12.75" customHeight="1">
       <c r="A94" s="18">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -20695,7 +20642,7 @@
         <v>40.859891271176529</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" ht="12.75" customHeight="1">
       <c r="A95" s="18">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -20711,7 +20658,7 @@
         <v>40.836344033518131</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" ht="12.75" customHeight="1">
       <c r="A96" s="18">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -20727,7 +20674,7 @@
         <v>40.815851010261682</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" ht="12.75" customHeight="1">
       <c r="A97" s="18">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -20743,7 +20690,7 @@
         <v>40.787684151097331</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" ht="12.75" customHeight="1">
       <c r="A98" s="18">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -20759,7 +20706,7 @@
         <v>40.770416618982935</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" ht="12.75" customHeight="1">
       <c r="A99" s="18">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -20775,7 +20722,7 @@
         <v>40.756804084384548</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" ht="12.75" customHeight="1">
       <c r="A100" s="18">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -20791,7 +20738,7 @@
         <v>40.744489749207773</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" ht="12.75" customHeight="1">
       <c r="A101" s="18">
         <f t="shared" ref="A101:A355" si="2">A100+1</f>
         <v>99</v>
@@ -20807,7 +20754,7 @@
         <v>40.723232270828383</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" ht="12.75" customHeight="1">
       <c r="A102" s="18">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -20823,7 +20770,7 @@
         <v>40.702299958801255</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" ht="12.75" customHeight="1">
       <c r="A103" s="18">
         <f t="shared" si="2"/>
         <v>101</v>
@@ -20839,7 +20786,7 @@
         <v>40.680296984379815</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" ht="12.75" customHeight="1">
       <c r="A104" s="18">
         <f t="shared" si="2"/>
         <v>102</v>
@@ -20855,7 +20802,7 @@
         <v>40.654705834482208</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" ht="12.75" customHeight="1">
       <c r="A105" s="18">
         <f t="shared" si="2"/>
         <v>103</v>
@@ -20871,7 +20818,7 @@
         <v>40.599999957038342</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" ht="12.75" customHeight="1">
       <c r="A106" s="18">
         <f t="shared" si="2"/>
         <v>104</v>
@@ -20887,7 +20834,7 @@
         <v>40.542692259274979</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" ht="12.75" customHeight="1">
       <c r="A107" s="18">
         <f t="shared" si="2"/>
         <v>105</v>
@@ -20903,7 +20850,7 @@
         <v>40.482476154145722</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" ht="12.75" customHeight="1">
       <c r="A108" s="18">
         <f t="shared" si="2"/>
         <v>106</v>
@@ -20919,7 +20866,7 @@
         <v>40.435849029253099</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" ht="12.75" customHeight="1">
       <c r="A109" s="18">
         <f t="shared" si="2"/>
         <v>107</v>
@@ -20935,7 +20882,7 @@
         <v>40.391775685247957</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" ht="12.75" customHeight="1">
       <c r="A110" s="18">
         <f t="shared" si="2"/>
         <v>108</v>
@@ -20951,7 +20898,7 @@
         <v>40.346574042991335</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" ht="12.75" customHeight="1">
       <c r="A111" s="18">
         <f t="shared" si="2"/>
         <v>109</v>
@@ -20967,7 +20914,7 @@
         <v>40.302110060945544</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" ht="12.75" customHeight="1">
       <c r="A112" s="18">
         <f t="shared" si="2"/>
         <v>110</v>
@@ -20983,7 +20930,7 @@
         <v>40.260272703690944</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" ht="12.75" customHeight="1">
       <c r="A113" s="18">
         <f t="shared" si="2"/>
         <v>111</v>
@@ -20999,7 +20946,7 @@
         <v>40.215585555342926</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" ht="12.75" customHeight="1">
       <c r="A114" s="18">
         <f t="shared" si="2"/>
         <v>112</v>
@@ -21015,7 +20962,7 @@
         <v>40.173214266640784</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" ht="12.75" customHeight="1">
       <c r="A115" s="18">
         <f t="shared" si="2"/>
         <v>113</v>
@@ -21031,7 +20978,7 @@
         <v>40.128584061344093</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" ht="12.75" customHeight="1">
       <c r="A116" s="18">
         <f t="shared" si="2"/>
         <v>114</v>
@@ -21047,7 +20994,7 @@
         <v>40.078245599311678</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" ht="12.75" customHeight="1">
       <c r="A117" s="18">
         <f t="shared" si="2"/>
         <v>115</v>
@@ -21063,7 +21010,7 @@
         <v>40.032521721881352</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" ht="12.75" customHeight="1">
       <c r="A118" s="18">
         <f t="shared" si="2"/>
         <v>116</v>
@@ -21079,7 +21026,7 @@
         <v>39.985344822324535</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" ht="12.75" customHeight="1">
       <c r="A119" s="18">
         <f t="shared" si="2"/>
         <v>117</v>
@@ -21095,7 +21042,7 @@
         <v>39.940427341298147</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" ht="12.75" customHeight="1">
       <c r="A120" s="18">
         <f t="shared" si="2"/>
         <v>118</v>
@@ -21111,7 +21058,7 @@
         <v>39.89703388666701</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" ht="12.75" customHeight="1">
       <c r="A121" s="18">
         <f t="shared" si="2"/>
         <v>119</v>
@@ -21127,7 +21074,7 @@
         <v>39.856638645204157</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" ht="12.75" customHeight="1">
       <c r="A122" s="18">
         <f t="shared" si="2"/>
         <v>120</v>
@@ -21143,7 +21090,7 @@
         <v>39.814833324432357</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" ht="12.75" customHeight="1">
       <c r="A123" s="18">
         <f t="shared" si="2"/>
         <v>121</v>
@@ -21159,7 +21106,7 @@
         <v>39.769752062332515</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" ht="12.75" customHeight="1">
       <c r="A124" s="18">
         <f t="shared" si="2"/>
         <v>122</v>
@@ -21175,7 +21122,7 @@
         <v>39.730819672131133</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" ht="12.75" customHeight="1">
       <c r="A125" s="18">
         <f t="shared" si="2"/>
         <v>123</v>
@@ -21191,7 +21138,7 @@
         <v>39.694634136422749</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" ht="12.75" customHeight="1">
       <c r="A126" s="18">
         <f t="shared" si="2"/>
         <v>124</v>
@@ -21207,7 +21154,7 @@
         <v>39.656854815322561</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" ht="12.75" customHeight="1">
       <c r="A127" s="18">
         <f t="shared" si="2"/>
         <v>125</v>
@@ -21223,7 +21170,7 @@
         <v>39.615839967039982</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" ht="12.75" customHeight="1">
       <c r="A128" s="18">
         <f t="shared" si="2"/>
         <v>126</v>
@@ -21239,7 +21186,7 @@
         <v>39.58039680484125</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" ht="12.75" customHeight="1">
       <c r="A129" s="18">
         <f t="shared" si="2"/>
         <v>127</v>
@@ -21255,7 +21202,7 @@
         <v>39.545433045669277</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" ht="12.75" customHeight="1">
       <c r="A130" s="18">
         <f t="shared" si="2"/>
         <v>128</v>
@@ -21271,7 +21218,7 @@
         <v>39.514765591640611</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" ht="12.75" customHeight="1">
       <c r="A131" s="18">
         <f t="shared" si="2"/>
         <v>129</v>
@@ -21287,7 +21234,7 @@
         <v>39.483953462403086</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" ht="12.75" customHeight="1">
       <c r="A132" s="18">
         <f t="shared" si="2"/>
         <v>130</v>
@@ -21303,7 +21250,7 @@
         <v>39.455384593153838</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" ht="12.75" customHeight="1">
       <c r="A133" s="18">
         <f t="shared" si="2"/>
         <v>131</v>
@@ -21319,7 +21266,7 @@
         <v>39.425419815954186</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" ht="12.75" customHeight="1">
       <c r="A134" s="18">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -21335,7 +21282,7 @@
         <v>39.396590869848474</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" ht="12.75" customHeight="1">
       <c r="A135" s="18">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -21351,7 +21298,7 @@
         <v>39.371127767969917</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" ht="12.75" customHeight="1">
       <c r="A136" s="18">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -21367,7 +21314,7 @@
         <v>39.348358155447755</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" ht="12.75" customHeight="1">
       <c r="A137" s="18">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -21383,7 +21330,7 @@
         <v>39.325777719037028</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" ht="12.75" customHeight="1">
       <c r="A138" s="18">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -21399,7 +21346,7 @@
         <v>39.30124995404411</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" ht="12.75" customHeight="1">
       <c r="A139" s="18">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -21415,7 +21362,7 @@
         <v>39.275182432773718</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" ht="12.75" customHeight="1">
       <c r="A140" s="18">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -21431,7 +21378,7 @@
         <v>39.253623134275358</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" ht="12.75" customHeight="1">
       <c r="A141" s="18">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -21447,7 +21394,7 @@
         <v>39.222517934100708</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" ht="12.75" customHeight="1">
       <c r="A142" s="18">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -21463,7 +21410,7 @@
         <v>39.191714233499987</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" ht="12.75" customHeight="1">
       <c r="A143" s="18">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -21479,7 +21426,7 @@
         <v>39.159361657872324</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" ht="12.75" customHeight="1">
       <c r="A144" s="18">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -21495,7 +21442,7 @@
         <v>39.130704182464775</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" ht="12.75" customHeight="1">
       <c r="A145" s="18">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -21511,7 +21458,7 @@
         <v>39.101118849230758</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" ht="12.75" customHeight="1">
       <c r="A146" s="18">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -21527,7 +21474,7 @@
         <v>39.072916641388879</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" ht="12.75" customHeight="1">
       <c r="A147" s="18">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -21543,7 +21490,7 @@
         <v>39.046344810896542</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" ht="12.75" customHeight="1">
       <c r="A148" s="18">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -21559,7 +21506,7 @@
         <v>39.018561638767117</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" ht="12.75" customHeight="1">
       <c r="A149" s="18">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -21575,7 +21522,7 @@
         <v>38.994013599387742</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" ht="12.75" customHeight="1">
       <c r="A150" s="18">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -21591,7 +21538,7 @@
         <v>38.968783766418909</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" ht="12.75" customHeight="1">
       <c r="A151" s="18">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -21607,7 +21554,7 @@
         <v>38.941812068389247</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" ht="12.75" customHeight="1">
       <c r="A152" s="18">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -21623,7 +21570,7 @@
         <v>38.915199992999987</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" ht="12.75" customHeight="1">
       <c r="A153" s="18">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -21639,7 +21586,7 @@
         <v>38.890794691986741</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" ht="12.75" customHeight="1">
       <c r="A154" s="18">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -21655,7 +21602,7 @@
         <v>38.864144727894725</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" ht="12.75" customHeight="1">
       <c r="A155" s="18">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -21671,7 +21618,7 @@
         <v>38.840653588888877</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" ht="12.75" customHeight="1">
       <c r="A156" s="18">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -21687,7 +21634,7 @@
         <v>38.822142862207784</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" ht="12.75" customHeight="1">
       <c r="A157" s="18">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -21703,7 +21650,7 @@
         <v>38.801870974774182</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" ht="12.75" customHeight="1">
       <c r="A158" s="18">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -21719,7 +21666,7 @@
         <v>38.781025643141014</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" ht="12.75" customHeight="1">
       <c r="A159" s="18">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -21735,7 +21682,7 @@
         <v>38.75942674980891</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" ht="12.75" customHeight="1">
       <c r="A160" s="18">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -21751,7 +21698,7 @@
         <v>38.73683543259493</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" ht="12.75" customHeight="1">
       <c r="A161" s="18">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -21767,7 +21714,7 @@
         <v>38.715911938364776</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" ht="12.75" customHeight="1">
       <c r="A162" s="18">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -21783,7 +21730,7 @@
         <v>38.695499988749994</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" ht="12.75" customHeight="1">
       <c r="A163" s="18">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -21799,7 +21746,7 @@
         <v>38.674285695527942</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" ht="12.75" customHeight="1">
       <c r="A164" s="18">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -21815,7 +21762,7 @@
         <v>38.652962951851848</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" ht="12.75" customHeight="1">
       <c r="A165" s="18">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -21831,7 +21778,7 @@
         <v>38.632515324478518</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" ht="12.75" customHeight="1">
       <c r="A166" s="18">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -21847,7 +21794,7 @@
         <v>38.609999978780486</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" ht="12.75" customHeight="1">
       <c r="A167" s="18">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -21863,7 +21810,7 @@
         <v>38.586363609696967</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" ht="12.75" customHeight="1">
       <c r="A168" s="18">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -21879,7 +21826,7 @@
         <v>38.566746972469872</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" ht="12.75" customHeight="1">
       <c r="A169" s="18">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -21895,7 +21842,7 @@
         <v>38.550598780598797</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" ht="12.75" customHeight="1">
       <c r="A170" s="18">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -21911,7 +21858,7 @@
         <v>38.53458331529761</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" ht="12.75" customHeight="1">
       <c r="A171" s="18">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -21927,7 +21874,7 @@
         <v>38.518757382130168</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" ht="12.75" customHeight="1">
       <c r="A172" s="18">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -21943,7 +21890,7 @@
         <v>38.501588212058813</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" ht="12.75" customHeight="1">
       <c r="A173" s="18">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -21959,7 +21906,7 @@
         <v>38.482806999824554</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" ht="12.75" customHeight="1">
       <c r="A174" s="18">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -21975,7 +21922,7 @@
         <v>38.465581380406974</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" ht="12.75" customHeight="1">
       <c r="A175" s="18">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -21991,7 +21938,7 @@
         <v>38.445202289364161</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" ht="12.75" customHeight="1">
       <c r="A176" s="18">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -22007,7 +21954,7 @@
         <v>38.42022985362069</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" ht="12.75" customHeight="1">
       <c r="A177" s="18">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -22023,7 +21970,7 @@
         <v>38.397485675200002</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" ht="12.75" customHeight="1">
       <c r="A178" s="18">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -22039,7 +21986,7 @@
         <v>38.376420407897733</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" ht="12.75" customHeight="1">
       <c r="A179" s="18">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -22055,7 +22002,7 @@
         <v>38.356271147796612</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" ht="12.75" customHeight="1">
       <c r="A180" s="18">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -22071,7 +22018,7 @@
         <v>38.333426933033707</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" ht="12.75" customHeight="1">
       <c r="A181" s="18">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -22087,7 +22034,7 @@
         <v>38.311229020614526</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" ht="12.75" customHeight="1">
       <c r="A182" s="18">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -22103,7 +22050,7 @@
         <v>38.290888867888889</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" ht="12.75" customHeight="1">
       <c r="A183" s="18">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -22119,7 +22066,7 @@
         <v>38.268618754364638</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" ht="12.75" customHeight="1">
       <c r="A184" s="18">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -22135,7 +22082,7 @@
         <v>38.248351618351641</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" ht="12.75" customHeight="1">
       <c r="A185" s="18">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -22151,7 +22098,7 @@
         <v>38.228579205136612</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" ht="12.75" customHeight="1">
       <c r="A186" s="18">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -22167,7 +22114,7 @@
         <v>38.206847793913042</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" ht="12.75" customHeight="1">
       <c r="A187" s="18">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -22183,7 +22130,7 @@
         <v>38.181189152216213</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" ht="12.75" customHeight="1">
       <c r="A188" s="18">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -22199,7 +22146,7 @@
         <v>38.15387092274193</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" ht="12.75" customHeight="1">
       <c r="A189" s="18">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -22215,7 +22162,7 @@
         <v>38.12657749128342</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" ht="12.75" customHeight="1">
       <c r="A190" s="18">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -22231,7 +22178,7 @@
         <v>38.100053139680853</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" ht="12.75" customHeight="1">
       <c r="A191" s="18">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -22247,7 +22194,7 @@
         <v>38.071216879682538</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" ht="12.75" customHeight="1">
       <c r="A192" s="18">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -22263,7 +22210,7 @@
         <v>38.0456315228421</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" ht="12.75" customHeight="1">
       <c r="A193" s="18">
         <f t="shared" si="2"/>
         <v>191</v>
@@ -22279,7 +22226,7 @@
         <v>38.017120363036646</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" ht="12.75" customHeight="1">
       <c r="A194" s="18">
         <f t="shared" si="2"/>
         <v>192</v>
@@ -22295,7 +22242,7 @@
         <v>37.989791613541662</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" ht="12.75" customHeight="1">
       <c r="A195" s="18">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -22311,7 +22258,7 @@
         <v>37.965699429792743</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" ht="12.75" customHeight="1">
       <c r="A196" s="18">
         <f t="shared" si="2"/>
         <v>194</v>
@@ -22327,7 +22274,7 @@
         <v>37.941855619072165</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" ht="12.75" customHeight="1">
       <c r="A197" s="18">
         <f t="shared" si="2"/>
         <v>195</v>
@@ -22343,7 +22290,7 @@
         <v>37.915128152000001</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" ht="12.75" customHeight="1">
       <c r="A198" s="18">
         <f t="shared" si="2"/>
         <v>196</v>
@@ -22359,7 +22306,7 @@
         <v>37.889132598622453</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" ht="12.75" customHeight="1">
       <c r="A199" s="18">
         <f t="shared" si="2"/>
         <v>197</v>
@@ -22375,7 +22322,7 @@
         <v>37.861268989137059</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" ht="12.75" customHeight="1">
       <c r="A200" s="18">
         <f t="shared" si="2"/>
         <v>198</v>
@@ -22391,7 +22338,7 @@
         <v>37.834646419242425</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" ht="12.75" customHeight="1">
       <c r="A201" s="18">
         <f t="shared" si="2"/>
         <v>199</v>
@@ -22407,7 +22354,7 @@
         <v>37.804422063819104</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" ht="12.75" customHeight="1">
       <c r="A202" s="18">
         <f t="shared" si="2"/>
         <v>200</v>
@@ -22423,7 +22370,7 @@
         <v>37.775999948150009</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" ht="12.75" customHeight="1">
       <c r="A203" s="18">
         <f t="shared" si="2"/>
         <v>201</v>
@@ -22439,7 +22386,7 @@
         <v>37.743084524776123</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" ht="12.75" customHeight="1">
       <c r="A204" s="18">
         <f t="shared" si="2"/>
         <v>202</v>
@@ -22455,7 +22402,7 @@
         <v>37.710494996683174</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" ht="12.75" customHeight="1">
       <c r="A205" s="18">
         <f t="shared" si="2"/>
         <v>203</v>
@@ -22471,7 +22418,7 @@
         <v>37.678472849310346</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" ht="12.75" customHeight="1">
       <c r="A206" s="18">
         <f t="shared" si="2"/>
         <v>204</v>
@@ -22487,7 +22434,7 @@
         <v>37.643872496323532</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" ht="12.75" customHeight="1">
       <c r="A207" s="18">
         <f t="shared" si="2"/>
         <v>205</v>
@@ -22503,7 +22450,7 @@
         <v>37.61151214380488</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" ht="12.75" customHeight="1">
       <c r="A208" s="18">
         <f t="shared" si="2"/>
         <v>206</v>
@@ -22519,7 +22466,7 @@
         <v>37.577281499757277</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" ht="12.75" customHeight="1">
       <c r="A209" s="18">
         <f t="shared" si="2"/>
         <v>207</v>
@@ -22535,7 +22482,7 @@
         <v>37.540193181497585</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" ht="12.75" customHeight="1">
       <c r="A210" s="18">
         <f t="shared" si="2"/>
         <v>208</v>
@@ -22551,7 +22498,7 @@
         <v>37.503221100721149</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" ht="12.75" customHeight="1">
       <c r="A211" s="18">
         <f t="shared" si="2"/>
         <v>209</v>
@@ -22567,7 +22514,7 @@
         <v>37.469999944593297</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" ht="12.75" customHeight="1">
       <c r="A212" s="18">
         <f t="shared" si="2"/>
         <v>210</v>
@@ -22583,7 +22530,7 @@
         <v>37.437380901238093</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" ht="12.75" customHeight="1">
       <c r="A213" s="18">
         <f t="shared" si="2"/>
         <v>211</v>
@@ -22599,7 +22546,7 @@
         <v>37.405781941800946</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" ht="12.75" customHeight="1">
       <c r="A214" s="18">
         <f t="shared" si="2"/>
         <v>212</v>
@@ -22615,7 +22562,7 @@
         <v>37.374245231273584</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" ht="12.75" customHeight="1">
       <c r="A215" s="18">
         <f t="shared" si="2"/>
         <v>213</v>
@@ -22631,7 +22578,7 @@
         <v>37.342629053615028</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" ht="12.75" customHeight="1">
       <c r="A216" s="18">
         <f t="shared" si="2"/>
         <v>214</v>
@@ -22647,7 +22594,7 @@
         <v>37.309205555841125</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" ht="12.75" customHeight="1">
       <c r="A217" s="18">
         <f t="shared" si="2"/>
         <v>215</v>
@@ -22663,7 +22610,7 @@
         <v>37.27981390102326</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" ht="12.75" customHeight="1">
       <c r="A218" s="18">
         <f t="shared" si="2"/>
         <v>216</v>
@@ -22679,7 +22626,7 @@
         <v>37.247685133657413</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" ht="12.75" customHeight="1">
       <c r="A219" s="18">
         <f t="shared" si="2"/>
         <v>217</v>
@@ -22695,7 +22642,7 @@
         <v>37.218433126682037</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" ht="12.75" customHeight="1">
       <c r="A220" s="18">
         <f t="shared" si="2"/>
         <v>218</v>
@@ -22711,7 +22658,7 @@
         <v>37.189770586238538</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" ht="12.75" customHeight="1">
       <c r="A221" s="18">
         <f t="shared" si="2"/>
         <v>219</v>
@@ -22727,7 +22674,7 @@
         <v>37.161232823424669</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" ht="12.75" customHeight="1">
       <c r="A222" s="18">
         <f t="shared" si="2"/>
         <v>220</v>
@@ -22743,7 +22690,7 @@
         <v>37.130772670045459</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" ht="12.75" customHeight="1">
       <c r="A223" s="18">
         <f t="shared" si="2"/>
         <v>221</v>
@@ -22759,7 +22706,7 @@
         <v>37.098913970859734</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" ht="12.75" customHeight="1">
       <c r="A224" s="18">
         <f t="shared" si="2"/>
         <v>222</v>
@@ -22775,7 +22722,7 @@
         <v>37.065180126891896</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" ht="12.75" customHeight="1">
       <c r="A225" s="18">
         <f t="shared" si="2"/>
         <v>223</v>
@@ -22791,7 +22738,7 @@
         <v>37.026053759282519</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" ht="12.75" customHeight="1">
       <c r="A226" s="18">
         <f t="shared" si="2"/>
         <v>224</v>
@@ -22807,7 +22754,7 @@
         <v>36.984464229464287</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" ht="12.75" customHeight="1">
       <c r="A227" s="18">
         <f t="shared" si="2"/>
         <v>225</v>
@@ -22823,7 +22770,7 @@
         <v>36.94248883697778</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" ht="12.75" customHeight="1">
       <c r="A228" s="18">
         <f t="shared" si="2"/>
         <v>226</v>
@@ -22839,7 +22786,7 @@
         <v>36.903849501769912</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" ht="12.75" customHeight="1">
       <c r="A229" s="18">
         <f t="shared" si="2"/>
         <v>227</v>
@@ -22855,7 +22802,7 @@
         <v>36.866607877356834</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" ht="12.75" customHeight="1">
       <c r="A230" s="18">
         <f t="shared" si="2"/>
         <v>228</v>
@@ -22871,7 +22818,7 @@
         <v>36.825438542543864</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" ht="12.75" customHeight="1">
       <c r="A231" s="18">
         <f t="shared" si="2"/>
         <v>229</v>
@@ -22887,7 +22834,7 @@
         <v>36.780523967772936</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" ht="12.75" customHeight="1">
       <c r="A232" s="18">
         <f t="shared" si="2"/>
         <v>230</v>
@@ -22903,7 +22850,7 @@
         <v>36.740956473608705</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" ht="12.75" customHeight="1">
       <c r="A233" s="18">
         <f t="shared" si="2"/>
         <v>231</v>
@@ -22919,7 +22866,7 @@
         <v>36.704978308398275</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" ht="12.75" customHeight="1">
       <c r="A234" s="18">
         <f t="shared" si="2"/>
         <v>232</v>
@@ -22935,7 +22882,7 @@
         <v>36.66892236806035</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" ht="12.75" customHeight="1">
       <c r="A235" s="18">
         <f t="shared" si="2"/>
         <v>233</v>
@@ -22951,7 +22898,7 @@
         <v>36.633948454291847</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" ht="12.75" customHeight="1">
       <c r="A236" s="18">
         <f t="shared" si="2"/>
         <v>234</v>
@@ -22967,7 +22914,7 @@
         <v>36.598119614743588</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" ht="12.75" customHeight="1">
       <c r="A237" s="18">
         <f t="shared" si="2"/>
         <v>235</v>
@@ -22983,7 +22930,7 @@
         <v>36.563361660255318</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" ht="12.75" customHeight="1">
       <c r="A238" s="18">
         <f t="shared" si="2"/>
         <v>236</v>
@@ -22999,7 +22946,7 @@
         <v>36.528262673093217</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" ht="12.75" customHeight="1">
       <c r="A239" s="18">
         <f t="shared" si="2"/>
         <v>237</v>
@@ -23015,7 +22962,7 @@
         <v>36.490632875358649</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" ht="12.75" customHeight="1">
       <c r="A240" s="18">
         <f t="shared" si="2"/>
         <v>238</v>
@@ -23031,7 +22978,7 @@
         <v>36.451512570462185</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" ht="12.75" customHeight="1">
       <c r="A241" s="18">
         <f t="shared" si="2"/>
         <v>239</v>
@@ -23047,7 +22994,7 @@
         <v>36.412008334728036</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" ht="12.75" customHeight="1">
       <c r="A242" s="18">
         <f t="shared" si="2"/>
         <v>240</v>
@@ -23063,7 +23010,7 @@
         <v>36.376874964750002</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" ht="12.75" customHeight="1">
       <c r="A243" s="18">
         <f t="shared" si="2"/>
         <v>241</v>
@@ -23079,7 +23026,7 @@
         <v>36.340622369004151</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" ht="12.75" customHeight="1">
       <c r="A244" s="18">
         <f t="shared" si="2"/>
         <v>242</v>
@@ -23095,7 +23042,7 @@
         <v>36.305495830909088</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" ht="12.75" customHeight="1">
       <c r="A245" s="18">
         <f t="shared" si="2"/>
         <v>243</v>
@@ -23111,7 +23058,7 @@
         <v>36.269876504938274</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" ht="12.75" customHeight="1">
       <c r="A246" s="18">
         <f t="shared" si="2"/>
         <v>244</v>
@@ -23127,7 +23074,7 @@
         <v>36.232704883032788</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" ht="12.75" customHeight="1">
       <c r="A247" s="18">
         <f t="shared" si="2"/>
         <v>245</v>
@@ -23143,7 +23090,7 @@
         <v>36.195714251183674</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" ht="12.75" customHeight="1">
       <c r="A248" s="18">
         <f t="shared" si="2"/>
         <v>246</v>
@@ -23159,7 +23106,7 @@
         <v>36.154715415243899</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" ht="12.75" customHeight="1">
       <c r="A249" s="18">
         <f t="shared" si="2"/>
         <v>247</v>
@@ -23175,7 +23122,7 @@
         <v>36.116113331943318</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" ht="12.75" customHeight="1">
       <c r="A250" s="18">
         <f t="shared" si="2"/>
         <v>248</v>
@@ -23191,7 +23138,7 @@
         <v>36.076048360080641</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" ht="12.75" customHeight="1">
       <c r="A251" s="18">
         <f t="shared" si="2"/>
         <v>249</v>
@@ -23207,7 +23154,7 @@
         <v>36.036947764859427</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" ht="12.75" customHeight="1">
       <c r="A252" s="18">
         <f t="shared" si="2"/>
         <v>250</v>
@@ -23223,7 +23170,7 @@
         <v>35.997639970119991</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" ht="12.75" customHeight="1">
       <c r="A253" s="18">
         <f t="shared" si="2"/>
         <v>251</v>
@@ -23239,7 +23186,7 @@
         <v>35.959402359163342</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" ht="12.75" customHeight="1">
       <c r="A254" s="18">
         <f t="shared" si="2"/>
         <v>252</v>
@@ -23255,7 +23202,7 @@
         <v>35.920357115039671</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" ht="12.75" customHeight="1">
       <c r="A255" s="18">
         <f t="shared" si="2"/>
         <v>253</v>
@@ -23271,7 +23218,7 @@
         <v>35.879051352964417</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" ht="12.75" customHeight="1">
       <c r="A256" s="18">
         <f t="shared" si="2"/>
         <v>254</v>
@@ -23287,7 +23234,7 @@
         <v>35.835787368858256</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" ht="12.75" customHeight="1">
       <c r="A257" s="18">
         <f t="shared" si="2"/>
         <v>255</v>
@@ -23303,7 +23250,7 @@
         <v>35.792862710117632</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" ht="12.75" customHeight="1">
       <c r="A258" s="18">
         <f t="shared" si="2"/>
         <v>256</v>
@@ -23319,7 +23266,7 @@
         <v>35.744648405624986</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" ht="12.75" customHeight="1">
       <c r="A259" s="18">
         <f t="shared" si="2"/>
         <v>257</v>
@@ -23335,7 +23282,7 @@
         <v>35.69571981291827</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" ht="12.75" customHeight="1">
       <c r="A260" s="18">
         <f t="shared" si="2"/>
         <v>258</v>
@@ -23351,7 +23298,7 @@
         <v>35.651472839573628</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" ht="12.75" customHeight="1">
       <c r="A261" s="18">
         <f t="shared" si="2"/>
         <v>259</v>
@@ -23367,7 +23314,7 @@
         <v>35.606949781660212</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" ht="12.75" customHeight="1">
       <c r="A262" s="18">
         <f t="shared" si="2"/>
         <v>260</v>
@@ -23383,7 +23330,7 @@
         <v>35.566653817730753</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" ht="12.75" customHeight="1">
       <c r="A263" s="18">
         <f t="shared" si="2"/>
         <v>261</v>
@@ -23399,7 +23346,7 @@
         <v>35.519386943103434</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" ht="12.75" customHeight="1">
       <c r="A264" s="18">
         <f t="shared" si="2"/>
         <v>262</v>
@@ -23415,7 +23362,7 @@
         <v>35.470534318549603</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" ht="12.75" customHeight="1">
       <c r="A265" s="18">
         <f t="shared" si="2"/>
         <v>263</v>
@@ -23431,7 +23378,7 @@
         <v>35.421064602813672</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" ht="12.75" customHeight="1">
       <c r="A266" s="18">
         <f t="shared" si="2"/>
         <v>264</v>
@@ -23447,7 +23394,7 @@
         <v>35.373181784962107</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" ht="12.75" customHeight="1">
       <c r="A267" s="18">
         <f t="shared" si="2"/>
         <v>265</v>
@@ -23463,7 +23410,7 @@
         <v>35.328188649018855</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" ht="12.75" customHeight="1">
       <c r="A268" s="18">
         <f t="shared" si="2"/>
         <v>266</v>
@@ -23479,7 +23426,7 @@
         <v>35.283233055751865</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" ht="12.75" customHeight="1">
       <c r="A269" s="18">
         <f t="shared" si="2"/>
         <v>267</v>
@@ -23495,7 +23442,7 @@
         <v>35.239288359812718</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" ht="12.75" customHeight="1">
       <c r="A270" s="18">
         <f t="shared" si="2"/>
         <v>268</v>
@@ -23511,7 +23458,7 @@
         <v>35.194701466380579</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" ht="12.75" customHeight="1">
       <c r="A271" s="18">
         <f t="shared" si="2"/>
         <v>269</v>
@@ -23527,7 +23474,7 @@
         <v>35.152081756617086</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" ht="12.75" customHeight="1">
       <c r="A272" s="18">
         <f t="shared" si="2"/>
         <v>270</v>
@@ -23543,7 +23490,7 @@
         <v>35.109703672629614</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" ht="12.75" customHeight="1">
       <c r="A273" s="18">
         <f t="shared" si="2"/>
         <v>271</v>
@@ -23559,7 +23506,7 @@
         <v>35.067933551771205</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" ht="12.75" customHeight="1">
       <c r="A274" s="18">
         <f t="shared" si="2"/>
         <v>272</v>
@@ -23575,7 +23522,7 @@
         <v>35.027867619595575</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" ht="12.75" customHeight="1">
       <c r="A275" s="18">
         <f t="shared" si="2"/>
         <v>273</v>
@@ -23591,7 +23538,7 @@
         <v>34.987655647509143</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" ht="12.75" customHeight="1">
       <c r="A276" s="18">
         <f t="shared" si="2"/>
         <v>274</v>
@@ -23607,7 +23554,7 @@
         <v>34.944671499452539</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" ht="12.75" customHeight="1">
       <c r="A277" s="18">
         <f t="shared" si="2"/>
         <v>275</v>
@@ -23623,7 +23570,7 @@
         <v>34.902363601163621</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" ht="12.75" customHeight="1">
       <c r="A278" s="18">
         <f t="shared" si="2"/>
         <v>276</v>
@@ -23639,7 +23586,7 @@
         <v>34.860434747246366</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" ht="12.75" customHeight="1">
       <c r="A279" s="18">
         <f t="shared" si="2"/>
         <v>277</v>
@@ -23655,7 +23602,7 @@
         <v>34.818953036389878</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" ht="12.75" customHeight="1">
       <c r="A280" s="18">
         <f t="shared" si="2"/>
         <v>278</v>
@@ -23671,7 +23618,7 @@
         <v>34.778740972913653</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" ht="12.75" customHeight="1">
       <c r="A281" s="18">
         <f t="shared" si="2"/>
         <v>279</v>
@@ -23687,7 +23634,7 @@
         <v>34.740573439534039</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" ht="12.75" customHeight="1">
       <c r="A282" s="18">
         <f t="shared" si="2"/>
         <v>280</v>
@@ -23703,7 +23650,7 @@
         <v>34.703321389642845</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" ht="12.75" customHeight="1">
       <c r="A283" s="18">
         <f t="shared" si="2"/>
         <v>281</v>
@@ -23719,7 +23666,7 @@
         <v>34.66704622537366</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" ht="12.75" customHeight="1">
       <c r="A284" s="18">
         <f t="shared" si="2"/>
         <v>282</v>
@@ -23735,7 +23682,7 @@
         <v>34.633936132092195</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" ht="12.75" customHeight="1">
       <c r="A285" s="18">
         <f t="shared" si="2"/>
         <v>283</v>
@@ -23751,7 +23698,7 @@
         <v>34.60084802017667</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" ht="12.75" customHeight="1">
       <c r="A286" s="18">
         <f t="shared" si="2"/>
         <v>284</v>
@@ -23767,7 +23714,7 @@
         <v>34.568661932359149</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" ht="12.75" customHeight="1">
       <c r="A287" s="18">
         <f t="shared" si="2"/>
         <v>285</v>
@@ -23783,7 +23730,7 @@
         <v>34.534210486982445</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" ht="12.75" customHeight="1">
       <c r="A288" s="18">
         <f t="shared" si="2"/>
         <v>286</v>
@@ -23799,7 +23746,7 @@
         <v>34.502202755069924</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" ht="12.75" customHeight="1">
       <c r="A289" s="18">
         <f t="shared" si="2"/>
         <v>287</v>
@@ -23815,7 +23762,7 @@
         <v>34.441742116968634</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" ht="12.75" customHeight="1">
       <c r="A290" s="18">
         <f t="shared" si="2"/>
         <v>288</v>
@@ -23831,7 +23778,7 @@
         <v>34.411076347847221</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" ht="12.75" customHeight="1">
       <c r="A291" s="18">
         <f t="shared" si="2"/>
         <v>289</v>
@@ -23847,7 +23794,7 @@
         <v>34.381903071695504</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" ht="12.75" customHeight="1">
       <c r="A292" s="18">
         <f t="shared" si="2"/>
         <v>290</v>
@@ -23863,7 +23810,7 @@
         <v>34.352999957655172</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" ht="12.75" customHeight="1">
       <c r="A293" s="18">
         <f t="shared" si="2"/>
         <v>291</v>
@@ -23879,7 +23826,7 @@
         <v>34.326013703505154</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" ht="12.75" customHeight="1">
       <c r="A294" s="18">
         <f t="shared" si="2"/>
         <v>292</v>
@@ -23895,7 +23842,7 @@
         <v>34.300958862842464</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" ht="12.75" customHeight="1">
       <c r="A295" s="18">
         <f t="shared" si="2"/>
         <v>293</v>
@@ -23911,7 +23858,7 @@
         <v>34.276006784027302</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" ht="12.75" customHeight="1">
       <c r="A296" s="18">
         <f t="shared" si="2"/>
         <v>294</v>
@@ -23927,7 +23874,7 @@
         <v>34.249897918707482</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" ht="12.75" customHeight="1">
       <c r="A297" s="18">
         <f t="shared" si="2"/>
         <v>295</v>
@@ -23943,7 +23890,7 @@
         <v>34.226135552101695</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" ht="12.75" customHeight="1">
       <c r="A298" s="18">
         <f t="shared" si="2"/>
         <v>296</v>
@@ -23959,7 +23906,7 @@
         <v>34.204222931216215</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" ht="12.75" customHeight="1">
       <c r="A299" s="18">
         <f t="shared" si="2"/>
         <v>297</v>
@@ -23975,7 +23922,7 @@
         <v>34.18289558410774</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" ht="12.75" customHeight="1">
       <c r="A300" s="18">
         <f t="shared" si="2"/>
         <v>298</v>
@@ -23991,7 +23938,7 @@
         <v>34.162718082416099</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" ht="12.75" customHeight="1">
       <c r="A301" s="18">
         <f t="shared" si="2"/>
         <v>299</v>
@@ -24007,7 +23954,7 @@
         <v>34.140468189933102</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" ht="12.75" customHeight="1">
       <c r="A302" s="18">
         <f t="shared" si="2"/>
         <v>300</v>
@@ -24023,7 +23970,7 @@
         <v>34.119366627533324</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:4" ht="12.75" customHeight="1">
       <c r="A303" s="18">
         <f t="shared" si="2"/>
         <v>301</v>
@@ -24039,7 +23986,7 @@
         <v>34.097840490531553</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4" ht="12.75" customHeight="1">
       <c r="A304" s="18">
         <f t="shared" si="2"/>
         <v>302</v>
@@ -24055,7 +24002,7 @@
         <v>34.077913866125826</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4" ht="12.75" customHeight="1">
       <c r="A305" s="18">
         <f t="shared" si="2"/>
         <v>303</v>
@@ -24071,7 +24018,7 @@
         <v>34.057623722376235</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4" ht="12.75" customHeight="1">
       <c r="A306" s="18">
         <f t="shared" si="2"/>
         <v>304</v>
@@ -24087,7 +24034,7 @@
         <v>34.036743378157887</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4" ht="12.75" customHeight="1">
       <c r="A307" s="18">
         <f t="shared" si="2"/>
         <v>305</v>
@@ -24103,7 +24050,7 @@
         <v>34.0172130717377</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:4" ht="12.75" customHeight="1">
       <c r="A308" s="18">
         <f t="shared" si="2"/>
         <v>306</v>
@@ -24119,7 +24066,7 @@
         <v>33.997091462385619</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:4" ht="12.75" customHeight="1">
       <c r="A309" s="18">
         <f t="shared" si="2"/>
         <v>307</v>
@@ -24135,7 +24082,7 @@
         <v>33.975211687882734</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:4" ht="12.75" customHeight="1">
       <c r="A310" s="18">
         <f t="shared" si="2"/>
         <v>308</v>
@@ -24151,7 +24098,7 @@
         <v>33.951818144935061</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:4" ht="12.75" customHeight="1">
       <c r="A311" s="18">
         <f t="shared" si="2"/>
         <v>309</v>
@@ -24167,7 +24114,7 @@
         <v>33.929385077993516</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:4" ht="12.75" customHeight="1">
       <c r="A312" s="18">
         <f t="shared" si="2"/>
         <v>310</v>
@@ -24183,7 +24130,7 @@
         <v>33.90851609090322</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:4" ht="12.75" customHeight="1">
       <c r="A313" s="18">
         <f t="shared" si="2"/>
         <v>311</v>
@@ -24199,7 +24146,7 @@
         <v>33.886495137138255</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:4" ht="12.75" customHeight="1">
       <c r="A314" s="18">
         <f t="shared" si="2"/>
         <v>312</v>
@@ -24215,7 +24162,7 @@
         <v>33.865480729391024</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:4" ht="12.75" customHeight="1">
       <c r="A315" s="18">
         <f t="shared" si="2"/>
         <v>313</v>
@@ -24231,7 +24178,7 @@
         <v>33.843706028146961</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:4" ht="12.75" customHeight="1">
       <c r="A316" s="18">
         <f t="shared" si="2"/>
         <v>314</v>
@@ -24247,7 +24194,7 @@
         <v>33.822292954299357</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:4" ht="12.75" customHeight="1">
       <c r="A317" s="18">
         <f t="shared" si="2"/>
         <v>315</v>
@@ -24263,7 +24210,7 @@
         <v>33.800285673142845</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:4" ht="12.75" customHeight="1">
       <c r="A318" s="18">
         <f t="shared" si="2"/>
         <v>316</v>
@@ -24279,7 +24226,7 @@
         <v>33.778132867974676</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:4" ht="12.75" customHeight="1">
       <c r="A319" s="18">
         <f t="shared" si="2"/>
         <v>317</v>
@@ -24295,7 +24242,7 @@
         <v>33.755394277507875</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:4" ht="12.75" customHeight="1">
       <c r="A320" s="18">
         <f t="shared" si="2"/>
         <v>318</v>
@@ -24311,7 +24258,7 @@
         <v>33.733238946698101</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:4" ht="12.75" customHeight="1">
       <c r="A321" s="18">
         <f t="shared" si="2"/>
         <v>319</v>
@@ -24327,7 +24274,7 @@
         <v>33.710940394639486</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:4" ht="12.75" customHeight="1">
       <c r="A322" s="18">
         <f t="shared" si="2"/>
         <v>320</v>
@@ -24343,7 +24290,7 @@
         <v>33.689062453031241</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:4" ht="12.75" customHeight="1">
       <c r="A323" s="18">
         <f t="shared" si="2"/>
         <v>321</v>
@@ -24359,7 +24306,7 @@
         <v>33.666137024579427</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:4" ht="12.75" customHeight="1">
       <c r="A324" s="18">
         <f t="shared" si="2"/>
         <v>322</v>
@@ -24375,7 +24322,7 @@
         <v>33.645031011583839</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:4" ht="12.75" customHeight="1">
       <c r="A325" s="18">
         <f t="shared" si="2"/>
         <v>323</v>
@@ -24391,7 +24338,7 @@
         <v>33.622414816501539</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:4" ht="12.75" customHeight="1">
       <c r="A326" s="18">
         <f t="shared" si="2"/>
         <v>324</v>
@@ -24407,7 +24354,7 @@
         <v>33.59876538805554</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:4" ht="12.75" customHeight="1">
       <c r="A327" s="18">
         <f t="shared" si="2"/>
         <v>325</v>
@@ -24423,7 +24370,7 @@
         <v>33.575630725323066</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:4" ht="12.75" customHeight="1">
       <c r="A328" s="18">
         <f t="shared" si="2"/>
         <v>326</v>
@@ -24439,7 +24386,7 @@
         <v>33.55380363438649</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:4" ht="12.75" customHeight="1">
       <c r="A329" s="18">
         <f t="shared" si="2"/>
         <v>327</v>
@@ -24455,7 +24402,7 @@
         <v>33.532079466574906</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:4" ht="12.75" customHeight="1">
       <c r="A330" s="18">
         <f t="shared" si="2"/>
         <v>328</v>
@@ -24471,7 +24418,7 @@
         <v>33.510823125121938</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:4" ht="12.75" customHeight="1">
       <c r="A331" s="18">
         <f t="shared" si="2"/>
         <v>329</v>
@@ -24487,7 +24434,7 @@
         <v>33.4886017805471</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:4" ht="12.75" customHeight="1">
       <c r="A332" s="18">
         <f t="shared" si="2"/>
         <v>330</v>
@@ -24503,7 +24450,7 @@
         <v>33.468363593333315</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:4" ht="12.75" customHeight="1">
       <c r="A333" s="18">
         <f t="shared" si="2"/>
         <v>331</v>
@@ -24519,7 +24466,7 @@
         <v>33.447673675649533</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:4" ht="12.75" customHeight="1">
       <c r="A334" s="18">
         <f t="shared" si="2"/>
         <v>332</v>
@@ -24535,7 +24482,7 @@
         <v>33.427379475060221</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:4" ht="12.75" customHeight="1">
       <c r="A335" s="18">
         <f t="shared" si="2"/>
         <v>333</v>
@@ -24551,7 +24498,7 @@
         <v>33.407237192282267</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:4" ht="12.75" customHeight="1">
       <c r="A336" s="18">
         <f t="shared" si="2"/>
         <v>334</v>
@@ -24567,7 +24514,7 @@
         <v>33.388532888862258</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:4" ht="12.75" customHeight="1">
       <c r="A337" s="18">
         <f t="shared" si="2"/>
         <v>335</v>
@@ -24583,7 +24530,7 @@
         <v>33.36955219573133</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:4" ht="12.75" customHeight="1">
       <c r="A338" s="18">
         <f t="shared" si="2"/>
         <v>336</v>
@@ -24599,7 +24546,7 @@
         <v>33.34928566976189</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:4" ht="12.75" customHeight="1">
       <c r="A339" s="18">
         <f t="shared" si="2"/>
         <v>337</v>
@@ -24615,7 +24562,7 @@
         <v>33.330356036646869</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:4" ht="12.75" customHeight="1">
       <c r="A340" s="18">
         <f t="shared" si="2"/>
         <v>338</v>
@@ -24631,7 +24578,7 @@
         <v>33.311212973254428</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:4" ht="12.75" customHeight="1">
       <c r="A341" s="18">
         <f t="shared" si="2"/>
         <v>339</v>
@@ -24647,7 +24594,7 @@
         <v>33.289498482949838</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:4" ht="12.75" customHeight="1">
       <c r="A342" s="18">
         <f t="shared" si="2"/>
         <v>340</v>
@@ -24663,7 +24610,7 @@
         <v>33.267764662764691</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:4" ht="12.75" customHeight="1">
       <c r="A343" s="18">
         <f t="shared" si="2"/>
         <v>341</v>
@@ -24679,7 +24626,7 @@
         <v>33.245806410645152</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:4" ht="12.75" customHeight="1">
       <c r="A344" s="18">
         <f t="shared" si="2"/>
         <v>342</v>
@@ -24695,7 +24642,7 @@
         <v>33.223508733537997</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:4" ht="12.75" customHeight="1">
       <c r="A345" s="18">
         <f t="shared" si="2"/>
         <v>343</v>
@@ -24711,7 +24658,7 @@
         <v>33.200932904985407</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:4" ht="12.75" customHeight="1">
       <c r="A346" s="18">
         <f t="shared" si="2"/>
         <v>344</v>
@@ -24727,7 +24674,7 @@
         <v>33.177616240465106</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:4">
       <c r="A347" s="18">
         <f t="shared" si="2"/>
         <v>345</v>
@@ -24743,7 +24690,7 @@
         <v>33.152985469652158</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:4">
       <c r="A348" s="18">
         <f t="shared" si="2"/>
         <v>346</v>
@@ -24759,7 +24706,7 @@
         <v>33.128364413381483</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:4">
       <c r="A349" s="18">
         <f t="shared" si="2"/>
         <v>347</v>
@@ -24775,7 +24722,7 @@
         <v>33.103412352564824</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:4">
       <c r="A350" s="18">
         <f t="shared" si="2"/>
         <v>348</v>
@@ -24791,7 +24738,7 @@
         <v>33.078804848448264</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:4">
       <c r="A351" s="18">
         <f t="shared" si="2"/>
         <v>349</v>
@@ -24807,7 +24754,7 @@
         <v>33.055026039971331</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:4">
       <c r="A352" s="18">
         <f t="shared" si="2"/>
         <v>350</v>
@@ -24823,7 +24770,7 @@
         <v>33.030411681371412</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:4">
       <c r="A353" s="18">
         <f t="shared" si="2"/>
         <v>351</v>
@@ -24839,7 +24786,7 @@
         <v>33.006878029857532</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:4">
       <c r="A354" s="18">
         <f t="shared" si="2"/>
         <v>352</v>
@@ -24855,7 +24802,7 @@
         <v>32.983932353636348</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:4">
       <c r="A355" s="18">
         <f t="shared" si="2"/>
         <v>353</v>
@@ -24871,7 +24818,7 @@
         <v>32.959955208158625</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:4">
       <c r="A356" s="18">
         <f t="shared" ref="A356:A463" si="3">A355+1</f>
         <v>354</v>
@@ -24887,7 +24834,7 @@
         <v>32.934475108700553</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:4">
       <c r="A357" s="18">
         <f t="shared" si="3"/>
         <v>355</v>
@@ -24903,7 +24850,7 @@
         <v>32.90789912247886</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:4">
       <c r="A358" s="18">
         <f t="shared" si="3"/>
         <v>356</v>
@@ -24919,7 +24866,7 @@
         <v>32.881472439550549</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:4">
       <c r="A359" s="18">
         <f t="shared" si="3"/>
         <v>357</v>
@@ -24935,7 +24882,7 @@
         <v>32.85519380526609</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:4">
       <c r="A360" s="18">
         <f t="shared" si="3"/>
         <v>358</v>
@@ -24951,7 +24898,7 @@
         <v>32.8285871186592</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:4">
       <c r="A361" s="18">
         <f t="shared" si="3"/>
         <v>359</v>
@@ -24967,7 +24914,7 @@
         <v>32.801348714428954</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:4">
       <c r="A362" s="18">
         <f t="shared" si="3"/>
         <v>360</v>
@@ -24983,7 +24930,7 @@
         <v>32.773872745777759</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:4">
       <c r="A363" s="18">
         <f t="shared" si="3"/>
         <v>361</v>
@@ -24999,7 +24946,7 @@
         <v>32.746798306038762</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:4">
       <c r="A364" s="18">
         <f t="shared" si="3"/>
         <v>362</v>
@@ -25015,7 +24962,7 @@
         <v>32.721144167071806</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:4">
       <c r="A365" s="18">
         <f t="shared" si="3"/>
         <v>363</v>
@@ -25031,7 +24978,7 @@
         <v>32.694171318126706</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:4">
       <c r="A366" s="18">
         <f t="shared" si="3"/>
         <v>364</v>
@@ -25047,7 +24994,7 @@
         <v>32.66762139881866</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:4">
       <c r="A367" s="18">
         <f t="shared" si="3"/>
         <v>365</v>
@@ -25063,7 +25010,7 @@
         <v>32.640066271698615</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:4">
       <c r="A368" s="18">
         <f t="shared" si="3"/>
         <v>366</v>
@@ -25079,7 +25026,7 @@
         <v>32.611104344508178</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:4">
       <c r="A369" s="18">
         <f t="shared" si="3"/>
         <v>367</v>
@@ -25095,7 +25042,7 @@
         <v>32.582845203978181</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:4">
       <c r="A370" s="18">
         <f t="shared" si="3"/>
         <v>368</v>
@@ -25111,7 +25058,7 @@
         <v>32.556587472663026</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:4">
       <c r="A371" s="18">
         <f t="shared" si="3"/>
         <v>369</v>
@@ -25127,7 +25074,7 @@
         <v>32.530282358590767</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:4">
       <c r="A372" s="18">
         <f t="shared" si="3"/>
         <v>370</v>
@@ -25143,7 +25090,7 @@
         <v>32.506281594432416</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:4">
       <c r="A373" s="18">
         <f t="shared" si="3"/>
         <v>371</v>
@@ -25159,7 +25106,7 @@
         <v>32.482598892857126</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:4">
       <c r="A374" s="18">
         <f t="shared" si="3"/>
         <v>372</v>
@@ -25175,7 +25122,7 @@
         <v>32.459392982876324</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:4">
       <c r="A375" s="18">
         <f t="shared" si="3"/>
         <v>373</v>
@@ -25191,7 +25138,7 @@
         <v>32.435614449812313</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:4">
       <c r="A376" s="18">
         <f t="shared" si="3"/>
         <v>374</v>
@@ -25207,7 +25154,7 @@
         <v>32.411455051871634</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:4">
       <c r="A377" s="18">
         <f t="shared" si="3"/>
         <v>375</v>
@@ -25223,7 +25170,7 @@
         <v>32.387264505466646</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:4">
       <c r="A378" s="18">
         <f t="shared" si="3"/>
         <v>376</v>
@@ -25239,7 +25186,7 @@
         <v>32.361846248590403</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:4">
       <c r="A379" s="18">
         <f t="shared" si="3"/>
         <v>377</v>
@@ -25255,7 +25202,7 @@
         <v>32.336324109389899</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:4">
       <c r="A380" s="18">
         <f t="shared" si="3"/>
         <v>378</v>
@@ -25271,7 +25218,7 @@
         <v>32.312101030555532</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:4">
       <c r="A381" s="18">
         <f t="shared" si="3"/>
         <v>379</v>
@@ -25287,7 +25234,7 @@
         <v>32.287425299815283</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:4">
       <c r="A382" s="18">
         <f t="shared" si="3"/>
         <v>380</v>
@@ -25303,7 +25250,7 @@
         <v>32.260721547421028</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:4">
       <c r="A383" s="18">
         <f t="shared" si="3"/>
         <v>381</v>
@@ -25319,7 +25266,7 @@
         <v>32.234420440393677</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:4">
       <c r="A384" s="18">
         <f t="shared" si="3"/>
         <v>382</v>
@@ -25335,7 +25282,7 @@
         <v>32.208335571335049</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:4">
       <c r="A385" s="18">
         <f t="shared" si="3"/>
         <v>383</v>
@@ -25351,7 +25298,7 @@
         <v>32.183248534281958</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:4">
       <c r="A386" s="18">
         <f t="shared" si="3"/>
         <v>384</v>
@@ -25367,7 +25314,7 @@
         <v>32.157979656692682</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:4">
       <c r="A387" s="18">
         <f t="shared" si="3"/>
         <v>385</v>
@@ -25383,7 +25330,7 @@
         <v>32.134712179038935</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:4">
       <c r="A388" s="18">
         <f t="shared" si="3"/>
         <v>386</v>
@@ -25399,7 +25346,7 @@
         <v>32.111539350932617</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:4">
       <c r="A389" s="18">
         <f t="shared" si="3"/>
         <v>387</v>
@@ -25415,7 +25362,7 @@
         <v>32.088072842764831</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:4">
       <c r="A390" s="18">
         <f t="shared" si="3"/>
         <v>388</v>
@@ -25431,7 +25378,7 @@
         <v>32.064031418505131</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:4">
       <c r="A391" s="18">
         <f t="shared" si="3"/>
         <v>389</v>
@@ -25447,7 +25394,7 @@
         <v>32.038982493753188</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:4">
       <c r="A392" s="18">
         <f t="shared" si="3"/>
         <v>390</v>
@@ -25463,7 +25410,7 @@
         <v>32.015472284384586</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:4">
       <c r="A393" s="18">
         <f t="shared" si="3"/>
         <v>391</v>
@@ -25479,7 +25426,7 @@
         <v>31.992133479028105</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:4">
       <c r="A394" s="18">
         <f t="shared" si="3"/>
         <v>392</v>
@@ -25495,7 +25442,7 @@
         <v>31.970342324132627</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:4">
       <c r="A395" s="18">
         <f t="shared" si="3"/>
         <v>393</v>
@@ -25511,7 +25458,7 @@
         <v>31.947847812264605</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:4">
       <c r="A396" s="18">
         <f t="shared" si="3"/>
         <v>394</v>
@@ -25527,7 +25474,7 @@
         <v>31.925162919923835</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:4">
       <c r="A397" s="18">
         <f t="shared" si="3"/>
         <v>395</v>
@@ -25543,7 +25490,7 @@
         <v>31.902643521873394</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:4">
       <c r="A398" s="18">
         <f t="shared" si="3"/>
         <v>396</v>
@@ -25559,7 +25506,7 @@
         <v>31.880162098838358</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:4">
       <c r="A399" s="18">
         <f t="shared" si="3"/>
         <v>397</v>
@@ -25575,7 +25522,7 @@
         <v>31.856912319294686</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:4">
       <c r="A400" s="18">
         <f t="shared" si="3"/>
         <v>398</v>
@@ -25591,7 +25538,7 @@
         <v>31.833502994170832</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:4">
       <c r="A401" s="18">
         <f t="shared" si="3"/>
         <v>399</v>
@@ -25607,7 +25554,7 @@
         <v>31.810135819323285</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:4">
       <c r="A402" s="18">
         <f t="shared" si="3"/>
         <v>400</v>
@@ -25623,7 +25570,7 @@
         <v>31.786510481299977</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:4">
       <c r="A403" s="18">
         <f t="shared" si="3"/>
         <v>401</v>
@@ -25639,7 +25586,7 @@
         <v>31.762603973266813</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:4">
       <c r="A404" s="18">
         <f t="shared" si="3"/>
         <v>402</v>
@@ -25655,7 +25602,7 @@
         <v>31.740060184179082</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:4">
       <c r="A405" s="18">
         <f t="shared" si="3"/>
         <v>403</v>
@@ -25671,7 +25618,7 @@
         <v>31.717901224590552</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:4">
       <c r="A406" s="18">
         <f t="shared" si="3"/>
         <v>404</v>
@@ -25687,7 +25634,7 @@
         <v>31.696743053440571</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:4">
       <c r="A407" s="18">
         <f t="shared" si="3"/>
         <v>405</v>
@@ -25703,7 +25650,7 @@
         <v>31.675343689580224</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:4">
       <c r="A408" s="18">
         <f t="shared" si="3"/>
         <v>406</v>
@@ -25719,7 +25666,7 @@
         <v>31.654517718201948</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:4">
       <c r="A409" s="18">
         <f t="shared" si="3"/>
         <v>407</v>
@@ -25735,7 +25682,7 @@
         <v>31.634383765773933</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:4">
       <c r="A410" s="18">
         <f t="shared" si="3"/>
         <v>408</v>
@@ -25751,7 +25698,7 @@
         <v>31.614814196789194</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:4">
       <c r="A411" s="18">
         <f t="shared" si="3"/>
         <v>409</v>
@@ -25767,7 +25714,7 @@
         <v>31.595291421638123</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:4">
       <c r="A412" s="18">
         <f t="shared" si="3"/>
         <v>410</v>
@@ -25783,7 +25730,7 @@
         <v>31.576376077073149</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:4">
       <c r="A413" s="18">
         <f t="shared" si="3"/>
         <v>411</v>
@@ -25799,7 +25746,7 @@
         <v>31.556968836934285</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:4">
       <c r="A414" s="18">
         <f t="shared" si="3"/>
         <v>412</v>
@@ -25815,7 +25762,7 @@
         <v>31.537000465776678</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:4">
       <c r="A415" s="18">
         <f t="shared" si="3"/>
         <v>413</v>
@@ -25831,7 +25778,7 @@
         <v>31.51698351661015</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:4">
       <c r="A416" s="18">
         <f t="shared" si="3"/>
         <v>414</v>
@@ -25847,7 +25794,7 @@
         <v>31.497618822125581</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:4">
       <c r="A417" s="18">
         <f t="shared" si="3"/>
         <v>415</v>
@@ -25863,7 +25810,7 @@
         <v>31.477986006602389</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:4">
       <c r="A418" s="18">
         <f t="shared" si="3"/>
         <v>416</v>
@@ -25879,7 +25826,7 @@
         <v>31.457798540048056</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:4">
       <c r="A419" s="18">
         <f t="shared" si="3"/>
         <v>417</v>
@@ -25895,7 +25842,7 @@
         <v>31.436820603693025</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:4">
       <c r="A420" s="18">
         <f t="shared" si="3"/>
         <v>418</v>
@@ -25911,7 +25858,7 @@
         <v>31.415703809449742</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:4">
       <c r="A421" s="18">
         <f t="shared" si="3"/>
         <v>419</v>
@@ -25927,7 +25874,7 @@
         <v>31.394544609999983</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:4">
       <c r="A422" s="18">
         <f t="shared" si="3"/>
         <v>420</v>
@@ -25943,7 +25890,7 @@
         <v>31.373248077023792</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:4">
       <c r="A423" s="18">
         <f t="shared" si="3"/>
         <v>421</v>
@@ -25959,7 +25906,7 @@
         <v>31.352860316555802</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:4">
       <c r="A424" s="18">
         <f t="shared" si="3"/>
         <v>422</v>
@@ -25975,7 +25922,7 @@
         <v>31.333066808696664</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:4">
       <c r="A425" s="18">
         <f t="shared" si="3"/>
         <v>423</v>
@@ -25991,7 +25938,7 @@
         <v>31.312728588203292</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:4">
       <c r="A426" s="18">
         <f t="shared" si="3"/>
         <v>424</v>
@@ -26007,7 +25954,7 @@
         <v>31.292557059056588</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:4">
       <c r="A427" s="18">
         <f t="shared" si="3"/>
         <v>425</v>
@@ -26023,7 +25970,7 @@
         <v>31.272433394847042</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:4">
       <c r="A428" s="18">
         <f t="shared" si="3"/>
         <v>426</v>
@@ -26039,7 +25986,7 @@
         <v>31.252615475892004</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:4">
       <c r="A429" s="18">
         <f t="shared" si="3"/>
         <v>427</v>
@@ -26055,7 +26002,7 @@
         <v>31.234248694566734</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:4">
       <c r="A430" s="18">
         <f t="shared" si="3"/>
         <v>428</v>
@@ -26071,7 +26018,7 @@
         <v>31.216178020046716</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:4">
       <c r="A431" s="18">
         <f t="shared" si="3"/>
         <v>429</v>
@@ -26087,7 +26034,7 @@
         <v>31.198378071095561</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:4">
       <c r="A432" s="18">
         <f t="shared" si="3"/>
         <v>430</v>
@@ -26103,7 +26050,7 @@
         <v>31.181219051604643</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:4">
       <c r="A433" s="18">
         <f t="shared" si="3"/>
         <v>431</v>
@@ -26119,7 +26066,7 @@
         <v>31.163745224617159</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:4">
       <c r="A434" s="18">
         <f t="shared" si="3"/>
         <v>432</v>
@@ -26135,7 +26082,7 @@
         <v>31.146653223379619</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:4">
       <c r="A435" s="18">
         <f t="shared" si="3"/>
         <v>433</v>
@@ -26151,7 +26098,7 @@
         <v>31.13037919833717</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:4">
       <c r="A436" s="18">
         <f t="shared" si="3"/>
         <v>434</v>
@@ -26167,7 +26114,7 @@
         <v>31.114986621290313</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:4">
       <c r="A437" s="18">
         <f t="shared" si="3"/>
         <v>435</v>
@@ -26183,7 +26130,7 @@
         <v>31.099825733563208</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:4">
       <c r="A438" s="18">
         <f t="shared" si="3"/>
         <v>436</v>
@@ -26199,7 +26146,7 @@
         <v>31.084757327499986</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:4">
       <c r="A439" s="18">
         <f t="shared" si="3"/>
         <v>437</v>
@@ -26215,7 +26162,7 @@
         <v>31.0702384314874</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:4">
       <c r="A440" s="18">
         <f t="shared" si="3"/>
         <v>438</v>
@@ -26231,7 +26178,7 @@
         <v>31.055991311598159</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:4">
       <c r="A441" s="18">
         <f t="shared" si="3"/>
         <v>439</v>
@@ -26247,7 +26194,7 @@
         <v>31.042583586697024</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:4">
       <c r="A442" s="18">
         <f t="shared" si="3"/>
         <v>440</v>
@@ -26263,7 +26210,7 @@
         <v>31.028623168590894</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:4">
       <c r="A443" s="18">
         <f t="shared" si="3"/>
         <v>441</v>
@@ -26279,7 +26226,7 @@
         <v>31.014726063038534</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:4">
       <c r="A444" s="18">
         <f t="shared" si="3"/>
         <v>442</v>
@@ -26295,7 +26242,7 @@
         <v>31.001661071425325</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:4">
       <c r="A445" s="18">
         <f t="shared" si="3"/>
         <v>443</v>
@@ -26311,7 +26258,7 @@
         <v>30.988406755598181</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:4">
       <c r="A446" s="18">
         <f t="shared" si="3"/>
         <v>444</v>
@@ -26327,7 +26274,7 @@
         <v>30.974761696036023</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:4">
       <c r="A447" s="18">
         <f t="shared" si="3"/>
         <v>445</v>
@@ -26343,7 +26290,7 @@
         <v>30.960436389707851</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:4">
       <c r="A448" s="18">
         <f t="shared" si="3"/>
         <v>446</v>
@@ -26359,7 +26306,7 @@
         <v>30.94619774446187</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:4">
       <c r="A449" s="18">
         <f t="shared" si="3"/>
         <v>447</v>
@@ -26375,7 +26322,7 @@
         <v>30.931776720425042</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:4">
       <c r="A450" s="18">
         <f t="shared" si="3"/>
         <v>448</v>
@@ -26391,7 +26338,7 @@
         <v>30.918245970691949</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:4">
       <c r="A451" s="18">
         <f t="shared" si="3"/>
         <v>449</v>
@@ -26407,7 +26354,7 @@
         <v>30.904263238886397</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:4">
       <c r="A452" s="18">
         <f t="shared" si="3"/>
         <v>450</v>
@@ -26423,7 +26370,7 @@
         <v>30.890875985377765</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:4">
       <c r="A453" s="18">
         <f t="shared" si="3"/>
         <v>451</v>
@@ -26439,7 +26386,7 @@
         <v>30.87739288889134</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:4">
       <c r="A454" s="18">
         <f t="shared" si="3"/>
         <v>452</v>
@@ -26455,7 +26402,7 @@
         <v>30.86381458553096</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:4">
       <c r="A455" s="18">
         <f t="shared" si="3"/>
         <v>453</v>
@@ -26471,7 +26418,7 @@
         <v>30.849744354150097</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:4">
       <c r="A456" s="18">
         <f t="shared" si="3"/>
         <v>454</v>
@@ -26487,7 +26434,7 @@
         <v>30.834546681035228</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:4">
       <c r="A457" s="18">
         <f t="shared" si="3"/>
         <v>455</v>
@@ -26503,7 +26450,7 @@
         <v>30.820426797890097</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:4">
       <c r="A458" s="18">
         <f t="shared" si="3"/>
         <v>456</v>
@@ -26519,7 +26466,7 @@
         <v>30.806346913728056</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:4">
       <c r="A459" s="18">
         <f t="shared" si="3"/>
         <v>457</v>
@@ -26535,7 +26482,7 @@
         <v>30.791891014048126</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:4">
       <c r="A460" s="18">
         <f t="shared" si="3"/>
         <v>458</v>
@@ -26551,7 +26498,7 @@
         <v>30.777563740087324</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:4">
       <c r="A461" s="18">
         <f t="shared" si="3"/>
         <v>459</v>
@@ -26567,7 +26514,7 @@
         <v>30.762841379999987</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:4">
       <c r="A462" s="18">
         <f t="shared" si="3"/>
         <v>460</v>
@@ -26583,7 +26530,7 @@
         <v>30.747661291543466</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:4">
       <c r="A463" s="18">
         <f t="shared" si="3"/>
         <v>461</v>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1prac.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1prac.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="model1" sheetId="5" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="323">
   <si>
     <t>PE</t>
   </si>
@@ -1218,6 +1218,90 @@
   </si>
   <si>
     <t xml:space="preserve">2023/2/24
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/3/1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/3/2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/3/3
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/3/6
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/3/7
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/3/8
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/3/9
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/3/10
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/3/13
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/3/14
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/3/15
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/3/16
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/3/17
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/3/20
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/3/21
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/3/22
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/3/23
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/3/24
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/3/27
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/3/28
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/3/29
 </t>
   </si>
 </sst>
@@ -1736,6 +1820,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1781,118 +1866,118 @@
             <c:numRef>
               <c:f>model1!时间</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>3.25108</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8991500000000001</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.17509</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1906699999999999</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6513100000000001</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1706000000000003</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1298999999999992</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9869400000000002</c:v>
+                  <c:v>44104</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2014499999999995</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.27712</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7245600000000003</c:v>
+                  <c:v>44196</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.9833500000000006</c:v>
+                  <c:v>44225</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7232599999999998</c:v>
+                  <c:v>44253</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4379900000000001</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.7860299999999993</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.9806599999999994</c:v>
+                  <c:v>44347</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1114799999999994</c:v>
+                  <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.9776999999999996</c:v>
+                  <c:v>44407</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.7613100000000008</c:v>
+                  <c:v>44439</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.7106400000000006</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.8678999999999997</c:v>
+                  <c:v>44498</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.9547099609374996</c:v>
+                  <c:v>44530</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.8630097656249998</c:v>
+                  <c:v>44561</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.3440297851562502</c:v>
+                  <c:v>44589</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.3355400390624999</c:v>
+                  <c:v>44620</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.8658500976562502</c:v>
+                  <c:v>44651</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.5012099609375</c:v>
+                  <c:v>44680</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.6361599121093748</c:v>
+                  <c:v>44712</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.1096201171875002</c:v>
+                  <c:v>44742</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.8724699707031252</c:v>
+                  <c:v>44771</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.7022099609375001</c:v>
+                  <c:v>44804</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.3477299804687499</c:v>
+                  <c:v>44834</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2993999023437501</c:v>
+                  <c:v>44865</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.4802900390625</c:v>
+                  <c:v>44895</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.4735300292968749</c:v>
+                  <c:v>44925</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.8110336914062501</c:v>
+                  <c:v>44957</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.6777292480468748</c:v>
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1900,6 +1985,279 @@
           <c:val>
             <c:numRef>
               <c:f>model1!资金</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>46000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>48000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>52000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>54000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>56000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>58000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>62000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>64000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>66000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>68000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>72000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>74000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E69F-429A-B459-D6A53AA60C2B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>model1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>total assets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>model1!时间</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>43889</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43951</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43980</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44043</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44134</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44225</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44253</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44286</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44316</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44347</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44377</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44407</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44439</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44469</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44498</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44530</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44561</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44589</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44620</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44651</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44680</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44712</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44742</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44771</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44804</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44985</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="37"/>
@@ -2020,20 +2378,20 @@
           <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E69F-429A-B459-D6A53AA60C2B}"/>
+              <c16:uniqueId val="{00000001-E69F-429A-B459-D6A53AA60C2B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>model1!$H$1</c:f>
+              <c:f>model1!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>total assets</c:v>
+                  <c:v>profit amount</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2041,7 +2399,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2054,125 +2412,125 @@
             <c:numRef>
               <c:f>model1!时间</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>3.25108</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8991500000000001</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.17509</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1906699999999999</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6513100000000001</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1706000000000003</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1298999999999992</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9869400000000002</c:v>
+                  <c:v>44104</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2014499999999995</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.27712</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7245600000000003</c:v>
+                  <c:v>44196</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.9833500000000006</c:v>
+                  <c:v>44225</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7232599999999998</c:v>
+                  <c:v>44253</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4379900000000001</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.7860299999999993</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.9806599999999994</c:v>
+                  <c:v>44347</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1114799999999994</c:v>
+                  <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.9776999999999996</c:v>
+                  <c:v>44407</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.7613100000000008</c:v>
+                  <c:v>44439</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.7106400000000006</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.8678999999999997</c:v>
+                  <c:v>44498</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.9547099609374996</c:v>
+                  <c:v>44530</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.8630097656249998</c:v>
+                  <c:v>44561</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.3440297851562502</c:v>
+                  <c:v>44589</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.3355400390624999</c:v>
+                  <c:v>44620</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.8658500976562502</c:v>
+                  <c:v>44651</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.5012099609375</c:v>
+                  <c:v>44680</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.6361599121093748</c:v>
+                  <c:v>44712</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.1096201171875002</c:v>
+                  <c:v>44742</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.8724699707031252</c:v>
+                  <c:v>44771</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.7022099609375001</c:v>
+                  <c:v>44804</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.3477299804687499</c:v>
+                  <c:v>44834</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2993999023437501</c:v>
+                  <c:v>44865</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.4802900390625</c:v>
+                  <c:v>44895</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.4735300292968749</c:v>
+                  <c:v>44925</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.8110336914062501</c:v>
+                  <c:v>44957</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.6777292480468748</c:v>
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>model1!资产</c:f>
+              <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="37"/>
@@ -2293,168 +2651,6 @@
           <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E69F-429A-B459-D6A53AA60C2B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>model1!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>profit amount</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>model1!时间</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
-                <c:pt idx="0">
-                  <c:v>3.25108</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.8991500000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.17509</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.1906699999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.6513100000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.1706000000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.1298999999999992</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.9869400000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.2014499999999995</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.27712</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.7245600000000003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.9833500000000006</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.7232599999999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.4379900000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.7860299999999993</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.9806599999999994</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.1114799999999994</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.9776999999999996</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.7613100000000008</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.7106400000000006</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.8678999999999997</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4.9547099609374996</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4.8630097656249998</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4.3440297851562502</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4.3355400390624999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.8658500976562502</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3.5012099609375</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3.6361599121093748</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4.1096201171875002</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.8724699707031252</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.7022099609375001</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.3477299804687499</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.2993999023437501</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.4802900390625</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3.4735300292968749</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3.8110336914062501</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3.6777292480468748</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>model1!金额</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E69F-429A-B459-D6A53AA60C2B}"/>
             </c:ext>
           </c:extLst>
@@ -2469,17 +2665,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="50120576"/>
-        <c:axId val="76939264"/>
+        <c:axId val="471447424"/>
+        <c:axId val="471448960"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="50120576"/>
+      <c:dateAx>
+        <c:axId val="471447424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -2516,15 +2712,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76939264"/>
+        <c:crossAx val="471448960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="76939264"/>
+        <c:axId val="471448960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2575,7 +2770,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50120576"/>
+        <c:crossAx val="471447424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2589,6 +2784,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17480,8 +17676,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -19140,9 +19336,9 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D463"/>
+  <dimension ref="A1:D485"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -24820,7 +25016,7 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="18">
-        <f t="shared" ref="A356:A463" si="3">A355+1</f>
+        <f t="shared" ref="A356:A485" si="3">A355+1</f>
         <v>354</v>
       </c>
       <c r="B356" s="19" t="s">
@@ -26544,6 +26740,358 @@
       <c r="D463" s="18">
         <f>SUM(C$3:C463)/A463</f>
         <v>30.732980897288492</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4">
+      <c r="A464" s="18">
+        <f t="shared" si="3"/>
+        <v>462</v>
+      </c>
+      <c r="B464" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="C464" s="20">
+        <v>24.290000920000001</v>
+      </c>
+      <c r="D464" s="18">
+        <f>SUM(C$3:C464)/A464</f>
+        <v>30.719035053181805</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4">
+      <c r="A465" s="18">
+        <f t="shared" si="3"/>
+        <v>463</v>
+      </c>
+      <c r="B465" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="C465" s="20">
+        <v>24.120000839999999</v>
+      </c>
+      <c r="D465" s="18">
+        <f>SUM(C$3:C465)/A465</f>
+        <v>30.704782279503227</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4">
+      <c r="A466" s="18">
+        <f t="shared" si="3"/>
+        <v>464</v>
+      </c>
+      <c r="B466" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="C466" s="20">
+        <v>24.120000839999999</v>
+      </c>
+      <c r="D466" s="18">
+        <f>SUM(C$3:C466)/A466</f>
+        <v>30.69059094019395</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4">
+      <c r="A467" s="18">
+        <f t="shared" si="3"/>
+        <v>465</v>
+      </c>
+      <c r="B467" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="C467" s="20">
+        <v>24.190000529999999</v>
+      </c>
+      <c r="D467" s="18">
+        <f>SUM(C$3:C467)/A467</f>
+        <v>30.676611175870953</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4">
+      <c r="A468" s="18">
+        <f t="shared" si="3"/>
+        <v>466</v>
+      </c>
+      <c r="B468" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="C468" s="20">
+        <v>23.739999770000001</v>
+      </c>
+      <c r="D468" s="18">
+        <f>SUM(C$3:C468)/A468</f>
+        <v>30.661725743669511</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4">
+      <c r="A469" s="18">
+        <f t="shared" si="3"/>
+        <v>467</v>
+      </c>
+      <c r="B469" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="C469" s="20">
+        <v>23.659999849999998</v>
+      </c>
+      <c r="D469" s="18">
+        <f>SUM(C$3:C469)/A469</f>
+        <v>30.646732754603839</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4">
+      <c r="A470" s="18">
+        <f t="shared" si="3"/>
+        <v>468</v>
+      </c>
+      <c r="B470" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="C470" s="20">
+        <v>23.670000080000001</v>
+      </c>
+      <c r="D470" s="18">
+        <f>SUM(C$3:C470)/A470</f>
+        <v>30.631825206153827</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4">
+      <c r="A471" s="18">
+        <f t="shared" si="3"/>
+        <v>469</v>
+      </c>
+      <c r="B471" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="C471" s="20">
+        <v>23.459999079999999</v>
+      </c>
+      <c r="D471" s="18">
+        <f>SUM(C$3:C471)/A471</f>
+        <v>30.616533466012775</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4">
+      <c r="A472" s="18">
+        <f t="shared" si="3"/>
+        <v>470</v>
+      </c>
+      <c r="B472" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="C472" s="20">
+        <v>23.5</v>
+      </c>
+      <c r="D472" s="18">
+        <f>SUM(C$3:C472)/A472</f>
+        <v>30.601391905446789</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4">
+      <c r="A473" s="18">
+        <f t="shared" si="3"/>
+        <v>471</v>
+      </c>
+      <c r="B473" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="C473" s="20">
+        <v>23.299999239999998</v>
+      </c>
+      <c r="D473" s="18">
+        <f>SUM(C$3:C473)/A473</f>
+        <v>30.585890010191065</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4">
+      <c r="A474" s="18">
+        <f t="shared" si="3"/>
+        <v>472</v>
+      </c>
+      <c r="B474" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="C474" s="20">
+        <v>23.280000690000001</v>
+      </c>
+      <c r="D474" s="18">
+        <f>SUM(C$3:C474)/A474</f>
+        <v>30.570411431122864</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4">
+      <c r="A475" s="18">
+        <f t="shared" si="3"/>
+        <v>473</v>
+      </c>
+      <c r="B475" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="C475" s="20">
+        <v>22.920000080000001</v>
+      </c>
+      <c r="D475" s="18">
+        <f>SUM(C$3:C475)/A475</f>
+        <v>30.554237199936555</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4">
+      <c r="A476" s="18">
+        <f t="shared" si="3"/>
+        <v>474</v>
+      </c>
+      <c r="B476" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="C476" s="20">
+        <v>22.940000529999999</v>
+      </c>
+      <c r="D476" s="18">
+        <f>SUM(C$3:C476)/A476</f>
+        <v>30.538173409493648</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4">
+      <c r="A477" s="18">
+        <f t="shared" si="3"/>
+        <v>475</v>
+      </c>
+      <c r="B477" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="C477" s="20">
+        <v>22.959999079999999</v>
+      </c>
+      <c r="D477" s="18">
+        <f>SUM(C$3:C477)/A477</f>
+        <v>30.522219358273663</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4">
+      <c r="A478" s="18">
+        <f t="shared" si="3"/>
+        <v>476</v>
+      </c>
+      <c r="B478" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="C478" s="20">
+        <v>23.350000380000001</v>
+      </c>
+      <c r="D478" s="18">
+        <f>SUM(C$3:C478)/A478</f>
+        <v>30.507151671344516</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4">
+      <c r="A479" s="18">
+        <f t="shared" si="3"/>
+        <v>477</v>
+      </c>
+      <c r="B479" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="C479" s="20">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D479" s="18">
+        <f>SUM(C$3:C479)/A479</f>
+        <v>30.492629340628909</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4">
+      <c r="A480" s="18">
+        <f t="shared" si="3"/>
+        <v>478</v>
+      </c>
+      <c r="B480" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="C480" s="20">
+        <v>23.879999160000001</v>
+      </c>
+      <c r="D480" s="18">
+        <f>SUM(C$3:C480)/A480</f>
+        <v>30.478795386276133</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4">
+      <c r="A481" s="18">
+        <f t="shared" si="3"/>
+        <v>479</v>
+      </c>
+      <c r="B481" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="C481" s="20">
+        <v>23.899999619999999</v>
+      </c>
+      <c r="D481" s="18">
+        <f>SUM(C$3:C481)/A481</f>
+        <v>30.465060948350711</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4">
+      <c r="A482" s="18">
+        <f t="shared" si="3"/>
+        <v>480</v>
+      </c>
+      <c r="B482" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="C482" s="20">
+        <v>23.940000529999999</v>
+      </c>
+      <c r="D482" s="18">
+        <f>SUM(C$3:C482)/A482</f>
+        <v>30.451467072479147</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4">
+      <c r="A483" s="18">
+        <f t="shared" si="3"/>
+        <v>481</v>
+      </c>
+      <c r="B483" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="C483" s="20">
+        <v>23.68000031</v>
+      </c>
+      <c r="D483" s="18">
+        <f>SUM(C$3:C483)/A483</f>
+        <v>30.437389179002061</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4">
+      <c r="A484" s="18">
+        <f t="shared" si="3"/>
+        <v>482</v>
+      </c>
+      <c r="B484" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="C484" s="20">
+        <v>23.829999919999999</v>
+      </c>
+      <c r="D484" s="18">
+        <f>SUM(C$3:C484)/A484</f>
+        <v>30.423680902531103</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4">
+      <c r="A485" s="18">
+        <f t="shared" si="3"/>
+        <v>483</v>
+      </c>
+      <c r="B485" s="19">
+        <v>45015</v>
+      </c>
+      <c r="C485" s="20">
+        <v>23.979999540000001</v>
+      </c>
+      <c r="D485" s="18">
+        <f>SUM(C$3:C485)/A485</f>
+        <v>30.410339947329177</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1prac.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1prac.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="model1" sheetId="5" r:id="rId1"/>
@@ -1313,7 +1313,7 @@
     <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="180" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1862,118 +1862,121 @@
             <c:numRef>
               <c:f>model1!时间</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>3.25108</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8991500000000001</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.17509</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1906699999999999</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6513100000000001</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1706000000000003</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1298999999999992</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9869400000000002</c:v>
+                  <c:v>44104</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2014499999999995</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.27712</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7245600000000003</c:v>
+                  <c:v>44196</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.9833500000000006</c:v>
+                  <c:v>44225</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7232599999999998</c:v>
+                  <c:v>44253</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4379900000000001</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.7860299999999993</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.9806599999999994</c:v>
+                  <c:v>44347</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1114799999999994</c:v>
+                  <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.9776999999999996</c:v>
+                  <c:v>44407</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.7613100000000008</c:v>
+                  <c:v>44439</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.7106400000000006</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.8678999999999997</c:v>
+                  <c:v>44498</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.9547099609374996</c:v>
+                  <c:v>44530</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.8630097656249998</c:v>
+                  <c:v>44561</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.3440297851562502</c:v>
+                  <c:v>44589</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.3355400390624999</c:v>
+                  <c:v>44620</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.8658500976562502</c:v>
+                  <c:v>44651</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.5012099609375</c:v>
+                  <c:v>44680</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.6361599121093748</c:v>
+                  <c:v>44712</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.1096201171875002</c:v>
+                  <c:v>44742</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.8724699707031252</c:v>
+                  <c:v>44771</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.7022099609375001</c:v>
+                  <c:v>44804</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.3477299804687499</c:v>
+                  <c:v>44834</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2993999023437501</c:v>
+                  <c:v>44865</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.4802900390625</c:v>
+                  <c:v>44895</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.4735300292968749</c:v>
+                  <c:v>44925</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.8110336914062501</c:v>
+                  <c:v>44957</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.6777292480468748</c:v>
+                  <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1983,117 +1986,120 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>2000.0000000000002</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3783.4996370436897</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6143.6117008713063</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8173.7580810682693</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11353.811149064422</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14968.552321848347</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16822.477397497114</c:v>
+                  <c:v>14000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18240.153038857396</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21221.531045139225</c:v>
+                  <c:v>18000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23603.74034292587</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28072.985437531297</c:v>
+                  <c:v>22000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31610.696441599135</c:v>
+                  <c:v>24000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>31960.877336479982</c:v>
+                  <c:v>26000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>32030.541196234128</c:v>
+                  <c:v>28000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>36542.468793623324</c:v>
+                  <c:v>30000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40028.514786085325</c:v>
+                  <c:v>32000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43079.887556825692</c:v>
+                  <c:v>34000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43952.380972166822</c:v>
+                  <c:v>36000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44041.688138414858</c:v>
+                  <c:v>38000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45572.995207693384</c:v>
+                  <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>49094.404023982002</c:v>
+                  <c:v>42000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>51969.911593071687</c:v>
+                  <c:v>44000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>53008.069006718506</c:v>
+                  <c:v>46000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>49351.052479165373</c:v>
+                  <c:v>48000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>51254.60334650999</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>47701.945217252243</c:v>
+                  <c:v>52000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>45202.535414395512</c:v>
+                  <c:v>54000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>48944.813088421164</c:v>
+                  <c:v>56000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>57317.86097478633</c:v>
+                  <c:v>58000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>56010.270798873862</c:v>
+                  <c:v>60000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>55547.679913640975</c:v>
+                  <c:v>62000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>52229.088937270295</c:v>
+                  <c:v>64000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>53475.074735568647</c:v>
+                  <c:v>66000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>58406.85441256113</c:v>
+                  <c:v>68000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>60293.406710853284</c:v>
+                  <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>68151.7828856181</c:v>
+                  <c:v>72000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>67767.93214664339</c:v>
+                  <c:v>74000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>76000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2135,118 +2141,121 @@
             <c:numRef>
               <c:f>model1!时间</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>3.25108</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8991500000000001</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.17509</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1906699999999999</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6513100000000001</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1706000000000003</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1298999999999992</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9869400000000002</c:v>
+                  <c:v>44104</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2014499999999995</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.27712</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7245600000000003</c:v>
+                  <c:v>44196</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.9833500000000006</c:v>
+                  <c:v>44225</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7232599999999998</c:v>
+                  <c:v>44253</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4379900000000001</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.7860299999999993</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.9806599999999994</c:v>
+                  <c:v>44347</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1114799999999994</c:v>
+                  <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.9776999999999996</c:v>
+                  <c:v>44407</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.7613100000000008</c:v>
+                  <c:v>44439</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.7106400000000006</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.8678999999999997</c:v>
+                  <c:v>44498</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.9547099609374996</c:v>
+                  <c:v>44530</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.8630097656249998</c:v>
+                  <c:v>44561</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.3440297851562502</c:v>
+                  <c:v>44589</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.3355400390624999</c:v>
+                  <c:v>44620</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.8658500976562502</c:v>
+                  <c:v>44651</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.5012099609375</c:v>
+                  <c:v>44680</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.6361599121093748</c:v>
+                  <c:v>44712</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.1096201171875002</c:v>
+                  <c:v>44742</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.8724699707031252</c:v>
+                  <c:v>44771</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.7022099609375001</c:v>
+                  <c:v>44804</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.3477299804687499</c:v>
+                  <c:v>44834</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2993999023437501</c:v>
+                  <c:v>44865</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.4802900390625</c:v>
+                  <c:v>44895</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.4735300292968749</c:v>
+                  <c:v>44925</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.8110336914062501</c:v>
+                  <c:v>44957</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.6777292480468748</c:v>
+                  <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2256,117 +2265,120 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2000.0000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-216.50036295631025</c:v>
+                  <c:v>3783.4996370436897</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>143.61170087130631</c:v>
+                  <c:v>6143.6117008713063</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>173.75808106826935</c:v>
+                  <c:v>8173.7580810682693</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1353.8111490644224</c:v>
+                  <c:v>11353.811149064422</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2968.5523218483468</c:v>
+                  <c:v>14968.552321848347</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2822.477397497114</c:v>
+                  <c:v>16822.477397497114</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2240.1530388573956</c:v>
+                  <c:v>18240.153038857396</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3221.5310451392252</c:v>
+                  <c:v>21221.531045139225</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3603.7403429258702</c:v>
+                  <c:v>23603.74034292587</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6072.9854375312971</c:v>
+                  <c:v>28072.985437531297</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7610.6964415991351</c:v>
+                  <c:v>31610.696441599135</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5960.8773364799818</c:v>
+                  <c:v>31960.877336479982</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4030.5411962341277</c:v>
+                  <c:v>32030.541196234128</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6542.468793623324</c:v>
+                  <c:v>36542.468793623324</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8028.5147860853249</c:v>
+                  <c:v>40028.514786085325</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9079.8875568256917</c:v>
+                  <c:v>43079.887556825692</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7952.3809721668222</c:v>
+                  <c:v>43952.380972166822</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6041.6881384148583</c:v>
+                  <c:v>44041.688138414858</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5572.9952076933841</c:v>
+                  <c:v>45572.995207693384</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7094.4040239820024</c:v>
+                  <c:v>49094.404023982002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7969.9115930716871</c:v>
+                  <c:v>51969.911593071687</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7008.069006718506</c:v>
+                  <c:v>53008.069006718506</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1351.0524791653734</c:v>
+                  <c:v>49351.052479165373</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1254.6033465099899</c:v>
+                  <c:v>51254.60334650999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-4298.0547827477567</c:v>
+                  <c:v>47701.945217252243</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-8797.4645856044881</c:v>
+                  <c:v>45202.535414395512</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-7055.1869115788359</c:v>
+                  <c:v>48944.813088421164</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-682.13902521366981</c:v>
+                  <c:v>57317.86097478633</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-3989.7292011261379</c:v>
+                  <c:v>56010.270798873862</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-6452.3200863590246</c:v>
+                  <c:v>55547.679913640975</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-11770.911062729705</c:v>
+                  <c:v>52229.088937270295</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-12524.925264431353</c:v>
+                  <c:v>53475.074735568647</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-9593.1455874388703</c:v>
+                  <c:v>58406.85441256113</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-9706.5932891467164</c:v>
+                  <c:v>60293.406710853284</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-3848.2171143818996</c:v>
+                  <c:v>68151.7828856181</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-6232.0678533566097</c:v>
+                  <c:v>67767.93214664339</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>70476.779226985323</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2408,118 +2420,121 @@
             <c:numRef>
               <c:f>model1!时间</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>3.25108</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8991500000000001</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.17509</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1906699999999999</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6513100000000001</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1706000000000003</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1298999999999992</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9869400000000002</c:v>
+                  <c:v>44104</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2014499999999995</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.27712</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7245600000000003</c:v>
+                  <c:v>44196</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.9833500000000006</c:v>
+                  <c:v>44225</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7232599999999998</c:v>
+                  <c:v>44253</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4379900000000001</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.7860299999999993</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.9806599999999994</c:v>
+                  <c:v>44347</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1114799999999994</c:v>
+                  <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.9776999999999996</c:v>
+                  <c:v>44407</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.7613100000000008</c:v>
+                  <c:v>44439</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.7106400000000006</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.8678999999999997</c:v>
+                  <c:v>44498</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.9547099609374996</c:v>
+                  <c:v>44530</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.8630097656249998</c:v>
+                  <c:v>44561</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.3440297851562502</c:v>
+                  <c:v>44589</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.3355400390624999</c:v>
+                  <c:v>44620</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.8658500976562502</c:v>
+                  <c:v>44651</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.5012099609375</c:v>
+                  <c:v>44680</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.6361599121093748</c:v>
+                  <c:v>44712</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.1096201171875002</c:v>
+                  <c:v>44742</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.8724699707031252</c:v>
+                  <c:v>44771</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.7022099609375001</c:v>
+                  <c:v>44804</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.3477299804687499</c:v>
+                  <c:v>44834</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2993999023437501</c:v>
+                  <c:v>44865</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.4802900390625</c:v>
+                  <c:v>44895</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.4735300292968749</c:v>
+                  <c:v>44925</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.8110336914062501</c:v>
+                  <c:v>44957</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.6777292480468748</c:v>
+                  <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2528,8 +2543,122 @@
             <c:numRef>
               <c:f>model1!金额</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-216.50036295631025</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>143.61170087130631</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>173.75808106826935</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1353.8111490644224</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2968.5523218483468</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2822.477397497114</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2240.1530388573956</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3221.5310451392252</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3603.7403429258702</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6072.9854375312971</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7610.6964415991351</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5960.8773364799818</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4030.5411962341277</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6542.468793623324</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8028.5147860853249</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9079.8875568256917</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7952.3809721668222</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6041.6881384148583</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5572.9952076933841</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7094.4040239820024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7969.9115930716871</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7008.069006718506</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1351.0524791653734</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1254.6033465099899</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-4298.0547827477567</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-8797.4645856044881</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-7055.1869115788359</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-682.13902521366981</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-3989.7292011261379</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-6452.3200863590246</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-11770.911062729705</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-12524.925264431353</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-9593.1455874388703</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-9706.5932891467164</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-3848.2171143818996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-6232.0678533566097</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-5523.2207730146765</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2550,17 +2679,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="245515008"/>
-        <c:axId val="255727104"/>
+        <c:axId val="354054144"/>
+        <c:axId val="354055680"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="245515008"/>
+      <c:dateAx>
+        <c:axId val="354054144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -2597,15 +2726,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="255727104"/>
+        <c:crossAx val="354055680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="255727104"/>
+        <c:axId val="354055680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2656,7 +2784,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245515008"/>
+        <c:crossAx val="354054144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3062,14 +3190,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y39"/>
+  <dimension ref="A1:Y40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -3090,7 +3218,7 @@
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" s="10" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>180</v>
       </c>
@@ -3120,7 +3248,7 @@
       </c>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="14.1" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="4">
@@ -3136,7 +3264,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" ht="14.1" customHeight="1">
       <c r="A3" s="14">
         <v>43889</v>
       </c>
@@ -3207,7 +3335,7 @@
         <v>-22000</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" ht="14.1" customHeight="1">
       <c r="A4" s="14">
         <v>43921</v>
       </c>
@@ -3284,7 +3412,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" ht="14.1" customHeight="1">
       <c r="A5" s="14">
         <v>43951</v>
       </c>
@@ -3356,7 +3484,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" ht="14.1" customHeight="1">
       <c r="A6" s="14">
         <v>43980</v>
       </c>
@@ -3422,7 +3550,7 @@
         <v>60293.406710853284</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" ht="14.1" customHeight="1">
       <c r="A7" s="14">
         <v>44012</v>
       </c>
@@ -3456,7 +3584,7 @@
         <v>-7.3828223896210132E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" ht="14.1" customHeight="1">
       <c r="A8" s="14">
         <v>44043</v>
       </c>
@@ -3486,7 +3614,7 @@
       </c>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" ht="14.1" customHeight="1">
       <c r="A9" s="14">
         <v>44074</v>
       </c>
@@ -3516,7 +3644,7 @@
       </c>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" ht="14.1" customHeight="1">
       <c r="A10" s="14">
         <v>44104</v>
       </c>
@@ -3546,7 +3674,7 @@
       </c>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" ht="14.1" customHeight="1">
       <c r="A11" s="14">
         <v>44134</v>
       </c>
@@ -3576,7 +3704,7 @@
       </c>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" ht="14.1" customHeight="1">
       <c r="A12" s="14">
         <v>44165</v>
       </c>
@@ -3606,7 +3734,7 @@
       </c>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" ht="14.1" customHeight="1">
       <c r="A13" s="14">
         <v>44196</v>
       </c>
@@ -3636,7 +3764,7 @@
       </c>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" ht="14.1" customHeight="1">
       <c r="A14" s="14">
         <v>44225</v>
       </c>
@@ -3666,7 +3794,7 @@
       </c>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" ht="14.1" customHeight="1">
       <c r="A15" s="14">
         <v>44253</v>
       </c>
@@ -3696,7 +3824,7 @@
       </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" ht="14.1" customHeight="1">
       <c r="A16" s="14">
         <v>44286</v>
       </c>
@@ -3726,7 +3854,7 @@
       </c>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="14.1" customHeight="1">
       <c r="A17" s="14">
         <v>44316</v>
       </c>
@@ -3756,7 +3884,7 @@
       </c>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="14.1" customHeight="1">
       <c r="A18" s="14">
         <v>44347</v>
       </c>
@@ -3786,7 +3914,7 @@
       </c>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="14.1" customHeight="1">
       <c r="A19" s="14">
         <v>44377</v>
       </c>
@@ -3816,7 +3944,7 @@
       </c>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="14.1" customHeight="1">
       <c r="A20" s="14">
         <v>44407</v>
       </c>
@@ -3846,7 +3974,7 @@
       </c>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="14.1" customHeight="1">
       <c r="A21" s="14">
         <v>44439</v>
       </c>
@@ -3877,7 +4005,7 @@
       <c r="J21" s="6"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="14.1" customHeight="1">
       <c r="A22" s="14">
         <v>44469</v>
       </c>
@@ -3907,7 +4035,7 @@
       </c>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="14.1" customHeight="1">
       <c r="A23" s="14">
         <v>44498</v>
       </c>
@@ -3937,7 +4065,7 @@
       </c>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="14.1" customHeight="1">
       <c r="A24" s="14">
         <v>44530</v>
       </c>
@@ -3967,7 +4095,7 @@
       </c>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="14.1" customHeight="1">
       <c r="A25" s="14">
         <v>44561</v>
       </c>
@@ -3997,7 +4125,7 @@
       </c>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="14.1" customHeight="1">
       <c r="A26" s="14">
         <v>44589</v>
       </c>
@@ -4027,7 +4155,7 @@
       </c>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="14.1" customHeight="1">
       <c r="A27" s="14">
         <v>44620</v>
       </c>
@@ -4057,7 +4185,7 @@
       </c>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="14.1" customHeight="1">
       <c r="A28" s="14">
         <v>44651</v>
       </c>
@@ -4087,7 +4215,7 @@
       </c>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="14.1" customHeight="1">
       <c r="A29" s="14">
         <v>44680</v>
       </c>
@@ -4117,7 +4245,7 @@
       </c>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="14.1" customHeight="1">
       <c r="A30" s="14">
         <v>44712</v>
       </c>
@@ -4147,7 +4275,7 @@
       </c>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="14.1" customHeight="1">
       <c r="A31" s="14">
         <v>44742</v>
       </c>
@@ -4177,7 +4305,7 @@
       </c>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="14.1" customHeight="1">
       <c r="A32" s="14">
         <v>44771</v>
       </c>
@@ -4207,7 +4335,7 @@
       </c>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="14.1" customHeight="1">
       <c r="A33" s="14">
         <v>44804</v>
       </c>
@@ -4238,7 +4366,7 @@
       <c r="J33" s="6"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="12.75">
       <c r="A34" s="14">
         <v>44834</v>
       </c>
@@ -4267,7 +4395,7 @@
         <v>-11770.911062729705</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="12.75">
       <c r="A35" s="14">
         <v>44865</v>
       </c>
@@ -4296,7 +4424,7 @@
         <v>-12524.925264431353</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="12.75">
       <c r="A36" s="14">
         <v>44895</v>
       </c>
@@ -4325,7 +4453,7 @@
         <v>-9593.1455874388703</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="12.75">
       <c r="A37" s="14">
         <v>44925</v>
       </c>
@@ -4354,7 +4482,7 @@
         <v>-9706.5932891467164</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="12.75">
       <c r="A38" s="14">
         <v>44957</v>
       </c>
@@ -4383,7 +4511,7 @@
         <v>-3848.2171143818996</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="12.75">
       <c r="A39" s="14">
         <v>44985</v>
       </c>
@@ -4410,6 +4538,35 @@
       </c>
       <c r="I39" s="17">
         <v>-6232.0678533566097</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="12.75">
+      <c r="A40" s="14">
+        <v>45016</v>
+      </c>
+      <c r="B40" s="15">
+        <v>3.7161979980468751</v>
+      </c>
+      <c r="C40" s="16">
+        <v>2000</v>
+      </c>
+      <c r="D40" s="17">
+        <v>538.18445654702509</v>
+      </c>
+      <c r="E40" s="17">
+        <v>18964.753563729882</v>
+      </c>
+      <c r="F40" s="17">
+        <v>70476.779226985323</v>
+      </c>
+      <c r="G40" s="17">
+        <v>76000</v>
+      </c>
+      <c r="H40" s="17">
+        <v>70476.779226985323</v>
+      </c>
+      <c r="I40" s="17">
+        <v>-5523.2207730146765</v>
       </c>
     </row>
   </sheetData>
@@ -4425,13 +4582,13 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D485"/>
+  <dimension ref="A1:D486"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9" style="18"/>
     <col min="2" max="2" width="8.5" style="18" customWidth="1"/>
@@ -4439,7 +4596,7 @@
     <col min="4" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="12.75" customHeight="1">
       <c r="B1" s="30" t="s">
         <v>194</v>
       </c>
@@ -4447,7 +4604,7 @@
         <v>399088</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="12.75" customHeight="1">
       <c r="B2" s="30"/>
       <c r="C2" s="28" t="s">
         <v>0</v>
@@ -4456,7 +4613,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="12.75" customHeight="1">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -4471,7 +4628,7 @@
         <v>45.12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="12.75" customHeight="1">
       <c r="A4" s="18">
         <f t="shared" ref="A4:A36" si="0">A3+1</f>
         <v>2</v>
@@ -4487,7 +4644,7 @@
         <v>44.965000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="12.75" customHeight="1">
       <c r="A5" s="18">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4503,7 +4660,7 @@
         <v>44.99666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="12.75" customHeight="1">
       <c r="A6" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4519,7 +4676,7 @@
         <v>44.792500000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="12.75" customHeight="1">
       <c r="A7" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4535,7 +4692,7 @@
         <v>44.440000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="12.75" customHeight="1">
       <c r="A8" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4551,7 +4708,7 @@
         <v>44.256666666666668</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="12.75" customHeight="1">
       <c r="A9" s="18">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4567,7 +4724,7 @@
         <v>44.252857142857145</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="12.75" customHeight="1">
       <c r="A10" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4583,7 +4740,7 @@
         <v>44.220000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="12.75" customHeight="1">
       <c r="A11" s="18">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4599,7 +4756,7 @@
         <v>44.181111111111115</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="12.75" customHeight="1">
       <c r="A12" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4615,7 +4772,7 @@
         <v>44.341000000000008</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="12.75" customHeight="1">
       <c r="A13" s="18">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4631,7 +4788,7 @@
         <v>44.458181818181828</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="12.75" customHeight="1">
       <c r="A14" s="18">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -4647,7 +4804,7 @@
         <v>44.577500000000008</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="12.75" customHeight="1">
       <c r="A15" s="18">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -4663,7 +4820,7 @@
         <v>44.703076923076928</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="12.75" customHeight="1">
       <c r="A16" s="18">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -4679,7 +4836,7 @@
         <v>44.860000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="12.75" customHeight="1">
       <c r="A17" s="18">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -4695,7 +4852,7 @@
         <v>44.968000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="12.75" customHeight="1">
       <c r="A18" s="18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -4711,7 +4868,7 @@
         <v>45.078750000000007</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="12.75" customHeight="1">
       <c r="A19" s="18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4727,7 +4884,7 @@
         <v>45.214117647058828</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="12.75" customHeight="1">
       <c r="A20" s="18">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -4743,7 +4900,7 @@
         <v>45.345555555555563</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="12.75" customHeight="1">
       <c r="A21" s="18">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -4759,7 +4916,7 @@
         <v>45.46631578947369</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="12.75" customHeight="1">
       <c r="A22" s="18">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -4775,7 +4932,7 @@
         <v>45.062500000000007</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="12.75" customHeight="1">
       <c r="A23" s="18">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -4791,7 +4948,7 @@
         <v>44.643333333333338</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="12.75" customHeight="1">
       <c r="A24" s="18">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -4807,7 +4964,7 @@
         <v>44.269090909090913</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="12.75" customHeight="1">
       <c r="A25" s="18">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -4823,7 +4980,7 @@
         <v>43.928695652173921</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="12.75" customHeight="1">
       <c r="A26" s="18">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -4839,7 +4996,7 @@
         <v>43.627500000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="12.75" customHeight="1">
       <c r="A27" s="18">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -4855,7 +5012,7 @@
         <v>43.332400000000007</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="12.75" customHeight="1">
       <c r="A28" s="18">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -4871,7 +5028,7 @@
         <v>43.088461538461544</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="12.75" customHeight="1">
       <c r="A29" s="18">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -4887,7 +5044,7 @@
         <v>42.901851851851859</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="12.75" customHeight="1">
       <c r="A30" s="18">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -4903,7 +5060,7 @@
         <v>42.726071428571437</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="12.75" customHeight="1">
       <c r="A31" s="18">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -4919,7 +5076,7 @@
         <v>42.570000000000007</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="12.75" customHeight="1">
       <c r="A32" s="18">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -4935,7 +5092,7 @@
         <v>42.435000000000009</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="12.75" customHeight="1">
       <c r="A33" s="18">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -4951,7 +5108,7 @@
         <v>42.298387096774199</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="12.75" customHeight="1">
       <c r="A34" s="18">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -4967,7 +5124,7 @@
         <v>42.179062500000008</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="12.75" customHeight="1">
       <c r="A35" s="18">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -4983,7 +5140,7 @@
         <v>42.093333333333341</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="12.75" customHeight="1">
       <c r="A36" s="18">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -4999,7 +5156,7 @@
         <v>42.005000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="12.75" customHeight="1">
       <c r="A37" s="18">
         <f t="shared" ref="A37:A100" si="1">A36+1</f>
         <v>35</v>
@@ -5015,7 +5172,7 @@
         <v>41.929428571428573</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="12.75" customHeight="1">
       <c r="A38" s="18">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -5031,7 +5188,7 @@
         <v>41.856666666666662</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="12.75" customHeight="1">
       <c r="A39" s="18">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -5047,7 +5204,7 @@
         <v>41.802432432432425</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="12.75" customHeight="1">
       <c r="A40" s="18">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -5063,7 +5220,7 @@
         <v>41.751315789473679</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="12.75" customHeight="1">
       <c r="A41" s="18">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -5079,7 +5236,7 @@
         <v>41.689999999999991</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="12.75" customHeight="1">
       <c r="A42" s="18">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -5095,7 +5252,7 @@
         <v>41.621999999999993</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="12.75" customHeight="1">
       <c r="A43" s="18">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -5111,7 +5268,7 @@
         <v>41.5680487804878</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="12.75" customHeight="1">
       <c r="A44" s="18">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -5127,7 +5284,7 @@
         <v>41.512380952380944</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="12.75" customHeight="1">
       <c r="A45" s="18">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -5143,7 +5300,7 @@
         <v>41.454186046511623</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="12.75" customHeight="1">
       <c r="A46" s="18">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -5159,7 +5316,7 @@
         <v>41.399318181818174</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="12.75" customHeight="1">
       <c r="A47" s="18">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -5175,7 +5332,7 @@
         <v>41.36044444444444</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="12.75" customHeight="1">
       <c r="A48" s="18">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -5191,7 +5348,7 @@
         <v>41.322391304347818</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="12.75" customHeight="1">
       <c r="A49" s="18">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -5207,7 +5364,7 @@
         <v>41.285319148936161</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="12.75" customHeight="1">
       <c r="A50" s="18">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -5223,7 +5380,7 @@
         <v>41.222499999999989</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="12.75" customHeight="1">
       <c r="A51" s="18">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -5239,7 +5396,7 @@
         <v>41.174693877551015</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="12.75" customHeight="1">
       <c r="A52" s="18">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -5255,7 +5412,7 @@
         <v>41.139199999999988</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="12.75" customHeight="1">
       <c r="A53" s="18">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -5271,7 +5428,7 @@
         <v>41.106862745098027</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="12.75" customHeight="1">
       <c r="A54" s="18">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -5287,7 +5444,7 @@
         <v>41.078653846153834</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="12.75" customHeight="1">
       <c r="A55" s="18">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -5303,7 +5460,7 @@
         <v>41.062452830188661</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="12.75" customHeight="1">
       <c r="A56" s="18">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -5319,7 +5476,7 @@
         <v>41.045555555555538</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="12.75" customHeight="1">
       <c r="A57" s="18">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -5335,7 +5492,7 @@
         <v>41.038181818181798</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" ht="12.75" customHeight="1">
       <c r="A58" s="18">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -5351,7 +5508,7 @@
         <v>41.038928571428549</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="12.75" customHeight="1">
       <c r="A59" s="18">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -5367,7 +5524,7 @@
         <v>41.034736842105247</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="12.75" customHeight="1">
       <c r="A60" s="18">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -5383,7 +5540,7 @@
         <v>41.041896551724122</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="12.75" customHeight="1">
       <c r="A61" s="18">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -5399,7 +5556,7 @@
         <v>41.046101694915237</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" ht="12.75" customHeight="1">
       <c r="A62" s="18">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -5415,7 +5572,7 @@
         <v>41.029166666666654</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" ht="12.75" customHeight="1">
       <c r="A63" s="18">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -5431,7 +5588,7 @@
         <v>41.015737704918017</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" ht="12.75" customHeight="1">
       <c r="A64" s="18">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -5447,7 +5604,7 @@
         <v>40.997580645161271</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" ht="12.75" customHeight="1">
       <c r="A65" s="18">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -5463,7 +5620,7 @@
         <v>40.997301587301571</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="12.75" customHeight="1">
       <c r="A66" s="18">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -5479,7 +5636,7 @@
         <v>40.998281249999984</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" ht="12.75" customHeight="1">
       <c r="A67" s="18">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -5495,7 +5652,7 @@
         <v>40.994153846153829</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="12.75" customHeight="1">
       <c r="A68" s="18">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -5511,7 +5668,7 @@
         <v>41.006060606060593</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" ht="12.75" customHeight="1">
       <c r="A69" s="18">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -5527,7 +5684,7 @@
         <v>41.01641791044775</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" ht="12.75" customHeight="1">
       <c r="A70" s="18">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -5543,7 +5700,7 @@
         <v>41.020294117647047</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" ht="12.75" customHeight="1">
       <c r="A71" s="18">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -5559,7 +5716,7 @@
         <v>41.027826086956509</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" ht="12.75" customHeight="1">
       <c r="A72" s="18">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -5575,7 +5732,7 @@
         <v>41.021428571428558</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" ht="12.75" customHeight="1">
       <c r="A73" s="18">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -5591,7 +5748,7 @@
         <v>41.019295774647873</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" ht="12.75" customHeight="1">
       <c r="A74" s="18">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -5607,7 +5764,7 @@
         <v>41.017499999999984</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" ht="12.75" customHeight="1">
       <c r="A75" s="18">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -5623,7 +5780,7 @@
         <v>41.027123287671216</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" ht="12.75" customHeight="1">
       <c r="A76" s="18">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -5639,7 +5796,7 @@
         <v>41.036081081081065</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" ht="12.75" customHeight="1">
       <c r="A77" s="18">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -5655,7 +5812,7 @@
         <v>41.035466666666643</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" ht="12.75" customHeight="1">
       <c r="A78" s="18">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -5671,7 +5828,7 @@
         <v>41.020526335866805</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" ht="12.75" customHeight="1">
       <c r="A79" s="18">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -5687,7 +5844,7 @@
         <v>40.984025981952598</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" ht="12.75" customHeight="1">
       <c r="A80" s="18">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -5703,7 +5860,7 @@
         <v>40.953717942849167</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" ht="12.75" customHeight="1">
       <c r="A81" s="18">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -5719,7 +5876,7 @@
         <v>40.943164537647085</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" ht="12.75" customHeight="1">
       <c r="A82" s="18">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -5735,7 +5892,7 @@
         <v>40.930499984741189</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" ht="12.75" customHeight="1">
       <c r="A83" s="18">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -5751,7 +5908,7 @@
         <v>40.927160476872935</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" ht="12.75" customHeight="1">
       <c r="A84" s="18">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -5767,7 +5924,7 @@
         <v>40.921951202764724</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" ht="12.75" customHeight="1">
       <c r="A85" s="18">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -5783,7 +5940,7 @@
         <v>40.929036107810127</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" ht="12.75" customHeight="1">
       <c r="A86" s="18">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -5799,7 +5956,7 @@
         <v>40.931428547813759</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" ht="12.75" customHeight="1">
       <c r="A87" s="18">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -5815,7 +5972,7 @@
         <v>40.92988232062843</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" ht="12.75" customHeight="1">
       <c r="A88" s="18">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -5831,7 +5988,7 @@
         <v>40.928372052214847</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" ht="12.75" customHeight="1">
       <c r="A89" s="18">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -5847,7 +6004,7 @@
         <v>40.927701096808754</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" ht="12.75" customHeight="1">
       <c r="A90" s="18">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -5863,7 +6020,7 @@
         <v>40.924090864008107</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" ht="12.75" customHeight="1">
       <c r="A91" s="18">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -5879,7 +6036,7 @@
         <v>40.917528047025854</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" ht="12.75" customHeight="1">
       <c r="A92" s="18">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -5895,7 +6052,7 @@
         <v>40.904444420708536</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" ht="12.75" customHeight="1">
       <c r="A93" s="18">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -5911,7 +6068,7 @@
         <v>40.886703283288959</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" ht="12.75" customHeight="1">
       <c r="A94" s="18">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -5927,7 +6084,7 @@
         <v>40.859891271176529</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" ht="12.75" customHeight="1">
       <c r="A95" s="18">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -5943,7 +6100,7 @@
         <v>40.836344033518131</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" ht="12.75" customHeight="1">
       <c r="A96" s="18">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -5959,7 +6116,7 @@
         <v>40.815851010261682</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" ht="12.75" customHeight="1">
       <c r="A97" s="18">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -5975,7 +6132,7 @@
         <v>40.787684151097331</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" ht="12.75" customHeight="1">
       <c r="A98" s="18">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -5991,7 +6148,7 @@
         <v>40.770416618982935</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" ht="12.75" customHeight="1">
       <c r="A99" s="18">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -6007,7 +6164,7 @@
         <v>40.756804084384548</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" ht="12.75" customHeight="1">
       <c r="A100" s="18">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -6023,7 +6180,7 @@
         <v>40.744489749207773</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" ht="12.75" customHeight="1">
       <c r="A101" s="18">
         <f t="shared" ref="A101:A355" si="2">A100+1</f>
         <v>99</v>
@@ -6039,7 +6196,7 @@
         <v>40.723232270828383</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" ht="12.75" customHeight="1">
       <c r="A102" s="18">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -6055,7 +6212,7 @@
         <v>40.702299958801255</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" ht="12.75" customHeight="1">
       <c r="A103" s="18">
         <f t="shared" si="2"/>
         <v>101</v>
@@ -6071,7 +6228,7 @@
         <v>40.680296984379815</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" ht="12.75" customHeight="1">
       <c r="A104" s="18">
         <f t="shared" si="2"/>
         <v>102</v>
@@ -6087,7 +6244,7 @@
         <v>40.654705834482208</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" ht="12.75" customHeight="1">
       <c r="A105" s="18">
         <f t="shared" si="2"/>
         <v>103</v>
@@ -6103,7 +6260,7 @@
         <v>40.599999957038342</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" ht="12.75" customHeight="1">
       <c r="A106" s="18">
         <f t="shared" si="2"/>
         <v>104</v>
@@ -6119,7 +6276,7 @@
         <v>40.542692259274979</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" ht="12.75" customHeight="1">
       <c r="A107" s="18">
         <f t="shared" si="2"/>
         <v>105</v>
@@ -6135,7 +6292,7 @@
         <v>40.482476154145722</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" ht="12.75" customHeight="1">
       <c r="A108" s="18">
         <f t="shared" si="2"/>
         <v>106</v>
@@ -6151,7 +6308,7 @@
         <v>40.435849029253099</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" ht="12.75" customHeight="1">
       <c r="A109" s="18">
         <f t="shared" si="2"/>
         <v>107</v>
@@ -6167,7 +6324,7 @@
         <v>40.391775685247957</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" ht="12.75" customHeight="1">
       <c r="A110" s="18">
         <f t="shared" si="2"/>
         <v>108</v>
@@ -6183,7 +6340,7 @@
         <v>40.346574042991335</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" ht="12.75" customHeight="1">
       <c r="A111" s="18">
         <f t="shared" si="2"/>
         <v>109</v>
@@ -6199,7 +6356,7 @@
         <v>40.302110060945544</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" ht="12.75" customHeight="1">
       <c r="A112" s="18">
         <f t="shared" si="2"/>
         <v>110</v>
@@ -6215,7 +6372,7 @@
         <v>40.260272703690944</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" ht="12.75" customHeight="1">
       <c r="A113" s="18">
         <f t="shared" si="2"/>
         <v>111</v>
@@ -6231,7 +6388,7 @@
         <v>40.215585555342926</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" ht="12.75" customHeight="1">
       <c r="A114" s="18">
         <f t="shared" si="2"/>
         <v>112</v>
@@ -6247,7 +6404,7 @@
         <v>40.173214266640784</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" ht="12.75" customHeight="1">
       <c r="A115" s="18">
         <f t="shared" si="2"/>
         <v>113</v>
@@ -6263,7 +6420,7 @@
         <v>40.128584061344093</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" ht="12.75" customHeight="1">
       <c r="A116" s="18">
         <f t="shared" si="2"/>
         <v>114</v>
@@ -6279,7 +6436,7 @@
         <v>40.078245599311678</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" ht="12.75" customHeight="1">
       <c r="A117" s="18">
         <f t="shared" si="2"/>
         <v>115</v>
@@ -6295,7 +6452,7 @@
         <v>40.032521721881352</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" ht="12.75" customHeight="1">
       <c r="A118" s="18">
         <f t="shared" si="2"/>
         <v>116</v>
@@ -6311,7 +6468,7 @@
         <v>39.985344822324535</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" ht="12.75" customHeight="1">
       <c r="A119" s="18">
         <f t="shared" si="2"/>
         <v>117</v>
@@ -6327,7 +6484,7 @@
         <v>39.940427341298147</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" ht="12.75" customHeight="1">
       <c r="A120" s="18">
         <f t="shared" si="2"/>
         <v>118</v>
@@ -6343,7 +6500,7 @@
         <v>39.89703388666701</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" ht="12.75" customHeight="1">
       <c r="A121" s="18">
         <f t="shared" si="2"/>
         <v>119</v>
@@ -6359,7 +6516,7 @@
         <v>39.856638645204157</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" ht="12.75" customHeight="1">
       <c r="A122" s="18">
         <f t="shared" si="2"/>
         <v>120</v>
@@ -6375,7 +6532,7 @@
         <v>39.814833324432357</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" ht="12.75" customHeight="1">
       <c r="A123" s="18">
         <f t="shared" si="2"/>
         <v>121</v>
@@ -6391,7 +6548,7 @@
         <v>39.769752062332515</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" ht="12.75" customHeight="1">
       <c r="A124" s="18">
         <f t="shared" si="2"/>
         <v>122</v>
@@ -6407,7 +6564,7 @@
         <v>39.730819672131133</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" ht="12.75" customHeight="1">
       <c r="A125" s="18">
         <f t="shared" si="2"/>
         <v>123</v>
@@ -6423,7 +6580,7 @@
         <v>39.694634136422749</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" ht="12.75" customHeight="1">
       <c r="A126" s="18">
         <f t="shared" si="2"/>
         <v>124</v>
@@ -6439,7 +6596,7 @@
         <v>39.656854815322561</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" ht="12.75" customHeight="1">
       <c r="A127" s="18">
         <f t="shared" si="2"/>
         <v>125</v>
@@ -6455,7 +6612,7 @@
         <v>39.615839967039982</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" ht="12.75" customHeight="1">
       <c r="A128" s="18">
         <f t="shared" si="2"/>
         <v>126</v>
@@ -6471,7 +6628,7 @@
         <v>39.58039680484125</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" ht="12.75" customHeight="1">
       <c r="A129" s="18">
         <f t="shared" si="2"/>
         <v>127</v>
@@ -6487,7 +6644,7 @@
         <v>39.545433045669277</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" ht="12.75" customHeight="1">
       <c r="A130" s="18">
         <f t="shared" si="2"/>
         <v>128</v>
@@ -6503,7 +6660,7 @@
         <v>39.514765591640611</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" ht="12.75" customHeight="1">
       <c r="A131" s="18">
         <f t="shared" si="2"/>
         <v>129</v>
@@ -6519,7 +6676,7 @@
         <v>39.483953462403086</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" ht="12.75" customHeight="1">
       <c r="A132" s="18">
         <f t="shared" si="2"/>
         <v>130</v>
@@ -6535,7 +6692,7 @@
         <v>39.455384593153838</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" ht="12.75" customHeight="1">
       <c r="A133" s="18">
         <f t="shared" si="2"/>
         <v>131</v>
@@ -6551,7 +6708,7 @@
         <v>39.425419815954186</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" ht="12.75" customHeight="1">
       <c r="A134" s="18">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -6567,7 +6724,7 @@
         <v>39.396590869848474</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" ht="12.75" customHeight="1">
       <c r="A135" s="18">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -6583,7 +6740,7 @@
         <v>39.371127767969917</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" ht="12.75" customHeight="1">
       <c r="A136" s="18">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -6599,7 +6756,7 @@
         <v>39.348358155447755</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" ht="12.75" customHeight="1">
       <c r="A137" s="18">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -6615,7 +6772,7 @@
         <v>39.325777719037028</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" ht="12.75" customHeight="1">
       <c r="A138" s="18">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -6631,7 +6788,7 @@
         <v>39.30124995404411</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" ht="12.75" customHeight="1">
       <c r="A139" s="18">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -6647,7 +6804,7 @@
         <v>39.275182432773718</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" ht="12.75" customHeight="1">
       <c r="A140" s="18">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -6663,7 +6820,7 @@
         <v>39.253623134275358</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" ht="12.75" customHeight="1">
       <c r="A141" s="18">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -6679,7 +6836,7 @@
         <v>39.222517934100708</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" ht="12.75" customHeight="1">
       <c r="A142" s="18">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -6695,7 +6852,7 @@
         <v>39.191714233499987</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" ht="12.75" customHeight="1">
       <c r="A143" s="18">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -6711,7 +6868,7 @@
         <v>39.159361657872324</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" ht="12.75" customHeight="1">
       <c r="A144" s="18">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -6727,7 +6884,7 @@
         <v>39.130704182464775</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" ht="12.75" customHeight="1">
       <c r="A145" s="18">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -6743,7 +6900,7 @@
         <v>39.101118849230758</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" ht="12.75" customHeight="1">
       <c r="A146" s="18">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -6759,7 +6916,7 @@
         <v>39.072916641388879</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" ht="12.75" customHeight="1">
       <c r="A147" s="18">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -6775,7 +6932,7 @@
         <v>39.046344810896542</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" ht="12.75" customHeight="1">
       <c r="A148" s="18">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -6791,7 +6948,7 @@
         <v>39.018561638767117</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" ht="12.75" customHeight="1">
       <c r="A149" s="18">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -6807,7 +6964,7 @@
         <v>38.994013599387742</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" ht="12.75" customHeight="1">
       <c r="A150" s="18">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -6823,7 +6980,7 @@
         <v>38.968783766418909</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" ht="12.75" customHeight="1">
       <c r="A151" s="18">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -6839,7 +6996,7 @@
         <v>38.941812068389247</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" ht="12.75" customHeight="1">
       <c r="A152" s="18">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -6855,7 +7012,7 @@
         <v>38.915199992999987</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" ht="12.75" customHeight="1">
       <c r="A153" s="18">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -6871,7 +7028,7 @@
         <v>38.890794691986741</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" ht="12.75" customHeight="1">
       <c r="A154" s="18">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -6887,7 +7044,7 @@
         <v>38.864144727894725</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" ht="12.75" customHeight="1">
       <c r="A155" s="18">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -6903,7 +7060,7 @@
         <v>38.840653588888877</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" ht="12.75" customHeight="1">
       <c r="A156" s="18">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -6919,7 +7076,7 @@
         <v>38.822142862207784</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" ht="12.75" customHeight="1">
       <c r="A157" s="18">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -6935,7 +7092,7 @@
         <v>38.801870974774182</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" ht="12.75" customHeight="1">
       <c r="A158" s="18">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -6951,7 +7108,7 @@
         <v>38.781025643141014</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" ht="12.75" customHeight="1">
       <c r="A159" s="18">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -6967,7 +7124,7 @@
         <v>38.75942674980891</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" ht="12.75" customHeight="1">
       <c r="A160" s="18">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -6983,7 +7140,7 @@
         <v>38.73683543259493</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" ht="12.75" customHeight="1">
       <c r="A161" s="18">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -6999,7 +7156,7 @@
         <v>38.715911938364776</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" ht="12.75" customHeight="1">
       <c r="A162" s="18">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -7015,7 +7172,7 @@
         <v>38.695499988749994</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" ht="12.75" customHeight="1">
       <c r="A163" s="18">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -7031,7 +7188,7 @@
         <v>38.674285695527942</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" ht="12.75" customHeight="1">
       <c r="A164" s="18">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -7047,7 +7204,7 @@
         <v>38.652962951851848</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" ht="12.75" customHeight="1">
       <c r="A165" s="18">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -7063,7 +7220,7 @@
         <v>38.632515324478518</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" ht="12.75" customHeight="1">
       <c r="A166" s="18">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -7079,7 +7236,7 @@
         <v>38.609999978780486</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" ht="12.75" customHeight="1">
       <c r="A167" s="18">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -7095,7 +7252,7 @@
         <v>38.586363609696967</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" ht="12.75" customHeight="1">
       <c r="A168" s="18">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -7111,7 +7268,7 @@
         <v>38.566746972469872</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" ht="12.75" customHeight="1">
       <c r="A169" s="18">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -7127,7 +7284,7 @@
         <v>38.550598780598797</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" ht="12.75" customHeight="1">
       <c r="A170" s="18">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -7143,7 +7300,7 @@
         <v>38.53458331529761</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" ht="12.75" customHeight="1">
       <c r="A171" s="18">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -7159,7 +7316,7 @@
         <v>38.518757382130168</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" ht="12.75" customHeight="1">
       <c r="A172" s="18">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -7175,7 +7332,7 @@
         <v>38.501588212058813</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" ht="12.75" customHeight="1">
       <c r="A173" s="18">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -7191,7 +7348,7 @@
         <v>38.482806999824554</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" ht="12.75" customHeight="1">
       <c r="A174" s="18">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -7207,7 +7364,7 @@
         <v>38.465581380406974</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" ht="12.75" customHeight="1">
       <c r="A175" s="18">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -7223,7 +7380,7 @@
         <v>38.445202289364161</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" ht="12.75" customHeight="1">
       <c r="A176" s="18">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -7239,7 +7396,7 @@
         <v>38.42022985362069</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" ht="12.75" customHeight="1">
       <c r="A177" s="18">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -7255,7 +7412,7 @@
         <v>38.397485675200002</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" ht="12.75" customHeight="1">
       <c r="A178" s="18">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -7271,7 +7428,7 @@
         <v>38.376420407897733</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" ht="12.75" customHeight="1">
       <c r="A179" s="18">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -7287,7 +7444,7 @@
         <v>38.356271147796612</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" ht="12.75" customHeight="1">
       <c r="A180" s="18">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -7303,7 +7460,7 @@
         <v>38.333426933033707</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" ht="12.75" customHeight="1">
       <c r="A181" s="18">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -7319,7 +7476,7 @@
         <v>38.311229020614526</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" ht="12.75" customHeight="1">
       <c r="A182" s="18">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -7335,7 +7492,7 @@
         <v>38.290888867888889</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" ht="12.75" customHeight="1">
       <c r="A183" s="18">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -7351,7 +7508,7 @@
         <v>38.268618754364638</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" ht="12.75" customHeight="1">
       <c r="A184" s="18">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -7367,7 +7524,7 @@
         <v>38.248351618351641</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" ht="12.75" customHeight="1">
       <c r="A185" s="18">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -7383,7 +7540,7 @@
         <v>38.228579205136612</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" ht="12.75" customHeight="1">
       <c r="A186" s="18">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -7399,7 +7556,7 @@
         <v>38.206847793913042</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" ht="12.75" customHeight="1">
       <c r="A187" s="18">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -7415,7 +7572,7 @@
         <v>38.181189152216213</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" ht="12.75" customHeight="1">
       <c r="A188" s="18">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -7431,7 +7588,7 @@
         <v>38.15387092274193</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" ht="12.75" customHeight="1">
       <c r="A189" s="18">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -7447,7 +7604,7 @@
         <v>38.12657749128342</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" ht="12.75" customHeight="1">
       <c r="A190" s="18">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -7463,7 +7620,7 @@
         <v>38.100053139680853</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" ht="12.75" customHeight="1">
       <c r="A191" s="18">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -7479,7 +7636,7 @@
         <v>38.071216879682538</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" ht="12.75" customHeight="1">
       <c r="A192" s="18">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -7495,7 +7652,7 @@
         <v>38.0456315228421</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" ht="12.75" customHeight="1">
       <c r="A193" s="18">
         <f t="shared" si="2"/>
         <v>191</v>
@@ -7511,7 +7668,7 @@
         <v>38.017120363036646</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" ht="12.75" customHeight="1">
       <c r="A194" s="18">
         <f t="shared" si="2"/>
         <v>192</v>
@@ -7527,7 +7684,7 @@
         <v>37.989791613541662</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" ht="12.75" customHeight="1">
       <c r="A195" s="18">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -7543,7 +7700,7 @@
         <v>37.965699429792743</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" ht="12.75" customHeight="1">
       <c r="A196" s="18">
         <f t="shared" si="2"/>
         <v>194</v>
@@ -7559,7 +7716,7 @@
         <v>37.941855619072165</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" ht="12.75" customHeight="1">
       <c r="A197" s="18">
         <f t="shared" si="2"/>
         <v>195</v>
@@ -7575,7 +7732,7 @@
         <v>37.915128152000001</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" ht="12.75" customHeight="1">
       <c r="A198" s="18">
         <f t="shared" si="2"/>
         <v>196</v>
@@ -7591,7 +7748,7 @@
         <v>37.889132598622453</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" ht="12.75" customHeight="1">
       <c r="A199" s="18">
         <f t="shared" si="2"/>
         <v>197</v>
@@ -7607,7 +7764,7 @@
         <v>37.861268989137059</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" ht="12.75" customHeight="1">
       <c r="A200" s="18">
         <f t="shared" si="2"/>
         <v>198</v>
@@ -7623,7 +7780,7 @@
         <v>37.834646419242425</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" ht="12.75" customHeight="1">
       <c r="A201" s="18">
         <f t="shared" si="2"/>
         <v>199</v>
@@ -7639,7 +7796,7 @@
         <v>37.804422063819104</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" ht="12.75" customHeight="1">
       <c r="A202" s="18">
         <f t="shared" si="2"/>
         <v>200</v>
@@ -7655,7 +7812,7 @@
         <v>37.775999948150009</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" ht="12.75" customHeight="1">
       <c r="A203" s="18">
         <f t="shared" si="2"/>
         <v>201</v>
@@ -7671,7 +7828,7 @@
         <v>37.743084524776123</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" ht="12.75" customHeight="1">
       <c r="A204" s="18">
         <f t="shared" si="2"/>
         <v>202</v>
@@ -7687,7 +7844,7 @@
         <v>37.710494996683174</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" ht="12.75" customHeight="1">
       <c r="A205" s="18">
         <f t="shared" si="2"/>
         <v>203</v>
@@ -7703,7 +7860,7 @@
         <v>37.678472849310346</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" ht="12.75" customHeight="1">
       <c r="A206" s="18">
         <f t="shared" si="2"/>
         <v>204</v>
@@ -7719,7 +7876,7 @@
         <v>37.643872496323532</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" ht="12.75" customHeight="1">
       <c r="A207" s="18">
         <f t="shared" si="2"/>
         <v>205</v>
@@ -7735,7 +7892,7 @@
         <v>37.61151214380488</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" ht="12.75" customHeight="1">
       <c r="A208" s="18">
         <f t="shared" si="2"/>
         <v>206</v>
@@ -7751,7 +7908,7 @@
         <v>37.577281499757277</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" ht="12.75" customHeight="1">
       <c r="A209" s="18">
         <f t="shared" si="2"/>
         <v>207</v>
@@ -7767,7 +7924,7 @@
         <v>37.540193181497585</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" ht="12.75" customHeight="1">
       <c r="A210" s="18">
         <f t="shared" si="2"/>
         <v>208</v>
@@ -7783,7 +7940,7 @@
         <v>37.503221100721149</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" ht="12.75" customHeight="1">
       <c r="A211" s="18">
         <f t="shared" si="2"/>
         <v>209</v>
@@ -7799,7 +7956,7 @@
         <v>37.469999944593297</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" ht="12.75" customHeight="1">
       <c r="A212" s="18">
         <f t="shared" si="2"/>
         <v>210</v>
@@ -7815,7 +7972,7 @@
         <v>37.437380901238093</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" ht="12.75" customHeight="1">
       <c r="A213" s="18">
         <f t="shared" si="2"/>
         <v>211</v>
@@ -7831,7 +7988,7 @@
         <v>37.405781941800946</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" ht="12.75" customHeight="1">
       <c r="A214" s="18">
         <f t="shared" si="2"/>
         <v>212</v>
@@ -7847,7 +8004,7 @@
         <v>37.374245231273584</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" ht="12.75" customHeight="1">
       <c r="A215" s="18">
         <f t="shared" si="2"/>
         <v>213</v>
@@ -7863,7 +8020,7 @@
         <v>37.342629053615028</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" ht="12.75" customHeight="1">
       <c r="A216" s="18">
         <f t="shared" si="2"/>
         <v>214</v>
@@ -7879,7 +8036,7 @@
         <v>37.309205555841125</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" ht="12.75" customHeight="1">
       <c r="A217" s="18">
         <f t="shared" si="2"/>
         <v>215</v>
@@ -7895,7 +8052,7 @@
         <v>37.27981390102326</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" ht="12.75" customHeight="1">
       <c r="A218" s="18">
         <f t="shared" si="2"/>
         <v>216</v>
@@ -7911,7 +8068,7 @@
         <v>37.247685133657413</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" ht="12.75" customHeight="1">
       <c r="A219" s="18">
         <f t="shared" si="2"/>
         <v>217</v>
@@ -7927,7 +8084,7 @@
         <v>37.218433126682037</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" ht="12.75" customHeight="1">
       <c r="A220" s="18">
         <f t="shared" si="2"/>
         <v>218</v>
@@ -7943,7 +8100,7 @@
         <v>37.189770586238538</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" ht="12.75" customHeight="1">
       <c r="A221" s="18">
         <f t="shared" si="2"/>
         <v>219</v>
@@ -7959,7 +8116,7 @@
         <v>37.161232823424669</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" ht="12.75" customHeight="1">
       <c r="A222" s="18">
         <f t="shared" si="2"/>
         <v>220</v>
@@ -7975,7 +8132,7 @@
         <v>37.130772670045459</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" ht="12.75" customHeight="1">
       <c r="A223" s="18">
         <f t="shared" si="2"/>
         <v>221</v>
@@ -7991,7 +8148,7 @@
         <v>37.098913970859734</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" ht="12.75" customHeight="1">
       <c r="A224" s="18">
         <f t="shared" si="2"/>
         <v>222</v>
@@ -8007,7 +8164,7 @@
         <v>37.065180126891896</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" ht="12.75" customHeight="1">
       <c r="A225" s="18">
         <f t="shared" si="2"/>
         <v>223</v>
@@ -8023,7 +8180,7 @@
         <v>37.026053759282519</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" ht="12.75" customHeight="1">
       <c r="A226" s="18">
         <f t="shared" si="2"/>
         <v>224</v>
@@ -8039,7 +8196,7 @@
         <v>36.984464229464287</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" ht="12.75" customHeight="1">
       <c r="A227" s="18">
         <f t="shared" si="2"/>
         <v>225</v>
@@ -8055,7 +8212,7 @@
         <v>36.94248883697778</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" ht="12.75" customHeight="1">
       <c r="A228" s="18">
         <f t="shared" si="2"/>
         <v>226</v>
@@ -8071,7 +8228,7 @@
         <v>36.903849501769912</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" ht="12.75" customHeight="1">
       <c r="A229" s="18">
         <f t="shared" si="2"/>
         <v>227</v>
@@ -8087,7 +8244,7 @@
         <v>36.866607877356834</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" ht="12.75" customHeight="1">
       <c r="A230" s="18">
         <f t="shared" si="2"/>
         <v>228</v>
@@ -8103,7 +8260,7 @@
         <v>36.825438542543864</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" ht="12.75" customHeight="1">
       <c r="A231" s="18">
         <f t="shared" si="2"/>
         <v>229</v>
@@ -8119,7 +8276,7 @@
         <v>36.780523967772936</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" ht="12.75" customHeight="1">
       <c r="A232" s="18">
         <f t="shared" si="2"/>
         <v>230</v>
@@ -8135,7 +8292,7 @@
         <v>36.740956473608705</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" ht="12.75" customHeight="1">
       <c r="A233" s="18">
         <f t="shared" si="2"/>
         <v>231</v>
@@ -8151,7 +8308,7 @@
         <v>36.704978308398275</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" ht="12.75" customHeight="1">
       <c r="A234" s="18">
         <f t="shared" si="2"/>
         <v>232</v>
@@ -8167,7 +8324,7 @@
         <v>36.66892236806035</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" ht="12.75" customHeight="1">
       <c r="A235" s="18">
         <f t="shared" si="2"/>
         <v>233</v>
@@ -8183,7 +8340,7 @@
         <v>36.633948454291847</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" ht="12.75" customHeight="1">
       <c r="A236" s="18">
         <f t="shared" si="2"/>
         <v>234</v>
@@ -8199,7 +8356,7 @@
         <v>36.598119614743588</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" ht="12.75" customHeight="1">
       <c r="A237" s="18">
         <f t="shared" si="2"/>
         <v>235</v>
@@ -8215,7 +8372,7 @@
         <v>36.563361660255318</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" ht="12.75" customHeight="1">
       <c r="A238" s="18">
         <f t="shared" si="2"/>
         <v>236</v>
@@ -8231,7 +8388,7 @@
         <v>36.528262673093217</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" ht="12.75" customHeight="1">
       <c r="A239" s="18">
         <f t="shared" si="2"/>
         <v>237</v>
@@ -8247,7 +8404,7 @@
         <v>36.490632875358649</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" ht="12.75" customHeight="1">
       <c r="A240" s="18">
         <f t="shared" si="2"/>
         <v>238</v>
@@ -8263,7 +8420,7 @@
         <v>36.451512570462185</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" ht="12.75" customHeight="1">
       <c r="A241" s="18">
         <f t="shared" si="2"/>
         <v>239</v>
@@ -8279,7 +8436,7 @@
         <v>36.412008334728036</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" ht="12.75" customHeight="1">
       <c r="A242" s="18">
         <f t="shared" si="2"/>
         <v>240</v>
@@ -8295,7 +8452,7 @@
         <v>36.376874964750002</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" ht="12.75" customHeight="1">
       <c r="A243" s="18">
         <f t="shared" si="2"/>
         <v>241</v>
@@ -8311,7 +8468,7 @@
         <v>36.340622369004151</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" ht="12.75" customHeight="1">
       <c r="A244" s="18">
         <f t="shared" si="2"/>
         <v>242</v>
@@ -8327,7 +8484,7 @@
         <v>36.305495830909088</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" ht="12.75" customHeight="1">
       <c r="A245" s="18">
         <f t="shared" si="2"/>
         <v>243</v>
@@ -8343,7 +8500,7 @@
         <v>36.269876504938274</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" ht="12.75" customHeight="1">
       <c r="A246" s="18">
         <f t="shared" si="2"/>
         <v>244</v>
@@ -8359,7 +8516,7 @@
         <v>36.232704883032788</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" ht="12.75" customHeight="1">
       <c r="A247" s="18">
         <f t="shared" si="2"/>
         <v>245</v>
@@ -8375,7 +8532,7 @@
         <v>36.195714251183674</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" ht="12.75" customHeight="1">
       <c r="A248" s="18">
         <f t="shared" si="2"/>
         <v>246</v>
@@ -8391,7 +8548,7 @@
         <v>36.154715415243899</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" ht="12.75" customHeight="1">
       <c r="A249" s="18">
         <f t="shared" si="2"/>
         <v>247</v>
@@ -8407,7 +8564,7 @@
         <v>36.116113331943318</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" ht="12.75" customHeight="1">
       <c r="A250" s="18">
         <f t="shared" si="2"/>
         <v>248</v>
@@ -8423,7 +8580,7 @@
         <v>36.076048360080641</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" ht="12.75" customHeight="1">
       <c r="A251" s="18">
         <f t="shared" si="2"/>
         <v>249</v>
@@ -8439,7 +8596,7 @@
         <v>36.036947764859427</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" ht="12.75" customHeight="1">
       <c r="A252" s="18">
         <f t="shared" si="2"/>
         <v>250</v>
@@ -8455,7 +8612,7 @@
         <v>35.997639970119991</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" ht="12.75" customHeight="1">
       <c r="A253" s="18">
         <f t="shared" si="2"/>
         <v>251</v>
@@ -8471,7 +8628,7 @@
         <v>35.959402359163342</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" ht="12.75" customHeight="1">
       <c r="A254" s="18">
         <f t="shared" si="2"/>
         <v>252</v>
@@ -8487,7 +8644,7 @@
         <v>35.920357115039671</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" ht="12.75" customHeight="1">
       <c r="A255" s="18">
         <f t="shared" si="2"/>
         <v>253</v>
@@ -8503,7 +8660,7 @@
         <v>35.879051352964417</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" ht="12.75" customHeight="1">
       <c r="A256" s="18">
         <f t="shared" si="2"/>
         <v>254</v>
@@ -8519,7 +8676,7 @@
         <v>35.835787368858256</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" ht="12.75" customHeight="1">
       <c r="A257" s="18">
         <f t="shared" si="2"/>
         <v>255</v>
@@ -8535,7 +8692,7 @@
         <v>35.792862710117632</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" ht="12.75" customHeight="1">
       <c r="A258" s="18">
         <f t="shared" si="2"/>
         <v>256</v>
@@ -8551,7 +8708,7 @@
         <v>35.744648405624986</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" ht="12.75" customHeight="1">
       <c r="A259" s="18">
         <f t="shared" si="2"/>
         <v>257</v>
@@ -8567,7 +8724,7 @@
         <v>35.69571981291827</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" ht="12.75" customHeight="1">
       <c r="A260" s="18">
         <f t="shared" si="2"/>
         <v>258</v>
@@ -8583,7 +8740,7 @@
         <v>35.651472839573628</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" ht="12.75" customHeight="1">
       <c r="A261" s="18">
         <f t="shared" si="2"/>
         <v>259</v>
@@ -8599,7 +8756,7 @@
         <v>35.606949781660212</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" ht="12.75" customHeight="1">
       <c r="A262" s="18">
         <f t="shared" si="2"/>
         <v>260</v>
@@ -8615,7 +8772,7 @@
         <v>35.566653817730753</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" ht="12.75" customHeight="1">
       <c r="A263" s="18">
         <f t="shared" si="2"/>
         <v>261</v>
@@ -8631,7 +8788,7 @@
         <v>35.519386943103434</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" ht="12.75" customHeight="1">
       <c r="A264" s="18">
         <f t="shared" si="2"/>
         <v>262</v>
@@ -8647,7 +8804,7 @@
         <v>35.470534318549603</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" ht="12.75" customHeight="1">
       <c r="A265" s="18">
         <f t="shared" si="2"/>
         <v>263</v>
@@ -8663,7 +8820,7 @@
         <v>35.421064602813672</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" ht="12.75" customHeight="1">
       <c r="A266" s="18">
         <f t="shared" si="2"/>
         <v>264</v>
@@ -8679,7 +8836,7 @@
         <v>35.373181784962107</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" ht="12.75" customHeight="1">
       <c r="A267" s="18">
         <f t="shared" si="2"/>
         <v>265</v>
@@ -8695,7 +8852,7 @@
         <v>35.328188649018855</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" ht="12.75" customHeight="1">
       <c r="A268" s="18">
         <f t="shared" si="2"/>
         <v>266</v>
@@ -8711,7 +8868,7 @@
         <v>35.283233055751865</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" ht="12.75" customHeight="1">
       <c r="A269" s="18">
         <f t="shared" si="2"/>
         <v>267</v>
@@ -8727,7 +8884,7 @@
         <v>35.239288359812718</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" ht="12.75" customHeight="1">
       <c r="A270" s="18">
         <f t="shared" si="2"/>
         <v>268</v>
@@ -8743,7 +8900,7 @@
         <v>35.194701466380579</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" ht="12.75" customHeight="1">
       <c r="A271" s="18">
         <f t="shared" si="2"/>
         <v>269</v>
@@ -8759,7 +8916,7 @@
         <v>35.152081756617086</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" ht="12.75" customHeight="1">
       <c r="A272" s="18">
         <f t="shared" si="2"/>
         <v>270</v>
@@ -8775,7 +8932,7 @@
         <v>35.109703672629614</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" ht="12.75" customHeight="1">
       <c r="A273" s="18">
         <f t="shared" si="2"/>
         <v>271</v>
@@ -8791,7 +8948,7 @@
         <v>35.067933551771205</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" ht="12.75" customHeight="1">
       <c r="A274" s="18">
         <f t="shared" si="2"/>
         <v>272</v>
@@ -8807,7 +8964,7 @@
         <v>35.027867619595575</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" ht="12.75" customHeight="1">
       <c r="A275" s="18">
         <f t="shared" si="2"/>
         <v>273</v>
@@ -8823,7 +8980,7 @@
         <v>34.987655647509143</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" ht="12.75" customHeight="1">
       <c r="A276" s="18">
         <f t="shared" si="2"/>
         <v>274</v>
@@ -8839,7 +8996,7 @@
         <v>34.944671499452539</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" ht="12.75" customHeight="1">
       <c r="A277" s="18">
         <f t="shared" si="2"/>
         <v>275</v>
@@ -8855,7 +9012,7 @@
         <v>34.902363601163621</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" ht="12.75" customHeight="1">
       <c r="A278" s="18">
         <f t="shared" si="2"/>
         <v>276</v>
@@ -8871,7 +9028,7 @@
         <v>34.860434747246366</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" ht="12.75" customHeight="1">
       <c r="A279" s="18">
         <f t="shared" si="2"/>
         <v>277</v>
@@ -8887,7 +9044,7 @@
         <v>34.818953036389878</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" ht="12.75" customHeight="1">
       <c r="A280" s="18">
         <f t="shared" si="2"/>
         <v>278</v>
@@ -8903,7 +9060,7 @@
         <v>34.778740972913653</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" ht="12.75" customHeight="1">
       <c r="A281" s="18">
         <f t="shared" si="2"/>
         <v>279</v>
@@ -8919,7 +9076,7 @@
         <v>34.740573439534039</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" ht="12.75" customHeight="1">
       <c r="A282" s="18">
         <f t="shared" si="2"/>
         <v>280</v>
@@ -8935,7 +9092,7 @@
         <v>34.703321389642845</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" ht="12.75" customHeight="1">
       <c r="A283" s="18">
         <f t="shared" si="2"/>
         <v>281</v>
@@ -8951,7 +9108,7 @@
         <v>34.66704622537366</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" ht="12.75" customHeight="1">
       <c r="A284" s="18">
         <f t="shared" si="2"/>
         <v>282</v>
@@ -8967,7 +9124,7 @@
         <v>34.633936132092195</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" ht="12.75" customHeight="1">
       <c r="A285" s="18">
         <f t="shared" si="2"/>
         <v>283</v>
@@ -8983,7 +9140,7 @@
         <v>34.60084802017667</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" ht="12.75" customHeight="1">
       <c r="A286" s="18">
         <f t="shared" si="2"/>
         <v>284</v>
@@ -8999,7 +9156,7 @@
         <v>34.568661932359149</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" ht="12.75" customHeight="1">
       <c r="A287" s="18">
         <f t="shared" si="2"/>
         <v>285</v>
@@ -9015,7 +9172,7 @@
         <v>34.534210486982445</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" ht="12.75" customHeight="1">
       <c r="A288" s="18">
         <f t="shared" si="2"/>
         <v>286</v>
@@ -9031,7 +9188,7 @@
         <v>34.502202755069924</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" ht="12.75" customHeight="1">
       <c r="A289" s="18">
         <f t="shared" si="2"/>
         <v>287</v>
@@ -9047,7 +9204,7 @@
         <v>34.441742116968634</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" ht="12.75" customHeight="1">
       <c r="A290" s="18">
         <f t="shared" si="2"/>
         <v>288</v>
@@ -9063,7 +9220,7 @@
         <v>34.411076347847221</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" ht="12.75" customHeight="1">
       <c r="A291" s="18">
         <f t="shared" si="2"/>
         <v>289</v>
@@ -9079,7 +9236,7 @@
         <v>34.381903071695504</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" ht="12.75" customHeight="1">
       <c r="A292" s="18">
         <f t="shared" si="2"/>
         <v>290</v>
@@ -9095,7 +9252,7 @@
         <v>34.352999957655172</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" ht="12.75" customHeight="1">
       <c r="A293" s="18">
         <f t="shared" si="2"/>
         <v>291</v>
@@ -9111,7 +9268,7 @@
         <v>34.326013703505154</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" ht="12.75" customHeight="1">
       <c r="A294" s="18">
         <f t="shared" si="2"/>
         <v>292</v>
@@ -9127,7 +9284,7 @@
         <v>34.300958862842464</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" ht="12.75" customHeight="1">
       <c r="A295" s="18">
         <f t="shared" si="2"/>
         <v>293</v>
@@ -9143,7 +9300,7 @@
         <v>34.276006784027302</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" ht="12.75" customHeight="1">
       <c r="A296" s="18">
         <f t="shared" si="2"/>
         <v>294</v>
@@ -9159,7 +9316,7 @@
         <v>34.249897918707482</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" ht="12.75" customHeight="1">
       <c r="A297" s="18">
         <f t="shared" si="2"/>
         <v>295</v>
@@ -9175,7 +9332,7 @@
         <v>34.226135552101695</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" ht="12.75" customHeight="1">
       <c r="A298" s="18">
         <f t="shared" si="2"/>
         <v>296</v>
@@ -9191,7 +9348,7 @@
         <v>34.204222931216215</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" ht="12.75" customHeight="1">
       <c r="A299" s="18">
         <f t="shared" si="2"/>
         <v>297</v>
@@ -9207,7 +9364,7 @@
         <v>34.18289558410774</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" ht="12.75" customHeight="1">
       <c r="A300" s="18">
         <f t="shared" si="2"/>
         <v>298</v>
@@ -9223,7 +9380,7 @@
         <v>34.162718082416099</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" ht="12.75" customHeight="1">
       <c r="A301" s="18">
         <f t="shared" si="2"/>
         <v>299</v>
@@ -9239,7 +9396,7 @@
         <v>34.140468189933102</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" ht="12.75" customHeight="1">
       <c r="A302" s="18">
         <f t="shared" si="2"/>
         <v>300</v>
@@ -9255,7 +9412,7 @@
         <v>34.119366627533324</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:4" ht="12.75" customHeight="1">
       <c r="A303" s="18">
         <f t="shared" si="2"/>
         <v>301</v>
@@ -9271,7 +9428,7 @@
         <v>34.097840490531553</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4" ht="12.75" customHeight="1">
       <c r="A304" s="18">
         <f t="shared" si="2"/>
         <v>302</v>
@@ -9287,7 +9444,7 @@
         <v>34.077913866125826</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4" ht="12.75" customHeight="1">
       <c r="A305" s="18">
         <f t="shared" si="2"/>
         <v>303</v>
@@ -9303,7 +9460,7 @@
         <v>34.057623722376235</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4" ht="12.75" customHeight="1">
       <c r="A306" s="18">
         <f t="shared" si="2"/>
         <v>304</v>
@@ -9319,7 +9476,7 @@
         <v>34.036743378157887</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4" ht="12.75" customHeight="1">
       <c r="A307" s="18">
         <f t="shared" si="2"/>
         <v>305</v>
@@ -9335,7 +9492,7 @@
         <v>34.0172130717377</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:4" ht="12.75" customHeight="1">
       <c r="A308" s="18">
         <f t="shared" si="2"/>
         <v>306</v>
@@ -9351,7 +9508,7 @@
         <v>33.997091462385619</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:4" ht="12.75" customHeight="1">
       <c r="A309" s="18">
         <f t="shared" si="2"/>
         <v>307</v>
@@ -9367,7 +9524,7 @@
         <v>33.975211687882734</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:4" ht="12.75" customHeight="1">
       <c r="A310" s="18">
         <f t="shared" si="2"/>
         <v>308</v>
@@ -9383,7 +9540,7 @@
         <v>33.951818144935061</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:4" ht="12.75" customHeight="1">
       <c r="A311" s="18">
         <f t="shared" si="2"/>
         <v>309</v>
@@ -9399,7 +9556,7 @@
         <v>33.929385077993516</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:4" ht="12.75" customHeight="1">
       <c r="A312" s="18">
         <f t="shared" si="2"/>
         <v>310</v>
@@ -9415,7 +9572,7 @@
         <v>33.90851609090322</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:4" ht="12.75" customHeight="1">
       <c r="A313" s="18">
         <f t="shared" si="2"/>
         <v>311</v>
@@ -9431,7 +9588,7 @@
         <v>33.886495137138255</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:4" ht="12.75" customHeight="1">
       <c r="A314" s="18">
         <f t="shared" si="2"/>
         <v>312</v>
@@ -9447,7 +9604,7 @@
         <v>33.865480729391024</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:4" ht="12.75" customHeight="1">
       <c r="A315" s="18">
         <f t="shared" si="2"/>
         <v>313</v>
@@ -9463,7 +9620,7 @@
         <v>33.843706028146961</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:4" ht="12.75" customHeight="1">
       <c r="A316" s="18">
         <f t="shared" si="2"/>
         <v>314</v>
@@ -9479,7 +9636,7 @@
         <v>33.822292954299357</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:4" ht="12.75" customHeight="1">
       <c r="A317" s="18">
         <f t="shared" si="2"/>
         <v>315</v>
@@ -9495,7 +9652,7 @@
         <v>33.800285673142845</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:4" ht="12.75" customHeight="1">
       <c r="A318" s="18">
         <f t="shared" si="2"/>
         <v>316</v>
@@ -9511,7 +9668,7 @@
         <v>33.778132867974676</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:4" ht="12.75" customHeight="1">
       <c r="A319" s="18">
         <f t="shared" si="2"/>
         <v>317</v>
@@ -9527,7 +9684,7 @@
         <v>33.755394277507875</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:4" ht="12.75" customHeight="1">
       <c r="A320" s="18">
         <f t="shared" si="2"/>
         <v>318</v>
@@ -9543,7 +9700,7 @@
         <v>33.733238946698101</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:4" ht="12.75" customHeight="1">
       <c r="A321" s="18">
         <f t="shared" si="2"/>
         <v>319</v>
@@ -9559,7 +9716,7 @@
         <v>33.710940394639486</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:4" ht="12.75" customHeight="1">
       <c r="A322" s="18">
         <f t="shared" si="2"/>
         <v>320</v>
@@ -9575,7 +9732,7 @@
         <v>33.689062453031241</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:4" ht="12.75" customHeight="1">
       <c r="A323" s="18">
         <f t="shared" si="2"/>
         <v>321</v>
@@ -9591,7 +9748,7 @@
         <v>33.666137024579427</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:4" ht="12.75" customHeight="1">
       <c r="A324" s="18">
         <f t="shared" si="2"/>
         <v>322</v>
@@ -9607,7 +9764,7 @@
         <v>33.645031011583839</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:4" ht="12.75" customHeight="1">
       <c r="A325" s="18">
         <f t="shared" si="2"/>
         <v>323</v>
@@ -9623,7 +9780,7 @@
         <v>33.622414816501539</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:4" ht="12.75" customHeight="1">
       <c r="A326" s="18">
         <f t="shared" si="2"/>
         <v>324</v>
@@ -9639,7 +9796,7 @@
         <v>33.59876538805554</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:4" ht="12.75" customHeight="1">
       <c r="A327" s="18">
         <f t="shared" si="2"/>
         <v>325</v>
@@ -9655,7 +9812,7 @@
         <v>33.575630725323066</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:4" ht="12.75" customHeight="1">
       <c r="A328" s="18">
         <f t="shared" si="2"/>
         <v>326</v>
@@ -9671,7 +9828,7 @@
         <v>33.55380363438649</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:4" ht="12.75" customHeight="1">
       <c r="A329" s="18">
         <f t="shared" si="2"/>
         <v>327</v>
@@ -9687,7 +9844,7 @@
         <v>33.532079466574906</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:4" ht="12.75" customHeight="1">
       <c r="A330" s="18">
         <f t="shared" si="2"/>
         <v>328</v>
@@ -9703,7 +9860,7 @@
         <v>33.510823125121938</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:4" ht="12.75" customHeight="1">
       <c r="A331" s="18">
         <f t="shared" si="2"/>
         <v>329</v>
@@ -9719,7 +9876,7 @@
         <v>33.4886017805471</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:4" ht="12.75" customHeight="1">
       <c r="A332" s="18">
         <f t="shared" si="2"/>
         <v>330</v>
@@ -9735,7 +9892,7 @@
         <v>33.468363593333315</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:4" ht="12.75" customHeight="1">
       <c r="A333" s="18">
         <f t="shared" si="2"/>
         <v>331</v>
@@ -9751,7 +9908,7 @@
         <v>33.447673675649533</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:4" ht="12.75" customHeight="1">
       <c r="A334" s="18">
         <f t="shared" si="2"/>
         <v>332</v>
@@ -9767,7 +9924,7 @@
         <v>33.427379475060221</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:4" ht="12.75" customHeight="1">
       <c r="A335" s="18">
         <f t="shared" si="2"/>
         <v>333</v>
@@ -9783,7 +9940,7 @@
         <v>33.407237192282267</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:4" ht="12.75" customHeight="1">
       <c r="A336" s="18">
         <f t="shared" si="2"/>
         <v>334</v>
@@ -9799,7 +9956,7 @@
         <v>33.388532888862258</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:4" ht="12.75" customHeight="1">
       <c r="A337" s="18">
         <f t="shared" si="2"/>
         <v>335</v>
@@ -9815,7 +9972,7 @@
         <v>33.36955219573133</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:4" ht="12.75" customHeight="1">
       <c r="A338" s="18">
         <f t="shared" si="2"/>
         <v>336</v>
@@ -9831,7 +9988,7 @@
         <v>33.34928566976189</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:4" ht="12.75" customHeight="1">
       <c r="A339" s="18">
         <f t="shared" si="2"/>
         <v>337</v>
@@ -9847,7 +10004,7 @@
         <v>33.330356036646869</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:4" ht="12.75" customHeight="1">
       <c r="A340" s="18">
         <f t="shared" si="2"/>
         <v>338</v>
@@ -9863,7 +10020,7 @@
         <v>33.311212973254428</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:4" ht="12.75" customHeight="1">
       <c r="A341" s="18">
         <f t="shared" si="2"/>
         <v>339</v>
@@ -9879,7 +10036,7 @@
         <v>33.289498482949838</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:4" ht="12.75" customHeight="1">
       <c r="A342" s="18">
         <f t="shared" si="2"/>
         <v>340</v>
@@ -9895,7 +10052,7 @@
         <v>33.267764662764691</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:4" ht="12.75" customHeight="1">
       <c r="A343" s="18">
         <f t="shared" si="2"/>
         <v>341</v>
@@ -9911,7 +10068,7 @@
         <v>33.245806410645152</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:4" ht="12.75" customHeight="1">
       <c r="A344" s="18">
         <f t="shared" si="2"/>
         <v>342</v>
@@ -9927,7 +10084,7 @@
         <v>33.223508733537997</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:4" ht="12.75" customHeight="1">
       <c r="A345" s="18">
         <f t="shared" si="2"/>
         <v>343</v>
@@ -9943,7 +10100,7 @@
         <v>33.200932904985407</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:4" ht="12.75" customHeight="1">
       <c r="A346" s="18">
         <f t="shared" si="2"/>
         <v>344</v>
@@ -9959,7 +10116,7 @@
         <v>33.177616240465106</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:4">
       <c r="A347" s="18">
         <f t="shared" si="2"/>
         <v>345</v>
@@ -9975,7 +10132,7 @@
         <v>33.152985469652158</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:4">
       <c r="A348" s="18">
         <f t="shared" si="2"/>
         <v>346</v>
@@ -9991,7 +10148,7 @@
         <v>33.128364413381483</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:4">
       <c r="A349" s="18">
         <f t="shared" si="2"/>
         <v>347</v>
@@ -10007,7 +10164,7 @@
         <v>33.103412352564824</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:4">
       <c r="A350" s="18">
         <f t="shared" si="2"/>
         <v>348</v>
@@ -10023,7 +10180,7 @@
         <v>33.078804848448264</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:4">
       <c r="A351" s="18">
         <f t="shared" si="2"/>
         <v>349</v>
@@ -10039,7 +10196,7 @@
         <v>33.055026039971331</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:4">
       <c r="A352" s="18">
         <f t="shared" si="2"/>
         <v>350</v>
@@ -10055,7 +10212,7 @@
         <v>33.030411681371412</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:4">
       <c r="A353" s="18">
         <f t="shared" si="2"/>
         <v>351</v>
@@ -10071,7 +10228,7 @@
         <v>33.006878029857532</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:4">
       <c r="A354" s="18">
         <f t="shared" si="2"/>
         <v>352</v>
@@ -10087,7 +10244,7 @@
         <v>32.983932353636348</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:4">
       <c r="A355" s="18">
         <f t="shared" si="2"/>
         <v>353</v>
@@ -10103,9 +10260,9 @@
         <v>32.959955208158625</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:4">
       <c r="A356" s="18">
-        <f t="shared" ref="A356:A485" si="3">A355+1</f>
+        <f t="shared" ref="A356:A486" si="3">A355+1</f>
         <v>354</v>
       </c>
       <c r="B356" s="19" t="s">
@@ -10119,7 +10276,7 @@
         <v>32.934475108700553</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:4">
       <c r="A357" s="18">
         <f t="shared" si="3"/>
         <v>355</v>
@@ -10135,7 +10292,7 @@
         <v>32.90789912247886</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:4">
       <c r="A358" s="18">
         <f t="shared" si="3"/>
         <v>356</v>
@@ -10151,7 +10308,7 @@
         <v>32.881472439550549</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:4">
       <c r="A359" s="18">
         <f t="shared" si="3"/>
         <v>357</v>
@@ -10167,7 +10324,7 @@
         <v>32.85519380526609</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:4">
       <c r="A360" s="18">
         <f t="shared" si="3"/>
         <v>358</v>
@@ -10183,7 +10340,7 @@
         <v>32.8285871186592</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:4">
       <c r="A361" s="18">
         <f t="shared" si="3"/>
         <v>359</v>
@@ -10199,7 +10356,7 @@
         <v>32.801348714428954</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:4">
       <c r="A362" s="18">
         <f t="shared" si="3"/>
         <v>360</v>
@@ -10215,7 +10372,7 @@
         <v>32.773872745777759</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:4">
       <c r="A363" s="18">
         <f t="shared" si="3"/>
         <v>361</v>
@@ -10231,7 +10388,7 @@
         <v>32.746798306038762</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:4">
       <c r="A364" s="18">
         <f t="shared" si="3"/>
         <v>362</v>
@@ -10247,7 +10404,7 @@
         <v>32.721144167071806</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:4">
       <c r="A365" s="18">
         <f t="shared" si="3"/>
         <v>363</v>
@@ -10263,7 +10420,7 @@
         <v>32.694171318126706</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:4">
       <c r="A366" s="18">
         <f t="shared" si="3"/>
         <v>364</v>
@@ -10279,7 +10436,7 @@
         <v>32.66762139881866</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:4">
       <c r="A367" s="18">
         <f t="shared" si="3"/>
         <v>365</v>
@@ -10295,7 +10452,7 @@
         <v>32.640066271698615</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:4">
       <c r="A368" s="18">
         <f t="shared" si="3"/>
         <v>366</v>
@@ -10311,7 +10468,7 @@
         <v>32.611104344508178</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:4">
       <c r="A369" s="18">
         <f t="shared" si="3"/>
         <v>367</v>
@@ -10327,7 +10484,7 @@
         <v>32.582845203978181</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:4">
       <c r="A370" s="18">
         <f t="shared" si="3"/>
         <v>368</v>
@@ -10343,7 +10500,7 @@
         <v>32.556587472663026</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:4">
       <c r="A371" s="18">
         <f t="shared" si="3"/>
         <v>369</v>
@@ -10359,7 +10516,7 @@
         <v>32.530282358590767</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:4">
       <c r="A372" s="18">
         <f t="shared" si="3"/>
         <v>370</v>
@@ -10375,7 +10532,7 @@
         <v>32.506281594432416</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:4">
       <c r="A373" s="18">
         <f t="shared" si="3"/>
         <v>371</v>
@@ -10391,7 +10548,7 @@
         <v>32.482598892857126</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:4">
       <c r="A374" s="18">
         <f t="shared" si="3"/>
         <v>372</v>
@@ -10407,7 +10564,7 @@
         <v>32.459392982876324</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:4">
       <c r="A375" s="18">
         <f t="shared" si="3"/>
         <v>373</v>
@@ -10423,7 +10580,7 @@
         <v>32.435614449812313</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:4">
       <c r="A376" s="18">
         <f t="shared" si="3"/>
         <v>374</v>
@@ -10439,7 +10596,7 @@
         <v>32.411455051871634</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:4">
       <c r="A377" s="18">
         <f t="shared" si="3"/>
         <v>375</v>
@@ -10455,7 +10612,7 @@
         <v>32.387264505466646</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:4">
       <c r="A378" s="18">
         <f t="shared" si="3"/>
         <v>376</v>
@@ -10471,7 +10628,7 @@
         <v>32.361846248590403</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:4">
       <c r="A379" s="18">
         <f t="shared" si="3"/>
         <v>377</v>
@@ -10487,7 +10644,7 @@
         <v>32.336324109389899</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:4">
       <c r="A380" s="18">
         <f t="shared" si="3"/>
         <v>378</v>
@@ -10503,7 +10660,7 @@
         <v>32.312101030555532</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:4">
       <c r="A381" s="18">
         <f t="shared" si="3"/>
         <v>379</v>
@@ -10519,7 +10676,7 @@
         <v>32.287425299815283</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:4">
       <c r="A382" s="18">
         <f t="shared" si="3"/>
         <v>380</v>
@@ -10535,7 +10692,7 @@
         <v>32.260721547421028</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:4">
       <c r="A383" s="18">
         <f t="shared" si="3"/>
         <v>381</v>
@@ -10551,7 +10708,7 @@
         <v>32.234420440393677</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:4">
       <c r="A384" s="18">
         <f t="shared" si="3"/>
         <v>382</v>
@@ -10567,7 +10724,7 @@
         <v>32.208335571335049</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:4">
       <c r="A385" s="18">
         <f t="shared" si="3"/>
         <v>383</v>
@@ -10583,7 +10740,7 @@
         <v>32.183248534281958</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:4">
       <c r="A386" s="18">
         <f t="shared" si="3"/>
         <v>384</v>
@@ -10599,7 +10756,7 @@
         <v>32.157979656692682</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:4">
       <c r="A387" s="18">
         <f t="shared" si="3"/>
         <v>385</v>
@@ -10615,7 +10772,7 @@
         <v>32.134712179038935</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:4">
       <c r="A388" s="18">
         <f t="shared" si="3"/>
         <v>386</v>
@@ -10631,7 +10788,7 @@
         <v>32.111539350932617</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:4">
       <c r="A389" s="18">
         <f t="shared" si="3"/>
         <v>387</v>
@@ -10647,7 +10804,7 @@
         <v>32.088072842764831</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:4">
       <c r="A390" s="18">
         <f t="shared" si="3"/>
         <v>388</v>
@@ -10663,7 +10820,7 @@
         <v>32.064031418505131</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:4">
       <c r="A391" s="18">
         <f t="shared" si="3"/>
         <v>389</v>
@@ -10679,7 +10836,7 @@
         <v>32.038982493753188</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:4">
       <c r="A392" s="18">
         <f t="shared" si="3"/>
         <v>390</v>
@@ -10695,7 +10852,7 @@
         <v>32.015472284384586</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:4">
       <c r="A393" s="18">
         <f t="shared" si="3"/>
         <v>391</v>
@@ -10711,7 +10868,7 @@
         <v>31.992133479028105</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:4">
       <c r="A394" s="18">
         <f t="shared" si="3"/>
         <v>392</v>
@@ -10727,7 +10884,7 @@
         <v>31.970342324132627</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:4">
       <c r="A395" s="18">
         <f t="shared" si="3"/>
         <v>393</v>
@@ -10743,7 +10900,7 @@
         <v>31.947847812264605</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:4">
       <c r="A396" s="18">
         <f t="shared" si="3"/>
         <v>394</v>
@@ -10759,7 +10916,7 @@
         <v>31.925162919923835</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:4">
       <c r="A397" s="18">
         <f t="shared" si="3"/>
         <v>395</v>
@@ -10775,7 +10932,7 @@
         <v>31.902643521873394</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:4">
       <c r="A398" s="18">
         <f t="shared" si="3"/>
         <v>396</v>
@@ -10791,7 +10948,7 @@
         <v>31.880162098838358</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:4">
       <c r="A399" s="18">
         <f t="shared" si="3"/>
         <v>397</v>
@@ -10807,7 +10964,7 @@
         <v>31.856912319294686</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:4">
       <c r="A400" s="18">
         <f t="shared" si="3"/>
         <v>398</v>
@@ -10823,7 +10980,7 @@
         <v>31.833502994170832</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:4">
       <c r="A401" s="18">
         <f t="shared" si="3"/>
         <v>399</v>
@@ -10839,7 +10996,7 @@
         <v>31.810135819323285</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:4">
       <c r="A402" s="18">
         <f t="shared" si="3"/>
         <v>400</v>
@@ -10855,7 +11012,7 @@
         <v>31.786510481299977</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:4">
       <c r="A403" s="18">
         <f t="shared" si="3"/>
         <v>401</v>
@@ -10871,7 +11028,7 @@
         <v>31.762603973266813</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:4">
       <c r="A404" s="18">
         <f t="shared" si="3"/>
         <v>402</v>
@@ -10887,7 +11044,7 @@
         <v>31.740060184179082</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:4">
       <c r="A405" s="18">
         <f t="shared" si="3"/>
         <v>403</v>
@@ -10903,7 +11060,7 @@
         <v>31.717901224590552</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:4">
       <c r="A406" s="18">
         <f t="shared" si="3"/>
         <v>404</v>
@@ -10919,7 +11076,7 @@
         <v>31.696743053440571</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:4">
       <c r="A407" s="18">
         <f t="shared" si="3"/>
         <v>405</v>
@@ -10935,7 +11092,7 @@
         <v>31.675343689580224</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:4">
       <c r="A408" s="18">
         <f t="shared" si="3"/>
         <v>406</v>
@@ -10951,7 +11108,7 @@
         <v>31.654517718201948</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:4">
       <c r="A409" s="18">
         <f t="shared" si="3"/>
         <v>407</v>
@@ -10967,7 +11124,7 @@
         <v>31.634383765773933</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:4">
       <c r="A410" s="18">
         <f t="shared" si="3"/>
         <v>408</v>
@@ -10983,7 +11140,7 @@
         <v>31.614814196789194</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:4">
       <c r="A411" s="18">
         <f t="shared" si="3"/>
         <v>409</v>
@@ -10999,7 +11156,7 @@
         <v>31.595291421638123</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:4">
       <c r="A412" s="18">
         <f t="shared" si="3"/>
         <v>410</v>
@@ -11015,7 +11172,7 @@
         <v>31.576376077073149</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:4">
       <c r="A413" s="18">
         <f t="shared" si="3"/>
         <v>411</v>
@@ -11031,7 +11188,7 @@
         <v>31.556968836934285</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:4">
       <c r="A414" s="18">
         <f t="shared" si="3"/>
         <v>412</v>
@@ -11047,7 +11204,7 @@
         <v>31.537000465776678</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:4">
       <c r="A415" s="18">
         <f t="shared" si="3"/>
         <v>413</v>
@@ -11063,7 +11220,7 @@
         <v>31.51698351661015</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:4">
       <c r="A416" s="18">
         <f t="shared" si="3"/>
         <v>414</v>
@@ -11079,7 +11236,7 @@
         <v>31.497618822125581</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:4">
       <c r="A417" s="18">
         <f t="shared" si="3"/>
         <v>415</v>
@@ -11095,7 +11252,7 @@
         <v>31.477986006602389</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:4">
       <c r="A418" s="18">
         <f t="shared" si="3"/>
         <v>416</v>
@@ -11111,7 +11268,7 @@
         <v>31.457798540048056</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:4">
       <c r="A419" s="18">
         <f t="shared" si="3"/>
         <v>417</v>
@@ -11127,7 +11284,7 @@
         <v>31.436820603693025</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:4">
       <c r="A420" s="18">
         <f t="shared" si="3"/>
         <v>418</v>
@@ -11143,7 +11300,7 @@
         <v>31.415703809449742</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:4">
       <c r="A421" s="18">
         <f t="shared" si="3"/>
         <v>419</v>
@@ -11159,7 +11316,7 @@
         <v>31.394544609999983</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:4">
       <c r="A422" s="18">
         <f t="shared" si="3"/>
         <v>420</v>
@@ -11175,7 +11332,7 @@
         <v>31.373248077023792</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:4">
       <c r="A423" s="18">
         <f t="shared" si="3"/>
         <v>421</v>
@@ -11191,7 +11348,7 @@
         <v>31.352860316555802</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:4">
       <c r="A424" s="18">
         <f t="shared" si="3"/>
         <v>422</v>
@@ -11207,7 +11364,7 @@
         <v>31.333066808696664</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:4">
       <c r="A425" s="18">
         <f t="shared" si="3"/>
         <v>423</v>
@@ -11223,7 +11380,7 @@
         <v>31.312728588203292</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:4">
       <c r="A426" s="18">
         <f t="shared" si="3"/>
         <v>424</v>
@@ -11239,7 +11396,7 @@
         <v>31.292557059056588</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:4">
       <c r="A427" s="18">
         <f t="shared" si="3"/>
         <v>425</v>
@@ -11255,7 +11412,7 @@
         <v>31.272433394847042</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:4">
       <c r="A428" s="18">
         <f t="shared" si="3"/>
         <v>426</v>
@@ -11271,7 +11428,7 @@
         <v>31.252615475892004</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:4">
       <c r="A429" s="18">
         <f t="shared" si="3"/>
         <v>427</v>
@@ -11287,7 +11444,7 @@
         <v>31.234248694566734</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:4">
       <c r="A430" s="18">
         <f t="shared" si="3"/>
         <v>428</v>
@@ -11303,7 +11460,7 @@
         <v>31.216178020046716</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:4">
       <c r="A431" s="18">
         <f t="shared" si="3"/>
         <v>429</v>
@@ -11319,7 +11476,7 @@
         <v>31.198378071095561</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:4">
       <c r="A432" s="18">
         <f t="shared" si="3"/>
         <v>430</v>
@@ -11335,7 +11492,7 @@
         <v>31.181219051604643</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:4">
       <c r="A433" s="18">
         <f t="shared" si="3"/>
         <v>431</v>
@@ -11351,7 +11508,7 @@
         <v>31.163745224617159</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:4">
       <c r="A434" s="18">
         <f t="shared" si="3"/>
         <v>432</v>
@@ -11367,7 +11524,7 @@
         <v>31.146653223379619</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:4">
       <c r="A435" s="18">
         <f t="shared" si="3"/>
         <v>433</v>
@@ -11383,7 +11540,7 @@
         <v>31.13037919833717</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:4">
       <c r="A436" s="18">
         <f t="shared" si="3"/>
         <v>434</v>
@@ -11399,7 +11556,7 @@
         <v>31.114986621290313</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:4">
       <c r="A437" s="18">
         <f t="shared" si="3"/>
         <v>435</v>
@@ -11415,7 +11572,7 @@
         <v>31.099825733563208</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:4">
       <c r="A438" s="18">
         <f t="shared" si="3"/>
         <v>436</v>
@@ -11431,7 +11588,7 @@
         <v>31.084757327499986</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:4">
       <c r="A439" s="18">
         <f t="shared" si="3"/>
         <v>437</v>
@@ -11447,7 +11604,7 @@
         <v>31.0702384314874</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:4">
       <c r="A440" s="18">
         <f t="shared" si="3"/>
         <v>438</v>
@@ -11463,7 +11620,7 @@
         <v>31.055991311598159</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:4">
       <c r="A441" s="18">
         <f t="shared" si="3"/>
         <v>439</v>
@@ -11479,7 +11636,7 @@
         <v>31.042583586697024</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:4">
       <c r="A442" s="18">
         <f t="shared" si="3"/>
         <v>440</v>
@@ -11495,7 +11652,7 @@
         <v>31.028623168590894</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:4">
       <c r="A443" s="18">
         <f t="shared" si="3"/>
         <v>441</v>
@@ -11511,7 +11668,7 @@
         <v>31.014726063038534</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:4">
       <c r="A444" s="18">
         <f t="shared" si="3"/>
         <v>442</v>
@@ -11527,7 +11684,7 @@
         <v>31.001661071425325</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:4">
       <c r="A445" s="18">
         <f t="shared" si="3"/>
         <v>443</v>
@@ -11543,7 +11700,7 @@
         <v>30.988406755598181</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:4">
       <c r="A446" s="18">
         <f t="shared" si="3"/>
         <v>444</v>
@@ -11559,7 +11716,7 @@
         <v>30.974761696036023</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:4">
       <c r="A447" s="18">
         <f t="shared" si="3"/>
         <v>445</v>
@@ -11575,7 +11732,7 @@
         <v>30.960436389707851</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:4">
       <c r="A448" s="18">
         <f t="shared" si="3"/>
         <v>446</v>
@@ -11591,7 +11748,7 @@
         <v>30.94619774446187</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:4">
       <c r="A449" s="18">
         <f t="shared" si="3"/>
         <v>447</v>
@@ -11607,7 +11764,7 @@
         <v>30.931776720425042</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:4">
       <c r="A450" s="18">
         <f t="shared" si="3"/>
         <v>448</v>
@@ -11623,7 +11780,7 @@
         <v>30.918245970691949</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:4">
       <c r="A451" s="18">
         <f t="shared" si="3"/>
         <v>449</v>
@@ -11639,7 +11796,7 @@
         <v>30.904263238886397</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:4">
       <c r="A452" s="18">
         <f t="shared" si="3"/>
         <v>450</v>
@@ -11655,7 +11812,7 @@
         <v>30.890875985377765</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:4">
       <c r="A453" s="18">
         <f t="shared" si="3"/>
         <v>451</v>
@@ -11671,7 +11828,7 @@
         <v>30.87739288889134</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:4">
       <c r="A454" s="18">
         <f t="shared" si="3"/>
         <v>452</v>
@@ -11687,7 +11844,7 @@
         <v>30.86381458553096</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:4">
       <c r="A455" s="18">
         <f t="shared" si="3"/>
         <v>453</v>
@@ -11703,7 +11860,7 @@
         <v>30.849744354150097</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:4">
       <c r="A456" s="18">
         <f t="shared" si="3"/>
         <v>454</v>
@@ -11719,7 +11876,7 @@
         <v>30.834546681035228</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:4">
       <c r="A457" s="18">
         <f t="shared" si="3"/>
         <v>455</v>
@@ -11735,7 +11892,7 @@
         <v>30.820426797890097</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:4">
       <c r="A458" s="18">
         <f t="shared" si="3"/>
         <v>456</v>
@@ -11751,7 +11908,7 @@
         <v>30.806346913728056</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:4">
       <c r="A459" s="18">
         <f t="shared" si="3"/>
         <v>457</v>
@@ -11767,7 +11924,7 @@
         <v>30.791891014048126</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:4">
       <c r="A460" s="18">
         <f t="shared" si="3"/>
         <v>458</v>
@@ -11783,7 +11940,7 @@
         <v>30.777563740087324</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:4">
       <c r="A461" s="18">
         <f t="shared" si="3"/>
         <v>459</v>
@@ -11799,7 +11956,7 @@
         <v>30.762841379999987</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:4">
       <c r="A462" s="18">
         <f t="shared" si="3"/>
         <v>460</v>
@@ -11815,7 +11972,7 @@
         <v>30.747661291543466</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:4">
       <c r="A463" s="18">
         <f t="shared" si="3"/>
         <v>461</v>
@@ -11831,7 +11988,7 @@
         <v>30.732980897288492</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:4">
       <c r="A464" s="18">
         <f t="shared" si="3"/>
         <v>462</v>
@@ -11847,7 +12004,7 @@
         <v>30.719035053181805</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:4">
       <c r="A465" s="18">
         <f t="shared" si="3"/>
         <v>463</v>
@@ -11863,7 +12020,7 @@
         <v>30.704782279503227</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:4">
       <c r="A466" s="18">
         <f t="shared" si="3"/>
         <v>464</v>
@@ -11879,7 +12036,7 @@
         <v>30.69059094019395</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:4">
       <c r="A467" s="18">
         <f t="shared" si="3"/>
         <v>465</v>
@@ -11895,7 +12052,7 @@
         <v>30.676611175870953</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:4">
       <c r="A468" s="18">
         <f t="shared" si="3"/>
         <v>466</v>
@@ -11911,7 +12068,7 @@
         <v>30.661725743669511</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:4">
       <c r="A469" s="18">
         <f t="shared" si="3"/>
         <v>467</v>
@@ -11927,7 +12084,7 @@
         <v>30.646732754603839</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:4">
       <c r="A470" s="18">
         <f t="shared" si="3"/>
         <v>468</v>
@@ -11943,7 +12100,7 @@
         <v>30.631825206153827</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:4">
       <c r="A471" s="18">
         <f t="shared" si="3"/>
         <v>469</v>
@@ -11959,7 +12116,7 @@
         <v>30.616533466012775</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:4">
       <c r="A472" s="18">
         <f t="shared" si="3"/>
         <v>470</v>
@@ -11975,7 +12132,7 @@
         <v>30.601391905446789</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:4">
       <c r="A473" s="18">
         <f t="shared" si="3"/>
         <v>471</v>
@@ -11991,7 +12148,7 @@
         <v>30.585890010191065</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:4">
       <c r="A474" s="18">
         <f t="shared" si="3"/>
         <v>472</v>
@@ -12007,7 +12164,7 @@
         <v>30.570411431122864</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:4">
       <c r="A475" s="18">
         <f t="shared" si="3"/>
         <v>473</v>
@@ -12023,7 +12180,7 @@
         <v>30.554237199936555</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:4">
       <c r="A476" s="18">
         <f t="shared" si="3"/>
         <v>474</v>
@@ -12039,7 +12196,7 @@
         <v>30.538173409493648</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:4">
       <c r="A477" s="18">
         <f t="shared" si="3"/>
         <v>475</v>
@@ -12055,7 +12212,7 @@
         <v>30.522219358273663</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:4">
       <c r="A478" s="18">
         <f t="shared" si="3"/>
         <v>476</v>
@@ -12071,7 +12228,7 @@
         <v>30.507151671344516</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:4">
       <c r="A479" s="18">
         <f t="shared" si="3"/>
         <v>477</v>
@@ -12087,7 +12244,7 @@
         <v>30.492629340628909</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:4">
       <c r="A480" s="18">
         <f t="shared" si="3"/>
         <v>478</v>
@@ -12103,7 +12260,7 @@
         <v>30.478795386276133</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:4">
       <c r="A481" s="18">
         <f t="shared" si="3"/>
         <v>479</v>
@@ -12119,7 +12276,7 @@
         <v>30.465060948350711</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:4">
       <c r="A482" s="18">
         <f t="shared" si="3"/>
         <v>480</v>
@@ -12135,7 +12292,7 @@
         <v>30.451467072479147</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:4">
       <c r="A483" s="18">
         <f t="shared" si="3"/>
         <v>481</v>
@@ -12151,7 +12308,7 @@
         <v>30.437389179002061</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:4">
       <c r="A484" s="18">
         <f t="shared" si="3"/>
         <v>482</v>
@@ -12167,7 +12324,7 @@
         <v>30.423680902531103</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:4">
       <c r="A485" s="18">
         <f t="shared" si="3"/>
         <v>483</v>
@@ -12181,6 +12338,22 @@
       <c r="D485" s="18">
         <f>SUM(C$3:C485)/A485</f>
         <v>30.410339947329177</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4">
+      <c r="A486" s="18">
+        <f t="shared" si="3"/>
+        <v>484</v>
+      </c>
+      <c r="B486" s="19">
+        <v>45016</v>
+      </c>
+      <c r="C486" s="20">
+        <v>24.159999849999998</v>
+      </c>
+      <c r="D486" s="18">
+        <f>SUM(C$3:C486)/A486</f>
+        <v>30.397426021508249</v>
       </c>
     </row>
   </sheetData>
@@ -12189,7 +12362,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1prac.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1prac.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="3795" yWindow="195" windowWidth="15600" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="model1" sheetId="5" r:id="rId1"/>
@@ -2635,11 +2635,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="515136896"/>
-        <c:axId val="529745024"/>
+        <c:axId val="156422528"/>
+        <c:axId val="156425216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="515136896"/>
+        <c:axId val="156422528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2682,7 +2682,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="529745024"/>
+        <c:crossAx val="156425216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2690,7 +2690,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="529745024"/>
+        <c:axId val="156425216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2741,7 +2741,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515136896"/>
+        <c:crossAx val="156422528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -23335,11 +23335,11 @@
         <v>44589</v>
       </c>
       <c r="C204" s="20">
-        <v>31.159999849999998</v>
+        <v>31.02</v>
       </c>
       <c r="D204" s="18">
         <f>SUM(C$3:C204)/A204</f>
-        <v>37.710494996683174</v>
+        <v>37.709801928118821</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="12.75" customHeight="1">
@@ -23355,7 +23355,7 @@
       </c>
       <c r="D205" s="18">
         <f>SUM(C$3:C205)/A205</f>
-        <v>37.678472849310346</v>
+        <v>37.677783194876852</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="12.75" customHeight="1">
@@ -23371,7 +23371,7 @@
       </c>
       <c r="D206" s="18">
         <f>SUM(C$3:C206)/A206</f>
-        <v>37.643872496323532</v>
+        <v>37.643186222549026</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="12.75" customHeight="1">
@@ -23387,7 +23387,7 @@
       </c>
       <c r="D207" s="18">
         <f>SUM(C$3:C207)/A207</f>
-        <v>37.61151214380488</v>
+        <v>37.61082921770732</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="12.75" customHeight="1">
@@ -23403,7 +23403,7 @@
       </c>
       <c r="D208" s="18">
         <f>SUM(C$3:C208)/A208</f>
-        <v>37.577281499757277</v>
+        <v>37.576601888834951</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="12.75" customHeight="1">
@@ -23419,7 +23419,7 @@
       </c>
       <c r="D209" s="18">
         <f>SUM(C$3:C209)/A209</f>
-        <v>37.540193181497585</v>
+        <v>37.53951685371981</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="12.75" customHeight="1">
@@ -23435,7 +23435,7 @@
       </c>
       <c r="D210" s="18">
         <f>SUM(C$3:C210)/A210</f>
-        <v>37.503221100721149</v>
+        <v>37.502548024519236</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="12.75" customHeight="1">
@@ -23451,7 +23451,7 @@
       </c>
       <c r="D211" s="18">
         <f>SUM(C$3:C211)/A211</f>
-        <v>37.469999944593297</v>
+        <v>37.469330088851677</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="12.75" customHeight="1">
@@ -23467,7 +23467,7 @@
       </c>
       <c r="D212" s="18">
         <f>SUM(C$3:C212)/A212</f>
-        <v>37.437380901238093</v>
+        <v>37.436714235285713</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="12.75" customHeight="1">
@@ -23483,7 +23483,7 @@
       </c>
       <c r="D213" s="18">
         <f>SUM(C$3:C213)/A213</f>
-        <v>37.405781941800946</v>
+        <v>37.405118435402848</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="12.75" customHeight="1">
@@ -23499,7 +23499,7 @@
       </c>
       <c r="D214" s="18">
         <f>SUM(C$3:C214)/A214</f>
-        <v>37.374245231273584</v>
+        <v>37.373584854622642</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="12.75" customHeight="1">
@@ -23515,7 +23515,7 @@
       </c>
       <c r="D215" s="18">
         <f>SUM(C$3:C215)/A215</f>
-        <v>37.342629053615028</v>
+        <v>37.341971777323948</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="12.75" customHeight="1">
@@ -23531,7 +23531,7 @@
       </c>
       <c r="D216" s="18">
         <f>SUM(C$3:C216)/A216</f>
-        <v>37.309205555841125</v>
+        <v>37.308551350934586</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="12.75" customHeight="1">
@@ -23547,7 +23547,7 @@
       </c>
       <c r="D217" s="18">
         <f>SUM(C$3:C217)/A217</f>
-        <v>37.27981390102326</v>
+        <v>37.279162738930239</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="12.75" customHeight="1">
@@ -23563,7 +23563,7 @@
       </c>
       <c r="D218" s="18">
         <f>SUM(C$3:C218)/A218</f>
-        <v>37.247685133657413</v>
+        <v>37.24703698620371</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="12.75" customHeight="1">
@@ -23579,7 +23579,7 @@
       </c>
       <c r="D219" s="18">
         <f>SUM(C$3:C219)/A219</f>
-        <v>37.218433126682037</v>
+        <v>37.217787966082959</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="12.75" customHeight="1">
@@ -23595,7 +23595,7 @@
       </c>
       <c r="D220" s="18">
         <f>SUM(C$3:C220)/A220</f>
-        <v>37.189770586238538</v>
+        <v>37.189128385091756</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="12.75" customHeight="1">
@@ -23611,7 +23611,7 @@
       </c>
       <c r="D221" s="18">
         <f>SUM(C$3:C221)/A221</f>
-        <v>37.161232823424669</v>
+        <v>37.160593554703212</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="12.75" customHeight="1">
@@ -23627,7 +23627,7 @@
       </c>
       <c r="D222" s="18">
         <f>SUM(C$3:C222)/A222</f>
-        <v>37.130772670045459</v>
+        <v>37.130136307090922</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="12.75" customHeight="1">
@@ -23643,7 +23643,7 @@
       </c>
       <c r="D223" s="18">
         <f>SUM(C$3:C223)/A223</f>
-        <v>37.098913970859734</v>
+        <v>37.098280487375575</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="12.75" customHeight="1">
@@ -23659,7 +23659,7 @@
       </c>
       <c r="D224" s="18">
         <f>SUM(C$3:C224)/A224</f>
-        <v>37.065180126891896</v>
+        <v>37.064549496936955</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="12.75" customHeight="1">
@@ -23675,7 +23675,7 @@
       </c>
       <c r="D225" s="18">
         <f>SUM(C$3:C225)/A225</f>
-        <v>37.026053759282519</v>
+        <v>37.025425957264588</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="12.75" customHeight="1">
@@ -23691,7 +23691,7 @@
       </c>
       <c r="D226" s="18">
         <f>SUM(C$3:C226)/A226</f>
-        <v>36.984464229464287</v>
+        <v>36.983839230133938</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="12.75" customHeight="1">
@@ -23707,7 +23707,7 @@
       </c>
       <c r="D227" s="18">
         <f>SUM(C$3:C227)/A227</f>
-        <v>36.94248883697778</v>
+        <v>36.941866615422235</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="12.75" customHeight="1">
@@ -23723,7 +23723,7 @@
       </c>
       <c r="D228" s="18">
         <f>SUM(C$3:C228)/A228</f>
-        <v>36.903849501769912</v>
+        <v>36.903230033407091</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="12.75" customHeight="1">
@@ -23739,7 +23739,7 @@
       </c>
       <c r="D229" s="18">
         <f>SUM(C$3:C229)/A229</f>
-        <v>36.866607877356834</v>
+        <v>36.865991137929527</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="12.75" customHeight="1">
@@ -23755,7 +23755,7 @@
       </c>
       <c r="D230" s="18">
         <f>SUM(C$3:C230)/A230</f>
-        <v>36.825438542543864</v>
+        <v>36.824824508114048</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="12.75" customHeight="1">
@@ -23771,7 +23771,7 @@
       </c>
       <c r="D231" s="18">
         <f>SUM(C$3:C231)/A231</f>
-        <v>36.780523967772936</v>
+        <v>36.779912614716174</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="12.75" customHeight="1">
@@ -23787,7 +23787,7 @@
       </c>
       <c r="D232" s="18">
         <f>SUM(C$3:C232)/A232</f>
-        <v>36.740956473608705</v>
+        <v>36.740347778608708</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="12.75" customHeight="1">
@@ -23803,7 +23803,7 @@
       </c>
       <c r="D233" s="18">
         <f>SUM(C$3:C233)/A233</f>
-        <v>36.704978308398275</v>
+        <v>36.704372248441572</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="12.75" customHeight="1">
@@ -23819,7 +23819,7 @@
       </c>
       <c r="D234" s="18">
         <f>SUM(C$3:C234)/A234</f>
-        <v>36.66892236806035</v>
+        <v>36.668318920431048</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="12.75" customHeight="1">
@@ -23835,7 +23835,7 @@
       </c>
       <c r="D235" s="18">
         <f>SUM(C$3:C235)/A235</f>
-        <v>36.633948454291847</v>
+        <v>36.63334759656653</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="12.75" customHeight="1">
@@ -23851,7 +23851,7 @@
       </c>
       <c r="D236" s="18">
         <f>SUM(C$3:C236)/A236</f>
-        <v>36.598119614743588</v>
+        <v>36.597521324786335</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="12.75" customHeight="1">
@@ -23867,7 +23867,7 @@
       </c>
       <c r="D237" s="18">
         <f>SUM(C$3:C237)/A237</f>
-        <v>36.563361660255318</v>
+        <v>36.562765916212776</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="12.75" customHeight="1">
@@ -23883,7 +23883,7 @@
       </c>
       <c r="D238" s="18">
         <f>SUM(C$3:C238)/A238</f>
-        <v>36.528262673093217</v>
+        <v>36.527669453389834</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="12.75" customHeight="1">
@@ -23899,7 +23899,7 @@
       </c>
       <c r="D239" s="18">
         <f>SUM(C$3:C239)/A239</f>
-        <v>36.490632875358649</v>
+        <v>36.490042158691992</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="12.75" customHeight="1">
@@ -23915,7 +23915,7 @@
       </c>
       <c r="D240" s="18">
         <f>SUM(C$3:C240)/A240</f>
-        <v>36.451512570462185</v>
+        <v>36.450924335798327</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="12.75" customHeight="1">
@@ -23931,7 +23931,7 @@
       </c>
       <c r="D241" s="18">
         <f>SUM(C$3:C241)/A241</f>
-        <v>36.412008334728036</v>
+        <v>36.41142256129708</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="12.75" customHeight="1">
@@ -23947,7 +23947,7 @@
       </c>
       <c r="D242" s="18">
         <f>SUM(C$3:C242)/A242</f>
-        <v>36.376874964750002</v>
+        <v>36.376291632041678</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="12.75" customHeight="1">
@@ -23963,7 +23963,7 @@
       </c>
       <c r="D243" s="18">
         <f>SUM(C$3:C243)/A243</f>
-        <v>36.340622369004151</v>
+        <v>36.340041456763494</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="12.75" customHeight="1">
@@ -23979,7 +23979,7 @@
       </c>
       <c r="D244" s="18">
         <f>SUM(C$3:C244)/A244</f>
-        <v>36.305495830909088</v>
+        <v>36.304917319132237</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="12.75" customHeight="1">
@@ -23995,7 +23995,7 @@
       </c>
       <c r="D245" s="18">
         <f>SUM(C$3:C245)/A245</f>
-        <v>36.269876504938274</v>
+        <v>36.269300373868319</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="12.75" customHeight="1">
@@ -24011,7 +24011,7 @@
       </c>
       <c r="D246" s="18">
         <f>SUM(C$3:C246)/A246</f>
-        <v>36.232704883032788</v>
+        <v>36.232131113155745</v>
       </c>
     </row>
     <row r="247" spans="1:4" ht="12.75" customHeight="1">
@@ -24027,7 +24027,7 @@
       </c>
       <c r="D247" s="18">
         <f>SUM(C$3:C247)/A247</f>
-        <v>36.195714251183674</v>
+        <v>36.195142823224494</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="12.75" customHeight="1">
@@ -24043,7 +24043,7 @@
       </c>
       <c r="D248" s="18">
         <f>SUM(C$3:C248)/A248</f>
-        <v>36.154715415243899</v>
+        <v>36.154146310162609</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="12.75" customHeight="1">
@@ -24059,7 +24059,7 @@
       </c>
       <c r="D249" s="18">
         <f>SUM(C$3:C249)/A249</f>
-        <v>36.116113331943318</v>
+        <v>36.115546530931177</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="12.75" customHeight="1">
@@ -24075,7 +24075,7 @@
       </c>
       <c r="D250" s="18">
         <f>SUM(C$3:C250)/A250</f>
-        <v>36.076048360080641</v>
+        <v>36.075483844556452</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="12.75" customHeight="1">
@@ -24091,7 +24091,7 @@
       </c>
       <c r="D251" s="18">
         <f>SUM(C$3:C251)/A251</f>
-        <v>36.036947764859427</v>
+        <v>36.036385516465863</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="12.75" customHeight="1">
@@ -24107,7 +24107,7 @@
       </c>
       <c r="D252" s="18">
         <f>SUM(C$3:C252)/A252</f>
-        <v>35.997639970119991</v>
+        <v>35.997079970720002</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="12.75" customHeight="1">
@@ -24123,7 +24123,7 @@
       </c>
       <c r="D253" s="18">
         <f>SUM(C$3:C253)/A253</f>
-        <v>35.959402359163342</v>
+        <v>35.958844590836655</v>
       </c>
     </row>
     <row r="254" spans="1:4" ht="12.75" customHeight="1">
@@ -24139,7 +24139,7 @@
       </c>
       <c r="D254" s="18">
         <f>SUM(C$3:C254)/A254</f>
-        <v>35.920357115039671</v>
+        <v>35.919801560079364</v>
       </c>
     </row>
     <row r="255" spans="1:4" ht="12.75" customHeight="1">
@@ -24155,7 +24155,7 @@
       </c>
       <c r="D255" s="18">
         <f>SUM(C$3:C255)/A255</f>
-        <v>35.879051352964417</v>
+        <v>35.878497993873516</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="12.75" customHeight="1">
@@ -24171,7 +24171,7 @@
       </c>
       <c r="D256" s="18">
         <f>SUM(C$3:C256)/A256</f>
-        <v>35.835787368858256</v>
+        <v>35.83523618834645</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="12.75" customHeight="1">
@@ -24187,7 +24187,7 @@
       </c>
       <c r="D257" s="18">
         <f>SUM(C$3:C257)/A257</f>
-        <v>35.792862710117632</v>
+        <v>35.79231369109803</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="12.75" customHeight="1">
@@ -24203,7 +24203,7 @@
       </c>
       <c r="D258" s="18">
         <f>SUM(C$3:C258)/A258</f>
-        <v>35.744648405624986</v>
+        <v>35.74410153121093</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="12.75" customHeight="1">
@@ -24219,7 +24219,7 @@
       </c>
       <c r="D259" s="18">
         <f>SUM(C$3:C259)/A259</f>
-        <v>35.69571981291827</v>
+        <v>35.695175066420227</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="12.75" customHeight="1">
@@ -24235,7 +24235,7 @@
       </c>
       <c r="D260" s="18">
         <f>SUM(C$3:C260)/A260</f>
-        <v>35.651472839573628</v>
+        <v>35.650930204496113</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="12.75" customHeight="1">
@@ -24251,7 +24251,7 @@
       </c>
       <c r="D261" s="18">
         <f>SUM(C$3:C261)/A261</f>
-        <v>35.606949781660212</v>
+        <v>35.606409241698827</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="12.75" customHeight="1">
@@ -24267,7 +24267,7 @@
       </c>
       <c r="D262" s="18">
         <f>SUM(C$3:C262)/A262</f>
-        <v>35.566653817730753</v>
+        <v>35.566115356769217</v>
       </c>
     </row>
     <row r="263" spans="1:4" ht="12.75" customHeight="1">
@@ -24283,7 +24283,7 @@
       </c>
       <c r="D263" s="18">
         <f>SUM(C$3:C263)/A263</f>
-        <v>35.519386943103434</v>
+        <v>35.518850545210718</v>
       </c>
     </row>
     <row r="264" spans="1:4" ht="12.75" customHeight="1">
@@ -24299,7 +24299,7 @@
       </c>
       <c r="D264" s="18">
         <f>SUM(C$3:C264)/A264</f>
-        <v>35.470534318549603</v>
+        <v>35.469999967977095</v>
       </c>
     </row>
     <row r="265" spans="1:4" ht="12.75" customHeight="1">
@@ -24315,7 +24315,7 @@
       </c>
       <c r="D265" s="18">
         <f>SUM(C$3:C265)/A265</f>
-        <v>35.421064602813672</v>
+        <v>35.420532283992387</v>
       </c>
     </row>
     <row r="266" spans="1:4" ht="12.75" customHeight="1">
@@ -24331,7 +24331,7 @@
       </c>
       <c r="D266" s="18">
         <f>SUM(C$3:C266)/A266</f>
-        <v>35.373181784962107</v>
+        <v>35.37265148249999</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="12.75" customHeight="1">
@@ -24347,7 +24347,7 @@
       </c>
       <c r="D267" s="18">
         <f>SUM(C$3:C267)/A267</f>
-        <v>35.328188649018855</v>
+        <v>35.327660347698107</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="12.75" customHeight="1">
@@ -24363,7 +24363,7 @@
       </c>
       <c r="D268" s="18">
         <f>SUM(C$3:C268)/A268</f>
-        <v>35.283233055751865</v>
+        <v>35.282706740526301</v>
       </c>
     </row>
     <row r="269" spans="1:4" ht="12.75" customHeight="1">
@@ -24379,7 +24379,7 @@
       </c>
       <c r="D269" s="18">
         <f>SUM(C$3:C269)/A269</f>
-        <v>35.239288359812718</v>
+        <v>35.238764015805231</v>
       </c>
     </row>
     <row r="270" spans="1:4" ht="12.75" customHeight="1">
@@ -24395,7 +24395,7 @@
       </c>
       <c r="D270" s="18">
         <f>SUM(C$3:C270)/A270</f>
-        <v>35.194701466380579</v>
+        <v>35.194179078880587</v>
       </c>
     </row>
     <row r="271" spans="1:4" ht="12.75" customHeight="1">
@@ -24411,7 +24411,7 @@
       </c>
       <c r="D271" s="18">
         <f>SUM(C$3:C271)/A271</f>
-        <v>35.152081756617086</v>
+        <v>35.151561311078062</v>
       </c>
     </row>
     <row r="272" spans="1:4" ht="12.75" customHeight="1">
@@ -24427,7 +24427,7 @@
       </c>
       <c r="D272" s="18">
         <f>SUM(C$3:C272)/A272</f>
-        <v>35.109703672629614</v>
+        <v>35.109185154666655</v>
       </c>
     </row>
     <row r="273" spans="1:4" ht="12.75" customHeight="1">
@@ -24443,7 +24443,7 @@
       </c>
       <c r="D273" s="18">
         <f>SUM(C$3:C273)/A273</f>
-        <v>35.067933551771205</v>
+        <v>35.067416947158662</v>
       </c>
     </row>
     <row r="274" spans="1:4" ht="12.75" customHeight="1">
@@ -24459,7 +24459,7 @@
       </c>
       <c r="D274" s="18">
         <f>SUM(C$3:C274)/A274</f>
-        <v>35.027867619595575</v>
+        <v>35.027352914264696</v>
       </c>
     </row>
     <row r="275" spans="1:4" ht="12.75" customHeight="1">
@@ -24475,7 +24475,7 @@
       </c>
       <c r="D275" s="18">
         <f>SUM(C$3:C275)/A275</f>
-        <v>34.987655647509143</v>
+        <v>34.987142827545782</v>
       </c>
     </row>
     <row r="276" spans="1:4" ht="12.75" customHeight="1">
@@ -24491,7 +24491,7 @@
       </c>
       <c r="D276" s="18">
         <f>SUM(C$3:C276)/A276</f>
-        <v>34.944671499452539</v>
+        <v>34.944160551094882</v>
       </c>
     </row>
     <row r="277" spans="1:4" ht="12.75" customHeight="1">
@@ -24507,7 +24507,7 @@
       </c>
       <c r="D277" s="18">
         <f>SUM(C$3:C277)/A277</f>
-        <v>34.902363601163621</v>
+        <v>34.901854510799993</v>
       </c>
     </row>
     <row r="278" spans="1:4" ht="12.75" customHeight="1">
@@ -24523,7 +24523,7 @@
       </c>
       <c r="D278" s="18">
         <f>SUM(C$3:C278)/A278</f>
-        <v>34.860434747246366</v>
+        <v>34.85992750141304</v>
       </c>
     </row>
     <row r="279" spans="1:4" ht="12.75" customHeight="1">
@@ -24539,7 +24539,7 @@
       </c>
       <c r="D279" s="18">
         <f>SUM(C$3:C279)/A279</f>
-        <v>34.818953036389878</v>
+        <v>34.818447621768946</v>
       </c>
     </row>
     <row r="280" spans="1:4" ht="12.75" customHeight="1">
@@ -24555,7 +24555,7 @@
       </c>
       <c r="D280" s="18">
         <f>SUM(C$3:C280)/A280</f>
-        <v>34.778740972913653</v>
+        <v>34.778237376330928</v>
       </c>
     </row>
     <row r="281" spans="1:4" ht="12.75" customHeight="1">
@@ -24571,7 +24571,7 @@
       </c>
       <c r="D281" s="18">
         <f>SUM(C$3:C281)/A281</f>
-        <v>34.740573439534039</v>
+        <v>34.740071647956981</v>
       </c>
     </row>
     <row r="282" spans="1:4" ht="12.75" customHeight="1">
@@ -24587,7 +24587,7 @@
       </c>
       <c r="D282" s="18">
         <f>SUM(C$3:C282)/A282</f>
-        <v>34.703321389642845</v>
+        <v>34.70282139017857</v>
       </c>
     </row>
     <row r="283" spans="1:4" ht="12.75" customHeight="1">
@@ -24603,7 +24603,7 @@
       </c>
       <c r="D283" s="18">
         <f>SUM(C$3:C283)/A283</f>
-        <v>34.66704622537366</v>
+        <v>34.666548005266904</v>
       </c>
     </row>
     <row r="284" spans="1:4" ht="12.75" customHeight="1">
@@ -24619,7 +24619,7 @@
       </c>
       <c r="D284" s="18">
         <f>SUM(C$3:C284)/A284</f>
-        <v>34.633936132092195</v>
+        <v>34.633439678723406</v>
       </c>
     </row>
     <row r="285" spans="1:4" ht="12.75" customHeight="1">
@@ -24635,7 +24635,7 @@
       </c>
       <c r="D285" s="18">
         <f>SUM(C$3:C285)/A285</f>
-        <v>34.60084802017667</v>
+        <v>34.600353321060069</v>
       </c>
     </row>
     <row r="286" spans="1:4" ht="12.75" customHeight="1">
@@ -24651,7 +24651,7 @@
       </c>
       <c r="D286" s="18">
         <f>SUM(C$3:C286)/A286</f>
-        <v>34.568661932359149</v>
+        <v>34.568168975140843</v>
       </c>
     </row>
     <row r="287" spans="1:4" ht="12.75" customHeight="1">
@@ -24667,7 +24667,7 @@
       </c>
       <c r="D287" s="18">
         <f>SUM(C$3:C287)/A287</f>
-        <v>34.534210486982445</v>
+        <v>34.533719259438591</v>
       </c>
     </row>
     <row r="288" spans="1:4" ht="12.75" customHeight="1">
@@ -24683,7 +24683,7 @@
       </c>
       <c r="D288" s="18">
         <f>SUM(C$3:C288)/A288</f>
-        <v>34.502202755069924</v>
+        <v>34.501713245104895</v>
       </c>
     </row>
     <row r="289" spans="1:4" ht="12.75" customHeight="1">
@@ -24699,7 +24699,7 @@
       </c>
       <c r="D289" s="18">
         <f>SUM(C$3:C289)/A289</f>
-        <v>34.441742116968634</v>
+        <v>34.441254312613239</v>
       </c>
     </row>
     <row r="290" spans="1:4" ht="12.75" customHeight="1">
@@ -24715,7 +24715,7 @@
       </c>
       <c r="D290" s="18">
         <f>SUM(C$3:C290)/A290</f>
-        <v>34.411076347847221</v>
+        <v>34.410590237256947</v>
       </c>
     </row>
     <row r="291" spans="1:4" ht="12.75" customHeight="1">
@@ -24731,7 +24731,7 @@
       </c>
       <c r="D291" s="18">
         <f>SUM(C$3:C291)/A291</f>
-        <v>34.381903071695504</v>
+        <v>34.381418643148791</v>
       </c>
     </row>
     <row r="292" spans="1:4" ht="12.75" customHeight="1">
@@ -24747,7 +24747,7 @@
       </c>
       <c r="D292" s="18">
         <f>SUM(C$3:C292)/A292</f>
-        <v>34.352999957655172</v>
+        <v>34.352517199551727</v>
       </c>
     </row>
     <row r="293" spans="1:4" ht="12.75" customHeight="1">
@@ -24763,7 +24763,7 @@
       </c>
       <c r="D293" s="18">
         <f>SUM(C$3:C293)/A293</f>
-        <v>34.326013703505154</v>
+        <v>34.325532604364263</v>
       </c>
     </row>
     <row r="294" spans="1:4" ht="12.75" customHeight="1">
@@ -24779,7 +24779,7 @@
       </c>
       <c r="D294" s="18">
         <f>SUM(C$3:C294)/A294</f>
-        <v>34.300958862842464</v>
+        <v>34.300479411301374</v>
       </c>
     </row>
     <row r="295" spans="1:4" ht="12.75" customHeight="1">
@@ -24795,7 +24795,7 @@
       </c>
       <c r="D295" s="18">
         <f>SUM(C$3:C295)/A295</f>
-        <v>34.276006784027302</v>
+        <v>34.275528968839595</v>
       </c>
     </row>
     <row r="296" spans="1:4" ht="12.75" customHeight="1">
@@ -24811,7 +24811,7 @@
       </c>
       <c r="D296" s="18">
         <f>SUM(C$3:C296)/A296</f>
-        <v>34.249897918707482</v>
+        <v>34.249421728741503</v>
       </c>
     </row>
     <row r="297" spans="1:4" ht="12.75" customHeight="1">
@@ -24827,7 +24827,7 @@
       </c>
       <c r="D297" s="18">
         <f>SUM(C$3:C297)/A297</f>
-        <v>34.226135552101695</v>
+        <v>34.225660976338986</v>
       </c>
     </row>
     <row r="298" spans="1:4" ht="12.75" customHeight="1">
@@ -24843,7 +24843,7 @@
       </c>
       <c r="D298" s="18">
         <f>SUM(C$3:C298)/A298</f>
-        <v>34.204222931216215</v>
+        <v>34.203749958750002</v>
       </c>
     </row>
     <row r="299" spans="1:4" ht="12.75" customHeight="1">
@@ -24859,7 +24859,7 @@
       </c>
       <c r="D299" s="18">
         <f>SUM(C$3:C299)/A299</f>
-        <v>34.18289558410774</v>
+        <v>34.182424204141412</v>
       </c>
     </row>
     <row r="300" spans="1:4" ht="12.75" customHeight="1">
@@ -24875,7 +24875,7 @@
       </c>
       <c r="D300" s="18">
         <f>SUM(C$3:C300)/A300</f>
-        <v>34.162718082416099</v>
+        <v>34.162248284261743</v>
       </c>
     </row>
     <row r="301" spans="1:4" ht="12.75" customHeight="1">
@@ -24891,7 +24891,7 @@
       </c>
       <c r="D301" s="18">
         <f>SUM(C$3:C301)/A301</f>
-        <v>34.140468189933102</v>
+        <v>34.139999963010034</v>
       </c>
     </row>
     <row r="302" spans="1:4" ht="12.75" customHeight="1">
@@ -24907,7 +24907,7 @@
       </c>
       <c r="D302" s="18">
         <f>SUM(C$3:C302)/A302</f>
-        <v>34.119366627533324</v>
+        <v>34.118899961366665</v>
       </c>
     </row>
     <row r="303" spans="1:4" ht="12.75" customHeight="1">
@@ -24923,7 +24923,7 @@
       </c>
       <c r="D303" s="18">
         <f>SUM(C$3:C303)/A303</f>
-        <v>34.097840490531553</v>
+        <v>34.097375374750825</v>
       </c>
     </row>
     <row r="304" spans="1:4" ht="12.75" customHeight="1">
@@ -24939,7 +24939,7 @@
       </c>
       <c r="D304" s="18">
         <f>SUM(C$3:C304)/A304</f>
-        <v>34.077913866125826</v>
+        <v>34.077450290463574</v>
       </c>
     </row>
     <row r="305" spans="1:4" ht="12.75" customHeight="1">
@@ -24955,7 +24955,7 @@
       </c>
       <c r="D305" s="18">
         <f>SUM(C$3:C305)/A305</f>
-        <v>34.057623722376235</v>
+        <v>34.057161676666666</v>
       </c>
     </row>
     <row r="306" spans="1:4" ht="12.75" customHeight="1">
@@ -24971,7 +24971,7 @@
       </c>
       <c r="D306" s="18">
         <f>SUM(C$3:C306)/A306</f>
-        <v>34.036743378157887</v>
+        <v>34.036282852335525</v>
       </c>
     </row>
     <row r="307" spans="1:4" ht="12.75" customHeight="1">
@@ -24987,7 +24987,7 @@
       </c>
       <c r="D307" s="18">
         <f>SUM(C$3:C307)/A307</f>
-        <v>34.0172130717377</v>
+        <v>34.016754055836067</v>
       </c>
     </row>
     <row r="308" spans="1:4" ht="12.75" customHeight="1">
@@ -25003,7 +25003,7 @@
       </c>
       <c r="D308" s="18">
         <f>SUM(C$3:C308)/A308</f>
-        <v>33.997091462385619</v>
+        <v>33.996633946535951</v>
       </c>
     </row>
     <row r="309" spans="1:4" ht="12.75" customHeight="1">
@@ -25019,7 +25019,7 @@
       </c>
       <c r="D309" s="18">
         <f>SUM(C$3:C309)/A309</f>
-        <v>33.975211687882734</v>
+        <v>33.974755662312702</v>
       </c>
     </row>
     <row r="310" spans="1:4" ht="12.75" customHeight="1">
@@ -25035,7 +25035,7 @@
       </c>
       <c r="D310" s="18">
         <f>SUM(C$3:C310)/A310</f>
-        <v>33.951818144935061</v>
+        <v>33.951363599967529</v>
       </c>
     </row>
     <row r="311" spans="1:4" ht="12.75" customHeight="1">
@@ -25051,7 +25051,7 @@
       </c>
       <c r="D311" s="18">
         <f>SUM(C$3:C311)/A311</f>
-        <v>33.929385077993516</v>
+        <v>33.928932004045308</v>
       </c>
     </row>
     <row r="312" spans="1:4" ht="12.75" customHeight="1">
@@ -25067,7 +25067,7 @@
       </c>
       <c r="D312" s="18">
         <f>SUM(C$3:C312)/A312</f>
-        <v>33.90851609090322</v>
+        <v>33.908064478483865</v>
       </c>
     </row>
     <row r="313" spans="1:4" ht="12.75" customHeight="1">
@@ -25083,7 +25083,7 @@
       </c>
       <c r="D313" s="18">
         <f>SUM(C$3:C313)/A313</f>
-        <v>33.886495137138255</v>
+        <v>33.886044976848872</v>
       </c>
     </row>
     <row r="314" spans="1:4" ht="12.75" customHeight="1">
@@ -25099,7 +25099,7 @@
       </c>
       <c r="D314" s="18">
         <f>SUM(C$3:C314)/A314</f>
-        <v>33.865480729391024</v>
+        <v>33.865032011923077</v>
       </c>
     </row>
     <row r="315" spans="1:4" ht="12.75" customHeight="1">
@@ -25115,7 +25115,7 @@
       </c>
       <c r="D315" s="18">
         <f>SUM(C$3:C315)/A315</f>
-        <v>33.843706028146961</v>
+        <v>33.843258744281151</v>
       </c>
     </row>
     <row r="316" spans="1:4" ht="12.75" customHeight="1">
@@ -25131,7 +25131,7 @@
       </c>
       <c r="D316" s="18">
         <f>SUM(C$3:C316)/A316</f>
-        <v>33.822292954299357</v>
+        <v>33.821847094904456</v>
       </c>
     </row>
     <row r="317" spans="1:4" ht="12.75" customHeight="1">
@@ -25147,7 +25147,7 @@
       </c>
       <c r="D317" s="18">
         <f>SUM(C$3:C317)/A317</f>
-        <v>33.800285673142845</v>
+        <v>33.799841229174596</v>
       </c>
     </row>
     <row r="318" spans="1:4" ht="12.75" customHeight="1">
@@ -25163,7 +25163,7 @@
       </c>
       <c r="D318" s="18">
         <f>SUM(C$3:C318)/A318</f>
-        <v>33.778132867974676</v>
+        <v>33.777689830474678</v>
       </c>
     </row>
     <row r="319" spans="1:4" ht="12.75" customHeight="1">
@@ -25179,7 +25179,7 @@
       </c>
       <c r="D319" s="18">
         <f>SUM(C$3:C319)/A319</f>
-        <v>33.755394277507875</v>
+        <v>33.754952637602521</v>
       </c>
     </row>
     <row r="320" spans="1:4" ht="12.75" customHeight="1">
@@ -25195,7 +25195,7 @@
       </c>
       <c r="D320" s="18">
         <f>SUM(C$3:C320)/A320</f>
-        <v>33.733238946698101</v>
+        <v>33.732798695597481</v>
       </c>
     </row>
     <row r="321" spans="1:4" ht="12.75" customHeight="1">
@@ -25211,7 +25211,7 @@
       </c>
       <c r="D321" s="18">
         <f>SUM(C$3:C321)/A321</f>
-        <v>33.710940394639486</v>
+        <v>33.71050152363636</v>
       </c>
     </row>
     <row r="322" spans="1:4" ht="12.75" customHeight="1">
@@ -25227,7 +25227,7 @@
       </c>
       <c r="D322" s="18">
         <f>SUM(C$3:C322)/A322</f>
-        <v>33.689062453031241</v>
+        <v>33.688624953499996</v>
       </c>
     </row>
     <row r="323" spans="1:4" ht="12.75" customHeight="1">
@@ -25243,7 +25243,7 @@
       </c>
       <c r="D323" s="18">
         <f>SUM(C$3:C323)/A323</f>
-        <v>33.666137024579427</v>
+        <v>33.665700887975071</v>
       </c>
     </row>
     <row r="324" spans="1:4" ht="12.75" customHeight="1">
@@ -25259,7 +25259,7 @@
       </c>
       <c r="D324" s="18">
         <f>SUM(C$3:C324)/A324</f>
-        <v>33.645031011583839</v>
+        <v>33.644596229440985</v>
       </c>
     </row>
     <row r="325" spans="1:4" ht="12.75" customHeight="1">
@@ -25275,7 +25275,7 @@
       </c>
       <c r="D325" s="18">
         <f>SUM(C$3:C325)/A325</f>
-        <v>33.622414816501539</v>
+        <v>33.621981380433432</v>
       </c>
     </row>
     <row r="326" spans="1:4" ht="12.75" customHeight="1">
@@ -25291,7 +25291,7 @@
       </c>
       <c r="D326" s="18">
         <f>SUM(C$3:C326)/A326</f>
-        <v>33.59876538805554</v>
+        <v>33.598333289753079</v>
       </c>
     </row>
     <row r="327" spans="1:4" ht="12.75" customHeight="1">
@@ -25307,7 +25307,7 @@
       </c>
       <c r="D327" s="18">
         <f>SUM(C$3:C327)/A327</f>
-        <v>33.575630725323066</v>
+        <v>33.575199956553838</v>
       </c>
     </row>
     <row r="328" spans="1:4" ht="12.75" customHeight="1">
@@ -25323,7 +25323,7 @@
       </c>
       <c r="D328" s="18">
         <f>SUM(C$3:C328)/A328</f>
-        <v>33.55380363438649</v>
+        <v>33.553374186993857</v>
       </c>
     </row>
     <row r="329" spans="1:4" ht="12.75" customHeight="1">
@@ -25339,7 +25339,7 @@
       </c>
       <c r="D329" s="18">
         <f>SUM(C$3:C329)/A329</f>
-        <v>33.532079466574906</v>
+        <v>33.531651332477054</v>
       </c>
     </row>
     <row r="330" spans="1:4" ht="12.75" customHeight="1">
@@ -25355,7 +25355,7 @@
       </c>
       <c r="D330" s="18">
         <f>SUM(C$3:C330)/A330</f>
-        <v>33.510823125121938</v>
+        <v>33.510396296310965</v>
       </c>
     </row>
     <row r="331" spans="1:4" ht="12.75" customHeight="1">
@@ -25371,7 +25371,7 @@
       </c>
       <c r="D331" s="18">
         <f>SUM(C$3:C331)/A331</f>
-        <v>33.4886017805471</v>
+        <v>33.488176249088134</v>
       </c>
     </row>
     <row r="332" spans="1:4" ht="12.75" customHeight="1">
@@ -25387,7 +25387,7 @@
       </c>
       <c r="D332" s="18">
         <f>SUM(C$3:C332)/A332</f>
-        <v>33.468363593333315</v>
+        <v>33.467939351363626</v>
       </c>
     </row>
     <row r="333" spans="1:4" ht="12.75" customHeight="1">
@@ -25403,7 +25403,7 @@
       </c>
       <c r="D333" s="18">
         <f>SUM(C$3:C333)/A333</f>
-        <v>33.447673675649533</v>
+        <v>33.447250715377635</v>
       </c>
     </row>
     <row r="334" spans="1:4" ht="12.75" customHeight="1">
@@ -25419,7 +25419,7 @@
       </c>
       <c r="D334" s="18">
         <f>SUM(C$3:C334)/A334</f>
-        <v>33.427379475060221</v>
+        <v>33.426957788765044</v>
       </c>
     </row>
     <row r="335" spans="1:4" ht="12.75" customHeight="1">
@@ -25435,7 +25435,7 @@
       </c>
       <c r="D335" s="18">
         <f>SUM(C$3:C335)/A335</f>
-        <v>33.407237192282267</v>
+        <v>33.406816772312297</v>
       </c>
     </row>
     <row r="336" spans="1:4" ht="12.75" customHeight="1">
@@ -25451,7 +25451,7 @@
       </c>
       <c r="D336" s="18">
         <f>SUM(C$3:C336)/A336</f>
-        <v>33.388532888862258</v>
+        <v>33.388113727634718</v>
       </c>
     </row>
     <row r="337" spans="1:4" ht="12.75" customHeight="1">
@@ -25467,7 +25467,7 @@
       </c>
       <c r="D337" s="18">
         <f>SUM(C$3:C337)/A337</f>
-        <v>33.36955219573133</v>
+        <v>33.369134285731334</v>
       </c>
     </row>
     <row r="338" spans="1:4" ht="12.75" customHeight="1">
@@ -25483,7 +25483,7 @@
       </c>
       <c r="D338" s="18">
         <f>SUM(C$3:C338)/A338</f>
-        <v>33.34928566976189</v>
+        <v>33.348869003541658</v>
       </c>
     </row>
     <row r="339" spans="1:4" ht="12.75" customHeight="1">
@@ -25499,7 +25499,7 @@
       </c>
       <c r="D339" s="18">
         <f>SUM(C$3:C339)/A339</f>
-        <v>33.330356036646869</v>
+        <v>33.32994060682492</v>
       </c>
     </row>
     <row r="340" spans="1:4" ht="12.75" customHeight="1">
@@ -25515,7 +25515,7 @@
       </c>
       <c r="D340" s="18">
         <f>SUM(C$3:C340)/A340</f>
-        <v>33.311212973254428</v>
+        <v>33.310798772514786</v>
       </c>
     </row>
     <row r="341" spans="1:4" ht="12.75" customHeight="1">
@@ -25531,7 +25531,7 @@
       </c>
       <c r="D341" s="18">
         <f>SUM(C$3:C341)/A341</f>
-        <v>33.289498482949838</v>
+        <v>33.289085504041289</v>
       </c>
     </row>
     <row r="342" spans="1:4" ht="12.75" customHeight="1">
@@ -25547,7 +25547,7 @@
       </c>
       <c r="D342" s="18">
         <f>SUM(C$3:C342)/A342</f>
-        <v>33.267764662764691</v>
+        <v>33.267352898499993</v>
       </c>
     </row>
     <row r="343" spans="1:4" ht="12.75" customHeight="1">
@@ -25563,7 +25563,7 @@
       </c>
       <c r="D343" s="18">
         <f>SUM(C$3:C343)/A343</f>
-        <v>33.245806410645152</v>
+        <v>33.245395853900284</v>
       </c>
     </row>
     <row r="344" spans="1:4" ht="12.75" customHeight="1">
@@ -25579,7 +25579,7 @@
       </c>
       <c r="D344" s="18">
         <f>SUM(C$3:C344)/A344</f>
-        <v>33.223508733537997</v>
+        <v>33.223099377251451</v>
       </c>
     </row>
     <row r="345" spans="1:4" ht="12.75" customHeight="1">
@@ -25595,7 +25595,7 @@
       </c>
       <c r="D345" s="18">
         <f>SUM(C$3:C345)/A345</f>
-        <v>33.200932904985407</v>
+        <v>33.200524742157427</v>
       </c>
     </row>
     <row r="346" spans="1:4" ht="12.75" customHeight="1">
@@ -25611,7 +25611,7 @@
       </c>
       <c r="D346" s="18">
         <f>SUM(C$3:C346)/A346</f>
-        <v>33.177616240465106</v>
+        <v>33.177209264156971</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -25627,7 +25627,7 @@
       </c>
       <c r="D347" s="18">
         <f>SUM(C$3:C347)/A347</f>
-        <v>33.152985469652158</v>
+        <v>33.152579672985496</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -25643,7 +25643,7 @@
       </c>
       <c r="D348" s="18">
         <f>SUM(C$3:C348)/A348</f>
-        <v>33.128364413381483</v>
+        <v>33.127959789537563</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -25659,7 +25659,7 @@
       </c>
       <c r="D349" s="18">
         <f>SUM(C$3:C349)/A349</f>
-        <v>33.103412352564824</v>
+        <v>33.103008894783848</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -25675,7 +25675,7 @@
       </c>
       <c r="D350" s="18">
         <f>SUM(C$3:C350)/A350</f>
-        <v>33.078804848448264</v>
+        <v>33.078402550028727</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -25691,7 +25691,7 @@
       </c>
       <c r="D351" s="18">
         <f>SUM(C$3:C351)/A351</f>
-        <v>33.055026039971331</v>
+        <v>33.054624894269331</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -25707,7 +25707,7 @@
       </c>
       <c r="D352" s="18">
         <f>SUM(C$3:C352)/A352</f>
-        <v>33.030411681371412</v>
+        <v>33.030011681799991</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -25723,7 +25723,7 @@
       </c>
       <c r="D353" s="18">
         <f>SUM(C$3:C353)/A353</f>
-        <v>33.006878029857532</v>
+        <v>33.006479169886028</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -25739,7 +25739,7 @@
       </c>
       <c r="D354" s="18">
         <f>SUM(C$3:C354)/A354</f>
-        <v>32.983932353636348</v>
+        <v>32.983534626789762</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -25755,7 +25755,7 @@
       </c>
       <c r="D355" s="18">
         <f>SUM(C$3:C355)/A355</f>
-        <v>32.959955208158625</v>
+        <v>32.959558608016984</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -25771,7 +25771,7 @@
       </c>
       <c r="D356" s="18">
         <f>SUM(C$3:C356)/A356</f>
-        <v>32.934475108700553</v>
+        <v>32.934079628898296</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -25787,7 +25787,7 @@
       </c>
       <c r="D357" s="18">
         <f>SUM(C$3:C357)/A357</f>
-        <v>32.90789912247886</v>
+        <v>32.907504756704213</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -25803,7 +25803,7 @@
       </c>
       <c r="D358" s="18">
         <f>SUM(C$3:C358)/A358</f>
-        <v>32.881472439550549</v>
+        <v>32.881079181544933</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -25819,7 +25819,7 @@
       </c>
       <c r="D359" s="18">
         <f>SUM(C$3:C359)/A359</f>
-        <v>32.85519380526609</v>
+        <v>32.854801648823518</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -25835,7 +25835,7 @@
       </c>
       <c r="D360" s="18">
         <f>SUM(C$3:C360)/A360</f>
-        <v>32.8285871186592</v>
+        <v>32.828196057625689</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -25851,7 +25851,7 @@
       </c>
       <c r="D361" s="18">
         <f>SUM(C$3:C361)/A361</f>
-        <v>32.801348714428954</v>
+        <v>32.800958742701937</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -25867,7 +25867,7 @@
       </c>
       <c r="D362" s="18">
         <f>SUM(C$3:C362)/A362</f>
-        <v>32.773872745777759</v>
+        <v>32.773483857305543</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -25883,7 +25883,7 @@
       </c>
       <c r="D363" s="18">
         <f>SUM(C$3:C363)/A363</f>
-        <v>32.746798306038762</v>
+        <v>32.746410494819933</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -25899,7 +25899,7 @@
       </c>
       <c r="D364" s="18">
         <f>SUM(C$3:C364)/A364</f>
-        <v>32.721144167071806</v>
+        <v>32.72075742715468</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -25915,7 +25915,7 @@
       </c>
       <c r="D365" s="18">
         <f>SUM(C$3:C365)/A365</f>
-        <v>32.694171318126706</v>
+        <v>32.693785643608805</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -25931,7 +25931,7 @@
       </c>
       <c r="D366" s="18">
         <f>SUM(C$3:C366)/A366</f>
-        <v>32.66762139881866</v>
+        <v>32.667236783846143</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -25947,7 +25947,7 @@
       </c>
       <c r="D367" s="18">
         <f>SUM(C$3:C367)/A367</f>
-        <v>32.640066271698615</v>
+        <v>32.639682710465742</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -25963,7 +25963,7 @@
       </c>
       <c r="D368" s="18">
         <f>SUM(C$3:C368)/A368</f>
-        <v>32.611104344508178</v>
+        <v>32.610721831256818</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -25979,7 +25979,7 @@
       </c>
       <c r="D369" s="18">
         <f>SUM(C$3:C369)/A369</f>
-        <v>32.582845203978181</v>
+        <v>32.582463732997262</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -25995,7 +25995,7 @@
       </c>
       <c r="D370" s="18">
         <f>SUM(C$3:C370)/A370</f>
-        <v>32.556587472663026</v>
+        <v>32.556207038288029</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -26011,7 +26011,7 @@
       </c>
       <c r="D371" s="18">
         <f>SUM(C$3:C371)/A371</f>
-        <v>32.530282358590767</v>
+        <v>32.529902955203234</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -26027,7 +26027,7 @@
       </c>
       <c r="D372" s="18">
         <f>SUM(C$3:C372)/A372</f>
-        <v>32.506281594432416</v>
+        <v>32.505903216459444</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -26043,7 +26043,7 @@
       </c>
       <c r="D373" s="18">
         <f>SUM(C$3:C373)/A373</f>
-        <v>32.482598892857126</v>
+        <v>32.482221534770872</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -26059,7 +26059,7 @@
       </c>
       <c r="D374" s="18">
         <f>SUM(C$3:C374)/A374</f>
-        <v>32.459392982876324</v>
+        <v>32.459016639193536</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -26075,7 +26075,7 @@
       </c>
       <c r="D375" s="18">
         <f>SUM(C$3:C375)/A375</f>
-        <v>32.435614449812313</v>
+        <v>32.435239115093815</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -26091,7 +26091,7 @@
       </c>
       <c r="D376" s="18">
         <f>SUM(C$3:C376)/A376</f>
-        <v>32.411455051871634</v>
+        <v>32.411080720721912</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -26107,7 +26107,7 @@
       </c>
       <c r="D377" s="18">
         <f>SUM(C$3:C377)/A377</f>
-        <v>32.387264505466646</v>
+        <v>32.386891172533318</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -26123,7 +26123,7 @@
       </c>
       <c r="D378" s="18">
         <f>SUM(C$3:C378)/A378</f>
-        <v>32.361846248590403</v>
+        <v>32.361473908563816</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -26139,7 +26139,7 @@
       </c>
       <c r="D379" s="18">
         <f>SUM(C$3:C379)/A379</f>
-        <v>32.336324109389899</v>
+        <v>32.335952757002637</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -26155,7 +26155,7 @@
       </c>
       <c r="D380" s="18">
         <f>SUM(C$3:C380)/A380</f>
-        <v>32.312101030555532</v>
+        <v>32.311730660581993</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -26171,7 +26171,7 @@
       </c>
       <c r="D381" s="18">
         <f>SUM(C$3:C381)/A381</f>
-        <v>32.287425299815283</v>
+        <v>32.28705590707122</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -26187,7 +26187,7 @@
       </c>
       <c r="D382" s="18">
         <f>SUM(C$3:C382)/A382</f>
-        <v>32.260721547421028</v>
+        <v>32.260353126763142</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -26203,7 +26203,7 @@
       </c>
       <c r="D383" s="18">
         <f>SUM(C$3:C383)/A383</f>
-        <v>32.234420440393677</v>
+        <v>32.234052986719142</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -26219,7 +26219,7 @@
       </c>
       <c r="D384" s="18">
         <f>SUM(C$3:C384)/A384</f>
-        <v>32.208335571335049</v>
+        <v>32.207969079581133</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -26235,7 +26235,7 @@
       </c>
       <c r="D385" s="18">
         <f>SUM(C$3:C385)/A385</f>
-        <v>32.183248534281958</v>
+        <v>32.182882999425566</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -26251,7 +26251,7 @@
       </c>
       <c r="D386" s="18">
         <f>SUM(C$3:C386)/A386</f>
-        <v>32.157979656692682</v>
+        <v>32.15761507374998</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -26267,7 +26267,7 @@
       </c>
       <c r="D387" s="18">
         <f>SUM(C$3:C387)/A387</f>
-        <v>32.134712179038935</v>
+        <v>32.134348543064917</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -26283,7 +26283,7 @@
       </c>
       <c r="D388" s="18">
         <f>SUM(C$3:C388)/A388</f>
-        <v>32.111539350932617</v>
+        <v>32.111176657020707</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -26299,7 +26299,7 @@
       </c>
       <c r="D389" s="18">
         <f>SUM(C$3:C389)/A389</f>
-        <v>32.088072842764831</v>
+        <v>32.08771108604649</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -26315,7 +26315,7 @@
       </c>
       <c r="D390" s="18">
         <f>SUM(C$3:C390)/A390</f>
-        <v>32.064031418505131</v>
+        <v>32.063670594149464</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -26331,7 +26331,7 @@
       </c>
       <c r="D391" s="18">
         <f>SUM(C$3:C391)/A391</f>
-        <v>32.038982493753188</v>
+        <v>32.038622596966562</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -26347,7 +26347,7 @@
       </c>
       <c r="D392" s="18">
         <f>SUM(C$3:C392)/A392</f>
-        <v>32.015472284384586</v>
+        <v>32.015113310410236</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -26363,7 +26363,7 @@
       </c>
       <c r="D393" s="18">
         <f>SUM(C$3:C393)/A393</f>
-        <v>31.992133479028105</v>
+        <v>31.991775423145757</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -26379,7 +26379,7 @@
       </c>
       <c r="D394" s="18">
         <f>SUM(C$3:C394)/A394</f>
-        <v>31.970342324132627</v>
+        <v>31.969985181658139</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -26395,7 +26395,7 @@
       </c>
       <c r="D395" s="18">
         <f>SUM(C$3:C395)/A395</f>
-        <v>31.947847812264605</v>
+        <v>31.947491578549599</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -26411,7 +26411,7 @@
       </c>
       <c r="D396" s="18">
         <f>SUM(C$3:C396)/A396</f>
-        <v>31.925162919923835</v>
+        <v>31.924807590355311</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -26427,7 +26427,7 @@
       </c>
       <c r="D397" s="18">
         <f>SUM(C$3:C397)/A397</f>
-        <v>31.902643521873394</v>
+        <v>31.902289091873399</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -26443,7 +26443,7 @@
       </c>
       <c r="D398" s="18">
         <f>SUM(C$3:C398)/A398</f>
-        <v>31.880162098838358</v>
+        <v>31.879808563863616</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -26459,7 +26459,7 @@
       </c>
       <c r="D399" s="18">
         <f>SUM(C$3:C399)/A399</f>
-        <v>31.856912319294686</v>
+        <v>31.856559674836252</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -26475,7 +26475,7 @@
       </c>
       <c r="D400" s="18">
         <f>SUM(C$3:C400)/A400</f>
-        <v>31.833502994170832</v>
+        <v>31.83315123575375</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -26491,7 +26491,7 @@
       </c>
       <c r="D401" s="18">
         <f>SUM(C$3:C401)/A401</f>
-        <v>31.810135819323285</v>
+        <v>31.809784942506248</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -26507,7 +26507,7 @@
       </c>
       <c r="D402" s="18">
         <f>SUM(C$3:C402)/A402</f>
-        <v>31.786510481299977</v>
+        <v>31.786160481674983</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -26523,7 +26523,7 @@
       </c>
       <c r="D403" s="18">
         <f>SUM(C$3:C403)/A403</f>
-        <v>31.762603973266813</v>
+        <v>31.762254846458838</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -26539,7 +26539,7 @@
       </c>
       <c r="D404" s="18">
         <f>SUM(C$3:C404)/A404</f>
-        <v>31.740060184179082</v>
+        <v>31.739711925845754</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -26555,7 +26555,7 @@
       </c>
       <c r="D405" s="18">
         <f>SUM(C$3:C405)/A405</f>
-        <v>31.717901224590552</v>
+        <v>31.717553830421821</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -26571,7 +26571,7 @@
       </c>
       <c r="D406" s="18">
         <f>SUM(C$3:C406)/A406</f>
-        <v>31.696743053440571</v>
+        <v>31.696396519158398</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -26587,7 +26587,7 @@
       </c>
       <c r="D407" s="18">
         <f>SUM(C$3:C407)/A407</f>
-        <v>31.675343689580224</v>
+        <v>31.674998010938253</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -26603,7 +26603,7 @@
       </c>
       <c r="D408" s="18">
         <f>SUM(C$3:C408)/A408</f>
-        <v>31.654517718201948</v>
+        <v>31.654172890985205</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -26619,7 +26619,7 @@
       </c>
       <c r="D409" s="18">
         <f>SUM(C$3:C409)/A409</f>
-        <v>31.634383765773933</v>
+        <v>31.634039785798507</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -26635,7 +26635,7 @@
       </c>
       <c r="D410" s="18">
         <f>SUM(C$3:C410)/A410</f>
-        <v>31.614814196789194</v>
+        <v>31.614471059901945</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -26651,7 +26651,7 @@
       </c>
       <c r="D411" s="18">
         <f>SUM(C$3:C411)/A411</f>
-        <v>31.595291421638123</v>
+        <v>31.594949123716365</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -26667,7 +26667,7 @@
       </c>
       <c r="D412" s="18">
         <f>SUM(C$3:C412)/A412</f>
-        <v>31.576376077073149</v>
+        <v>31.576034614024373</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -26683,7 +26683,7 @@
       </c>
       <c r="D413" s="18">
         <f>SUM(C$3:C413)/A413</f>
-        <v>31.556968836934285</v>
+        <v>31.556628204695848</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -26699,7 +26699,7 @@
       </c>
       <c r="D414" s="18">
         <f>SUM(C$3:C414)/A414</f>
-        <v>31.537000465776678</v>
+        <v>31.536660660315519</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -26715,7 +26715,7 @@
       </c>
       <c r="D415" s="18">
         <f>SUM(C$3:C415)/A415</f>
-        <v>31.51698351661015</v>
+        <v>31.516644533922502</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -26731,7 +26731,7 @@
       </c>
       <c r="D416" s="18">
         <f>SUM(C$3:C416)/A416</f>
-        <v>31.497618822125581</v>
+        <v>31.497280658236697</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -26747,7 +26747,7 @@
       </c>
       <c r="D417" s="18">
         <f>SUM(C$3:C417)/A417</f>
-        <v>31.477986006602389</v>
+        <v>31.477648657566249</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -26763,7 +26763,7 @@
       </c>
       <c r="D418" s="18">
         <f>SUM(C$3:C418)/A418</f>
-        <v>31.457798540048056</v>
+        <v>31.4574620019471</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -26779,7 +26779,7 @@
       </c>
       <c r="D419" s="18">
         <f>SUM(C$3:C419)/A419</f>
-        <v>31.436820603693025</v>
+        <v>31.436484872637873</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -26795,7 +26795,7 @@
       </c>
       <c r="D420" s="18">
         <f>SUM(C$3:C420)/A420</f>
-        <v>31.415703809449742</v>
+        <v>31.415368881578932</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -26811,7 +26811,7 @@
       </c>
       <c r="D421" s="18">
         <f>SUM(C$3:C421)/A421</f>
-        <v>31.394544609999983</v>
+        <v>31.3942104814797</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -26827,7 +26827,7 @@
       </c>
       <c r="D422" s="18">
         <f>SUM(C$3:C422)/A422</f>
-        <v>31.373248077023792</v>
+        <v>31.372914744047605</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -26843,7 +26843,7 @@
       </c>
       <c r="D423" s="18">
         <f>SUM(C$3:C423)/A423</f>
-        <v>31.352860316555802</v>
+        <v>31.352527775344406</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -26859,7 +26859,7 @@
       </c>
       <c r="D424" s="18">
         <f>SUM(C$3:C424)/A424</f>
-        <v>31.333066808696664</v>
+        <v>31.332735055497619</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -26875,7 +26875,7 @@
       </c>
       <c r="D425" s="18">
         <f>SUM(C$3:C425)/A425</f>
-        <v>31.312728588203292</v>
+        <v>31.312397619290767</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -26891,7 +26891,7 @@
       </c>
       <c r="D426" s="18">
         <f>SUM(C$3:C426)/A426</f>
-        <v>31.292557059056588</v>
+        <v>31.29222687073112</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -26907,7 +26907,7 @@
       </c>
       <c r="D427" s="18">
         <f>SUM(C$3:C427)/A427</f>
-        <v>31.272433394847042</v>
+        <v>31.272103983435283</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -26919,11 +26919,11 @@
         <v>270</v>
       </c>
       <c r="C428" s="20">
-        <v>22.829999919999999</v>
+        <v>22.940000534057617</v>
       </c>
       <c r="D428" s="18">
         <f>SUM(C$3:C428)/A428</f>
-        <v>31.252615475892004</v>
+        <v>31.252545055150357</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -26935,11 +26935,11 @@
         <v>271</v>
       </c>
       <c r="C429" s="20">
-        <v>23.409999849999998</v>
+        <v>22.829999923706055</v>
       </c>
       <c r="D429" s="18">
         <f>SUM(C$3:C429)/A429</f>
-        <v>31.234248694566734</v>
+        <v>31.232820125100137</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -26951,11 +26951,11 @@
         <v>272</v>
       </c>
       <c r="C430" s="20">
-        <v>23.5</v>
+        <v>23.409999847412109</v>
       </c>
       <c r="D430" s="18">
         <f>SUM(C$3:C430)/A430</f>
-        <v>31.216178020046716</v>
+        <v>31.214542507628902</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -26967,11 +26967,11 @@
         <v>273</v>
       </c>
       <c r="C431" s="20">
-        <v>23.579999919999999</v>
+        <v>23.5</v>
       </c>
       <c r="D431" s="18">
         <f>SUM(C$3:C431)/A431</f>
-        <v>31.198378071095561</v>
+        <v>31.196559891061003</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -26983,11 +26983,11 @@
         <v>274</v>
       </c>
       <c r="C432" s="20">
-        <v>23.81999969</v>
+        <v>23.579999923706055</v>
       </c>
       <c r="D432" s="18">
         <f>SUM(C$3:C432)/A432</f>
-        <v>31.181219051604643</v>
+        <v>31.178846960904366</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -26999,11 +26999,11 @@
         <v>275</v>
       </c>
       <c r="C433" s="20">
-        <v>23.649999619999999</v>
+        <v>23.819999694824219</v>
       </c>
       <c r="D433" s="18">
         <f>SUM(C$3:C433)/A433</f>
-        <v>31.163745224617159</v>
+        <v>31.161773069335734</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -27015,11 +27015,11 @@
         <v>276</v>
       </c>
       <c r="C434" s="20">
-        <v>23.780000690000001</v>
+        <v>23.649999618530273</v>
       </c>
       <c r="D434" s="18">
         <f>SUM(C$3:C434)/A434</f>
-        <v>31.146653223379619</v>
+        <v>31.144384704866276</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -27031,11 +27031,11 @@
         <v>277</v>
       </c>
       <c r="C435" s="20">
-        <v>24.100000380000001</v>
+        <v>23.780000686645508</v>
       </c>
       <c r="D435" s="18">
         <f>SUM(C$3:C435)/A435</f>
-        <v>31.13037919833717</v>
+        <v>31.127376889581701</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -27047,11 +27047,11 @@
         <v>278</v>
       </c>
       <c r="C436" s="20">
-        <v>24.450000760000002</v>
+        <v>24.100000381469727</v>
       </c>
       <c r="D436" s="18">
         <f>SUM(C$3:C436)/A436</f>
-        <v>31.114986621290313</v>
+        <v>31.111184777811857</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -27063,11 +27063,11 @@
         <v>279</v>
       </c>
       <c r="C437" s="20">
-        <v>24.520000459999999</v>
+        <v>24.450000762939453</v>
       </c>
       <c r="D437" s="18">
         <f>SUM(C$3:C437)/A437</f>
-        <v>31.099825733563208</v>
+        <v>31.095871711111002</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -27079,11 +27079,11 @@
         <v>280</v>
       </c>
       <c r="C438" s="20">
-        <v>24.530000690000001</v>
+        <v>24.520000457763672</v>
       </c>
       <c r="D438" s="18">
         <f>SUM(C$3:C438)/A438</f>
-        <v>31.084757327499986</v>
+        <v>31.080789437594152</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -27095,11 +27095,11 @@
         <v>281</v>
       </c>
       <c r="C439" s="20">
-        <v>24.739999770000001</v>
+        <v>24.530000686645508</v>
       </c>
       <c r="D439" s="18">
         <f>SUM(C$3:C439)/A439</f>
-        <v>31.0702384314874</v>
+        <v>31.065799074319667</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -27111,11 +27111,11 @@
         <v>282</v>
       </c>
       <c r="C440" s="20">
-        <v>24.829999919999999</v>
+        <v>24.739999771118164</v>
       </c>
       <c r="D440" s="18">
         <f>SUM(C$3:C440)/A440</f>
-        <v>31.055991311598159</v>
+        <v>31.051356610157107</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -27127,11 +27127,11 @@
         <v>283</v>
       </c>
       <c r="C441" s="20">
-        <v>25.170000080000001</v>
+        <v>24.829999923706055</v>
       </c>
       <c r="D441" s="18">
         <f>SUM(C$3:C441)/A441</f>
-        <v>31.042583586697024</v>
+        <v>31.037184954834895</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -27143,11 +27143,11 @@
         <v>44956</v>
       </c>
       <c r="C442" s="20">
-        <v>24.899999619999999</v>
+        <v>25.170000076293945</v>
       </c>
       <c r="D442" s="18">
         <f>SUM(C$3:C442)/A442</f>
-        <v>31.028623168590894</v>
+        <v>31.023850443747303</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -27159,11 +27159,11 @@
         <v>44957</v>
       </c>
       <c r="C443" s="20">
-        <v>24.899999619999999</v>
+        <v>24.899999618530273</v>
       </c>
       <c r="D443" s="18">
         <f>SUM(C$3:C443)/A443</f>
-        <v>31.014726063038534</v>
+        <v>31.009964160696924</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -27179,7 +27179,7 @@
       </c>
       <c r="D444" s="18">
         <f>SUM(C$3:C444)/A444</f>
-        <v>31.001661071425325</v>
+        <v>30.996909942618423</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -27195,7 +27195,7 @@
       </c>
       <c r="D445" s="18">
         <f>SUM(C$3:C445)/A445</f>
-        <v>30.988406755598181</v>
+        <v>30.983666351687006</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -27211,7 +27211,7 @@
       </c>
       <c r="D446" s="18">
         <f>SUM(C$3:C446)/A446</f>
-        <v>30.974761696036023</v>
+        <v>30.970031968710234</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -27227,7 +27227,7 @@
       </c>
       <c r="D447" s="18">
         <f>SUM(C$3:C447)/A447</f>
-        <v>30.960436389707851</v>
+        <v>30.955717290982793</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -27243,7 +27243,7 @@
       </c>
       <c r="D448" s="18">
         <f>SUM(C$3:C448)/A448</f>
-        <v>30.94619774446187</v>
+        <v>30.94148922667566</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -27259,7 +27259,7 @@
       </c>
       <c r="D449" s="18">
         <f>SUM(C$3:C449)/A449</f>
-        <v>30.931776720425042</v>
+        <v>30.927078736235668</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -27275,7 +27275,7 @@
       </c>
       <c r="D450" s="18">
         <f>SUM(C$3:C450)/A450</f>
-        <v>30.918245970691949</v>
+        <v>30.913558473074428</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -27291,7 +27291,7 @@
       </c>
       <c r="D451" s="18">
         <f>SUM(C$3:C451)/A451</f>
-        <v>30.904263238886397</v>
+        <v>30.899586181129941</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -27307,7 +27307,7 @@
       </c>
       <c r="D452" s="18">
         <f>SUM(C$3:C452)/A452</f>
-        <v>30.890875985377765</v>
+        <v>30.886209321082987</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -27323,7 +27323,7 @@
       </c>
       <c r="D453" s="18">
         <f>SUM(C$3:C453)/A453</f>
-        <v>30.87739288889134</v>
+        <v>30.872736571967504</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -27339,7 +27339,7 @@
       </c>
       <c r="D454" s="18">
         <f>SUM(C$3:C454)/A454</f>
-        <v>30.86381458553096</v>
+        <v>30.859168570193237</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -27355,7 +27355,7 @@
       </c>
       <c r="D455" s="18">
         <f>SUM(C$3:C455)/A455</f>
-        <v>30.849744354150097</v>
+        <v>30.845108594916873</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -27371,7 +27371,7 @@
       </c>
       <c r="D456" s="18">
         <f>SUM(C$3:C456)/A456</f>
-        <v>30.834546681035228</v>
+        <v>30.829921132725424</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -27387,7 +27387,7 @@
       </c>
       <c r="D457" s="18">
         <f>SUM(C$3:C457)/A457</f>
-        <v>30.820426797890097</v>
+        <v>30.815811415620537</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -27403,7 +27403,7 @@
       </c>
       <c r="D458" s="18">
         <f>SUM(C$3:C458)/A458</f>
-        <v>30.806346913728056</v>
+        <v>30.801741652910842</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -27419,7 +27419,7 @@
       </c>
       <c r="D459" s="18">
         <f>SUM(C$3:C459)/A459</f>
-        <v>30.791891014048126</v>
+        <v>30.787295830388061</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -27435,7 +27435,7 @@
       </c>
       <c r="D460" s="18">
         <f>SUM(C$3:C460)/A460</f>
-        <v>30.777563740087324</v>
+        <v>30.772978589579356</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -27451,7 +27451,7 @@
       </c>
       <c r="D461" s="18">
         <f>SUM(C$3:C461)/A461</f>
-        <v>30.762841379999987</v>
+        <v>30.758266218926675</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -27467,7 +27467,7 @@
       </c>
       <c r="D462" s="18">
         <f>SUM(C$3:C462)/A462</f>
-        <v>30.747661291543466</v>
+        <v>30.743096076472487</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -27483,7 +27483,7 @@
       </c>
       <c r="D463" s="18">
         <f>SUM(C$3:C463)/A463</f>
-        <v>30.732980897288492</v>
+        <v>30.728425585070163</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -27499,7 +27499,7 @@
       </c>
       <c r="D464" s="18">
         <f>SUM(C$3:C464)/A464</f>
-        <v>30.719035053181805</v>
+        <v>30.714489600946631</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -27515,7 +27515,7 @@
       </c>
       <c r="D465" s="18">
         <f>SUM(C$3:C465)/A465</f>
-        <v>30.704782279503227</v>
+        <v>30.70024664465949</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -27531,7 +27531,7 @@
       </c>
       <c r="D466" s="18">
         <f>SUM(C$3:C466)/A466</f>
-        <v>30.69059094019395</v>
+        <v>30.686065080425308</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -27547,7 +27547,7 @@
       </c>
       <c r="D467" s="18">
         <f>SUM(C$3:C467)/A467</f>
-        <v>30.676611175870953</v>
+        <v>30.672095049134068</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -27563,7 +27563,7 @@
       </c>
       <c r="D468" s="18">
         <f>SUM(C$3:C468)/A468</f>
-        <v>30.661725743669511</v>
+        <v>30.657219308191721</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -27579,7 +27579,7 @@
       </c>
       <c r="D469" s="18">
         <f>SUM(C$3:C469)/A469</f>
-        <v>30.646732754603839</v>
+        <v>30.642235968880819</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -27595,7 +27595,7 @@
       </c>
       <c r="D470" s="18">
         <f>SUM(C$3:C470)/A470</f>
-        <v>30.631825206153827</v>
+        <v>30.62733802894731</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -27611,7 +27611,7 @@
       </c>
       <c r="D471" s="18">
         <f>SUM(C$3:C471)/A471</f>
-        <v>30.616533466012775</v>
+        <v>30.612055856348277</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -27627,7 +27627,7 @@
       </c>
       <c r="D472" s="18">
         <f>SUM(C$3:C472)/A472</f>
-        <v>30.601391905446789</v>
+        <v>30.596923822611366</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -27643,7 +27643,7 @@
       </c>
       <c r="D473" s="18">
         <f>SUM(C$3:C473)/A473</f>
-        <v>30.585890010191065</v>
+        <v>30.581431413731085</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -27659,7 +27659,7 @@
       </c>
       <c r="D474" s="18">
         <f>SUM(C$3:C474)/A474</f>
-        <v>30.570411431122864</v>
+        <v>30.565962280841823</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -27675,7 +27675,7 @@
       </c>
       <c r="D475" s="18">
         <f>SUM(C$3:C475)/A475</f>
-        <v>30.554237199936555</v>
+        <v>30.549797455892897</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -27691,7 +27691,7 @@
       </c>
       <c r="D476" s="18">
         <f>SUM(C$3:C476)/A476</f>
-        <v>30.538173409493648</v>
+        <v>30.533743031998608</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -27707,7 +27707,7 @@
       </c>
       <c r="D477" s="18">
         <f>SUM(C$3:C477)/A477</f>
-        <v>30.522219358273663</v>
+        <v>30.517798307889137</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -27723,7 +27723,7 @@
       </c>
       <c r="D478" s="18">
         <f>SUM(C$3:C478)/A478</f>
-        <v>30.507151671344516</v>
+        <v>30.502739908880965</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -27739,7 +27739,7 @@
       </c>
       <c r="D479" s="18">
         <f>SUM(C$3:C479)/A479</f>
-        <v>30.492629340628909</v>
+        <v>30.488226827143272</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -27755,7 +27755,7 @@
       </c>
       <c r="D480" s="18">
         <f>SUM(C$3:C480)/A480</f>
-        <v>30.478795386276133</v>
+        <v>30.474402083069752</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -27771,7 +27771,7 @@
       </c>
       <c r="D481" s="18">
         <f>SUM(C$3:C481)/A481</f>
-        <v>30.465060948350711</v>
+        <v>30.460676816967307</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -27787,7 +27787,7 @@
       </c>
       <c r="D482" s="18">
         <f>SUM(C$3:C482)/A482</f>
-        <v>30.451467072479147</v>
+        <v>30.447092074702791</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -27803,7 +27803,7 @@
       </c>
       <c r="D483" s="18">
         <f>SUM(C$3:C483)/A483</f>
-        <v>30.437389179002061</v>
+        <v>30.433023276855177</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -27819,7 +27819,7 @@
       </c>
       <c r="D484" s="18">
         <f>SUM(C$3:C484)/A484</f>
-        <v>30.423680902531103</v>
+        <v>30.41932405827249</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -27835,7 +27835,7 @@
       </c>
       <c r="D485" s="18">
         <f>SUM(C$3:C485)/A485</f>
-        <v>30.410339947329177</v>
+        <v>30.405992123452055</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -27851,7 +27851,7 @@
       </c>
       <c r="D486" s="18">
         <f>SUM(C$3:C486)/A486</f>
-        <v>30.397426021508249</v>
+        <v>30.393087180738309</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -27867,7 +27867,7 @@
       </c>
       <c r="D487" s="18">
         <f>SUM(C$3:C487)/A487</f>
-        <v>30.384998340721634</v>
+        <v>30.380668446015136</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -27883,7 +27883,7 @@
       </c>
       <c r="D488" s="18">
         <f>SUM(C$3:C488)/A488</f>
-        <v>30.372374887345661</v>
+        <v>30.368053901887535</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -27899,7 +27899,7 @@
       </c>
       <c r="D489" s="18">
         <f>SUM(C$3:C489)/A489</f>
-        <v>30.359967546550294</v>
+        <v>30.355655433752244</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -27915,7 +27915,7 @@
       </c>
       <c r="D490" s="18">
         <f>SUM(C$3:C490)/A490</f>
-        <v>30.348205319692607</v>
+        <v>30.343902043191274</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -27931,7 +27931,7 @@
       </c>
       <c r="D491" s="18">
         <f>SUM(C$3:C491)/A491</f>
-        <v>30.336266249979534</v>
+        <v>30.331971773634645</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -27947,7 +27947,7 @@
       </c>
       <c r="D492" s="18">
         <f>SUM(C$3:C492)/A492</f>
-        <v>30.324355502530597</v>
+        <v>30.320069790423148</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -27963,7 +27963,7 @@
       </c>
       <c r="D493" s="18">
         <f>SUM(C$3:C493)/A493</f>
-        <v>30.312472904297337</v>
+        <v>30.308195920727783</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -27979,7 +27979,7 @@
       </c>
       <c r="D494" s="18">
         <f>SUM(C$3:C494)/A494</f>
-        <v>30.299845927621934</v>
+        <v>30.295577637108419</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -27995,7 +27995,7 @@
       </c>
       <c r="D495" s="18">
         <f>SUM(C$3:C495)/A495</f>
-        <v>30.287696137647043</v>
+        <v>30.283436504923614</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -28011,7 +28011,7 @@
       </c>
       <c r="D496" s="18">
         <f>SUM(C$3:C496)/A496</f>
-        <v>30.275878940526301</v>
+        <v>30.271627930541179</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -28027,7 +28027,7 @@
       </c>
       <c r="D497" s="18">
         <f>SUM(C$3:C497)/A497</f>
-        <v>30.2642509031919</v>
+        <v>30.260008481105739</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -28043,7 +28043,7 @@
       </c>
       <c r="D498" s="18">
         <f>SUM(C$3:C498)/A498</f>
-        <v>30.252266525745952</v>
+        <v>30.248032656930125</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -28059,7 +28059,7 @@
       </c>
       <c r="D499" s="18">
         <f>SUM(C$3:C499)/A499</f>
-        <v>30.239968201529159</v>
+        <v>30.235742851564066</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -28075,7 +28075,7 @@
       </c>
       <c r="D500" s="18">
         <f>SUM(C$3:C500)/A500</f>
-        <v>30.226815656003996</v>
+        <v>30.222598790677392</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -28091,7 +28091,7 @@
       </c>
       <c r="D501" s="18">
         <f>SUM(C$3:C501)/A501</f>
-        <v>30.213254901342665</v>
+        <v>30.209046486647978</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -28107,7 +28107,7 @@
       </c>
       <c r="D502" s="18">
         <f>SUM(C$3:C502)/A502</f>
-        <v>30.198928390019979</v>
+        <v>30.19472839215468</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -28123,7 +28123,7 @@
       </c>
       <c r="D503" s="18">
         <f>SUM(C$3:C503)/A503</f>
-        <v>30.185038312934111</v>
+        <v>30.180846698298083</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -28139,7 +28139,7 @@
       </c>
       <c r="D504" s="18">
         <f>SUM(C$3:C504)/A504</f>
-        <v>30.171661741215118</v>
+        <v>30.167478476409045</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1prac.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1prac.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="323">
   <si>
     <t>PE</t>
   </si>
@@ -1302,74 +1302,6 @@
   </si>
   <si>
     <t xml:space="preserve">2023/3/29
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/3
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/4
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/6
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/7
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/10
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/11
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/12
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/13
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/14
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/17
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/18
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/19
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/20
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/21
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/24
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/25
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/26
 </t>
   </si>
 </sst>
@@ -2635,11 +2567,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="156422528"/>
-        <c:axId val="156425216"/>
+        <c:axId val="545129600"/>
+        <c:axId val="617428480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="156422528"/>
+        <c:axId val="545129600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2682,7 +2614,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156425216"/>
+        <c:crossAx val="617428480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2690,7 +2622,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="156425216"/>
+        <c:axId val="617428480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2741,7 +2673,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156422528"/>
+        <c:crossAx val="545129600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20080,7 +20012,7 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D504"/>
+  <dimension ref="A1:D486"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -25760,7 +25692,7 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="18">
-        <f t="shared" ref="A356:A504" si="3">A355+1</f>
+        <f t="shared" ref="A356:A486" si="3">A355+1</f>
         <v>354</v>
       </c>
       <c r="B356" s="19" t="s">
@@ -27852,294 +27784,6 @@
       <c r="D486" s="18">
         <f>SUM(C$3:C486)/A486</f>
         <v>30.393087180738309</v>
-      </c>
-    </row>
-    <row r="487" spans="1:4">
-      <c r="A487" s="18">
-        <f t="shared" si="3"/>
-        <v>485</v>
-      </c>
-      <c r="B487" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="C487" s="20">
-        <v>24.370000839999999</v>
-      </c>
-      <c r="D487" s="18">
-        <f>SUM(C$3:C487)/A487</f>
-        <v>30.380668446015136</v>
-      </c>
-    </row>
-    <row r="488" spans="1:4">
-      <c r="A488" s="18">
-        <f t="shared" si="3"/>
-        <v>486</v>
-      </c>
-      <c r="B488" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="C488" s="20">
-        <v>24.25</v>
-      </c>
-      <c r="D488" s="18">
-        <f>SUM(C$3:C488)/A488</f>
-        <v>30.368053901887535</v>
-      </c>
-    </row>
-    <row r="489" spans="1:4">
-      <c r="A489" s="18">
-        <f t="shared" si="3"/>
-        <v>487</v>
-      </c>
-      <c r="B489" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="C489" s="20">
-        <v>24.329999919999999</v>
-      </c>
-      <c r="D489" s="18">
-        <f>SUM(C$3:C489)/A489</f>
-        <v>30.355655433752244</v>
-      </c>
-    </row>
-    <row r="490" spans="1:4">
-      <c r="A490" s="18">
-        <f t="shared" si="3"/>
-        <v>488</v>
-      </c>
-      <c r="B490" s="19" t="s">
-        <v>326</v>
-      </c>
-      <c r="C490" s="20">
-        <v>24.620000839999999</v>
-      </c>
-      <c r="D490" s="18">
-        <f>SUM(C$3:C490)/A490</f>
-        <v>30.343902043191274</v>
-      </c>
-    </row>
-    <row r="491" spans="1:4">
-      <c r="A491" s="18">
-        <f t="shared" si="3"/>
-        <v>489</v>
-      </c>
-      <c r="B491" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="C491" s="20">
-        <v>24.510000229999999</v>
-      </c>
-      <c r="D491" s="18">
-        <f>SUM(C$3:C491)/A491</f>
-        <v>30.331971773634645</v>
-      </c>
-    </row>
-    <row r="492" spans="1:4">
-      <c r="A492" s="18">
-        <f t="shared" si="3"/>
-        <v>490</v>
-      </c>
-      <c r="B492" s="19" t="s">
-        <v>328</v>
-      </c>
-      <c r="C492" s="20">
-        <v>24.5</v>
-      </c>
-      <c r="D492" s="18">
-        <f>SUM(C$3:C492)/A492</f>
-        <v>30.320069790423148</v>
-      </c>
-    </row>
-    <row r="493" spans="1:4">
-      <c r="A493" s="18">
-        <f t="shared" si="3"/>
-        <v>491</v>
-      </c>
-      <c r="B493" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="C493" s="20">
-        <v>24.489999770000001</v>
-      </c>
-      <c r="D493" s="18">
-        <f>SUM(C$3:C493)/A493</f>
-        <v>30.308195920727783</v>
-      </c>
-    </row>
-    <row r="494" spans="1:4">
-      <c r="A494" s="18">
-        <f t="shared" si="3"/>
-        <v>492</v>
-      </c>
-      <c r="B494" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="C494" s="20">
-        <v>24.100000380000001</v>
-      </c>
-      <c r="D494" s="18">
-        <f>SUM(C$3:C494)/A494</f>
-        <v>30.295577637108419</v>
-      </c>
-    </row>
-    <row r="495" spans="1:4">
-      <c r="A495" s="18">
-        <f t="shared" si="3"/>
-        <v>493</v>
-      </c>
-      <c r="B495" s="19" t="s">
-        <v>331</v>
-      </c>
-      <c r="C495" s="20">
-        <v>24.309999470000001</v>
-      </c>
-      <c r="D495" s="18">
-        <f>SUM(C$3:C495)/A495</f>
-        <v>30.283436504923614</v>
-      </c>
-    </row>
-    <row r="496" spans="1:4">
-      <c r="A496" s="18">
-        <f t="shared" si="3"/>
-        <v>494</v>
-      </c>
-      <c r="B496" s="19" t="s">
-        <v>332</v>
-      </c>
-      <c r="C496" s="20">
-        <v>24.450000760000002</v>
-      </c>
-      <c r="D496" s="18">
-        <f>SUM(C$3:C496)/A496</f>
-        <v>30.271627930541179</v>
-      </c>
-    </row>
-    <row r="497" spans="1:4">
-      <c r="A497" s="18">
-        <f t="shared" si="3"/>
-        <v>495</v>
-      </c>
-      <c r="B497" s="19" t="s">
-        <v>333</v>
-      </c>
-      <c r="C497" s="20">
-        <v>24.520000459999999</v>
-      </c>
-      <c r="D497" s="18">
-        <f>SUM(C$3:C497)/A497</f>
-        <v>30.260008481105739</v>
-      </c>
-    </row>
-    <row r="498" spans="1:4">
-      <c r="A498" s="18">
-        <f t="shared" si="3"/>
-        <v>496</v>
-      </c>
-      <c r="B498" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="C498" s="20">
-        <v>24.31999969</v>
-      </c>
-      <c r="D498" s="18">
-        <f>SUM(C$3:C498)/A498</f>
-        <v>30.248032656930125</v>
-      </c>
-    </row>
-    <row r="499" spans="1:4">
-      <c r="A499" s="18">
-        <f t="shared" si="3"/>
-        <v>497</v>
-      </c>
-      <c r="B499" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="C499" s="20">
-        <v>24.13999939</v>
-      </c>
-      <c r="D499" s="18">
-        <f>SUM(C$3:C499)/A499</f>
-        <v>30.235742851564066</v>
-      </c>
-    </row>
-    <row r="500" spans="1:4">
-      <c r="A500" s="18">
-        <f t="shared" si="3"/>
-        <v>498</v>
-      </c>
-      <c r="B500" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="C500" s="20">
-        <v>23.690000529999999</v>
-      </c>
-      <c r="D500" s="18">
-        <f>SUM(C$3:C500)/A500</f>
-        <v>30.222598790677392</v>
-      </c>
-    </row>
-    <row r="501" spans="1:4">
-      <c r="A501" s="18">
-        <f t="shared" si="3"/>
-        <v>499</v>
-      </c>
-      <c r="B501" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="C501" s="20">
-        <v>23.459999079999999</v>
-      </c>
-      <c r="D501" s="18">
-        <f>SUM(C$3:C501)/A501</f>
-        <v>30.209046486647978</v>
-      </c>
-    </row>
-    <row r="502" spans="1:4">
-      <c r="A502" s="18">
-        <f t="shared" si="3"/>
-        <v>500</v>
-      </c>
-      <c r="B502" s="19" t="s">
-        <v>338</v>
-      </c>
-      <c r="C502" s="20">
-        <v>23.049999239999998</v>
-      </c>
-      <c r="D502" s="18">
-        <f>SUM(C$3:C502)/A502</f>
-        <v>30.19472839215468</v>
-      </c>
-    </row>
-    <row r="503" spans="1:4">
-      <c r="A503" s="18">
-        <f t="shared" si="3"/>
-        <v>501</v>
-      </c>
-      <c r="B503" s="19" t="s">
-        <v>339</v>
-      </c>
-      <c r="C503" s="20">
-        <v>23.239999770000001</v>
-      </c>
-      <c r="D503" s="18">
-        <f>SUM(C$3:C503)/A503</f>
-        <v>30.180846698298083</v>
-      </c>
-    </row>
-    <row r="504" spans="1:4">
-      <c r="A504" s="18">
-        <f t="shared" si="3"/>
-        <v>502</v>
-      </c>
-      <c r="B504" s="19">
-        <v>45043</v>
-      </c>
-      <c r="C504" s="20">
-        <v>23.469999309999999</v>
-      </c>
-      <c r="D504" s="18">
-        <f>SUM(C$3:C504)/A504</f>
-        <v>30.167478476409045</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1prac.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1prac.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="3795" yWindow="195" windowWidth="15600" windowHeight="7620"/>
+    <workbookView xWindow="3795" yWindow="195" windowWidth="15600" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="model1" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="323">
   <si>
     <t>PE</t>
   </si>
@@ -1299,74 +1299,6 @@
   </si>
   <si>
     <t xml:space="preserve">2023/3/29
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/3
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/4
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/6
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/7
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/10
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/11
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/12
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/13
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/14
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/17
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/18
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/19
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/20
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/21
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/24
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/25
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/26
 </t>
   </si>
 </sst>
@@ -1930,121 +1862,121 @@
             <c:numRef>
               <c:f>model1!时间</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>43889</c:v>
+                  <c:v>3.25108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43921</c:v>
+                  <c:v>2.8991500000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43951</c:v>
+                  <c:v>3.17509</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43980</c:v>
+                  <c:v>3.1906699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44012</c:v>
+                  <c:v>3.6513100000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44043</c:v>
+                  <c:v>4.1706000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44074</c:v>
+                  <c:v>4.1298999999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44104</c:v>
+                  <c:v>3.9869400000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44134</c:v>
+                  <c:v>4.2014499999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44165</c:v>
+                  <c:v>4.27712</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44196</c:v>
+                  <c:v>4.7245600000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44225</c:v>
+                  <c:v>4.9833500000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44253</c:v>
+                  <c:v>4.7232599999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44286</c:v>
+                  <c:v>4.4379900000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44316</c:v>
+                  <c:v>4.7860299999999993</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44347</c:v>
+                  <c:v>4.9806599999999994</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44377</c:v>
+                  <c:v>5.1114799999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44407</c:v>
+                  <c:v>4.9776999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44439</c:v>
+                  <c:v>4.7613100000000008</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44469</c:v>
+                  <c:v>4.7106400000000006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44498</c:v>
+                  <c:v>4.8678999999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44530</c:v>
+                  <c:v>4.9547099609374996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44561</c:v>
+                  <c:v>4.8630097656249998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44589</c:v>
+                  <c:v>4.3440297851562502</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44620</c:v>
+                  <c:v>4.3355400390624999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44651</c:v>
+                  <c:v>3.8658500976562502</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44680</c:v>
+                  <c:v>3.5012099609375</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44712</c:v>
+                  <c:v>3.6361599121093748</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44742</c:v>
+                  <c:v>4.1096201171875002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44771</c:v>
+                  <c:v>3.8724699707031252</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44804</c:v>
+                  <c:v>3.7022099609375001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44834</c:v>
+                  <c:v>3.3477299804687499</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44865</c:v>
+                  <c:v>3.2993999023437501</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44895</c:v>
+                  <c:v>3.4802900390625</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>44925</c:v>
+                  <c:v>3.4735300292968749</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>44957</c:v>
+                  <c:v>3.8110336914062501</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>44985</c:v>
+                  <c:v>3.6777292480468748</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>45016</c:v>
+                  <c:v>3.7161979980468751</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2056,118 +1988,118 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4000</c:v>
+                  <c:v>3783.4996370436897</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6000</c:v>
+                  <c:v>6143.6117008713063</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>8173.7580810682693</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10000</c:v>
+                  <c:v>11353.811149064422</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12000</c:v>
+                  <c:v>14968.552321848347</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14000</c:v>
+                  <c:v>16822.477397497114</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16000</c:v>
+                  <c:v>18240.153038857396</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18000</c:v>
+                  <c:v>21221.531045139225</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20000</c:v>
+                  <c:v>23603.74034292587</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22000</c:v>
+                  <c:v>28072.985437531297</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24000</c:v>
+                  <c:v>31610.696441599135</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26000</c:v>
+                  <c:v>31960.877336479982</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28000</c:v>
+                  <c:v>32030.541196234128</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30000</c:v>
+                  <c:v>36542.468793623324</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>32000</c:v>
+                  <c:v>40028.514786085325</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>34000</c:v>
+                  <c:v>43079.887556825692</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>36000</c:v>
+                  <c:v>43952.380972166822</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>38000</c:v>
+                  <c:v>44041.688138414858</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>40000</c:v>
+                  <c:v>45572.995207693384</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>42000</c:v>
+                  <c:v>49094.404023982002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44000</c:v>
+                  <c:v>51969.911593071687</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>46000</c:v>
+                  <c:v>53008.069006718506</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>48000</c:v>
+                  <c:v>49351.052479165373</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>50000</c:v>
+                  <c:v>51254.60334650999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>52000</c:v>
+                  <c:v>47701.945217252243</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>54000</c:v>
+                  <c:v>45202.535414395512</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>56000</c:v>
+                  <c:v>48944.813088421164</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>58000</c:v>
+                  <c:v>57317.86097478633</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>60000</c:v>
+                  <c:v>56010.270798873862</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>62000</c:v>
+                  <c:v>55547.679913640975</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>64000</c:v>
+                  <c:v>52229.088937270295</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>66000</c:v>
+                  <c:v>53475.074735568647</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>68000</c:v>
+                  <c:v>58406.85441256113</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>70000</c:v>
+                  <c:v>60293.406710853284</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>72000</c:v>
+                  <c:v>68151.7828856181</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>74000</c:v>
+                  <c:v>67767.93214664339</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>76000</c:v>
+                  <c:v>70476.779226985323</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2209,121 +2141,121 @@
             <c:numRef>
               <c:f>model1!时间</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>43889</c:v>
+                  <c:v>3.25108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43921</c:v>
+                  <c:v>2.8991500000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43951</c:v>
+                  <c:v>3.17509</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43980</c:v>
+                  <c:v>3.1906699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44012</c:v>
+                  <c:v>3.6513100000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44043</c:v>
+                  <c:v>4.1706000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44074</c:v>
+                  <c:v>4.1298999999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44104</c:v>
+                  <c:v>3.9869400000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44134</c:v>
+                  <c:v>4.2014499999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44165</c:v>
+                  <c:v>4.27712</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44196</c:v>
+                  <c:v>4.7245600000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44225</c:v>
+                  <c:v>4.9833500000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44253</c:v>
+                  <c:v>4.7232599999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44286</c:v>
+                  <c:v>4.4379900000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44316</c:v>
+                  <c:v>4.7860299999999993</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44347</c:v>
+                  <c:v>4.9806599999999994</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44377</c:v>
+                  <c:v>5.1114799999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44407</c:v>
+                  <c:v>4.9776999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44439</c:v>
+                  <c:v>4.7613100000000008</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44469</c:v>
+                  <c:v>4.7106400000000006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44498</c:v>
+                  <c:v>4.8678999999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44530</c:v>
+                  <c:v>4.9547099609374996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44561</c:v>
+                  <c:v>4.8630097656249998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44589</c:v>
+                  <c:v>4.3440297851562502</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44620</c:v>
+                  <c:v>4.3355400390624999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44651</c:v>
+                  <c:v>3.8658500976562502</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44680</c:v>
+                  <c:v>3.5012099609375</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44712</c:v>
+                  <c:v>3.6361599121093748</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44742</c:v>
+                  <c:v>4.1096201171875002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44771</c:v>
+                  <c:v>3.8724699707031252</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44804</c:v>
+                  <c:v>3.7022099609375001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44834</c:v>
+                  <c:v>3.3477299804687499</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44865</c:v>
+                  <c:v>3.2993999023437501</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44895</c:v>
+                  <c:v>3.4802900390625</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>44925</c:v>
+                  <c:v>3.4735300292968749</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>44957</c:v>
+                  <c:v>3.8110336914062501</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>44985</c:v>
+                  <c:v>3.6777292480468748</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>45016</c:v>
+                  <c:v>3.7161979980468751</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2335,118 +2267,118 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>2000.0000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3783.4996370436897</c:v>
+                  <c:v>-216.50036295631025</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6143.6117008713063</c:v>
+                  <c:v>143.61170087130631</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8173.7580810682693</c:v>
+                  <c:v>173.75808106826935</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11353.811149064422</c:v>
+                  <c:v>1353.8111490644224</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14968.552321848347</c:v>
+                  <c:v>2968.5523218483468</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16822.477397497114</c:v>
+                  <c:v>2822.477397497114</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18240.153038857396</c:v>
+                  <c:v>2240.1530388573956</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21221.531045139225</c:v>
+                  <c:v>3221.5310451392252</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23603.74034292587</c:v>
+                  <c:v>3603.7403429258702</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28072.985437531297</c:v>
+                  <c:v>6072.9854375312971</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31610.696441599135</c:v>
+                  <c:v>7610.6964415991351</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>31960.877336479982</c:v>
+                  <c:v>5960.8773364799818</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>32030.541196234128</c:v>
+                  <c:v>4030.5411962341277</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>36542.468793623324</c:v>
+                  <c:v>6542.468793623324</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40028.514786085325</c:v>
+                  <c:v>8028.5147860853249</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43079.887556825692</c:v>
+                  <c:v>9079.8875568256917</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43952.380972166822</c:v>
+                  <c:v>7952.3809721668222</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44041.688138414858</c:v>
+                  <c:v>6041.6881384148583</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45572.995207693384</c:v>
+                  <c:v>5572.9952076933841</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>49094.404023982002</c:v>
+                  <c:v>7094.4040239820024</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>51969.911593071687</c:v>
+                  <c:v>7969.9115930716871</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>53008.069006718506</c:v>
+                  <c:v>7008.069006718506</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>49351.052479165373</c:v>
+                  <c:v>1351.0524791653734</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>51254.60334650999</c:v>
+                  <c:v>1254.6033465099899</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>47701.945217252243</c:v>
+                  <c:v>-4298.0547827477567</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>45202.535414395512</c:v>
+                  <c:v>-8797.4645856044881</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>48944.813088421164</c:v>
+                  <c:v>-7055.1869115788359</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>57317.86097478633</c:v>
+                  <c:v>-682.13902521366981</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>56010.270798873862</c:v>
+                  <c:v>-3989.7292011261379</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>55547.679913640975</c:v>
+                  <c:v>-6452.3200863590246</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>52229.088937270295</c:v>
+                  <c:v>-11770.911062729705</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>53475.074735568647</c:v>
+                  <c:v>-12524.925264431353</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>58406.85441256113</c:v>
+                  <c:v>-9593.1455874388703</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>60293.406710853284</c:v>
+                  <c:v>-9706.5932891467164</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>68151.7828856181</c:v>
+                  <c:v>-3848.2171143818996</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>67767.93214664339</c:v>
+                  <c:v>-6232.0678533566097</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>70476.779226985323</c:v>
+                  <c:v>-5523.2207730146765</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2488,121 +2420,121 @@
             <c:numRef>
               <c:f>model1!时间</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>43889</c:v>
+                  <c:v>3.25108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43921</c:v>
+                  <c:v>2.8991500000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43951</c:v>
+                  <c:v>3.17509</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43980</c:v>
+                  <c:v>3.1906699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44012</c:v>
+                  <c:v>3.6513100000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44043</c:v>
+                  <c:v>4.1706000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44074</c:v>
+                  <c:v>4.1298999999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44104</c:v>
+                  <c:v>3.9869400000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44134</c:v>
+                  <c:v>4.2014499999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44165</c:v>
+                  <c:v>4.27712</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44196</c:v>
+                  <c:v>4.7245600000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44225</c:v>
+                  <c:v>4.9833500000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44253</c:v>
+                  <c:v>4.7232599999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44286</c:v>
+                  <c:v>4.4379900000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44316</c:v>
+                  <c:v>4.7860299999999993</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44347</c:v>
+                  <c:v>4.9806599999999994</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44377</c:v>
+                  <c:v>5.1114799999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44407</c:v>
+                  <c:v>4.9776999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44439</c:v>
+                  <c:v>4.7613100000000008</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44469</c:v>
+                  <c:v>4.7106400000000006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44498</c:v>
+                  <c:v>4.8678999999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44530</c:v>
+                  <c:v>4.9547099609374996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44561</c:v>
+                  <c:v>4.8630097656249998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44589</c:v>
+                  <c:v>4.3440297851562502</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44620</c:v>
+                  <c:v>4.3355400390624999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44651</c:v>
+                  <c:v>3.8658500976562502</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44680</c:v>
+                  <c:v>3.5012099609375</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44712</c:v>
+                  <c:v>3.6361599121093748</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44742</c:v>
+                  <c:v>4.1096201171875002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44771</c:v>
+                  <c:v>3.8724699707031252</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44804</c:v>
+                  <c:v>3.7022099609375001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44834</c:v>
+                  <c:v>3.3477299804687499</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44865</c:v>
+                  <c:v>3.2993999023437501</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44895</c:v>
+                  <c:v>3.4802900390625</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>44925</c:v>
+                  <c:v>3.4735300292968749</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>44957</c:v>
+                  <c:v>3.8110336914062501</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>44985</c:v>
+                  <c:v>3.6777292480468748</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>45016</c:v>
+                  <c:v>3.7161979980468751</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2611,122 +2543,8 @@
             <c:numRef>
               <c:f>model1!金额</c:f>
               <c:numCache>
-                <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-216.50036295631025</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>143.61170087130631</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>173.75808106826935</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1353.8111490644224</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2968.5523218483468</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2822.477397497114</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2240.1530388573956</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3221.5310451392252</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3603.7403429258702</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6072.9854375312971</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7610.6964415991351</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5960.8773364799818</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4030.5411962341277</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6542.468793623324</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8028.5147860853249</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9079.8875568256917</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7952.3809721668222</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6041.6881384148583</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5572.9952076933841</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7094.4040239820024</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7969.9115930716871</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7008.069006718506</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1351.0524791653734</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1254.6033465099899</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-4298.0547827477567</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-8797.4645856044881</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-7055.1869115788359</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-682.13902521366981</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-3989.7292011261379</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-6452.3200863590246</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-11770.911062729705</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-12524.925264431353</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-9593.1455874388703</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-9706.5932891467164</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-3848.2171143818996</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-6232.0678533566097</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-5523.2207730146765</c:v>
-                </c:pt>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2747,17 +2565,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="545129600"/>
-        <c:axId val="616671872"/>
+        <c:axId val="157358336"/>
+        <c:axId val="477261184"/>
       </c:lineChart>
-      <c:dateAx>
-        <c:axId val="545129600"/>
+      <c:catAx>
+        <c:axId val="157358336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -2794,14 +2612,15 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616671872"/>
+        <c:crossAx val="477261184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="616671872"/>
+        <c:axId val="477261184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2852,7 +2671,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="545129600"/>
+        <c:crossAx val="157358336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3260,7 +3079,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -4650,9 +4469,9 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D504"/>
+  <dimension ref="A1:D486"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -10330,7 +10149,7 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="18">
-        <f t="shared" ref="A356:A504" si="3">A355+1</f>
+        <f t="shared" ref="A356:A486" si="3">A355+1</f>
         <v>354</v>
       </c>
       <c r="B356" s="19" t="s">
@@ -12422,294 +12241,6 @@
       <c r="D486" s="18">
         <f>SUM(C$3:C486)/A486</f>
         <v>30.393087180738309</v>
-      </c>
-    </row>
-    <row r="487" spans="1:4">
-      <c r="A487" s="18">
-        <f t="shared" si="3"/>
-        <v>485</v>
-      </c>
-      <c r="B487" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="C487" s="20">
-        <v>24.370000839999999</v>
-      </c>
-      <c r="D487" s="18">
-        <f>SUM(C$3:C487)/A487</f>
-        <v>30.380668446015136</v>
-      </c>
-    </row>
-    <row r="488" spans="1:4">
-      <c r="A488" s="18">
-        <f t="shared" si="3"/>
-        <v>486</v>
-      </c>
-      <c r="B488" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="C488" s="20">
-        <v>24.25</v>
-      </c>
-      <c r="D488" s="18">
-        <f>SUM(C$3:C488)/A488</f>
-        <v>30.368053901887535</v>
-      </c>
-    </row>
-    <row r="489" spans="1:4">
-      <c r="A489" s="18">
-        <f t="shared" si="3"/>
-        <v>487</v>
-      </c>
-      <c r="B489" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="C489" s="20">
-        <v>24.329999919999999</v>
-      </c>
-      <c r="D489" s="18">
-        <f>SUM(C$3:C489)/A489</f>
-        <v>30.355655433752244</v>
-      </c>
-    </row>
-    <row r="490" spans="1:4">
-      <c r="A490" s="18">
-        <f t="shared" si="3"/>
-        <v>488</v>
-      </c>
-      <c r="B490" s="19" t="s">
-        <v>326</v>
-      </c>
-      <c r="C490" s="20">
-        <v>24.620000839999999</v>
-      </c>
-      <c r="D490" s="18">
-        <f>SUM(C$3:C490)/A490</f>
-        <v>30.343902043191274</v>
-      </c>
-    </row>
-    <row r="491" spans="1:4">
-      <c r="A491" s="18">
-        <f t="shared" si="3"/>
-        <v>489</v>
-      </c>
-      <c r="B491" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="C491" s="20">
-        <v>24.510000229999999</v>
-      </c>
-      <c r="D491" s="18">
-        <f>SUM(C$3:C491)/A491</f>
-        <v>30.331971773634645</v>
-      </c>
-    </row>
-    <row r="492" spans="1:4">
-      <c r="A492" s="18">
-        <f t="shared" si="3"/>
-        <v>490</v>
-      </c>
-      <c r="B492" s="19" t="s">
-        <v>328</v>
-      </c>
-      <c r="C492" s="20">
-        <v>24.5</v>
-      </c>
-      <c r="D492" s="18">
-        <f>SUM(C$3:C492)/A492</f>
-        <v>30.320069790423148</v>
-      </c>
-    </row>
-    <row r="493" spans="1:4">
-      <c r="A493" s="18">
-        <f t="shared" si="3"/>
-        <v>491</v>
-      </c>
-      <c r="B493" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="C493" s="20">
-        <v>24.489999770000001</v>
-      </c>
-      <c r="D493" s="18">
-        <f>SUM(C$3:C493)/A493</f>
-        <v>30.308195920727783</v>
-      </c>
-    </row>
-    <row r="494" spans="1:4">
-      <c r="A494" s="18">
-        <f t="shared" si="3"/>
-        <v>492</v>
-      </c>
-      <c r="B494" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="C494" s="20">
-        <v>24.100000380000001</v>
-      </c>
-      <c r="D494" s="18">
-        <f>SUM(C$3:C494)/A494</f>
-        <v>30.295577637108419</v>
-      </c>
-    </row>
-    <row r="495" spans="1:4">
-      <c r="A495" s="18">
-        <f t="shared" si="3"/>
-        <v>493</v>
-      </c>
-      <c r="B495" s="19" t="s">
-        <v>331</v>
-      </c>
-      <c r="C495" s="20">
-        <v>24.309999470000001</v>
-      </c>
-      <c r="D495" s="18">
-        <f>SUM(C$3:C495)/A495</f>
-        <v>30.283436504923614</v>
-      </c>
-    </row>
-    <row r="496" spans="1:4">
-      <c r="A496" s="18">
-        <f t="shared" si="3"/>
-        <v>494</v>
-      </c>
-      <c r="B496" s="19" t="s">
-        <v>332</v>
-      </c>
-      <c r="C496" s="20">
-        <v>24.450000760000002</v>
-      </c>
-      <c r="D496" s="18">
-        <f>SUM(C$3:C496)/A496</f>
-        <v>30.271627930541179</v>
-      </c>
-    </row>
-    <row r="497" spans="1:4">
-      <c r="A497" s="18">
-        <f t="shared" si="3"/>
-        <v>495</v>
-      </c>
-      <c r="B497" s="19" t="s">
-        <v>333</v>
-      </c>
-      <c r="C497" s="20">
-        <v>24.520000459999999</v>
-      </c>
-      <c r="D497" s="18">
-        <f>SUM(C$3:C497)/A497</f>
-        <v>30.260008481105739</v>
-      </c>
-    </row>
-    <row r="498" spans="1:4">
-      <c r="A498" s="18">
-        <f t="shared" si="3"/>
-        <v>496</v>
-      </c>
-      <c r="B498" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="C498" s="20">
-        <v>24.31999969</v>
-      </c>
-      <c r="D498" s="18">
-        <f>SUM(C$3:C498)/A498</f>
-        <v>30.248032656930125</v>
-      </c>
-    </row>
-    <row r="499" spans="1:4">
-      <c r="A499" s="18">
-        <f t="shared" si="3"/>
-        <v>497</v>
-      </c>
-      <c r="B499" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="C499" s="20">
-        <v>24.13999939</v>
-      </c>
-      <c r="D499" s="18">
-        <f>SUM(C$3:C499)/A499</f>
-        <v>30.235742851564066</v>
-      </c>
-    </row>
-    <row r="500" spans="1:4">
-      <c r="A500" s="18">
-        <f t="shared" si="3"/>
-        <v>498</v>
-      </c>
-      <c r="B500" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="C500" s="20">
-        <v>23.690000529999999</v>
-      </c>
-      <c r="D500" s="18">
-        <f>SUM(C$3:C500)/A500</f>
-        <v>30.222598790677392</v>
-      </c>
-    </row>
-    <row r="501" spans="1:4">
-      <c r="A501" s="18">
-        <f t="shared" si="3"/>
-        <v>499</v>
-      </c>
-      <c r="B501" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="C501" s="20">
-        <v>23.459999079999999</v>
-      </c>
-      <c r="D501" s="18">
-        <f>SUM(C$3:C501)/A501</f>
-        <v>30.209046486647978</v>
-      </c>
-    </row>
-    <row r="502" spans="1:4">
-      <c r="A502" s="18">
-        <f t="shared" si="3"/>
-        <v>500</v>
-      </c>
-      <c r="B502" s="19" t="s">
-        <v>338</v>
-      </c>
-      <c r="C502" s="20">
-        <v>23.049999239999998</v>
-      </c>
-      <c r="D502" s="18">
-        <f>SUM(C$3:C502)/A502</f>
-        <v>30.19472839215468</v>
-      </c>
-    </row>
-    <row r="503" spans="1:4">
-      <c r="A503" s="18">
-        <f t="shared" si="3"/>
-        <v>501</v>
-      </c>
-      <c r="B503" s="19" t="s">
-        <v>339</v>
-      </c>
-      <c r="C503" s="20">
-        <v>23.239999770000001</v>
-      </c>
-      <c r="D503" s="18">
-        <f>SUM(C$3:C503)/A503</f>
-        <v>30.180846698298083</v>
-      </c>
-    </row>
-    <row r="504" spans="1:4">
-      <c r="A504" s="18">
-        <f t="shared" si="3"/>
-        <v>502</v>
-      </c>
-      <c r="B504" s="19">
-        <v>45043</v>
-      </c>
-      <c r="C504" s="20">
-        <v>23.469999309999999</v>
-      </c>
-      <c r="D504" s="18">
-        <f>SUM(C$3:C504)/A504</f>
-        <v>30.167478476409045</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1prac.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1prac.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="3795" yWindow="195" windowWidth="15600" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="3795" yWindow="195" windowWidth="15600" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="model1" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="340">
   <si>
     <t>PE</t>
   </si>
@@ -1299,6 +1299,74 @@
   </si>
   <si>
     <t xml:space="preserve">2023/3/29
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/3
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/4
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/6
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/7
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/10
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/11
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/12
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/13
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/14
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/17
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/18
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/19
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/20
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/21
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/24
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/25
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/26
 </t>
   </si>
 </sst>
@@ -1862,121 +1930,121 @@
             <c:numRef>
               <c:f>model1!时间</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>3.25108</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8991500000000001</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.17509</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1906699999999999</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6513100000000001</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1706000000000003</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1298999999999992</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9869400000000002</c:v>
+                  <c:v>44104</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2014499999999995</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.27712</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7245600000000003</c:v>
+                  <c:v>44196</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.9833500000000006</c:v>
+                  <c:v>44225</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7232599999999998</c:v>
+                  <c:v>44253</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4379900000000001</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.7860299999999993</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.9806599999999994</c:v>
+                  <c:v>44347</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1114799999999994</c:v>
+                  <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.9776999999999996</c:v>
+                  <c:v>44407</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.7613100000000008</c:v>
+                  <c:v>44439</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.7106400000000006</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.8678999999999997</c:v>
+                  <c:v>44498</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.9547099609374996</c:v>
+                  <c:v>44530</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.8630097656249998</c:v>
+                  <c:v>44561</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.3440297851562502</c:v>
+                  <c:v>44589</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.3355400390624999</c:v>
+                  <c:v>44620</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.8658500976562502</c:v>
+                  <c:v>44651</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.5012099609375</c:v>
+                  <c:v>44680</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.6361599121093748</c:v>
+                  <c:v>44712</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.1096201171875002</c:v>
+                  <c:v>44742</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.8724699707031252</c:v>
+                  <c:v>44771</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.7022099609375001</c:v>
+                  <c:v>44804</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.3477299804687499</c:v>
+                  <c:v>44834</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2993999023437501</c:v>
+                  <c:v>44865</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.4802900390625</c:v>
+                  <c:v>44895</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.4735300292968749</c:v>
+                  <c:v>44925</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.8110336914062501</c:v>
+                  <c:v>44957</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.6777292480468748</c:v>
+                  <c:v>44985</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.7161979980468751</c:v>
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1988,118 +2056,118 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>2000.0000000000002</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3783.4996370436897</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6143.6117008713063</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8173.7580810682693</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11353.811149064422</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14968.552321848347</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16822.477397497114</c:v>
+                  <c:v>14000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18240.153038857396</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21221.531045139225</c:v>
+                  <c:v>18000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23603.74034292587</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28072.985437531297</c:v>
+                  <c:v>22000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31610.696441599135</c:v>
+                  <c:v>24000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>31960.877336479982</c:v>
+                  <c:v>26000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>32030.541196234128</c:v>
+                  <c:v>28000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>36542.468793623324</c:v>
+                  <c:v>30000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40028.514786085325</c:v>
+                  <c:v>32000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43079.887556825692</c:v>
+                  <c:v>34000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43952.380972166822</c:v>
+                  <c:v>36000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44041.688138414858</c:v>
+                  <c:v>38000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45572.995207693384</c:v>
+                  <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>49094.404023982002</c:v>
+                  <c:v>42000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>51969.911593071687</c:v>
+                  <c:v>44000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>53008.069006718506</c:v>
+                  <c:v>46000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>49351.052479165373</c:v>
+                  <c:v>48000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>51254.60334650999</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>47701.945217252243</c:v>
+                  <c:v>52000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>45202.535414395512</c:v>
+                  <c:v>54000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>48944.813088421164</c:v>
+                  <c:v>56000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>57317.86097478633</c:v>
+                  <c:v>58000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>56010.270798873862</c:v>
+                  <c:v>60000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>55547.679913640975</c:v>
+                  <c:v>62000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>52229.088937270295</c:v>
+                  <c:v>64000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>53475.074735568647</c:v>
+                  <c:v>66000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>58406.85441256113</c:v>
+                  <c:v>68000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>60293.406710853284</c:v>
+                  <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>68151.7828856181</c:v>
+                  <c:v>72000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>67767.93214664339</c:v>
+                  <c:v>74000</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>70476.779226985323</c:v>
+                  <c:v>76000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2141,121 +2209,121 @@
             <c:numRef>
               <c:f>model1!时间</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>3.25108</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8991500000000001</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.17509</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1906699999999999</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6513100000000001</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1706000000000003</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1298999999999992</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9869400000000002</c:v>
+                  <c:v>44104</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2014499999999995</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.27712</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7245600000000003</c:v>
+                  <c:v>44196</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.9833500000000006</c:v>
+                  <c:v>44225</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7232599999999998</c:v>
+                  <c:v>44253</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4379900000000001</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.7860299999999993</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.9806599999999994</c:v>
+                  <c:v>44347</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1114799999999994</c:v>
+                  <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.9776999999999996</c:v>
+                  <c:v>44407</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.7613100000000008</c:v>
+                  <c:v>44439</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.7106400000000006</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.8678999999999997</c:v>
+                  <c:v>44498</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.9547099609374996</c:v>
+                  <c:v>44530</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.8630097656249998</c:v>
+                  <c:v>44561</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.3440297851562502</c:v>
+                  <c:v>44589</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.3355400390624999</c:v>
+                  <c:v>44620</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.8658500976562502</c:v>
+                  <c:v>44651</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.5012099609375</c:v>
+                  <c:v>44680</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.6361599121093748</c:v>
+                  <c:v>44712</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.1096201171875002</c:v>
+                  <c:v>44742</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.8724699707031252</c:v>
+                  <c:v>44771</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.7022099609375001</c:v>
+                  <c:v>44804</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.3477299804687499</c:v>
+                  <c:v>44834</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2993999023437501</c:v>
+                  <c:v>44865</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.4802900390625</c:v>
+                  <c:v>44895</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.4735300292968749</c:v>
+                  <c:v>44925</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.8110336914062501</c:v>
+                  <c:v>44957</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.6777292480468748</c:v>
+                  <c:v>44985</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.7161979980468751</c:v>
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2267,118 +2335,118 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2000.0000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-216.50036295631025</c:v>
+                  <c:v>3783.4996370436897</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>143.61170087130631</c:v>
+                  <c:v>6143.6117008713063</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>173.75808106826935</c:v>
+                  <c:v>8173.7580810682693</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1353.8111490644224</c:v>
+                  <c:v>11353.811149064422</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2968.5523218483468</c:v>
+                  <c:v>14968.552321848347</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2822.477397497114</c:v>
+                  <c:v>16822.477397497114</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2240.1530388573956</c:v>
+                  <c:v>18240.153038857396</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3221.5310451392252</c:v>
+                  <c:v>21221.531045139225</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3603.7403429258702</c:v>
+                  <c:v>23603.74034292587</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6072.9854375312971</c:v>
+                  <c:v>28072.985437531297</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7610.6964415991351</c:v>
+                  <c:v>31610.696441599135</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5960.8773364799818</c:v>
+                  <c:v>31960.877336479982</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4030.5411962341277</c:v>
+                  <c:v>32030.541196234128</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6542.468793623324</c:v>
+                  <c:v>36542.468793623324</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8028.5147860853249</c:v>
+                  <c:v>40028.514786085325</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9079.8875568256917</c:v>
+                  <c:v>43079.887556825692</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7952.3809721668222</c:v>
+                  <c:v>43952.380972166822</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6041.6881384148583</c:v>
+                  <c:v>44041.688138414858</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5572.9952076933841</c:v>
+                  <c:v>45572.995207693384</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7094.4040239820024</c:v>
+                  <c:v>49094.404023982002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7969.9115930716871</c:v>
+                  <c:v>51969.911593071687</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7008.069006718506</c:v>
+                  <c:v>53008.069006718506</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1351.0524791653734</c:v>
+                  <c:v>49351.052479165373</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1254.6033465099899</c:v>
+                  <c:v>51254.60334650999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-4298.0547827477567</c:v>
+                  <c:v>47701.945217252243</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-8797.4645856044881</c:v>
+                  <c:v>45202.535414395512</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-7055.1869115788359</c:v>
+                  <c:v>48944.813088421164</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-682.13902521366981</c:v>
+                  <c:v>57317.86097478633</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-3989.7292011261379</c:v>
+                  <c:v>56010.270798873862</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-6452.3200863590246</c:v>
+                  <c:v>55547.679913640975</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-11770.911062729705</c:v>
+                  <c:v>52229.088937270295</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-12524.925264431353</c:v>
+                  <c:v>53475.074735568647</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-9593.1455874388703</c:v>
+                  <c:v>58406.85441256113</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-9706.5932891467164</c:v>
+                  <c:v>60293.406710853284</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-3848.2171143818996</c:v>
+                  <c:v>68151.7828856181</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-6232.0678533566097</c:v>
+                  <c:v>67767.93214664339</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-5523.2207730146765</c:v>
+                  <c:v>70476.779226985323</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2420,121 +2488,121 @@
             <c:numRef>
               <c:f>model1!时间</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>3.25108</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8991500000000001</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.17509</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1906699999999999</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6513100000000001</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1706000000000003</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1298999999999992</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9869400000000002</c:v>
+                  <c:v>44104</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2014499999999995</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.27712</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7245600000000003</c:v>
+                  <c:v>44196</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.9833500000000006</c:v>
+                  <c:v>44225</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7232599999999998</c:v>
+                  <c:v>44253</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4379900000000001</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.7860299999999993</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.9806599999999994</c:v>
+                  <c:v>44347</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1114799999999994</c:v>
+                  <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.9776999999999996</c:v>
+                  <c:v>44407</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.7613100000000008</c:v>
+                  <c:v>44439</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.7106400000000006</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.8678999999999997</c:v>
+                  <c:v>44498</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.9547099609374996</c:v>
+                  <c:v>44530</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.8630097656249998</c:v>
+                  <c:v>44561</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.3440297851562502</c:v>
+                  <c:v>44589</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.3355400390624999</c:v>
+                  <c:v>44620</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.8658500976562502</c:v>
+                  <c:v>44651</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.5012099609375</c:v>
+                  <c:v>44680</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.6361599121093748</c:v>
+                  <c:v>44712</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.1096201171875002</c:v>
+                  <c:v>44742</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.8724699707031252</c:v>
+                  <c:v>44771</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.7022099609375001</c:v>
+                  <c:v>44804</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.3477299804687499</c:v>
+                  <c:v>44834</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2993999023437501</c:v>
+                  <c:v>44865</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.4802900390625</c:v>
+                  <c:v>44895</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.4735300292968749</c:v>
+                  <c:v>44925</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.8110336914062501</c:v>
+                  <c:v>44957</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.6777292480468748</c:v>
+                  <c:v>44985</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.7161979980468751</c:v>
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2543,8 +2611,122 @@
             <c:numRef>
               <c:f>model1!金额</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-216.50036295631025</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>143.61170087130631</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>173.75808106826935</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1353.8111490644224</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2968.5523218483468</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2822.477397497114</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2240.1530388573956</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3221.5310451392252</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3603.7403429258702</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6072.9854375312971</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7610.6964415991351</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5960.8773364799818</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4030.5411962341277</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6542.468793623324</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8028.5147860853249</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9079.8875568256917</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7952.3809721668222</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6041.6881384148583</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5572.9952076933841</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7094.4040239820024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7969.9115930716871</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7008.069006718506</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1351.0524791653734</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1254.6033465099899</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-4298.0547827477567</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-8797.4645856044881</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-7055.1869115788359</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-682.13902521366981</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-3989.7292011261379</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-6452.3200863590246</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-11770.911062729705</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-12524.925264431353</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-9593.1455874388703</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-9706.5932891467164</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-3848.2171143818996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-6232.0678533566097</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-5523.2207730146765</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2565,17 +2747,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="157358336"/>
-        <c:axId val="477261184"/>
+        <c:axId val="606630272"/>
+        <c:axId val="606632192"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="157358336"/>
+      <c:dateAx>
+        <c:axId val="606630272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -2612,15 +2794,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477261184"/>
+        <c:crossAx val="606632192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="477261184"/>
+        <c:axId val="606632192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2671,7 +2852,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157358336"/>
+        <c:crossAx val="606630272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3079,7 +3260,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -3255,27 +3436,21 @@
         <v>44196</v>
       </c>
       <c r="M4" s="9">
-        <f>N4</f>
         <v>22000</v>
       </c>
       <c r="N4" s="4">
-        <f>VLOOKUP(L4,A:G,7,)</f>
         <v>22000</v>
       </c>
       <c r="O4" s="4">
-        <f>VLOOKUP(L4,A:H,8,)</f>
         <v>28072.985437531297</v>
       </c>
       <c r="P4" s="4">
-        <f>VLOOKUP(L4,A:I,9,)</f>
         <v>6072.9854375312971</v>
       </c>
       <c r="Q4" s="8">
-        <f t="shared" ref="Q4" si="0">(O4-N4)/N4</f>
         <v>0.27604479261505893</v>
       </c>
       <c r="R4" s="8">
-        <f>Q4</f>
         <v>0.27604479261505893</v>
       </c>
       <c r="T4" s="23">
@@ -3332,23 +3507,18 @@
         <v>44561</v>
       </c>
       <c r="M5" s="9">
-        <f>N5-N4</f>
         <v>24000</v>
       </c>
       <c r="N5" s="4">
-        <f>VLOOKUP(L5,A:G,7,)</f>
         <v>46000</v>
       </c>
       <c r="O5" s="4">
-        <f>VLOOKUP(L5,A:H,8,)</f>
         <v>53008.069006718506</v>
       </c>
       <c r="P5" s="4">
-        <f>VLOOKUP(L5,A:I,9,)</f>
         <v>7008.069006718506</v>
       </c>
       <c r="Q5" s="8">
-        <f t="shared" ref="Q5:Q6" si="1">(O5-N5)/N5</f>
         <v>0.15234932623301101</v>
       </c>
       <c r="R5" s="8">
@@ -3404,30 +3574,24 @@
         <v>44925</v>
       </c>
       <c r="M6" s="9">
-        <f>N6-N5</f>
         <v>24000</v>
       </c>
       <c r="N6" s="4">
-        <f>VLOOKUP(L6,A:G,7,)</f>
         <v>70000</v>
       </c>
       <c r="O6" s="4">
-        <f>VLOOKUP(L6,A:H,8,)</f>
         <v>60293.406710853284</v>
       </c>
       <c r="P6" s="4">
-        <f>VLOOKUP(L6,A:I,9,)</f>
         <v>-9706.5932891467164</v>
       </c>
       <c r="Q6" s="8">
-        <f t="shared" si="1"/>
         <v>-0.13866561841638167</v>
       </c>
       <c r="R6" s="8">
         <v>-7.3828223896210132E-2</v>
       </c>
       <c r="V6" s="2">
-        <f>IRR(V3:V5)</f>
         <v>9.9835199022272558E-2</v>
       </c>
       <c r="W6" s="23">
@@ -3467,7 +3631,6 @@
       </c>
       <c r="J7" s="6"/>
       <c r="Y7" s="2">
-        <f>IRR(Y3:Y6)</f>
         <v>-7.3828223896210132E-2</v>
       </c>
     </row>
@@ -4469,9 +4632,9 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D486"/>
+  <dimension ref="A1:D504"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -10149,7 +10312,7 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="18">
-        <f t="shared" ref="A356:A486" si="3">A355+1</f>
+        <f t="shared" ref="A356:A504" si="3">A355+1</f>
         <v>354</v>
       </c>
       <c r="B356" s="19" t="s">
@@ -12241,6 +12404,294 @@
       <c r="D486" s="18">
         <f>SUM(C$3:C486)/A486</f>
         <v>30.393087180738309</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4">
+      <c r="A487" s="18">
+        <f t="shared" si="3"/>
+        <v>485</v>
+      </c>
+      <c r="B487" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C487" s="20">
+        <v>24.370000839999999</v>
+      </c>
+      <c r="D487" s="18">
+        <f>SUM(C$3:C487)/A487</f>
+        <v>30.380668446015136</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4">
+      <c r="A488" s="18">
+        <f t="shared" si="3"/>
+        <v>486</v>
+      </c>
+      <c r="B488" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="C488" s="20">
+        <v>24.25</v>
+      </c>
+      <c r="D488" s="18">
+        <f>SUM(C$3:C488)/A488</f>
+        <v>30.368053901887535</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4">
+      <c r="A489" s="18">
+        <f t="shared" si="3"/>
+        <v>487</v>
+      </c>
+      <c r="B489" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="C489" s="20">
+        <v>24.329999919999999</v>
+      </c>
+      <c r="D489" s="18">
+        <f>SUM(C$3:C489)/A489</f>
+        <v>30.355655433752244</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4">
+      <c r="A490" s="18">
+        <f t="shared" si="3"/>
+        <v>488</v>
+      </c>
+      <c r="B490" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C490" s="20">
+        <v>24.620000839999999</v>
+      </c>
+      <c r="D490" s="18">
+        <f>SUM(C$3:C490)/A490</f>
+        <v>30.343902043191274</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4">
+      <c r="A491" s="18">
+        <f t="shared" si="3"/>
+        <v>489</v>
+      </c>
+      <c r="B491" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="C491" s="20">
+        <v>24.510000229999999</v>
+      </c>
+      <c r="D491" s="18">
+        <f>SUM(C$3:C491)/A491</f>
+        <v>30.331971773634645</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4">
+      <c r="A492" s="18">
+        <f t="shared" si="3"/>
+        <v>490</v>
+      </c>
+      <c r="B492" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="C492" s="20">
+        <v>24.5</v>
+      </c>
+      <c r="D492" s="18">
+        <f>SUM(C$3:C492)/A492</f>
+        <v>30.320069790423148</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4">
+      <c r="A493" s="18">
+        <f t="shared" si="3"/>
+        <v>491</v>
+      </c>
+      <c r="B493" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="C493" s="20">
+        <v>24.489999770000001</v>
+      </c>
+      <c r="D493" s="18">
+        <f>SUM(C$3:C493)/A493</f>
+        <v>30.308195920727783</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4">
+      <c r="A494" s="18">
+        <f t="shared" si="3"/>
+        <v>492</v>
+      </c>
+      <c r="B494" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="C494" s="20">
+        <v>24.100000380000001</v>
+      </c>
+      <c r="D494" s="18">
+        <f>SUM(C$3:C494)/A494</f>
+        <v>30.295577637108419</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4">
+      <c r="A495" s="18">
+        <f t="shared" si="3"/>
+        <v>493</v>
+      </c>
+      <c r="B495" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="C495" s="20">
+        <v>24.309999470000001</v>
+      </c>
+      <c r="D495" s="18">
+        <f>SUM(C$3:C495)/A495</f>
+        <v>30.283436504923614</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4">
+      <c r="A496" s="18">
+        <f t="shared" si="3"/>
+        <v>494</v>
+      </c>
+      <c r="B496" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="C496" s="20">
+        <v>24.450000760000002</v>
+      </c>
+      <c r="D496" s="18">
+        <f>SUM(C$3:C496)/A496</f>
+        <v>30.271627930541179</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4">
+      <c r="A497" s="18">
+        <f t="shared" si="3"/>
+        <v>495</v>
+      </c>
+      <c r="B497" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="C497" s="20">
+        <v>24.520000459999999</v>
+      </c>
+      <c r="D497" s="18">
+        <f>SUM(C$3:C497)/A497</f>
+        <v>30.260008481105739</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4">
+      <c r="A498" s="18">
+        <f t="shared" si="3"/>
+        <v>496</v>
+      </c>
+      <c r="B498" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="C498" s="20">
+        <v>24.31999969</v>
+      </c>
+      <c r="D498" s="18">
+        <f>SUM(C$3:C498)/A498</f>
+        <v>30.248032656930125</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4">
+      <c r="A499" s="18">
+        <f t="shared" si="3"/>
+        <v>497</v>
+      </c>
+      <c r="B499" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="C499" s="20">
+        <v>24.13999939</v>
+      </c>
+      <c r="D499" s="18">
+        <f>SUM(C$3:C499)/A499</f>
+        <v>30.235742851564066</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4">
+      <c r="A500" s="18">
+        <f t="shared" si="3"/>
+        <v>498</v>
+      </c>
+      <c r="B500" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="C500" s="20">
+        <v>23.690000529999999</v>
+      </c>
+      <c r="D500" s="18">
+        <f>SUM(C$3:C500)/A500</f>
+        <v>30.222598790677392</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4">
+      <c r="A501" s="18">
+        <f t="shared" si="3"/>
+        <v>499</v>
+      </c>
+      <c r="B501" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="C501" s="20">
+        <v>23.459999079999999</v>
+      </c>
+      <c r="D501" s="18">
+        <f>SUM(C$3:C501)/A501</f>
+        <v>30.209046486647978</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4">
+      <c r="A502" s="18">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="B502" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="C502" s="20">
+        <v>23.049999239999998</v>
+      </c>
+      <c r="D502" s="18">
+        <f>SUM(C$3:C502)/A502</f>
+        <v>30.19472839215468</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4">
+      <c r="A503" s="18">
+        <f t="shared" si="3"/>
+        <v>501</v>
+      </c>
+      <c r="B503" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="C503" s="20">
+        <v>23.239999770000001</v>
+      </c>
+      <c r="D503" s="18">
+        <f>SUM(C$3:C503)/A503</f>
+        <v>30.180846698298083</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4">
+      <c r="A504" s="18">
+        <f t="shared" si="3"/>
+        <v>502</v>
+      </c>
+      <c r="B504" s="19">
+        <v>45043</v>
+      </c>
+      <c r="C504" s="20">
+        <v>23.469999309999999</v>
+      </c>
+      <c r="D504" s="18">
+        <f>SUM(C$3:C504)/A504</f>
+        <v>30.167478476409045</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1prac.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1prac.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="3795" yWindow="195" windowWidth="15600" windowHeight="7620"/>
+    <workbookView xWindow="3795" yWindow="195" windowWidth="15600" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="model1" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="323">
   <si>
     <t>PE</t>
   </si>
@@ -1299,74 +1299,6 @@
   </si>
   <si>
     <t xml:space="preserve">2023/3/29
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/3
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/4
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/6
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/7
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/10
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/11
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/12
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/13
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/14
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/17
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/18
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/19
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/20
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/21
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/24
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/25
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/26
 </t>
   </si>
 </sst>
@@ -1930,121 +1862,121 @@
             <c:numRef>
               <c:f>model1!时间</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>43889</c:v>
+                  <c:v>3.25108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43921</c:v>
+                  <c:v>2.8991500000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43951</c:v>
+                  <c:v>3.17509</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43980</c:v>
+                  <c:v>3.1906699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44012</c:v>
+                  <c:v>3.6513100000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44043</c:v>
+                  <c:v>4.1706000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44074</c:v>
+                  <c:v>4.1298999999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44104</c:v>
+                  <c:v>3.9869400000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44134</c:v>
+                  <c:v>4.2014499999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44165</c:v>
+                  <c:v>4.27712</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44196</c:v>
+                  <c:v>4.7245600000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44225</c:v>
+                  <c:v>4.9833500000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44253</c:v>
+                  <c:v>4.7232599999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44286</c:v>
+                  <c:v>4.4379900000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44316</c:v>
+                  <c:v>4.7860299999999993</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44347</c:v>
+                  <c:v>4.9806599999999994</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44377</c:v>
+                  <c:v>5.1114799999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44407</c:v>
+                  <c:v>4.9776999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44439</c:v>
+                  <c:v>4.7613100000000008</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44469</c:v>
+                  <c:v>4.7106400000000006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44498</c:v>
+                  <c:v>4.8678999999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44530</c:v>
+                  <c:v>4.9547099609374996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44561</c:v>
+                  <c:v>4.8630097656249998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44589</c:v>
+                  <c:v>4.3440297851562502</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44620</c:v>
+                  <c:v>4.3355400390624999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44651</c:v>
+                  <c:v>3.8658500976562502</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44680</c:v>
+                  <c:v>3.5012099609375</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44712</c:v>
+                  <c:v>3.6361599121093748</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44742</c:v>
+                  <c:v>4.1096201171875002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44771</c:v>
+                  <c:v>3.8724699707031252</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44804</c:v>
+                  <c:v>3.7022099609375001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44834</c:v>
+                  <c:v>3.3477299804687499</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44865</c:v>
+                  <c:v>3.2993999023437501</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44895</c:v>
+                  <c:v>3.4802900390625</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>44925</c:v>
+                  <c:v>3.4735300292968749</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>44957</c:v>
+                  <c:v>3.8110336914062501</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>44985</c:v>
+                  <c:v>3.6777292480468748</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>45016</c:v>
+                  <c:v>3.7161979980468751</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2056,118 +1988,118 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4000</c:v>
+                  <c:v>3783.4996370436897</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6000</c:v>
+                  <c:v>6143.6117008713063</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>8173.7580810682693</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10000</c:v>
+                  <c:v>11353.811149064422</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12000</c:v>
+                  <c:v>14968.552321848347</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14000</c:v>
+                  <c:v>16822.477397497114</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16000</c:v>
+                  <c:v>18240.153038857396</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18000</c:v>
+                  <c:v>21221.531045139225</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20000</c:v>
+                  <c:v>23603.74034292587</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22000</c:v>
+                  <c:v>28072.985437531297</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24000</c:v>
+                  <c:v>31610.696441599135</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26000</c:v>
+                  <c:v>31960.877336479982</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28000</c:v>
+                  <c:v>32030.541196234128</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30000</c:v>
+                  <c:v>36542.468793623324</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>32000</c:v>
+                  <c:v>40028.514786085325</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>34000</c:v>
+                  <c:v>43079.887556825692</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>36000</c:v>
+                  <c:v>43952.380972166822</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>38000</c:v>
+                  <c:v>44041.688138414858</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>40000</c:v>
+                  <c:v>45572.995207693384</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>42000</c:v>
+                  <c:v>49094.404023982002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44000</c:v>
+                  <c:v>51969.911593071687</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>46000</c:v>
+                  <c:v>53008.069006718506</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>48000</c:v>
+                  <c:v>49351.052479165373</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>50000</c:v>
+                  <c:v>51254.60334650999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>52000</c:v>
+                  <c:v>47701.945217252243</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>54000</c:v>
+                  <c:v>45202.535414395512</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>56000</c:v>
+                  <c:v>48944.813088421164</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>58000</c:v>
+                  <c:v>57317.86097478633</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>60000</c:v>
+                  <c:v>56010.270798873862</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>62000</c:v>
+                  <c:v>55547.679913640975</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>64000</c:v>
+                  <c:v>52229.088937270295</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>66000</c:v>
+                  <c:v>53475.074735568647</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>68000</c:v>
+                  <c:v>58406.85441256113</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>70000</c:v>
+                  <c:v>60293.406710853284</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>72000</c:v>
+                  <c:v>68151.7828856181</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>74000</c:v>
+                  <c:v>67767.93214664339</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>76000</c:v>
+                  <c:v>70476.779226985323</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2209,121 +2141,121 @@
             <c:numRef>
               <c:f>model1!时间</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>43889</c:v>
+                  <c:v>3.25108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43921</c:v>
+                  <c:v>2.8991500000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43951</c:v>
+                  <c:v>3.17509</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43980</c:v>
+                  <c:v>3.1906699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44012</c:v>
+                  <c:v>3.6513100000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44043</c:v>
+                  <c:v>4.1706000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44074</c:v>
+                  <c:v>4.1298999999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44104</c:v>
+                  <c:v>3.9869400000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44134</c:v>
+                  <c:v>4.2014499999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44165</c:v>
+                  <c:v>4.27712</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44196</c:v>
+                  <c:v>4.7245600000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44225</c:v>
+                  <c:v>4.9833500000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44253</c:v>
+                  <c:v>4.7232599999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44286</c:v>
+                  <c:v>4.4379900000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44316</c:v>
+                  <c:v>4.7860299999999993</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44347</c:v>
+                  <c:v>4.9806599999999994</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44377</c:v>
+                  <c:v>5.1114799999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44407</c:v>
+                  <c:v>4.9776999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44439</c:v>
+                  <c:v>4.7613100000000008</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44469</c:v>
+                  <c:v>4.7106400000000006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44498</c:v>
+                  <c:v>4.8678999999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44530</c:v>
+                  <c:v>4.9547099609374996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44561</c:v>
+                  <c:v>4.8630097656249998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44589</c:v>
+                  <c:v>4.3440297851562502</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44620</c:v>
+                  <c:v>4.3355400390624999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44651</c:v>
+                  <c:v>3.8658500976562502</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44680</c:v>
+                  <c:v>3.5012099609375</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44712</c:v>
+                  <c:v>3.6361599121093748</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44742</c:v>
+                  <c:v>4.1096201171875002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44771</c:v>
+                  <c:v>3.8724699707031252</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44804</c:v>
+                  <c:v>3.7022099609375001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44834</c:v>
+                  <c:v>3.3477299804687499</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44865</c:v>
+                  <c:v>3.2993999023437501</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44895</c:v>
+                  <c:v>3.4802900390625</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>44925</c:v>
+                  <c:v>3.4735300292968749</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>44957</c:v>
+                  <c:v>3.8110336914062501</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>44985</c:v>
+                  <c:v>3.6777292480468748</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>45016</c:v>
+                  <c:v>3.7161979980468751</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2335,118 +2267,118 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>2000.0000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3783.4996370436897</c:v>
+                  <c:v>-216.50036295631025</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6143.6117008713063</c:v>
+                  <c:v>143.61170087130631</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8173.7580810682693</c:v>
+                  <c:v>173.75808106826935</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11353.811149064422</c:v>
+                  <c:v>1353.8111490644224</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14968.552321848347</c:v>
+                  <c:v>2968.5523218483468</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16822.477397497114</c:v>
+                  <c:v>2822.477397497114</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18240.153038857396</c:v>
+                  <c:v>2240.1530388573956</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21221.531045139225</c:v>
+                  <c:v>3221.5310451392252</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23603.74034292587</c:v>
+                  <c:v>3603.7403429258702</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28072.985437531297</c:v>
+                  <c:v>6072.9854375312971</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31610.696441599135</c:v>
+                  <c:v>7610.6964415991351</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>31960.877336479982</c:v>
+                  <c:v>5960.8773364799818</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>32030.541196234128</c:v>
+                  <c:v>4030.5411962341277</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>36542.468793623324</c:v>
+                  <c:v>6542.468793623324</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40028.514786085325</c:v>
+                  <c:v>8028.5147860853249</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43079.887556825692</c:v>
+                  <c:v>9079.8875568256917</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43952.380972166822</c:v>
+                  <c:v>7952.3809721668222</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44041.688138414858</c:v>
+                  <c:v>6041.6881384148583</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45572.995207693384</c:v>
+                  <c:v>5572.9952076933841</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>49094.404023982002</c:v>
+                  <c:v>7094.4040239820024</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>51969.911593071687</c:v>
+                  <c:v>7969.9115930716871</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>53008.069006718506</c:v>
+                  <c:v>7008.069006718506</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>49351.052479165373</c:v>
+                  <c:v>1351.0524791653734</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>51254.60334650999</c:v>
+                  <c:v>1254.6033465099899</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>47701.945217252243</c:v>
+                  <c:v>-4298.0547827477567</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>45202.535414395512</c:v>
+                  <c:v>-8797.4645856044881</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>48944.813088421164</c:v>
+                  <c:v>-7055.1869115788359</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>57317.86097478633</c:v>
+                  <c:v>-682.13902521366981</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>56010.270798873862</c:v>
+                  <c:v>-3989.7292011261379</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>55547.679913640975</c:v>
+                  <c:v>-6452.3200863590246</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>52229.088937270295</c:v>
+                  <c:v>-11770.911062729705</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>53475.074735568647</c:v>
+                  <c:v>-12524.925264431353</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>58406.85441256113</c:v>
+                  <c:v>-9593.1455874388703</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>60293.406710853284</c:v>
+                  <c:v>-9706.5932891467164</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>68151.7828856181</c:v>
+                  <c:v>-3848.2171143818996</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>67767.93214664339</c:v>
+                  <c:v>-6232.0678533566097</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>70476.779226985323</c:v>
+                  <c:v>-5523.2207730146765</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2488,121 +2420,121 @@
             <c:numRef>
               <c:f>model1!时间</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>43889</c:v>
+                  <c:v>3.25108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43921</c:v>
+                  <c:v>2.8991500000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43951</c:v>
+                  <c:v>3.17509</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43980</c:v>
+                  <c:v>3.1906699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44012</c:v>
+                  <c:v>3.6513100000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44043</c:v>
+                  <c:v>4.1706000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44074</c:v>
+                  <c:v>4.1298999999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44104</c:v>
+                  <c:v>3.9869400000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44134</c:v>
+                  <c:v>4.2014499999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44165</c:v>
+                  <c:v>4.27712</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44196</c:v>
+                  <c:v>4.7245600000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44225</c:v>
+                  <c:v>4.9833500000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44253</c:v>
+                  <c:v>4.7232599999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44286</c:v>
+                  <c:v>4.4379900000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44316</c:v>
+                  <c:v>4.7860299999999993</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44347</c:v>
+                  <c:v>4.9806599999999994</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44377</c:v>
+                  <c:v>5.1114799999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44407</c:v>
+                  <c:v>4.9776999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44439</c:v>
+                  <c:v>4.7613100000000008</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44469</c:v>
+                  <c:v>4.7106400000000006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44498</c:v>
+                  <c:v>4.8678999999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44530</c:v>
+                  <c:v>4.9547099609374996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44561</c:v>
+                  <c:v>4.8630097656249998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44589</c:v>
+                  <c:v>4.3440297851562502</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44620</c:v>
+                  <c:v>4.3355400390624999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44651</c:v>
+                  <c:v>3.8658500976562502</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44680</c:v>
+                  <c:v>3.5012099609375</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44712</c:v>
+                  <c:v>3.6361599121093748</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44742</c:v>
+                  <c:v>4.1096201171875002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44771</c:v>
+                  <c:v>3.8724699707031252</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44804</c:v>
+                  <c:v>3.7022099609375001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44834</c:v>
+                  <c:v>3.3477299804687499</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44865</c:v>
+                  <c:v>3.2993999023437501</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44895</c:v>
+                  <c:v>3.4802900390625</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>44925</c:v>
+                  <c:v>3.4735300292968749</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>44957</c:v>
+                  <c:v>3.8110336914062501</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>44985</c:v>
+                  <c:v>3.6777292480468748</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>45016</c:v>
+                  <c:v>3.7161979980468751</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2611,122 +2543,8 @@
             <c:numRef>
               <c:f>model1!金额</c:f>
               <c:numCache>
-                <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-216.50036295631025</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>143.61170087130631</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>173.75808106826935</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1353.8111490644224</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2968.5523218483468</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2822.477397497114</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2240.1530388573956</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3221.5310451392252</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3603.7403429258702</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6072.9854375312971</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7610.6964415991351</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5960.8773364799818</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4030.5411962341277</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6542.468793623324</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8028.5147860853249</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9079.8875568256917</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7952.3809721668222</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6041.6881384148583</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5572.9952076933841</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7094.4040239820024</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7969.9115930716871</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7008.069006718506</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1351.0524791653734</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1254.6033465099899</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-4298.0547827477567</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-8797.4645856044881</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-7055.1869115788359</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-682.13902521366981</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-3989.7292011261379</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-6452.3200863590246</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-11770.911062729705</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-12524.925264431353</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-9593.1455874388703</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-9706.5932891467164</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-3848.2171143818996</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-6232.0678533566097</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-5523.2207730146765</c:v>
-                </c:pt>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2747,17 +2565,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="606630272"/>
-        <c:axId val="606632192"/>
+        <c:axId val="606632960"/>
+        <c:axId val="612406784"/>
       </c:lineChart>
-      <c:dateAx>
-        <c:axId val="606630272"/>
+      <c:catAx>
+        <c:axId val="606632960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -2794,14 +2612,15 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="606632192"/>
+        <c:crossAx val="612406784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="606632192"/>
+        <c:axId val="612406784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2852,7 +2671,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="606630272"/>
+        <c:crossAx val="606632960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3260,7 +3079,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -4632,9 +4451,9 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D504"/>
+  <dimension ref="A1:D486"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -10312,7 +10131,7 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="18">
-        <f t="shared" ref="A356:A504" si="3">A355+1</f>
+        <f t="shared" ref="A356:A486" si="3">A355+1</f>
         <v>354</v>
       </c>
       <c r="B356" s="19" t="s">
@@ -12404,294 +12223,6 @@
       <c r="D486" s="18">
         <f>SUM(C$3:C486)/A486</f>
         <v>30.393087180738309</v>
-      </c>
-    </row>
-    <row r="487" spans="1:4">
-      <c r="A487" s="18">
-        <f t="shared" si="3"/>
-        <v>485</v>
-      </c>
-      <c r="B487" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="C487" s="20">
-        <v>24.370000839999999</v>
-      </c>
-      <c r="D487" s="18">
-        <f>SUM(C$3:C487)/A487</f>
-        <v>30.380668446015136</v>
-      </c>
-    </row>
-    <row r="488" spans="1:4">
-      <c r="A488" s="18">
-        <f t="shared" si="3"/>
-        <v>486</v>
-      </c>
-      <c r="B488" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="C488" s="20">
-        <v>24.25</v>
-      </c>
-      <c r="D488" s="18">
-        <f>SUM(C$3:C488)/A488</f>
-        <v>30.368053901887535</v>
-      </c>
-    </row>
-    <row r="489" spans="1:4">
-      <c r="A489" s="18">
-        <f t="shared" si="3"/>
-        <v>487</v>
-      </c>
-      <c r="B489" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="C489" s="20">
-        <v>24.329999919999999</v>
-      </c>
-      <c r="D489" s="18">
-        <f>SUM(C$3:C489)/A489</f>
-        <v>30.355655433752244</v>
-      </c>
-    </row>
-    <row r="490" spans="1:4">
-      <c r="A490" s="18">
-        <f t="shared" si="3"/>
-        <v>488</v>
-      </c>
-      <c r="B490" s="19" t="s">
-        <v>326</v>
-      </c>
-      <c r="C490" s="20">
-        <v>24.620000839999999</v>
-      </c>
-      <c r="D490" s="18">
-        <f>SUM(C$3:C490)/A490</f>
-        <v>30.343902043191274</v>
-      </c>
-    </row>
-    <row r="491" spans="1:4">
-      <c r="A491" s="18">
-        <f t="shared" si="3"/>
-        <v>489</v>
-      </c>
-      <c r="B491" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="C491" s="20">
-        <v>24.510000229999999</v>
-      </c>
-      <c r="D491" s="18">
-        <f>SUM(C$3:C491)/A491</f>
-        <v>30.331971773634645</v>
-      </c>
-    </row>
-    <row r="492" spans="1:4">
-      <c r="A492" s="18">
-        <f t="shared" si="3"/>
-        <v>490</v>
-      </c>
-      <c r="B492" s="19" t="s">
-        <v>328</v>
-      </c>
-      <c r="C492" s="20">
-        <v>24.5</v>
-      </c>
-      <c r="D492" s="18">
-        <f>SUM(C$3:C492)/A492</f>
-        <v>30.320069790423148</v>
-      </c>
-    </row>
-    <row r="493" spans="1:4">
-      <c r="A493" s="18">
-        <f t="shared" si="3"/>
-        <v>491</v>
-      </c>
-      <c r="B493" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="C493" s="20">
-        <v>24.489999770000001</v>
-      </c>
-      <c r="D493" s="18">
-        <f>SUM(C$3:C493)/A493</f>
-        <v>30.308195920727783</v>
-      </c>
-    </row>
-    <row r="494" spans="1:4">
-      <c r="A494" s="18">
-        <f t="shared" si="3"/>
-        <v>492</v>
-      </c>
-      <c r="B494" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="C494" s="20">
-        <v>24.100000380000001</v>
-      </c>
-      <c r="D494" s="18">
-        <f>SUM(C$3:C494)/A494</f>
-        <v>30.295577637108419</v>
-      </c>
-    </row>
-    <row r="495" spans="1:4">
-      <c r="A495" s="18">
-        <f t="shared" si="3"/>
-        <v>493</v>
-      </c>
-      <c r="B495" s="19" t="s">
-        <v>331</v>
-      </c>
-      <c r="C495" s="20">
-        <v>24.309999470000001</v>
-      </c>
-      <c r="D495" s="18">
-        <f>SUM(C$3:C495)/A495</f>
-        <v>30.283436504923614</v>
-      </c>
-    </row>
-    <row r="496" spans="1:4">
-      <c r="A496" s="18">
-        <f t="shared" si="3"/>
-        <v>494</v>
-      </c>
-      <c r="B496" s="19" t="s">
-        <v>332</v>
-      </c>
-      <c r="C496" s="20">
-        <v>24.450000760000002</v>
-      </c>
-      <c r="D496" s="18">
-        <f>SUM(C$3:C496)/A496</f>
-        <v>30.271627930541179</v>
-      </c>
-    </row>
-    <row r="497" spans="1:4">
-      <c r="A497" s="18">
-        <f t="shared" si="3"/>
-        <v>495</v>
-      </c>
-      <c r="B497" s="19" t="s">
-        <v>333</v>
-      </c>
-      <c r="C497" s="20">
-        <v>24.520000459999999</v>
-      </c>
-      <c r="D497" s="18">
-        <f>SUM(C$3:C497)/A497</f>
-        <v>30.260008481105739</v>
-      </c>
-    </row>
-    <row r="498" spans="1:4">
-      <c r="A498" s="18">
-        <f t="shared" si="3"/>
-        <v>496</v>
-      </c>
-      <c r="B498" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="C498" s="20">
-        <v>24.31999969</v>
-      </c>
-      <c r="D498" s="18">
-        <f>SUM(C$3:C498)/A498</f>
-        <v>30.248032656930125</v>
-      </c>
-    </row>
-    <row r="499" spans="1:4">
-      <c r="A499" s="18">
-        <f t="shared" si="3"/>
-        <v>497</v>
-      </c>
-      <c r="B499" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="C499" s="20">
-        <v>24.13999939</v>
-      </c>
-      <c r="D499" s="18">
-        <f>SUM(C$3:C499)/A499</f>
-        <v>30.235742851564066</v>
-      </c>
-    </row>
-    <row r="500" spans="1:4">
-      <c r="A500" s="18">
-        <f t="shared" si="3"/>
-        <v>498</v>
-      </c>
-      <c r="B500" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="C500" s="20">
-        <v>23.690000529999999</v>
-      </c>
-      <c r="D500" s="18">
-        <f>SUM(C$3:C500)/A500</f>
-        <v>30.222598790677392</v>
-      </c>
-    </row>
-    <row r="501" spans="1:4">
-      <c r="A501" s="18">
-        <f t="shared" si="3"/>
-        <v>499</v>
-      </c>
-      <c r="B501" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="C501" s="20">
-        <v>23.459999079999999</v>
-      </c>
-      <c r="D501" s="18">
-        <f>SUM(C$3:C501)/A501</f>
-        <v>30.209046486647978</v>
-      </c>
-    </row>
-    <row r="502" spans="1:4">
-      <c r="A502" s="18">
-        <f t="shared" si="3"/>
-        <v>500</v>
-      </c>
-      <c r="B502" s="19" t="s">
-        <v>338</v>
-      </c>
-      <c r="C502" s="20">
-        <v>23.049999239999998</v>
-      </c>
-      <c r="D502" s="18">
-        <f>SUM(C$3:C502)/A502</f>
-        <v>30.19472839215468</v>
-      </c>
-    </row>
-    <row r="503" spans="1:4">
-      <c r="A503" s="18">
-        <f t="shared" si="3"/>
-        <v>501</v>
-      </c>
-      <c r="B503" s="19" t="s">
-        <v>339</v>
-      </c>
-      <c r="C503" s="20">
-        <v>23.239999770000001</v>
-      </c>
-      <c r="D503" s="18">
-        <f>SUM(C$3:C503)/A503</f>
-        <v>30.180846698298083</v>
-      </c>
-    </row>
-    <row r="504" spans="1:4">
-      <c r="A504" s="18">
-        <f t="shared" si="3"/>
-        <v>502</v>
-      </c>
-      <c r="B504" s="19">
-        <v>45043</v>
-      </c>
-      <c r="C504" s="20">
-        <v>23.469999309999999</v>
-      </c>
-      <c r="D504" s="18">
-        <f>SUM(C$3:C504)/A504</f>
-        <v>30.167478476409045</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1prac.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1prac.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="3795" yWindow="195" windowWidth="15600" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="3795" yWindow="195" windowWidth="15600" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="model1" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="340">
   <si>
     <t>PE</t>
   </si>
@@ -1299,6 +1299,74 @@
   </si>
   <si>
     <t xml:space="preserve">2023/3/29
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/3
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/4
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/6
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/7
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/10
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/11
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/12
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/13
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/14
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/17
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/18
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/19
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/20
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/21
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/24
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/25
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/26
 </t>
   </si>
 </sst>
@@ -1862,121 +1930,121 @@
             <c:numRef>
               <c:f>model1!时间</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>3.25108</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8991500000000001</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.17509</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1906699999999999</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6513100000000001</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1706000000000003</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1298999999999992</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9869400000000002</c:v>
+                  <c:v>44104</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2014499999999995</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.27712</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7245600000000003</c:v>
+                  <c:v>44196</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.9833500000000006</c:v>
+                  <c:v>44225</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7232599999999998</c:v>
+                  <c:v>44253</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4379900000000001</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.7860299999999993</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.9806599999999994</c:v>
+                  <c:v>44347</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1114799999999994</c:v>
+                  <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.9776999999999996</c:v>
+                  <c:v>44407</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.7613100000000008</c:v>
+                  <c:v>44439</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.7106400000000006</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.8678999999999997</c:v>
+                  <c:v>44498</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.9547099609374996</c:v>
+                  <c:v>44530</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.8630097656249998</c:v>
+                  <c:v>44561</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.3440297851562502</c:v>
+                  <c:v>44589</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.3355400390624999</c:v>
+                  <c:v>44620</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.8658500976562502</c:v>
+                  <c:v>44651</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.5012099609375</c:v>
+                  <c:v>44680</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.6361599121093748</c:v>
+                  <c:v>44712</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.1096201171875002</c:v>
+                  <c:v>44742</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.8724699707031252</c:v>
+                  <c:v>44771</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.7022099609375001</c:v>
+                  <c:v>44804</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.3477299804687499</c:v>
+                  <c:v>44834</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2993999023437501</c:v>
+                  <c:v>44865</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.4802900390625</c:v>
+                  <c:v>44895</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.4735300292968749</c:v>
+                  <c:v>44925</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.8110336914062501</c:v>
+                  <c:v>44957</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.6777292480468748</c:v>
+                  <c:v>44985</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.7161979980468751</c:v>
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1988,118 +2056,118 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>2000.0000000000002</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3783.4996370436897</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6143.6117008713063</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8173.7580810682693</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11353.811149064422</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14968.552321848347</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16822.477397497114</c:v>
+                  <c:v>14000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18240.153038857396</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21221.531045139225</c:v>
+                  <c:v>18000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23603.74034292587</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28072.985437531297</c:v>
+                  <c:v>22000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31610.696441599135</c:v>
+                  <c:v>24000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>31960.877336479982</c:v>
+                  <c:v>26000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>32030.541196234128</c:v>
+                  <c:v>28000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>36542.468793623324</c:v>
+                  <c:v>30000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40028.514786085325</c:v>
+                  <c:v>32000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43079.887556825692</c:v>
+                  <c:v>34000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43952.380972166822</c:v>
+                  <c:v>36000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44041.688138414858</c:v>
+                  <c:v>38000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45572.995207693384</c:v>
+                  <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>49094.404023982002</c:v>
+                  <c:v>42000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>51969.911593071687</c:v>
+                  <c:v>44000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>53008.069006718506</c:v>
+                  <c:v>46000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>49351.052479165373</c:v>
+                  <c:v>48000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>51254.60334650999</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>47701.945217252243</c:v>
+                  <c:v>52000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>45202.535414395512</c:v>
+                  <c:v>54000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>48944.813088421164</c:v>
+                  <c:v>56000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>57317.86097478633</c:v>
+                  <c:v>58000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>56010.270798873862</c:v>
+                  <c:v>60000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>55547.679913640975</c:v>
+                  <c:v>62000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>52229.088937270295</c:v>
+                  <c:v>64000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>53475.074735568647</c:v>
+                  <c:v>66000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>58406.85441256113</c:v>
+                  <c:v>68000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>60293.406710853284</c:v>
+                  <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>68151.7828856181</c:v>
+                  <c:v>72000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>67767.93214664339</c:v>
+                  <c:v>74000</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>70476.779226985323</c:v>
+                  <c:v>76000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2141,121 +2209,121 @@
             <c:numRef>
               <c:f>model1!时间</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>3.25108</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8991500000000001</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.17509</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1906699999999999</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6513100000000001</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1706000000000003</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1298999999999992</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9869400000000002</c:v>
+                  <c:v>44104</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2014499999999995</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.27712</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7245600000000003</c:v>
+                  <c:v>44196</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.9833500000000006</c:v>
+                  <c:v>44225</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7232599999999998</c:v>
+                  <c:v>44253</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4379900000000001</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.7860299999999993</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.9806599999999994</c:v>
+                  <c:v>44347</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1114799999999994</c:v>
+                  <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.9776999999999996</c:v>
+                  <c:v>44407</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.7613100000000008</c:v>
+                  <c:v>44439</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.7106400000000006</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.8678999999999997</c:v>
+                  <c:v>44498</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.9547099609374996</c:v>
+                  <c:v>44530</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.8630097656249998</c:v>
+                  <c:v>44561</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.3440297851562502</c:v>
+                  <c:v>44589</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.3355400390624999</c:v>
+                  <c:v>44620</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.8658500976562502</c:v>
+                  <c:v>44651</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.5012099609375</c:v>
+                  <c:v>44680</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.6361599121093748</c:v>
+                  <c:v>44712</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.1096201171875002</c:v>
+                  <c:v>44742</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.8724699707031252</c:v>
+                  <c:v>44771</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.7022099609375001</c:v>
+                  <c:v>44804</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.3477299804687499</c:v>
+                  <c:v>44834</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2993999023437501</c:v>
+                  <c:v>44865</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.4802900390625</c:v>
+                  <c:v>44895</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.4735300292968749</c:v>
+                  <c:v>44925</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.8110336914062501</c:v>
+                  <c:v>44957</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.6777292480468748</c:v>
+                  <c:v>44985</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.7161979980468751</c:v>
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2267,118 +2335,118 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2000.0000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-216.50036295631025</c:v>
+                  <c:v>3783.4996370436897</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>143.61170087130631</c:v>
+                  <c:v>6143.6117008713063</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>173.75808106826935</c:v>
+                  <c:v>8173.7580810682693</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1353.8111490644224</c:v>
+                  <c:v>11353.811149064422</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2968.5523218483468</c:v>
+                  <c:v>14968.552321848347</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2822.477397497114</c:v>
+                  <c:v>16822.477397497114</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2240.1530388573956</c:v>
+                  <c:v>18240.153038857396</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3221.5310451392252</c:v>
+                  <c:v>21221.531045139225</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3603.7403429258702</c:v>
+                  <c:v>23603.74034292587</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6072.9854375312971</c:v>
+                  <c:v>28072.985437531297</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7610.6964415991351</c:v>
+                  <c:v>31610.696441599135</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5960.8773364799818</c:v>
+                  <c:v>31960.877336479982</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4030.5411962341277</c:v>
+                  <c:v>32030.541196234128</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6542.468793623324</c:v>
+                  <c:v>36542.468793623324</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8028.5147860853249</c:v>
+                  <c:v>40028.514786085325</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9079.8875568256917</c:v>
+                  <c:v>43079.887556825692</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7952.3809721668222</c:v>
+                  <c:v>43952.380972166822</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6041.6881384148583</c:v>
+                  <c:v>44041.688138414858</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5572.9952076933841</c:v>
+                  <c:v>45572.995207693384</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7094.4040239820024</c:v>
+                  <c:v>49094.404023982002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7969.9115930716871</c:v>
+                  <c:v>51969.911593071687</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7008.069006718506</c:v>
+                  <c:v>53008.069006718506</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1351.0524791653734</c:v>
+                  <c:v>49351.052479165373</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1254.6033465099899</c:v>
+                  <c:v>51254.60334650999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-4298.0547827477567</c:v>
+                  <c:v>47701.945217252243</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-8797.4645856044881</c:v>
+                  <c:v>45202.535414395512</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-7055.1869115788359</c:v>
+                  <c:v>48944.813088421164</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-682.13902521366981</c:v>
+                  <c:v>57317.86097478633</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-3989.7292011261379</c:v>
+                  <c:v>56010.270798873862</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-6452.3200863590246</c:v>
+                  <c:v>55547.679913640975</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-11770.911062729705</c:v>
+                  <c:v>52229.088937270295</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-12524.925264431353</c:v>
+                  <c:v>53475.074735568647</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-9593.1455874388703</c:v>
+                  <c:v>58406.85441256113</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-9706.5932891467164</c:v>
+                  <c:v>60293.406710853284</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-3848.2171143818996</c:v>
+                  <c:v>68151.7828856181</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-6232.0678533566097</c:v>
+                  <c:v>67767.93214664339</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-5523.2207730146765</c:v>
+                  <c:v>70476.779226985323</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2420,121 +2488,121 @@
             <c:numRef>
               <c:f>model1!时间</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>3.25108</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8991500000000001</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.17509</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1906699999999999</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6513100000000001</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1706000000000003</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1298999999999992</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9869400000000002</c:v>
+                  <c:v>44104</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2014499999999995</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.27712</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7245600000000003</c:v>
+                  <c:v>44196</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.9833500000000006</c:v>
+                  <c:v>44225</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7232599999999998</c:v>
+                  <c:v>44253</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4379900000000001</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.7860299999999993</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.9806599999999994</c:v>
+                  <c:v>44347</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1114799999999994</c:v>
+                  <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.9776999999999996</c:v>
+                  <c:v>44407</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.7613100000000008</c:v>
+                  <c:v>44439</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.7106400000000006</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.8678999999999997</c:v>
+                  <c:v>44498</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.9547099609374996</c:v>
+                  <c:v>44530</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.8630097656249998</c:v>
+                  <c:v>44561</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.3440297851562502</c:v>
+                  <c:v>44589</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.3355400390624999</c:v>
+                  <c:v>44620</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.8658500976562502</c:v>
+                  <c:v>44651</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.5012099609375</c:v>
+                  <c:v>44680</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.6361599121093748</c:v>
+                  <c:v>44712</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.1096201171875002</c:v>
+                  <c:v>44742</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.8724699707031252</c:v>
+                  <c:v>44771</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.7022099609375001</c:v>
+                  <c:v>44804</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.3477299804687499</c:v>
+                  <c:v>44834</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2993999023437501</c:v>
+                  <c:v>44865</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.4802900390625</c:v>
+                  <c:v>44895</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.4735300292968749</c:v>
+                  <c:v>44925</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.8110336914062501</c:v>
+                  <c:v>44957</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.6777292480468748</c:v>
+                  <c:v>44985</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.7161979980468751</c:v>
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2543,8 +2611,122 @@
             <c:numRef>
               <c:f>model1!金额</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-216.50036295631025</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>143.61170087130631</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>173.75808106826935</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1353.8111490644224</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2968.5523218483468</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2822.477397497114</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2240.1530388573956</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3221.5310451392252</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3603.7403429258702</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6072.9854375312971</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7610.6964415991351</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5960.8773364799818</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4030.5411962341277</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6542.468793623324</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8028.5147860853249</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9079.8875568256917</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7952.3809721668222</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6041.6881384148583</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5572.9952076933841</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7094.4040239820024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7969.9115930716871</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7008.069006718506</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1351.0524791653734</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1254.6033465099899</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-4298.0547827477567</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-8797.4645856044881</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-7055.1869115788359</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-682.13902521366981</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-3989.7292011261379</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-6452.3200863590246</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-11770.911062729705</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-12524.925264431353</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-9593.1455874388703</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-9706.5932891467164</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-3848.2171143818996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-6232.0678533566097</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-5523.2207730146765</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2565,17 +2747,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="606632960"/>
-        <c:axId val="612406784"/>
+        <c:axId val="81937536"/>
+        <c:axId val="81939456"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="606632960"/>
+      <c:dateAx>
+        <c:axId val="81937536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -2612,15 +2794,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="612406784"/>
+        <c:crossAx val="81939456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="612406784"/>
+        <c:axId val="81939456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2671,7 +2852,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="606632960"/>
+        <c:crossAx val="81937536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3079,7 +3260,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -4451,9 +4632,9 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D486"/>
+  <dimension ref="A1:D504"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -10131,7 +10312,7 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="18">
-        <f t="shared" ref="A356:A486" si="3">A355+1</f>
+        <f t="shared" ref="A356:A504" si="3">A355+1</f>
         <v>354</v>
       </c>
       <c r="B356" s="19" t="s">
@@ -12223,6 +12404,294 @@
       <c r="D486" s="18">
         <f>SUM(C$3:C486)/A486</f>
         <v>30.393087180738309</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4">
+      <c r="A487" s="18">
+        <f t="shared" si="3"/>
+        <v>485</v>
+      </c>
+      <c r="B487" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C487" s="20">
+        <v>24.370000839999999</v>
+      </c>
+      <c r="D487" s="18">
+        <f>SUM(C$3:C487)/A487</f>
+        <v>30.380668446015136</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4">
+      <c r="A488" s="18">
+        <f t="shared" si="3"/>
+        <v>486</v>
+      </c>
+      <c r="B488" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="C488" s="20">
+        <v>24.25</v>
+      </c>
+      <c r="D488" s="18">
+        <f>SUM(C$3:C488)/A488</f>
+        <v>30.368053901887535</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4">
+      <c r="A489" s="18">
+        <f t="shared" si="3"/>
+        <v>487</v>
+      </c>
+      <c r="B489" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="C489" s="20">
+        <v>24.329999919999999</v>
+      </c>
+      <c r="D489" s="18">
+        <f>SUM(C$3:C489)/A489</f>
+        <v>30.355655433752244</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4">
+      <c r="A490" s="18">
+        <f t="shared" si="3"/>
+        <v>488</v>
+      </c>
+      <c r="B490" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C490" s="20">
+        <v>24.620000839999999</v>
+      </c>
+      <c r="D490" s="18">
+        <f>SUM(C$3:C490)/A490</f>
+        <v>30.343902043191274</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4">
+      <c r="A491" s="18">
+        <f t="shared" si="3"/>
+        <v>489</v>
+      </c>
+      <c r="B491" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="C491" s="20">
+        <v>24.510000229999999</v>
+      </c>
+      <c r="D491" s="18">
+        <f>SUM(C$3:C491)/A491</f>
+        <v>30.331971773634645</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4">
+      <c r="A492" s="18">
+        <f t="shared" si="3"/>
+        <v>490</v>
+      </c>
+      <c r="B492" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="C492" s="20">
+        <v>24.5</v>
+      </c>
+      <c r="D492" s="18">
+        <f>SUM(C$3:C492)/A492</f>
+        <v>30.320069790423148</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4">
+      <c r="A493" s="18">
+        <f t="shared" si="3"/>
+        <v>491</v>
+      </c>
+      <c r="B493" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="C493" s="20">
+        <v>24.489999770000001</v>
+      </c>
+      <c r="D493" s="18">
+        <f>SUM(C$3:C493)/A493</f>
+        <v>30.308195920727783</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4">
+      <c r="A494" s="18">
+        <f t="shared" si="3"/>
+        <v>492</v>
+      </c>
+      <c r="B494" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="C494" s="20">
+        <v>24.100000380000001</v>
+      </c>
+      <c r="D494" s="18">
+        <f>SUM(C$3:C494)/A494</f>
+        <v>30.295577637108419</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4">
+      <c r="A495" s="18">
+        <f t="shared" si="3"/>
+        <v>493</v>
+      </c>
+      <c r="B495" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="C495" s="20">
+        <v>24.309999470000001</v>
+      </c>
+      <c r="D495" s="18">
+        <f>SUM(C$3:C495)/A495</f>
+        <v>30.283436504923614</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4">
+      <c r="A496" s="18">
+        <f t="shared" si="3"/>
+        <v>494</v>
+      </c>
+      <c r="B496" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="C496" s="20">
+        <v>24.450000760000002</v>
+      </c>
+      <c r="D496" s="18">
+        <f>SUM(C$3:C496)/A496</f>
+        <v>30.271627930541179</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4">
+      <c r="A497" s="18">
+        <f t="shared" si="3"/>
+        <v>495</v>
+      </c>
+      <c r="B497" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="C497" s="20">
+        <v>24.520000459999999</v>
+      </c>
+      <c r="D497" s="18">
+        <f>SUM(C$3:C497)/A497</f>
+        <v>30.260008481105739</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4">
+      <c r="A498" s="18">
+        <f t="shared" si="3"/>
+        <v>496</v>
+      </c>
+      <c r="B498" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="C498" s="20">
+        <v>24.31999969</v>
+      </c>
+      <c r="D498" s="18">
+        <f>SUM(C$3:C498)/A498</f>
+        <v>30.248032656930125</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4">
+      <c r="A499" s="18">
+        <f t="shared" si="3"/>
+        <v>497</v>
+      </c>
+      <c r="B499" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="C499" s="20">
+        <v>24.13999939</v>
+      </c>
+      <c r="D499" s="18">
+        <f>SUM(C$3:C499)/A499</f>
+        <v>30.235742851564066</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4">
+      <c r="A500" s="18">
+        <f t="shared" si="3"/>
+        <v>498</v>
+      </c>
+      <c r="B500" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="C500" s="20">
+        <v>23.690000529999999</v>
+      </c>
+      <c r="D500" s="18">
+        <f>SUM(C$3:C500)/A500</f>
+        <v>30.222598790677392</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4">
+      <c r="A501" s="18">
+        <f t="shared" si="3"/>
+        <v>499</v>
+      </c>
+      <c r="B501" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="C501" s="20">
+        <v>23.459999079999999</v>
+      </c>
+      <c r="D501" s="18">
+        <f>SUM(C$3:C501)/A501</f>
+        <v>30.209046486647978</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4">
+      <c r="A502" s="18">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="B502" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="C502" s="20">
+        <v>23.049999239999998</v>
+      </c>
+      <c r="D502" s="18">
+        <f>SUM(C$3:C502)/A502</f>
+        <v>30.19472839215468</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4">
+      <c r="A503" s="18">
+        <f t="shared" si="3"/>
+        <v>501</v>
+      </c>
+      <c r="B503" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="C503" s="20">
+        <v>23.239999770000001</v>
+      </c>
+      <c r="D503" s="18">
+        <f>SUM(C$3:C503)/A503</f>
+        <v>30.180846698298083</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4">
+      <c r="A504" s="18">
+        <f t="shared" si="3"/>
+        <v>502</v>
+      </c>
+      <c r="B504" s="19">
+        <v>45043</v>
+      </c>
+      <c r="C504" s="20">
+        <v>23.469999309999999</v>
+      </c>
+      <c r="D504" s="18">
+        <f>SUM(C$3:C504)/A504</f>
+        <v>30.167478476409045</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1prac.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1prac.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="358">
   <si>
     <t>PE</t>
   </si>
@@ -1367,6 +1367,78 @@
   </si>
   <si>
     <t xml:space="preserve">2023/4/26
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/5/4
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/5/5
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/5/8
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/5/9
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/5/10
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/5/11
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/5/12
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/5/15
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/5/16
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/5/17
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/5/18
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/5/19
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/5/22
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/5/23
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/5/24
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/5/25
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/5/26
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/5/29
 </t>
   </si>
 </sst>
@@ -1931,7 +2003,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>43889</c:v>
                 </c:pt>
@@ -2045,6 +2117,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2054,7 +2129,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2168,6 +2243,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>76000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>78000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2210,7 +2288,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>43889</c:v>
                 </c:pt>
@@ -2324,6 +2402,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2333,7 +2414,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>2000.0000000000002</c:v>
                 </c:pt>
@@ -2447,6 +2528,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>70476.779226985323</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>70575.372849483087</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2489,7 +2573,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>43889</c:v>
                 </c:pt>
@@ -2603,6 +2687,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2612,7 +2699,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2726,6 +2813,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-5523.2207730146765</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-7424.6271505169134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2747,11 +2837,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="81937536"/>
-        <c:axId val="81939456"/>
+        <c:axId val="112317952"/>
+        <c:axId val="112319488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="81937536"/>
+        <c:axId val="112317952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2794,14 +2884,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81939456"/>
+        <c:crossAx val="112319488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="81939456"/>
+        <c:axId val="112319488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2852,7 +2942,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81937536"/>
+        <c:crossAx val="112317952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3258,7 +3348,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y40"/>
+  <dimension ref="A1:Y41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4619,6 +4709,35 @@
         <v>-5523.2207730146765</v>
       </c>
     </row>
+    <row r="41" spans="1:12" ht="12.75">
+      <c r="A41" s="14">
+        <v>45044</v>
+      </c>
+      <c r="B41" s="15">
+        <v>3.6159379882812499</v>
+      </c>
+      <c r="C41" s="16">
+        <v>2000</v>
+      </c>
+      <c r="D41" s="17">
+        <v>553.10683050475996</v>
+      </c>
+      <c r="E41" s="17">
+        <v>19517.860394234642</v>
+      </c>
+      <c r="F41" s="17">
+        <v>70575.372849483087</v>
+      </c>
+      <c r="G41" s="17">
+        <v>78000</v>
+      </c>
+      <c r="H41" s="17">
+        <v>70575.372849483087</v>
+      </c>
+      <c r="I41" s="17">
+        <v>-7424.6271505169134</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4632,7 +4751,7 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D504"/>
+  <dimension ref="A1:D524"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -10312,7 +10431,7 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="18">
-        <f t="shared" ref="A356:A504" si="3">A355+1</f>
+        <f t="shared" ref="A356:A524" si="3">A355+1</f>
         <v>354</v>
       </c>
       <c r="B356" s="19" t="s">
@@ -12692,6 +12811,326 @@
       <c r="D504" s="18">
         <f>SUM(C$3:C504)/A504</f>
         <v>30.167478476409045</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4">
+      <c r="A505" s="18">
+        <f t="shared" si="3"/>
+        <v>503</v>
+      </c>
+      <c r="B505" s="19">
+        <v>45044</v>
+      </c>
+      <c r="C505" s="20">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D505" s="18">
+        <f>SUM(C$3:C505)/A505</f>
+        <v>30.154382097569265</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4">
+      <c r="A506" s="18">
+        <f t="shared" si="3"/>
+        <v>504</v>
+      </c>
+      <c r="B506" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="C506" s="20">
+        <v>22.129999160000001</v>
+      </c>
+      <c r="D506" s="18">
+        <f>SUM(C$3:C506)/A506</f>
+        <v>30.138460702851869</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4">
+      <c r="A507" s="18">
+        <f t="shared" si="3"/>
+        <v>505</v>
+      </c>
+      <c r="B507" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="C507" s="20">
+        <v>21.88999939</v>
+      </c>
+      <c r="D507" s="18">
+        <f>SUM(C$3:C507)/A507</f>
+        <v>30.122127116093743</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4">
+      <c r="A508" s="18">
+        <f t="shared" si="3"/>
+        <v>506</v>
+      </c>
+      <c r="B508" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="C508" s="20">
+        <v>21.920000080000001</v>
+      </c>
+      <c r="D508" s="18">
+        <f>SUM(C$3:C508)/A508</f>
+        <v>30.105917378868263</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4">
+      <c r="A509" s="18">
+        <f t="shared" si="3"/>
+        <v>507</v>
+      </c>
+      <c r="B509" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="C509" s="20">
+        <v>21.690000529999999</v>
+      </c>
+      <c r="D509" s="18">
+        <f>SUM(C$3:C509)/A509</f>
+        <v>30.089317937351755</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4">
+      <c r="A510" s="18">
+        <f t="shared" si="3"/>
+        <v>508</v>
+      </c>
+      <c r="B510" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="C510" s="20">
+        <v>21.81999969</v>
+      </c>
+      <c r="D510" s="18">
+        <f>SUM(C$3:C510)/A510</f>
+        <v>30.073039751825473</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4">
+      <c r="A511" s="18">
+        <f t="shared" si="3"/>
+        <v>509</v>
+      </c>
+      <c r="B511" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="C511" s="20">
+        <v>21.86000061</v>
+      </c>
+      <c r="D511" s="18">
+        <f>SUM(C$3:C511)/A511</f>
+        <v>30.056904115004599</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4">
+      <c r="A512" s="18">
+        <f t="shared" si="3"/>
+        <v>510</v>
+      </c>
+      <c r="B512" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="C512" s="20">
+        <v>21.63999939</v>
+      </c>
+      <c r="D512" s="18">
+        <f>SUM(C$3:C512)/A512</f>
+        <v>30.040400380249686</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4">
+      <c r="A513" s="18">
+        <f t="shared" si="3"/>
+        <v>511</v>
+      </c>
+      <c r="B513" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="C513" s="20">
+        <v>22.020000459999999</v>
+      </c>
+      <c r="D513" s="18">
+        <f>SUM(C$3:C513)/A513</f>
+        <v>30.024704881384224</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4">
+      <c r="A514" s="18">
+        <f t="shared" si="3"/>
+        <v>512</v>
+      </c>
+      <c r="B514" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="C514" s="20">
+        <v>21.93000031</v>
+      </c>
+      <c r="D514" s="18">
+        <f>SUM(C$3:C514)/A514</f>
+        <v>30.00889491151824</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4">
+      <c r="A515" s="18">
+        <f t="shared" si="3"/>
+        <v>513</v>
+      </c>
+      <c r="B515" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="C515" s="20">
+        <v>21.950000760000002</v>
+      </c>
+      <c r="D515" s="18">
+        <f>SUM(C$3:C515)/A515</f>
+        <v>29.993185566193642</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4">
+      <c r="A516" s="18">
+        <f t="shared" si="3"/>
+        <v>514</v>
+      </c>
+      <c r="B516" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="C516" s="20">
+        <v>21.93000031</v>
+      </c>
+      <c r="D516" s="18">
+        <f>SUM(C$3:C516)/A516</f>
+        <v>29.977498435345016</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4">
+      <c r="A517" s="18">
+        <f t="shared" si="3"/>
+        <v>515</v>
+      </c>
+      <c r="B517" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="C517" s="20">
+        <v>21.989999770000001</v>
+      </c>
+      <c r="D517" s="18">
+        <f>SUM(C$3:C517)/A517</f>
+        <v>29.961988729198715</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4">
+      <c r="A518" s="18">
+        <f t="shared" si="3"/>
+        <v>516</v>
+      </c>
+      <c r="B518" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="C518" s="20">
+        <v>22.020000459999999</v>
+      </c>
+      <c r="D518" s="18">
+        <f>SUM(C$3:C518)/A518</f>
+        <v>29.946597279064608</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4">
+      <c r="A519" s="18">
+        <f t="shared" si="3"/>
+        <v>517</v>
+      </c>
+      <c r="B519" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="C519" s="20">
+        <v>21.83</v>
+      </c>
+      <c r="D519" s="18">
+        <f>SUM(C$3:C519)/A519</f>
+        <v>29.930897864598332</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4">
+      <c r="A520" s="18">
+        <f t="shared" si="3"/>
+        <v>518</v>
+      </c>
+      <c r="B520" s="19" t="s">
+        <v>354</v>
+      </c>
+      <c r="C520" s="20">
+        <v>21.659999849999998</v>
+      </c>
+      <c r="D520" s="18">
+        <f>SUM(C$3:C520)/A520</f>
+        <v>29.914930880014165</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4">
+      <c r="A521" s="18">
+        <f t="shared" si="3"/>
+        <v>519</v>
+      </c>
+      <c r="B521" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="C521" s="20">
+        <v>21.649999619999999</v>
+      </c>
+      <c r="D521" s="18">
+        <f>SUM(C$3:C521)/A521</f>
+        <v>29.899006156969822</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4">
+      <c r="A522" s="18">
+        <f t="shared" si="3"/>
+        <v>520</v>
+      </c>
+      <c r="B522" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="C522" s="20">
+        <v>21.590000150000002</v>
+      </c>
+      <c r="D522" s="18">
+        <f>SUM(C$3:C522)/A522</f>
+        <v>29.883027299264111</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4">
+      <c r="A523" s="18">
+        <f t="shared" si="3"/>
+        <v>521</v>
+      </c>
+      <c r="B523" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="C523" s="20">
+        <v>21.329999919999999</v>
+      </c>
+      <c r="D523" s="18">
+        <f>SUM(C$3:C523)/A523</f>
+        <v>29.86661073999489</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4">
+      <c r="A524" s="18">
+        <f t="shared" si="3"/>
+        <v>522</v>
+      </c>
+      <c r="B524" s="19">
+        <v>45076</v>
+      </c>
+      <c r="C524" s="20">
+        <v>21.520000459999999</v>
+      </c>
+      <c r="D524" s="18">
+        <f>SUM(C$3:C524)/A524</f>
+        <v>29.850621065128998</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1prac.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1prac.xlsx
@@ -2837,11 +2837,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="112317952"/>
-        <c:axId val="112319488"/>
+        <c:axId val="112319104"/>
+        <c:axId val="342256256"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="112317952"/>
+        <c:axId val="112319104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2884,14 +2884,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112319488"/>
+        <c:crossAx val="342256256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="112319488"/>
+        <c:axId val="342256256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2942,7 +2942,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112317952"/>
+        <c:crossAx val="112319104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1prac.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1prac.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="376">
   <si>
     <t>PE</t>
   </si>
@@ -1439,6 +1439,78 @@
   </si>
   <si>
     <t xml:space="preserve">2023/5/29
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/6/1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/6/2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/6/5
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/6/6
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/6/7
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/6/8
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/6/9
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/6/12
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/6/13
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/6/14
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/6/15
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/6/16
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/6/19
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/6/20
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/6/21
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/6/26
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/6/27
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/6/28
 </t>
   </si>
 </sst>
@@ -2003,7 +2075,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>43889</c:v>
                 </c:pt>
@@ -2120,6 +2192,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2129,7 +2204,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2246,6 +2321,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>78000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>80000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2288,7 +2366,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>43889</c:v>
                 </c:pt>
@@ -2405,6 +2483,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2414,7 +2495,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>2000.0000000000002</c:v>
                 </c:pt>
@@ -2531,6 +2612,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>70575.372849483087</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>69348.035546023719</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2573,7 +2657,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>43889</c:v>
                 </c:pt>
@@ -2690,6 +2774,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2699,7 +2786,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2816,6 +2903,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-7424.6271505169134</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-10651.964453976281</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2837,11 +2927,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="112319104"/>
-        <c:axId val="342256256"/>
+        <c:axId val="90332160"/>
+        <c:axId val="121074048"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="112319104"/>
+        <c:axId val="90332160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2884,14 +2974,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342256256"/>
+        <c:crossAx val="121074048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="342256256"/>
+        <c:axId val="121074048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2942,7 +3032,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112319104"/>
+        <c:crossAx val="90332160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3348,7 +3438,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y41"/>
+  <dimension ref="A1:Y42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4738,6 +4828,35 @@
         <v>-7424.6271505169134</v>
       </c>
     </row>
+    <row r="42" spans="1:12" ht="12.75">
+      <c r="A42" s="14">
+        <v>45077</v>
+      </c>
+      <c r="B42" s="15">
+        <v>3.4505849609374999</v>
+      </c>
+      <c r="C42" s="16">
+        <v>2000</v>
+      </c>
+      <c r="D42" s="17">
+        <v>579.61186947752014</v>
+      </c>
+      <c r="E42" s="17">
+        <v>20097.472263712163</v>
+      </c>
+      <c r="F42" s="17">
+        <v>69348.035546023719</v>
+      </c>
+      <c r="G42" s="17">
+        <v>80000</v>
+      </c>
+      <c r="H42" s="17">
+        <v>69348.035546023719</v>
+      </c>
+      <c r="I42" s="17">
+        <v>-10651.964453976281</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4751,7 +4870,7 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D524"/>
+  <dimension ref="A1:D544"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -10431,7 +10550,7 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="18">
-        <f t="shared" ref="A356:A524" si="3">A355+1</f>
+        <f t="shared" ref="A356:A544" si="3">A355+1</f>
         <v>354</v>
       </c>
       <c r="B356" s="19" t="s">
@@ -13131,6 +13250,326 @@
       <c r="D524" s="18">
         <f>SUM(C$3:C524)/A524</f>
         <v>29.850621065128998</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4">
+      <c r="A525" s="18">
+        <f t="shared" si="3"/>
+        <v>523</v>
+      </c>
+      <c r="B525" s="19">
+        <v>45077</v>
+      </c>
+      <c r="C525" s="20">
+        <v>21.329999919999999</v>
+      </c>
+      <c r="D525" s="18">
+        <f>SUM(C$3:C525)/A525</f>
+        <v>29.834329246495866</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4">
+      <c r="A526" s="18">
+        <f t="shared" si="3"/>
+        <v>524</v>
+      </c>
+      <c r="B526" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="C526" s="20">
+        <v>21.420000080000001</v>
+      </c>
+      <c r="D526" s="18">
+        <f>SUM(C$3:C526)/A526</f>
+        <v>29.818271366407131</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4">
+      <c r="A527" s="18">
+        <f t="shared" si="3"/>
+        <v>525</v>
+      </c>
+      <c r="B527" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="C527" s="20">
+        <v>21.729999540000001</v>
+      </c>
+      <c r="D527" s="18">
+        <f>SUM(C$3:C527)/A527</f>
+        <v>29.802865134356836</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4">
+      <c r="A528" s="18">
+        <f t="shared" si="3"/>
+        <v>526</v>
+      </c>
+      <c r="B528" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="C528" s="20">
+        <v>21.629999160000001</v>
+      </c>
+      <c r="D528" s="18">
+        <f>SUM(C$3:C528)/A528</f>
+        <v>29.787327366344751</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4">
+      <c r="A529" s="18">
+        <f t="shared" si="3"/>
+        <v>527</v>
+      </c>
+      <c r="B529" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="C529" s="20">
+        <v>21.299999239999998</v>
+      </c>
+      <c r="D529" s="18">
+        <f>SUM(C$3:C529)/A529</f>
+        <v>29.771222379387741</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4">
+      <c r="A530" s="18">
+        <f t="shared" si="3"/>
+        <v>528</v>
+      </c>
+      <c r="B530" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="C530" s="20">
+        <v>21.06999969</v>
+      </c>
+      <c r="D530" s="18">
+        <f>SUM(C$3:C530)/A530</f>
+        <v>29.754742790960869</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4">
+      <c r="A531" s="18">
+        <f t="shared" si="3"/>
+        <v>529</v>
+      </c>
+      <c r="B531" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="C531" s="20">
+        <v>21.079999919999999</v>
+      </c>
+      <c r="D531" s="18">
+        <f>SUM(C$3:C531)/A531</f>
+        <v>29.738344411242608</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4">
+      <c r="A532" s="18">
+        <f t="shared" si="3"/>
+        <v>530</v>
+      </c>
+      <c r="B532" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="C532" s="20">
+        <v>21.229999540000001</v>
+      </c>
+      <c r="D532" s="18">
+        <f>SUM(C$3:C532)/A532</f>
+        <v>29.722290930353473</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4">
+      <c r="A533" s="18">
+        <f t="shared" si="3"/>
+        <v>531</v>
+      </c>
+      <c r="B533" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="C533" s="20">
+        <v>21.420000080000001</v>
+      </c>
+      <c r="D533" s="18">
+        <f>SUM(C$3:C533)/A533</f>
+        <v>29.706655731011939</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4">
+      <c r="A534" s="18">
+        <f t="shared" si="3"/>
+        <v>532</v>
+      </c>
+      <c r="B534" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="C534" s="20">
+        <v>21.649999619999999</v>
+      </c>
+      <c r="D534" s="18">
+        <f>SUM(C$3:C534)/A534</f>
+        <v>29.691511640577708</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4">
+      <c r="A535" s="18">
+        <f t="shared" si="3"/>
+        <v>533</v>
+      </c>
+      <c r="B535" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="C535" s="20">
+        <v>21.670000080000001</v>
+      </c>
+      <c r="D535" s="18">
+        <f>SUM(C$3:C535)/A535</f>
+        <v>29.676461900313956</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4">
+      <c r="A536" s="18">
+        <f t="shared" si="3"/>
+        <v>534</v>
+      </c>
+      <c r="B536" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="C536" s="20">
+        <v>22.270000459999999</v>
+      </c>
+      <c r="D536" s="18">
+        <f>SUM(C$3:C536)/A536</f>
+        <v>29.662592122335841</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4">
+      <c r="A537" s="18">
+        <f t="shared" si="3"/>
+        <v>535</v>
+      </c>
+      <c r="B537" s="19" t="s">
+        <v>369</v>
+      </c>
+      <c r="C537" s="20">
+        <v>22.579999919999999</v>
+      </c>
+      <c r="D537" s="18">
+        <f>SUM(C$3:C537)/A537</f>
+        <v>29.649353632238018</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4">
+      <c r="A538" s="18">
+        <f t="shared" si="3"/>
+        <v>536</v>
+      </c>
+      <c r="B538" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="C538" s="20">
+        <v>22.559999470000001</v>
+      </c>
+      <c r="D538" s="18">
+        <f>SUM(C$3:C538)/A538</f>
+        <v>29.636127225218917</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4">
+      <c r="A539" s="18">
+        <f t="shared" si="3"/>
+        <v>537</v>
+      </c>
+      <c r="B539" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="C539" s="20">
+        <v>22.760000229999999</v>
+      </c>
+      <c r="D539" s="18">
+        <f>SUM(C$3:C539)/A539</f>
+        <v>29.623322519455009</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4">
+      <c r="A540" s="18">
+        <f t="shared" si="3"/>
+        <v>538</v>
+      </c>
+      <c r="B540" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="C540" s="20">
+        <v>22.31999969</v>
+      </c>
+      <c r="D540" s="18">
+        <f>SUM(C$3:C540)/A540</f>
+        <v>29.609747569957882</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4">
+      <c r="A541" s="18">
+        <f t="shared" si="3"/>
+        <v>539</v>
+      </c>
+      <c r="B541" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="C541" s="20">
+        <v>22.010000229999999</v>
+      </c>
+      <c r="D541" s="18">
+        <f>SUM(C$3:C541)/A541</f>
+        <v>29.595647853186161</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4">
+      <c r="A542" s="18">
+        <f t="shared" si="3"/>
+        <v>540</v>
+      </c>
+      <c r="B542" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="C542" s="20">
+        <v>22.190000529999999</v>
+      </c>
+      <c r="D542" s="18">
+        <f>SUM(C$3:C542)/A542</f>
+        <v>29.581933691476557</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4">
+      <c r="A543" s="18">
+        <f t="shared" si="3"/>
+        <v>541</v>
+      </c>
+      <c r="B543" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="C543" s="20">
+        <v>22.049999239999998</v>
+      </c>
+      <c r="D543" s="18">
+        <f>SUM(C$3:C543)/A543</f>
+        <v>29.568011446649429</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4">
+      <c r="A544" s="18">
+        <f t="shared" si="3"/>
+        <v>542</v>
+      </c>
+      <c r="B544" s="19">
+        <v>45106</v>
+      </c>
+      <c r="C544" s="20">
+        <v>21.989999770000001</v>
+      </c>
+      <c r="D544" s="18">
+        <f>SUM(C$3:C544)/A544</f>
+        <v>29.554029875290293</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1prac.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1prac.xlsx
@@ -2927,11 +2927,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="90332160"/>
-        <c:axId val="121074048"/>
+        <c:axId val="551928192"/>
+        <c:axId val="551929728"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="90332160"/>
+        <c:axId val="551928192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2974,14 +2974,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="121074048"/>
+        <c:crossAx val="551929728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="121074048"/>
+        <c:axId val="551929728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3032,7 +3032,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90332160"/>
+        <c:crossAx val="551928192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4870,7 +4870,7 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D544"/>
+  <dimension ref="A1:D545"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -10550,7 +10550,7 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="18">
-        <f t="shared" ref="A356:A544" si="3">A355+1</f>
+        <f t="shared" ref="A356:A545" si="3">A355+1</f>
         <v>354</v>
       </c>
       <c r="B356" s="19" t="s">
@@ -13570,6 +13570,22 @@
       <c r="D544" s="18">
         <f>SUM(C$3:C544)/A544</f>
         <v>29.554029875290293</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4">
+      <c r="A545" s="18">
+        <f t="shared" si="3"/>
+        <v>543</v>
+      </c>
+      <c r="B545" s="19">
+        <v>45107</v>
+      </c>
+      <c r="C545" s="20">
+        <v>22.200000760000002</v>
+      </c>
+      <c r="D545" s="18">
+        <f>SUM(C$3:C545)/A545</f>
+        <v>29.540486543586262</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1prac.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1prac.xlsx
@@ -2075,7 +2075,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43889</c:v>
                 </c:pt>
@@ -2195,6 +2195,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2204,7 +2207,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2324,6 +2327,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>82000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2366,7 +2372,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43889</c:v>
                 </c:pt>
@@ -2486,6 +2492,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2495,7 +2504,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>2000.0000000000002</c:v>
                 </c:pt>
@@ -2615,6 +2624,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>69348.035546023719</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>74528.622449867675</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2657,7 +2669,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43889</c:v>
                 </c:pt>
@@ -2777,6 +2789,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2786,7 +2801,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2906,6 +2921,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>-10651.964453976281</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-7471.3775501323253</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2927,11 +2945,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="551928192"/>
-        <c:axId val="551929728"/>
+        <c:axId val="456835840"/>
+        <c:axId val="456837376"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="551928192"/>
+        <c:axId val="456835840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2974,14 +2992,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="551929728"/>
+        <c:crossAx val="456837376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="551929728"/>
+        <c:axId val="456837376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3032,7 +3050,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="551928192"/>
+        <c:crossAx val="456835840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3438,7 +3456,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y42"/>
+  <dimension ref="A1:Y43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4857,6 +4875,35 @@
         <v>-10651.964453976281</v>
       </c>
     </row>
+    <row r="43" spans="1:12" ht="12.75">
+      <c r="A43" s="14">
+        <v>45107</v>
+      </c>
+      <c r="B43" s="15">
+        <v>3.608843017578125</v>
+      </c>
+      <c r="C43" s="16">
+        <v>2000</v>
+      </c>
+      <c r="D43" s="17">
+        <v>554.19423628523168</v>
+      </c>
+      <c r="E43" s="17">
+        <v>20651.666499997395</v>
+      </c>
+      <c r="F43" s="17">
+        <v>74528.622449867675</v>
+      </c>
+      <c r="G43" s="17">
+        <v>82000</v>
+      </c>
+      <c r="H43" s="17">
+        <v>74528.622449867675</v>
+      </c>
+      <c r="I43" s="17">
+        <v>-7471.3775501323253</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1prac.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1prac.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="395">
   <si>
     <t>PE</t>
   </si>
@@ -1511,6 +1511,82 @@
   </si>
   <si>
     <t xml:space="preserve">2023/6/28
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/7/3
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/7/4
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/7/5
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/7/6
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/7/7
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/7/10
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/7/11
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/7/12
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/7/13
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/7/14
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/7/17
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/7/18
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/7/19
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/7/20
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/7/21
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/7/24
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/7/25
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/7/26
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/7/27
 </t>
   </si>
 </sst>
@@ -2945,11 +3021,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="456835840"/>
-        <c:axId val="456837376"/>
+        <c:axId val="87778816"/>
+        <c:axId val="87780352"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="456835840"/>
+        <c:axId val="87778816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2992,14 +3068,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="456837376"/>
+        <c:crossAx val="87780352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="456837376"/>
+        <c:axId val="87780352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3050,7 +3126,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="456835840"/>
+        <c:crossAx val="87778816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4917,7 +4993,7 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D545"/>
+  <dimension ref="A1:D565"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -10597,7 +10673,7 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="18">
-        <f t="shared" ref="A356:A545" si="3">A355+1</f>
+        <f t="shared" ref="A356:A565" si="3">A355+1</f>
         <v>354</v>
       </c>
       <c r="B356" s="19" t="s">
@@ -13633,6 +13709,326 @@
       <c r="D545" s="18">
         <f>SUM(C$3:C545)/A545</f>
         <v>29.540486543586262</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4">
+      <c r="A546" s="18">
+        <f t="shared" si="3"/>
+        <v>544</v>
+      </c>
+      <c r="B546" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="C546" s="20">
+        <v>22.340000150000002</v>
+      </c>
+      <c r="D546" s="18">
+        <f>SUM(C$3:C546)/A546</f>
+        <v>29.527250355362757</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4">
+      <c r="A547" s="18">
+        <f t="shared" si="3"/>
+        <v>545</v>
+      </c>
+      <c r="B547" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="C547" s="20">
+        <v>22.469999309999999</v>
+      </c>
+      <c r="D547" s="18">
+        <f>SUM(C$3:C547)/A547</f>
+        <v>29.514301270875851</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4">
+      <c r="A548" s="18">
+        <f t="shared" si="3"/>
+        <v>546</v>
+      </c>
+      <c r="B548" s="19" t="s">
+        <v>378</v>
+      </c>
+      <c r="C548" s="20">
+        <v>22.25</v>
+      </c>
+      <c r="D548" s="18">
+        <f>SUM(C$3:C548)/A548</f>
+        <v>29.500996689793663</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4">
+      <c r="A549" s="18">
+        <f t="shared" si="3"/>
+        <v>547</v>
+      </c>
+      <c r="B549" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="C549" s="20">
+        <v>22.120000839999999</v>
+      </c>
+      <c r="D549" s="18">
+        <f>SUM(C$3:C549)/A549</f>
+        <v>29.487503095918353</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4">
+      <c r="A550" s="18">
+        <f t="shared" si="3"/>
+        <v>548</v>
+      </c>
+      <c r="B550" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="C550" s="20">
+        <v>21.879999160000001</v>
+      </c>
+      <c r="D550" s="18">
+        <f>SUM(C$3:C550)/A550</f>
+        <v>29.473620789465947</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4">
+      <c r="A551" s="18">
+        <f t="shared" si="3"/>
+        <v>549</v>
+      </c>
+      <c r="B551" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="C551" s="20">
+        <v>22.040000920000001</v>
+      </c>
+      <c r="D551" s="18">
+        <f>SUM(C$3:C551)/A551</f>
+        <v>29.460080498264738</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4">
+      <c r="A552" s="18">
+        <f t="shared" si="3"/>
+        <v>550</v>
+      </c>
+      <c r="B552" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="C552" s="20">
+        <v>22.280000690000001</v>
+      </c>
+      <c r="D552" s="18">
+        <f>SUM(C$3:C552)/A552</f>
+        <v>29.447025807704254</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4">
+      <c r="A553" s="18">
+        <f t="shared" si="3"/>
+        <v>551</v>
+      </c>
+      <c r="B553" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="C553" s="20">
+        <v>22.040000920000001</v>
+      </c>
+      <c r="D553" s="18">
+        <f>SUM(C$3:C553)/A553</f>
+        <v>29.433582931320036</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4">
+      <c r="A554" s="18">
+        <f t="shared" si="3"/>
+        <v>552</v>
+      </c>
+      <c r="B554" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="C554" s="20">
+        <v>22.370000839999999</v>
+      </c>
+      <c r="D554" s="18">
+        <f>SUM(C$3:C554)/A554</f>
+        <v>29.420786586951703</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4">
+      <c r="A555" s="18">
+        <f t="shared" si="3"/>
+        <v>553</v>
+      </c>
+      <c r="B555" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="C555" s="20">
+        <v>22.31999969</v>
+      </c>
+      <c r="D555" s="18">
+        <f>SUM(C$3:C555)/A555</f>
+        <v>29.40794610431707</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4">
+      <c r="A556" s="18">
+        <f t="shared" si="3"/>
+        <v>554</v>
+      </c>
+      <c r="B556" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="C556" s="20">
+        <v>22.190000529999999</v>
+      </c>
+      <c r="D556" s="18">
+        <f>SUM(C$3:C556)/A556</f>
+        <v>29.394917321691949</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4">
+      <c r="A557" s="18">
+        <f t="shared" si="3"/>
+        <v>555</v>
+      </c>
+      <c r="B557" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="C557" s="20">
+        <v>22.090000150000002</v>
+      </c>
+      <c r="D557" s="18">
+        <f>SUM(C$3:C557)/A557</f>
+        <v>29.381755308769979</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4">
+      <c r="A558" s="18">
+        <f t="shared" si="3"/>
+        <v>556</v>
+      </c>
+      <c r="B558" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="C558" s="20">
+        <v>21.969999309999999</v>
+      </c>
+      <c r="D558" s="18">
+        <f>SUM(C$3:C558)/A558</f>
+        <v>29.368424812369312</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4">
+      <c r="A559" s="18">
+        <f t="shared" si="3"/>
+        <v>557</v>
+      </c>
+      <c r="B559" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="C559" s="20">
+        <v>21.719999309999999</v>
+      </c>
+      <c r="D559" s="18">
+        <f>SUM(C$3:C559)/A559</f>
+        <v>29.354693348271702</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4">
+      <c r="A560" s="18">
+        <f t="shared" si="3"/>
+        <v>558</v>
+      </c>
+      <c r="B560" s="19" t="s">
+        <v>390</v>
+      </c>
+      <c r="C560" s="20">
+        <v>21.649999619999999</v>
+      </c>
+      <c r="D560" s="18">
+        <f>SUM(C$3:C560)/A560</f>
+        <v>29.340885653418169</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4">
+      <c r="A561" s="18">
+        <f t="shared" si="3"/>
+        <v>559</v>
+      </c>
+      <c r="B561" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="C561" s="20">
+        <v>21.510000229999999</v>
+      </c>
+      <c r="D561" s="18">
+        <f>SUM(C$3:C561)/A561</f>
+        <v>29.326876913841392</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4">
+      <c r="A562" s="18">
+        <f t="shared" si="3"/>
+        <v>560</v>
+      </c>
+      <c r="B562" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="C562" s="20">
+        <v>22.06999969</v>
+      </c>
+      <c r="D562" s="18">
+        <f>SUM(C$3:C562)/A562</f>
+        <v>29.313918204513104</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4">
+      <c r="A563" s="18">
+        <f t="shared" si="3"/>
+        <v>561</v>
+      </c>
+      <c r="B563" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="C563" s="20">
+        <v>21.969999309999999</v>
+      </c>
+      <c r="D563" s="18">
+        <f>SUM(C$3:C563)/A563</f>
+        <v>29.300827439995256</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4">
+      <c r="A564" s="18">
+        <f t="shared" si="3"/>
+        <v>562</v>
+      </c>
+      <c r="B564" s="19" t="s">
+        <v>394</v>
+      </c>
+      <c r="C564" s="20">
+        <v>21.920000080000001</v>
+      </c>
+      <c r="D564" s="18">
+        <f>SUM(C$3:C564)/A564</f>
+        <v>29.287694295226583</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4">
+      <c r="A565" s="18">
+        <f t="shared" si="3"/>
+        <v>563</v>
+      </c>
+      <c r="B565" s="19">
+        <v>45135</v>
+      </c>
+      <c r="C565" s="20">
+        <v>22.25</v>
+      </c>
+      <c r="D565" s="18">
+        <f>SUM(C$3:C565)/A565</f>
+        <v>29.275193950119608</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1prac.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1prac.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="416">
   <si>
     <t>PE</t>
   </si>
@@ -1587,6 +1587,90 @@
   </si>
   <si>
     <t xml:space="preserve">2023/7/27
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/3
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/4
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/7
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/8
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/9
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/10
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/11
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/14
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/15
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/16
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/17
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/18
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/21
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/22
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/23
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/24
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/25
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/28
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/29
 </t>
   </si>
 </sst>
@@ -2151,7 +2235,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>43889</c:v>
                 </c:pt>
@@ -2274,6 +2358,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2283,7 +2370,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2406,6 +2493,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>82000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>84000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2448,7 +2538,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>43889</c:v>
                 </c:pt>
@@ -2571,6 +2661,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2580,7 +2673,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>2000.0000000000002</c:v>
                 </c:pt>
@@ -2703,6 +2796,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>74528.622449867675</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>76528.622449867675</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2745,7 +2841,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>43889</c:v>
                 </c:pt>
@@ -2868,6 +2964,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2877,7 +2976,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2999,6 +3098,9 @@
                   <c:v>-10651.964453976281</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>-7471.3775501323253</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>-7471.3775501323253</c:v>
                 </c:pt>
               </c:numCache>
@@ -3021,11 +3123,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="87778816"/>
-        <c:axId val="87780352"/>
+        <c:axId val="445552128"/>
+        <c:axId val="445553664"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="87778816"/>
+        <c:axId val="445552128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3068,14 +3170,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87780352"/>
+        <c:crossAx val="445553664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="87780352"/>
+        <c:axId val="445553664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3126,7 +3228,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87778816"/>
+        <c:crossAx val="445552128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3532,7 +3634,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y43"/>
+  <dimension ref="A1:Y44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4980,6 +5082,35 @@
         <v>-7471.3775501323253</v>
       </c>
     </row>
+    <row r="44" spans="1:12" ht="12.75">
+      <c r="A44" s="14">
+        <v>45138</v>
+      </c>
+      <c r="B44" s="15">
+        <v>3.608843017578125</v>
+      </c>
+      <c r="C44" s="16">
+        <v>2000</v>
+      </c>
+      <c r="D44" s="17">
+        <v>554.19423628523168</v>
+      </c>
+      <c r="E44" s="17">
+        <v>21205.860736282626</v>
+      </c>
+      <c r="F44" s="17">
+        <v>76528.622449867675</v>
+      </c>
+      <c r="G44" s="17">
+        <v>84000</v>
+      </c>
+      <c r="H44" s="17">
+        <v>76528.622449867675</v>
+      </c>
+      <c r="I44" s="17">
+        <v>-7471.3775501323253</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4993,7 +5124,7 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D565"/>
+  <dimension ref="A1:D588"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -10673,7 +10804,7 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="18">
-        <f t="shared" ref="A356:A565" si="3">A355+1</f>
+        <f t="shared" ref="A356:A588" si="3">A355+1</f>
         <v>354</v>
       </c>
       <c r="B356" s="19" t="s">
@@ -14029,6 +14160,374 @@
       <c r="D565" s="18">
         <f>SUM(C$3:C565)/A565</f>
         <v>29.275193950119608</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4">
+      <c r="A566" s="18">
+        <f t="shared" si="3"/>
+        <v>564</v>
+      </c>
+      <c r="B566" s="19">
+        <v>45138</v>
+      </c>
+      <c r="C566" s="20">
+        <v>22.409999849999998</v>
+      </c>
+      <c r="D566" s="18">
+        <f>SUM(C$3:C566)/A566</f>
+        <v>29.263021620154856</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4">
+      <c r="A567" s="18">
+        <f t="shared" si="3"/>
+        <v>565</v>
+      </c>
+      <c r="B567" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="C567" s="20">
+        <v>22.309999470000001</v>
+      </c>
+      <c r="D567" s="18">
+        <f>SUM(C$3:C567)/A567</f>
+        <v>29.250715386260772</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4">
+      <c r="A568" s="18">
+        <f t="shared" si="3"/>
+        <v>566</v>
+      </c>
+      <c r="B568" s="19" t="s">
+        <v>396</v>
+      </c>
+      <c r="C568" s="20">
+        <v>22.239999770000001</v>
+      </c>
+      <c r="D568" s="18">
+        <f>SUM(C$3:C568)/A568</f>
+        <v>29.23832896291049</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4">
+      <c r="A569" s="18">
+        <f t="shared" si="3"/>
+        <v>567</v>
+      </c>
+      <c r="B569" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="C569" s="20">
+        <v>22.350000380000001</v>
+      </c>
+      <c r="D569" s="18">
+        <f>SUM(C$3:C569)/A569</f>
+        <v>29.226180235251036</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4">
+      <c r="A570" s="18">
+        <f t="shared" si="3"/>
+        <v>568</v>
+      </c>
+      <c r="B570" s="19" t="s">
+        <v>398</v>
+      </c>
+      <c r="C570" s="20">
+        <v>22.510000229999999</v>
+      </c>
+      <c r="D570" s="18">
+        <f>SUM(C$3:C570)/A570</f>
+        <v>29.214355974678409</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4">
+      <c r="A571" s="18">
+        <f t="shared" si="3"/>
+        <v>569</v>
+      </c>
+      <c r="B571" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="C571" s="20">
+        <v>22.290000920000001</v>
+      </c>
+      <c r="D571" s="18">
+        <f>SUM(C$3:C571)/A571</f>
+        <v>29.202186633633278</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4">
+      <c r="A572" s="18">
+        <f t="shared" si="3"/>
+        <v>570</v>
+      </c>
+      <c r="B572" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="C572" s="20">
+        <v>22.219999309999999</v>
+      </c>
+      <c r="D572" s="18">
+        <f>SUM(C$3:C572)/A572</f>
+        <v>29.189937182188306</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4">
+      <c r="A573" s="18">
+        <f t="shared" si="3"/>
+        <v>571</v>
+      </c>
+      <c r="B573" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="C573" s="20">
+        <v>22.100000380000001</v>
+      </c>
+      <c r="D573" s="18">
+        <f>SUM(C$3:C573)/A573</f>
+        <v>29.177520480258032</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4">
+      <c r="A574" s="18">
+        <f t="shared" si="3"/>
+        <v>572</v>
+      </c>
+      <c r="B574" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="C574" s="20">
+        <v>22.090000150000002</v>
+      </c>
+      <c r="D574" s="18">
+        <f>SUM(C$3:C574)/A574</f>
+        <v>29.165129710449889</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4">
+      <c r="A575" s="18">
+        <f t="shared" si="3"/>
+        <v>573</v>
+      </c>
+      <c r="B575" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="C575" s="20">
+        <v>21.620000839999999</v>
+      </c>
+      <c r="D575" s="18">
+        <f>SUM(C$3:C575)/A575</f>
+        <v>29.151961946278075</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4">
+      <c r="A576" s="18">
+        <f t="shared" si="3"/>
+        <v>574</v>
+      </c>
+      <c r="B576" s="19" t="s">
+        <v>404</v>
+      </c>
+      <c r="C576" s="20">
+        <v>21.409999849999998</v>
+      </c>
+      <c r="D576" s="18">
+        <f>SUM(C$3:C576)/A576</f>
+        <v>29.138474207434385</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4">
+      <c r="A577" s="18">
+        <f t="shared" si="3"/>
+        <v>575</v>
+      </c>
+      <c r="B577" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="C577" s="20">
+        <v>21.229999540000001</v>
+      </c>
+      <c r="D577" s="18">
+        <f>SUM(C$3:C577)/A577</f>
+        <v>29.124720338447538</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4">
+      <c r="A578" s="18">
+        <f t="shared" si="3"/>
+        <v>576</v>
+      </c>
+      <c r="B578" s="19" t="s">
+        <v>406</v>
+      </c>
+      <c r="C578" s="20">
+        <v>21.010000229999999</v>
+      </c>
+      <c r="D578" s="18">
+        <f>SUM(C$3:C578)/A578</f>
+        <v>29.110632282703705</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4">
+      <c r="A579" s="18">
+        <f t="shared" si="3"/>
+        <v>577</v>
+      </c>
+      <c r="B579" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="C579" s="20">
+        <v>21.149999619999999</v>
+      </c>
+      <c r="D579" s="18">
+        <f>SUM(C$3:C579)/A579</f>
+        <v>29.096835692300406</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4">
+      <c r="A580" s="18">
+        <f t="shared" si="3"/>
+        <v>578</v>
+      </c>
+      <c r="B580" s="19" t="s">
+        <v>408</v>
+      </c>
+      <c r="C580" s="20">
+        <v>20.829999919999999</v>
+      </c>
+      <c r="D580" s="18">
+        <f>SUM(C$3:C580)/A580</f>
+        <v>29.082533208265282</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4">
+      <c r="A581" s="18">
+        <f t="shared" si="3"/>
+        <v>579</v>
+      </c>
+      <c r="B581" s="19" t="s">
+        <v>409</v>
+      </c>
+      <c r="C581" s="20">
+        <v>20.549999239999998</v>
+      </c>
+      <c r="D581" s="18">
+        <f>SUM(C$3:C581)/A581</f>
+        <v>29.067796534744961</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4">
+      <c r="A582" s="18">
+        <f t="shared" si="3"/>
+        <v>580</v>
+      </c>
+      <c r="B582" s="19" t="s">
+        <v>410</v>
+      </c>
+      <c r="C582" s="20">
+        <v>20.629999160000001</v>
+      </c>
+      <c r="D582" s="18">
+        <f>SUM(C$3:C582)/A582</f>
+        <v>29.053248608236778</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4">
+      <c r="A583" s="18">
+        <f t="shared" si="3"/>
+        <v>581</v>
+      </c>
+      <c r="B583" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="C583" s="20">
+        <v>20.159999849999998</v>
+      </c>
+      <c r="D583" s="18">
+        <f>SUM(C$3:C583)/A583</f>
+        <v>29.037941811751001</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4">
+      <c r="A584" s="18">
+        <f t="shared" si="3"/>
+        <v>582</v>
+      </c>
+      <c r="B584" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="C584" s="20">
+        <v>20.399999619999999</v>
+      </c>
+      <c r="D584" s="18">
+        <f>SUM(C$3:C584)/A584</f>
+        <v>29.023099986679263</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4">
+      <c r="A585" s="18">
+        <f t="shared" si="3"/>
+        <v>583</v>
+      </c>
+      <c r="B585" s="19" t="s">
+        <v>413</v>
+      </c>
+      <c r="C585" s="20">
+        <v>20.149999619999999</v>
+      </c>
+      <c r="D585" s="18">
+        <f>SUM(C$3:C585)/A585</f>
+        <v>29.007880260492847</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4">
+      <c r="A586" s="18">
+        <f t="shared" si="3"/>
+        <v>584</v>
+      </c>
+      <c r="B586" s="19" t="s">
+        <v>414</v>
+      </c>
+      <c r="C586" s="20">
+        <v>20.399999619999999</v>
+      </c>
+      <c r="D586" s="18">
+        <f>SUM(C$3:C586)/A586</f>
+        <v>28.993140738848169</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4">
+      <c r="A587" s="18">
+        <f t="shared" si="3"/>
+        <v>585</v>
+      </c>
+      <c r="B587" s="19" t="s">
+        <v>415</v>
+      </c>
+      <c r="C587" s="20">
+        <v>20.879999160000001</v>
+      </c>
+      <c r="D587" s="18">
+        <f>SUM(C$3:C587)/A587</f>
+        <v>28.979272120764666</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4">
+      <c r="A588" s="18">
+        <f t="shared" si="3"/>
+        <v>586</v>
+      </c>
+      <c r="B588" s="19">
+        <v>45168</v>
+      </c>
+      <c r="C588" s="20">
+        <v>20.989999770000001</v>
+      </c>
+      <c r="D588" s="18">
+        <f>SUM(C$3:C588)/A588</f>
+        <v>28.965638550200225</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1prac.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1prac.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="3795" yWindow="195" windowWidth="15600" windowHeight="7620"/>
+    <workbookView xWindow="3795" yWindow="195" windowWidth="15600" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="model1" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="395">
   <si>
     <t>PE</t>
   </si>
@@ -1587,90 +1587,6 @@
   </si>
   <si>
     <t xml:space="preserve">2023/7/27
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/8/1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/8/2
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/8/3
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/8/4
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/8/7
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/8/8
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/8/9
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/8/10
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/8/11
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/8/14
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/8/15
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/8/16
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/8/17
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/8/18
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/8/21
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/8/22
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/8/23
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/8/24
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/8/25
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/8/28
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/8/29
 </t>
   </si>
 </sst>
@@ -1685,7 +1601,7 @@
     <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="180" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2234,133 +2150,133 @@
             <c:numRef>
               <c:f>model1!时间</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>43889</c:v>
+                  <c:v>3.25108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43921</c:v>
+                  <c:v>2.8991500000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43951</c:v>
+                  <c:v>3.17509</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43980</c:v>
+                  <c:v>3.1906699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44012</c:v>
+                  <c:v>3.6513100000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44043</c:v>
+                  <c:v>4.1706000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44074</c:v>
+                  <c:v>4.1298999999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44104</c:v>
+                  <c:v>3.9869400000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44134</c:v>
+                  <c:v>4.2014499999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44165</c:v>
+                  <c:v>4.27712</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44196</c:v>
+                  <c:v>4.7245600000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44225</c:v>
+                  <c:v>4.9833500000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44253</c:v>
+                  <c:v>4.7232599999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44286</c:v>
+                  <c:v>4.4379900000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44316</c:v>
+                  <c:v>4.7860299999999993</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44347</c:v>
+                  <c:v>4.9806599999999994</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44377</c:v>
+                  <c:v>5.1114799999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44407</c:v>
+                  <c:v>4.9776999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44439</c:v>
+                  <c:v>4.7613100000000008</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44469</c:v>
+                  <c:v>4.7106400000000006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44498</c:v>
+                  <c:v>4.8678999999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44530</c:v>
+                  <c:v>4.9547099609374996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44561</c:v>
+                  <c:v>4.8630097656249998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44589</c:v>
+                  <c:v>4.3440297851562502</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44620</c:v>
+                  <c:v>4.3355400390624999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44651</c:v>
+                  <c:v>3.8658500976562502</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44680</c:v>
+                  <c:v>3.5012099609375</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44712</c:v>
+                  <c:v>3.6361599121093748</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44742</c:v>
+                  <c:v>4.1096201171875002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44771</c:v>
+                  <c:v>3.8724699707031252</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44804</c:v>
+                  <c:v>3.7022099609375001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44834</c:v>
+                  <c:v>3.3477299804687499</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44865</c:v>
+                  <c:v>3.2993999023437501</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44895</c:v>
+                  <c:v>3.4802900390625</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>44925</c:v>
+                  <c:v>3.4735300292968749</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>44957</c:v>
+                  <c:v>3.8110336914062501</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>44985</c:v>
+                  <c:v>3.6777292480468748</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>45016</c:v>
+                  <c:v>3.7161979980468751</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>45044</c:v>
+                  <c:v>3.6159379882812499</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>45077</c:v>
+                  <c:v>3.4505849609374999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>45107</c:v>
+                  <c:v>3.608843017578125</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>45138</c:v>
+                  <c:v>3.608843017578125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2372,130 +2288,130 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4000</c:v>
+                  <c:v>3783.4996370436897</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6000</c:v>
+                  <c:v>6143.6117008713063</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>8173.7580810682693</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10000</c:v>
+                  <c:v>11353.811149064422</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12000</c:v>
+                  <c:v>14968.552321848347</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14000</c:v>
+                  <c:v>16822.477397497114</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16000</c:v>
+                  <c:v>18240.153038857396</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18000</c:v>
+                  <c:v>21221.531045139225</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20000</c:v>
+                  <c:v>23603.74034292587</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22000</c:v>
+                  <c:v>28072.985437531297</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24000</c:v>
+                  <c:v>31610.696441599135</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26000</c:v>
+                  <c:v>31960.877336479982</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28000</c:v>
+                  <c:v>32030.541196234128</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30000</c:v>
+                  <c:v>36542.468793623324</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>32000</c:v>
+                  <c:v>40028.514786085325</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>34000</c:v>
+                  <c:v>43079.887556825692</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>36000</c:v>
+                  <c:v>43952.380972166822</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>38000</c:v>
+                  <c:v>44041.688138414858</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>40000</c:v>
+                  <c:v>45572.995207693384</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>42000</c:v>
+                  <c:v>49094.404023982002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44000</c:v>
+                  <c:v>51969.911593071687</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>46000</c:v>
+                  <c:v>53008.069006718506</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>48000</c:v>
+                  <c:v>49351.052479165373</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>50000</c:v>
+                  <c:v>51254.60334650999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>52000</c:v>
+                  <c:v>47701.945217252243</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>54000</c:v>
+                  <c:v>45202.535414395512</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>56000</c:v>
+                  <c:v>48944.813088421164</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>58000</c:v>
+                  <c:v>57317.86097478633</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>60000</c:v>
+                  <c:v>56010.270798873862</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>62000</c:v>
+                  <c:v>55547.679913640975</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>64000</c:v>
+                  <c:v>52229.088937270295</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>66000</c:v>
+                  <c:v>53475.074735568647</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>68000</c:v>
+                  <c:v>58406.85441256113</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>70000</c:v>
+                  <c:v>60293.406710853284</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>72000</c:v>
+                  <c:v>68151.7828856181</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>74000</c:v>
+                  <c:v>67767.93214664339</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>76000</c:v>
+                  <c:v>70476.779226985323</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>78000</c:v>
+                  <c:v>70575.372849483087</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>80000</c:v>
+                  <c:v>69348.035546023719</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>82000</c:v>
+                  <c:v>74528.622449867675</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>84000</c:v>
+                  <c:v>76528.622449867675</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2537,133 +2453,133 @@
             <c:numRef>
               <c:f>model1!时间</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>43889</c:v>
+                  <c:v>3.25108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43921</c:v>
+                  <c:v>2.8991500000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43951</c:v>
+                  <c:v>3.17509</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43980</c:v>
+                  <c:v>3.1906699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44012</c:v>
+                  <c:v>3.6513100000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44043</c:v>
+                  <c:v>4.1706000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44074</c:v>
+                  <c:v>4.1298999999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44104</c:v>
+                  <c:v>3.9869400000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44134</c:v>
+                  <c:v>4.2014499999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44165</c:v>
+                  <c:v>4.27712</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44196</c:v>
+                  <c:v>4.7245600000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44225</c:v>
+                  <c:v>4.9833500000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44253</c:v>
+                  <c:v>4.7232599999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44286</c:v>
+                  <c:v>4.4379900000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44316</c:v>
+                  <c:v>4.7860299999999993</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44347</c:v>
+                  <c:v>4.9806599999999994</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44377</c:v>
+                  <c:v>5.1114799999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44407</c:v>
+                  <c:v>4.9776999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44439</c:v>
+                  <c:v>4.7613100000000008</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44469</c:v>
+                  <c:v>4.7106400000000006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44498</c:v>
+                  <c:v>4.8678999999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44530</c:v>
+                  <c:v>4.9547099609374996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44561</c:v>
+                  <c:v>4.8630097656249998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44589</c:v>
+                  <c:v>4.3440297851562502</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44620</c:v>
+                  <c:v>4.3355400390624999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44651</c:v>
+                  <c:v>3.8658500976562502</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44680</c:v>
+                  <c:v>3.5012099609375</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44712</c:v>
+                  <c:v>3.6361599121093748</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44742</c:v>
+                  <c:v>4.1096201171875002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44771</c:v>
+                  <c:v>3.8724699707031252</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44804</c:v>
+                  <c:v>3.7022099609375001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44834</c:v>
+                  <c:v>3.3477299804687499</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44865</c:v>
+                  <c:v>3.2993999023437501</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44895</c:v>
+                  <c:v>3.4802900390625</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>44925</c:v>
+                  <c:v>3.4735300292968749</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>44957</c:v>
+                  <c:v>3.8110336914062501</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>44985</c:v>
+                  <c:v>3.6777292480468748</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>45016</c:v>
+                  <c:v>3.7161979980468751</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>45044</c:v>
+                  <c:v>3.6159379882812499</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>45077</c:v>
+                  <c:v>3.4505849609374999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>45107</c:v>
+                  <c:v>3.608843017578125</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>45138</c:v>
+                  <c:v>3.608843017578125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2675,130 +2591,130 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>2000.0000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3783.4996370436897</c:v>
+                  <c:v>-216.50036295631025</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6143.6117008713063</c:v>
+                  <c:v>143.61170087130631</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8173.7580810682693</c:v>
+                  <c:v>173.75808106826935</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11353.811149064422</c:v>
+                  <c:v>1353.8111490644224</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14968.552321848347</c:v>
+                  <c:v>2968.5523218483468</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16822.477397497114</c:v>
+                  <c:v>2822.477397497114</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18240.153038857396</c:v>
+                  <c:v>2240.1530388573956</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21221.531045139225</c:v>
+                  <c:v>3221.5310451392252</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23603.74034292587</c:v>
+                  <c:v>3603.7403429258702</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28072.985437531297</c:v>
+                  <c:v>6072.9854375312971</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31610.696441599135</c:v>
+                  <c:v>7610.6964415991351</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>31960.877336479982</c:v>
+                  <c:v>5960.8773364799818</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>32030.541196234128</c:v>
+                  <c:v>4030.5411962341277</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>36542.468793623324</c:v>
+                  <c:v>6542.468793623324</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40028.514786085325</c:v>
+                  <c:v>8028.5147860853249</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43079.887556825692</c:v>
+                  <c:v>9079.8875568256917</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43952.380972166822</c:v>
+                  <c:v>7952.3809721668222</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44041.688138414858</c:v>
+                  <c:v>6041.6881384148583</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45572.995207693384</c:v>
+                  <c:v>5572.9952076933841</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>49094.404023982002</c:v>
+                  <c:v>7094.4040239820024</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>51969.911593071687</c:v>
+                  <c:v>7969.9115930716871</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>53008.069006718506</c:v>
+                  <c:v>7008.069006718506</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>49351.052479165373</c:v>
+                  <c:v>1351.0524791653734</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>51254.60334650999</c:v>
+                  <c:v>1254.6033465099899</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>47701.945217252243</c:v>
+                  <c:v>-4298.0547827477567</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>45202.535414395512</c:v>
+                  <c:v>-8797.4645856044881</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>48944.813088421164</c:v>
+                  <c:v>-7055.1869115788359</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>57317.86097478633</c:v>
+                  <c:v>-682.13902521366981</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>56010.270798873862</c:v>
+                  <c:v>-3989.7292011261379</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>55547.679913640975</c:v>
+                  <c:v>-6452.3200863590246</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>52229.088937270295</c:v>
+                  <c:v>-11770.911062729705</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>53475.074735568647</c:v>
+                  <c:v>-12524.925264431353</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>58406.85441256113</c:v>
+                  <c:v>-9593.1455874388703</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>60293.406710853284</c:v>
+                  <c:v>-9706.5932891467164</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>68151.7828856181</c:v>
+                  <c:v>-3848.2171143818996</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>67767.93214664339</c:v>
+                  <c:v>-6232.0678533566097</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>70476.779226985323</c:v>
+                  <c:v>-5523.2207730146765</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>70575.372849483087</c:v>
+                  <c:v>-7424.6271505169134</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>69348.035546023719</c:v>
+                  <c:v>-10651.964453976281</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>74528.622449867675</c:v>
+                  <c:v>-7471.3775501323253</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>76528.622449867675</c:v>
+                  <c:v>-7471.3775501323253</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2840,133 +2756,133 @@
             <c:numRef>
               <c:f>model1!时间</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>43889</c:v>
+                  <c:v>3.25108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43921</c:v>
+                  <c:v>2.8991500000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43951</c:v>
+                  <c:v>3.17509</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43980</c:v>
+                  <c:v>3.1906699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44012</c:v>
+                  <c:v>3.6513100000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44043</c:v>
+                  <c:v>4.1706000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44074</c:v>
+                  <c:v>4.1298999999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44104</c:v>
+                  <c:v>3.9869400000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44134</c:v>
+                  <c:v>4.2014499999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44165</c:v>
+                  <c:v>4.27712</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44196</c:v>
+                  <c:v>4.7245600000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44225</c:v>
+                  <c:v>4.9833500000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44253</c:v>
+                  <c:v>4.7232599999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44286</c:v>
+                  <c:v>4.4379900000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44316</c:v>
+                  <c:v>4.7860299999999993</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44347</c:v>
+                  <c:v>4.9806599999999994</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44377</c:v>
+                  <c:v>5.1114799999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44407</c:v>
+                  <c:v>4.9776999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44439</c:v>
+                  <c:v>4.7613100000000008</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44469</c:v>
+                  <c:v>4.7106400000000006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44498</c:v>
+                  <c:v>4.8678999999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44530</c:v>
+                  <c:v>4.9547099609374996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44561</c:v>
+                  <c:v>4.8630097656249998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44589</c:v>
+                  <c:v>4.3440297851562502</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44620</c:v>
+                  <c:v>4.3355400390624999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44651</c:v>
+                  <c:v>3.8658500976562502</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44680</c:v>
+                  <c:v>3.5012099609375</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44712</c:v>
+                  <c:v>3.6361599121093748</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44742</c:v>
+                  <c:v>4.1096201171875002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44771</c:v>
+                  <c:v>3.8724699707031252</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44804</c:v>
+                  <c:v>3.7022099609375001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44834</c:v>
+                  <c:v>3.3477299804687499</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44865</c:v>
+                  <c:v>3.2993999023437501</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44895</c:v>
+                  <c:v>3.4802900390625</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>44925</c:v>
+                  <c:v>3.4735300292968749</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>44957</c:v>
+                  <c:v>3.8110336914062501</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>44985</c:v>
+                  <c:v>3.6777292480468748</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>45016</c:v>
+                  <c:v>3.7161979980468751</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>45044</c:v>
+                  <c:v>3.6159379882812499</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>45077</c:v>
+                  <c:v>3.4505849609374999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>45107</c:v>
+                  <c:v>3.608843017578125</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>45138</c:v>
+                  <c:v>3.608843017578125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2975,134 +2891,8 @@
             <c:numRef>
               <c:f>model1!金额</c:f>
               <c:numCache>
-                <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-216.50036295631025</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>143.61170087130631</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>173.75808106826935</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1353.8111490644224</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2968.5523218483468</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2822.477397497114</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2240.1530388573956</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3221.5310451392252</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3603.7403429258702</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6072.9854375312971</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7610.6964415991351</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5960.8773364799818</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4030.5411962341277</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6542.468793623324</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8028.5147860853249</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9079.8875568256917</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7952.3809721668222</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6041.6881384148583</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5572.9952076933841</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7094.4040239820024</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7969.9115930716871</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7008.069006718506</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1351.0524791653734</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1254.6033465099899</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-4298.0547827477567</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-8797.4645856044881</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-7055.1869115788359</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-682.13902521366981</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-3989.7292011261379</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-6452.3200863590246</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-11770.911062729705</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-12524.925264431353</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-9593.1455874388703</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-9706.5932891467164</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-3848.2171143818996</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-6232.0678533566097</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-5523.2207730146765</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-7424.6271505169134</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-10651.964453976281</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-7471.3775501323253</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-7471.3775501323253</c:v>
-                </c:pt>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3123,17 +2913,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="445552128"/>
-        <c:axId val="445553664"/>
+        <c:axId val="173721088"/>
+        <c:axId val="173722624"/>
       </c:lineChart>
-      <c:dateAx>
-        <c:axId val="445552128"/>
+      <c:catAx>
+        <c:axId val="173721088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -3170,14 +2960,15 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="445553664"/>
+        <c:crossAx val="173722624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="445553664"/>
+        <c:axId val="173722624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3228,7 +3019,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="445552128"/>
+        <c:crossAx val="173721088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3636,12 +3427,12 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -3662,7 +3453,7 @@
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="10" customFormat="1" ht="27" customHeight="1">
+    <row r="1" spans="1:25" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>180</v>
       </c>
@@ -3692,7 +3483,7 @@
       </c>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:25" ht="14.1" customHeight="1">
+    <row r="2" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="4">
@@ -3708,7 +3499,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:25" ht="14.1" customHeight="1">
+    <row r="3" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>43889</v>
       </c>
@@ -3779,7 +3570,7 @@
         <v>-22000</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="14.1" customHeight="1">
+    <row r="4" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>43921</v>
       </c>
@@ -3850,7 +3641,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="14.1" customHeight="1">
+    <row r="5" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>43951</v>
       </c>
@@ -3917,7 +3708,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="14.1" customHeight="1">
+    <row r="6" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>43980</v>
       </c>
@@ -3977,7 +3768,7 @@
         <v>60293.406710853284</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="14.1" customHeight="1">
+    <row r="7" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>44012</v>
       </c>
@@ -4010,7 +3801,7 @@
         <v>-7.3828223896210132E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="14.1" customHeight="1">
+    <row r="8" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>44043</v>
       </c>
@@ -4040,7 +3831,7 @@
       </c>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:25" ht="14.1" customHeight="1">
+    <row r="9" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>44074</v>
       </c>
@@ -4070,7 +3861,7 @@
       </c>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:25" ht="14.1" customHeight="1">
+    <row r="10" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>44104</v>
       </c>
@@ -4100,7 +3891,7 @@
       </c>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:25" ht="14.1" customHeight="1">
+    <row r="11" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>44134</v>
       </c>
@@ -4130,7 +3921,7 @@
       </c>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:25" ht="14.1" customHeight="1">
+    <row r="12" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>44165</v>
       </c>
@@ -4160,7 +3951,7 @@
       </c>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:25" ht="14.1" customHeight="1">
+    <row r="13" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>44196</v>
       </c>
@@ -4190,7 +3981,7 @@
       </c>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:25" ht="14.1" customHeight="1">
+    <row r="14" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>44225</v>
       </c>
@@ -4220,7 +4011,7 @@
       </c>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:25" ht="14.1" customHeight="1">
+    <row r="15" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>44253</v>
       </c>
@@ -4250,7 +4041,7 @@
       </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:25" ht="14.1" customHeight="1">
+    <row r="16" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>44286</v>
       </c>
@@ -4280,7 +4071,7 @@
       </c>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:12" ht="14.1" customHeight="1">
+    <row r="17" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
         <v>44316</v>
       </c>
@@ -4310,7 +4101,7 @@
       </c>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:12" ht="14.1" customHeight="1">
+    <row r="18" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
         <v>44347</v>
       </c>
@@ -4340,7 +4131,7 @@
       </c>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:12" ht="14.1" customHeight="1">
+    <row r="19" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
         <v>44377</v>
       </c>
@@ -4370,7 +4161,7 @@
       </c>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:12" ht="14.1" customHeight="1">
+    <row r="20" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14">
         <v>44407</v>
       </c>
@@ -4400,7 +4191,7 @@
       </c>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:12" ht="14.1" customHeight="1">
+    <row r="21" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14">
         <v>44439</v>
       </c>
@@ -4431,7 +4222,7 @@
       <c r="J21" s="6"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" ht="14.1" customHeight="1">
+    <row r="22" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14">
         <v>44469</v>
       </c>
@@ -4461,7 +4252,7 @@
       </c>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:12" ht="14.1" customHeight="1">
+    <row r="23" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14">
         <v>44498</v>
       </c>
@@ -4491,7 +4282,7 @@
       </c>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:12" ht="14.1" customHeight="1">
+    <row r="24" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14">
         <v>44530</v>
       </c>
@@ -4521,7 +4312,7 @@
       </c>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:12" ht="14.1" customHeight="1">
+    <row r="25" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14">
         <v>44561</v>
       </c>
@@ -4551,7 +4342,7 @@
       </c>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="1:12" ht="14.1" customHeight="1">
+    <row r="26" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14">
         <v>44589</v>
       </c>
@@ -4581,7 +4372,7 @@
       </c>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="1:12" ht="14.1" customHeight="1">
+    <row r="27" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14">
         <v>44620</v>
       </c>
@@ -4611,7 +4402,7 @@
       </c>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:12" ht="14.1" customHeight="1">
+    <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14">
         <v>44651</v>
       </c>
@@ -4641,7 +4432,7 @@
       </c>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:12" ht="14.1" customHeight="1">
+    <row r="29" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14">
         <v>44680</v>
       </c>
@@ -4671,7 +4462,7 @@
       </c>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:12" ht="14.1" customHeight="1">
+    <row r="30" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14">
         <v>44712</v>
       </c>
@@ -4701,7 +4492,7 @@
       </c>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:12" ht="14.1" customHeight="1">
+    <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14">
         <v>44742</v>
       </c>
@@ -4731,7 +4522,7 @@
       </c>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:12" ht="14.1" customHeight="1">
+    <row r="32" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14">
         <v>44771</v>
       </c>
@@ -4761,7 +4552,7 @@
       </c>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:12" ht="14.1" customHeight="1">
+    <row r="33" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14">
         <v>44804</v>
       </c>
@@ -4792,7 +4583,7 @@
       <c r="J33" s="6"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="1:12" ht="12.75">
+    <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="14">
         <v>44834</v>
       </c>
@@ -4821,7 +4612,7 @@
         <v>-11770.911062729705</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="12.75">
+    <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="14">
         <v>44865</v>
       </c>
@@ -4850,7 +4641,7 @@
         <v>-12524.925264431353</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="12.75">
+    <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="14">
         <v>44895</v>
       </c>
@@ -4879,7 +4670,7 @@
         <v>-9593.1455874388703</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="12.75">
+    <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="14">
         <v>44925</v>
       </c>
@@ -4908,7 +4699,7 @@
         <v>-9706.5932891467164</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="12.75">
+    <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="14">
         <v>44957</v>
       </c>
@@ -4937,7 +4728,7 @@
         <v>-3848.2171143818996</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="12.75">
+    <row r="39" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="14">
         <v>44985</v>
       </c>
@@ -4966,7 +4757,7 @@
         <v>-6232.0678533566097</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="12.75">
+    <row r="40" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="14">
         <v>45016</v>
       </c>
@@ -4995,7 +4786,7 @@
         <v>-5523.2207730146765</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="12.75">
+    <row r="41" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="14">
         <v>45044</v>
       </c>
@@ -5024,7 +4815,7 @@
         <v>-7424.6271505169134</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="12.75">
+    <row r="42" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="14">
         <v>45077</v>
       </c>
@@ -5053,7 +4844,7 @@
         <v>-10651.964453976281</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="12.75">
+    <row r="43" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="14">
         <v>45107</v>
       </c>
@@ -5082,7 +4873,7 @@
         <v>-7471.3775501323253</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="12.75">
+    <row r="44" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="14">
         <v>45138</v>
       </c>
@@ -5124,13 +4915,13 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D588"/>
+  <dimension ref="A1:D566"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="18"/>
     <col min="2" max="2" width="8.5" style="18" customWidth="1"/>
@@ -5138,7 +4929,7 @@
     <col min="4" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="30" t="s">
         <v>194</v>
       </c>
@@ -5146,7 +4937,7 @@
         <v>399088</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="12.75" customHeight="1">
+    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="30"/>
       <c r="C2" s="28" t="s">
         <v>0</v>
@@ -5155,7 +4946,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="12.75" customHeight="1">
+    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -5170,7 +4961,7 @@
   